--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -45,6 +45,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 增加属性
+2 减少词条上限</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -64,10 +87,10 @@
     <t>RewardType</t>
   </si>
   <si>
-    <t>AttrIdList</t>
+    <t>AttrId</t>
   </si>
   <si>
-    <t>AttrValueist</t>
+    <t>AttrValue</t>
   </si>
   <si>
     <t>Memo</t>
@@ -1054,7 +1077,7 @@
   <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1150,6 +1173,9 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -1157,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:6">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1165,6 +1191,9 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1178,6 +1207,9 @@
       <c r="E8" s="1">
         <v>50</v>
       </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1">
         <v>2</v>
       </c>
@@ -1195,6 +1227,9 @@
       <c r="E9" s="1">
         <v>100</v>
       </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1">
         <v>401</v>
       </c>
@@ -1202,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:6">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1212,8 +1247,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:6">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1221,6 +1259,9 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1234,6 +1275,9 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1">
         <v>2001</v>
       </c>
@@ -1241,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:6">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1249,6 +1293,9 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1262,6 +1309,9 @@
       <c r="E14" s="1">
         <v>1000</v>
       </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <v>2002</v>
       </c>
@@ -1279,6 +1329,9 @@
       <c r="E15" s="1">
         <v>2000</v>
       </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1">
         <v>2003</v>
       </c>
@@ -1295,6 +1348,9 @@
       </c>
       <c r="E16" s="1">
         <v>5000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>3003</v>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -37,11 +37,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 闯关层数
-2 穿戴装备
-3 强化装备
-4 挑战副本
-5 设置回收</t>
+1 广告次数
+2 真实广告次数
+3 强化等级
+4 精练等级
+5 人物等级</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,8 @@
           </rPr>
           <t xml:space="preserve">
 1 增加属性
-2 减少词条上限</t>
+2 减少词条上限
+3 回收精炼石增加</t>
         </r>
       </text>
     </comment>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>_id</t>
   </si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Reduce Suit Max</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J16"/>
+  <dimension ref="C3:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1087,7 +1091,7 @@
     <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1165,53 +1169,62 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <f t="shared" ref="E6:E69" si="0">(C6-1000)*12</f>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:8">
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1219,144 +1232,2967 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>401</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:8">
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:6">
+      <c r="G10" s="1">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="1">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="1">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="1">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>2002</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>2003</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>27</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="1">
+        <v>1031</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>28</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="1">
+        <v>1035</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="1">
+        <v>1041</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="1">
+        <v>1043</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="0"/>
+        <v>516</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="1">
+        <v>1044</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>26</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="1">
+        <v>1045</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>27</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="1">
+        <v>1046</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>28</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="1">
+        <v>1051</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="1">
+        <v>1052</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>15</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>16</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="1">
+        <v>1057</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>26</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="1">
+        <v>1058</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="0"/>
+        <v>696</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="1">
+        <v>1059</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="0"/>
+        <v>708</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>28</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="1">
+        <v>1061</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>9</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="0"/>
+        <v>744</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="1">
+        <v>1063</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="0"/>
+        <v>756</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="1">
+        <v>1064</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="1">
+        <v>1065</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <f>(C70-1000)*12</f>
+        <v>780</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>13</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="1">
+        <v>1066</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <f>(C71-1000)*12</f>
+        <v>792</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>7</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" ref="E77:E115" si="1">(C77-2000)*12</f>
+        <v>12</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>15</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>16</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>26</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>27</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>28</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
+      <c r="C86" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
+      <c r="C87" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
+      <c r="C88" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
+      <c r="C89" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>7</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
+      <c r="C90" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
+      <c r="C91" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>15</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>16</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>26</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>27</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>28</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>9</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
+      <c r="C99" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>11</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8">
+      <c r="C100" s="1">
+        <v>2024</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>12</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8">
+      <c r="C101" s="1">
+        <v>2025</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>13</v>
+      </c>
+      <c r="H101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8">
+      <c r="C102" s="1">
+        <v>2026</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>7</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
+      <c r="C103" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>14</v>
+      </c>
+      <c r="H103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
+      <c r="C104" s="1">
+        <v>2028</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>15</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
+      <c r="C105" s="1">
+        <v>2029</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>16</v>
+      </c>
+      <c r="H105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
+      <c r="C106" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D106" s="1">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>26</v>
+      </c>
+      <c r="H106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
+      <c r="C107" s="1">
+        <v>2031</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>27</v>
+      </c>
+      <c r="H107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
+      <c r="C108" s="1">
+        <v>2032</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>28</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
+      <c r="C109" s="1">
+        <v>2033</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
+      <c r="C110" s="1">
+        <v>2034</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>9</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8">
+      <c r="C111" s="1">
+        <v>2035</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8">
+      <c r="C112" s="1">
+        <v>2036</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>11</v>
+      </c>
+      <c r="H112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8">
+      <c r="C113" s="1">
+        <v>2037</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>12</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8">
+      <c r="C114" s="1">
+        <v>2038</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>13</v>
+      </c>
+      <c r="H114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8">
+      <c r="C115" s="1">
+        <v>2039</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>7</v>
+      </c>
+      <c r="H115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8">
+      <c r="C119" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>20</v>
+      </c>
+      <c r="H119" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8">
+      <c r="C120" s="1">
+        <v>3002</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1">
         <v>5000</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>20</v>
+      </c>
+      <c r="H120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8">
+      <c r="C121" s="1">
         <v>3003</v>
       </c>
-      <c r="H16" s="1">
-        <v>3</v>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>20</v>
+      </c>
+      <c r="H121" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8">
+      <c r="C122" s="1">
+        <v>3004</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>20</v>
+      </c>
+      <c r="H122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8">
+      <c r="C123" s="1">
+        <v>3005</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>20</v>
+      </c>
+      <c r="H123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8">
+      <c r="C124" s="1">
+        <v>3006</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>20</v>
+      </c>
+      <c r="H124" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8">
+      <c r="C125" s="1">
+        <v>3007</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>20</v>
+      </c>
+      <c r="H125" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8">
+      <c r="C126" s="1">
+        <v>3008</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>20</v>
+      </c>
+      <c r="H126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8">
+      <c r="C127" s="1">
+        <v>3009</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>20</v>
+      </c>
+      <c r="H127" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8">
+      <c r="C128" s="1">
+        <v>3010</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1">
+        <v>700000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>20</v>
+      </c>
+      <c r="H128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8">
+      <c r="C131" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8">
+      <c r="C132" s="1">
+        <v>4002</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8">
+      <c r="C133" s="1">
+        <v>4003</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
+      <c r="C134" s="1">
+        <v>4004</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8">
+      <c r="C135" s="1">
+        <v>4005</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>3</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8">
+      <c r="C136" s="1">
+        <v>4006</v>
+      </c>
+      <c r="D136" s="1">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8">
+      <c r="C137" s="1">
+        <v>4007</v>
+      </c>
+      <c r="D137" s="1">
+        <v>4</v>
+      </c>
+      <c r="E137" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8">
+      <c r="C138" s="1">
+        <v>4008</v>
+      </c>
+      <c r="D138" s="1">
+        <v>4</v>
+      </c>
+      <c r="E138" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8">
+      <c r="C139" s="1">
+        <v>4009</v>
+      </c>
+      <c r="D139" s="1">
+        <v>4</v>
+      </c>
+      <c r="E139" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>3</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8">
+      <c r="C140" s="1">
+        <v>4010</v>
+      </c>
+      <c r="D140" s="1">
+        <v>4</v>
+      </c>
+      <c r="E140" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8">
+      <c r="C142" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" ref="E142:E161" si="2">(C142-5000)*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1">
+        <v>18</v>
+      </c>
+      <c r="H142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8">
+      <c r="C143" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D143" s="1">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
+        <v>18</v>
+      </c>
+      <c r="H143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8">
+      <c r="C144" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>18</v>
+      </c>
+      <c r="H144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8">
+      <c r="C145" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D145" s="1">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>18</v>
+      </c>
+      <c r="H145" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8">
+      <c r="C146" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>18</v>
+      </c>
+      <c r="H146" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8">
+      <c r="C147" s="1">
+        <v>5006</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>18</v>
+      </c>
+      <c r="H147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8">
+      <c r="C148" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D148" s="1">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>18</v>
+      </c>
+      <c r="H148" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8">
+      <c r="C149" s="1">
+        <v>5008</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
+        <v>18</v>
+      </c>
+      <c r="H149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8">
+      <c r="C150" s="1">
+        <v>5009</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>18</v>
+      </c>
+      <c r="H150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8">
+      <c r="C151" s="1">
+        <v>5010</v>
+      </c>
+      <c r="D151" s="1">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
+        <v>18</v>
+      </c>
+      <c r="H151" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
+      <c r="C152" s="1">
+        <v>5011</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1">
+        <v>18</v>
+      </c>
+      <c r="H152" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8">
+      <c r="C153" s="1">
+        <v>5012</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1">
+        <v>18</v>
+      </c>
+      <c r="H153" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8">
+      <c r="C154" s="1">
+        <v>5013</v>
+      </c>
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1">
+        <v>18</v>
+      </c>
+      <c r="H154" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8">
+      <c r="C155" s="1">
+        <v>5014</v>
+      </c>
+      <c r="D155" s="1">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>18</v>
+      </c>
+      <c r="H155" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8">
+      <c r="C156" s="1">
+        <v>5015</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>18</v>
+      </c>
+      <c r="H156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8">
+      <c r="C157" s="1">
+        <v>5016</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1">
+        <v>18</v>
+      </c>
+      <c r="H157" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8">
+      <c r="C158" s="1">
+        <v>5017</v>
+      </c>
+      <c r="D158" s="1">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" s="1">
+        <v>18</v>
+      </c>
+      <c r="H158" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8">
+      <c r="C159" s="1">
+        <v>5018</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1">
+        <v>18</v>
+      </c>
+      <c r="H159" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8">
+      <c r="C160" s="1">
+        <v>5019</v>
+      </c>
+      <c r="D160" s="1">
+        <v>5</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1">
+        <v>18</v>
+      </c>
+      <c r="H160" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8">
+      <c r="C161" s="1">
+        <v>5020</v>
+      </c>
+      <c r="D161" s="1">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1">
+        <v>18</v>
+      </c>
+      <c r="H161" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="192">
   <si>
     <t>#</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>支持23</t>
+  </si>
+  <si>
+    <t>套装-1</t>
   </si>
   <si>
     <t>支持24</t>
@@ -1642,8 +1645,8 @@
   <sheetPr/>
   <dimension ref="C2:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2303,31 +2306,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="3:10">
-      <c r="C25" s="5">
+    <row r="25" spans="3:11">
+      <c r="C25" s="6">
         <v>1020</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>14</v>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>15</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="3:11">
@@ -2390,34 +2396,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="6">
+    <row r="28" s="5" customFormat="1" spans="3:11">
+      <c r="C28" s="5">
         <v>1023</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>18</v>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="3:11">
@@ -2425,7 +2431,7 @@
         <v>1024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2455,7 +2461,7 @@
         <v>1025</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -2485,7 +2491,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -2510,31 +2516,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="3:10">
-      <c r="C32" s="2">
+    <row r="32" s="4" customFormat="1" spans="3:11">
+      <c r="C32" s="4">
         <v>1027</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>14</v>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -2542,7 +2551,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -2572,7 +2581,7 @@
         <v>1029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2602,7 +2611,7 @@
         <v>1030</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -2632,7 +2641,7 @@
         <v>1031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -2662,7 +2671,7 @@
         <v>1032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -2692,7 +2701,7 @@
         <v>1033</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -2722,7 +2731,7 @@
         <v>1034</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -2752,7 +2761,7 @@
         <v>1035</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -2782,7 +2791,7 @@
         <v>1036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
@@ -2812,7 +2821,7 @@
         <v>1037</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -2842,7 +2851,7 @@
         <v>1038</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -2864,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="3:11">
@@ -2872,7 +2881,7 @@
         <v>1039</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -2902,7 +2911,7 @@
         <v>1040</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -2932,7 +2941,7 @@
         <v>1041</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -2962,7 +2971,7 @@
         <v>1042</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -2992,7 +3001,7 @@
         <v>1043</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3022,7 +3031,7 @@
         <v>1044</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3052,7 +3061,7 @@
         <v>1045</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -3082,7 +3091,7 @@
         <v>1046</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -3112,7 +3121,7 @@
         <v>1047</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -3134,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" spans="3:11">
@@ -3142,7 +3151,7 @@
         <v>1048</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -3172,7 +3181,7 @@
         <v>1049</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -3197,34 +3206,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" s="2" customFormat="1" spans="3:10">
       <c r="C55" s="6">
         <v>1050</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6">
-        <v>15</v>
-      </c>
-      <c r="I55" s="6">
-        <v>5</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>18</v>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="3:11">
@@ -3232,7 +3238,7 @@
         <v>1051</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3262,7 +3268,7 @@
         <v>1052</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
@@ -3292,7 +3298,7 @@
         <v>1053</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -3322,7 +3328,7 @@
         <v>1054</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -3352,7 +3358,7 @@
         <v>1055</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -3382,7 +3388,7 @@
         <v>1056</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
@@ -3404,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" s="3" customFormat="1" spans="3:11">
@@ -3412,7 +3418,7 @@
         <v>1057</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -3442,7 +3448,7 @@
         <v>1058</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -3472,7 +3478,7 @@
         <v>1059</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -3502,7 +3508,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
@@ -3532,7 +3538,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -3562,7 +3568,7 @@
         <v>1062</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -3592,7 +3598,7 @@
         <v>1063</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E68" s="6">
         <v>1</v>
@@ -3622,7 +3628,7 @@
         <v>1064</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
@@ -3652,7 +3658,7 @@
         <v>1065</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
@@ -3674,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" s="3" customFormat="1" spans="3:11">
@@ -3682,7 +3688,7 @@
         <v>1066</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -3712,7 +3718,7 @@
         <v>2001</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3731,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>15</v>
@@ -3742,7 +3748,7 @@
         <v>2002</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
@@ -3761,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>18</v>
@@ -3772,7 +3778,7 @@
         <v>2003</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E79" s="6">
         <v>2</v>
@@ -3791,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>20</v>
@@ -3802,7 +3808,7 @@
         <v>2004</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
@@ -3821,10 +3827,10 @@
         <v>3</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="3:11">
@@ -3832,7 +3838,7 @@
         <v>2005</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
@@ -3851,10 +3857,10 @@
         <v>3</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="3:11">
@@ -3862,7 +3868,7 @@
         <v>2006</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
@@ -3881,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="3:11">
@@ -3892,7 +3898,7 @@
         <v>2007</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" s="6">
         <v>2</v>
@@ -3911,10 +3917,10 @@
         <v>3</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="3:11">
@@ -3922,7 +3928,7 @@
         <v>2008</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="6">
         <v>2</v>
@@ -3941,10 +3947,10 @@
         <v>5</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="3:11">
@@ -3952,7 +3958,7 @@
         <v>2009</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E85" s="6">
         <v>2</v>
@@ -3971,10 +3977,10 @@
         <v>5</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1" spans="3:11">
@@ -3982,7 +3988,7 @@
         <v>2010</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
@@ -4001,10 +4007,10 @@
         <v>5</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="3:11">
@@ -4012,7 +4018,7 @@
         <v>2011</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" s="6">
         <v>2</v>
@@ -4031,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>15</v>
@@ -4042,7 +4048,7 @@
         <v>2012</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" s="6">
         <v>2</v>
@@ -4061,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>18</v>
@@ -4072,7 +4078,7 @@
         <v>2013</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E89" s="6">
         <v>2</v>
@@ -4091,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>20</v>
@@ -4102,7 +4108,7 @@
         <v>2014</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E90" s="6">
         <v>2</v>
@@ -4121,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="3:11">
@@ -4132,7 +4138,7 @@
         <v>2015</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E91" s="6">
         <v>2</v>
@@ -4151,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="3:11">
@@ -4162,7 +4168,7 @@
         <v>2016</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
@@ -4181,10 +4187,10 @@
         <v>3</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="3:11">
@@ -4192,7 +4198,7 @@
         <v>2017</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
@@ -4211,10 +4217,10 @@
         <v>3</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="3:11">
@@ -4222,7 +4228,7 @@
         <v>2018</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
@@ -4241,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="3:11">
@@ -4252,7 +4258,7 @@
         <v>2019</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="6">
         <v>2</v>
@@ -4271,10 +4277,10 @@
         <v>5</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1" spans="3:11">
@@ -4282,7 +4288,7 @@
         <v>2020</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
@@ -4301,10 +4307,10 @@
         <v>5</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="3:11">
@@ -4312,7 +4318,7 @@
         <v>2021</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
@@ -4331,7 +4337,7 @@
         <v>3</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>15</v>
@@ -4342,7 +4348,7 @@
         <v>2022</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E98" s="6">
         <v>2</v>
@@ -4361,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>18</v>
@@ -4372,7 +4378,7 @@
         <v>2023</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" s="6">
         <v>2</v>
@@ -4391,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>20</v>
@@ -4402,7 +4408,7 @@
         <v>2024</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="6">
         <v>2</v>
@@ -4421,10 +4427,10 @@
         <v>3</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="3:11">
@@ -4432,7 +4438,7 @@
         <v>2025</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E101" s="6">
         <v>2</v>
@@ -4451,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="3:11">
@@ -4462,7 +4468,7 @@
         <v>2026</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E102" s="6">
         <v>2</v>
@@ -4481,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="3:11">
@@ -4492,7 +4498,7 @@
         <v>2027</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E103" s="6">
         <v>2</v>
@@ -4511,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="3:11">
@@ -4522,7 +4528,7 @@
         <v>2028</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E104" s="6">
         <v>2</v>
@@ -4541,10 +4547,10 @@
         <v>5</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="3:11">
@@ -4552,7 +4558,7 @@
         <v>2029</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E105" s="6">
         <v>2</v>
@@ -4571,10 +4577,10 @@
         <v>5</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" spans="3:11">
@@ -4582,7 +4588,7 @@
         <v>2030</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
@@ -4601,10 +4607,10 @@
         <v>5</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="3:11">
@@ -4612,7 +4618,7 @@
         <v>2031</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" s="6">
         <v>2</v>
@@ -4631,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>15</v>
@@ -4642,7 +4648,7 @@
         <v>2032</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="6">
         <v>2</v>
@@ -4661,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>18</v>
@@ -4672,7 +4678,7 @@
         <v>2033</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E109" s="6">
         <v>2</v>
@@ -4691,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>20</v>
@@ -4702,7 +4708,7 @@
         <v>2034</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E110" s="6">
         <v>2</v>
@@ -4721,10 +4727,10 @@
         <v>3</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="3:11">
@@ -4732,7 +4738,7 @@
         <v>2035</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E111" s="6">
         <v>2</v>
@@ -4751,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="3:11">
@@ -4762,7 +4768,7 @@
         <v>2036</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" s="6">
         <v>2</v>
@@ -4781,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="3:11">
@@ -4792,7 +4798,7 @@
         <v>2037</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E113" s="6">
         <v>2</v>
@@ -4811,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="3:11">
@@ -4822,7 +4828,7 @@
         <v>2038</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E114" s="6">
         <v>2</v>
@@ -4841,10 +4847,10 @@
         <v>5</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="3:11">
@@ -4852,7 +4858,7 @@
         <v>2039</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E115" s="6">
         <v>2</v>
@@ -4871,10 +4877,10 @@
         <v>5</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" spans="3:11">
@@ -4882,7 +4888,7 @@
         <v>2040</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E116" s="3">
         <v>2</v>
@@ -4901,10 +4907,10 @@
         <v>5</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="3:10">
@@ -4912,7 +4918,7 @@
         <v>3001</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -4930,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="3:10">
@@ -4938,7 +4944,7 @@
         <v>3002</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -4956,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="3:10">
@@ -4964,7 +4970,7 @@
         <v>3003</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E121" s="6">
         <v>3</v>
@@ -4982,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="3:10">
@@ -4990,7 +4996,7 @@
         <v>3004</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E122" s="6">
         <v>3</v>
@@ -5008,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="3:10">
@@ -5016,7 +5022,7 @@
         <v>3005</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E123" s="6">
         <v>3</v>
@@ -5034,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="3:10">
@@ -5042,7 +5048,7 @@
         <v>3006</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124" s="6">
         <v>3</v>
@@ -5060,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="3:10">
@@ -5068,7 +5074,7 @@
         <v>3007</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -5086,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="3:10">
@@ -5094,7 +5100,7 @@
         <v>3008</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E126" s="6">
         <v>3</v>
@@ -5112,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="3:10">
@@ -5120,7 +5126,7 @@
         <v>3009</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127" s="6">
         <v>3</v>
@@ -5138,7 +5144,7 @@
         <v>5</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="3:10">
@@ -5146,7 +5152,7 @@
         <v>3010</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128" s="6">
         <v>3</v>
@@ -5164,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="3:10">
@@ -5172,7 +5178,7 @@
         <v>4001</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E131" s="6">
         <v>4</v>
@@ -5190,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="3:10">
@@ -5198,7 +5204,7 @@
         <v>4002</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E132" s="6">
         <v>4</v>
@@ -5216,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="3:10">
@@ -5224,7 +5230,7 @@
         <v>4003</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E133" s="6">
         <v>4</v>
@@ -5242,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="3:10">
@@ -5250,7 +5256,7 @@
         <v>4004</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E134" s="6">
         <v>4</v>
@@ -5268,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="3:10">
@@ -5276,7 +5282,7 @@
         <v>4005</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E135" s="6">
         <v>4</v>
@@ -5294,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="3:10">
@@ -5302,7 +5308,7 @@
         <v>4006</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E136" s="6">
         <v>4</v>
@@ -5320,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="3:10">
@@ -5328,7 +5334,7 @@
         <v>4007</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E137" s="6">
         <v>4</v>
@@ -5346,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="3:10">
@@ -5354,7 +5360,7 @@
         <v>4008</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E138" s="6">
         <v>4</v>
@@ -5372,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="3:10">
@@ -5380,7 +5386,7 @@
         <v>4009</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E139" s="6">
         <v>4</v>
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="3:10">
@@ -5406,7 +5412,7 @@
         <v>4010</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E140" s="6">
         <v>4</v>
@@ -5424,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="3:10">
@@ -5432,7 +5438,7 @@
         <v>5001</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E142" s="6">
         <v>5</v>
@@ -5451,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="3:10">
@@ -5459,7 +5465,7 @@
         <v>5002</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E143" s="6">
         <v>5</v>
@@ -5478,7 +5484,7 @@
         <v>5</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="3:10">
@@ -5486,7 +5492,7 @@
         <v>5003</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E144" s="6">
         <v>5</v>
@@ -5505,7 +5511,7 @@
         <v>5</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="3:10">
@@ -5513,7 +5519,7 @@
         <v>5004</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E145" s="6">
         <v>5</v>
@@ -5532,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="3:10">
@@ -5540,7 +5546,7 @@
         <v>5005</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E146" s="6">
         <v>5</v>
@@ -5559,7 +5565,7 @@
         <v>5</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="3:10">
@@ -5567,7 +5573,7 @@
         <v>5006</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E147" s="6">
         <v>5</v>
@@ -5586,7 +5592,7 @@
         <v>5</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="3:10">
@@ -5594,7 +5600,7 @@
         <v>5007</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E148" s="6">
         <v>5</v>
@@ -5613,7 +5619,7 @@
         <v>5</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="3:10">
@@ -5621,7 +5627,7 @@
         <v>5008</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E149" s="6">
         <v>5</v>
@@ -5640,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="3:10">
@@ -5648,7 +5654,7 @@
         <v>5009</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E150" s="6">
         <v>5</v>
@@ -5667,7 +5673,7 @@
         <v>5</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="3:10">
@@ -5675,7 +5681,7 @@
         <v>5010</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E151" s="6">
         <v>5</v>
@@ -5694,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="3:10">
@@ -5702,7 +5708,7 @@
         <v>5011</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E152" s="6">
         <v>5</v>
@@ -5721,7 +5727,7 @@
         <v>5</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="3:10">
@@ -5729,7 +5735,7 @@
         <v>5012</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E153" s="6">
         <v>5</v>
@@ -5748,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="3:10">
@@ -5756,7 +5762,7 @@
         <v>5013</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E154" s="6">
         <v>5</v>
@@ -5775,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="3:10">
@@ -5783,7 +5789,7 @@
         <v>5014</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E155" s="6">
         <v>5</v>
@@ -5802,7 +5808,7 @@
         <v>5</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="3:10">
@@ -5810,7 +5816,7 @@
         <v>5015</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E156" s="6">
         <v>5</v>
@@ -5829,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="3:10">
@@ -5837,7 +5843,7 @@
         <v>5016</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E157" s="6">
         <v>5</v>
@@ -5856,7 +5862,7 @@
         <v>5</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="3:10">
@@ -5864,7 +5870,7 @@
         <v>5017</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E158" s="6">
         <v>5</v>
@@ -5883,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="3:10">
@@ -5891,7 +5897,7 @@
         <v>5018</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E159" s="6">
         <v>5</v>
@@ -5910,7 +5916,7 @@
         <v>5</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="3:10">
@@ -5918,7 +5924,7 @@
         <v>5019</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E160" s="6">
         <v>5</v>
@@ -5937,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="3:10">
@@ -5945,7 +5951,7 @@
         <v>5020</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E161" s="6">
         <v>5</v>
@@ -5964,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="3:10">
@@ -5972,7 +5978,7 @@
         <v>6001</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E163" s="6">
         <v>6</v>
@@ -5990,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="3:10">
@@ -5998,7 +6004,7 @@
         <v>6002</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E164" s="6">
         <v>6</v>
@@ -6016,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="3:10">
@@ -6024,7 +6030,7 @@
         <v>6003</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E165" s="6">
         <v>6</v>
@@ -6042,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="3:10">
@@ -6050,7 +6056,7 @@
         <v>6004</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E166" s="6">
         <v>6</v>
@@ -6068,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="3:10">
@@ -6076,7 +6082,7 @@
         <v>6005</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E167" s="6">
         <v>6</v>
@@ -6094,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="3:10">
@@ -6102,7 +6108,7 @@
         <v>6006</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E168" s="6">
         <v>6</v>
@@ -6120,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="3:10">
@@ -6128,7 +6134,7 @@
         <v>6007</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E169" s="6">
         <v>6</v>
@@ -6146,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="3:10">
@@ -6154,7 +6160,7 @@
         <v>6008</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E170" s="6">
         <v>6</v>
@@ -6172,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="3:10">
@@ -6180,7 +6186,7 @@
         <v>6009</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E171" s="6">
         <v>6</v>
@@ -6198,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="3:10">
@@ -6206,7 +6212,7 @@
         <v>6010</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E172" s="6">
         <v>6</v>
@@ -6224,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="212">
   <si>
     <t>#</t>
   </si>
@@ -491,6 +491,66 @@
   </si>
   <si>
     <t>发电40</t>
+  </si>
+  <si>
+    <t>发电41</t>
+  </si>
+  <si>
+    <t>发电42</t>
+  </si>
+  <si>
+    <t>发电43</t>
+  </si>
+  <si>
+    <t>发电44</t>
+  </si>
+  <si>
+    <t>发电45</t>
+  </si>
+  <si>
+    <t>发电46</t>
+  </si>
+  <si>
+    <t>发电47</t>
+  </si>
+  <si>
+    <t>发电48</t>
+  </si>
+  <si>
+    <t>发电49</t>
+  </si>
+  <si>
+    <t>发电50</t>
+  </si>
+  <si>
+    <t>发电51</t>
+  </si>
+  <si>
+    <t>发电52</t>
+  </si>
+  <si>
+    <t>发电53</t>
+  </si>
+  <si>
+    <t>发电54</t>
+  </si>
+  <si>
+    <t>发电55</t>
+  </si>
+  <si>
+    <t>发电56</t>
+  </si>
+  <si>
+    <t>发电57</t>
+  </si>
+  <si>
+    <t>发电58</t>
+  </si>
+  <si>
+    <t>发电59</t>
+  </si>
+  <si>
+    <t>发电60</t>
   </si>
   <si>
     <t>强化1</t>
@@ -836,12 +896,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1643,10 +1703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K172"/>
+  <dimension ref="C2:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3724,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" ref="F77:F116" si="1">(C77-2000)*12</f>
+        <f t="shared" ref="F77:F136" si="1">(C77-2000)*12</f>
         <v>12</v>
       </c>
       <c r="G77" s="6">
@@ -4913,96 +4973,169 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="3:10">
+    <row r="117" spans="3:11">
+      <c r="C117" s="6">
+        <v>2041</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="6">
+        <v>2</v>
+      </c>
+      <c r="F117" s="6">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H117" s="6">
+        <v>14</v>
+      </c>
+      <c r="I117" s="6">
+        <v>3</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="C118" s="6">
+        <v>2042</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H118" s="6">
+        <v>15</v>
+      </c>
+      <c r="I118" s="6">
+        <v>3</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
       <c r="C119" s="6">
-        <v>3001</v>
+        <v>2043</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E119" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H119" s="6">
+        <v>16</v>
+      </c>
+      <c r="I119" s="6">
         <v>3</v>
       </c>
-      <c r="F119" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G119" s="6">
-        <v>1</v>
-      </c>
-      <c r="H119" s="6">
+      <c r="J119" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="6">
-        <v>5</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="3:10">
+    </row>
+    <row r="120" spans="3:11">
       <c r="C120" s="6">
-        <v>3002</v>
+        <v>2044</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E120" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="G120" s="6">
+        <v>1</v>
+      </c>
+      <c r="H120" s="6">
+        <v>18</v>
+      </c>
+      <c r="I120" s="6">
         <v>3</v>
       </c>
-      <c r="F120" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G120" s="6">
-        <v>1</v>
-      </c>
-      <c r="H120" s="6">
-        <v>20</v>
-      </c>
-      <c r="I120" s="6">
-        <v>5</v>
-      </c>
       <c r="J120" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="3:10">
+        <v>91</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11">
       <c r="C121" s="6">
-        <v>3003</v>
+        <v>2045</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E121" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1</v>
+      </c>
+      <c r="H121" s="6">
+        <v>19</v>
+      </c>
+      <c r="I121" s="6">
         <v>3</v>
       </c>
-      <c r="F121" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G121" s="6">
-        <v>1</v>
-      </c>
-      <c r="H121" s="6">
-        <v>20</v>
-      </c>
-      <c r="I121" s="6">
-        <v>5</v>
-      </c>
       <c r="J121" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="3:10">
+        <v>91</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11">
       <c r="C122" s="6">
-        <v>3004</v>
+        <v>2046</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E122" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" s="6">
-        <v>20000</v>
+        <f t="shared" si="1"/>
+        <v>552</v>
       </c>
       <c r="G122" s="6">
         <v>1</v>
@@ -5011,1226 +5144,1753 @@
         <v>20</v>
       </c>
       <c r="I122" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10">
+        <v>91</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11">
       <c r="C123" s="6">
-        <v>3005</v>
+        <v>2047</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E123" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="G123" s="6">
+        <v>1</v>
+      </c>
+      <c r="H123" s="6">
+        <v>24</v>
+      </c>
+      <c r="I123" s="6">
         <v>3</v>
       </c>
-      <c r="F123" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G123" s="6">
-        <v>1</v>
-      </c>
-      <c r="H123" s="6">
+      <c r="J123" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11">
+      <c r="C124" s="6">
+        <v>2048</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="6">
+        <v>2</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="G124" s="6">
+        <v>1</v>
+      </c>
+      <c r="H124" s="6">
+        <v>26</v>
+      </c>
+      <c r="I124" s="6">
+        <v>5</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11">
+      <c r="C125" s="6">
+        <v>2049</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="1"/>
+        <v>588</v>
+      </c>
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
+      <c r="H125" s="6">
+        <v>27</v>
+      </c>
+      <c r="I125" s="6">
+        <v>5</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1" spans="3:11">
+      <c r="C126" s="3">
+        <v>2050</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3">
+        <v>28</v>
+      </c>
+      <c r="I126" s="3">
+        <v>5</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11">
+      <c r="C127" s="6">
+        <v>2051</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="6">
+        <v>2</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G127" s="6">
+        <v>1</v>
+      </c>
+      <c r="H127" s="6">
+        <v>14</v>
+      </c>
+      <c r="I127" s="6">
+        <v>3</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11">
+      <c r="C128" s="6">
+        <v>2052</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" s="6">
+        <v>2</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="G128" s="6">
+        <v>1</v>
+      </c>
+      <c r="H128" s="6">
+        <v>15</v>
+      </c>
+      <c r="I128" s="6">
+        <v>3</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11">
+      <c r="C129" s="6">
+        <v>2053</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="6">
+        <v>2</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="1"/>
+        <v>636</v>
+      </c>
+      <c r="G129" s="6">
+        <v>1</v>
+      </c>
+      <c r="H129" s="6">
+        <v>16</v>
+      </c>
+      <c r="I129" s="6">
+        <v>3</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I123" s="6">
-        <v>5</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="3:10">
-      <c r="C124" s="6">
-        <v>3006</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" s="6">
+    </row>
+    <row r="130" spans="3:11">
+      <c r="C130" s="6">
+        <v>2054</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="6">
+        <v>2</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="1"/>
+        <v>648</v>
+      </c>
+      <c r="G130" s="6">
+        <v>1</v>
+      </c>
+      <c r="H130" s="6">
+        <v>18</v>
+      </c>
+      <c r="I130" s="6">
         <v>3</v>
       </c>
-      <c r="F124" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G124" s="6">
-        <v>1</v>
-      </c>
-      <c r="H124" s="6">
+      <c r="J130" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11">
+      <c r="C131" s="6">
+        <v>2055</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="G131" s="6">
+        <v>1</v>
+      </c>
+      <c r="H131" s="6">
+        <v>19</v>
+      </c>
+      <c r="I131" s="6">
+        <v>3</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11">
+      <c r="C132" s="6">
+        <v>2056</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="G132" s="6">
+        <v>1</v>
+      </c>
+      <c r="H132" s="6">
         <v>20</v>
       </c>
-      <c r="I124" s="6">
-        <v>5</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="3:10">
-      <c r="C125" s="6">
-        <v>3007</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E125" s="6">
+      <c r="I132" s="6">
         <v>3</v>
       </c>
-      <c r="F125" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G125" s="6">
-        <v>1</v>
-      </c>
-      <c r="H125" s="6">
-        <v>20</v>
-      </c>
-      <c r="I125" s="6">
-        <v>5</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="3:10">
-      <c r="C126" s="6">
-        <v>3008</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E126" s="6">
+      <c r="J132" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="3:11">
+      <c r="C133" s="6">
+        <v>2057</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="6">
+        <v>2</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="1"/>
+        <v>684</v>
+      </c>
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
+      <c r="H133" s="6">
+        <v>24</v>
+      </c>
+      <c r="I133" s="6">
         <v>3</v>
       </c>
-      <c r="F126" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G126" s="6">
-        <v>1</v>
-      </c>
-      <c r="H126" s="6">
-        <v>20</v>
-      </c>
-      <c r="I126" s="6">
-        <v>5</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="3:10">
-      <c r="C127" s="6">
-        <v>3009</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" s="6">
-        <v>3</v>
-      </c>
-      <c r="F127" s="6">
-        <v>500000</v>
-      </c>
-      <c r="G127" s="6">
-        <v>1</v>
-      </c>
-      <c r="H127" s="6">
-        <v>20</v>
-      </c>
-      <c r="I127" s="6">
-        <v>5</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="3:10">
-      <c r="C128" s="6">
-        <v>3010</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" s="6">
-        <v>3</v>
-      </c>
-      <c r="F128" s="6">
-        <v>700000</v>
-      </c>
-      <c r="G128" s="6">
-        <v>1</v>
-      </c>
-      <c r="H128" s="6">
-        <v>20</v>
-      </c>
-      <c r="I128" s="6">
-        <v>5</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="3:10">
-      <c r="C131" s="6">
-        <v>4001</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="6">
-        <v>4</v>
-      </c>
-      <c r="F131" s="6">
-        <v>100</v>
-      </c>
-      <c r="G131" s="6">
-        <v>3</v>
-      </c>
-      <c r="H131" s="6">
-        <v>0</v>
-      </c>
-      <c r="I131" s="6">
-        <v>1</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="3:10">
-      <c r="C132" s="6">
-        <v>4002</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" s="6">
-        <v>4</v>
-      </c>
-      <c r="F132" s="6">
-        <v>200</v>
-      </c>
-      <c r="G132" s="6">
-        <v>3</v>
-      </c>
-      <c r="H132" s="6">
-        <v>0</v>
-      </c>
-      <c r="I132" s="6">
-        <v>1</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="3:10">
-      <c r="C133" s="6">
-        <v>4003</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E133" s="6">
-        <v>4</v>
-      </c>
-      <c r="F133" s="6">
-        <v>300</v>
-      </c>
-      <c r="G133" s="6">
-        <v>3</v>
-      </c>
-      <c r="H133" s="6">
-        <v>0</v>
-      </c>
-      <c r="I133" s="6">
-        <v>1</v>
-      </c>
       <c r="J133" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="3:10">
+        <v>91</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11">
       <c r="C134" s="6">
-        <v>4004</v>
+        <v>2058</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E134" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134" s="6">
-        <v>400</v>
+        <f t="shared" si="1"/>
+        <v>696</v>
       </c>
       <c r="G134" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" s="6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I134" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="3:10">
+        <v>91</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="3:11">
       <c r="C135" s="6">
-        <v>4005</v>
+        <v>2059</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E135" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F135" s="6">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>708</v>
       </c>
       <c r="G135" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I135" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="3:10">
-      <c r="C136" s="6">
-        <v>4006</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" s="6">
-        <v>4</v>
-      </c>
-      <c r="F136" s="6">
-        <v>700</v>
-      </c>
-      <c r="G136" s="6">
-        <v>3</v>
-      </c>
-      <c r="H136" s="6">
-        <v>0</v>
-      </c>
-      <c r="I136" s="6">
-        <v>1</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="3:10">
-      <c r="C137" s="6">
-        <v>4007</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E137" s="6">
-        <v>4</v>
-      </c>
-      <c r="F137" s="6">
-        <v>900</v>
-      </c>
-      <c r="G137" s="6">
-        <v>3</v>
-      </c>
-      <c r="H137" s="6">
-        <v>0</v>
-      </c>
-      <c r="I137" s="6">
-        <v>1</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="3:10">
-      <c r="C138" s="6">
-        <v>4008</v>
-      </c>
-      <c r="D138" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1" spans="3:11">
+      <c r="C136" s="3">
+        <v>2060</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E138" s="6">
-        <v>4</v>
-      </c>
-      <c r="F138" s="6">
-        <v>1100</v>
-      </c>
-      <c r="G138" s="6">
-        <v>3</v>
-      </c>
-      <c r="H138" s="6">
-        <v>0</v>
-      </c>
-      <c r="I138" s="6">
-        <v>1</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>150</v>
+      <c r="E136" s="3">
+        <v>2</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3">
+        <v>28</v>
+      </c>
+      <c r="I136" s="3">
+        <v>5</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="3:10">
       <c r="C139" s="6">
-        <v>4009</v>
+        <v>3001</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>158</v>
       </c>
       <c r="E139" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" s="6">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G139" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I139" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="3:10">
       <c r="C140" s="6">
-        <v>4010</v>
+        <v>3002</v>
       </c>
       <c r="D140" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E140" s="6">
+        <v>3</v>
+      </c>
+      <c r="F140" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
+      <c r="H140" s="6">
+        <v>20</v>
+      </c>
+      <c r="I140" s="6">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E140" s="6">
-        <v>4</v>
-      </c>
-      <c r="F140" s="6">
-        <v>1500</v>
-      </c>
-      <c r="G140" s="6">
+    </row>
+    <row r="141" spans="3:10">
+      <c r="C141" s="6">
+        <v>3003</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141" s="6">
         <v>3</v>
       </c>
-      <c r="H140" s="6">
-        <v>0</v>
-      </c>
-      <c r="I140" s="6">
-        <v>1</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>150</v>
+      <c r="F141" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
+      <c r="H141" s="6">
+        <v>20</v>
+      </c>
+      <c r="I141" s="6">
+        <v>5</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="3:10">
       <c r="C142" s="6">
-        <v>5001</v>
+        <v>3004</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E142" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ref="F142:F161" si="2">(C142-5000)*1000</f>
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G142" s="6">
         <v>1</v>
       </c>
       <c r="H142" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I142" s="6">
         <v>5</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="3:10">
       <c r="C143" s="6">
+        <v>3005</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="6">
+        <v>3</v>
+      </c>
+      <c r="F143" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6">
+        <v>20</v>
+      </c>
+      <c r="I143" s="6">
+        <v>5</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10">
+      <c r="C144" s="6">
+        <v>3006</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="6">
+        <v>3</v>
+      </c>
+      <c r="F144" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G144" s="6">
+        <v>1</v>
+      </c>
+      <c r="H144" s="6">
+        <v>20</v>
+      </c>
+      <c r="I144" s="6">
+        <v>5</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="3:10">
+      <c r="C145" s="6">
+        <v>3007</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" s="6">
+        <v>3</v>
+      </c>
+      <c r="F145" s="6">
+        <v>200000</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H145" s="6">
+        <v>20</v>
+      </c>
+      <c r="I145" s="6">
+        <v>5</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="3:10">
+      <c r="C146" s="6">
+        <v>3008</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E146" s="6">
+        <v>3</v>
+      </c>
+      <c r="F146" s="6">
+        <v>300000</v>
+      </c>
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
+      <c r="H146" s="6">
+        <v>20</v>
+      </c>
+      <c r="I146" s="6">
+        <v>5</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="3:10">
+      <c r="C147" s="6">
+        <v>3009</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="6">
+        <v>3</v>
+      </c>
+      <c r="F147" s="6">
+        <v>500000</v>
+      </c>
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
+      <c r="H147" s="6">
+        <v>20</v>
+      </c>
+      <c r="I147" s="6">
+        <v>5</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="3:10">
+      <c r="C148" s="6">
+        <v>3010</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="6">
+        <v>3</v>
+      </c>
+      <c r="F148" s="6">
+        <v>700000</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
+      <c r="H148" s="6">
+        <v>20</v>
+      </c>
+      <c r="I148" s="6">
+        <v>5</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10">
+      <c r="C151" s="6">
+        <v>4001</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="6">
+        <v>4</v>
+      </c>
+      <c r="F151" s="6">
+        <v>100</v>
+      </c>
+      <c r="G151" s="6">
+        <v>3</v>
+      </c>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
+      <c r="I151" s="6">
+        <v>1</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="3:10">
+      <c r="C152" s="6">
+        <v>4002</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="6">
+        <v>4</v>
+      </c>
+      <c r="F152" s="6">
+        <v>200</v>
+      </c>
+      <c r="G152" s="6">
+        <v>3</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0</v>
+      </c>
+      <c r="I152" s="6">
+        <v>1</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="C153" s="6">
+        <v>4003</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E153" s="6">
+        <v>4</v>
+      </c>
+      <c r="F153" s="6">
+        <v>300</v>
+      </c>
+      <c r="G153" s="6">
+        <v>3</v>
+      </c>
+      <c r="H153" s="6">
+        <v>0</v>
+      </c>
+      <c r="I153" s="6">
+        <v>1</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="3:10">
+      <c r="C154" s="6">
+        <v>4004</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="6">
+        <v>4</v>
+      </c>
+      <c r="F154" s="6">
+        <v>400</v>
+      </c>
+      <c r="G154" s="6">
+        <v>3</v>
+      </c>
+      <c r="H154" s="6">
+        <v>0</v>
+      </c>
+      <c r="I154" s="6">
+        <v>1</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="C155" s="6">
+        <v>4005</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" s="6">
+        <v>4</v>
+      </c>
+      <c r="F155" s="6">
+        <v>500</v>
+      </c>
+      <c r="G155" s="6">
+        <v>3</v>
+      </c>
+      <c r="H155" s="6">
+        <v>0</v>
+      </c>
+      <c r="I155" s="6">
+        <v>1</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="C156" s="6">
+        <v>4006</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="6">
+        <v>4</v>
+      </c>
+      <c r="F156" s="6">
+        <v>700</v>
+      </c>
+      <c r="G156" s="6">
+        <v>3</v>
+      </c>
+      <c r="H156" s="6">
+        <v>0</v>
+      </c>
+      <c r="I156" s="6">
+        <v>1</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="C157" s="6">
+        <v>4007</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" s="6">
+        <v>4</v>
+      </c>
+      <c r="F157" s="6">
+        <v>900</v>
+      </c>
+      <c r="G157" s="6">
+        <v>3</v>
+      </c>
+      <c r="H157" s="6">
+        <v>0</v>
+      </c>
+      <c r="I157" s="6">
+        <v>1</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="C158" s="6">
+        <v>4008</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="6">
+        <v>4</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G158" s="6">
+        <v>3</v>
+      </c>
+      <c r="H158" s="6">
+        <v>0</v>
+      </c>
+      <c r="I158" s="6">
+        <v>1</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="C159" s="6">
+        <v>4009</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E159" s="6">
+        <v>4</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1300</v>
+      </c>
+      <c r="G159" s="6">
+        <v>3</v>
+      </c>
+      <c r="H159" s="6">
+        <v>0</v>
+      </c>
+      <c r="I159" s="6">
+        <v>1</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10">
+      <c r="C160" s="6">
+        <v>4010</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E160" s="6">
+        <v>4</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3</v>
+      </c>
+      <c r="H160" s="6">
+        <v>0</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="3:10">
+      <c r="C162" s="6">
+        <v>5001</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E162" s="6">
+        <v>5</v>
+      </c>
+      <c r="F162" s="6">
+        <f t="shared" ref="F162:F181" si="2">(C162-5000)*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="G162" s="6">
+        <v>1</v>
+      </c>
+      <c r="H162" s="6">
+        <v>18</v>
+      </c>
+      <c r="I162" s="6">
+        <v>5</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10">
+      <c r="C163" s="6">
         <v>5002</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E143" s="6">
-        <v>5</v>
-      </c>
-      <c r="F143" s="6">
+      <c r="D163" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E163" s="6">
+        <v>5</v>
+      </c>
+      <c r="F163" s="6">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="G143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H143" s="6">
+      <c r="G163" s="6">
+        <v>1</v>
+      </c>
+      <c r="H163" s="6">
         <v>18</v>
       </c>
-      <c r="I143" s="6">
-        <v>5</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="3:10">
-      <c r="C144" s="6">
+      <c r="I163" s="6">
+        <v>5</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10">
+      <c r="C164" s="6">
         <v>5003</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144" s="6">
-        <v>5</v>
-      </c>
-      <c r="F144" s="6">
+      <c r="D164" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E164" s="6">
+        <v>5</v>
+      </c>
+      <c r="F164" s="6">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="G144" s="6">
-        <v>1</v>
-      </c>
-      <c r="H144" s="6">
+      <c r="G164" s="6">
+        <v>1</v>
+      </c>
+      <c r="H164" s="6">
         <v>18</v>
       </c>
-      <c r="I144" s="6">
-        <v>5</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="3:10">
-      <c r="C145" s="6">
+      <c r="I164" s="6">
+        <v>5</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="3:10">
+      <c r="C165" s="6">
         <v>5004</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145" s="6">
-        <v>5</v>
-      </c>
-      <c r="F145" s="6">
+      <c r="D165" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E165" s="6">
+        <v>5</v>
+      </c>
+      <c r="F165" s="6">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="G145" s="6">
-        <v>1</v>
-      </c>
-      <c r="H145" s="6">
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
+      <c r="H165" s="6">
         <v>18</v>
       </c>
-      <c r="I145" s="6">
-        <v>5</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="3:10">
-      <c r="C146" s="6">
+      <c r="I165" s="6">
+        <v>5</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="166" spans="3:10">
+      <c r="C166" s="6">
         <v>5005</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" s="6">
-        <v>5</v>
-      </c>
-      <c r="F146" s="6">
+      <c r="D166" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E166" s="6">
+        <v>5</v>
+      </c>
+      <c r="F166" s="6">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="G146" s="6">
-        <v>1</v>
-      </c>
-      <c r="H146" s="6">
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
+      <c r="H166" s="6">
         <v>18</v>
       </c>
-      <c r="I146" s="6">
-        <v>5</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="3:10">
-      <c r="C147" s="6">
+      <c r="I166" s="6">
+        <v>5</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" spans="3:10">
+      <c r="C167" s="6">
         <v>5006</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E147" s="6">
-        <v>5</v>
-      </c>
-      <c r="F147" s="6">
+      <c r="D167" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E167" s="6">
+        <v>5</v>
+      </c>
+      <c r="F167" s="6">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="G147" s="6">
-        <v>1</v>
-      </c>
-      <c r="H147" s="6">
+      <c r="G167" s="6">
+        <v>1</v>
+      </c>
+      <c r="H167" s="6">
         <v>18</v>
       </c>
-      <c r="I147" s="6">
-        <v>5</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="3:10">
-      <c r="C148" s="6">
+      <c r="I167" s="6">
+        <v>5</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="3:10">
+      <c r="C168" s="6">
         <v>5007</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E148" s="6">
-        <v>5</v>
-      </c>
-      <c r="F148" s="6">
+      <c r="D168" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E168" s="6">
+        <v>5</v>
+      </c>
+      <c r="F168" s="6">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="G148" s="6">
-        <v>1</v>
-      </c>
-      <c r="H148" s="6">
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
+      <c r="H168" s="6">
         <v>18</v>
       </c>
-      <c r="I148" s="6">
-        <v>5</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="3:10">
-      <c r="C149" s="6">
+      <c r="I168" s="6">
+        <v>5</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="3:10">
+      <c r="C169" s="6">
         <v>5008</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" s="6">
-        <v>5</v>
-      </c>
-      <c r="F149" s="6">
+      <c r="D169" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E169" s="6">
+        <v>5</v>
+      </c>
+      <c r="F169" s="6">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="G149" s="6">
-        <v>1</v>
-      </c>
-      <c r="H149" s="6">
+      <c r="G169" s="6">
+        <v>1</v>
+      </c>
+      <c r="H169" s="6">
         <v>18</v>
       </c>
-      <c r="I149" s="6">
-        <v>5</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="3:10">
-      <c r="C150" s="6">
+      <c r="I169" s="6">
+        <v>5</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="3:10">
+      <c r="C170" s="6">
         <v>5009</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150" s="6">
-        <v>5</v>
-      </c>
-      <c r="F150" s="6">
+      <c r="D170" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E170" s="6">
+        <v>5</v>
+      </c>
+      <c r="F170" s="6">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="G150" s="6">
-        <v>1</v>
-      </c>
-      <c r="H150" s="6">
+      <c r="G170" s="6">
+        <v>1</v>
+      </c>
+      <c r="H170" s="6">
         <v>18</v>
       </c>
-      <c r="I150" s="6">
-        <v>5</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="3:10">
-      <c r="C151" s="6">
+      <c r="I170" s="6">
+        <v>5</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="3:10">
+      <c r="C171" s="6">
         <v>5010</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E151" s="6">
-        <v>5</v>
-      </c>
-      <c r="F151" s="6">
+      <c r="D171" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E171" s="6">
+        <v>5</v>
+      </c>
+      <c r="F171" s="6">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G151" s="6">
-        <v>1</v>
-      </c>
-      <c r="H151" s="6">
+      <c r="G171" s="6">
+        <v>1</v>
+      </c>
+      <c r="H171" s="6">
         <v>18</v>
       </c>
-      <c r="I151" s="6">
-        <v>5</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="3:10">
-      <c r="C152" s="6">
+      <c r="I171" s="6">
+        <v>5</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="3:10">
+      <c r="C172" s="6">
         <v>5011</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="6">
-        <v>5</v>
-      </c>
-      <c r="F152" s="6">
+      <c r="D172" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E172" s="6">
+        <v>5</v>
+      </c>
+      <c r="F172" s="6">
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="G152" s="6">
-        <v>1</v>
-      </c>
-      <c r="H152" s="6">
+      <c r="G172" s="6">
+        <v>1</v>
+      </c>
+      <c r="H172" s="6">
         <v>18</v>
       </c>
-      <c r="I152" s="6">
-        <v>5</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="3:10">
-      <c r="C153" s="6">
+      <c r="I172" s="6">
+        <v>5</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10">
+      <c r="C173" s="6">
         <v>5012</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153" s="6">
-        <v>5</v>
-      </c>
-      <c r="F153" s="6">
+      <c r="D173" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E173" s="6">
+        <v>5</v>
+      </c>
+      <c r="F173" s="6">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="G153" s="6">
-        <v>1</v>
-      </c>
-      <c r="H153" s="6">
+      <c r="G173" s="6">
+        <v>1</v>
+      </c>
+      <c r="H173" s="6">
         <v>18</v>
       </c>
-      <c r="I153" s="6">
-        <v>5</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="3:10">
-      <c r="C154" s="6">
+      <c r="I173" s="6">
+        <v>5</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10">
+      <c r="C174" s="6">
         <v>5013</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="6">
-        <v>5</v>
-      </c>
-      <c r="F154" s="6">
+      <c r="D174" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E174" s="6">
+        <v>5</v>
+      </c>
+      <c r="F174" s="6">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="G154" s="6">
-        <v>1</v>
-      </c>
-      <c r="H154" s="6">
+      <c r="G174" s="6">
+        <v>1</v>
+      </c>
+      <c r="H174" s="6">
         <v>18</v>
       </c>
-      <c r="I154" s="6">
-        <v>5</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="3:10">
-      <c r="C155" s="6">
+      <c r="I174" s="6">
+        <v>5</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10">
+      <c r="C175" s="6">
         <v>5014</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E155" s="6">
-        <v>5</v>
-      </c>
-      <c r="F155" s="6">
+      <c r="D175" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="6">
+        <v>5</v>
+      </c>
+      <c r="F175" s="6">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
-      <c r="G155" s="6">
-        <v>1</v>
-      </c>
-      <c r="H155" s="6">
+      <c r="G175" s="6">
+        <v>1</v>
+      </c>
+      <c r="H175" s="6">
         <v>18</v>
       </c>
-      <c r="I155" s="6">
-        <v>5</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="3:10">
-      <c r="C156" s="6">
+      <c r="I175" s="6">
+        <v>5</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10">
+      <c r="C176" s="6">
         <v>5015</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="6">
-        <v>5</v>
-      </c>
-      <c r="F156" s="6">
+      <c r="D176" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E176" s="6">
+        <v>5</v>
+      </c>
+      <c r="F176" s="6">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G156" s="6">
-        <v>1</v>
-      </c>
-      <c r="H156" s="6">
+      <c r="G176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H176" s="6">
         <v>18</v>
       </c>
-      <c r="I156" s="6">
-        <v>5</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="3:10">
-      <c r="C157" s="6">
+      <c r="I176" s="6">
+        <v>5</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="3:10">
+      <c r="C177" s="6">
         <v>5016</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E157" s="6">
-        <v>5</v>
-      </c>
-      <c r="F157" s="6">
+      <c r="D177" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E177" s="6">
+        <v>5</v>
+      </c>
+      <c r="F177" s="6">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="G157" s="6">
-        <v>1</v>
-      </c>
-      <c r="H157" s="6">
+      <c r="G177" s="6">
+        <v>1</v>
+      </c>
+      <c r="H177" s="6">
         <v>18</v>
       </c>
-      <c r="I157" s="6">
-        <v>5</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="3:10">
-      <c r="C158" s="6">
+      <c r="I177" s="6">
+        <v>5</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="3:10">
+      <c r="C178" s="6">
         <v>5017</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="6">
-        <v>5</v>
-      </c>
-      <c r="F158" s="6">
+      <c r="D178" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E178" s="6">
+        <v>5</v>
+      </c>
+      <c r="F178" s="6">
         <f t="shared" si="2"/>
         <v>17000</v>
       </c>
-      <c r="G158" s="6">
-        <v>1</v>
-      </c>
-      <c r="H158" s="6">
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="6">
         <v>18</v>
       </c>
-      <c r="I158" s="6">
-        <v>5</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="3:10">
-      <c r="C159" s="6">
+      <c r="I178" s="6">
+        <v>5</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="3:10">
+      <c r="C179" s="6">
         <v>5018</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E159" s="6">
-        <v>5</v>
-      </c>
-      <c r="F159" s="6">
+      <c r="D179" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E179" s="6">
+        <v>5</v>
+      </c>
+      <c r="F179" s="6">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="G159" s="6">
-        <v>1</v>
-      </c>
-      <c r="H159" s="6">
+      <c r="G179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H179" s="6">
         <v>18</v>
       </c>
-      <c r="I159" s="6">
-        <v>5</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="3:10">
-      <c r="C160" s="6">
+      <c r="I179" s="6">
+        <v>5</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="3:10">
+      <c r="C180" s="6">
         <v>5019</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E160" s="6">
-        <v>5</v>
-      </c>
-      <c r="F160" s="6">
+      <c r="D180" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E180" s="6">
+        <v>5</v>
+      </c>
+      <c r="F180" s="6">
         <f t="shared" si="2"/>
         <v>19000</v>
       </c>
-      <c r="G160" s="6">
-        <v>1</v>
-      </c>
-      <c r="H160" s="6">
+      <c r="G180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H180" s="6">
         <v>18</v>
       </c>
-      <c r="I160" s="6">
-        <v>5</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="3:10">
-      <c r="C161" s="6">
+      <c r="I180" s="6">
+        <v>5</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="3:10">
+      <c r="C181" s="6">
         <v>5020</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E161" s="6">
-        <v>5</v>
-      </c>
-      <c r="F161" s="6">
+      <c r="D181" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E181" s="6">
+        <v>5</v>
+      </c>
+      <c r="F181" s="6">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G161" s="6">
-        <v>1</v>
-      </c>
-      <c r="H161" s="6">
+      <c r="G181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H181" s="6">
         <v>18</v>
       </c>
-      <c r="I161" s="6">
-        <v>5</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="3:10">
-      <c r="C163" s="6">
+      <c r="I181" s="6">
+        <v>5</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10">
+      <c r="C183" s="6">
         <v>6001</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E163" s="6">
+      <c r="D183" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E183" s="6">
         <v>6</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F183" s="6">
         <v>100</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G183" s="6">
         <v>4</v>
       </c>
-      <c r="H163" s="6">
+      <c r="H183" s="6">
         <v>0</v>
       </c>
-      <c r="I163" s="6">
-        <v>1</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="164" spans="3:10">
-      <c r="C164" s="6">
+      <c r="I183" s="6">
+        <v>1</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="3:10">
+      <c r="C184" s="6">
         <v>6002</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E164" s="6">
+      <c r="D184" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" s="6">
         <v>6</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F184" s="6">
         <v>200</v>
       </c>
-      <c r="G164" s="6">
+      <c r="G184" s="6">
         <v>4</v>
       </c>
-      <c r="H164" s="6">
+      <c r="H184" s="6">
         <v>0</v>
       </c>
-      <c r="I164" s="6">
-        <v>1</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="3:10">
-      <c r="C165" s="6">
+      <c r="I184" s="6">
+        <v>1</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="3:10">
+      <c r="C185" s="6">
         <v>6003</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E165" s="6">
+      <c r="D185" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="6">
         <v>6</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F185" s="6">
         <v>300</v>
       </c>
-      <c r="G165" s="6">
+      <c r="G185" s="6">
         <v>4</v>
       </c>
-      <c r="H165" s="6">
+      <c r="H185" s="6">
         <v>0</v>
       </c>
-      <c r="I165" s="6">
-        <v>1</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="3:10">
-      <c r="C166" s="6">
+      <c r="I185" s="6">
+        <v>1</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10">
+      <c r="C186" s="6">
         <v>6004</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E166" s="6">
+      <c r="D186" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E186" s="6">
         <v>6</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F186" s="6">
         <v>400</v>
       </c>
-      <c r="G166" s="6">
+      <c r="G186" s="6">
         <v>4</v>
       </c>
-      <c r="H166" s="6">
+      <c r="H186" s="6">
         <v>0</v>
       </c>
-      <c r="I166" s="6">
-        <v>1</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="3:10">
-      <c r="C167" s="6">
+      <c r="I186" s="6">
+        <v>1</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10">
+      <c r="C187" s="6">
         <v>6005</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E167" s="6">
+      <c r="D187" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E187" s="6">
         <v>6</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F187" s="6">
         <v>500</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G187" s="6">
         <v>4</v>
       </c>
-      <c r="H167" s="6">
+      <c r="H187" s="6">
         <v>0</v>
       </c>
-      <c r="I167" s="6">
-        <v>1</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="3:10">
-      <c r="C168" s="6">
+      <c r="I187" s="6">
+        <v>1</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10">
+      <c r="C188" s="6">
         <v>6006</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E168" s="6">
+      <c r="D188" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E188" s="6">
         <v>6</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F188" s="6">
         <v>600</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G188" s="6">
         <v>4</v>
       </c>
-      <c r="H168" s="6">
+      <c r="H188" s="6">
         <v>0</v>
       </c>
-      <c r="I168" s="6">
-        <v>1</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="3:10">
-      <c r="C169" s="6">
+      <c r="I188" s="6">
+        <v>1</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="C189" s="6">
         <v>6007</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E169" s="6">
+      <c r="D189" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E189" s="6">
         <v>6</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F189" s="6">
         <v>700</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G189" s="6">
         <v>4</v>
       </c>
-      <c r="H169" s="6">
+      <c r="H189" s="6">
         <v>0</v>
       </c>
-      <c r="I169" s="6">
-        <v>1</v>
-      </c>
-      <c r="J169" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="3:10">
-      <c r="C170" s="6">
+      <c r="I189" s="6">
+        <v>1</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="C190" s="6">
         <v>6008</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E170" s="6">
+      <c r="D190" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E190" s="6">
         <v>6</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F190" s="6">
         <v>800</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G190" s="6">
         <v>4</v>
       </c>
-      <c r="H170" s="6">
+      <c r="H190" s="6">
         <v>0</v>
       </c>
-      <c r="I170" s="6">
-        <v>1</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="3:10">
-      <c r="C171" s="6">
+      <c r="I190" s="6">
+        <v>1</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10">
+      <c r="C191" s="6">
         <v>6009</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E171" s="6">
+      <c r="D191" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E191" s="6">
         <v>6</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F191" s="6">
         <v>900</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G191" s="6">
         <v>4</v>
       </c>
-      <c r="H171" s="6">
+      <c r="H191" s="6">
         <v>0</v>
       </c>
-      <c r="I171" s="6">
-        <v>1</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="3:10">
-      <c r="C172" s="6">
+      <c r="I191" s="6">
+        <v>1</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="C192" s="6">
         <v>6010</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="6">
+      <c r="D192" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E192" s="6">
         <v>6</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F192" s="6">
         <v>1000</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G192" s="6">
         <v>4</v>
       </c>
-      <c r="H172" s="6">
+      <c r="H192" s="6">
         <v>0</v>
       </c>
-      <c r="I172" s="6">
-        <v>1</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>182</v>
+      <c r="I192" s="6">
+        <v>1</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="231">
   <si>
     <t>#</t>
   </si>
@@ -349,6 +349,33 @@
     <t>支持66</t>
   </si>
   <si>
+    <t>支持67</t>
+  </si>
+  <si>
+    <t>支持68</t>
+  </si>
+  <si>
+    <t>支持69</t>
+  </si>
+  <si>
+    <t>支持70</t>
+  </si>
+  <si>
+    <t>支持71</t>
+  </si>
+  <si>
+    <t>支持72</t>
+  </si>
+  <si>
+    <t>支持73</t>
+  </si>
+  <si>
+    <t>支持74</t>
+  </si>
+  <si>
+    <t>支持75</t>
+  </si>
+  <si>
     <t>发电1</t>
   </si>
   <si>
@@ -551,6 +578,36 @@
   </si>
   <si>
     <t>发电60</t>
+  </si>
+  <si>
+    <t>发电61</t>
+  </si>
+  <si>
+    <t>发电62</t>
+  </si>
+  <si>
+    <t>发电63</t>
+  </si>
+  <si>
+    <t>发电64</t>
+  </si>
+  <si>
+    <t>发电65</t>
+  </si>
+  <si>
+    <t>发电66</t>
+  </si>
+  <si>
+    <t>发电67</t>
+  </si>
+  <si>
+    <t>发电68</t>
+  </si>
+  <si>
+    <t>发电69</t>
+  </si>
+  <si>
+    <t>发电70</t>
   </si>
   <si>
     <t>强化1</t>
@@ -1703,10 +1760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K192"/>
+  <dimension ref="C2:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3724,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="6">
-        <f>(C70-1000)*24</f>
+        <f t="shared" ref="F70:F80" si="1">(C70-1000)*24</f>
         <v>1560</v>
       </c>
       <c r="G70" s="6">
@@ -3754,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="3">
-        <f>(C71-1000)*24</f>
+        <f t="shared" si="1"/>
         <v>1584</v>
       </c>
       <c r="G71" s="3">
@@ -3773,319 +3830,289 @@
         <v>32</v>
       </c>
     </row>
+    <row r="72" spans="3:11">
+      <c r="C72" s="6">
+        <v>1067</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="1"/>
+        <v>1608</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <v>14</v>
+      </c>
+      <c r="I72" s="6">
+        <v>5</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="C73" s="6">
+        <v>1068</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>1632</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <v>15</v>
+      </c>
+      <c r="I73" s="6">
+        <v>5</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="C74" s="6">
+        <v>1069</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>1656</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
+        <v>16</v>
+      </c>
+      <c r="I74" s="6">
+        <v>5</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="C75" s="6">
+        <v>1070</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>8</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11">
+      <c r="C76" s="6">
+        <v>1071</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="1"/>
+        <v>1704</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6">
+        <v>9</v>
+      </c>
+      <c r="I76" s="6">
+        <v>5</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="77" spans="3:11">
       <c r="C77" s="6">
-        <v>2001</v>
+        <v>1072</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" ref="F77:F136" si="1">(C77-2000)*12</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>1728</v>
       </c>
       <c r="G77" s="6">
         <v>1</v>
       </c>
       <c r="H77" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I77" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="3:11">
       <c r="C78" s="6">
-        <v>2002</v>
+        <v>1073</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E78" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>1752</v>
       </c>
       <c r="G78" s="6">
         <v>1</v>
       </c>
       <c r="H78" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="3:11">
       <c r="C79" s="6">
-        <v>2003</v>
+        <v>1074</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1776</v>
       </c>
       <c r="G79" s="6">
         <v>1</v>
       </c>
       <c r="H79" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11">
-      <c r="C80" s="6">
-        <v>2004</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E80" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" s="3" customFormat="1" spans="3:11">
+      <c r="C80" s="3">
+        <v>1075</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6">
-        <v>18</v>
-      </c>
-      <c r="I80" s="6">
-        <v>3</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11">
-      <c r="C81" s="6">
-        <v>2005</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="H81" s="6">
-        <v>19</v>
-      </c>
-      <c r="I81" s="6">
-        <v>3</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11">
-      <c r="C82" s="6">
-        <v>2006</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="G82" s="6">
-        <v>1</v>
-      </c>
-      <c r="H82" s="6">
-        <v>20</v>
-      </c>
-      <c r="I82" s="6">
-        <v>3</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="3:11">
-      <c r="C83" s="6">
-        <v>2007</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="G83" s="6">
-        <v>1</v>
-      </c>
-      <c r="H83" s="6">
-        <v>24</v>
-      </c>
-      <c r="I83" s="6">
-        <v>3</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11">
-      <c r="C84" s="6">
-        <v>2008</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G84" s="6">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6">
-        <v>26</v>
-      </c>
-      <c r="I84" s="6">
-        <v>5</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="3:11">
-      <c r="C85" s="6">
-        <v>2009</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="G85" s="6">
-        <v>1</v>
-      </c>
-      <c r="H85" s="6">
-        <v>27</v>
-      </c>
-      <c r="I85" s="6">
-        <v>5</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="3:11">
-      <c r="C86" s="3">
-        <v>2010</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="3">
-        <v>2</v>
-      </c>
-      <c r="F86" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3">
-        <v>28</v>
-      </c>
-      <c r="I86" s="3">
-        <v>5</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>107</v>
+        <v>1800</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>7</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="3:11">
       <c r="C87" s="6">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E87" s="6">
         <v>2</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="1"/>
-        <v>132</v>
+        <f t="shared" ref="F87:F150" si="2">(C87-2000)*12</f>
+        <v>12</v>
       </c>
       <c r="G87" s="6">
         <v>1</v>
@@ -4097,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>15</v>
@@ -4105,17 +4132,17 @@
     </row>
     <row r="88" spans="3:11">
       <c r="C88" s="6">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E88" s="6">
         <v>2</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="1"/>
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="G88" s="6">
         <v>1</v>
@@ -4127,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>18</v>
@@ -4135,17 +4162,17 @@
     </row>
     <row r="89" spans="3:11">
       <c r="C89" s="6">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E89" s="6">
         <v>2</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="G89" s="6">
         <v>1</v>
@@ -4157,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>20</v>
@@ -4165,17 +4192,17 @@
     </row>
     <row r="90" spans="3:11">
       <c r="C90" s="6">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E90" s="6">
         <v>2</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="1"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="G90" s="6">
         <v>1</v>
@@ -4187,25 +4214,25 @@
         <v>3</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="3:11">
       <c r="C91" s="6">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E91" s="6">
         <v>2</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="G91" s="6">
         <v>1</v>
@@ -4217,25 +4244,25 @@
         <v>3</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="3:11">
       <c r="C92" s="6">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="G92" s="6">
         <v>1</v>
@@ -4247,25 +4274,25 @@
         <v>3</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="3:11">
       <c r="C93" s="6">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="G93" s="6">
         <v>1</v>
@@ -4277,25 +4304,25 @@
         <v>3</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="3:11">
       <c r="C94" s="6">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="1"/>
-        <v>216</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="G94" s="6">
         <v>1</v>
@@ -4307,25 +4334,25 @@
         <v>5</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="3:11">
       <c r="C95" s="6">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E95" s="6">
         <v>2</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="1"/>
-        <v>228</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="G95" s="6">
         <v>1</v>
@@ -4337,25 +4364,25 @@
         <v>5</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1" spans="3:11">
       <c r="C96" s="3">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="G96" s="3">
         <v>1</v>
@@ -4367,25 +4394,25 @@
         <v>5</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="3:11">
       <c r="C97" s="6">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="1"/>
-        <v>252</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="G97" s="6">
         <v>1</v>
@@ -4397,7 +4424,7 @@
         <v>3</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>15</v>
@@ -4405,17 +4432,17 @@
     </row>
     <row r="98" spans="3:11">
       <c r="C98" s="6">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="6">
         <v>2</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="1"/>
-        <v>264</v>
+        <f t="shared" si="2"/>
+        <v>144</v>
       </c>
       <c r="G98" s="6">
         <v>1</v>
@@ -4427,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>18</v>
@@ -4435,17 +4462,17 @@
     </row>
     <row r="99" spans="3:11">
       <c r="C99" s="6">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" s="6">
         <v>2</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="1"/>
-        <v>276</v>
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
       <c r="G99" s="6">
         <v>1</v>
@@ -4457,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>20</v>
@@ -4465,17 +4492,17 @@
     </row>
     <row r="100" spans="3:11">
       <c r="C100" s="6">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="6">
         <v>2</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="1"/>
-        <v>288</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="G100" s="6">
         <v>1</v>
@@ -4487,25 +4514,25 @@
         <v>3</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="3:11">
       <c r="C101" s="6">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101" s="6">
         <v>2</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="G101" s="6">
         <v>1</v>
@@ -4517,25 +4544,25 @@
         <v>3</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="3:11">
       <c r="C102" s="6">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="6">
         <v>2</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="1"/>
-        <v>312</v>
+        <f t="shared" si="2"/>
+        <v>192</v>
       </c>
       <c r="G102" s="6">
         <v>1</v>
@@ -4547,25 +4574,25 @@
         <v>3</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="3:11">
       <c r="C103" s="6">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E103" s="6">
         <v>2</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="1"/>
-        <v>324</v>
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
       <c r="G103" s="6">
         <v>1</v>
@@ -4577,25 +4604,25 @@
         <v>3</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="3:11">
       <c r="C104" s="6">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" s="6">
         <v>2</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="1"/>
-        <v>336</v>
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="G104" s="6">
         <v>1</v>
@@ -4607,25 +4634,25 @@
         <v>5</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="3:11">
       <c r="C105" s="6">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="6">
         <v>2</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="1"/>
-        <v>348</v>
+        <f t="shared" si="2"/>
+        <v>228</v>
       </c>
       <c r="G105" s="6">
         <v>1</v>
@@ -4637,25 +4664,25 @@
         <v>5</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" spans="3:11">
       <c r="C106" s="3">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f t="shared" si="2"/>
+        <v>240</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -4667,25 +4694,25 @@
         <v>5</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="3:11">
       <c r="C107" s="6">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E107" s="6">
         <v>2</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="1"/>
-        <v>372</v>
+        <f t="shared" si="2"/>
+        <v>252</v>
       </c>
       <c r="G107" s="6">
         <v>1</v>
@@ -4697,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>15</v>
@@ -4705,17 +4732,17 @@
     </row>
     <row r="108" spans="3:11">
       <c r="C108" s="6">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" s="6">
         <v>2</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="1"/>
-        <v>384</v>
+        <f t="shared" si="2"/>
+        <v>264</v>
       </c>
       <c r="G108" s="6">
         <v>1</v>
@@ -4727,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>18</v>
@@ -4735,17 +4762,17 @@
     </row>
     <row r="109" spans="3:11">
       <c r="C109" s="6">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E109" s="6">
         <v>2</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="1"/>
-        <v>396</v>
+        <f t="shared" si="2"/>
+        <v>276</v>
       </c>
       <c r="G109" s="6">
         <v>1</v>
@@ -4757,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>20</v>
@@ -4765,17 +4792,17 @@
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="6">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="6">
         <v>2</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="1"/>
-        <v>408</v>
+        <f t="shared" si="2"/>
+        <v>288</v>
       </c>
       <c r="G110" s="6">
         <v>1</v>
@@ -4787,25 +4814,25 @@
         <v>3</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="3:11">
       <c r="C111" s="6">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="6">
         <v>2</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="1"/>
-        <v>420</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="G111" s="6">
         <v>1</v>
@@ -4817,25 +4844,25 @@
         <v>3</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="3:11">
       <c r="C112" s="6">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="6">
         <v>2</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="1"/>
-        <v>432</v>
+        <f t="shared" si="2"/>
+        <v>312</v>
       </c>
       <c r="G112" s="6">
         <v>1</v>
@@ -4847,25 +4874,25 @@
         <v>3</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="3:11">
       <c r="C113" s="6">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" s="6">
         <v>2</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="1"/>
-        <v>444</v>
+        <f t="shared" si="2"/>
+        <v>324</v>
       </c>
       <c r="G113" s="6">
         <v>1</v>
@@ -4877,25 +4904,25 @@
         <v>3</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="3:11">
       <c r="C114" s="6">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E114" s="6">
         <v>2</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="1"/>
-        <v>456</v>
+        <f t="shared" si="2"/>
+        <v>336</v>
       </c>
       <c r="G114" s="6">
         <v>1</v>
@@ -4907,25 +4934,25 @@
         <v>5</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="3:11">
       <c r="C115" s="6">
-        <v>2039</v>
+        <v>2029</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="6">
         <v>2</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="1"/>
-        <v>468</v>
+        <f t="shared" si="2"/>
+        <v>348</v>
       </c>
       <c r="G115" s="6">
         <v>1</v>
@@ -4937,25 +4964,25 @@
         <v>5</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" spans="3:11">
       <c r="C116" s="3">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E116" s="3">
         <v>2</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f t="shared" si="2"/>
+        <v>360</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -4967,25 +4994,25 @@
         <v>5</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="3:11">
       <c r="C117" s="6">
-        <v>2041</v>
+        <v>2031</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E117" s="6">
         <v>2</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="1"/>
-        <v>492</v>
+        <f t="shared" si="2"/>
+        <v>372</v>
       </c>
       <c r="G117" s="6">
         <v>1</v>
@@ -4997,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>15</v>
@@ -5005,17 +5032,17 @@
     </row>
     <row r="118" spans="3:11">
       <c r="C118" s="6">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E118" s="6">
         <v>2</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="1"/>
-        <v>504</v>
+        <f t="shared" si="2"/>
+        <v>384</v>
       </c>
       <c r="G118" s="6">
         <v>1</v>
@@ -5027,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>18</v>
@@ -5035,17 +5062,17 @@
     </row>
     <row r="119" spans="3:11">
       <c r="C119" s="6">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E119" s="6">
         <v>2</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="1"/>
-        <v>516</v>
+        <f t="shared" si="2"/>
+        <v>396</v>
       </c>
       <c r="G119" s="6">
         <v>1</v>
@@ -5057,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K119" s="6" t="s">
         <v>20</v>
@@ -5065,17 +5092,17 @@
     </row>
     <row r="120" spans="3:11">
       <c r="C120" s="6">
-        <v>2044</v>
+        <v>2034</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E120" s="6">
         <v>2</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="1"/>
-        <v>528</v>
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
       <c r="G120" s="6">
         <v>1</v>
@@ -5087,25 +5114,25 @@
         <v>3</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="3:11">
       <c r="C121" s="6">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E121" s="6">
         <v>2</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="1"/>
-        <v>540</v>
+        <f t="shared" si="2"/>
+        <v>420</v>
       </c>
       <c r="G121" s="6">
         <v>1</v>
@@ -5117,25 +5144,25 @@
         <v>3</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="3:11">
       <c r="C122" s="6">
-        <v>2046</v>
+        <v>2036</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E122" s="6">
         <v>2</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="1"/>
-        <v>552</v>
+        <f t="shared" si="2"/>
+        <v>432</v>
       </c>
       <c r="G122" s="6">
         <v>1</v>
@@ -5147,25 +5174,25 @@
         <v>3</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="3:11">
       <c r="C123" s="6">
-        <v>2047</v>
+        <v>2037</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E123" s="6">
         <v>2</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="1"/>
-        <v>564</v>
+        <f t="shared" si="2"/>
+        <v>444</v>
       </c>
       <c r="G123" s="6">
         <v>1</v>
@@ -5177,25 +5204,25 @@
         <v>3</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="3:11">
       <c r="C124" s="6">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E124" s="6">
         <v>2</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="1"/>
-        <v>576</v>
+        <f t="shared" si="2"/>
+        <v>456</v>
       </c>
       <c r="G124" s="6">
         <v>1</v>
@@ -5207,25 +5234,25 @@
         <v>5</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="3:11">
       <c r="C125" s="6">
-        <v>2049</v>
+        <v>2039</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E125" s="6">
         <v>2</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="1"/>
-        <v>588</v>
+        <f t="shared" si="2"/>
+        <v>468</v>
       </c>
       <c r="G125" s="6">
         <v>1</v>
@@ -5237,25 +5264,25 @@
         <v>5</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" s="3" customFormat="1" spans="3:11">
       <c r="C126" s="3">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>480</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -5267,25 +5294,25 @@
         <v>5</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="3:11">
       <c r="C127" s="6">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E127" s="6">
         <v>2</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="1"/>
-        <v>612</v>
+        <f t="shared" si="2"/>
+        <v>492</v>
       </c>
       <c r="G127" s="6">
         <v>1</v>
@@ -5297,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>15</v>
@@ -5305,17 +5332,17 @@
     </row>
     <row r="128" spans="3:11">
       <c r="C128" s="6">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E128" s="6">
         <v>2</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="1"/>
-        <v>624</v>
+        <f t="shared" si="2"/>
+        <v>504</v>
       </c>
       <c r="G128" s="6">
         <v>1</v>
@@ -5327,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>18</v>
@@ -5335,17 +5362,17 @@
     </row>
     <row r="129" spans="3:11">
       <c r="C129" s="6">
-        <v>2053</v>
+        <v>2043</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E129" s="6">
         <v>2</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="1"/>
-        <v>636</v>
+        <f t="shared" si="2"/>
+        <v>516</v>
       </c>
       <c r="G129" s="6">
         <v>1</v>
@@ -5357,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>20</v>
@@ -5365,17 +5392,17 @@
     </row>
     <row r="130" spans="3:11">
       <c r="C130" s="6">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E130" s="6">
         <v>2</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="1"/>
-        <v>648</v>
+        <f t="shared" si="2"/>
+        <v>528</v>
       </c>
       <c r="G130" s="6">
         <v>1</v>
@@ -5387,25 +5414,25 @@
         <v>3</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="3:11">
       <c r="C131" s="6">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E131" s="6">
         <v>2</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="1"/>
-        <v>660</v>
+        <f t="shared" si="2"/>
+        <v>540</v>
       </c>
       <c r="G131" s="6">
         <v>1</v>
@@ -5417,25 +5444,25 @@
         <v>3</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="3:11">
       <c r="C132" s="6">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E132" s="6">
         <v>2</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="1"/>
-        <v>672</v>
+        <f t="shared" si="2"/>
+        <v>552</v>
       </c>
       <c r="G132" s="6">
         <v>1</v>
@@ -5447,25 +5474,25 @@
         <v>3</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="3:11">
       <c r="C133" s="6">
-        <v>2057</v>
+        <v>2047</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E133" s="6">
         <v>2</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="1"/>
-        <v>684</v>
+        <f t="shared" si="2"/>
+        <v>564</v>
       </c>
       <c r="G133" s="6">
         <v>1</v>
@@ -5477,25 +5504,25 @@
         <v>3</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="3:11">
       <c r="C134" s="6">
-        <v>2058</v>
+        <v>2048</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E134" s="6">
         <v>2</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="1"/>
-        <v>696</v>
+        <f t="shared" si="2"/>
+        <v>576</v>
       </c>
       <c r="G134" s="6">
         <v>1</v>
@@ -5507,25 +5534,25 @@
         <v>5</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="3:11">
       <c r="C135" s="6">
-        <v>2059</v>
+        <v>2049</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E135" s="6">
         <v>2</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="1"/>
-        <v>708</v>
+        <f t="shared" si="2"/>
+        <v>588</v>
       </c>
       <c r="G135" s="6">
         <v>1</v>
@@ -5537,25 +5564,25 @@
         <v>5</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" spans="3:11">
       <c r="C136" s="3">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E136" s="3">
         <v>2</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="1"/>
-        <v>720</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
@@ -5567,102 +5594,175 @@
         <v>5</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="3:10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="3:11">
+      <c r="C137" s="6">
+        <v>2051</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="6">
+        <v>2</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="G137" s="6">
+        <v>1</v>
+      </c>
+      <c r="H137" s="6">
+        <v>14</v>
+      </c>
+      <c r="I137" s="6">
+        <v>3</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11">
+      <c r="C138" s="6">
+        <v>2052</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="G138" s="6">
+        <v>1</v>
+      </c>
+      <c r="H138" s="6">
+        <v>15</v>
+      </c>
+      <c r="I138" s="6">
+        <v>3</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="3:11">
       <c r="C139" s="6">
-        <v>3001</v>
+        <v>2053</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E139" s="6">
+        <v>2</v>
+      </c>
+      <c r="F139" s="6">
+        <f t="shared" si="2"/>
+        <v>636</v>
+      </c>
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
+      <c r="H139" s="6">
+        <v>16</v>
+      </c>
+      <c r="I139" s="6">
         <v>3</v>
       </c>
-      <c r="F139" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G139" s="6">
-        <v>1</v>
-      </c>
-      <c r="H139" s="6">
+      <c r="J139" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K139" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I139" s="6">
-        <v>5</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="140" spans="3:10">
+    </row>
+    <row r="140" spans="3:11">
       <c r="C140" s="6">
-        <v>3002</v>
+        <v>2054</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E140" s="6">
+        <v>2</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
+      <c r="H140" s="6">
+        <v>18</v>
+      </c>
+      <c r="I140" s="6">
         <v>3</v>
       </c>
-      <c r="F140" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G140" s="6">
-        <v>1</v>
-      </c>
-      <c r="H140" s="6">
-        <v>20</v>
-      </c>
-      <c r="I140" s="6">
-        <v>5</v>
-      </c>
       <c r="J140" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="3:11">
       <c r="C141" s="6">
-        <v>3003</v>
+        <v>2055</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E141" s="6">
+        <v>2</v>
+      </c>
+      <c r="F141" s="6">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
+      <c r="H141" s="6">
+        <v>19</v>
+      </c>
+      <c r="I141" s="6">
         <v>3</v>
       </c>
-      <c r="F141" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G141" s="6">
-        <v>1</v>
-      </c>
-      <c r="H141" s="6">
-        <v>20</v>
-      </c>
-      <c r="I141" s="6">
-        <v>5</v>
-      </c>
       <c r="J141" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11">
       <c r="C142" s="6">
-        <v>3004</v>
+        <v>2056</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>162</v>
       </c>
       <c r="E142" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" s="6">
-        <v>20000</v>
+        <f t="shared" si="2"/>
+        <v>672</v>
       </c>
       <c r="G142" s="6">
         <v>1</v>
@@ -5671,1226 +5771,1753 @@
         <v>20</v>
       </c>
       <c r="I142" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11">
       <c r="C143" s="6">
-        <v>3005</v>
+        <v>2057</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>163</v>
       </c>
       <c r="E143" s="6">
+        <v>2</v>
+      </c>
+      <c r="F143" s="6">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6">
+        <v>24</v>
+      </c>
+      <c r="I143" s="6">
         <v>3</v>
       </c>
-      <c r="F143" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H143" s="6">
-        <v>20</v>
-      </c>
-      <c r="I143" s="6">
-        <v>5</v>
-      </c>
       <c r="J143" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="3:11">
       <c r="C144" s="6">
-        <v>3006</v>
+        <v>2058</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E144" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" s="6">
-        <v>100000</v>
+        <f t="shared" si="2"/>
+        <v>696</v>
       </c>
       <c r="G144" s="6">
         <v>1</v>
       </c>
       <c r="H144" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I144" s="6">
         <v>5</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="3:11">
       <c r="C145" s="6">
-        <v>3007</v>
+        <v>2059</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E145" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F145" s="6">
-        <v>200000</v>
+        <f t="shared" si="2"/>
+        <v>708</v>
       </c>
       <c r="G145" s="6">
         <v>1</v>
       </c>
       <c r="H145" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I145" s="6">
         <v>5</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="3:10">
-      <c r="C146" s="6">
-        <v>3008</v>
-      </c>
-      <c r="D146" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" s="3" customFormat="1" spans="3:11">
+      <c r="C146" s="3">
+        <v>2060</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E146" s="6">
-        <v>3</v>
-      </c>
-      <c r="F146" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G146" s="6">
-        <v>1</v>
-      </c>
-      <c r="H146" s="6">
-        <v>20</v>
-      </c>
-      <c r="I146" s="6">
-        <v>5</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="3:10">
+      <c r="E146" s="3">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3">
+        <v>28</v>
+      </c>
+      <c r="I146" s="3">
+        <v>5</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="3:11">
       <c r="C147" s="6">
-        <v>3009</v>
+        <v>2061</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>167</v>
       </c>
       <c r="E147" s="6">
+        <v>2</v>
+      </c>
+      <c r="F147" s="6">
+        <f t="shared" si="2"/>
+        <v>732</v>
+      </c>
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
+      <c r="H147" s="6">
+        <v>14</v>
+      </c>
+      <c r="I147" s="6">
         <v>3</v>
       </c>
-      <c r="F147" s="6">
-        <v>500000</v>
-      </c>
-      <c r="G147" s="6">
-        <v>1</v>
-      </c>
-      <c r="H147" s="6">
-        <v>20</v>
-      </c>
-      <c r="I147" s="6">
-        <v>5</v>
-      </c>
       <c r="J147" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="3:10">
+        <v>100</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11">
       <c r="C148" s="6">
-        <v>3010</v>
+        <v>2062</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E148" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6">
+        <f t="shared" si="2"/>
+        <v>744</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
+      <c r="H148" s="6">
+        <v>15</v>
+      </c>
+      <c r="I148" s="6">
         <v>3</v>
       </c>
-      <c r="F148" s="6">
-        <v>700000</v>
-      </c>
-      <c r="G148" s="6">
-        <v>1</v>
-      </c>
-      <c r="H148" s="6">
+      <c r="J148" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11">
+      <c r="C149" s="6">
+        <v>2063</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E149" s="6">
+        <v>2</v>
+      </c>
+      <c r="F149" s="6">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
+      <c r="H149" s="6">
+        <v>16</v>
+      </c>
+      <c r="I149" s="6">
+        <v>3</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I148" s="6">
-        <v>5</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="3:10">
+    </row>
+    <row r="150" spans="3:11">
+      <c r="C150" s="6">
+        <v>2064</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150" s="6">
+        <v>2</v>
+      </c>
+      <c r="F150" s="6">
+        <f t="shared" si="2"/>
+        <v>768</v>
+      </c>
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
+      <c r="H150" s="6">
+        <v>18</v>
+      </c>
+      <c r="I150" s="6">
+        <v>3</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="3:11">
       <c r="C151" s="6">
-        <v>4001</v>
+        <v>2065</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E151" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F151" s="6">
+        <f t="shared" ref="F151:F156" si="3">(C151-2000)*12</f>
+        <v>780</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1</v>
+      </c>
+      <c r="H151" s="6">
+        <v>19</v>
+      </c>
+      <c r="I151" s="6">
+        <v>3</v>
+      </c>
+      <c r="J151" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G151" s="6">
+      <c r="K151" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="3:11">
+      <c r="C152" s="6">
+        <v>2066</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E152" s="6">
+        <v>2</v>
+      </c>
+      <c r="F152" s="6">
+        <f t="shared" si="3"/>
+        <v>792</v>
+      </c>
+      <c r="G152" s="6">
+        <v>1</v>
+      </c>
+      <c r="H152" s="6">
+        <v>20</v>
+      </c>
+      <c r="I152" s="6">
         <v>3</v>
       </c>
-      <c r="H151" s="6">
-        <v>0</v>
-      </c>
-      <c r="I151" s="6">
-        <v>1</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="3:10">
-      <c r="C152" s="6">
-        <v>4002</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="6">
-        <v>4</v>
-      </c>
-      <c r="F152" s="6">
-        <v>200</v>
-      </c>
-      <c r="G152" s="6">
+      <c r="J152" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="3:11">
+      <c r="C153" s="6">
+        <v>2067</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153" s="6">
+        <v>2</v>
+      </c>
+      <c r="F153" s="6">
+        <f t="shared" si="3"/>
+        <v>804</v>
+      </c>
+      <c r="G153" s="6">
+        <v>1</v>
+      </c>
+      <c r="H153" s="6">
+        <v>24</v>
+      </c>
+      <c r="I153" s="6">
         <v>3</v>
       </c>
-      <c r="H152" s="6">
-        <v>0</v>
-      </c>
-      <c r="I152" s="6">
-        <v>1</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="3:10">
-      <c r="C153" s="6">
-        <v>4003</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153" s="6">
-        <v>4</v>
-      </c>
-      <c r="F153" s="6">
-        <v>300</v>
-      </c>
-      <c r="G153" s="6">
+      <c r="J153" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="3:11">
+      <c r="C154" s="6">
+        <v>2068</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154" s="6">
+        <v>2</v>
+      </c>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6">
+        <v>26</v>
+      </c>
+      <c r="I154" s="6">
+        <v>5</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="3:11">
+      <c r="C155" s="6">
+        <v>2069</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2</v>
+      </c>
+      <c r="F155" s="6">
+        <f t="shared" si="3"/>
+        <v>828</v>
+      </c>
+      <c r="G155" s="6">
+        <v>1</v>
+      </c>
+      <c r="H155" s="6">
+        <v>27</v>
+      </c>
+      <c r="I155" s="6">
+        <v>5</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" s="3" customFormat="1" spans="3:11">
+      <c r="C156" s="3">
+        <v>2070</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="G156" s="3">
+        <v>1</v>
+      </c>
+      <c r="H156" s="3">
+        <v>28</v>
+      </c>
+      <c r="I156" s="3">
+        <v>5</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="3:10">
+      <c r="C161" s="6">
+        <v>3001</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="6">
         <v>3</v>
       </c>
-      <c r="H153" s="6">
-        <v>0</v>
-      </c>
-      <c r="I153" s="6">
-        <v>1</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="3:10">
-      <c r="C154" s="6">
-        <v>4004</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="6">
-        <v>4</v>
-      </c>
-      <c r="F154" s="6">
-        <v>400</v>
-      </c>
-      <c r="G154" s="6">
-        <v>3</v>
-      </c>
-      <c r="H154" s="6">
-        <v>0</v>
-      </c>
-      <c r="I154" s="6">
-        <v>1</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="3:10">
-      <c r="C155" s="6">
-        <v>4005</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E155" s="6">
-        <v>4</v>
-      </c>
-      <c r="F155" s="6">
-        <v>500</v>
-      </c>
-      <c r="G155" s="6">
-        <v>3</v>
-      </c>
-      <c r="H155" s="6">
-        <v>0</v>
-      </c>
-      <c r="I155" s="6">
-        <v>1</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="3:10">
-      <c r="C156" s="6">
-        <v>4006</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" s="6">
-        <v>4</v>
-      </c>
-      <c r="F156" s="6">
-        <v>700</v>
-      </c>
-      <c r="G156" s="6">
-        <v>3</v>
-      </c>
-      <c r="H156" s="6">
-        <v>0</v>
-      </c>
-      <c r="I156" s="6">
-        <v>1</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="3:10">
-      <c r="C157" s="6">
-        <v>4007</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E157" s="6">
-        <v>4</v>
-      </c>
-      <c r="F157" s="6">
-        <v>900</v>
-      </c>
-      <c r="G157" s="6">
-        <v>3</v>
-      </c>
-      <c r="H157" s="6">
-        <v>0</v>
-      </c>
-      <c r="I157" s="6">
-        <v>1</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="3:10">
-      <c r="C158" s="6">
-        <v>4008</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E158" s="6">
-        <v>4</v>
-      </c>
-      <c r="F158" s="6">
-        <v>1100</v>
-      </c>
-      <c r="G158" s="6">
-        <v>3</v>
-      </c>
-      <c r="H158" s="6">
-        <v>0</v>
-      </c>
-      <c r="I158" s="6">
-        <v>1</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="3:10">
-      <c r="C159" s="6">
-        <v>4009</v>
-      </c>
-      <c r="D159" s="6" t="s">
+      <c r="F161" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G161" s="6">
+        <v>1</v>
+      </c>
+      <c r="H161" s="6">
+        <v>20</v>
+      </c>
+      <c r="I161" s="6">
+        <v>5</v>
+      </c>
+      <c r="J161" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E159" s="6">
-        <v>4</v>
-      </c>
-      <c r="F159" s="6">
-        <v>1300</v>
-      </c>
-      <c r="G159" s="6">
-        <v>3</v>
-      </c>
-      <c r="H159" s="6">
-        <v>0</v>
-      </c>
-      <c r="I159" s="6">
-        <v>1</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="3:10">
-      <c r="C160" s="6">
-        <v>4010</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E160" s="6">
-        <v>4</v>
-      </c>
-      <c r="F160" s="6">
-        <v>1500</v>
-      </c>
-      <c r="G160" s="6">
-        <v>3</v>
-      </c>
-      <c r="H160" s="6">
-        <v>0</v>
-      </c>
-      <c r="I160" s="6">
-        <v>1</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="162" spans="3:10">
       <c r="C162" s="6">
-        <v>5001</v>
+        <v>3002</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E162" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F162" s="6">
-        <f t="shared" ref="F162:F181" si="2">(C162-5000)*1000</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G162" s="6">
         <v>1</v>
       </c>
       <c r="H162" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I162" s="6">
         <v>5</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="3:10">
       <c r="C163" s="6">
-        <v>5002</v>
+        <v>3003</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E163" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G163" s="6">
         <v>1</v>
       </c>
       <c r="H163" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I163" s="6">
         <v>5</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="3:10">
       <c r="C164" s="6">
-        <v>5003</v>
+        <v>3004</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E164" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F164" s="6">
-        <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G164" s="6">
         <v>1</v>
       </c>
       <c r="H164" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I164" s="6">
         <v>5</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="3:10">
       <c r="C165" s="6">
-        <v>5004</v>
+        <v>3005</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E165" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F165" s="6">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>50000</v>
       </c>
       <c r="G165" s="6">
         <v>1</v>
       </c>
       <c r="H165" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I165" s="6">
         <v>5</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="3:10">
       <c r="C166" s="6">
-        <v>5005</v>
+        <v>3006</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E166" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F166" s="6">
-        <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="G166" s="6">
         <v>1</v>
       </c>
       <c r="H166" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I166" s="6">
         <v>5</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="3:10">
       <c r="C167" s="6">
-        <v>5006</v>
+        <v>3007</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E167" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F167" s="6">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>200000</v>
       </c>
       <c r="G167" s="6">
         <v>1</v>
       </c>
       <c r="H167" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" s="6">
         <v>5</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="3:10">
       <c r="C168" s="6">
-        <v>5007</v>
+        <v>3008</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E168" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F168" s="6">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>300000</v>
       </c>
       <c r="G168" s="6">
         <v>1</v>
       </c>
       <c r="H168" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I168" s="6">
         <v>5</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="3:10">
       <c r="C169" s="6">
-        <v>5008</v>
+        <v>3009</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E169" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F169" s="6">
-        <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>500000</v>
       </c>
       <c r="G169" s="6">
         <v>1</v>
       </c>
       <c r="H169" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I169" s="6">
         <v>5</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="3:10">
       <c r="C170" s="6">
-        <v>5009</v>
+        <v>3010</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E170" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>700000</v>
       </c>
       <c r="G170" s="6">
         <v>1</v>
       </c>
       <c r="H170" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I170" s="6">
         <v>5</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="3:10">
-      <c r="C171" s="6">
-        <v>5010</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E171" s="6">
-        <v>5</v>
-      </c>
-      <c r="F171" s="6">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="G171" s="6">
-        <v>1</v>
-      </c>
-      <c r="H171" s="6">
-        <v>18</v>
-      </c>
-      <c r="I171" s="6">
-        <v>5</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="3:10">
-      <c r="C172" s="6">
-        <v>5011</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="6">
-        <v>5</v>
-      </c>
-      <c r="F172" s="6">
-        <f t="shared" si="2"/>
-        <v>11000</v>
-      </c>
-      <c r="G172" s="6">
-        <v>1</v>
-      </c>
-      <c r="H172" s="6">
-        <v>18</v>
-      </c>
-      <c r="I172" s="6">
-        <v>5</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="3:10">
       <c r="C173" s="6">
-        <v>5012</v>
+        <v>4001</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E173" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" s="6">
-        <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="G173" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I173" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="3:10">
       <c r="C174" s="6">
-        <v>5013</v>
+        <v>4002</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E174" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" si="2"/>
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="G174" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I174" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="3:10">
       <c r="C175" s="6">
-        <v>5014</v>
+        <v>4003</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E175" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F175" s="6">
-        <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="G175" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I175" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="3:10">
       <c r="C176" s="6">
-        <v>5015</v>
+        <v>4004</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E176" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F176" s="6">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>400</v>
       </c>
       <c r="G176" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I176" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="3:10">
       <c r="C177" s="6">
-        <v>5016</v>
+        <v>4005</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E177" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F177" s="6">
-        <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>500</v>
       </c>
       <c r="G177" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I177" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="3:10">
       <c r="C178" s="6">
-        <v>5017</v>
+        <v>4006</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E178" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F178" s="6">
-        <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>700</v>
       </c>
       <c r="G178" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I178" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="3:10">
       <c r="C179" s="6">
-        <v>5018</v>
+        <v>4007</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E179" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F179" s="6">
-        <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>900</v>
       </c>
       <c r="G179" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I179" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="3:10">
       <c r="C180" s="6">
-        <v>5019</v>
+        <v>4008</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E180" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F180" s="6">
-        <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>1100</v>
       </c>
       <c r="G180" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I180" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="3:10">
       <c r="C181" s="6">
-        <v>5020</v>
+        <v>4009</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E181" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F181" s="6">
-        <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>1300</v>
       </c>
       <c r="G181" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I181" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="3:10">
-      <c r="C183" s="6">
-        <v>6001</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E183" s="6">
-        <v>6</v>
-      </c>
-      <c r="F183" s="6">
-        <v>100</v>
-      </c>
-      <c r="G183" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="182" spans="3:10">
+      <c r="C182" s="6">
+        <v>4010</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E182" s="6">
         <v>4</v>
       </c>
-      <c r="H183" s="6">
+      <c r="F182" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G182" s="6">
+        <v>3</v>
+      </c>
+      <c r="H182" s="6">
         <v>0</v>
       </c>
-      <c r="I183" s="6">
-        <v>1</v>
-      </c>
-      <c r="J183" s="6" t="s">
-        <v>202</v>
+      <c r="I182" s="6">
+        <v>1</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="3:10">
       <c r="C184" s="6">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E184" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F184" s="6">
+        <f t="shared" ref="F184:F203" si="4">(C184-5000)*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="G184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H184" s="6">
+        <v>18</v>
+      </c>
+      <c r="I184" s="6">
+        <v>5</v>
+      </c>
+      <c r="J184" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="G184" s="6">
-        <v>4</v>
-      </c>
-      <c r="H184" s="6">
-        <v>0</v>
-      </c>
-      <c r="I184" s="6">
-        <v>1</v>
-      </c>
-      <c r="J184" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="185" spans="3:10">
       <c r="C185" s="6">
-        <v>6003</v>
+        <v>5002</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E185" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F185" s="6">
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>2000</v>
       </c>
       <c r="G185" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H185" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I185" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="3:10">
       <c r="C186" s="6">
-        <v>6004</v>
+        <v>5003</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E186" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F186" s="6">
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>3000</v>
       </c>
       <c r="G186" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I186" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="3:10">
       <c r="C187" s="6">
-        <v>6005</v>
+        <v>5004</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E187" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F187" s="6">
-        <v>500</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="G187" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H187" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I187" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="3:10">
       <c r="C188" s="6">
-        <v>6006</v>
+        <v>5005</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E188" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F188" s="6">
-        <v>600</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
       <c r="G188" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H188" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I188" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="3:10">
       <c r="C189" s="6">
-        <v>6007</v>
+        <v>5006</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E189" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F189" s="6">
-        <v>700</v>
+        <f t="shared" si="4"/>
+        <v>6000</v>
       </c>
       <c r="G189" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I189" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="3:10">
       <c r="C190" s="6">
-        <v>6008</v>
+        <v>5007</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E190" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F190" s="6">
-        <v>800</v>
+        <f t="shared" si="4"/>
+        <v>7000</v>
       </c>
       <c r="G190" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I190" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="3:10">
       <c r="C191" s="6">
-        <v>6009</v>
+        <v>5008</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E191" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F191" s="6">
-        <v>900</v>
+        <f t="shared" si="4"/>
+        <v>8000</v>
       </c>
       <c r="G191" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I191" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="3:10">
       <c r="C192" s="6">
+        <v>5009</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192" s="6">
+        <v>5</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6">
+        <v>18</v>
+      </c>
+      <c r="I192" s="6">
+        <v>5</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10">
+      <c r="C193" s="6">
+        <v>5010</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E193" s="6">
+        <v>5</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6">
+        <v>18</v>
+      </c>
+      <c r="I193" s="6">
+        <v>5</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="3:10">
+      <c r="C194" s="6">
+        <v>5011</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194" s="6">
+        <v>5</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H194" s="6">
+        <v>18</v>
+      </c>
+      <c r="I194" s="6">
+        <v>5</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="C195" s="6">
+        <v>5012</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E195" s="6">
+        <v>5</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="G195" s="6">
+        <v>1</v>
+      </c>
+      <c r="H195" s="6">
+        <v>18</v>
+      </c>
+      <c r="I195" s="6">
+        <v>5</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10">
+      <c r="C196" s="6">
+        <v>5013</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" s="6">
+        <v>5</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="4"/>
+        <v>13000</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1</v>
+      </c>
+      <c r="H196" s="6">
+        <v>18</v>
+      </c>
+      <c r="I196" s="6">
+        <v>5</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10">
+      <c r="C197" s="6">
+        <v>5014</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E197" s="6">
+        <v>5</v>
+      </c>
+      <c r="F197" s="6">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1</v>
+      </c>
+      <c r="H197" s="6">
+        <v>18</v>
+      </c>
+      <c r="I197" s="6">
+        <v>5</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10">
+      <c r="C198" s="6">
+        <v>5015</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E198" s="6">
+        <v>5</v>
+      </c>
+      <c r="F198" s="6">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H198" s="6">
+        <v>18</v>
+      </c>
+      <c r="I198" s="6">
+        <v>5</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10">
+      <c r="C199" s="6">
+        <v>5016</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E199" s="6">
+        <v>5</v>
+      </c>
+      <c r="F199" s="6">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
+      <c r="H199" s="6">
+        <v>18</v>
+      </c>
+      <c r="I199" s="6">
+        <v>5</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10">
+      <c r="C200" s="6">
+        <v>5017</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200" s="6">
+        <v>5</v>
+      </c>
+      <c r="F200" s="6">
+        <f t="shared" si="4"/>
+        <v>17000</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1</v>
+      </c>
+      <c r="H200" s="6">
+        <v>18</v>
+      </c>
+      <c r="I200" s="6">
+        <v>5</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10">
+      <c r="C201" s="6">
+        <v>5018</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201" s="6">
+        <v>5</v>
+      </c>
+      <c r="F201" s="6">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="G201" s="6">
+        <v>1</v>
+      </c>
+      <c r="H201" s="6">
+        <v>18</v>
+      </c>
+      <c r="I201" s="6">
+        <v>5</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10">
+      <c r="C202" s="6">
+        <v>5019</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E202" s="6">
+        <v>5</v>
+      </c>
+      <c r="F202" s="6">
+        <f t="shared" si="4"/>
+        <v>19000</v>
+      </c>
+      <c r="G202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H202" s="6">
+        <v>18</v>
+      </c>
+      <c r="I202" s="6">
+        <v>5</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="C203" s="6">
+        <v>5020</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E203" s="6">
+        <v>5</v>
+      </c>
+      <c r="F203" s="6">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H203" s="6">
+        <v>18</v>
+      </c>
+      <c r="I203" s="6">
+        <v>5</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="C205" s="6">
+        <v>6001</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205" s="6">
+        <v>6</v>
+      </c>
+      <c r="F205" s="6">
+        <v>100</v>
+      </c>
+      <c r="G205" s="6">
+        <v>4</v>
+      </c>
+      <c r="H205" s="6">
+        <v>0</v>
+      </c>
+      <c r="I205" s="6">
+        <v>1</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="3:10">
+      <c r="C206" s="6">
+        <v>6002</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E206" s="6">
+        <v>6</v>
+      </c>
+      <c r="F206" s="6">
+        <v>200</v>
+      </c>
+      <c r="G206" s="6">
+        <v>4</v>
+      </c>
+      <c r="H206" s="6">
+        <v>0</v>
+      </c>
+      <c r="I206" s="6">
+        <v>1</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="3:10">
+      <c r="C207" s="6">
+        <v>6003</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207" s="6">
+        <v>6</v>
+      </c>
+      <c r="F207" s="6">
+        <v>300</v>
+      </c>
+      <c r="G207" s="6">
+        <v>4</v>
+      </c>
+      <c r="H207" s="6">
+        <v>0</v>
+      </c>
+      <c r="I207" s="6">
+        <v>1</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="3:10">
+      <c r="C208" s="6">
+        <v>6004</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E208" s="6">
+        <v>6</v>
+      </c>
+      <c r="F208" s="6">
+        <v>400</v>
+      </c>
+      <c r="G208" s="6">
+        <v>4</v>
+      </c>
+      <c r="H208" s="6">
+        <v>0</v>
+      </c>
+      <c r="I208" s="6">
+        <v>1</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10">
+      <c r="C209" s="6">
+        <v>6005</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209" s="6">
+        <v>6</v>
+      </c>
+      <c r="F209" s="6">
+        <v>500</v>
+      </c>
+      <c r="G209" s="6">
+        <v>4</v>
+      </c>
+      <c r="H209" s="6">
+        <v>0</v>
+      </c>
+      <c r="I209" s="6">
+        <v>1</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="C210" s="6">
+        <v>6006</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E210" s="6">
+        <v>6</v>
+      </c>
+      <c r="F210" s="6">
+        <v>600</v>
+      </c>
+      <c r="G210" s="6">
+        <v>4</v>
+      </c>
+      <c r="H210" s="6">
+        <v>0</v>
+      </c>
+      <c r="I210" s="6">
+        <v>1</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="C211" s="6">
+        <v>6007</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E211" s="6">
+        <v>6</v>
+      </c>
+      <c r="F211" s="6">
+        <v>700</v>
+      </c>
+      <c r="G211" s="6">
+        <v>4</v>
+      </c>
+      <c r="H211" s="6">
+        <v>0</v>
+      </c>
+      <c r="I211" s="6">
+        <v>1</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="C212" s="6">
+        <v>6008</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E212" s="6">
+        <v>6</v>
+      </c>
+      <c r="F212" s="6">
+        <v>800</v>
+      </c>
+      <c r="G212" s="6">
+        <v>4</v>
+      </c>
+      <c r="H212" s="6">
+        <v>0</v>
+      </c>
+      <c r="I212" s="6">
+        <v>1</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="C213" s="6">
+        <v>6009</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E213" s="6">
+        <v>6</v>
+      </c>
+      <c r="F213" s="6">
+        <v>900</v>
+      </c>
+      <c r="G213" s="6">
+        <v>4</v>
+      </c>
+      <c r="H213" s="6">
+        <v>0</v>
+      </c>
+      <c r="I213" s="6">
+        <v>1</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="C214" s="6">
         <v>6010</v>
       </c>
-      <c r="D192" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E192" s="6">
+      <c r="D214" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="6">
         <v>6</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F214" s="6">
         <v>1000</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G214" s="6">
         <v>4</v>
       </c>
-      <c r="H192" s="6">
+      <c r="H214" s="6">
         <v>0</v>
       </c>
-      <c r="I192" s="6">
-        <v>1</v>
-      </c>
-      <c r="J192" s="6" t="s">
-        <v>202</v>
+      <c r="I214" s="6">
+        <v>1</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="275">
   <si>
     <t>#</t>
   </si>
@@ -376,6 +376,33 @@
     <t>支持75</t>
   </si>
   <si>
+    <t>支持76</t>
+  </si>
+  <si>
+    <t>支持77</t>
+  </si>
+  <si>
+    <t>支持78</t>
+  </si>
+  <si>
+    <t>支持79</t>
+  </si>
+  <si>
+    <t>支持80</t>
+  </si>
+  <si>
+    <t>支持81</t>
+  </si>
+  <si>
+    <t>支持82</t>
+  </si>
+  <si>
+    <t>支持83</t>
+  </si>
+  <si>
+    <t>支持84</t>
+  </si>
+  <si>
     <t>发电1</t>
   </si>
   <si>
@@ -610,6 +637,36 @@
     <t>发电70</t>
   </si>
   <si>
+    <t>发电71</t>
+  </si>
+  <si>
+    <t>发电72</t>
+  </si>
+  <si>
+    <t>发电73</t>
+  </si>
+  <si>
+    <t>发电74</t>
+  </si>
+  <si>
+    <t>发电75</t>
+  </si>
+  <si>
+    <t>发电76</t>
+  </si>
+  <si>
+    <t>发电77</t>
+  </si>
+  <si>
+    <t>发电78</t>
+  </si>
+  <si>
+    <t>发电79</t>
+  </si>
+  <si>
+    <t>发电80</t>
+  </si>
+  <si>
     <t>强化1</t>
   </si>
   <si>
@@ -643,6 +700,30 @@
     <t>强化10</t>
   </si>
   <si>
+    <t>强化11</t>
+  </si>
+  <si>
+    <t>强化12</t>
+  </si>
+  <si>
+    <t>强化13</t>
+  </si>
+  <si>
+    <t>强化14</t>
+  </si>
+  <si>
+    <t>强化15</t>
+  </si>
+  <si>
+    <t>强化16</t>
+  </si>
+  <si>
+    <t>强化17</t>
+  </si>
+  <si>
+    <t>强化18</t>
+  </si>
+  <si>
     <t>精炼1</t>
   </si>
   <si>
@@ -676,6 +757,12 @@
     <t>精炼10</t>
   </si>
   <si>
+    <t>精炼11</t>
+  </si>
+  <si>
+    <t>精炼12</t>
+  </si>
+  <si>
     <t>等级1</t>
   </si>
   <si>
@@ -739,6 +826,21 @@
     <t>等级20</t>
   </si>
   <si>
+    <t>等级21</t>
+  </si>
+  <si>
+    <t>等级22</t>
+  </si>
+  <si>
+    <t>等级23</t>
+  </si>
+  <si>
+    <t>等级24</t>
+  </si>
+  <si>
+    <t>等级25</t>
+  </si>
+  <si>
     <t>BOSS之家1</t>
   </si>
   <si>
@@ -770,6 +872,36 @@
   </si>
   <si>
     <t>BOSS之家10</t>
+  </si>
+  <si>
+    <t>BOSS之家11</t>
+  </si>
+  <si>
+    <t>BOSS之家12</t>
+  </si>
+  <si>
+    <t>BOSS之家13</t>
+  </si>
+  <si>
+    <t>BOSS之家14</t>
+  </si>
+  <si>
+    <t>BOSS之家15</t>
+  </si>
+  <si>
+    <t>BOSS之家16</t>
+  </si>
+  <si>
+    <t>BOSS之家17</t>
+  </si>
+  <si>
+    <t>BOSS之家18</t>
+  </si>
+  <si>
+    <t>BOSS之家19</t>
+  </si>
+  <si>
+    <t>BOSS之家20</t>
   </si>
 </sst>
 </file>
@@ -1760,10 +1892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K214"/>
+  <dimension ref="C2:K255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3781,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" ref="F70:F80" si="1">(C70-1000)*24</f>
+        <f t="shared" ref="F70:F89" si="1">(C70-1000)*24</f>
         <v>1560</v>
       </c>
       <c r="G70" s="6">
@@ -4100,2274 +4232,2539 @@
         <v>32</v>
       </c>
     </row>
+    <row r="81" spans="3:11">
+      <c r="C81" s="6">
+        <v>1076</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="1"/>
+        <v>1824</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6">
+        <v>14</v>
+      </c>
+      <c r="I81" s="6">
+        <v>5</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11">
+      <c r="C82" s="6">
+        <v>1077</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="1"/>
+        <v>1848</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>15</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11">
+      <c r="C83" s="6">
+        <v>1078</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>1872</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6">
+        <v>16</v>
+      </c>
+      <c r="I83" s="6">
+        <v>5</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11">
+      <c r="C84" s="6">
+        <v>1079</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>1896</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6">
+        <v>8</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11">
+      <c r="C85" s="6">
+        <v>1080</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="6">
+        <v>9</v>
+      </c>
+      <c r="I85" s="6">
+        <v>5</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11">
+      <c r="C86" s="6">
+        <v>1081</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="1"/>
+        <v>1944</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
+        <v>10</v>
+      </c>
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="87" spans="3:11">
       <c r="C87" s="6">
-        <v>2001</v>
+        <v>1082</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E87" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" ref="F87:F150" si="2">(C87-2000)*12</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>1968</v>
       </c>
       <c r="G87" s="6">
         <v>1</v>
       </c>
       <c r="H87" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I87" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="3:11">
       <c r="C88" s="6">
+        <v>1083</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6">
+        <v>12</v>
+      </c>
+      <c r="I88" s="6">
+        <v>2</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="3:11">
+      <c r="C89" s="3">
+        <v>1084</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11">
+      <c r="C92" s="6">
+        <v>2001</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" ref="F92:F155" si="2">(C92-2000)*12</f>
+        <v>12</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+      <c r="H92" s="6">
+        <v>14</v>
+      </c>
+      <c r="I92" s="6">
+        <v>3</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11">
+      <c r="C93" s="6">
         <v>2002</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="6">
+      <c r="D93" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="6">
         <v>2</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G88" s="6">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6">
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6">
         <v>15</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I93" s="6">
         <v>3</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K88" s="6" t="s">
+      <c r="J93" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="3:11">
-      <c r="C89" s="6">
+    <row r="94" spans="3:11">
+      <c r="C94" s="6">
         <v>2003</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89" s="6">
+      <c r="D94" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="6">
         <v>2</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F94" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G89" s="6">
-        <v>1</v>
-      </c>
-      <c r="H89" s="6">
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
         <v>16</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I94" s="6">
         <v>3</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K89" s="6" t="s">
+      <c r="J94" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K94" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="3:11">
-      <c r="C90" s="6">
+    <row r="95" spans="3:11">
+      <c r="C95" s="6">
         <v>2004</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" s="6">
+      <c r="D95" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="6">
         <v>2</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F95" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G90" s="6">
-        <v>1</v>
-      </c>
-      <c r="H90" s="6">
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6">
         <v>18</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I95" s="6">
         <v>3</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="3:11">
-      <c r="C91" s="6">
+      <c r="J95" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11">
+      <c r="C96" s="6">
         <v>2005</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" s="6">
+      <c r="D96" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="6">
         <v>2</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F96" s="6">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G91" s="6">
-        <v>1</v>
-      </c>
-      <c r="H91" s="6">
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6">
         <v>19</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I96" s="6">
         <v>3</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11">
-      <c r="C92" s="6">
+      <c r="J96" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11">
+      <c r="C97" s="6">
         <v>2006</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="6">
+      <c r="D97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="6">
         <v>2</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F97" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="G92" s="6">
-        <v>1</v>
-      </c>
-      <c r="H92" s="6">
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6">
         <v>20</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I97" s="6">
         <v>3</v>
       </c>
-      <c r="J92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="3:11">
-      <c r="C93" s="6">
+      <c r="J97" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="C98" s="6">
         <v>2007</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="6">
+      <c r="D98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="6">
         <v>2</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F98" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-      <c r="H93" s="6">
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
         <v>24</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I98" s="6">
         <v>3</v>
       </c>
-      <c r="J93" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="3:11">
-      <c r="C94" s="6">
+      <c r="J98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="C99" s="6">
         <v>2008</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="D99" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="6">
         <v>2</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F99" s="6">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G94" s="6">
-        <v>1</v>
-      </c>
-      <c r="H94" s="6">
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="6">
         <v>26</v>
       </c>
-      <c r="I94" s="6">
-        <v>5</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11">
-      <c r="C95" s="6">
+      <c r="I99" s="6">
+        <v>5</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11">
+      <c r="C100" s="6">
         <v>2009</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E95" s="6">
+      <c r="D100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="6">
         <v>2</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F100" s="6">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="G95" s="6">
-        <v>1</v>
-      </c>
-      <c r="H95" s="6">
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H100" s="6">
         <v>27</v>
       </c>
-      <c r="I95" s="6">
-        <v>5</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" s="3" customFormat="1" spans="3:11">
-      <c r="C96" s="3">
+      <c r="I100" s="6">
+        <v>5</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="3:11">
+      <c r="C101" s="3">
         <v>2010</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="D101" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="3">
         <v>2</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F101" s="3">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
         <v>28</v>
       </c>
-      <c r="I96" s="3">
-        <v>5</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11">
-      <c r="C97" s="6">
+      <c r="I101" s="3">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="C102" s="6">
         <v>2011</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="6">
+      <c r="D102" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="6">
         <v>2</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F102" s="6">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="G97" s="6">
-        <v>1</v>
-      </c>
-      <c r="H97" s="6">
-        <v>14</v>
-      </c>
-      <c r="I97" s="6">
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6">
+        <v>14</v>
+      </c>
+      <c r="I102" s="6">
         <v>3</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K97" s="6" t="s">
+      <c r="J102" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:11">
-      <c r="C98" s="6">
+    <row r="103" spans="3:11">
+      <c r="C103" s="6">
         <v>2012</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="6">
+      <c r="D103" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="6">
         <v>2</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F103" s="6">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="6">
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="6">
         <v>15</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I103" s="6">
         <v>3</v>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K98" s="6" t="s">
+      <c r="J103" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="3:11">
-      <c r="C99" s="6">
+    <row r="104" spans="3:11">
+      <c r="C104" s="6">
         <v>2013</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E99" s="6">
+      <c r="D104" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="6">
         <v>2</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F104" s="6">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6">
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6">
         <v>16</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I104" s="6">
         <v>3</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K99" s="6" t="s">
+      <c r="J104" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="3:11">
-      <c r="C100" s="6">
+    <row r="105" spans="3:11">
+      <c r="C105" s="6">
         <v>2014</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D105" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="6">
         <v>2</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F105" s="6">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="G100" s="6">
-        <v>1</v>
-      </c>
-      <c r="H100" s="6">
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H105" s="6">
         <v>18</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I105" s="6">
         <v>3</v>
       </c>
-      <c r="J100" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11">
-      <c r="C101" s="6">
+      <c r="J105" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="C106" s="6">
         <v>2015</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D106" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="6">
         <v>2</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F106" s="6">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="G101" s="6">
-        <v>1</v>
-      </c>
-      <c r="H101" s="6">
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="6">
         <v>19</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I106" s="6">
         <v>3</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11">
-      <c r="C102" s="6">
+      <c r="J106" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="C107" s="6">
         <v>2016</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" s="6">
+      <c r="D107" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="6">
         <v>2</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F107" s="6">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="G102" s="6">
-        <v>1</v>
-      </c>
-      <c r="H102" s="6">
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
         <v>20</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I107" s="6">
         <v>3</v>
       </c>
-      <c r="J102" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="3:11">
-      <c r="C103" s="6">
+      <c r="J107" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108" s="6">
         <v>2017</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E103" s="6">
+      <c r="D108" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="6">
         <v>2</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F108" s="6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="G103" s="6">
-        <v>1</v>
-      </c>
-      <c r="H103" s="6">
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="6">
         <v>24</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I108" s="6">
         <v>3</v>
       </c>
-      <c r="J103" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="3:11">
-      <c r="C104" s="6">
+      <c r="J108" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="C109" s="6">
         <v>2018</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="6">
+      <c r="D109" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="6">
         <v>2</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F109" s="6">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="G104" s="6">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6">
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6">
         <v>26</v>
       </c>
-      <c r="I104" s="6">
-        <v>5</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="3:11">
-      <c r="C105" s="6">
+      <c r="I109" s="6">
+        <v>5</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" s="6">
         <v>2019</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" s="6">
+      <c r="D110" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="6">
         <v>2</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F110" s="6">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="G105" s="6">
-        <v>1</v>
-      </c>
-      <c r="H105" s="6">
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="6">
         <v>27</v>
       </c>
-      <c r="I105" s="6">
-        <v>5</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="106" s="3" customFormat="1" spans="3:11">
-      <c r="C106" s="3">
+      <c r="I110" s="6">
+        <v>5</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1" spans="3:11">
+      <c r="C111" s="3">
         <v>2020</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="D111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="3">
         <v>2</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F111" s="3">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G106" s="3">
-        <v>1</v>
-      </c>
-      <c r="H106" s="3">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
         <v>28</v>
       </c>
-      <c r="I106" s="3">
-        <v>5</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="3:11">
-      <c r="C107" s="6">
+      <c r="I111" s="3">
+        <v>5</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="C112" s="6">
         <v>2021</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" s="6">
+      <c r="D112" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="6">
         <v>2</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F112" s="6">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="G107" s="6">
-        <v>1</v>
-      </c>
-      <c r="H107" s="6">
-        <v>14</v>
-      </c>
-      <c r="I107" s="6">
+      <c r="G112" s="6">
+        <v>1</v>
+      </c>
+      <c r="H112" s="6">
+        <v>14</v>
+      </c>
+      <c r="I112" s="6">
         <v>3</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K107" s="6" t="s">
+      <c r="J112" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="3:11">
-      <c r="C108" s="6">
+    <row r="113" spans="3:11">
+      <c r="C113" s="6">
         <v>2022</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" s="6">
+      <c r="D113" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="6">
         <v>2</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F113" s="6">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="G108" s="6">
-        <v>1</v>
-      </c>
-      <c r="H108" s="6">
+      <c r="G113" s="6">
+        <v>1</v>
+      </c>
+      <c r="H113" s="6">
         <v>15</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I113" s="6">
         <v>3</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K108" s="6" t="s">
+      <c r="J113" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="3:11">
-      <c r="C109" s="6">
+    <row r="114" spans="3:11">
+      <c r="C114" s="6">
         <v>2023</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" s="6">
+      <c r="D114" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="6">
         <v>2</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F114" s="6">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H109" s="6">
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6">
         <v>16</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I114" s="6">
         <v>3</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K109" s="6" t="s">
+      <c r="J114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:11">
-      <c r="C110" s="6">
+    <row r="115" spans="3:11">
+      <c r="C115" s="6">
         <v>2024</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" s="6">
+      <c r="D115" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="6">
         <v>2</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F115" s="6">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
-      <c r="G110" s="6">
-        <v>1</v>
-      </c>
-      <c r="H110" s="6">
+      <c r="G115" s="6">
+        <v>1</v>
+      </c>
+      <c r="H115" s="6">
         <v>18</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I115" s="6">
         <v>3</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="3:11">
-      <c r="C111" s="6">
+      <c r="J115" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="6">
         <v>2025</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E111" s="6">
+      <c r="D116" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="6">
         <v>2</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F116" s="6">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G111" s="6">
-        <v>1</v>
-      </c>
-      <c r="H111" s="6">
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
+      <c r="H116" s="6">
         <v>19</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I116" s="6">
         <v>3</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="3:11">
-      <c r="C112" s="6">
+      <c r="J116" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11">
+      <c r="C117" s="6">
         <v>2026</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="6">
+      <c r="D117" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="6">
         <v>2</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F117" s="6">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6">
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H117" s="6">
         <v>20</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I117" s="6">
         <v>3</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="3:11">
-      <c r="C113" s="6">
+      <c r="J117" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="C118" s="6">
         <v>2027</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="6">
+      <c r="D118" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="6">
         <v>2</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F118" s="6">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="G113" s="6">
-        <v>1</v>
-      </c>
-      <c r="H113" s="6">
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H118" s="6">
         <v>24</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I118" s="6">
         <v>3</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="3:11">
-      <c r="C114" s="6">
+      <c r="J118" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119" s="6">
         <v>2028</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="6">
+      <c r="D119" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="6">
         <v>2</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F119" s="6">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="G114" s="6">
-        <v>1</v>
-      </c>
-      <c r="H114" s="6">
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H119" s="6">
         <v>26</v>
       </c>
-      <c r="I114" s="6">
-        <v>5</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="3:11">
-      <c r="C115" s="6">
+      <c r="I119" s="6">
+        <v>5</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11">
+      <c r="C120" s="6">
         <v>2029</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" s="6">
+      <c r="D120" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="6">
         <v>2</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F120" s="6">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="G115" s="6">
-        <v>1</v>
-      </c>
-      <c r="H115" s="6">
+      <c r="G120" s="6">
+        <v>1</v>
+      </c>
+      <c r="H120" s="6">
         <v>27</v>
       </c>
-      <c r="I115" s="6">
-        <v>5</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" s="3" customFormat="1" spans="3:11">
-      <c r="C116" s="3">
+      <c r="I120" s="6">
+        <v>5</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="3:11">
+      <c r="C121" s="3">
         <v>2030</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D121" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="3">
         <v>2</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F121" s="3">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3">
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3">
         <v>28</v>
       </c>
-      <c r="I116" s="3">
-        <v>5</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="3:11">
-      <c r="C117" s="6">
+      <c r="I121" s="3">
+        <v>5</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11">
+      <c r="C122" s="6">
         <v>2031</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" s="6">
+      <c r="D122" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="6">
         <v>2</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F122" s="6">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
-      <c r="G117" s="6">
-        <v>1</v>
-      </c>
-      <c r="H117" s="6">
-        <v>14</v>
-      </c>
-      <c r="I117" s="6">
+      <c r="G122" s="6">
+        <v>1</v>
+      </c>
+      <c r="H122" s="6">
+        <v>14</v>
+      </c>
+      <c r="I122" s="6">
         <v>3</v>
       </c>
-      <c r="J117" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K117" s="6" t="s">
+      <c r="J122" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="3:11">
-      <c r="C118" s="6">
+    <row r="123" spans="3:11">
+      <c r="C123" s="6">
         <v>2032</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="6">
+      <c r="D123" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="6">
         <v>2</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F123" s="6">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="G118" s="6">
-        <v>1</v>
-      </c>
-      <c r="H118" s="6">
+      <c r="G123" s="6">
+        <v>1</v>
+      </c>
+      <c r="H123" s="6">
         <v>15</v>
       </c>
-      <c r="I118" s="6">
+      <c r="I123" s="6">
         <v>3</v>
       </c>
-      <c r="J118" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K118" s="6" t="s">
+      <c r="J123" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K123" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="3:11">
-      <c r="C119" s="6">
+    <row r="124" spans="3:11">
+      <c r="C124" s="6">
         <v>2033</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E119" s="6">
+      <c r="D124" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="6">
         <v>2</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F124" s="6">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="G119" s="6">
-        <v>1</v>
-      </c>
-      <c r="H119" s="6">
+      <c r="G124" s="6">
+        <v>1</v>
+      </c>
+      <c r="H124" s="6">
         <v>16</v>
       </c>
-      <c r="I119" s="6">
+      <c r="I124" s="6">
         <v>3</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K119" s="6" t="s">
+      <c r="J124" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="3:11">
-      <c r="C120" s="6">
+    <row r="125" spans="3:11">
+      <c r="C125" s="6">
         <v>2034</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" s="6">
+      <c r="D125" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="6">
         <v>2</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F125" s="6">
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
-      <c r="G120" s="6">
-        <v>1</v>
-      </c>
-      <c r="H120" s="6">
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
+      <c r="H125" s="6">
         <v>18</v>
       </c>
-      <c r="I120" s="6">
+      <c r="I125" s="6">
         <v>3</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="121" spans="3:11">
-      <c r="C121" s="6">
+      <c r="J125" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11">
+      <c r="C126" s="6">
         <v>2035</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E121" s="6">
+      <c r="D126" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="6">
         <v>2</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F126" s="6">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="G121" s="6">
-        <v>1</v>
-      </c>
-      <c r="H121" s="6">
+      <c r="G126" s="6">
+        <v>1</v>
+      </c>
+      <c r="H126" s="6">
         <v>19</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I126" s="6">
         <v>3</v>
       </c>
-      <c r="J121" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="3:11">
-      <c r="C122" s="6">
+      <c r="J126" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11">
+      <c r="C127" s="6">
         <v>2036</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="6">
+      <c r="D127" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="6">
         <v>2</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F127" s="6">
         <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="G122" s="6">
-        <v>1</v>
-      </c>
-      <c r="H122" s="6">
+      <c r="G127" s="6">
+        <v>1</v>
+      </c>
+      <c r="H127" s="6">
         <v>20</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I127" s="6">
         <v>3</v>
       </c>
-      <c r="J122" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="3:11">
-      <c r="C123" s="6">
+      <c r="J127" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11">
+      <c r="C128" s="6">
         <v>2037</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E123" s="6">
+      <c r="D128" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E128" s="6">
         <v>2</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F128" s="6">
         <f t="shared" si="2"/>
         <v>444</v>
       </c>
-      <c r="G123" s="6">
-        <v>1</v>
-      </c>
-      <c r="H123" s="6">
+      <c r="G128" s="6">
+        <v>1</v>
+      </c>
+      <c r="H128" s="6">
         <v>24</v>
       </c>
-      <c r="I123" s="6">
+      <c r="I128" s="6">
         <v>3</v>
       </c>
-      <c r="J123" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K123" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="124" spans="3:11">
-      <c r="C124" s="6">
+      <c r="J128" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11">
+      <c r="C129" s="6">
         <v>2038</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E124" s="6">
+      <c r="D129" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" s="6">
         <v>2</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F129" s="6">
         <f t="shared" si="2"/>
         <v>456</v>
       </c>
-      <c r="G124" s="6">
-        <v>1</v>
-      </c>
-      <c r="H124" s="6">
+      <c r="G129" s="6">
+        <v>1</v>
+      </c>
+      <c r="H129" s="6">
         <v>26</v>
       </c>
-      <c r="I124" s="6">
-        <v>5</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="3:11">
-      <c r="C125" s="6">
+      <c r="I129" s="6">
+        <v>5</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="3:11">
+      <c r="C130" s="6">
         <v>2039</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E125" s="6">
+      <c r="D130" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E130" s="6">
         <v>2</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F130" s="6">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="G125" s="6">
-        <v>1</v>
-      </c>
-      <c r="H125" s="6">
+      <c r="G130" s="6">
+        <v>1</v>
+      </c>
+      <c r="H130" s="6">
         <v>27</v>
       </c>
-      <c r="I125" s="6">
-        <v>5</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="126" s="3" customFormat="1" spans="3:11">
-      <c r="C126" s="3">
+      <c r="I130" s="6">
+        <v>5</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" s="3" customFormat="1" spans="3:11">
+      <c r="C131" s="3">
         <v>2040</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="D131" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" s="3">
         <v>2</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F131" s="3">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="G126" s="3">
-        <v>1</v>
-      </c>
-      <c r="H126" s="3">
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3">
         <v>28</v>
       </c>
-      <c r="I126" s="3">
-        <v>5</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="3:11">
-      <c r="C127" s="6">
+      <c r="I131" s="3">
+        <v>5</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11">
+      <c r="C132" s="6">
         <v>2041</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" s="6">
+      <c r="D132" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="6">
         <v>2</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F132" s="6">
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
-      <c r="G127" s="6">
-        <v>1</v>
-      </c>
-      <c r="H127" s="6">
-        <v>14</v>
-      </c>
-      <c r="I127" s="6">
+      <c r="G132" s="6">
+        <v>1</v>
+      </c>
+      <c r="H132" s="6">
+        <v>14</v>
+      </c>
+      <c r="I132" s="6">
         <v>3</v>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K127" s="6" t="s">
+      <c r="J132" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K132" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="3:11">
-      <c r="C128" s="6">
+    <row r="133" spans="3:11">
+      <c r="C133" s="6">
         <v>2042</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" s="6">
+      <c r="D133" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="6">
         <v>2</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F133" s="6">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="G128" s="6">
-        <v>1</v>
-      </c>
-      <c r="H128" s="6">
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
+      <c r="H133" s="6">
         <v>15</v>
       </c>
-      <c r="I128" s="6">
+      <c r="I133" s="6">
         <v>3</v>
       </c>
-      <c r="J128" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K128" s="6" t="s">
+      <c r="J133" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K133" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="3:11">
-      <c r="C129" s="6">
+    <row r="134" spans="3:11">
+      <c r="C134" s="6">
         <v>2043</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129" s="6">
+      <c r="D134" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="6">
         <v>2</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F134" s="6">
         <f t="shared" si="2"/>
         <v>516</v>
       </c>
-      <c r="G129" s="6">
-        <v>1</v>
-      </c>
-      <c r="H129" s="6">
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6">
         <v>16</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I134" s="6">
         <v>3</v>
       </c>
-      <c r="J129" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K129" s="6" t="s">
+      <c r="J134" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="3:11">
-      <c r="C130" s="6">
+    <row r="135" spans="3:11">
+      <c r="C135" s="6">
         <v>2044</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E130" s="6">
+      <c r="D135" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" s="6">
         <v>2</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F135" s="6">
         <f t="shared" si="2"/>
         <v>528</v>
       </c>
-      <c r="G130" s="6">
-        <v>1</v>
-      </c>
-      <c r="H130" s="6">
+      <c r="G135" s="6">
+        <v>1</v>
+      </c>
+      <c r="H135" s="6">
         <v>18</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I135" s="6">
         <v>3</v>
       </c>
-      <c r="J130" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K130" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="3:11">
-      <c r="C131" s="6">
+      <c r="J135" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="3:11">
+      <c r="C136" s="6">
         <v>2045</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" s="6">
+      <c r="D136" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="6">
         <v>2</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F136" s="6">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="G131" s="6">
-        <v>1</v>
-      </c>
-      <c r="H131" s="6">
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
+      <c r="H136" s="6">
         <v>19</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I136" s="6">
         <v>3</v>
       </c>
-      <c r="J131" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="3:11">
-      <c r="C132" s="6">
+      <c r="J136" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="3:11">
+      <c r="C137" s="6">
         <v>2046</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E132" s="6">
+      <c r="D137" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" s="6">
         <v>2</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F137" s="6">
         <f t="shared" si="2"/>
         <v>552</v>
       </c>
-      <c r="G132" s="6">
-        <v>1</v>
-      </c>
-      <c r="H132" s="6">
+      <c r="G137" s="6">
+        <v>1</v>
+      </c>
+      <c r="H137" s="6">
         <v>20</v>
       </c>
-      <c r="I132" s="6">
+      <c r="I137" s="6">
         <v>3</v>
       </c>
-      <c r="J132" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K132" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="3:11">
-      <c r="C133" s="6">
+      <c r="J137" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11">
+      <c r="C138" s="6">
         <v>2047</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="D138" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" s="6">
         <v>2</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F138" s="6">
         <f t="shared" si="2"/>
         <v>564</v>
       </c>
-      <c r="G133" s="6">
-        <v>1</v>
-      </c>
-      <c r="H133" s="6">
+      <c r="G138" s="6">
+        <v>1</v>
+      </c>
+      <c r="H138" s="6">
         <v>24</v>
       </c>
-      <c r="I133" s="6">
+      <c r="I138" s="6">
         <v>3</v>
       </c>
-      <c r="J133" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K133" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="3:11">
-      <c r="C134" s="6">
+      <c r="J138" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="3:11">
+      <c r="C139" s="6">
         <v>2048</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E134" s="6">
+      <c r="D139" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="6">
         <v>2</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F139" s="6">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="G134" s="6">
-        <v>1</v>
-      </c>
-      <c r="H134" s="6">
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
+      <c r="H139" s="6">
         <v>26</v>
       </c>
-      <c r="I134" s="6">
-        <v>5</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K134" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="135" spans="3:11">
-      <c r="C135" s="6">
+      <c r="I139" s="6">
+        <v>5</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="3:11">
+      <c r="C140" s="6">
         <v>2049</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135" s="6">
+      <c r="D140" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140" s="6">
         <v>2</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F140" s="6">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="G135" s="6">
-        <v>1</v>
-      </c>
-      <c r="H135" s="6">
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
+      <c r="H140" s="6">
         <v>27</v>
       </c>
-      <c r="I135" s="6">
-        <v>5</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" s="3" customFormat="1" spans="3:11">
-      <c r="C136" s="3">
+      <c r="I140" s="6">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" s="3" customFormat="1" spans="3:11">
+      <c r="C141" s="3">
         <v>2050</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D141" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E141" s="3">
         <v>2</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F141" s="3">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="3">
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="H141" s="3">
         <v>28</v>
       </c>
-      <c r="I136" s="3">
-        <v>5</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="137" spans="3:11">
-      <c r="C137" s="6">
+      <c r="I141" s="3">
+        <v>5</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11">
+      <c r="C142" s="6">
         <v>2051</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E137" s="6">
+      <c r="D142" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142" s="6">
         <v>2</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F142" s="6">
         <f t="shared" si="2"/>
         <v>612</v>
       </c>
-      <c r="G137" s="6">
-        <v>1</v>
-      </c>
-      <c r="H137" s="6">
-        <v>14</v>
-      </c>
-      <c r="I137" s="6">
+      <c r="G142" s="6">
+        <v>1</v>
+      </c>
+      <c r="H142" s="6">
+        <v>14</v>
+      </c>
+      <c r="I142" s="6">
         <v>3</v>
       </c>
-      <c r="J137" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K137" s="6" t="s">
+      <c r="J142" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="3:11">
-      <c r="C138" s="6">
+    <row r="143" spans="3:11">
+      <c r="C143" s="6">
         <v>2052</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" s="6">
+      <c r="D143" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143" s="6">
         <v>2</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F143" s="6">
         <f t="shared" si="2"/>
         <v>624</v>
       </c>
-      <c r="G138" s="6">
-        <v>1</v>
-      </c>
-      <c r="H138" s="6">
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6">
         <v>15</v>
       </c>
-      <c r="I138" s="6">
+      <c r="I143" s="6">
         <v>3</v>
       </c>
-      <c r="J138" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K138" s="6" t="s">
+      <c r="J143" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K143" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="3:11">
-      <c r="C139" s="6">
+    <row r="144" spans="3:11">
+      <c r="C144" s="6">
         <v>2053</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E139" s="6">
+      <c r="D144" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" s="6">
         <v>2</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F144" s="6">
         <f t="shared" si="2"/>
         <v>636</v>
       </c>
-      <c r="G139" s="6">
-        <v>1</v>
-      </c>
-      <c r="H139" s="6">
+      <c r="G144" s="6">
+        <v>1</v>
+      </c>
+      <c r="H144" s="6">
         <v>16</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I144" s="6">
         <v>3</v>
       </c>
-      <c r="J139" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K139" s="6" t="s">
+      <c r="J144" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="3:11">
-      <c r="C140" s="6">
+    <row r="145" spans="3:11">
+      <c r="C145" s="6">
         <v>2054</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E140" s="6">
+      <c r="D145" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" s="6">
         <v>2</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F145" s="6">
         <f t="shared" si="2"/>
         <v>648</v>
       </c>
-      <c r="G140" s="6">
-        <v>1</v>
-      </c>
-      <c r="H140" s="6">
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H145" s="6">
         <v>18</v>
       </c>
-      <c r="I140" s="6">
+      <c r="I145" s="6">
         <v>3</v>
       </c>
-      <c r="J140" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141" spans="3:11">
-      <c r="C141" s="6">
+      <c r="J145" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="3:11">
+      <c r="C146" s="6">
         <v>2055</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" s="6">
+      <c r="D146" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E146" s="6">
         <v>2</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F146" s="6">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="G141" s="6">
-        <v>1</v>
-      </c>
-      <c r="H141" s="6">
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
+      <c r="H146" s="6">
         <v>19</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I146" s="6">
         <v>3</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="142" spans="3:11">
-      <c r="C142" s="6">
+      <c r="J146" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="3:11">
+      <c r="C147" s="6">
         <v>2056</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E142" s="6">
+      <c r="D147" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" s="6">
         <v>2</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F147" s="6">
         <f t="shared" si="2"/>
         <v>672</v>
       </c>
-      <c r="G142" s="6">
-        <v>1</v>
-      </c>
-      <c r="H142" s="6">
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
+      <c r="H147" s="6">
         <v>20</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I147" s="6">
         <v>3</v>
       </c>
-      <c r="J142" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="3:11">
-      <c r="C143" s="6">
+      <c r="J147" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11">
+      <c r="C148" s="6">
         <v>2057</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" s="6">
+      <c r="D148" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148" s="6">
         <v>2</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F148" s="6">
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
-      <c r="G143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H143" s="6">
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
+      <c r="H148" s="6">
         <v>24</v>
       </c>
-      <c r="I143" s="6">
+      <c r="I148" s="6">
         <v>3</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="3:11">
-      <c r="C144" s="6">
+      <c r="J148" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11">
+      <c r="C149" s="6">
         <v>2058</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E144" s="6">
+      <c r="D149" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149" s="6">
         <v>2</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F149" s="6">
         <f t="shared" si="2"/>
         <v>696</v>
       </c>
-      <c r="G144" s="6">
-        <v>1</v>
-      </c>
-      <c r="H144" s="6">
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
+      <c r="H149" s="6">
         <v>26</v>
       </c>
-      <c r="I144" s="6">
-        <v>5</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K144" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="3:11">
-      <c r="C145" s="6">
+      <c r="I149" s="6">
+        <v>5</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="3:11">
+      <c r="C150" s="6">
         <v>2059</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E145" s="6">
+      <c r="D150" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150" s="6">
         <v>2</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F150" s="6">
         <f t="shared" si="2"/>
         <v>708</v>
       </c>
-      <c r="G145" s="6">
-        <v>1</v>
-      </c>
-      <c r="H145" s="6">
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
+      <c r="H150" s="6">
         <v>27</v>
       </c>
-      <c r="I145" s="6">
-        <v>5</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K145" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="3:11">
-      <c r="C146" s="3">
+      <c r="I150" s="6">
+        <v>5</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1" spans="3:11">
+      <c r="C151" s="3">
         <v>2060</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E146" s="3">
+      <c r="D151" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E151" s="3">
         <v>2</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F151" s="3">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G146" s="3">
-        <v>1</v>
-      </c>
-      <c r="H146" s="3">
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3">
         <v>28</v>
       </c>
-      <c r="I146" s="3">
-        <v>5</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="3:11">
-      <c r="C147" s="6">
+      <c r="I151" s="3">
+        <v>5</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="3:11">
+      <c r="C152" s="6">
         <v>2061</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E147" s="6">
+      <c r="D152" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E152" s="6">
         <v>2</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F152" s="6">
         <f t="shared" si="2"/>
         <v>732</v>
       </c>
-      <c r="G147" s="6">
-        <v>1</v>
-      </c>
-      <c r="H147" s="6">
-        <v>14</v>
-      </c>
-      <c r="I147" s="6">
+      <c r="G152" s="6">
+        <v>1</v>
+      </c>
+      <c r="H152" s="6">
+        <v>14</v>
+      </c>
+      <c r="I152" s="6">
         <v>3</v>
       </c>
-      <c r="J147" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K147" s="6" t="s">
+      <c r="J152" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K152" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="3:11">
-      <c r="C148" s="6">
+    <row r="153" spans="3:11">
+      <c r="C153" s="6">
         <v>2062</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E148" s="6">
+      <c r="D153" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="6">
         <v>2</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F153" s="6">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="G148" s="6">
-        <v>1</v>
-      </c>
-      <c r="H148" s="6">
+      <c r="G153" s="6">
+        <v>1</v>
+      </c>
+      <c r="H153" s="6">
         <v>15</v>
       </c>
-      <c r="I148" s="6">
+      <c r="I153" s="6">
         <v>3</v>
       </c>
-      <c r="J148" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K148" s="6" t="s">
+      <c r="J153" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K153" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="3:11">
-      <c r="C149" s="6">
+    <row r="154" spans="3:11">
+      <c r="C154" s="6">
         <v>2063</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E149" s="6">
+      <c r="D154" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" s="6">
         <v>2</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F154" s="6">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="G149" s="6">
-        <v>1</v>
-      </c>
-      <c r="H149" s="6">
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6">
         <v>16</v>
       </c>
-      <c r="I149" s="6">
+      <c r="I154" s="6">
         <v>3</v>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K149" s="6" t="s">
+      <c r="J154" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K154" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="3:11">
-      <c r="C150" s="6">
+    <row r="155" spans="3:11">
+      <c r="C155" s="6">
         <v>2064</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E150" s="6">
+      <c r="D155" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" s="6">
         <v>2</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F155" s="6">
         <f t="shared" si="2"/>
         <v>768</v>
       </c>
-      <c r="G150" s="6">
-        <v>1</v>
-      </c>
-      <c r="H150" s="6">
+      <c r="G155" s="6">
+        <v>1</v>
+      </c>
+      <c r="H155" s="6">
         <v>18</v>
       </c>
-      <c r="I150" s="6">
+      <c r="I155" s="6">
         <v>3</v>
       </c>
-      <c r="J150" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="151" spans="3:11">
-      <c r="C151" s="6">
+      <c r="J155" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="156" spans="3:11">
+      <c r="C156" s="6">
         <v>2065</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E151" s="6">
+      <c r="D156" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" s="6">
         <v>2</v>
       </c>
-      <c r="F151" s="6">
-        <f t="shared" ref="F151:F156" si="3">(C151-2000)*12</f>
+      <c r="F156" s="6">
+        <f t="shared" ref="F156:F171" si="3">(C156-2000)*12</f>
         <v>780</v>
       </c>
-      <c r="G151" s="6">
-        <v>1</v>
-      </c>
-      <c r="H151" s="6">
+      <c r="G156" s="6">
+        <v>1</v>
+      </c>
+      <c r="H156" s="6">
         <v>19</v>
       </c>
-      <c r="I151" s="6">
+      <c r="I156" s="6">
         <v>3</v>
       </c>
-      <c r="J151" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K151" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="152" spans="3:11">
-      <c r="C152" s="6">
+      <c r="J156" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="157" spans="3:11">
+      <c r="C157" s="6">
         <v>2066</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E152" s="6">
+      <c r="D157" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" s="6">
         <v>2</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F157" s="6">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="G152" s="6">
-        <v>1</v>
-      </c>
-      <c r="H152" s="6">
+      <c r="G157" s="6">
+        <v>1</v>
+      </c>
+      <c r="H157" s="6">
         <v>20</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I157" s="6">
         <v>3</v>
       </c>
-      <c r="J152" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K152" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="153" spans="3:11">
-      <c r="C153" s="6">
+      <c r="J157" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="3:11">
+      <c r="C158" s="6">
         <v>2067</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E153" s="6">
+      <c r="D158" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158" s="6">
         <v>2</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F158" s="6">
         <f t="shared" si="3"/>
         <v>804</v>
       </c>
-      <c r="G153" s="6">
-        <v>1</v>
-      </c>
-      <c r="H153" s="6">
+      <c r="G158" s="6">
+        <v>1</v>
+      </c>
+      <c r="H158" s="6">
         <v>24</v>
       </c>
-      <c r="I153" s="6">
+      <c r="I158" s="6">
         <v>3</v>
       </c>
-      <c r="J153" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="154" spans="3:11">
-      <c r="C154" s="6">
+      <c r="J158" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" spans="3:11">
+      <c r="C159" s="6">
         <v>2068</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E154" s="6">
+      <c r="D159" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" s="6">
         <v>2</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F159" s="6">
         <f t="shared" si="3"/>
         <v>816</v>
       </c>
-      <c r="G154" s="6">
-        <v>1</v>
-      </c>
-      <c r="H154" s="6">
+      <c r="G159" s="6">
+        <v>1</v>
+      </c>
+      <c r="H159" s="6">
         <v>26</v>
       </c>
-      <c r="I154" s="6">
-        <v>5</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="3:11">
-      <c r="C155" s="6">
+      <c r="I159" s="6">
+        <v>5</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="160" spans="3:11">
+      <c r="C160" s="6">
         <v>2069</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E155" s="6">
+      <c r="D160" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160" s="6">
         <v>2</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F160" s="6">
         <f t="shared" si="3"/>
         <v>828</v>
       </c>
-      <c r="G155" s="6">
-        <v>1</v>
-      </c>
-      <c r="H155" s="6">
+      <c r="G160" s="6">
+        <v>1</v>
+      </c>
+      <c r="H160" s="6">
         <v>27</v>
       </c>
-      <c r="I155" s="6">
-        <v>5</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" s="3" customFormat="1" spans="3:11">
-      <c r="C156" s="3">
+      <c r="I160" s="6">
+        <v>5</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" s="3" customFormat="1" spans="3:11">
+      <c r="C161" s="3">
         <v>2070</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E156" s="3">
+      <c r="D161" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161" s="3">
         <v>2</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F161" s="3">
         <f t="shared" si="3"/>
         <v>840</v>
       </c>
-      <c r="G156" s="3">
-        <v>1</v>
-      </c>
-      <c r="H156" s="3">
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3">
         <v>28</v>
       </c>
-      <c r="I156" s="3">
-        <v>5</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="161" spans="3:10">
-      <c r="C161" s="6">
-        <v>3001</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E161" s="6">
+      <c r="I161" s="3">
+        <v>5</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11">
+      <c r="C162" s="6">
+        <v>2071</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" s="6">
+        <v>2</v>
+      </c>
+      <c r="F162" s="6">
+        <f t="shared" si="3"/>
+        <v>852</v>
+      </c>
+      <c r="G162" s="6">
+        <v>1</v>
+      </c>
+      <c r="H162" s="6">
+        <v>14</v>
+      </c>
+      <c r="I162" s="6">
         <v>3</v>
       </c>
-      <c r="F161" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G161" s="6">
-        <v>1</v>
-      </c>
-      <c r="H161" s="6">
+      <c r="J162" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="3:11">
+      <c r="C163" s="6">
+        <v>2072</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E163" s="6">
+        <v>2</v>
+      </c>
+      <c r="F163" s="6">
+        <f t="shared" si="3"/>
+        <v>864</v>
+      </c>
+      <c r="G163" s="6">
+        <v>1</v>
+      </c>
+      <c r="H163" s="6">
+        <v>15</v>
+      </c>
+      <c r="I163" s="6">
+        <v>3</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11">
+      <c r="C164" s="6">
+        <v>2073</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E164" s="6">
+        <v>2</v>
+      </c>
+      <c r="F164" s="6">
+        <f t="shared" si="3"/>
+        <v>876</v>
+      </c>
+      <c r="G164" s="6">
+        <v>1</v>
+      </c>
+      <c r="H164" s="6">
+        <v>16</v>
+      </c>
+      <c r="I164" s="6">
+        <v>3</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I161" s="6">
-        <v>5</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="3:10">
-      <c r="C162" s="6">
-        <v>3002</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E162" s="6">
+    </row>
+    <row r="165" spans="3:11">
+      <c r="C165" s="6">
+        <v>2074</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E165" s="6">
+        <v>2</v>
+      </c>
+      <c r="F165" s="6">
+        <f t="shared" si="3"/>
+        <v>888</v>
+      </c>
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
+      <c r="H165" s="6">
+        <v>18</v>
+      </c>
+      <c r="I165" s="6">
         <v>3</v>
       </c>
-      <c r="F162" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G162" s="6">
-        <v>1</v>
-      </c>
-      <c r="H162" s="6">
-        <v>20</v>
-      </c>
-      <c r="I162" s="6">
-        <v>5</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="3:10">
-      <c r="C163" s="6">
-        <v>3003</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E163" s="6">
+      <c r="J165" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K165" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="3:11">
+      <c r="C166" s="6">
+        <v>2075</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" s="6">
+        <v>2</v>
+      </c>
+      <c r="F166" s="6">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
+      <c r="H166" s="6">
+        <v>19</v>
+      </c>
+      <c r="I166" s="6">
         <v>3</v>
       </c>
-      <c r="F163" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G163" s="6">
-        <v>1</v>
-      </c>
-      <c r="H163" s="6">
-        <v>20</v>
-      </c>
-      <c r="I163" s="6">
-        <v>5</v>
-      </c>
-      <c r="J163" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="3:10">
-      <c r="C164" s="6">
-        <v>3004</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E164" s="6">
-        <v>3</v>
-      </c>
-      <c r="F164" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G164" s="6">
-        <v>1</v>
-      </c>
-      <c r="H164" s="6">
-        <v>20</v>
-      </c>
-      <c r="I164" s="6">
-        <v>5</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="3:10">
-      <c r="C165" s="6">
-        <v>3005</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E165" s="6">
-        <v>3</v>
-      </c>
-      <c r="F165" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G165" s="6">
-        <v>1</v>
-      </c>
-      <c r="H165" s="6">
-        <v>20</v>
-      </c>
-      <c r="I165" s="6">
-        <v>5</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="3:10">
-      <c r="C166" s="6">
-        <v>3006</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E166" s="6">
-        <v>3</v>
-      </c>
-      <c r="F166" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G166" s="6">
-        <v>1</v>
-      </c>
-      <c r="H166" s="6">
-        <v>20</v>
-      </c>
-      <c r="I166" s="6">
-        <v>5</v>
-      </c>
       <c r="J166" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="3:10">
+        <v>109</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="3:11">
       <c r="C167" s="6">
-        <v>3007</v>
+        <v>2076</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E167" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" s="6">
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>912</v>
       </c>
       <c r="G167" s="6">
         <v>1</v>
@@ -6376,1148 +6773,2108 @@
         <v>20</v>
       </c>
       <c r="I167" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="3:10">
+        <v>109</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="168" spans="3:11">
       <c r="C168" s="6">
-        <v>3008</v>
+        <v>2077</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E168" s="6">
+        <v>2</v>
+      </c>
+      <c r="F168" s="6">
+        <f t="shared" si="3"/>
+        <v>924</v>
+      </c>
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
+      <c r="H168" s="6">
+        <v>24</v>
+      </c>
+      <c r="I168" s="6">
         <v>3</v>
       </c>
-      <c r="F168" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G168" s="6">
-        <v>1</v>
-      </c>
-      <c r="H168" s="6">
-        <v>20</v>
-      </c>
-      <c r="I168" s="6">
-        <v>5</v>
-      </c>
       <c r="J168" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="3:10">
+        <v>109</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="3:11">
       <c r="C169" s="6">
-        <v>3009</v>
+        <v>2078</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E169" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169" s="6">
-        <v>500000</v>
+        <f t="shared" si="3"/>
+        <v>936</v>
       </c>
       <c r="G169" s="6">
         <v>1</v>
       </c>
       <c r="H169" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I169" s="6">
         <v>5</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="3:10">
+        <v>109</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="170" spans="3:11">
       <c r="C170" s="6">
-        <v>3010</v>
+        <v>2079</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E170" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F170" s="6">
-        <v>700000</v>
+        <f t="shared" si="3"/>
+        <v>948</v>
       </c>
       <c r="G170" s="6">
         <v>1</v>
       </c>
       <c r="H170" s="6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I170" s="6">
         <v>5</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="173" spans="3:10">
-      <c r="C173" s="6">
-        <v>4001</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E173" s="6">
-        <v>4</v>
-      </c>
-      <c r="F173" s="6">
-        <v>100</v>
-      </c>
-      <c r="G173" s="6">
-        <v>3</v>
-      </c>
-      <c r="H173" s="6">
-        <v>0</v>
-      </c>
-      <c r="I173" s="6">
-        <v>1</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="3:10">
-      <c r="C174" s="6">
-        <v>4002</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E174" s="6">
-        <v>4</v>
-      </c>
-      <c r="F174" s="6">
-        <v>200</v>
-      </c>
-      <c r="G174" s="6">
-        <v>3</v>
-      </c>
-      <c r="H174" s="6">
-        <v>0</v>
-      </c>
-      <c r="I174" s="6">
-        <v>1</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="3:10">
-      <c r="C175" s="6">
-        <v>4003</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E175" s="6">
-        <v>4</v>
-      </c>
-      <c r="F175" s="6">
-        <v>300</v>
-      </c>
-      <c r="G175" s="6">
-        <v>3</v>
-      </c>
-      <c r="H175" s="6">
-        <v>0</v>
-      </c>
-      <c r="I175" s="6">
-        <v>1</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>189</v>
+        <v>109</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" s="3" customFormat="1" spans="3:11">
+      <c r="C171" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2</v>
+      </c>
+      <c r="F171" s="3">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3">
+        <v>28</v>
+      </c>
+      <c r="I171" s="3">
+        <v>5</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="176" spans="3:10">
       <c r="C176" s="6">
-        <v>4004</v>
+        <v>3001</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E176" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F176" s="6">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G176" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I176" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="3:10">
       <c r="C177" s="6">
-        <v>4005</v>
+        <v>3002</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E177" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" s="6">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G177" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I177" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="3:10">
       <c r="C178" s="6">
-        <v>4006</v>
+        <v>3003</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E178" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F178" s="6">
-        <v>700</v>
+        <v>10000</v>
       </c>
       <c r="G178" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I178" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="3:10">
       <c r="C179" s="6">
-        <v>4007</v>
+        <v>3004</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E179" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F179" s="6">
-        <v>900</v>
+        <v>20000</v>
       </c>
       <c r="G179" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H179" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I179" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="3:10">
       <c r="C180" s="6">
-        <v>4008</v>
+        <v>3005</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E180" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F180" s="6">
-        <v>1100</v>
+        <v>40000</v>
       </c>
       <c r="G180" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I180" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="3:10">
       <c r="C181" s="6">
-        <v>4009</v>
+        <v>3006</v>
       </c>
       <c r="D181" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181" s="6">
+        <v>3</v>
+      </c>
+      <c r="F181" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H181" s="6">
+        <v>20</v>
+      </c>
+      <c r="I181" s="6">
+        <v>5</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="E181" s="6">
-        <v>4</v>
-      </c>
-      <c r="F181" s="6">
-        <v>1300</v>
-      </c>
-      <c r="G181" s="6">
-        <v>3</v>
-      </c>
-      <c r="H181" s="6">
-        <v>0</v>
-      </c>
-      <c r="I181" s="6">
-        <v>1</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="182" spans="3:10">
       <c r="C182" s="6">
-        <v>4010</v>
+        <v>3007</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E182" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F182" s="6">
-        <v>1500</v>
+        <v>80000</v>
       </c>
       <c r="G182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H182" s="6">
+        <v>20</v>
+      </c>
+      <c r="I182" s="6">
+        <v>5</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="3:10">
+      <c r="C183" s="6">
+        <v>3008</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E183" s="6">
         <v>3</v>
       </c>
-      <c r="H182" s="6">
-        <v>0</v>
-      </c>
-      <c r="I182" s="6">
-        <v>1</v>
-      </c>
-      <c r="J182" s="6" t="s">
-        <v>189</v>
+      <c r="F183" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H183" s="6">
+        <v>20</v>
+      </c>
+      <c r="I183" s="6">
+        <v>5</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="3:10">
       <c r="C184" s="6">
-        <v>5001</v>
+        <v>3009</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E184" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F184" s="6">
-        <f t="shared" ref="F184:F203" si="4">(C184-5000)*1000</f>
-        <v>1000</v>
+        <v>120000</v>
       </c>
       <c r="G184" s="6">
         <v>1</v>
       </c>
       <c r="H184" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I184" s="6">
         <v>5</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="3:10">
       <c r="C185" s="6">
+        <v>3010</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E185" s="6">
+        <v>3</v>
+      </c>
+      <c r="F185" s="6">
+        <v>140000</v>
+      </c>
+      <c r="G185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H185" s="6">
+        <v>20</v>
+      </c>
+      <c r="I185" s="6">
+        <v>5</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="3:10">
+      <c r="C186" s="6">
+        <v>3011</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E186" s="6">
+        <v>3</v>
+      </c>
+      <c r="F186" s="6">
+        <v>160000</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H186" s="6">
+        <v>20</v>
+      </c>
+      <c r="I186" s="6">
+        <v>5</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="3:10">
+      <c r="C187" s="6">
+        <v>3012</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E187" s="6">
+        <v>3</v>
+      </c>
+      <c r="F187" s="6">
+        <v>180000</v>
+      </c>
+      <c r="G187" s="6">
+        <v>1</v>
+      </c>
+      <c r="H187" s="6">
+        <v>20</v>
+      </c>
+      <c r="I187" s="6">
+        <v>5</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="3:10">
+      <c r="C188" s="6">
+        <v>3013</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E188" s="6">
+        <v>3</v>
+      </c>
+      <c r="F188" s="6">
+        <v>200000</v>
+      </c>
+      <c r="G188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H188" s="6">
+        <v>20</v>
+      </c>
+      <c r="I188" s="6">
+        <v>5</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="C189" s="6">
+        <v>3014</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E189" s="6">
+        <v>3</v>
+      </c>
+      <c r="F189" s="6">
+        <v>220000</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H189" s="6">
+        <v>20</v>
+      </c>
+      <c r="I189" s="6">
+        <v>5</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="C190" s="6">
+        <v>3015</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E190" s="6">
+        <v>3</v>
+      </c>
+      <c r="F190" s="6">
+        <v>240000</v>
+      </c>
+      <c r="G190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H190" s="6">
+        <v>20</v>
+      </c>
+      <c r="I190" s="6">
+        <v>5</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191" spans="3:10">
+      <c r="C191" s="6">
+        <v>3016</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E191" s="6">
+        <v>3</v>
+      </c>
+      <c r="F191" s="6">
+        <v>260000</v>
+      </c>
+      <c r="G191" s="6">
+        <v>1</v>
+      </c>
+      <c r="H191" s="6">
+        <v>20</v>
+      </c>
+      <c r="I191" s="6">
+        <v>5</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="C192" s="6">
+        <v>3017</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E192" s="6">
+        <v>3</v>
+      </c>
+      <c r="F192" s="6">
+        <v>280000</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6">
+        <v>20</v>
+      </c>
+      <c r="I192" s="6">
+        <v>5</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="3:10">
+      <c r="C193" s="6">
+        <v>3018</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E193" s="6">
+        <v>3</v>
+      </c>
+      <c r="F193" s="6">
+        <v>300000</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6">
+        <v>20</v>
+      </c>
+      <c r="I193" s="6">
+        <v>5</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="3:10">
+      <c r="C196" s="6">
+        <v>4001</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E196" s="6">
+        <v>4</v>
+      </c>
+      <c r="F196" s="6">
+        <v>100</v>
+      </c>
+      <c r="G196" s="6">
+        <v>3</v>
+      </c>
+      <c r="H196" s="6">
+        <v>0</v>
+      </c>
+      <c r="I196" s="6">
+        <v>1</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="3:10">
+      <c r="C197" s="6">
+        <v>4002</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E197" s="6">
+        <v>4</v>
+      </c>
+      <c r="F197" s="6">
+        <v>200</v>
+      </c>
+      <c r="G197" s="6">
+        <v>3</v>
+      </c>
+      <c r="H197" s="6">
+        <v>0</v>
+      </c>
+      <c r="I197" s="6">
+        <v>1</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="3:10">
+      <c r="C198" s="6">
+        <v>4003</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E198" s="6">
+        <v>4</v>
+      </c>
+      <c r="F198" s="6">
+        <v>300</v>
+      </c>
+      <c r="G198" s="6">
+        <v>3</v>
+      </c>
+      <c r="H198" s="6">
+        <v>0</v>
+      </c>
+      <c r="I198" s="6">
+        <v>1</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="3:10">
+      <c r="C199" s="6">
+        <v>4004</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E199" s="6">
+        <v>4</v>
+      </c>
+      <c r="F199" s="6">
+        <v>400</v>
+      </c>
+      <c r="G199" s="6">
+        <v>3</v>
+      </c>
+      <c r="H199" s="6">
+        <v>0</v>
+      </c>
+      <c r="I199" s="6">
+        <v>1</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="3:10">
+      <c r="C200" s="6">
+        <v>4005</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E200" s="6">
+        <v>4</v>
+      </c>
+      <c r="F200" s="6">
+        <v>500</v>
+      </c>
+      <c r="G200" s="6">
+        <v>3</v>
+      </c>
+      <c r="H200" s="6">
+        <v>0</v>
+      </c>
+      <c r="I200" s="6">
+        <v>1</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="3:10">
+      <c r="C201" s="6">
+        <v>4006</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E201" s="6">
+        <v>4</v>
+      </c>
+      <c r="F201" s="6">
+        <v>700</v>
+      </c>
+      <c r="G201" s="6">
+        <v>3</v>
+      </c>
+      <c r="H201" s="6">
+        <v>0</v>
+      </c>
+      <c r="I201" s="6">
+        <v>1</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="3:10">
+      <c r="C202" s="6">
+        <v>4007</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E202" s="6">
+        <v>4</v>
+      </c>
+      <c r="F202" s="6">
+        <v>900</v>
+      </c>
+      <c r="G202" s="6">
+        <v>3</v>
+      </c>
+      <c r="H202" s="6">
+        <v>0</v>
+      </c>
+      <c r="I202" s="6">
+        <v>1</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="C203" s="6">
+        <v>4008</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" s="6">
+        <v>4</v>
+      </c>
+      <c r="F203" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G203" s="6">
+        <v>3</v>
+      </c>
+      <c r="H203" s="6">
+        <v>0</v>
+      </c>
+      <c r="I203" s="6">
+        <v>1</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="204" spans="3:10">
+      <c r="C204" s="6">
+        <v>4009</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204" s="6">
+        <v>4</v>
+      </c>
+      <c r="F204" s="6">
+        <v>1300</v>
+      </c>
+      <c r="G204" s="6">
+        <v>3</v>
+      </c>
+      <c r="H204" s="6">
+        <v>0</v>
+      </c>
+      <c r="I204" s="6">
+        <v>1</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="C205" s="6">
+        <v>4010</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E205" s="6">
+        <v>4</v>
+      </c>
+      <c r="F205" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G205" s="6">
+        <v>3</v>
+      </c>
+      <c r="H205" s="6">
+        <v>0</v>
+      </c>
+      <c r="I205" s="6">
+        <v>1</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="206" spans="3:10">
+      <c r="C206" s="6">
+        <v>4011</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E206" s="6">
+        <v>4</v>
+      </c>
+      <c r="F206" s="6">
+        <v>1750</v>
+      </c>
+      <c r="G206" s="6">
+        <v>3</v>
+      </c>
+      <c r="H206" s="6">
+        <v>0</v>
+      </c>
+      <c r="I206" s="6">
+        <v>1</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="3:10">
+      <c r="C207" s="6">
+        <v>4012</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E207" s="6">
+        <v>4</v>
+      </c>
+      <c r="F207" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G207" s="6">
+        <v>3</v>
+      </c>
+      <c r="H207" s="6">
+        <v>0</v>
+      </c>
+      <c r="I207" s="6">
+        <v>1</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="C210" s="6">
+        <v>5001</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" s="6">
+        <v>5</v>
+      </c>
+      <c r="F210" s="6">
+        <f t="shared" ref="F210:F234" si="4">(C210-5000)*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="G210" s="6">
+        <v>1</v>
+      </c>
+      <c r="H210" s="6">
+        <v>18</v>
+      </c>
+      <c r="I210" s="6">
+        <v>5</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="C211" s="6">
         <v>5002</v>
       </c>
-      <c r="D185" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E185" s="6">
-        <v>5</v>
-      </c>
-      <c r="F185" s="6">
+      <c r="D211" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E211" s="6">
+        <v>5</v>
+      </c>
+      <c r="F211" s="6">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G185" s="6">
-        <v>1</v>
-      </c>
-      <c r="H185" s="6">
+      <c r="G211" s="6">
+        <v>1</v>
+      </c>
+      <c r="H211" s="6">
         <v>18</v>
       </c>
-      <c r="I185" s="6">
-        <v>5</v>
-      </c>
-      <c r="J185" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="3:10">
-      <c r="C186" s="6">
+      <c r="I211" s="6">
+        <v>5</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="C212" s="6">
         <v>5003</v>
       </c>
-      <c r="D186" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E186" s="6">
-        <v>5</v>
-      </c>
-      <c r="F186" s="6">
+      <c r="D212" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E212" s="6">
+        <v>5</v>
+      </c>
+      <c r="F212" s="6">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="G186" s="6">
-        <v>1</v>
-      </c>
-      <c r="H186" s="6">
+      <c r="G212" s="6">
+        <v>1</v>
+      </c>
+      <c r="H212" s="6">
         <v>18</v>
       </c>
-      <c r="I186" s="6">
-        <v>5</v>
-      </c>
-      <c r="J186" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="3:10">
-      <c r="C187" s="6">
+      <c r="I212" s="6">
+        <v>5</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="C213" s="6">
         <v>5004</v>
       </c>
-      <c r="D187" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E187" s="6">
-        <v>5</v>
-      </c>
-      <c r="F187" s="6">
+      <c r="D213" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E213" s="6">
+        <v>5</v>
+      </c>
+      <c r="F213" s="6">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G187" s="6">
-        <v>1</v>
-      </c>
-      <c r="H187" s="6">
+      <c r="G213" s="6">
+        <v>1</v>
+      </c>
+      <c r="H213" s="6">
         <v>18</v>
       </c>
-      <c r="I187" s="6">
-        <v>5</v>
-      </c>
-      <c r="J187" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="3:10">
-      <c r="C188" s="6">
+      <c r="I213" s="6">
+        <v>5</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="C214" s="6">
         <v>5005</v>
       </c>
-      <c r="D188" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E188" s="6">
-        <v>5</v>
-      </c>
-      <c r="F188" s="6">
+      <c r="D214" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E214" s="6">
+        <v>5</v>
+      </c>
+      <c r="F214" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G188" s="6">
-        <v>1</v>
-      </c>
-      <c r="H188" s="6">
+      <c r="G214" s="6">
+        <v>1</v>
+      </c>
+      <c r="H214" s="6">
         <v>18</v>
       </c>
-      <c r="I188" s="6">
-        <v>5</v>
-      </c>
-      <c r="J188" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="3:10">
-      <c r="C189" s="6">
+      <c r="I214" s="6">
+        <v>5</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" spans="3:10">
+      <c r="C215" s="6">
         <v>5006</v>
       </c>
-      <c r="D189" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E189" s="6">
-        <v>5</v>
-      </c>
-      <c r="F189" s="6">
+      <c r="D215" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E215" s="6">
+        <v>5</v>
+      </c>
+      <c r="F215" s="6">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="G189" s="6">
-        <v>1</v>
-      </c>
-      <c r="H189" s="6">
+      <c r="G215" s="6">
+        <v>1</v>
+      </c>
+      <c r="H215" s="6">
         <v>18</v>
       </c>
-      <c r="I189" s="6">
-        <v>5</v>
-      </c>
-      <c r="J189" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="3:10">
-      <c r="C190" s="6">
+      <c r="I215" s="6">
+        <v>5</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="3:10">
+      <c r="C216" s="6">
         <v>5007</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E190" s="6">
-        <v>5</v>
-      </c>
-      <c r="F190" s="6">
+      <c r="D216" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E216" s="6">
+        <v>5</v>
+      </c>
+      <c r="F216" s="6">
         <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="G190" s="6">
-        <v>1</v>
-      </c>
-      <c r="H190" s="6">
+      <c r="G216" s="6">
+        <v>1</v>
+      </c>
+      <c r="H216" s="6">
         <v>18</v>
       </c>
-      <c r="I190" s="6">
-        <v>5</v>
-      </c>
-      <c r="J190" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="191" spans="3:10">
-      <c r="C191" s="6">
+      <c r="I216" s="6">
+        <v>5</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="C217" s="6">
         <v>5008</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E191" s="6">
-        <v>5</v>
-      </c>
-      <c r="F191" s="6">
+      <c r="D217" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E217" s="6">
+        <v>5</v>
+      </c>
+      <c r="F217" s="6">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="G191" s="6">
-        <v>1</v>
-      </c>
-      <c r="H191" s="6">
+      <c r="G217" s="6">
+        <v>1</v>
+      </c>
+      <c r="H217" s="6">
         <v>18</v>
       </c>
-      <c r="I191" s="6">
-        <v>5</v>
-      </c>
-      <c r="J191" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="192" spans="3:10">
-      <c r="C192" s="6">
+      <c r="I217" s="6">
+        <v>5</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="3:10">
+      <c r="C218" s="6">
         <v>5009</v>
       </c>
-      <c r="D192" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E192" s="6">
-        <v>5</v>
-      </c>
-      <c r="F192" s="6">
+      <c r="D218" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E218" s="6">
+        <v>5</v>
+      </c>
+      <c r="F218" s="6">
         <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="G192" s="6">
-        <v>1</v>
-      </c>
-      <c r="H192" s="6">
+      <c r="G218" s="6">
+        <v>1</v>
+      </c>
+      <c r="H218" s="6">
         <v>18</v>
       </c>
-      <c r="I192" s="6">
-        <v>5</v>
-      </c>
-      <c r="J192" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="3:10">
-      <c r="C193" s="6">
+      <c r="I218" s="6">
+        <v>5</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="C219" s="6">
         <v>5010</v>
       </c>
-      <c r="D193" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E193" s="6">
-        <v>5</v>
-      </c>
-      <c r="F193" s="6">
+      <c r="D219" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E219" s="6">
+        <v>5</v>
+      </c>
+      <c r="F219" s="6">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="G193" s="6">
-        <v>1</v>
-      </c>
-      <c r="H193" s="6">
+      <c r="G219" s="6">
+        <v>1</v>
+      </c>
+      <c r="H219" s="6">
         <v>18</v>
       </c>
-      <c r="I193" s="6">
-        <v>5</v>
-      </c>
-      <c r="J193" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="3:10">
-      <c r="C194" s="6">
+      <c r="I219" s="6">
+        <v>5</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="C220" s="6">
         <v>5011</v>
       </c>
-      <c r="D194" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E194" s="6">
-        <v>5</v>
-      </c>
-      <c r="F194" s="6">
+      <c r="D220" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E220" s="6">
+        <v>5</v>
+      </c>
+      <c r="F220" s="6">
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-      <c r="G194" s="6">
-        <v>1</v>
-      </c>
-      <c r="H194" s="6">
+      <c r="G220" s="6">
+        <v>1</v>
+      </c>
+      <c r="H220" s="6">
         <v>18</v>
       </c>
-      <c r="I194" s="6">
-        <v>5</v>
-      </c>
-      <c r="J194" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="3:10">
-      <c r="C195" s="6">
+      <c r="I220" s="6">
+        <v>5</v>
+      </c>
+      <c r="J220" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="3:10">
+      <c r="C221" s="6">
         <v>5012</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E195" s="6">
-        <v>5</v>
-      </c>
-      <c r="F195" s="6">
+      <c r="D221" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E221" s="6">
+        <v>5</v>
+      </c>
+      <c r="F221" s="6">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G195" s="6">
-        <v>1</v>
-      </c>
-      <c r="H195" s="6">
+      <c r="G221" s="6">
+        <v>1</v>
+      </c>
+      <c r="H221" s="6">
         <v>18</v>
       </c>
-      <c r="I195" s="6">
-        <v>5</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="3:10">
-      <c r="C196" s="6">
+      <c r="I221" s="6">
+        <v>5</v>
+      </c>
+      <c r="J221" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="C222" s="6">
         <v>5013</v>
       </c>
-      <c r="D196" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E196" s="6">
-        <v>5</v>
-      </c>
-      <c r="F196" s="6">
+      <c r="D222" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E222" s="6">
+        <v>5</v>
+      </c>
+      <c r="F222" s="6">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="G196" s="6">
-        <v>1</v>
-      </c>
-      <c r="H196" s="6">
+      <c r="G222" s="6">
+        <v>1</v>
+      </c>
+      <c r="H222" s="6">
         <v>18</v>
       </c>
-      <c r="I196" s="6">
-        <v>5</v>
-      </c>
-      <c r="J196" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="3:10">
-      <c r="C197" s="6">
+      <c r="I222" s="6">
+        <v>5</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="3:10">
+      <c r="C223" s="6">
         <v>5014</v>
       </c>
-      <c r="D197" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E197" s="6">
-        <v>5</v>
-      </c>
-      <c r="F197" s="6">
+      <c r="D223" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E223" s="6">
+        <v>5</v>
+      </c>
+      <c r="F223" s="6">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="G197" s="6">
-        <v>1</v>
-      </c>
-      <c r="H197" s="6">
+      <c r="G223" s="6">
+        <v>1</v>
+      </c>
+      <c r="H223" s="6">
         <v>18</v>
       </c>
-      <c r="I197" s="6">
-        <v>5</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="3:10">
-      <c r="C198" s="6">
+      <c r="I223" s="6">
+        <v>5</v>
+      </c>
+      <c r="J223" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="C224" s="6">
         <v>5015</v>
       </c>
-      <c r="D198" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E198" s="6">
-        <v>5</v>
-      </c>
-      <c r="F198" s="6">
+      <c r="D224" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E224" s="6">
+        <v>5</v>
+      </c>
+      <c r="F224" s="6">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G198" s="6">
-        <v>1</v>
-      </c>
-      <c r="H198" s="6">
+      <c r="G224" s="6">
+        <v>1</v>
+      </c>
+      <c r="H224" s="6">
         <v>18</v>
       </c>
-      <c r="I198" s="6">
-        <v>5</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="3:10">
-      <c r="C199" s="6">
+      <c r="I224" s="6">
+        <v>5</v>
+      </c>
+      <c r="J224" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="3:10">
+      <c r="C225" s="6">
         <v>5016</v>
       </c>
-      <c r="D199" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E199" s="6">
-        <v>5</v>
-      </c>
-      <c r="F199" s="6">
+      <c r="D225" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E225" s="6">
+        <v>5</v>
+      </c>
+      <c r="F225" s="6">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="G199" s="6">
-        <v>1</v>
-      </c>
-      <c r="H199" s="6">
+      <c r="G225" s="6">
+        <v>1</v>
+      </c>
+      <c r="H225" s="6">
         <v>18</v>
       </c>
-      <c r="I199" s="6">
-        <v>5</v>
-      </c>
-      <c r="J199" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="3:10">
-      <c r="C200" s="6">
+      <c r="I225" s="6">
+        <v>5</v>
+      </c>
+      <c r="J225" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="3:10">
+      <c r="C226" s="6">
         <v>5017</v>
       </c>
-      <c r="D200" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E200" s="6">
-        <v>5</v>
-      </c>
-      <c r="F200" s="6">
+      <c r="D226" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E226" s="6">
+        <v>5</v>
+      </c>
+      <c r="F226" s="6">
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="G200" s="6">
-        <v>1</v>
-      </c>
-      <c r="H200" s="6">
+      <c r="G226" s="6">
+        <v>1</v>
+      </c>
+      <c r="H226" s="6">
         <v>18</v>
       </c>
-      <c r="I200" s="6">
-        <v>5</v>
-      </c>
-      <c r="J200" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="3:10">
-      <c r="C201" s="6">
+      <c r="I226" s="6">
+        <v>5</v>
+      </c>
+      <c r="J226" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="3:10">
+      <c r="C227" s="6">
         <v>5018</v>
       </c>
-      <c r="D201" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E201" s="6">
-        <v>5</v>
-      </c>
-      <c r="F201" s="6">
+      <c r="D227" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E227" s="6">
+        <v>5</v>
+      </c>
+      <c r="F227" s="6">
         <f t="shared" si="4"/>
         <v>18000</v>
       </c>
-      <c r="G201" s="6">
-        <v>1</v>
-      </c>
-      <c r="H201" s="6">
+      <c r="G227" s="6">
+        <v>1</v>
+      </c>
+      <c r="H227" s="6">
         <v>18</v>
       </c>
-      <c r="I201" s="6">
-        <v>5</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="3:10">
-      <c r="C202" s="6">
+      <c r="I227" s="6">
+        <v>5</v>
+      </c>
+      <c r="J227" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="3:10">
+      <c r="C228" s="6">
         <v>5019</v>
       </c>
-      <c r="D202" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E202" s="6">
-        <v>5</v>
-      </c>
-      <c r="F202" s="6">
+      <c r="D228" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E228" s="6">
+        <v>5</v>
+      </c>
+      <c r="F228" s="6">
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="G202" s="6">
-        <v>1</v>
-      </c>
-      <c r="H202" s="6">
+      <c r="G228" s="6">
+        <v>1</v>
+      </c>
+      <c r="H228" s="6">
         <v>18</v>
       </c>
-      <c r="I202" s="6">
-        <v>5</v>
-      </c>
-      <c r="J202" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="3:10">
-      <c r="C203" s="6">
+      <c r="I228" s="6">
+        <v>5</v>
+      </c>
+      <c r="J228" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="3:10">
+      <c r="C229" s="6">
         <v>5020</v>
       </c>
-      <c r="D203" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E203" s="6">
-        <v>5</v>
-      </c>
-      <c r="F203" s="6">
+      <c r="D229" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E229" s="6">
+        <v>5</v>
+      </c>
+      <c r="F229" s="6">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="G203" s="6">
-        <v>1</v>
-      </c>
-      <c r="H203" s="6">
+      <c r="G229" s="6">
+        <v>1</v>
+      </c>
+      <c r="H229" s="6">
         <v>18</v>
       </c>
-      <c r="I203" s="6">
-        <v>5</v>
-      </c>
-      <c r="J203" s="6" t="s">
+      <c r="I229" s="6">
+        <v>5</v>
+      </c>
+      <c r="J229" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="3:10">
+      <c r="C230" s="6">
+        <v>5021</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E230" s="6">
+        <v>5</v>
+      </c>
+      <c r="F230" s="6">
+        <f t="shared" si="4"/>
+        <v>21000</v>
+      </c>
+      <c r="G230" s="6">
+        <v>1</v>
+      </c>
+      <c r="H230" s="6">
+        <v>18</v>
+      </c>
+      <c r="I230" s="6">
+        <v>5</v>
+      </c>
+      <c r="J230" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="3:10">
+      <c r="C231" s="6">
+        <v>5022</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E231" s="6">
+        <v>5</v>
+      </c>
+      <c r="F231" s="6">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+      <c r="G231" s="6">
+        <v>1</v>
+      </c>
+      <c r="H231" s="6">
+        <v>18</v>
+      </c>
+      <c r="I231" s="6">
+        <v>5</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="3:10">
+      <c r="C232" s="6">
+        <v>5023</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E232" s="6">
+        <v>5</v>
+      </c>
+      <c r="F232" s="6">
+        <f t="shared" si="4"/>
+        <v>23000</v>
+      </c>
+      <c r="G232" s="6">
+        <v>1</v>
+      </c>
+      <c r="H232" s="6">
+        <v>18</v>
+      </c>
+      <c r="I232" s="6">
+        <v>5</v>
+      </c>
+      <c r="J232" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" spans="3:10">
+      <c r="C233" s="6">
+        <v>5024</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E233" s="6">
+        <v>5</v>
+      </c>
+      <c r="F233" s="6">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+      <c r="G233" s="6">
+        <v>1</v>
+      </c>
+      <c r="H233" s="6">
+        <v>18</v>
+      </c>
+      <c r="I233" s="6">
+        <v>5</v>
+      </c>
+      <c r="J233" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="3:10">
+      <c r="C234" s="6">
+        <v>5025</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E234" s="6">
+        <v>5</v>
+      </c>
+      <c r="F234" s="6">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="G234" s="6">
+        <v>1</v>
+      </c>
+      <c r="H234" s="6">
+        <v>18</v>
+      </c>
+      <c r="I234" s="6">
+        <v>5</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="3:10">
+      <c r="C236" s="6">
+        <v>6001</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E236" s="6">
+        <v>6</v>
+      </c>
+      <c r="F236" s="6">
+        <v>100</v>
+      </c>
+      <c r="G236" s="6">
+        <v>4</v>
+      </c>
+      <c r="H236" s="6">
+        <v>0</v>
+      </c>
+      <c r="I236" s="6">
+        <v>1</v>
+      </c>
+      <c r="J236" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="237" spans="3:10">
+      <c r="C237" s="6">
+        <v>6002</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E237" s="6">
+        <v>6</v>
+      </c>
+      <c r="F237" s="6">
         <v>200</v>
       </c>
-    </row>
-    <row r="205" spans="3:10">
-      <c r="C205" s="6">
-        <v>6001</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E205" s="6">
+      <c r="G237" s="6">
+        <v>4</v>
+      </c>
+      <c r="H237" s="6">
+        <v>0</v>
+      </c>
+      <c r="I237" s="6">
+        <v>1</v>
+      </c>
+      <c r="J237" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="3:10">
+      <c r="C238" s="6">
+        <v>6003</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E238" s="6">
         <v>6</v>
       </c>
-      <c r="F205" s="6">
-        <v>100</v>
-      </c>
-      <c r="G205" s="6">
+      <c r="F238" s="6">
+        <v>300</v>
+      </c>
+      <c r="G238" s="6">
         <v>4</v>
       </c>
-      <c r="H205" s="6">
+      <c r="H238" s="6">
         <v>0</v>
       </c>
-      <c r="I205" s="6">
-        <v>1</v>
-      </c>
-      <c r="J205" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="3:10">
-      <c r="C206" s="6">
-        <v>6002</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E206" s="6">
+      <c r="I238" s="6">
+        <v>1</v>
+      </c>
+      <c r="J238" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="3:10">
+      <c r="C239" s="6">
+        <v>6004</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E239" s="6">
         <v>6</v>
       </c>
-      <c r="F206" s="6">
-        <v>200</v>
-      </c>
-      <c r="G206" s="6">
+      <c r="F239" s="6">
+        <v>400</v>
+      </c>
+      <c r="G239" s="6">
         <v>4</v>
       </c>
-      <c r="H206" s="6">
+      <c r="H239" s="6">
         <v>0</v>
       </c>
-      <c r="I206" s="6">
-        <v>1</v>
-      </c>
-      <c r="J206" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="207" spans="3:10">
-      <c r="C207" s="6">
-        <v>6003</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E207" s="6">
+      <c r="I239" s="6">
+        <v>1</v>
+      </c>
+      <c r="J239" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="3:10">
+      <c r="C240" s="6">
+        <v>6005</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E240" s="6">
         <v>6</v>
       </c>
-      <c r="F207" s="6">
-        <v>300</v>
-      </c>
-      <c r="G207" s="6">
+      <c r="F240" s="6">
+        <v>500</v>
+      </c>
+      <c r="G240" s="6">
         <v>4</v>
       </c>
-      <c r="H207" s="6">
+      <c r="H240" s="6">
         <v>0</v>
       </c>
-      <c r="I207" s="6">
-        <v>1</v>
-      </c>
-      <c r="J207" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="3:10">
-      <c r="C208" s="6">
-        <v>6004</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E208" s="6">
+      <c r="I240" s="6">
+        <v>1</v>
+      </c>
+      <c r="J240" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="3:10">
+      <c r="C241" s="6">
+        <v>6006</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E241" s="6">
         <v>6</v>
       </c>
-      <c r="F208" s="6">
-        <v>400</v>
-      </c>
-      <c r="G208" s="6">
+      <c r="F241" s="6">
+        <v>600</v>
+      </c>
+      <c r="G241" s="6">
         <v>4</v>
       </c>
-      <c r="H208" s="6">
+      <c r="H241" s="6">
         <v>0</v>
       </c>
-      <c r="I208" s="6">
-        <v>1</v>
-      </c>
-      <c r="J208" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="3:10">
-      <c r="C209" s="6">
-        <v>6005</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E209" s="6">
+      <c r="I241" s="6">
+        <v>1</v>
+      </c>
+      <c r="J241" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242" spans="3:10">
+      <c r="C242" s="6">
+        <v>6007</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E242" s="6">
         <v>6</v>
       </c>
-      <c r="F209" s="6">
-        <v>500</v>
-      </c>
-      <c r="G209" s="6">
+      <c r="F242" s="6">
+        <v>700</v>
+      </c>
+      <c r="G242" s="6">
         <v>4</v>
       </c>
-      <c r="H209" s="6">
+      <c r="H242" s="6">
         <v>0</v>
       </c>
-      <c r="I209" s="6">
-        <v>1</v>
-      </c>
-      <c r="J209" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="210" spans="3:10">
-      <c r="C210" s="6">
-        <v>6006</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E210" s="6">
+      <c r="I242" s="6">
+        <v>1</v>
+      </c>
+      <c r="J242" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="3:10">
+      <c r="C243" s="6">
+        <v>6008</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E243" s="6">
         <v>6</v>
       </c>
-      <c r="F210" s="6">
-        <v>600</v>
-      </c>
-      <c r="G210" s="6">
+      <c r="F243" s="6">
+        <v>800</v>
+      </c>
+      <c r="G243" s="6">
         <v>4</v>
       </c>
-      <c r="H210" s="6">
+      <c r="H243" s="6">
         <v>0</v>
       </c>
-      <c r="I210" s="6">
-        <v>1</v>
-      </c>
-      <c r="J210" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="3:10">
-      <c r="C211" s="6">
-        <v>6007</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E211" s="6">
+      <c r="I243" s="6">
+        <v>1</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="3:10">
+      <c r="C244" s="6">
+        <v>6009</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E244" s="6">
         <v>6</v>
       </c>
-      <c r="F211" s="6">
-        <v>700</v>
-      </c>
-      <c r="G211" s="6">
+      <c r="F244" s="6">
+        <v>900</v>
+      </c>
+      <c r="G244" s="6">
         <v>4</v>
       </c>
-      <c r="H211" s="6">
+      <c r="H244" s="6">
         <v>0</v>
       </c>
-      <c r="I211" s="6">
-        <v>1</v>
-      </c>
-      <c r="J211" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="3:10">
-      <c r="C212" s="6">
-        <v>6008</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E212" s="6">
+      <c r="I244" s="6">
+        <v>1</v>
+      </c>
+      <c r="J244" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="3:10">
+      <c r="C245" s="6">
+        <v>6010</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E245" s="6">
         <v>6</v>
       </c>
-      <c r="F212" s="6">
-        <v>800</v>
-      </c>
-      <c r="G212" s="6">
+      <c r="F245" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G245" s="6">
         <v>4</v>
       </c>
-      <c r="H212" s="6">
+      <c r="H245" s="6">
         <v>0</v>
       </c>
-      <c r="I212" s="6">
-        <v>1</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="3:10">
-      <c r="C213" s="6">
-        <v>6009</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E213" s="6">
+      <c r="I245" s="6">
+        <v>1</v>
+      </c>
+      <c r="J245" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="3:10">
+      <c r="C246" s="6">
+        <v>6011</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E246" s="6">
         <v>6</v>
       </c>
-      <c r="F213" s="6">
-        <v>900</v>
-      </c>
-      <c r="G213" s="6">
+      <c r="F246" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G246" s="6">
         <v>4</v>
       </c>
-      <c r="H213" s="6">
+      <c r="H246" s="6">
         <v>0</v>
       </c>
-      <c r="I213" s="6">
-        <v>1</v>
-      </c>
-      <c r="J213" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="3:10">
-      <c r="C214" s="6">
-        <v>6010</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E214" s="6">
+      <c r="I246" s="6">
+        <v>1</v>
+      </c>
+      <c r="J246" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="3:10">
+      <c r="C247" s="6">
+        <v>6012</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E247" s="6">
         <v>6</v>
       </c>
-      <c r="F214" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G214" s="6">
+      <c r="F247" s="6">
+        <v>1200</v>
+      </c>
+      <c r="G247" s="6">
         <v>4</v>
       </c>
-      <c r="H214" s="6">
+      <c r="H247" s="6">
         <v>0</v>
       </c>
-      <c r="I214" s="6">
-        <v>1</v>
-      </c>
-      <c r="J214" s="6" t="s">
-        <v>221</v>
+      <c r="I247" s="6">
+        <v>1</v>
+      </c>
+      <c r="J247" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="3:10">
+      <c r="C248" s="6">
+        <v>6013</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E248" s="6">
+        <v>6</v>
+      </c>
+      <c r="F248" s="6">
+        <v>1300</v>
+      </c>
+      <c r="G248" s="6">
+        <v>4</v>
+      </c>
+      <c r="H248" s="6">
+        <v>0</v>
+      </c>
+      <c r="I248" s="6">
+        <v>1</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="3:10">
+      <c r="C249" s="6">
+        <v>6014</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E249" s="6">
+        <v>6</v>
+      </c>
+      <c r="F249" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G249" s="6">
+        <v>4</v>
+      </c>
+      <c r="H249" s="6">
+        <v>0</v>
+      </c>
+      <c r="I249" s="6">
+        <v>1</v>
+      </c>
+      <c r="J249" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250" spans="3:10">
+      <c r="C250" s="6">
+        <v>6015</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E250" s="6">
+        <v>6</v>
+      </c>
+      <c r="F250" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G250" s="6">
+        <v>4</v>
+      </c>
+      <c r="H250" s="6">
+        <v>0</v>
+      </c>
+      <c r="I250" s="6">
+        <v>1</v>
+      </c>
+      <c r="J250" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="3:10">
+      <c r="C251" s="6">
+        <v>6016</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E251" s="6">
+        <v>6</v>
+      </c>
+      <c r="F251" s="6">
+        <v>1600</v>
+      </c>
+      <c r="G251" s="6">
+        <v>4</v>
+      </c>
+      <c r="H251" s="6">
+        <v>0</v>
+      </c>
+      <c r="I251" s="6">
+        <v>1</v>
+      </c>
+      <c r="J251" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="3:10">
+      <c r="C252" s="6">
+        <v>6017</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E252" s="6">
+        <v>6</v>
+      </c>
+      <c r="F252" s="6">
+        <v>1700</v>
+      </c>
+      <c r="G252" s="6">
+        <v>4</v>
+      </c>
+      <c r="H252" s="6">
+        <v>0</v>
+      </c>
+      <c r="I252" s="6">
+        <v>1</v>
+      </c>
+      <c r="J252" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="3:10">
+      <c r="C253" s="6">
+        <v>6018</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E253" s="6">
+        <v>6</v>
+      </c>
+      <c r="F253" s="6">
+        <v>1800</v>
+      </c>
+      <c r="G253" s="6">
+        <v>4</v>
+      </c>
+      <c r="H253" s="6">
+        <v>0</v>
+      </c>
+      <c r="I253" s="6">
+        <v>1</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="3:10">
+      <c r="C254" s="6">
+        <v>6019</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E254" s="6">
+        <v>6</v>
+      </c>
+      <c r="F254" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G254" s="6">
+        <v>4</v>
+      </c>
+      <c r="H254" s="6">
+        <v>0</v>
+      </c>
+      <c r="I254" s="6">
+        <v>1</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="3:10">
+      <c r="C255" s="6">
+        <v>6020</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E255" s="6">
+        <v>6</v>
+      </c>
+      <c r="F255" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G255" s="6">
+        <v>4</v>
+      </c>
+      <c r="H255" s="6">
+        <v>0</v>
+      </c>
+      <c r="I255" s="6">
+        <v>1</v>
+      </c>
+      <c r="J255" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -42,7 +42,8 @@
 3 强化等级
 4 精练等级
 5 人物等级
-6 BOSS之家挑战次数</t>
+6 BOSS之家挑战次数
+8 守卫龙城层数</t>
         </r>
       </text>
     </comment>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="277">
   <si>
     <t>#</t>
   </si>
@@ -902,6 +903,12 @@
   </si>
   <si>
     <t>BOSS之家20</t>
+  </si>
+  <si>
+    <t>守卫1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过{0}层数</t>
   </si>
 </sst>
 </file>
@@ -1562,13 +1569,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,138 +1899,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K255"/>
+  <dimension ref="C2:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="12.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="12.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="10.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="11:11">
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:11">
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" ref="F6:F69" si="0">(C6-1000)*24</f>
         <v>24</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2059,62 +2065,62 @@
       </c>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1003</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>15</v>
       </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="I8" s="6">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1004</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>16</v>
       </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2149,32 +2155,32 @@
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1006</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2209,62 +2215,62 @@
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1008</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
         <v>10</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1009</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
         <v>11</v>
       </c>
-      <c r="I14" s="7">
-        <v>5</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2329,92 +2335,92 @@
       </c>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1012</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>14</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1013</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>15</v>
       </c>
-      <c r="I18" s="7">
-        <v>5</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1014</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>16</v>
       </c>
-      <c r="I19" s="7">
-        <v>5</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2449,92 +2455,92 @@
       </c>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1016</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
         <v>8</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1017</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
         <v>9</v>
       </c>
-      <c r="I22" s="7">
-        <v>5</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:11">
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1018</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
         <v>10</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2558,43 +2564,43 @@
       <c r="H24" s="5">
         <v>11</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>5</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="3:11">
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1020</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
         <v>15</v>
       </c>
-      <c r="I25" s="7">
-        <v>5</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2629,152 +2635,152 @@
       </c>
     </row>
     <row r="27" spans="3:11">
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1022</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>14</v>
-      </c>
-      <c r="I27" s="7">
-        <v>5</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>14</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="3:11">
-      <c r="C28" s="6">
+    <row r="28" s="5" customFormat="1" spans="3:11">
+      <c r="C28" s="5">
         <v>1023</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
         <v>15</v>
       </c>
-      <c r="I28" s="7">
-        <v>5</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="I28" s="6">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="3:11">
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1024</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
         <v>16</v>
       </c>
-      <c r="I29" s="7">
-        <v>5</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1025</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
         <v>8</v>
       </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1026</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>624</v>
       </c>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
         <v>9</v>
       </c>
-      <c r="I31" s="7">
-        <v>5</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
+      <c r="I31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2809,62 +2815,62 @@
       </c>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>1028</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
         <v>10</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1029</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>696</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>1</v>
       </c>
       <c r="H34" s="5">
         <v>11</v>
       </c>
-      <c r="I34" s="7">
-        <v>5</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="I34" s="6">
+        <v>5</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2899,242 +2905,242 @@
       </c>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1031</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>744</v>
       </c>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7">
-        <v>14</v>
-      </c>
-      <c r="I36" s="7">
-        <v>5</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>14</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1032</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
         <v>15</v>
       </c>
-      <c r="I37" s="7">
-        <v>5</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="I37" s="6">
+        <v>5</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>1033</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
         <v>16</v>
       </c>
-      <c r="I38" s="7">
-        <v>5</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="I38" s="6">
+        <v>5</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>1034</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>816</v>
       </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
         <v>8</v>
       </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="7" t="s">
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>1035</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6">
         <v>9</v>
       </c>
-      <c r="I40" s="7">
-        <v>5</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="I40" s="6">
+        <v>5</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1036</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>864</v>
       </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
         <v>10</v>
       </c>
-      <c r="I41" s="7">
-        <v>1</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="7" t="s">
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1037</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="7">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>888</v>
       </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
         <v>11</v>
       </c>
-      <c r="I42" s="7">
-        <v>5</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="I42" s="6">
+        <v>5</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>1038</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="7">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>912</v>
       </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
         <v>12</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>2</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="J43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3169,242 +3175,242 @@
       </c>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1040</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7">
-        <v>14</v>
-      </c>
-      <c r="I45" s="7">
-        <v>5</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="7" t="s">
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>14</v>
+      </c>
+      <c r="I45" s="6">
+        <v>5</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>1041</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>984</v>
       </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
         <v>15</v>
       </c>
-      <c r="I46" s="7">
-        <v>5</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="7" t="s">
+      <c r="I46" s="6">
+        <v>5</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>1042</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
         <v>16</v>
       </c>
-      <c r="I47" s="7">
-        <v>5</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="7" t="s">
+      <c r="I47" s="6">
+        <v>5</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>1043</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
         <v>8</v>
       </c>
-      <c r="I48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="7" t="s">
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="3:11">
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>1044</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7">
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
         <v>9</v>
       </c>
-      <c r="I49" s="7">
-        <v>5</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="I49" s="6">
+        <v>5</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="3:11">
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>1045</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
         <v>10</v>
       </c>
-      <c r="I50" s="7">
-        <v>1</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="7" t="s">
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="3:11">
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>1046</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
         <f t="shared" si="0"/>
         <v>1104</v>
       </c>
-      <c r="G51" s="7">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
         <v>11</v>
       </c>
-      <c r="I51" s="7">
-        <v>5</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="7" t="s">
+      <c r="I51" s="6">
+        <v>5</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="3:11">
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>1047</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="7">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7">
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
         <f t="shared" si="0"/>
         <v>1128</v>
       </c>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
         <v>12</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>2</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="J52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3439,37 +3445,37 @@
       </c>
     </row>
     <row r="54" spans="3:11">
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>1049</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="7">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
         <f t="shared" si="0"/>
         <v>1176</v>
       </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
-        <v>14</v>
-      </c>
-      <c r="I54" s="7">
-        <v>5</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="7" t="s">
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>14</v>
+      </c>
+      <c r="I54" s="6">
+        <v>5</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="3:11">
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>1050</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3499,182 +3505,182 @@
       </c>
     </row>
     <row r="56" spans="3:11">
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>1051</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
         <f t="shared" si="0"/>
         <v>1224</v>
       </c>
-      <c r="G56" s="7">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7">
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
         <v>16</v>
       </c>
-      <c r="I56" s="7">
-        <v>5</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="7" t="s">
+      <c r="I56" s="6">
+        <v>5</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="3:11">
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>1052</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
         <v>8</v>
       </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="7" t="s">
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="3:11">
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>1053</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="7">
-        <v>1</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
         <f t="shared" si="0"/>
         <v>1272</v>
       </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7">
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
         <v>9</v>
       </c>
-      <c r="I58" s="7">
-        <v>5</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="7" t="s">
+      <c r="I58" s="6">
+        <v>5</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="3:11">
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>1054</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="7">
-        <v>1</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
         <f t="shared" si="0"/>
         <v>1296</v>
       </c>
-      <c r="G59" s="7">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
         <v>10</v>
       </c>
-      <c r="I59" s="7">
-        <v>1</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="7" t="s">
+      <c r="I59" s="6">
+        <v>1</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="3:11">
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>1055</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="G60" s="7">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7">
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
         <v>11</v>
       </c>
-      <c r="I60" s="7">
-        <v>5</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="7" t="s">
+      <c r="I60" s="6">
+        <v>5</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="3:11">
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>1056</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="7">
-        <v>1</v>
-      </c>
-      <c r="F61" s="7">
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
         <v>12</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>2</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="7" t="s">
+      <c r="J61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3709,242 +3715,242 @@
       </c>
     </row>
     <row r="63" spans="3:11">
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>1058</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7">
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
         <f t="shared" si="0"/>
         <v>1392</v>
       </c>
-      <c r="G63" s="7">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7">
-        <v>14</v>
-      </c>
-      <c r="I63" s="7">
-        <v>5</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="7" t="s">
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>14</v>
+      </c>
+      <c r="I63" s="6">
+        <v>5</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="3:11">
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>1059</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="7">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="0"/>
         <v>1416</v>
       </c>
-      <c r="G64" s="7">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7">
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
         <v>15</v>
       </c>
-      <c r="I64" s="7">
-        <v>5</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="7" t="s">
+      <c r="I64" s="6">
+        <v>5</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="3:11">
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>1060</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="7">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7">
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="G65" s="7">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7">
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
         <v>16</v>
       </c>
-      <c r="I65" s="7">
-        <v>5</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="7" t="s">
+      <c r="I65" s="6">
+        <v>5</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="3:11">
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>1061</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="7">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
         <f t="shared" si="0"/>
         <v>1464</v>
       </c>
-      <c r="G66" s="7">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
         <v>8</v>
       </c>
-      <c r="I66" s="7">
-        <v>1</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="7" t="s">
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="3:11">
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>1062</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="7">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7">
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
         <f t="shared" si="0"/>
         <v>1488</v>
       </c>
-      <c r="G67" s="7">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7">
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
         <v>9</v>
       </c>
-      <c r="I67" s="7">
-        <v>5</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="7" t="s">
+      <c r="I67" s="6">
+        <v>5</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>1063</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7">
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
         <f t="shared" si="0"/>
         <v>1512</v>
       </c>
-      <c r="G68" s="7">
-        <v>1</v>
-      </c>
-      <c r="H68" s="7">
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6">
         <v>10</v>
       </c>
-      <c r="I68" s="7">
-        <v>1</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="7" t="s">
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="3:11">
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>1064</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E69" s="7">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7">
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="0"/>
         <v>1536</v>
       </c>
-      <c r="G69" s="7">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7">
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
         <v>11</v>
       </c>
-      <c r="I69" s="7">
-        <v>5</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="7" t="s">
+      <c r="I69" s="6">
+        <v>5</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="3:11">
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>1065</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="7">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
         <f t="shared" ref="F70:F89" si="1">(C70-1000)*24</f>
         <v>1560</v>
       </c>
-      <c r="G70" s="7">
-        <v>1</v>
-      </c>
-      <c r="H70" s="7">
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6">
         <v>12</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>2</v>
       </c>
-      <c r="J70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="7" t="s">
+      <c r="J70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3979,242 +3985,242 @@
       </c>
     </row>
     <row r="72" spans="3:11">
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>1067</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E72" s="7">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
         <f t="shared" si="1"/>
         <v>1608</v>
       </c>
-      <c r="G72" s="7">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7">
-        <v>14</v>
-      </c>
-      <c r="I72" s="7">
-        <v>5</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="7" t="s">
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <v>14</v>
+      </c>
+      <c r="I72" s="6">
+        <v>5</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="3:11">
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>1068</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="7">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7">
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
         <f t="shared" si="1"/>
         <v>1632</v>
       </c>
-      <c r="G73" s="7">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7">
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
         <v>15</v>
       </c>
-      <c r="I73" s="7">
-        <v>5</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="7" t="s">
+      <c r="I73" s="6">
+        <v>5</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="3:11">
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>1069</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="7">
-        <v>1</v>
-      </c>
-      <c r="F74" s="7">
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
         <f t="shared" si="1"/>
         <v>1656</v>
       </c>
-      <c r="G74" s="7">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
         <v>16</v>
       </c>
-      <c r="I74" s="7">
-        <v>5</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="7" t="s">
+      <c r="I74" s="6">
+        <v>5</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="75" spans="3:11">
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>1070</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="7">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7">
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
         <f t="shared" si="1"/>
         <v>1680</v>
       </c>
-      <c r="G75" s="7">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7">
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
         <v>8</v>
       </c>
-      <c r="I75" s="7">
-        <v>1</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" s="7" t="s">
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="76" spans="3:11">
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>1071</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
         <f t="shared" si="1"/>
         <v>1704</v>
       </c>
-      <c r="G76" s="7">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7">
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6">
         <v>9</v>
       </c>
-      <c r="I76" s="7">
-        <v>5</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="7" t="s">
+      <c r="I76" s="6">
+        <v>5</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="3:11">
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>1072</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7">
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6">
         <f t="shared" si="1"/>
         <v>1728</v>
       </c>
-      <c r="G77" s="7">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7">
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6">
         <v>10</v>
       </c>
-      <c r="I77" s="7">
-        <v>1</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="7" t="s">
+      <c r="I77" s="6">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="78" spans="3:11">
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>1073</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E78" s="7">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6">
         <f t="shared" si="1"/>
         <v>1752</v>
       </c>
-      <c r="G78" s="7">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7">
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6">
         <v>11</v>
       </c>
-      <c r="I78" s="7">
-        <v>5</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="7" t="s">
+      <c r="I78" s="6">
+        <v>5</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="3:11">
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>1074</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="F79" s="7">
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6">
         <f t="shared" si="1"/>
         <v>1776</v>
       </c>
-      <c r="G79" s="7">
-        <v>1</v>
-      </c>
-      <c r="H79" s="7">
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6">
         <v>12</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>2</v>
       </c>
-      <c r="J79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="7" t="s">
+      <c r="J79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4249,242 +4255,242 @@
       </c>
     </row>
     <row r="81" spans="3:11">
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>1076</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7">
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
         <f t="shared" si="1"/>
         <v>1824</v>
       </c>
-      <c r="G81" s="7">
-        <v>1</v>
-      </c>
-      <c r="H81" s="7">
-        <v>14</v>
-      </c>
-      <c r="I81" s="7">
-        <v>5</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="7" t="s">
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6">
+        <v>14</v>
+      </c>
+      <c r="I81" s="6">
+        <v>5</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="3:11">
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>1077</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="7">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
         <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="G82" s="7">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7">
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
         <v>15</v>
       </c>
-      <c r="I82" s="7">
-        <v>5</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="7" t="s">
+      <c r="I82" s="6">
+        <v>5</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="3:11">
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>1078</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="7">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7">
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
         <f t="shared" si="1"/>
         <v>1872</v>
       </c>
-      <c r="G83" s="7">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7">
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6">
         <v>16</v>
       </c>
-      <c r="I83" s="7">
-        <v>5</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="7" t="s">
+      <c r="I83" s="6">
+        <v>5</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="84" spans="3:11">
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>1079</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="7">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7">
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
         <f t="shared" si="1"/>
         <v>1896</v>
       </c>
-      <c r="G84" s="7">
-        <v>1</v>
-      </c>
-      <c r="H84" s="7">
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6">
         <v>8</v>
       </c>
-      <c r="I84" s="7">
-        <v>1</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="7" t="s">
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="3:11">
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>1080</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="7">
-        <v>1</v>
-      </c>
-      <c r="F85" s="7">
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
         <f t="shared" si="1"/>
         <v>1920</v>
       </c>
-      <c r="G85" s="7">
-        <v>1</v>
-      </c>
-      <c r="H85" s="7">
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="6">
         <v>9</v>
       </c>
-      <c r="I85" s="7">
-        <v>5</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" s="7" t="s">
+      <c r="I85" s="6">
+        <v>5</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="3:11">
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>1081</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="7">
-        <v>1</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
         <f t="shared" si="1"/>
         <v>1944</v>
       </c>
-      <c r="G86" s="7">
-        <v>1</v>
-      </c>
-      <c r="H86" s="7">
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
         <v>10</v>
       </c>
-      <c r="I86" s="7">
-        <v>1</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="7" t="s">
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="87" spans="3:11">
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>1082</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="7">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7">
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
         <f t="shared" si="1"/>
         <v>1968</v>
       </c>
-      <c r="G87" s="7">
-        <v>1</v>
-      </c>
-      <c r="H87" s="7">
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6">
         <v>11</v>
       </c>
-      <c r="I87" s="7">
-        <v>5</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" s="7" t="s">
+      <c r="I87" s="6">
+        <v>5</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="3:11">
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>1083</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="7">
-        <v>1</v>
-      </c>
-      <c r="F88" s="7">
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
         <f t="shared" si="1"/>
         <v>1992</v>
       </c>
-      <c r="G88" s="7">
-        <v>1</v>
-      </c>
-      <c r="H88" s="7">
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6">
         <v>12</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>2</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" s="7" t="s">
+      <c r="J88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4519,272 +4525,272 @@
       </c>
     </row>
     <row r="92" spans="3:11">
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>2001</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>2</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" ref="F92:F155" si="2">(C92-2000)*12</f>
         <v>12</v>
       </c>
-      <c r="G92" s="7">
-        <v>1</v>
-      </c>
-      <c r="H92" s="7">
-        <v>14</v>
-      </c>
-      <c r="I92" s="7">
+      <c r="G92" s="6">
+        <v>1</v>
+      </c>
+      <c r="H92" s="6">
+        <v>14</v>
+      </c>
+      <c r="I92" s="6">
         <v>3</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K92" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="3:11">
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>2002</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>2</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G93" s="7">
-        <v>1</v>
-      </c>
-      <c r="H93" s="7">
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6">
         <v>15</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <v>3</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="K93" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="94" spans="3:11">
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>2003</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>2</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G94" s="7">
-        <v>1</v>
-      </c>
-      <c r="H94" s="7">
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
         <v>16</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <v>3</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="K94" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="95" spans="3:11">
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>2004</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>2</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G95" s="7">
-        <v>1</v>
-      </c>
-      <c r="H95" s="7">
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6">
         <v>18</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="6">
         <v>3</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K95" s="7" t="s">
+      <c r="K95" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="3:11">
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>2005</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>2</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G96" s="7">
-        <v>1</v>
-      </c>
-      <c r="H96" s="7">
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6">
         <v>19</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <v>3</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="97" spans="3:11">
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>2006</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <v>2</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="G97" s="7">
-        <v>1</v>
-      </c>
-      <c r="H97" s="7">
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6">
         <v>20</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="6">
         <v>3</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K97" s="7" t="s">
+      <c r="K97" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="98" spans="3:11">
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>2007</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <v>2</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="G98" s="7">
-        <v>1</v>
-      </c>
-      <c r="H98" s="7">
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
         <v>24</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="6">
         <v>3</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="99" spans="3:11">
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>2008</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>2</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="G99" s="7">
-        <v>1</v>
-      </c>
-      <c r="H99" s="7">
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="6">
         <v>26</v>
       </c>
-      <c r="I99" s="7">
-        <v>5</v>
-      </c>
-      <c r="J99" s="7" t="s">
+      <c r="I99" s="6">
+        <v>5</v>
+      </c>
+      <c r="J99" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K99" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="3:11">
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>2009</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <v>2</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="G100" s="7">
-        <v>1</v>
-      </c>
-      <c r="H100" s="7">
+      <c r="G100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H100" s="6">
         <v>27</v>
       </c>
-      <c r="I100" s="7">
-        <v>5</v>
-      </c>
-      <c r="J100" s="7" t="s">
+      <c r="I100" s="6">
+        <v>5</v>
+      </c>
+      <c r="J100" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4819,272 +4825,272 @@
       </c>
     </row>
     <row r="102" spans="3:11">
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <v>2011</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <v>2</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="G102" s="7">
-        <v>1</v>
-      </c>
-      <c r="H102" s="7">
-        <v>14</v>
-      </c>
-      <c r="I102" s="7">
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6">
+        <v>14</v>
+      </c>
+      <c r="I102" s="6">
         <v>3</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="K102" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="3:11">
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <v>2012</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <v>2</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="G103" s="7">
-        <v>1</v>
-      </c>
-      <c r="H103" s="7">
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="6">
         <v>15</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="6">
         <v>3</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K103" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="104" spans="3:11">
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>2013</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <v>2</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="G104" s="7">
-        <v>1</v>
-      </c>
-      <c r="H104" s="7">
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6">
         <v>16</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="6">
         <v>3</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K104" s="7" t="s">
+      <c r="K104" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="105" spans="3:11">
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>2014</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <v>2</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="G105" s="7">
-        <v>1</v>
-      </c>
-      <c r="H105" s="7">
+      <c r="G105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H105" s="6">
         <v>18</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="6">
         <v>3</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="K105" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="3:11">
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <v>2015</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="6">
         <v>2</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="G106" s="7">
-        <v>1</v>
-      </c>
-      <c r="H106" s="7">
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="6">
         <v>19</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="6">
         <v>3</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K106" s="7" t="s">
+      <c r="K106" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="3:11">
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>2016</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="6">
         <v>2</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="G107" s="7">
-        <v>1</v>
-      </c>
-      <c r="H107" s="7">
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
         <v>20</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107" s="6">
         <v>3</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K107" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="3:11">
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>2017</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="6">
         <v>2</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="G108" s="7">
-        <v>1</v>
-      </c>
-      <c r="H108" s="7">
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="6">
         <v>24</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <v>3</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K108" s="7" t="s">
+      <c r="K108" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="109" spans="3:11">
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>2018</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <v>2</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="G109" s="7">
-        <v>1</v>
-      </c>
-      <c r="H109" s="7">
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6">
         <v>26</v>
       </c>
-      <c r="I109" s="7">
-        <v>5</v>
-      </c>
-      <c r="J109" s="7" t="s">
+      <c r="I109" s="6">
+        <v>5</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K109" s="7" t="s">
+      <c r="K109" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="110" spans="3:11">
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>2019</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="6">
         <v>2</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="G110" s="7">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7">
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="6">
         <v>27</v>
       </c>
-      <c r="I110" s="7">
-        <v>5</v>
-      </c>
-      <c r="J110" s="7" t="s">
+      <c r="I110" s="6">
+        <v>5</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K110" s="7" t="s">
+      <c r="K110" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5119,272 +5125,272 @@
       </c>
     </row>
     <row r="112" spans="3:11">
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>2021</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="6">
         <v>2</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="6">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="G112" s="7">
-        <v>1</v>
-      </c>
-      <c r="H112" s="7">
-        <v>14</v>
-      </c>
-      <c r="I112" s="7">
+      <c r="G112" s="6">
+        <v>1</v>
+      </c>
+      <c r="H112" s="6">
+        <v>14</v>
+      </c>
+      <c r="I112" s="6">
         <v>3</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K112" s="7" t="s">
+      <c r="K112" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="3:11">
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <v>2022</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <v>2</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="G113" s="7">
-        <v>1</v>
-      </c>
-      <c r="H113" s="7">
+      <c r="G113" s="6">
+        <v>1</v>
+      </c>
+      <c r="H113" s="6">
         <v>15</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="6">
         <v>3</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K113" s="7" t="s">
+      <c r="K113" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="114" spans="3:11">
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>2023</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="6">
         <v>2</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="G114" s="7">
-        <v>1</v>
-      </c>
-      <c r="H114" s="7">
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6">
         <v>16</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="6">
         <v>3</v>
       </c>
-      <c r="J114" s="7" t="s">
+      <c r="J114" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K114" s="7" t="s">
+      <c r="K114" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="115" spans="3:11">
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>2024</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <v>2</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
-      <c r="G115" s="7">
-        <v>1</v>
-      </c>
-      <c r="H115" s="7">
+      <c r="G115" s="6">
+        <v>1</v>
+      </c>
+      <c r="H115" s="6">
         <v>18</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="6">
         <v>3</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K115" s="7" t="s">
+      <c r="K115" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="3:11">
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>2025</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="6">
         <v>2</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="6">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G116" s="7">
-        <v>1</v>
-      </c>
-      <c r="H116" s="7">
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
+      <c r="H116" s="6">
         <v>19</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="6">
         <v>3</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K116" s="7" t="s">
+      <c r="K116" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="3:11">
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>2026</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="6">
         <v>2</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="6">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="G117" s="7">
-        <v>1</v>
-      </c>
-      <c r="H117" s="7">
+      <c r="G117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H117" s="6">
         <v>20</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="6">
         <v>3</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K117" s="7" t="s">
+      <c r="K117" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="3:11">
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <v>2027</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <v>2</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="G118" s="7">
-        <v>1</v>
-      </c>
-      <c r="H118" s="7">
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H118" s="6">
         <v>24</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="6">
         <v>3</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K118" s="7" t="s">
+      <c r="K118" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="119" spans="3:11">
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <v>2028</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <v>2</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="G119" s="7">
-        <v>1</v>
-      </c>
-      <c r="H119" s="7">
+      <c r="G119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H119" s="6">
         <v>26</v>
       </c>
-      <c r="I119" s="7">
-        <v>5</v>
-      </c>
-      <c r="J119" s="7" t="s">
+      <c r="I119" s="6">
+        <v>5</v>
+      </c>
+      <c r="J119" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K119" s="7" t="s">
+      <c r="K119" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="3:11">
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <v>2029</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="6">
         <v>2</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="6">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="G120" s="7">
-        <v>1</v>
-      </c>
-      <c r="H120" s="7">
+      <c r="G120" s="6">
+        <v>1</v>
+      </c>
+      <c r="H120" s="6">
         <v>27</v>
       </c>
-      <c r="I120" s="7">
-        <v>5</v>
-      </c>
-      <c r="J120" s="7" t="s">
+      <c r="I120" s="6">
+        <v>5</v>
+      </c>
+      <c r="J120" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K120" s="7" t="s">
+      <c r="K120" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5419,272 +5425,272 @@
       </c>
     </row>
     <row r="122" spans="3:11">
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <v>2031</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <v>2</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
-      <c r="G122" s="7">
-        <v>1</v>
-      </c>
-      <c r="H122" s="7">
-        <v>14</v>
-      </c>
-      <c r="I122" s="7">
+      <c r="G122" s="6">
+        <v>1</v>
+      </c>
+      <c r="H122" s="6">
+        <v>14</v>
+      </c>
+      <c r="I122" s="6">
         <v>3</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="J122" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K122" s="7" t="s">
+      <c r="K122" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" spans="3:11">
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>2032</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="6">
         <v>2</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="6">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="G123" s="7">
-        <v>1</v>
-      </c>
-      <c r="H123" s="7">
+      <c r="G123" s="6">
+        <v>1</v>
+      </c>
+      <c r="H123" s="6">
         <v>15</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="6">
         <v>3</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="J123" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K123" s="7" t="s">
+      <c r="K123" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="124" spans="3:11">
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>2033</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="6">
         <v>2</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="6">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="G124" s="7">
-        <v>1</v>
-      </c>
-      <c r="H124" s="7">
+      <c r="G124" s="6">
+        <v>1</v>
+      </c>
+      <c r="H124" s="6">
         <v>16</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="6">
         <v>3</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="J124" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="K124" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="125" spans="3:11">
-      <c r="C125" s="7">
+      <c r="C125" s="6">
         <v>2034</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="6">
         <v>2</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="6">
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
-      <c r="G125" s="7">
-        <v>1</v>
-      </c>
-      <c r="H125" s="7">
+      <c r="G125" s="6">
+        <v>1</v>
+      </c>
+      <c r="H125" s="6">
         <v>18</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125" s="6">
         <v>3</v>
       </c>
-      <c r="J125" s="7" t="s">
+      <c r="J125" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K125" s="7" t="s">
+      <c r="K125" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="126" spans="3:11">
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <v>2035</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <v>2</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="6">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="G126" s="7">
-        <v>1</v>
-      </c>
-      <c r="H126" s="7">
+      <c r="G126" s="6">
+        <v>1</v>
+      </c>
+      <c r="H126" s="6">
         <v>19</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="6">
         <v>3</v>
       </c>
-      <c r="J126" s="7" t="s">
+      <c r="J126" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K126" s="7" t="s">
+      <c r="K126" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="127" spans="3:11">
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <v>2036</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="6">
         <v>2</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <f t="shared" si="2"/>
         <v>432</v>
       </c>
-      <c r="G127" s="7">
-        <v>1</v>
-      </c>
-      <c r="H127" s="7">
+      <c r="G127" s="6">
+        <v>1</v>
+      </c>
+      <c r="H127" s="6">
         <v>20</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127" s="6">
         <v>3</v>
       </c>
-      <c r="J127" s="7" t="s">
+      <c r="J127" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K127" s="7" t="s">
+      <c r="K127" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="128" spans="3:11">
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <v>2037</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="6">
         <v>2</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="6">
         <f t="shared" si="2"/>
         <v>444</v>
       </c>
-      <c r="G128" s="7">
-        <v>1</v>
-      </c>
-      <c r="H128" s="7">
+      <c r="G128" s="6">
+        <v>1</v>
+      </c>
+      <c r="H128" s="6">
         <v>24</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="6">
         <v>3</v>
       </c>
-      <c r="J128" s="7" t="s">
+      <c r="J128" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K128" s="7" t="s">
+      <c r="K128" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="129" spans="3:11">
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <v>2038</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="6">
         <v>2</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6">
         <f t="shared" si="2"/>
         <v>456</v>
       </c>
-      <c r="G129" s="7">
-        <v>1</v>
-      </c>
-      <c r="H129" s="7">
+      <c r="G129" s="6">
+        <v>1</v>
+      </c>
+      <c r="H129" s="6">
         <v>26</v>
       </c>
-      <c r="I129" s="7">
-        <v>5</v>
-      </c>
-      <c r="J129" s="7" t="s">
+      <c r="I129" s="6">
+        <v>5</v>
+      </c>
+      <c r="J129" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K129" s="7" t="s">
+      <c r="K129" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="130" spans="3:11">
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <v>2039</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="6">
         <v>2</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="6">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="G130" s="7">
-        <v>1</v>
-      </c>
-      <c r="H130" s="7">
+      <c r="G130" s="6">
+        <v>1</v>
+      </c>
+      <c r="H130" s="6">
         <v>27</v>
       </c>
-      <c r="I130" s="7">
-        <v>5</v>
-      </c>
-      <c r="J130" s="7" t="s">
+      <c r="I130" s="6">
+        <v>5</v>
+      </c>
+      <c r="J130" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K130" s="7" t="s">
+      <c r="K130" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5719,272 +5725,272 @@
       </c>
     </row>
     <row r="132" spans="3:11">
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <v>2041</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="6">
         <v>2</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="6">
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
-      <c r="G132" s="7">
-        <v>1</v>
-      </c>
-      <c r="H132" s="7">
-        <v>14</v>
-      </c>
-      <c r="I132" s="7">
+      <c r="G132" s="6">
+        <v>1</v>
+      </c>
+      <c r="H132" s="6">
+        <v>14</v>
+      </c>
+      <c r="I132" s="6">
         <v>3</v>
       </c>
-      <c r="J132" s="7" t="s">
+      <c r="J132" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K132" s="7" t="s">
+      <c r="K132" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="3:11">
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <v>2042</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="6">
         <v>2</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="6">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="G133" s="7">
-        <v>1</v>
-      </c>
-      <c r="H133" s="7">
+      <c r="G133" s="6">
+        <v>1</v>
+      </c>
+      <c r="H133" s="6">
         <v>15</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="6">
         <v>3</v>
       </c>
-      <c r="J133" s="7" t="s">
+      <c r="J133" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K133" s="7" t="s">
+      <c r="K133" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="134" spans="3:11">
-      <c r="C134" s="7">
+      <c r="C134" s="6">
         <v>2043</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="6">
         <v>2</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="6">
         <f t="shared" si="2"/>
         <v>516</v>
       </c>
-      <c r="G134" s="7">
-        <v>1</v>
-      </c>
-      <c r="H134" s="7">
+      <c r="G134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6">
         <v>16</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="6">
         <v>3</v>
       </c>
-      <c r="J134" s="7" t="s">
+      <c r="J134" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K134" s="7" t="s">
+      <c r="K134" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="3:11">
-      <c r="C135" s="7">
+      <c r="C135" s="6">
         <v>2044</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="6">
         <v>2</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="6">
         <f t="shared" si="2"/>
         <v>528</v>
       </c>
-      <c r="G135" s="7">
-        <v>1</v>
-      </c>
-      <c r="H135" s="7">
+      <c r="G135" s="6">
+        <v>1</v>
+      </c>
+      <c r="H135" s="6">
         <v>18</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="6">
         <v>3</v>
       </c>
-      <c r="J135" s="7" t="s">
+      <c r="J135" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K135" s="7" t="s">
+      <c r="K135" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="136" spans="3:11">
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <v>2045</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="6">
         <v>2</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="6">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="G136" s="7">
-        <v>1</v>
-      </c>
-      <c r="H136" s="7">
+      <c r="G136" s="6">
+        <v>1</v>
+      </c>
+      <c r="H136" s="6">
         <v>19</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136" s="6">
         <v>3</v>
       </c>
-      <c r="J136" s="7" t="s">
+      <c r="J136" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K136" s="7" t="s">
+      <c r="K136" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="137" spans="3:11">
-      <c r="C137" s="7">
+      <c r="C137" s="6">
         <v>2046</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="6">
         <v>2</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="6">
         <f t="shared" si="2"/>
         <v>552</v>
       </c>
-      <c r="G137" s="7">
-        <v>1</v>
-      </c>
-      <c r="H137" s="7">
+      <c r="G137" s="6">
+        <v>1</v>
+      </c>
+      <c r="H137" s="6">
         <v>20</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="6">
         <v>3</v>
       </c>
-      <c r="J137" s="7" t="s">
+      <c r="J137" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K137" s="7" t="s">
+      <c r="K137" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="138" spans="3:11">
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <v>2047</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="6">
         <v>2</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="6">
         <f t="shared" si="2"/>
         <v>564</v>
       </c>
-      <c r="G138" s="7">
-        <v>1</v>
-      </c>
-      <c r="H138" s="7">
+      <c r="G138" s="6">
+        <v>1</v>
+      </c>
+      <c r="H138" s="6">
         <v>24</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="6">
         <v>3</v>
       </c>
-      <c r="J138" s="7" t="s">
+      <c r="J138" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K138" s="7" t="s">
+      <c r="K138" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="139" spans="3:11">
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <v>2048</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="6">
         <v>2</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="6">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="G139" s="7">
-        <v>1</v>
-      </c>
-      <c r="H139" s="7">
+      <c r="G139" s="6">
+        <v>1</v>
+      </c>
+      <c r="H139" s="6">
         <v>26</v>
       </c>
-      <c r="I139" s="7">
-        <v>5</v>
-      </c>
-      <c r="J139" s="7" t="s">
+      <c r="I139" s="6">
+        <v>5</v>
+      </c>
+      <c r="J139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K139" s="7" t="s">
+      <c r="K139" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="140" spans="3:11">
-      <c r="C140" s="7">
+      <c r="C140" s="6">
         <v>2049</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="6">
         <v>2</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="6">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="G140" s="7">
-        <v>1</v>
-      </c>
-      <c r="H140" s="7">
+      <c r="G140" s="6">
+        <v>1</v>
+      </c>
+      <c r="H140" s="6">
         <v>27</v>
       </c>
-      <c r="I140" s="7">
-        <v>5</v>
-      </c>
-      <c r="J140" s="7" t="s">
+      <c r="I140" s="6">
+        <v>5</v>
+      </c>
+      <c r="J140" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K140" s="7" t="s">
+      <c r="K140" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6019,272 +6025,272 @@
       </c>
     </row>
     <row r="142" spans="3:11">
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <v>2051</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="6">
         <v>2</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="6">
         <f t="shared" si="2"/>
         <v>612</v>
       </c>
-      <c r="G142" s="7">
-        <v>1</v>
-      </c>
-      <c r="H142" s="7">
-        <v>14</v>
-      </c>
-      <c r="I142" s="7">
+      <c r="G142" s="6">
+        <v>1</v>
+      </c>
+      <c r="H142" s="6">
+        <v>14</v>
+      </c>
+      <c r="I142" s="6">
         <v>3</v>
       </c>
-      <c r="J142" s="7" t="s">
+      <c r="J142" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K142" s="7" t="s">
+      <c r="K142" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="3:11">
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <v>2052</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <v>2</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="6">
         <f t="shared" si="2"/>
         <v>624</v>
       </c>
-      <c r="G143" s="7">
-        <v>1</v>
-      </c>
-      <c r="H143" s="7">
+      <c r="G143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6">
         <v>15</v>
       </c>
-      <c r="I143" s="7">
+      <c r="I143" s="6">
         <v>3</v>
       </c>
-      <c r="J143" s="7" t="s">
+      <c r="J143" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K143" s="7" t="s">
+      <c r="K143" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="144" spans="3:11">
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <v>2053</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <v>2</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="6">
         <f t="shared" si="2"/>
         <v>636</v>
       </c>
-      <c r="G144" s="7">
-        <v>1</v>
-      </c>
-      <c r="H144" s="7">
+      <c r="G144" s="6">
+        <v>1</v>
+      </c>
+      <c r="H144" s="6">
         <v>16</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144" s="6">
         <v>3</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="J144" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K144" s="7" t="s">
+      <c r="K144" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="145" spans="3:11">
-      <c r="C145" s="7">
+      <c r="C145" s="6">
         <v>2054</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="6">
         <v>2</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="6">
         <f t="shared" si="2"/>
         <v>648</v>
       </c>
-      <c r="G145" s="7">
-        <v>1</v>
-      </c>
-      <c r="H145" s="7">
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H145" s="6">
         <v>18</v>
       </c>
-      <c r="I145" s="7">
+      <c r="I145" s="6">
         <v>3</v>
       </c>
-      <c r="J145" s="7" t="s">
+      <c r="J145" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K145" s="7" t="s">
+      <c r="K145" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="146" spans="3:11">
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <v>2055</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="6">
         <v>2</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="6">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="G146" s="7">
-        <v>1</v>
-      </c>
-      <c r="H146" s="7">
+      <c r="G146" s="6">
+        <v>1</v>
+      </c>
+      <c r="H146" s="6">
         <v>19</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="6">
         <v>3</v>
       </c>
-      <c r="J146" s="7" t="s">
+      <c r="J146" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K146" s="7" t="s">
+      <c r="K146" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="147" spans="3:11">
-      <c r="C147" s="7">
+      <c r="C147" s="6">
         <v>2056</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="6">
         <v>2</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="6">
         <f t="shared" si="2"/>
         <v>672</v>
       </c>
-      <c r="G147" s="7">
-        <v>1</v>
-      </c>
-      <c r="H147" s="7">
+      <c r="G147" s="6">
+        <v>1</v>
+      </c>
+      <c r="H147" s="6">
         <v>20</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147" s="6">
         <v>3</v>
       </c>
-      <c r="J147" s="7" t="s">
+      <c r="J147" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K147" s="7" t="s">
+      <c r="K147" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="148" spans="3:11">
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <v>2057</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="6">
         <v>2</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6">
         <f t="shared" si="2"/>
         <v>684</v>
       </c>
-      <c r="G148" s="7">
-        <v>1</v>
-      </c>
-      <c r="H148" s="7">
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
+      <c r="H148" s="6">
         <v>24</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="6">
         <v>3</v>
       </c>
-      <c r="J148" s="7" t="s">
+      <c r="J148" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K148" s="7" t="s">
+      <c r="K148" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="149" spans="3:11">
-      <c r="C149" s="7">
+      <c r="C149" s="6">
         <v>2058</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="6">
         <v>2</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="6">
         <f t="shared" si="2"/>
         <v>696</v>
       </c>
-      <c r="G149" s="7">
-        <v>1</v>
-      </c>
-      <c r="H149" s="7">
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
+      <c r="H149" s="6">
         <v>26</v>
       </c>
-      <c r="I149" s="7">
-        <v>5</v>
-      </c>
-      <c r="J149" s="7" t="s">
+      <c r="I149" s="6">
+        <v>5</v>
+      </c>
+      <c r="J149" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K149" s="7" t="s">
+      <c r="K149" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="150" spans="3:11">
-      <c r="C150" s="7">
+      <c r="C150" s="6">
         <v>2059</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="6">
         <v>2</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="6">
         <f t="shared" si="2"/>
         <v>708</v>
       </c>
-      <c r="G150" s="7">
-        <v>1</v>
-      </c>
-      <c r="H150" s="7">
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
+      <c r="H150" s="6">
         <v>27</v>
       </c>
-      <c r="I150" s="7">
-        <v>5</v>
-      </c>
-      <c r="J150" s="7" t="s">
+      <c r="I150" s="6">
+        <v>5</v>
+      </c>
+      <c r="J150" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K150" s="7" t="s">
+      <c r="K150" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6319,272 +6325,272 @@
       </c>
     </row>
     <row r="152" spans="3:11">
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <v>2061</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="6">
         <v>2</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="6">
         <f t="shared" si="2"/>
         <v>732</v>
       </c>
-      <c r="G152" s="7">
-        <v>1</v>
-      </c>
-      <c r="H152" s="7">
-        <v>14</v>
-      </c>
-      <c r="I152" s="7">
+      <c r="G152" s="6">
+        <v>1</v>
+      </c>
+      <c r="H152" s="6">
+        <v>14</v>
+      </c>
+      <c r="I152" s="6">
         <v>3</v>
       </c>
-      <c r="J152" s="7" t="s">
+      <c r="J152" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K152" s="7" t="s">
+      <c r="K152" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="153" spans="3:11">
-      <c r="C153" s="7">
+      <c r="C153" s="6">
         <v>2062</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="6">
         <v>2</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="6">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="G153" s="7">
-        <v>1</v>
-      </c>
-      <c r="H153" s="7">
+      <c r="G153" s="6">
+        <v>1</v>
+      </c>
+      <c r="H153" s="6">
         <v>15</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153" s="6">
         <v>3</v>
       </c>
-      <c r="J153" s="7" t="s">
+      <c r="J153" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K153" s="7" t="s">
+      <c r="K153" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="154" spans="3:11">
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <v>2063</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="6">
         <v>2</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="6">
         <f t="shared" si="2"/>
         <v>756</v>
       </c>
-      <c r="G154" s="7">
-        <v>1</v>
-      </c>
-      <c r="H154" s="7">
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6">
         <v>16</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="6">
         <v>3</v>
       </c>
-      <c r="J154" s="7" t="s">
+      <c r="J154" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K154" s="7" t="s">
+      <c r="K154" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="155" spans="3:11">
-      <c r="C155" s="7">
+      <c r="C155" s="6">
         <v>2064</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="6">
         <v>2</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="6">
         <f t="shared" si="2"/>
         <v>768</v>
       </c>
-      <c r="G155" s="7">
-        <v>1</v>
-      </c>
-      <c r="H155" s="7">
+      <c r="G155" s="6">
+        <v>1</v>
+      </c>
+      <c r="H155" s="6">
         <v>18</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155" s="6">
         <v>3</v>
       </c>
-      <c r="J155" s="7" t="s">
+      <c r="J155" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K155" s="7" t="s">
+      <c r="K155" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="156" spans="3:11">
-      <c r="C156" s="7">
+      <c r="C156" s="6">
         <v>2065</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="6">
         <v>2</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="6">
         <f t="shared" ref="F156:F171" si="3">(C156-2000)*12</f>
         <v>780</v>
       </c>
-      <c r="G156" s="7">
-        <v>1</v>
-      </c>
-      <c r="H156" s="7">
+      <c r="G156" s="6">
+        <v>1</v>
+      </c>
+      <c r="H156" s="6">
         <v>19</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="6">
         <v>3</v>
       </c>
-      <c r="J156" s="7" t="s">
+      <c r="J156" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K156" s="7" t="s">
+      <c r="K156" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="157" spans="3:11">
-      <c r="C157" s="7">
+      <c r="C157" s="6">
         <v>2066</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="6">
         <v>2</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="6">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="G157" s="7">
-        <v>1</v>
-      </c>
-      <c r="H157" s="7">
+      <c r="G157" s="6">
+        <v>1</v>
+      </c>
+      <c r="H157" s="6">
         <v>20</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="6">
         <v>3</v>
       </c>
-      <c r="J157" s="7" t="s">
+      <c r="J157" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K157" s="7" t="s">
+      <c r="K157" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="158" spans="3:11">
-      <c r="C158" s="7">
+      <c r="C158" s="6">
         <v>2067</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="6">
         <v>2</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="6">
         <f t="shared" si="3"/>
         <v>804</v>
       </c>
-      <c r="G158" s="7">
-        <v>1</v>
-      </c>
-      <c r="H158" s="7">
+      <c r="G158" s="6">
+        <v>1</v>
+      </c>
+      <c r="H158" s="6">
         <v>24</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="6">
         <v>3</v>
       </c>
-      <c r="J158" s="7" t="s">
+      <c r="J158" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K158" s="7" t="s">
+      <c r="K158" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="159" spans="3:11">
-      <c r="C159" s="7">
+      <c r="C159" s="6">
         <v>2068</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="6">
         <v>2</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6">
         <f t="shared" si="3"/>
         <v>816</v>
       </c>
-      <c r="G159" s="7">
-        <v>1</v>
-      </c>
-      <c r="H159" s="7">
+      <c r="G159" s="6">
+        <v>1</v>
+      </c>
+      <c r="H159" s="6">
         <v>26</v>
       </c>
-      <c r="I159" s="7">
-        <v>5</v>
-      </c>
-      <c r="J159" s="7" t="s">
+      <c r="I159" s="6">
+        <v>5</v>
+      </c>
+      <c r="J159" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K159" s="7" t="s">
+      <c r="K159" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="160" spans="3:11">
-      <c r="C160" s="7">
+      <c r="C160" s="6">
         <v>2069</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="6">
         <v>2</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="6">
         <f t="shared" si="3"/>
         <v>828</v>
       </c>
-      <c r="G160" s="7">
-        <v>1</v>
-      </c>
-      <c r="H160" s="7">
+      <c r="G160" s="6">
+        <v>1</v>
+      </c>
+      <c r="H160" s="6">
         <v>27</v>
       </c>
-      <c r="I160" s="7">
-        <v>5</v>
-      </c>
-      <c r="J160" s="7" t="s">
+      <c r="I160" s="6">
+        <v>5</v>
+      </c>
+      <c r="J160" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K160" s="7" t="s">
+      <c r="K160" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6619,272 +6625,272 @@
       </c>
     </row>
     <row r="162" spans="3:11">
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <v>2071</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="6">
         <v>2</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="6">
         <f t="shared" si="3"/>
         <v>852</v>
       </c>
-      <c r="G162" s="7">
-        <v>1</v>
-      </c>
-      <c r="H162" s="7">
-        <v>14</v>
-      </c>
-      <c r="I162" s="7">
+      <c r="G162" s="6">
+        <v>1</v>
+      </c>
+      <c r="H162" s="6">
+        <v>14</v>
+      </c>
+      <c r="I162" s="6">
         <v>3</v>
       </c>
-      <c r="J162" s="7" t="s">
+      <c r="J162" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K162" s="7" t="s">
+      <c r="K162" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="163" spans="3:11">
-      <c r="C163" s="7">
+      <c r="C163" s="6">
         <v>2072</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="6">
         <v>2</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="6">
         <f t="shared" si="3"/>
         <v>864</v>
       </c>
-      <c r="G163" s="7">
-        <v>1</v>
-      </c>
-      <c r="H163" s="7">
+      <c r="G163" s="6">
+        <v>1</v>
+      </c>
+      <c r="H163" s="6">
         <v>15</v>
       </c>
-      <c r="I163" s="7">
+      <c r="I163" s="6">
         <v>3</v>
       </c>
-      <c r="J163" s="7" t="s">
+      <c r="J163" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K163" s="7" t="s">
+      <c r="K163" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="164" spans="3:11">
-      <c r="C164" s="7">
+      <c r="C164" s="6">
         <v>2073</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="6">
         <v>2</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="6">
         <f t="shared" si="3"/>
         <v>876</v>
       </c>
-      <c r="G164" s="7">
-        <v>1</v>
-      </c>
-      <c r="H164" s="7">
+      <c r="G164" s="6">
+        <v>1</v>
+      </c>
+      <c r="H164" s="6">
         <v>16</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="6">
         <v>3</v>
       </c>
-      <c r="J164" s="7" t="s">
+      <c r="J164" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K164" s="7" t="s">
+      <c r="K164" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="165" spans="3:11">
-      <c r="C165" s="7">
+      <c r="C165" s="6">
         <v>2074</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="6">
         <v>2</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="6">
         <f t="shared" si="3"/>
         <v>888</v>
       </c>
-      <c r="G165" s="7">
-        <v>1</v>
-      </c>
-      <c r="H165" s="7">
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
+      <c r="H165" s="6">
         <v>18</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165" s="6">
         <v>3</v>
       </c>
-      <c r="J165" s="7" t="s">
+      <c r="J165" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K165" s="7" t="s">
+      <c r="K165" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="166" spans="3:11">
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <v>2075</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="6">
         <v>2</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G166" s="7">
-        <v>1</v>
-      </c>
-      <c r="H166" s="7">
+      <c r="G166" s="6">
+        <v>1</v>
+      </c>
+      <c r="H166" s="6">
         <v>19</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166" s="6">
         <v>3</v>
       </c>
-      <c r="J166" s="7" t="s">
+      <c r="J166" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K166" s="7" t="s">
+      <c r="K166" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="167" spans="3:11">
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <v>2076</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="6">
         <v>2</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6">
         <f t="shared" si="3"/>
         <v>912</v>
       </c>
-      <c r="G167" s="7">
-        <v>1</v>
-      </c>
-      <c r="H167" s="7">
+      <c r="G167" s="6">
+        <v>1</v>
+      </c>
+      <c r="H167" s="6">
         <v>20</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="6">
         <v>3</v>
       </c>
-      <c r="J167" s="7" t="s">
+      <c r="J167" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K167" s="7" t="s">
+      <c r="K167" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="168" spans="3:11">
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <v>2077</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="6">
         <v>2</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="6">
         <f t="shared" si="3"/>
         <v>924</v>
       </c>
-      <c r="G168" s="7">
-        <v>1</v>
-      </c>
-      <c r="H168" s="7">
+      <c r="G168" s="6">
+        <v>1</v>
+      </c>
+      <c r="H168" s="6">
         <v>24</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="6">
         <v>3</v>
       </c>
-      <c r="J168" s="7" t="s">
+      <c r="J168" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K168" s="7" t="s">
+      <c r="K168" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="169" spans="3:11">
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <v>2078</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="6">
         <v>2</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="6">
         <f t="shared" si="3"/>
         <v>936</v>
       </c>
-      <c r="G169" s="7">
-        <v>1</v>
-      </c>
-      <c r="H169" s="7">
+      <c r="G169" s="6">
+        <v>1</v>
+      </c>
+      <c r="H169" s="6">
         <v>26</v>
       </c>
-      <c r="I169" s="7">
-        <v>5</v>
-      </c>
-      <c r="J169" s="7" t="s">
+      <c r="I169" s="6">
+        <v>5</v>
+      </c>
+      <c r="J169" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K169" s="7" t="s">
+      <c r="K169" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="170" spans="3:11">
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <v>2079</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="6">
         <v>2</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="6">
         <f t="shared" si="3"/>
         <v>948</v>
       </c>
-      <c r="G170" s="7">
-        <v>1</v>
-      </c>
-      <c r="H170" s="7">
+      <c r="G170" s="6">
+        <v>1</v>
+      </c>
+      <c r="H170" s="6">
         <v>27</v>
       </c>
-      <c r="I170" s="7">
-        <v>5</v>
-      </c>
-      <c r="J170" s="7" t="s">
+      <c r="I170" s="6">
+        <v>5</v>
+      </c>
+      <c r="J170" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K170" s="7" t="s">
+      <c r="K170" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6919,1978 +6925,2007 @@
       </c>
     </row>
     <row r="176" spans="3:10">
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <v>3001</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="6">
         <v>3</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="6">
         <v>1000</v>
       </c>
-      <c r="G176" s="7">
-        <v>1</v>
-      </c>
-      <c r="H176" s="7">
+      <c r="G176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H176" s="6">
         <v>20</v>
       </c>
-      <c r="I176" s="7">
-        <v>5</v>
-      </c>
-      <c r="J176" s="7" t="s">
+      <c r="I176" s="6">
+        <v>5</v>
+      </c>
+      <c r="J176" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="177" spans="3:10">
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <v>3002</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="6">
         <v>3</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="6">
         <v>5000</v>
       </c>
-      <c r="G177" s="7">
-        <v>1</v>
-      </c>
-      <c r="H177" s="7">
+      <c r="G177" s="6">
+        <v>1</v>
+      </c>
+      <c r="H177" s="6">
         <v>20</v>
       </c>
-      <c r="I177" s="7">
-        <v>5</v>
-      </c>
-      <c r="J177" s="7" t="s">
+      <c r="I177" s="6">
+        <v>5</v>
+      </c>
+      <c r="J177" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="178" spans="3:10">
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <v>3003</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="6">
         <v>3</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="6">
         <v>10000</v>
       </c>
-      <c r="G178" s="7">
-        <v>1</v>
-      </c>
-      <c r="H178" s="7">
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="6">
         <v>20</v>
       </c>
-      <c r="I178" s="7">
-        <v>5</v>
-      </c>
-      <c r="J178" s="7" t="s">
+      <c r="I178" s="6">
+        <v>5</v>
+      </c>
+      <c r="J178" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="179" spans="3:10">
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <v>3004</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="6">
         <v>3</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="6">
         <v>20000</v>
       </c>
-      <c r="G179" s="7">
-        <v>1</v>
-      </c>
-      <c r="H179" s="7">
+      <c r="G179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H179" s="6">
         <v>20</v>
       </c>
-      <c r="I179" s="7">
-        <v>5</v>
-      </c>
-      <c r="J179" s="7" t="s">
+      <c r="I179" s="6">
+        <v>5</v>
+      </c>
+      <c r="J179" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="180" spans="3:10">
-      <c r="C180" s="7">
+      <c r="C180" s="6">
         <v>3005</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="6">
         <v>3</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="6">
         <v>40000</v>
       </c>
-      <c r="G180" s="7">
-        <v>1</v>
-      </c>
-      <c r="H180" s="7">
+      <c r="G180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H180" s="6">
         <v>20</v>
       </c>
-      <c r="I180" s="7">
-        <v>5</v>
-      </c>
-      <c r="J180" s="7" t="s">
+      <c r="I180" s="6">
+        <v>5</v>
+      </c>
+      <c r="J180" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="181" spans="3:10">
-      <c r="C181" s="7">
+      <c r="C181" s="6">
         <v>3006</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="6">
         <v>3</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6">
         <v>60000</v>
       </c>
-      <c r="G181" s="7">
-        <v>1</v>
-      </c>
-      <c r="H181" s="7">
+      <c r="G181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H181" s="6">
         <v>20</v>
       </c>
-      <c r="I181" s="7">
-        <v>5</v>
-      </c>
-      <c r="J181" s="7" t="s">
+      <c r="I181" s="6">
+        <v>5</v>
+      </c>
+      <c r="J181" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="182" spans="3:10">
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <v>3007</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E182" s="6">
         <v>3</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="6">
         <v>80000</v>
       </c>
-      <c r="G182" s="7">
-        <v>1</v>
-      </c>
-      <c r="H182" s="7">
+      <c r="G182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H182" s="6">
         <v>20</v>
       </c>
-      <c r="I182" s="7">
-        <v>5</v>
-      </c>
-      <c r="J182" s="7" t="s">
+      <c r="I182" s="6">
+        <v>5</v>
+      </c>
+      <c r="J182" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="183" spans="3:10">
-      <c r="C183" s="7">
+      <c r="C183" s="6">
         <v>3008</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E183" s="7">
+      <c r="E183" s="6">
         <v>3</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="6">
         <v>100000</v>
       </c>
-      <c r="G183" s="7">
-        <v>1</v>
-      </c>
-      <c r="H183" s="7">
+      <c r="G183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H183" s="6">
         <v>20</v>
       </c>
-      <c r="I183" s="7">
-        <v>5</v>
-      </c>
-      <c r="J183" s="7" t="s">
+      <c r="I183" s="6">
+        <v>5</v>
+      </c>
+      <c r="J183" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="184" spans="3:10">
-      <c r="C184" s="7">
+      <c r="C184" s="6">
         <v>3009</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="6">
         <v>3</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="6">
         <v>120000</v>
       </c>
-      <c r="G184" s="7">
-        <v>1</v>
-      </c>
-      <c r="H184" s="7">
+      <c r="G184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H184" s="6">
         <v>20</v>
       </c>
-      <c r="I184" s="7">
-        <v>5</v>
-      </c>
-      <c r="J184" s="7" t="s">
+      <c r="I184" s="6">
+        <v>5</v>
+      </c>
+      <c r="J184" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="185" spans="3:10">
-      <c r="C185" s="7">
+      <c r="C185" s="6">
         <v>3010</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E185" s="6">
         <v>3</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6">
         <v>140000</v>
       </c>
-      <c r="G185" s="7">
-        <v>1</v>
-      </c>
-      <c r="H185" s="7">
+      <c r="G185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H185" s="6">
         <v>20</v>
       </c>
-      <c r="I185" s="7">
-        <v>5</v>
-      </c>
-      <c r="J185" s="7" t="s">
+      <c r="I185" s="6">
+        <v>5</v>
+      </c>
+      <c r="J185" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="186" spans="3:10">
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <v>3011</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E186" s="6">
         <v>3</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="6">
         <v>160000</v>
       </c>
-      <c r="G186" s="7">
-        <v>1</v>
-      </c>
-      <c r="H186" s="7">
+      <c r="G186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H186" s="6">
         <v>20</v>
       </c>
-      <c r="I186" s="7">
-        <v>5</v>
-      </c>
-      <c r="J186" s="7" t="s">
+      <c r="I186" s="6">
+        <v>5</v>
+      </c>
+      <c r="J186" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="187" spans="3:10">
-      <c r="C187" s="7">
+      <c r="C187" s="6">
         <v>3012</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E187" s="7">
+      <c r="E187" s="6">
         <v>3</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187" s="6">
         <v>180000</v>
       </c>
-      <c r="G187" s="7">
-        <v>1</v>
-      </c>
-      <c r="H187" s="7">
+      <c r="G187" s="6">
+        <v>1</v>
+      </c>
+      <c r="H187" s="6">
         <v>20</v>
       </c>
-      <c r="I187" s="7">
-        <v>5</v>
-      </c>
-      <c r="J187" s="7" t="s">
+      <c r="I187" s="6">
+        <v>5</v>
+      </c>
+      <c r="J187" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="188" spans="3:10">
-      <c r="C188" s="7">
+      <c r="C188" s="6">
         <v>3013</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E188" s="6">
         <v>3</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" s="6">
         <v>200000</v>
       </c>
-      <c r="G188" s="7">
-        <v>1</v>
-      </c>
-      <c r="H188" s="7">
+      <c r="G188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H188" s="6">
         <v>20</v>
       </c>
-      <c r="I188" s="7">
-        <v>5</v>
-      </c>
-      <c r="J188" s="7" t="s">
+      <c r="I188" s="6">
+        <v>5</v>
+      </c>
+      <c r="J188" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="189" spans="3:10">
-      <c r="C189" s="7">
+      <c r="C189" s="6">
         <v>3014</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D189" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E189" s="6">
         <v>3</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189" s="6">
         <v>220000</v>
       </c>
-      <c r="G189" s="7">
-        <v>1</v>
-      </c>
-      <c r="H189" s="7">
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H189" s="6">
         <v>20</v>
       </c>
-      <c r="I189" s="7">
-        <v>5</v>
-      </c>
-      <c r="J189" s="7" t="s">
+      <c r="I189" s="6">
+        <v>5</v>
+      </c>
+      <c r="J189" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="190" spans="3:10">
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <v>3015</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E190" s="6">
         <v>3</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F190" s="6">
         <v>240000</v>
       </c>
-      <c r="G190" s="7">
-        <v>1</v>
-      </c>
-      <c r="H190" s="7">
+      <c r="G190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H190" s="6">
         <v>20</v>
       </c>
-      <c r="I190" s="7">
-        <v>5</v>
-      </c>
-      <c r="J190" s="7" t="s">
+      <c r="I190" s="6">
+        <v>5</v>
+      </c>
+      <c r="J190" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="191" spans="3:10">
-      <c r="C191" s="7">
+      <c r="C191" s="6">
         <v>3016</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E191" s="6">
         <v>3</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191" s="6">
         <v>260000</v>
       </c>
-      <c r="G191" s="7">
-        <v>1</v>
-      </c>
-      <c r="H191" s="7">
+      <c r="G191" s="6">
+        <v>1</v>
+      </c>
+      <c r="H191" s="6">
         <v>20</v>
       </c>
-      <c r="I191" s="7">
-        <v>5</v>
-      </c>
-      <c r="J191" s="7" t="s">
+      <c r="I191" s="6">
+        <v>5</v>
+      </c>
+      <c r="J191" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="192" spans="3:10">
-      <c r="C192" s="7">
+      <c r="C192" s="6">
         <v>3017</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E192" s="6">
         <v>3</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" s="6">
         <v>280000</v>
       </c>
-      <c r="G192" s="7">
-        <v>1</v>
-      </c>
-      <c r="H192" s="7">
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6">
         <v>20</v>
       </c>
-      <c r="I192" s="7">
-        <v>5</v>
-      </c>
-      <c r="J192" s="7" t="s">
+      <c r="I192" s="6">
+        <v>5</v>
+      </c>
+      <c r="J192" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="193" spans="3:10">
-      <c r="C193" s="7">
+      <c r="C193" s="6">
         <v>3018</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E193" s="6">
         <v>3</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193" s="6">
         <v>300000</v>
       </c>
-      <c r="G193" s="7">
-        <v>1</v>
-      </c>
-      <c r="H193" s="7">
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6">
         <v>20</v>
       </c>
-      <c r="I193" s="7">
-        <v>5</v>
-      </c>
-      <c r="J193" s="7" t="s">
+      <c r="I193" s="6">
+        <v>5</v>
+      </c>
+      <c r="J193" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="196" spans="3:10">
-      <c r="C196" s="7">
+      <c r="C196" s="6">
         <v>4001</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E196" s="6">
         <v>4</v>
       </c>
-      <c r="F196" s="7">
+      <c r="F196" s="6">
         <v>100</v>
       </c>
-      <c r="G196" s="7">
+      <c r="G196" s="6">
         <v>3</v>
       </c>
-      <c r="H196" s="7">
+      <c r="H196" s="6">
         <v>0</v>
       </c>
-      <c r="I196" s="7">
-        <v>1</v>
-      </c>
-      <c r="J196" s="7" t="s">
+      <c r="I196" s="6">
+        <v>1</v>
+      </c>
+      <c r="J196" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="197" spans="3:10">
-      <c r="C197" s="7">
+      <c r="C197" s="6">
         <v>4002</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E197" s="6">
         <v>4</v>
       </c>
-      <c r="F197" s="7">
+      <c r="F197" s="6">
         <v>200</v>
       </c>
-      <c r="G197" s="7">
+      <c r="G197" s="6">
         <v>3</v>
       </c>
-      <c r="H197" s="7">
+      <c r="H197" s="6">
         <v>0</v>
       </c>
-      <c r="I197" s="7">
-        <v>1</v>
-      </c>
-      <c r="J197" s="7" t="s">
+      <c r="I197" s="6">
+        <v>1</v>
+      </c>
+      <c r="J197" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="198" spans="3:10">
-      <c r="C198" s="7">
+      <c r="C198" s="6">
         <v>4003</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D198" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E198" s="6">
         <v>4</v>
       </c>
-      <c r="F198" s="7">
+      <c r="F198" s="6">
         <v>300</v>
       </c>
-      <c r="G198" s="7">
+      <c r="G198" s="6">
         <v>3</v>
       </c>
-      <c r="H198" s="7">
+      <c r="H198" s="6">
         <v>0</v>
       </c>
-      <c r="I198" s="7">
-        <v>1</v>
-      </c>
-      <c r="J198" s="7" t="s">
+      <c r="I198" s="6">
+        <v>1</v>
+      </c>
+      <c r="J198" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="199" spans="3:10">
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <v>4004</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E199" s="6">
         <v>4</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="6">
         <v>400</v>
       </c>
-      <c r="G199" s="7">
+      <c r="G199" s="6">
         <v>3</v>
       </c>
-      <c r="H199" s="7">
+      <c r="H199" s="6">
         <v>0</v>
       </c>
-      <c r="I199" s="7">
-        <v>1</v>
-      </c>
-      <c r="J199" s="7" t="s">
+      <c r="I199" s="6">
+        <v>1</v>
+      </c>
+      <c r="J199" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="200" spans="3:10">
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <v>4005</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E200" s="6">
         <v>4</v>
       </c>
-      <c r="F200" s="7">
+      <c r="F200" s="6">
         <v>500</v>
       </c>
-      <c r="G200" s="7">
+      <c r="G200" s="6">
         <v>3</v>
       </c>
-      <c r="H200" s="7">
+      <c r="H200" s="6">
         <v>0</v>
       </c>
-      <c r="I200" s="7">
-        <v>1</v>
-      </c>
-      <c r="J200" s="7" t="s">
+      <c r="I200" s="6">
+        <v>1</v>
+      </c>
+      <c r="J200" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="201" spans="3:10">
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <v>4006</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E201" s="6">
         <v>4</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="6">
         <v>700</v>
       </c>
-      <c r="G201" s="7">
+      <c r="G201" s="6">
         <v>3</v>
       </c>
-      <c r="H201" s="7">
+      <c r="H201" s="6">
         <v>0</v>
       </c>
-      <c r="I201" s="7">
-        <v>1</v>
-      </c>
-      <c r="J201" s="7" t="s">
+      <c r="I201" s="6">
+        <v>1</v>
+      </c>
+      <c r="J201" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="202" spans="3:10">
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <v>4007</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E202" s="6">
         <v>4</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="6">
         <v>900</v>
       </c>
-      <c r="G202" s="7">
+      <c r="G202" s="6">
         <v>3</v>
       </c>
-      <c r="H202" s="7">
+      <c r="H202" s="6">
         <v>0</v>
       </c>
-      <c r="I202" s="7">
-        <v>1</v>
-      </c>
-      <c r="J202" s="7" t="s">
+      <c r="I202" s="6">
+        <v>1</v>
+      </c>
+      <c r="J202" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="203" spans="3:10">
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <v>4008</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E203" s="6">
         <v>4</v>
       </c>
-      <c r="F203" s="7">
+      <c r="F203" s="6">
         <v>1100</v>
       </c>
-      <c r="G203" s="7">
+      <c r="G203" s="6">
         <v>3</v>
       </c>
-      <c r="H203" s="7">
+      <c r="H203" s="6">
         <v>0</v>
       </c>
-      <c r="I203" s="7">
-        <v>1</v>
-      </c>
-      <c r="J203" s="7" t="s">
+      <c r="I203" s="6">
+        <v>1</v>
+      </c>
+      <c r="J203" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="204" spans="3:10">
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <v>4009</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E204" s="6">
         <v>4</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="6">
         <v>1300</v>
       </c>
-      <c r="G204" s="7">
+      <c r="G204" s="6">
         <v>3</v>
       </c>
-      <c r="H204" s="7">
+      <c r="H204" s="6">
         <v>0</v>
       </c>
-      <c r="I204" s="7">
-        <v>1</v>
-      </c>
-      <c r="J204" s="7" t="s">
+      <c r="I204" s="6">
+        <v>1</v>
+      </c>
+      <c r="J204" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="205" spans="3:10">
-      <c r="C205" s="7">
+      <c r="C205" s="6">
         <v>4010</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E205" s="6">
         <v>4</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="6">
         <v>1500</v>
       </c>
-      <c r="G205" s="7">
+      <c r="G205" s="6">
         <v>3</v>
       </c>
-      <c r="H205" s="7">
+      <c r="H205" s="6">
         <v>0</v>
       </c>
-      <c r="I205" s="7">
-        <v>1</v>
-      </c>
-      <c r="J205" s="7" t="s">
+      <c r="I205" s="6">
+        <v>1</v>
+      </c>
+      <c r="J205" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="206" spans="3:10">
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <v>4011</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E206" s="6">
         <v>4</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="6">
         <v>1750</v>
       </c>
-      <c r="G206" s="7">
+      <c r="G206" s="6">
         <v>3</v>
       </c>
-      <c r="H206" s="7">
+      <c r="H206" s="6">
         <v>0</v>
       </c>
-      <c r="I206" s="7">
-        <v>1</v>
-      </c>
-      <c r="J206" s="7" t="s">
+      <c r="I206" s="6">
+        <v>1</v>
+      </c>
+      <c r="J206" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="207" spans="3:10">
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <v>4012</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D207" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E207" s="6">
         <v>4</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="6">
         <v>2000</v>
       </c>
-      <c r="G207" s="7">
+      <c r="G207" s="6">
         <v>3</v>
       </c>
-      <c r="H207" s="7">
+      <c r="H207" s="6">
         <v>0</v>
       </c>
-      <c r="I207" s="7">
-        <v>1</v>
-      </c>
-      <c r="J207" s="7" t="s">
+      <c r="I207" s="6">
+        <v>1</v>
+      </c>
+      <c r="J207" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="210" spans="3:10">
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <v>5001</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E210" s="7">
-        <v>5</v>
-      </c>
-      <c r="F210" s="7">
+      <c r="E210" s="6">
+        <v>5</v>
+      </c>
+      <c r="F210" s="6">
         <f t="shared" ref="F210:F234" si="4">(C210-5000)*1000</f>
         <v>1000</v>
       </c>
-      <c r="G210" s="7">
-        <v>1</v>
-      </c>
-      <c r="H210" s="7">
+      <c r="G210" s="6">
+        <v>1</v>
+      </c>
+      <c r="H210" s="6">
         <v>18</v>
       </c>
-      <c r="I210" s="7">
-        <v>5</v>
-      </c>
-      <c r="J210" s="7" t="s">
+      <c r="I210" s="6">
+        <v>5</v>
+      </c>
+      <c r="J210" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="211" spans="3:10">
-      <c r="C211" s="7">
+      <c r="C211" s="6">
         <v>5002</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E211" s="7">
-        <v>5</v>
-      </c>
-      <c r="F211" s="7">
+      <c r="E211" s="6">
+        <v>5</v>
+      </c>
+      <c r="F211" s="6">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G211" s="7">
-        <v>1</v>
-      </c>
-      <c r="H211" s="7">
+      <c r="G211" s="6">
+        <v>1</v>
+      </c>
+      <c r="H211" s="6">
         <v>18</v>
       </c>
-      <c r="I211" s="7">
-        <v>5</v>
-      </c>
-      <c r="J211" s="7" t="s">
+      <c r="I211" s="6">
+        <v>5</v>
+      </c>
+      <c r="J211" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="212" spans="3:10">
-      <c r="C212" s="7">
+      <c r="C212" s="6">
         <v>5003</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E212" s="7">
-        <v>5</v>
-      </c>
-      <c r="F212" s="7">
+      <c r="E212" s="6">
+        <v>5</v>
+      </c>
+      <c r="F212" s="6">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="G212" s="7">
-        <v>1</v>
-      </c>
-      <c r="H212" s="7">
+      <c r="G212" s="6">
+        <v>1</v>
+      </c>
+      <c r="H212" s="6">
         <v>18</v>
       </c>
-      <c r="I212" s="7">
-        <v>5</v>
-      </c>
-      <c r="J212" s="7" t="s">
+      <c r="I212" s="6">
+        <v>5</v>
+      </c>
+      <c r="J212" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="213" spans="3:10">
-      <c r="C213" s="7">
+      <c r="C213" s="6">
         <v>5004</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E213" s="7">
-        <v>5</v>
-      </c>
-      <c r="F213" s="7">
+      <c r="E213" s="6">
+        <v>5</v>
+      </c>
+      <c r="F213" s="6">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="G213" s="7">
-        <v>1</v>
-      </c>
-      <c r="H213" s="7">
+      <c r="G213" s="6">
+        <v>1</v>
+      </c>
+      <c r="H213" s="6">
         <v>18</v>
       </c>
-      <c r="I213" s="7">
-        <v>5</v>
-      </c>
-      <c r="J213" s="7" t="s">
+      <c r="I213" s="6">
+        <v>5</v>
+      </c>
+      <c r="J213" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="214" spans="3:10">
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <v>5005</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E214" s="7">
-        <v>5</v>
-      </c>
-      <c r="F214" s="7">
+      <c r="E214" s="6">
+        <v>5</v>
+      </c>
+      <c r="F214" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G214" s="7">
-        <v>1</v>
-      </c>
-      <c r="H214" s="7">
+      <c r="G214" s="6">
+        <v>1</v>
+      </c>
+      <c r="H214" s="6">
         <v>18</v>
       </c>
-      <c r="I214" s="7">
-        <v>5</v>
-      </c>
-      <c r="J214" s="7" t="s">
+      <c r="I214" s="6">
+        <v>5</v>
+      </c>
+      <c r="J214" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="215" spans="3:10">
-      <c r="C215" s="7">
+      <c r="C215" s="6">
         <v>5006</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E215" s="7">
-        <v>5</v>
-      </c>
-      <c r="F215" s="7">
+      <c r="E215" s="6">
+        <v>5</v>
+      </c>
+      <c r="F215" s="6">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="G215" s="7">
-        <v>1</v>
-      </c>
-      <c r="H215" s="7">
+      <c r="G215" s="6">
+        <v>1</v>
+      </c>
+      <c r="H215" s="6">
         <v>18</v>
       </c>
-      <c r="I215" s="7">
-        <v>5</v>
-      </c>
-      <c r="J215" s="7" t="s">
+      <c r="I215" s="6">
+        <v>5</v>
+      </c>
+      <c r="J215" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="216" spans="3:10">
-      <c r="C216" s="7">
+      <c r="C216" s="6">
         <v>5007</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E216" s="7">
-        <v>5</v>
-      </c>
-      <c r="F216" s="7">
+      <c r="E216" s="6">
+        <v>5</v>
+      </c>
+      <c r="F216" s="6">
         <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="G216" s="7">
-        <v>1</v>
-      </c>
-      <c r="H216" s="7">
+      <c r="G216" s="6">
+        <v>1</v>
+      </c>
+      <c r="H216" s="6">
         <v>18</v>
       </c>
-      <c r="I216" s="7">
-        <v>5</v>
-      </c>
-      <c r="J216" s="7" t="s">
+      <c r="I216" s="6">
+        <v>5</v>
+      </c>
+      <c r="J216" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="217" spans="3:10">
-      <c r="C217" s="7">
+      <c r="C217" s="6">
         <v>5008</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E217" s="7">
-        <v>5</v>
-      </c>
-      <c r="F217" s="7">
+      <c r="E217" s="6">
+        <v>5</v>
+      </c>
+      <c r="F217" s="6">
         <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="G217" s="7">
-        <v>1</v>
-      </c>
-      <c r="H217" s="7">
+      <c r="G217" s="6">
+        <v>1</v>
+      </c>
+      <c r="H217" s="6">
         <v>18</v>
       </c>
-      <c r="I217" s="7">
-        <v>5</v>
-      </c>
-      <c r="J217" s="7" t="s">
+      <c r="I217" s="6">
+        <v>5</v>
+      </c>
+      <c r="J217" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="218" spans="3:10">
-      <c r="C218" s="7">
+      <c r="C218" s="6">
         <v>5009</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E218" s="7">
-        <v>5</v>
-      </c>
-      <c r="F218" s="7">
+      <c r="E218" s="6">
+        <v>5</v>
+      </c>
+      <c r="F218" s="6">
         <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="G218" s="7">
-        <v>1</v>
-      </c>
-      <c r="H218" s="7">
+      <c r="G218" s="6">
+        <v>1</v>
+      </c>
+      <c r="H218" s="6">
         <v>18</v>
       </c>
-      <c r="I218" s="7">
-        <v>5</v>
-      </c>
-      <c r="J218" s="7" t="s">
+      <c r="I218" s="6">
+        <v>5</v>
+      </c>
+      <c r="J218" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="219" spans="3:10">
-      <c r="C219" s="7">
+      <c r="C219" s="6">
         <v>5010</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E219" s="7">
-        <v>5</v>
-      </c>
-      <c r="F219" s="7">
+      <c r="E219" s="6">
+        <v>5</v>
+      </c>
+      <c r="F219" s="6">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="G219" s="7">
-        <v>1</v>
-      </c>
-      <c r="H219" s="7">
+      <c r="G219" s="6">
+        <v>1</v>
+      </c>
+      <c r="H219" s="6">
         <v>18</v>
       </c>
-      <c r="I219" s="7">
-        <v>5</v>
-      </c>
-      <c r="J219" s="7" t="s">
+      <c r="I219" s="6">
+        <v>5</v>
+      </c>
+      <c r="J219" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="220" spans="3:10">
-      <c r="C220" s="7">
+      <c r="C220" s="6">
         <v>5011</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E220" s="7">
-        <v>5</v>
-      </c>
-      <c r="F220" s="7">
+      <c r="E220" s="6">
+        <v>5</v>
+      </c>
+      <c r="F220" s="6">
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-      <c r="G220" s="7">
-        <v>1</v>
-      </c>
-      <c r="H220" s="7">
+      <c r="G220" s="6">
+        <v>1</v>
+      </c>
+      <c r="H220" s="6">
         <v>18</v>
       </c>
-      <c r="I220" s="7">
-        <v>5</v>
-      </c>
-      <c r="J220" s="7" t="s">
+      <c r="I220" s="6">
+        <v>5</v>
+      </c>
+      <c r="J220" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="221" spans="3:10">
-      <c r="C221" s="7">
+      <c r="C221" s="6">
         <v>5012</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E221" s="7">
-        <v>5</v>
-      </c>
-      <c r="F221" s="7">
+      <c r="E221" s="6">
+        <v>5</v>
+      </c>
+      <c r="F221" s="6">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="G221" s="7">
-        <v>1</v>
-      </c>
-      <c r="H221" s="7">
+      <c r="G221" s="6">
+        <v>1</v>
+      </c>
+      <c r="H221" s="6">
         <v>18</v>
       </c>
-      <c r="I221" s="7">
-        <v>5</v>
-      </c>
-      <c r="J221" s="7" t="s">
+      <c r="I221" s="6">
+        <v>5</v>
+      </c>
+      <c r="J221" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="222" spans="3:10">
-      <c r="C222" s="7">
+      <c r="C222" s="6">
         <v>5013</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E222" s="7">
-        <v>5</v>
-      </c>
-      <c r="F222" s="7">
+      <c r="E222" s="6">
+        <v>5</v>
+      </c>
+      <c r="F222" s="6">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="G222" s="7">
-        <v>1</v>
-      </c>
-      <c r="H222" s="7">
+      <c r="G222" s="6">
+        <v>1</v>
+      </c>
+      <c r="H222" s="6">
         <v>18</v>
       </c>
-      <c r="I222" s="7">
-        <v>5</v>
-      </c>
-      <c r="J222" s="7" t="s">
+      <c r="I222" s="6">
+        <v>5</v>
+      </c>
+      <c r="J222" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="223" spans="3:10">
-      <c r="C223" s="7">
+      <c r="C223" s="6">
         <v>5014</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E223" s="7">
-        <v>5</v>
-      </c>
-      <c r="F223" s="7">
+      <c r="E223" s="6">
+        <v>5</v>
+      </c>
+      <c r="F223" s="6">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="G223" s="7">
-        <v>1</v>
-      </c>
-      <c r="H223" s="7">
+      <c r="G223" s="6">
+        <v>1</v>
+      </c>
+      <c r="H223" s="6">
         <v>18</v>
       </c>
-      <c r="I223" s="7">
-        <v>5</v>
-      </c>
-      <c r="J223" s="7" t="s">
+      <c r="I223" s="6">
+        <v>5</v>
+      </c>
+      <c r="J223" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="224" spans="3:10">
-      <c r="C224" s="7">
+      <c r="C224" s="6">
         <v>5015</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E224" s="7">
-        <v>5</v>
-      </c>
-      <c r="F224" s="7">
+      <c r="E224" s="6">
+        <v>5</v>
+      </c>
+      <c r="F224" s="6">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G224" s="7">
-        <v>1</v>
-      </c>
-      <c r="H224" s="7">
+      <c r="G224" s="6">
+        <v>1</v>
+      </c>
+      <c r="H224" s="6">
         <v>18</v>
       </c>
-      <c r="I224" s="7">
-        <v>5</v>
-      </c>
-      <c r="J224" s="7" t="s">
+      <c r="I224" s="6">
+        <v>5</v>
+      </c>
+      <c r="J224" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="225" spans="3:10">
-      <c r="C225" s="7">
+      <c r="C225" s="6">
         <v>5016</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E225" s="7">
-        <v>5</v>
-      </c>
-      <c r="F225" s="7">
+      <c r="E225" s="6">
+        <v>5</v>
+      </c>
+      <c r="F225" s="6">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="G225" s="7">
-        <v>1</v>
-      </c>
-      <c r="H225" s="7">
+      <c r="G225" s="6">
+        <v>1</v>
+      </c>
+      <c r="H225" s="6">
         <v>18</v>
       </c>
-      <c r="I225" s="7">
-        <v>5</v>
-      </c>
-      <c r="J225" s="7" t="s">
+      <c r="I225" s="6">
+        <v>5</v>
+      </c>
+      <c r="J225" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="226" spans="3:10">
-      <c r="C226" s="7">
+      <c r="C226" s="6">
         <v>5017</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E226" s="7">
-        <v>5</v>
-      </c>
-      <c r="F226" s="7">
+      <c r="E226" s="6">
+        <v>5</v>
+      </c>
+      <c r="F226" s="6">
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="G226" s="7">
-        <v>1</v>
-      </c>
-      <c r="H226" s="7">
+      <c r="G226" s="6">
+        <v>1</v>
+      </c>
+      <c r="H226" s="6">
         <v>18</v>
       </c>
-      <c r="I226" s="7">
-        <v>5</v>
-      </c>
-      <c r="J226" s="7" t="s">
+      <c r="I226" s="6">
+        <v>5</v>
+      </c>
+      <c r="J226" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="227" spans="3:10">
-      <c r="C227" s="7">
+      <c r="C227" s="6">
         <v>5018</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E227" s="7">
-        <v>5</v>
-      </c>
-      <c r="F227" s="7">
+      <c r="E227" s="6">
+        <v>5</v>
+      </c>
+      <c r="F227" s="6">
         <f t="shared" si="4"/>
         <v>18000</v>
       </c>
-      <c r="G227" s="7">
-        <v>1</v>
-      </c>
-      <c r="H227" s="7">
+      <c r="G227" s="6">
+        <v>1</v>
+      </c>
+      <c r="H227" s="6">
         <v>18</v>
       </c>
-      <c r="I227" s="7">
-        <v>5</v>
-      </c>
-      <c r="J227" s="7" t="s">
+      <c r="I227" s="6">
+        <v>5</v>
+      </c>
+      <c r="J227" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="228" spans="3:10">
-      <c r="C228" s="7">
+      <c r="C228" s="6">
         <v>5019</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E228" s="7">
-        <v>5</v>
-      </c>
-      <c r="F228" s="7">
+      <c r="E228" s="6">
+        <v>5</v>
+      </c>
+      <c r="F228" s="6">
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="G228" s="7">
-        <v>1</v>
-      </c>
-      <c r="H228" s="7">
+      <c r="G228" s="6">
+        <v>1</v>
+      </c>
+      <c r="H228" s="6">
         <v>18</v>
       </c>
-      <c r="I228" s="7">
-        <v>5</v>
-      </c>
-      <c r="J228" s="7" t="s">
+      <c r="I228" s="6">
+        <v>5</v>
+      </c>
+      <c r="J228" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="229" spans="3:10">
-      <c r="C229" s="7">
+      <c r="C229" s="6">
         <v>5020</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E229" s="7">
-        <v>5</v>
-      </c>
-      <c r="F229" s="7">
+      <c r="E229" s="6">
+        <v>5</v>
+      </c>
+      <c r="F229" s="6">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="G229" s="7">
-        <v>1</v>
-      </c>
-      <c r="H229" s="7">
+      <c r="G229" s="6">
+        <v>1</v>
+      </c>
+      <c r="H229" s="6">
         <v>18</v>
       </c>
-      <c r="I229" s="7">
-        <v>5</v>
-      </c>
-      <c r="J229" s="7" t="s">
+      <c r="I229" s="6">
+        <v>5</v>
+      </c>
+      <c r="J229" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="230" spans="3:10">
-      <c r="C230" s="7">
+      <c r="C230" s="6">
         <v>5021</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E230" s="7">
-        <v>5</v>
-      </c>
-      <c r="F230" s="7">
+      <c r="E230" s="6">
+        <v>5</v>
+      </c>
+      <c r="F230" s="6">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
-      <c r="G230" s="7">
-        <v>1</v>
-      </c>
-      <c r="H230" s="7">
+      <c r="G230" s="6">
+        <v>1</v>
+      </c>
+      <c r="H230" s="6">
         <v>18</v>
       </c>
-      <c r="I230" s="7">
-        <v>5</v>
-      </c>
-      <c r="J230" s="7" t="s">
+      <c r="I230" s="6">
+        <v>5</v>
+      </c>
+      <c r="J230" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="3:10">
-      <c r="C231" s="7">
+      <c r="C231" s="6">
         <v>5022</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E231" s="7">
-        <v>5</v>
-      </c>
-      <c r="F231" s="7">
+      <c r="E231" s="6">
+        <v>5</v>
+      </c>
+      <c r="F231" s="6">
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
-      <c r="G231" s="7">
-        <v>1</v>
-      </c>
-      <c r="H231" s="7">
+      <c r="G231" s="6">
+        <v>1</v>
+      </c>
+      <c r="H231" s="6">
         <v>18</v>
       </c>
-      <c r="I231" s="7">
-        <v>5</v>
-      </c>
-      <c r="J231" s="7" t="s">
+      <c r="I231" s="6">
+        <v>5</v>
+      </c>
+      <c r="J231" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="3:10">
-      <c r="C232" s="7">
+      <c r="C232" s="6">
         <v>5023</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E232" s="7">
-        <v>5</v>
-      </c>
-      <c r="F232" s="7">
+      <c r="E232" s="6">
+        <v>5</v>
+      </c>
+      <c r="F232" s="6">
         <f t="shared" si="4"/>
         <v>23000</v>
       </c>
-      <c r="G232" s="7">
-        <v>1</v>
-      </c>
-      <c r="H232" s="7">
+      <c r="G232" s="6">
+        <v>1</v>
+      </c>
+      <c r="H232" s="6">
         <v>18</v>
       </c>
-      <c r="I232" s="7">
-        <v>5</v>
-      </c>
-      <c r="J232" s="7" t="s">
+      <c r="I232" s="6">
+        <v>5</v>
+      </c>
+      <c r="J232" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="233" spans="3:10">
-      <c r="C233" s="7">
+      <c r="C233" s="6">
         <v>5024</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E233" s="7">
-        <v>5</v>
-      </c>
-      <c r="F233" s="7">
+      <c r="E233" s="6">
+        <v>5</v>
+      </c>
+      <c r="F233" s="6">
         <f t="shared" si="4"/>
         <v>24000</v>
       </c>
-      <c r="G233" s="7">
-        <v>1</v>
-      </c>
-      <c r="H233" s="7">
+      <c r="G233" s="6">
+        <v>1</v>
+      </c>
+      <c r="H233" s="6">
         <v>18</v>
       </c>
-      <c r="I233" s="7">
-        <v>5</v>
-      </c>
-      <c r="J233" s="7" t="s">
+      <c r="I233" s="6">
+        <v>5</v>
+      </c>
+      <c r="J233" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="234" spans="3:10">
-      <c r="C234" s="7">
+      <c r="C234" s="6">
         <v>5025</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E234" s="7">
-        <v>5</v>
-      </c>
-      <c r="F234" s="7">
+      <c r="E234" s="6">
+        <v>5</v>
+      </c>
+      <c r="F234" s="6">
         <f t="shared" si="4"/>
         <v>25000</v>
       </c>
-      <c r="G234" s="7">
-        <v>1</v>
-      </c>
-      <c r="H234" s="7">
+      <c r="G234" s="6">
+        <v>1</v>
+      </c>
+      <c r="H234" s="6">
         <v>18</v>
       </c>
-      <c r="I234" s="7">
-        <v>5</v>
-      </c>
-      <c r="J234" s="7" t="s">
+      <c r="I234" s="6">
+        <v>5</v>
+      </c>
+      <c r="J234" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="236" spans="3:10">
-      <c r="C236" s="7">
+      <c r="C236" s="6">
         <v>6001</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="D236" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="6">
         <v>6</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F236" s="6">
         <v>100</v>
       </c>
-      <c r="G236" s="7">
+      <c r="G236" s="6">
         <v>4</v>
       </c>
-      <c r="H236" s="7">
+      <c r="H236" s="6">
         <v>0</v>
       </c>
-      <c r="I236" s="7">
-        <v>1</v>
-      </c>
-      <c r="J236" s="7" t="s">
+      <c r="I236" s="6">
+        <v>1</v>
+      </c>
+      <c r="J236" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="237" spans="3:10">
-      <c r="C237" s="7">
+      <c r="C237" s="6">
         <v>6002</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D237" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="6">
         <v>6</v>
       </c>
-      <c r="F237" s="7">
+      <c r="F237" s="6">
         <v>200</v>
       </c>
-      <c r="G237" s="7">
+      <c r="G237" s="6">
         <v>4</v>
       </c>
-      <c r="H237" s="7">
+      <c r="H237" s="6">
         <v>0</v>
       </c>
-      <c r="I237" s="7">
-        <v>1</v>
-      </c>
-      <c r="J237" s="7" t="s">
+      <c r="I237" s="6">
+        <v>1</v>
+      </c>
+      <c r="J237" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="238" spans="3:10">
-      <c r="C238" s="7">
+      <c r="C238" s="6">
         <v>6003</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="6">
         <v>6</v>
       </c>
-      <c r="F238" s="7">
+      <c r="F238" s="6">
         <v>300</v>
       </c>
-      <c r="G238" s="7">
+      <c r="G238" s="6">
         <v>4</v>
       </c>
-      <c r="H238" s="7">
+      <c r="H238" s="6">
         <v>0</v>
       </c>
-      <c r="I238" s="7">
-        <v>1</v>
-      </c>
-      <c r="J238" s="7" t="s">
+      <c r="I238" s="6">
+        <v>1</v>
+      </c>
+      <c r="J238" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="239" spans="3:10">
-      <c r="C239" s="7">
+      <c r="C239" s="6">
         <v>6004</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="6">
         <v>6</v>
       </c>
-      <c r="F239" s="7">
+      <c r="F239" s="6">
         <v>400</v>
       </c>
-      <c r="G239" s="7">
+      <c r="G239" s="6">
         <v>4</v>
       </c>
-      <c r="H239" s="7">
+      <c r="H239" s="6">
         <v>0</v>
       </c>
-      <c r="I239" s="7">
-        <v>1</v>
-      </c>
-      <c r="J239" s="7" t="s">
+      <c r="I239" s="6">
+        <v>1</v>
+      </c>
+      <c r="J239" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="240" spans="3:10">
-      <c r="C240" s="7">
+      <c r="C240" s="6">
         <v>6005</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="6">
         <v>6</v>
       </c>
-      <c r="F240" s="7">
+      <c r="F240" s="6">
         <v>500</v>
       </c>
-      <c r="G240" s="7">
+      <c r="G240" s="6">
         <v>4</v>
       </c>
-      <c r="H240" s="7">
+      <c r="H240" s="6">
         <v>0</v>
       </c>
-      <c r="I240" s="7">
-        <v>1</v>
-      </c>
-      <c r="J240" s="7" t="s">
+      <c r="I240" s="6">
+        <v>1</v>
+      </c>
+      <c r="J240" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="241" spans="3:10">
-      <c r="C241" s="7">
+      <c r="C241" s="6">
         <v>6006</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="6">
         <v>6</v>
       </c>
-      <c r="F241" s="7">
+      <c r="F241" s="6">
         <v>600</v>
       </c>
-      <c r="G241" s="7">
+      <c r="G241" s="6">
         <v>4</v>
       </c>
-      <c r="H241" s="7">
+      <c r="H241" s="6">
         <v>0</v>
       </c>
-      <c r="I241" s="7">
-        <v>1</v>
-      </c>
-      <c r="J241" s="7" t="s">
+      <c r="I241" s="6">
+        <v>1</v>
+      </c>
+      <c r="J241" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="242" spans="3:10">
-      <c r="C242" s="7">
+      <c r="C242" s="6">
         <v>6007</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="6">
         <v>6</v>
       </c>
-      <c r="F242" s="7">
+      <c r="F242" s="6">
         <v>700</v>
       </c>
-      <c r="G242" s="7">
+      <c r="G242" s="6">
         <v>4</v>
       </c>
-      <c r="H242" s="7">
+      <c r="H242" s="6">
         <v>0</v>
       </c>
-      <c r="I242" s="7">
-        <v>1</v>
-      </c>
-      <c r="J242" s="7" t="s">
+      <c r="I242" s="6">
+        <v>1</v>
+      </c>
+      <c r="J242" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="243" spans="3:10">
-      <c r="C243" s="7">
+      <c r="C243" s="6">
         <v>6008</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D243" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="6">
         <v>6</v>
       </c>
-      <c r="F243" s="7">
+      <c r="F243" s="6">
         <v>800</v>
       </c>
-      <c r="G243" s="7">
+      <c r="G243" s="6">
         <v>4</v>
       </c>
-      <c r="H243" s="7">
+      <c r="H243" s="6">
         <v>0</v>
       </c>
-      <c r="I243" s="7">
-        <v>1</v>
-      </c>
-      <c r="J243" s="7" t="s">
+      <c r="I243" s="6">
+        <v>1</v>
+      </c>
+      <c r="J243" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="244" spans="3:10">
-      <c r="C244" s="7">
+      <c r="C244" s="6">
         <v>6009</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D244" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="6">
         <v>6</v>
       </c>
-      <c r="F244" s="7">
+      <c r="F244" s="6">
         <v>900</v>
       </c>
-      <c r="G244" s="7">
+      <c r="G244" s="6">
         <v>4</v>
       </c>
-      <c r="H244" s="7">
+      <c r="H244" s="6">
         <v>0</v>
       </c>
-      <c r="I244" s="7">
-        <v>1</v>
-      </c>
-      <c r="J244" s="7" t="s">
+      <c r="I244" s="6">
+        <v>1</v>
+      </c>
+      <c r="J244" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="245" spans="3:10">
-      <c r="C245" s="7">
+      <c r="C245" s="6">
         <v>6010</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="6">
         <v>6</v>
       </c>
-      <c r="F245" s="7">
+      <c r="F245" s="6">
         <v>1000</v>
       </c>
-      <c r="G245" s="7">
+      <c r="G245" s="6">
         <v>4</v>
       </c>
-      <c r="H245" s="7">
+      <c r="H245" s="6">
         <v>0</v>
       </c>
-      <c r="I245" s="7">
-        <v>1</v>
-      </c>
-      <c r="J245" s="7" t="s">
+      <c r="I245" s="6">
+        <v>1</v>
+      </c>
+      <c r="J245" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="246" spans="3:10">
-      <c r="C246" s="7">
+      <c r="C246" s="6">
         <v>6011</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D246" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E246" s="6">
         <v>6</v>
       </c>
-      <c r="F246" s="7">
+      <c r="F246" s="6">
         <v>1100</v>
       </c>
-      <c r="G246" s="7">
+      <c r="G246" s="6">
         <v>4</v>
       </c>
-      <c r="H246" s="7">
+      <c r="H246" s="6">
         <v>0</v>
       </c>
-      <c r="I246" s="7">
-        <v>1</v>
-      </c>
-      <c r="J246" s="7" t="s">
+      <c r="I246" s="6">
+        <v>1</v>
+      </c>
+      <c r="J246" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="247" spans="3:10">
-      <c r="C247" s="7">
+      <c r="C247" s="6">
         <v>6012</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="D247" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E247" s="7">
+      <c r="E247" s="6">
         <v>6</v>
       </c>
-      <c r="F247" s="7">
+      <c r="F247" s="6">
         <v>1200</v>
       </c>
-      <c r="G247" s="7">
+      <c r="G247" s="6">
         <v>4</v>
       </c>
-      <c r="H247" s="7">
+      <c r="H247" s="6">
         <v>0</v>
       </c>
-      <c r="I247" s="7">
-        <v>1</v>
-      </c>
-      <c r="J247" s="7" t="s">
+      <c r="I247" s="6">
+        <v>1</v>
+      </c>
+      <c r="J247" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="248" spans="3:10">
-      <c r="C248" s="7">
+      <c r="C248" s="6">
         <v>6013</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="D248" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E248" s="7">
+      <c r="E248" s="6">
         <v>6</v>
       </c>
-      <c r="F248" s="7">
+      <c r="F248" s="6">
         <v>1300</v>
       </c>
-      <c r="G248" s="7">
+      <c r="G248" s="6">
         <v>4</v>
       </c>
-      <c r="H248" s="7">
+      <c r="H248" s="6">
         <v>0</v>
       </c>
-      <c r="I248" s="7">
-        <v>1</v>
-      </c>
-      <c r="J248" s="7" t="s">
+      <c r="I248" s="6">
+        <v>1</v>
+      </c>
+      <c r="J248" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="249" spans="3:10">
-      <c r="C249" s="7">
+      <c r="C249" s="6">
         <v>6014</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D249" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E249" s="6">
         <v>6</v>
       </c>
-      <c r="F249" s="7">
+      <c r="F249" s="6">
         <v>1400</v>
       </c>
-      <c r="G249" s="7">
+      <c r="G249" s="6">
         <v>4</v>
       </c>
-      <c r="H249" s="7">
+      <c r="H249" s="6">
         <v>0</v>
       </c>
-      <c r="I249" s="7">
-        <v>1</v>
-      </c>
-      <c r="J249" s="7" t="s">
+      <c r="I249" s="6">
+        <v>1</v>
+      </c>
+      <c r="J249" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="250" spans="3:10">
-      <c r="C250" s="7">
+      <c r="C250" s="6">
         <v>6015</v>
       </c>
-      <c r="D250" s="7" t="s">
+      <c r="D250" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E250" s="6">
         <v>6</v>
       </c>
-      <c r="F250" s="7">
+      <c r="F250" s="6">
         <v>1500</v>
       </c>
-      <c r="G250" s="7">
+      <c r="G250" s="6">
         <v>4</v>
       </c>
-      <c r="H250" s="7">
+      <c r="H250" s="6">
         <v>0</v>
       </c>
-      <c r="I250" s="7">
-        <v>1</v>
-      </c>
-      <c r="J250" s="7" t="s">
+      <c r="I250" s="6">
+        <v>1</v>
+      </c>
+      <c r="J250" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="251" spans="3:10">
-      <c r="C251" s="7">
+      <c r="C251" s="6">
         <v>6016</v>
       </c>
-      <c r="D251" s="7" t="s">
+      <c r="D251" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="6">
         <v>6</v>
       </c>
-      <c r="F251" s="7">
+      <c r="F251" s="6">
         <v>1600</v>
       </c>
-      <c r="G251" s="7">
+      <c r="G251" s="6">
         <v>4</v>
       </c>
-      <c r="H251" s="7">
+      <c r="H251" s="6">
         <v>0</v>
       </c>
-      <c r="I251" s="7">
-        <v>1</v>
-      </c>
-      <c r="J251" s="7" t="s">
+      <c r="I251" s="6">
+        <v>1</v>
+      </c>
+      <c r="J251" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="252" spans="3:10">
-      <c r="C252" s="7">
+      <c r="C252" s="6">
         <v>6017</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E252" s="6">
         <v>6</v>
       </c>
-      <c r="F252" s="7">
+      <c r="F252" s="6">
         <v>1700</v>
       </c>
-      <c r="G252" s="7">
+      <c r="G252" s="6">
         <v>4</v>
       </c>
-      <c r="H252" s="7">
+      <c r="H252" s="6">
         <v>0</v>
       </c>
-      <c r="I252" s="7">
-        <v>1</v>
-      </c>
-      <c r="J252" s="7" t="s">
+      <c r="I252" s="6">
+        <v>1</v>
+      </c>
+      <c r="J252" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="253" spans="3:10">
-      <c r="C253" s="7">
+      <c r="C253" s="6">
         <v>6018</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="6">
         <v>6</v>
       </c>
-      <c r="F253" s="7">
+      <c r="F253" s="6">
         <v>1800</v>
       </c>
-      <c r="G253" s="7">
+      <c r="G253" s="6">
         <v>4</v>
       </c>
-      <c r="H253" s="7">
+      <c r="H253" s="6">
         <v>0</v>
       </c>
-      <c r="I253" s="7">
-        <v>1</v>
-      </c>
-      <c r="J253" s="7" t="s">
+      <c r="I253" s="6">
+        <v>1</v>
+      </c>
+      <c r="J253" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="254" spans="3:10">
-      <c r="C254" s="7">
+      <c r="C254" s="6">
         <v>6019</v>
       </c>
-      <c r="D254" s="7" t="s">
+      <c r="D254" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E254" s="7">
+      <c r="E254" s="6">
         <v>6</v>
       </c>
-      <c r="F254" s="7">
+      <c r="F254" s="6">
         <v>1900</v>
       </c>
-      <c r="G254" s="7">
+      <c r="G254" s="6">
         <v>4</v>
       </c>
-      <c r="H254" s="7">
+      <c r="H254" s="6">
         <v>0</v>
       </c>
-      <c r="I254" s="7">
-        <v>1</v>
-      </c>
-      <c r="J254" s="7" t="s">
+      <c r="I254" s="6">
+        <v>1</v>
+      </c>
+      <c r="J254" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="255" spans="3:10">
-      <c r="C255" s="7">
+      <c r="C255" s="6">
         <v>6020</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D255" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E255" s="6">
         <v>6</v>
       </c>
-      <c r="F255" s="7">
+      <c r="F255" s="6">
         <v>2000</v>
       </c>
-      <c r="G255" s="7">
+      <c r="G255" s="6">
         <v>4</v>
       </c>
-      <c r="H255" s="7">
+      <c r="H255" s="6">
         <v>0</v>
       </c>
-      <c r="I255" s="7">
-        <v>1</v>
-      </c>
-      <c r="J255" s="7" t="s">
+      <c r="I255" s="6">
+        <v>1</v>
+      </c>
+      <c r="J255" s="6" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="3:11">
+      <c r="C257" s="6">
+        <v>8001</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E257" s="6">
+        <v>8</v>
+      </c>
+      <c r="F257" s="6">
+        <v>100</v>
+      </c>
+      <c r="G257" s="3">
+        <v>2</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="3">
+        <v>1</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="289">
   <si>
     <t>#</t>
   </si>
@@ -905,10 +905,46 @@
     <t>BOSS之家20</t>
   </si>
   <si>
-    <t>守卫1</t>
+    <t>小试牛刀</t>
   </si>
   <si>
     <t>守卫龙城通过{0}层数</t>
+  </si>
+  <si>
+    <t>金币加成100%</t>
+  </si>
+  <si>
+    <t>初露锋芒</t>
+  </si>
+  <si>
+    <t>装备爆率加成100%</t>
+  </si>
+  <si>
+    <t>武林新秀</t>
+  </si>
+  <si>
+    <t>暴击率+10%</t>
+  </si>
+  <si>
+    <t>声名鹊起</t>
+  </si>
+  <si>
+    <t>爆伤增加50%</t>
+  </si>
+  <si>
+    <t>过关斩将</t>
+  </si>
+  <si>
+    <t>无视防御30%</t>
+  </si>
+  <si>
+    <t>独孤求败</t>
+  </si>
+  <si>
+    <t>幸运+10</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
   </si>
 </sst>
 </file>
@@ -931,20 +967,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1092,12 +1128,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1569,7 +1605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1579,6 +1615,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1899,13 +1945,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K257"/>
+  <dimension ref="C2:K263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="12.25" style="6" customWidth="1"/>
@@ -1918,12 +1964,12 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:11">
+    <row r="2" customHeight="1" spans="11:11">
       <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" customHeight="1" spans="3:11">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1996,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" customHeight="1" spans="3:11">
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +2023,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" customHeight="1" spans="3:11">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2050,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" customHeight="1" spans="3:11">
       <c r="C6" s="6">
         <v>1001</v>
       </c>
@@ -2034,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -2064,7 +2110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" customHeight="1" spans="3:11">
       <c r="C8" s="6">
         <v>1003</v>
       </c>
@@ -2094,7 +2140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" customHeight="1" spans="3:11">
       <c r="C9" s="6">
         <v>1004</v>
       </c>
@@ -2124,7 +2170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:11">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -2154,7 +2200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:11">
+    <row r="11" customHeight="1" spans="3:11">
       <c r="C11" s="6">
         <v>1006</v>
       </c>
@@ -2184,7 +2230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="3:11">
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
@@ -2214,7 +2260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" customHeight="1" spans="3:11">
       <c r="C13" s="6">
         <v>1008</v>
       </c>
@@ -2244,7 +2290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" customHeight="1" spans="3:11">
       <c r="C14" s="6">
         <v>1009</v>
       </c>
@@ -2274,7 +2320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:11">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -2304,7 +2350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" spans="3:11">
+    <row r="16" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C16" s="4">
         <v>1011</v>
       </c>
@@ -2334,7 +2380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" customHeight="1" spans="3:11">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -2364,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" customHeight="1" spans="3:11">
       <c r="C18" s="6">
         <v>1013</v>
       </c>
@@ -2394,7 +2440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" customHeight="1" spans="3:11">
       <c r="C19" s="6">
         <v>1014</v>
       </c>
@@ -2424,7 +2470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:11">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -2454,7 +2500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="6">
         <v>1016</v>
       </c>
@@ -2484,7 +2530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="6">
         <v>1017</v>
       </c>
@@ -2514,7 +2560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="6">
         <v>1018</v>
       </c>
@@ -2544,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="3:11">
+    <row r="24" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C24" s="5">
         <v>1019</v>
       </c>
@@ -2574,7 +2620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" customHeight="1" spans="3:11">
       <c r="C25" s="6">
         <v>1020</v>
       </c>
@@ -2604,7 +2650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="3:11">
+    <row r="26" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C26" s="4">
         <v>1021</v>
       </c>
@@ -2634,7 +2680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" customHeight="1" spans="3:11">
       <c r="C27" s="6">
         <v>1022</v>
       </c>
@@ -2664,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="3:11">
+    <row r="28" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C28" s="5">
         <v>1023</v>
       </c>
@@ -2694,7 +2740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" customHeight="1" spans="3:11">
       <c r="C29" s="6">
         <v>1024</v>
       </c>
@@ -2724,7 +2770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" customHeight="1" spans="3:11">
       <c r="C30" s="6">
         <v>1025</v>
       </c>
@@ -2754,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" customHeight="1" spans="3:11">
       <c r="C31" s="6">
         <v>1026</v>
       </c>
@@ -2784,7 +2830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" spans="3:11">
+    <row r="32" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C32" s="5">
         <v>1027</v>
       </c>
@@ -2814,7 +2860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="6">
         <v>1028</v>
       </c>
@@ -2844,7 +2890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="6">
         <v>1029</v>
       </c>
@@ -2874,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="3:11">
+    <row r="35" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
@@ -2904,7 +2950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="6">
         <v>1031</v>
       </c>
@@ -2934,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="6">
         <v>1032</v>
       </c>
@@ -2964,7 +3010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="6">
         <v>1033</v>
       </c>
@@ -2994,7 +3040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="6">
         <v>1034</v>
       </c>
@@ -3024,7 +3070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" customHeight="1" spans="3:11">
       <c r="C40" s="6">
         <v>1035</v>
       </c>
@@ -3054,7 +3100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" customHeight="1" spans="3:11">
       <c r="C41" s="6">
         <v>1036</v>
       </c>
@@ -3084,7 +3130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" customHeight="1" spans="3:11">
       <c r="C42" s="6">
         <v>1037</v>
       </c>
@@ -3114,7 +3160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" customHeight="1" spans="3:11">
       <c r="C43" s="6">
         <v>1038</v>
       </c>
@@ -3144,7 +3190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" spans="3:11">
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
@@ -3174,7 +3220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" customHeight="1" spans="3:11">
       <c r="C45" s="6">
         <v>1040</v>
       </c>
@@ -3204,7 +3250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" customHeight="1" spans="3:11">
       <c r="C46" s="6">
         <v>1041</v>
       </c>
@@ -3234,7 +3280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" customHeight="1" spans="3:11">
       <c r="C47" s="6">
         <v>1042</v>
       </c>
@@ -3264,7 +3310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" customHeight="1" spans="3:11">
       <c r="C48" s="6">
         <v>1043</v>
       </c>
@@ -3294,7 +3340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" customHeight="1" spans="3:11">
       <c r="C49" s="6">
         <v>1044</v>
       </c>
@@ -3324,7 +3370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" customHeight="1" spans="3:11">
       <c r="C50" s="6">
         <v>1045</v>
       </c>
@@ -3354,7 +3400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" customHeight="1" spans="3:11">
       <c r="C51" s="6">
         <v>1046</v>
       </c>
@@ -3384,7 +3430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" customHeight="1" spans="3:11">
       <c r="C52" s="6">
         <v>1047</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="3:11">
+    <row r="53" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
@@ -3444,7 +3490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" customHeight="1" spans="3:11">
       <c r="C54" s="6">
         <v>1049</v>
       </c>
@@ -3474,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="3:11">
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C55" s="6">
         <v>1050</v>
       </c>
@@ -3504,7 +3550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" customHeight="1" spans="3:11">
       <c r="C56" s="6">
         <v>1051</v>
       </c>
@@ -3534,7 +3580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" customHeight="1" spans="3:11">
       <c r="C57" s="6">
         <v>1052</v>
       </c>
@@ -3564,7 +3610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" customHeight="1" spans="3:11">
       <c r="C58" s="6">
         <v>1053</v>
       </c>
@@ -3594,7 +3640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" customHeight="1" spans="3:11">
       <c r="C59" s="6">
         <v>1054</v>
       </c>
@@ -3624,7 +3670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" customHeight="1" spans="3:11">
       <c r="C60" s="6">
         <v>1055</v>
       </c>
@@ -3654,7 +3700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" customHeight="1" spans="3:11">
       <c r="C61" s="6">
         <v>1056</v>
       </c>
@@ -3684,7 +3730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" spans="3:11">
+    <row r="62" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
@@ -3714,7 +3760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" customHeight="1" spans="3:11">
       <c r="C63" s="6">
         <v>1058</v>
       </c>
@@ -3744,7 +3790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" customHeight="1" spans="3:11">
       <c r="C64" s="6">
         <v>1059</v>
       </c>
@@ -3774,7 +3820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" customHeight="1" spans="3:11">
       <c r="C65" s="6">
         <v>1060</v>
       </c>
@@ -3804,7 +3850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" customHeight="1" spans="3:11">
       <c r="C66" s="6">
         <v>1061</v>
       </c>
@@ -3834,7 +3880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" customHeight="1" spans="3:11">
       <c r="C67" s="6">
         <v>1062</v>
       </c>
@@ -3864,7 +3910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" customHeight="1" spans="3:11">
       <c r="C68" s="6">
         <v>1063</v>
       </c>
@@ -3894,7 +3940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" customHeight="1" spans="3:11">
       <c r="C69" s="6">
         <v>1064</v>
       </c>
@@ -3924,7 +3970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" customHeight="1" spans="3:11">
       <c r="C70" s="6">
         <v>1065</v>
       </c>
@@ -3954,7 +4000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" s="4" customFormat="1" spans="3:11">
+    <row r="71" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C71" s="4">
         <v>1066</v>
       </c>
@@ -3984,7 +4030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" customHeight="1" spans="3:11">
       <c r="C72" s="6">
         <v>1067</v>
       </c>
@@ -4014,7 +4060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" customHeight="1" spans="3:11">
       <c r="C73" s="6">
         <v>1068</v>
       </c>
@@ -4044,7 +4090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" customHeight="1" spans="3:11">
       <c r="C74" s="6">
         <v>1069</v>
       </c>
@@ -4074,7 +4120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" customHeight="1" spans="3:11">
       <c r="C75" s="6">
         <v>1070</v>
       </c>
@@ -4104,7 +4150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" customHeight="1" spans="3:11">
       <c r="C76" s="6">
         <v>1071</v>
       </c>
@@ -4134,7 +4180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" customHeight="1" spans="3:11">
       <c r="C77" s="6">
         <v>1072</v>
       </c>
@@ -4164,7 +4210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="3:11">
+    <row r="78" customHeight="1" spans="3:11">
       <c r="C78" s="6">
         <v>1073</v>
       </c>
@@ -4194,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="3:11">
+    <row r="79" customHeight="1" spans="3:11">
       <c r="C79" s="6">
         <v>1074</v>
       </c>
@@ -4224,7 +4270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" s="4" customFormat="1" spans="3:11">
+    <row r="80" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C80" s="4">
         <v>1075</v>
       </c>
@@ -4254,7 +4300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" customHeight="1" spans="3:11">
       <c r="C81" s="6">
         <v>1076</v>
       </c>
@@ -4284,7 +4330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" customHeight="1" spans="3:11">
       <c r="C82" s="6">
         <v>1077</v>
       </c>
@@ -4314,7 +4360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="3:11">
+    <row r="83" customHeight="1" spans="3:11">
       <c r="C83" s="6">
         <v>1078</v>
       </c>
@@ -4344,7 +4390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="3:11">
+    <row r="84" customHeight="1" spans="3:11">
       <c r="C84" s="6">
         <v>1079</v>
       </c>
@@ -4374,7 +4420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" customHeight="1" spans="3:11">
       <c r="C85" s="6">
         <v>1080</v>
       </c>
@@ -4404,7 +4450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="3:11">
+    <row r="86" customHeight="1" spans="3:11">
       <c r="C86" s="6">
         <v>1081</v>
       </c>
@@ -4434,7 +4480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="3:11">
+    <row r="87" customHeight="1" spans="3:11">
       <c r="C87" s="6">
         <v>1082</v>
       </c>
@@ -4464,7 +4510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="3:11">
+    <row r="88" customHeight="1" spans="3:11">
       <c r="C88" s="6">
         <v>1083</v>
       </c>
@@ -4494,7 +4540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" s="4" customFormat="1" spans="3:11">
+    <row r="89" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C89" s="4">
         <v>1084</v>
       </c>
@@ -4524,7 +4570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="3:11">
+    <row r="92" customHeight="1" spans="3:11">
       <c r="C92" s="6">
         <v>2001</v>
       </c>
@@ -4554,7 +4600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="3:11">
+    <row r="93" customHeight="1" spans="3:11">
       <c r="C93" s="6">
         <v>2002</v>
       </c>
@@ -4584,7 +4630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="3:11">
+    <row r="94" customHeight="1" spans="3:11">
       <c r="C94" s="6">
         <v>2003</v>
       </c>
@@ -4614,7 +4660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="3:11">
+    <row r="95" customHeight="1" spans="3:11">
       <c r="C95" s="6">
         <v>2004</v>
       </c>
@@ -4644,7 +4690,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="3:11">
+    <row r="96" customHeight="1" spans="3:11">
       <c r="C96" s="6">
         <v>2005</v>
       </c>
@@ -4674,7 +4720,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="3:11">
+    <row r="97" customHeight="1" spans="3:11">
       <c r="C97" s="6">
         <v>2006</v>
       </c>
@@ -4704,7 +4750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="3:11">
+    <row r="98" customHeight="1" spans="3:11">
       <c r="C98" s="6">
         <v>2007</v>
       </c>
@@ -4734,7 +4780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="3:11">
+    <row r="99" customHeight="1" spans="3:11">
       <c r="C99" s="6">
         <v>2008</v>
       </c>
@@ -4764,7 +4810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="3:11">
+    <row r="100" customHeight="1" spans="3:11">
       <c r="C100" s="6">
         <v>2009</v>
       </c>
@@ -4794,7 +4840,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" s="4" customFormat="1" spans="3:11">
+    <row r="101" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C101" s="4">
         <v>2010</v>
       </c>
@@ -4824,7 +4870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="3:11">
+    <row r="102" customHeight="1" spans="3:11">
       <c r="C102" s="6">
         <v>2011</v>
       </c>
@@ -4854,7 +4900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="3:11">
+    <row r="103" customHeight="1" spans="3:11">
       <c r="C103" s="6">
         <v>2012</v>
       </c>
@@ -4884,7 +4930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="3:11">
+    <row r="104" customHeight="1" spans="3:11">
       <c r="C104" s="6">
         <v>2013</v>
       </c>
@@ -4914,7 +4960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="3:11">
+    <row r="105" customHeight="1" spans="3:11">
       <c r="C105" s="6">
         <v>2014</v>
       </c>
@@ -4944,7 +4990,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="3:11">
+    <row r="106" customHeight="1" spans="3:11">
       <c r="C106" s="6">
         <v>2015</v>
       </c>
@@ -4974,7 +5020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="3:11">
+    <row r="107" customHeight="1" spans="3:11">
       <c r="C107" s="6">
         <v>2016</v>
       </c>
@@ -5004,7 +5050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="3:11">
+    <row r="108" customHeight="1" spans="3:11">
       <c r="C108" s="6">
         <v>2017</v>
       </c>
@@ -5034,7 +5080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="3:11">
+    <row r="109" customHeight="1" spans="3:11">
       <c r="C109" s="6">
         <v>2018</v>
       </c>
@@ -5064,7 +5110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="3:11">
+    <row r="110" customHeight="1" spans="3:11">
       <c r="C110" s="6">
         <v>2019</v>
       </c>
@@ -5094,7 +5140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" s="4" customFormat="1" spans="3:11">
+    <row r="111" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C111" s="4">
         <v>2020</v>
       </c>
@@ -5124,7 +5170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="3:11">
+    <row r="112" customHeight="1" spans="3:11">
       <c r="C112" s="6">
         <v>2021</v>
       </c>
@@ -5154,7 +5200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="3:11">
+    <row r="113" customHeight="1" spans="3:11">
       <c r="C113" s="6">
         <v>2022</v>
       </c>
@@ -5184,7 +5230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="3:11">
+    <row r="114" customHeight="1" spans="3:11">
       <c r="C114" s="6">
         <v>2023</v>
       </c>
@@ -5214,7 +5260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="3:11">
+    <row r="115" customHeight="1" spans="3:11">
       <c r="C115" s="6">
         <v>2024</v>
       </c>
@@ -5244,7 +5290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="3:11">
+    <row r="116" customHeight="1" spans="3:11">
       <c r="C116" s="6">
         <v>2025</v>
       </c>
@@ -5274,7 +5320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="3:11">
+    <row r="117" customHeight="1" spans="3:11">
       <c r="C117" s="6">
         <v>2026</v>
       </c>
@@ -5304,7 +5350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="3:11">
+    <row r="118" customHeight="1" spans="3:11">
       <c r="C118" s="6">
         <v>2027</v>
       </c>
@@ -5334,7 +5380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="3:11">
+    <row r="119" customHeight="1" spans="3:11">
       <c r="C119" s="6">
         <v>2028</v>
       </c>
@@ -5364,7 +5410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="3:11">
+    <row r="120" customHeight="1" spans="3:11">
       <c r="C120" s="6">
         <v>2029</v>
       </c>
@@ -5394,7 +5440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" s="4" customFormat="1" spans="3:11">
+    <row r="121" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C121" s="4">
         <v>2030</v>
       </c>
@@ -5424,7 +5470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="3:11">
+    <row r="122" customHeight="1" spans="3:11">
       <c r="C122" s="6">
         <v>2031</v>
       </c>
@@ -5454,7 +5500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="3:11">
+    <row r="123" customHeight="1" spans="3:11">
       <c r="C123" s="6">
         <v>2032</v>
       </c>
@@ -5484,7 +5530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="3:11">
+    <row r="124" customHeight="1" spans="3:11">
       <c r="C124" s="6">
         <v>2033</v>
       </c>
@@ -5514,7 +5560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="3:11">
+    <row r="125" customHeight="1" spans="3:11">
       <c r="C125" s="6">
         <v>2034</v>
       </c>
@@ -5544,7 +5590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="3:11">
+    <row r="126" customHeight="1" spans="3:11">
       <c r="C126" s="6">
         <v>2035</v>
       </c>
@@ -5574,7 +5620,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="3:11">
+    <row r="127" customHeight="1" spans="3:11">
       <c r="C127" s="6">
         <v>2036</v>
       </c>
@@ -5604,7 +5650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="3:11">
+    <row r="128" customHeight="1" spans="3:11">
       <c r="C128" s="6">
         <v>2037</v>
       </c>
@@ -5634,7 +5680,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="3:11">
+    <row r="129" customHeight="1" spans="3:11">
       <c r="C129" s="6">
         <v>2038</v>
       </c>
@@ -5664,7 +5710,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="3:11">
+    <row r="130" customHeight="1" spans="3:11">
       <c r="C130" s="6">
         <v>2039</v>
       </c>
@@ -5694,7 +5740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" s="4" customFormat="1" spans="3:11">
+    <row r="131" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C131" s="4">
         <v>2040</v>
       </c>
@@ -5724,7 +5770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="3:11">
+    <row r="132" customHeight="1" spans="3:11">
       <c r="C132" s="6">
         <v>2041</v>
       </c>
@@ -5754,7 +5800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="3:11">
+    <row r="133" customHeight="1" spans="3:11">
       <c r="C133" s="6">
         <v>2042</v>
       </c>
@@ -5784,7 +5830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="3:11">
+    <row r="134" customHeight="1" spans="3:11">
       <c r="C134" s="6">
         <v>2043</v>
       </c>
@@ -5814,7 +5860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="3:11">
+    <row r="135" customHeight="1" spans="3:11">
       <c r="C135" s="6">
         <v>2044</v>
       </c>
@@ -5844,7 +5890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="3:11">
+    <row r="136" customHeight="1" spans="3:11">
       <c r="C136" s="6">
         <v>2045</v>
       </c>
@@ -5874,7 +5920,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="3:11">
+    <row r="137" customHeight="1" spans="3:11">
       <c r="C137" s="6">
         <v>2046</v>
       </c>
@@ -5904,7 +5950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="3:11">
+    <row r="138" customHeight="1" spans="3:11">
       <c r="C138" s="6">
         <v>2047</v>
       </c>
@@ -5934,7 +5980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="3:11">
+    <row r="139" customHeight="1" spans="3:11">
       <c r="C139" s="6">
         <v>2048</v>
       </c>
@@ -5964,7 +6010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="3:11">
+    <row r="140" customHeight="1" spans="3:11">
       <c r="C140" s="6">
         <v>2049</v>
       </c>
@@ -5994,7 +6040,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" s="4" customFormat="1" spans="3:11">
+    <row r="141" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C141" s="4">
         <v>2050</v>
       </c>
@@ -6024,7 +6070,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="3:11">
+    <row r="142" customHeight="1" spans="3:11">
       <c r="C142" s="6">
         <v>2051</v>
       </c>
@@ -6054,7 +6100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="3:11">
+    <row r="143" customHeight="1" spans="3:11">
       <c r="C143" s="6">
         <v>2052</v>
       </c>
@@ -6084,7 +6130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="3:11">
+    <row r="144" customHeight="1" spans="3:11">
       <c r="C144" s="6">
         <v>2053</v>
       </c>
@@ -6114,7 +6160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="3:11">
+    <row r="145" customHeight="1" spans="3:11">
       <c r="C145" s="6">
         <v>2054</v>
       </c>
@@ -6144,7 +6190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="146" spans="3:11">
+    <row r="146" customHeight="1" spans="3:11">
       <c r="C146" s="6">
         <v>2055</v>
       </c>
@@ -6174,7 +6220,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="3:11">
+    <row r="147" customHeight="1" spans="3:11">
       <c r="C147" s="6">
         <v>2056</v>
       </c>
@@ -6204,7 +6250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="3:11">
+    <row r="148" customHeight="1" spans="3:11">
       <c r="C148" s="6">
         <v>2057</v>
       </c>
@@ -6234,7 +6280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="3:11">
+    <row r="149" customHeight="1" spans="3:11">
       <c r="C149" s="6">
         <v>2058</v>
       </c>
@@ -6264,7 +6310,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="3:11">
+    <row r="150" customHeight="1" spans="3:11">
       <c r="C150" s="6">
         <v>2059</v>
       </c>
@@ -6294,7 +6340,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" s="4" customFormat="1" spans="3:11">
+    <row r="151" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C151" s="4">
         <v>2060</v>
       </c>
@@ -6324,7 +6370,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="3:11">
+    <row r="152" customHeight="1" spans="3:11">
       <c r="C152" s="6">
         <v>2061</v>
       </c>
@@ -6354,7 +6400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="3:11">
+    <row r="153" customHeight="1" spans="3:11">
       <c r="C153" s="6">
         <v>2062</v>
       </c>
@@ -6384,7 +6430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="3:11">
+    <row r="154" customHeight="1" spans="3:11">
       <c r="C154" s="6">
         <v>2063</v>
       </c>
@@ -6414,7 +6460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="3:11">
+    <row r="155" customHeight="1" spans="3:11">
       <c r="C155" s="6">
         <v>2064</v>
       </c>
@@ -6444,7 +6490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="3:11">
+    <row r="156" customHeight="1" spans="3:11">
       <c r="C156" s="6">
         <v>2065</v>
       </c>
@@ -6474,7 +6520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="157" spans="3:11">
+    <row r="157" customHeight="1" spans="3:11">
       <c r="C157" s="6">
         <v>2066</v>
       </c>
@@ -6504,7 +6550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="3:11">
+    <row r="158" customHeight="1" spans="3:11">
       <c r="C158" s="6">
         <v>2067</v>
       </c>
@@ -6534,7 +6580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="3:11">
+    <row r="159" customHeight="1" spans="3:11">
       <c r="C159" s="6">
         <v>2068</v>
       </c>
@@ -6564,7 +6610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="3:11">
+    <row r="160" customHeight="1" spans="3:11">
       <c r="C160" s="6">
         <v>2069</v>
       </c>
@@ -6594,7 +6640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="161" s="4" customFormat="1" spans="3:11">
+    <row r="161" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C161" s="4">
         <v>2070</v>
       </c>
@@ -6624,7 +6670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="3:11">
+    <row r="162" customHeight="1" spans="3:11">
       <c r="C162" s="6">
         <v>2071</v>
       </c>
@@ -6654,7 +6700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="3:11">
+    <row r="163" customHeight="1" spans="3:11">
       <c r="C163" s="6">
         <v>2072</v>
       </c>
@@ -6684,7 +6730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="3:11">
+    <row r="164" customHeight="1" spans="3:11">
       <c r="C164" s="6">
         <v>2073</v>
       </c>
@@ -6714,7 +6760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
+    <row r="165" customHeight="1" spans="3:11">
       <c r="C165" s="6">
         <v>2074</v>
       </c>
@@ -6744,7 +6790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="166" spans="3:11">
+    <row r="166" customHeight="1" spans="3:11">
       <c r="C166" s="6">
         <v>2075</v>
       </c>
@@ -6774,7 +6820,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="3:11">
+    <row r="167" customHeight="1" spans="3:11">
       <c r="C167" s="6">
         <v>2076</v>
       </c>
@@ -6804,7 +6850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="3:11">
+    <row r="168" customHeight="1" spans="3:11">
       <c r="C168" s="6">
         <v>2077</v>
       </c>
@@ -6834,7 +6880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="3:11">
+    <row r="169" customHeight="1" spans="3:11">
       <c r="C169" s="6">
         <v>2078</v>
       </c>
@@ -6864,7 +6910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="170" spans="3:11">
+    <row r="170" customHeight="1" spans="3:11">
       <c r="C170" s="6">
         <v>2079</v>
       </c>
@@ -6894,7 +6940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="171" s="4" customFormat="1" spans="3:11">
+    <row r="171" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C171" s="4">
         <v>2080</v>
       </c>
@@ -6924,7 +6970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="3:10">
+    <row r="176" customHeight="1" spans="3:10">
       <c r="C176" s="6">
         <v>3001</v>
       </c>
@@ -6950,7 +6996,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="3:10">
+    <row r="177" customHeight="1" spans="3:10">
       <c r="C177" s="6">
         <v>3002</v>
       </c>
@@ -6976,7 +7022,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="3:10">
+    <row r="178" customHeight="1" spans="3:10">
       <c r="C178" s="6">
         <v>3003</v>
       </c>
@@ -7002,7 +7048,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="3:10">
+    <row r="179" customHeight="1" spans="3:10">
       <c r="C179" s="6">
         <v>3004</v>
       </c>
@@ -7028,7 +7074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="3:10">
+    <row r="180" customHeight="1" spans="3:10">
       <c r="C180" s="6">
         <v>3005</v>
       </c>
@@ -7054,7 +7100,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="3:10">
+    <row r="181" customHeight="1" spans="3:10">
       <c r="C181" s="6">
         <v>3006</v>
       </c>
@@ -7080,7 +7126,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="3:10">
+    <row r="182" customHeight="1" spans="3:10">
       <c r="C182" s="6">
         <v>3007</v>
       </c>
@@ -7106,7 +7152,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="3:10">
+    <row r="183" customHeight="1" spans="3:10">
       <c r="C183" s="6">
         <v>3008</v>
       </c>
@@ -7132,7 +7178,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="184" spans="3:10">
+    <row r="184" customHeight="1" spans="3:10">
       <c r="C184" s="6">
         <v>3009</v>
       </c>
@@ -7158,7 +7204,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="185" spans="3:10">
+    <row r="185" customHeight="1" spans="3:10">
       <c r="C185" s="6">
         <v>3010</v>
       </c>
@@ -7184,7 +7230,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="3:10">
+    <row r="186" customHeight="1" spans="3:10">
       <c r="C186" s="6">
         <v>3011</v>
       </c>
@@ -7210,7 +7256,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="3:10">
+    <row r="187" customHeight="1" spans="3:10">
       <c r="C187" s="6">
         <v>3012</v>
       </c>
@@ -7236,7 +7282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="3:10">
+    <row r="188" customHeight="1" spans="3:10">
       <c r="C188" s="6">
         <v>3013</v>
       </c>
@@ -7262,7 +7308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="3:10">
+    <row r="189" customHeight="1" spans="3:10">
       <c r="C189" s="6">
         <v>3014</v>
       </c>
@@ -7288,7 +7334,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="3:10">
+    <row r="190" customHeight="1" spans="3:10">
       <c r="C190" s="6">
         <v>3015</v>
       </c>
@@ -7314,7 +7360,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="3:10">
+    <row r="191" customHeight="1" spans="3:10">
       <c r="C191" s="6">
         <v>3016</v>
       </c>
@@ -7340,7 +7386,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="3:10">
+    <row r="192" customHeight="1" spans="3:10">
       <c r="C192" s="6">
         <v>3017</v>
       </c>
@@ -7366,7 +7412,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="3:10">
+    <row r="193" customHeight="1" spans="3:10">
       <c r="C193" s="6">
         <v>3018</v>
       </c>
@@ -7392,7 +7438,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="3:10">
+    <row r="196" customHeight="1" spans="3:10">
       <c r="C196" s="6">
         <v>4001</v>
       </c>
@@ -7418,7 +7464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="3:10">
+    <row r="197" customHeight="1" spans="3:10">
       <c r="C197" s="6">
         <v>4002</v>
       </c>
@@ -7444,7 +7490,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="3:10">
+    <row r="198" customHeight="1" spans="3:10">
       <c r="C198" s="6">
         <v>4003</v>
       </c>
@@ -7470,7 +7516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="3:10">
+    <row r="199" customHeight="1" spans="3:10">
       <c r="C199" s="6">
         <v>4004</v>
       </c>
@@ -7496,7 +7542,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="3:10">
+    <row r="200" customHeight="1" spans="3:10">
       <c r="C200" s="6">
         <v>4005</v>
       </c>
@@ -7522,7 +7568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="3:10">
+    <row r="201" customHeight="1" spans="3:10">
       <c r="C201" s="6">
         <v>4006</v>
       </c>
@@ -7548,7 +7594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="3:10">
+    <row r="202" customHeight="1" spans="3:10">
       <c r="C202" s="6">
         <v>4007</v>
       </c>
@@ -7574,7 +7620,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="203" spans="3:10">
+    <row r="203" customHeight="1" spans="3:10">
       <c r="C203" s="6">
         <v>4008</v>
       </c>
@@ -7600,7 +7646,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="204" spans="3:10">
+    <row r="204" customHeight="1" spans="3:10">
       <c r="C204" s="6">
         <v>4009</v>
       </c>
@@ -7626,7 +7672,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="205" spans="3:10">
+    <row r="205" customHeight="1" spans="3:10">
       <c r="C205" s="6">
         <v>4010</v>
       </c>
@@ -7652,7 +7698,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="206" spans="3:10">
+    <row r="206" customHeight="1" spans="3:10">
       <c r="C206" s="6">
         <v>4011</v>
       </c>
@@ -7678,7 +7724,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="3:10">
+    <row r="207" customHeight="1" spans="3:10">
       <c r="C207" s="6">
         <v>4012</v>
       </c>
@@ -7704,7 +7750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="3:10">
+    <row r="210" customHeight="1" spans="3:10">
       <c r="C210" s="6">
         <v>5001</v>
       </c>
@@ -7731,7 +7777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="3:10">
+    <row r="211" customHeight="1" spans="3:10">
       <c r="C211" s="6">
         <v>5002</v>
       </c>
@@ -7758,7 +7804,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="3:10">
+    <row r="212" customHeight="1" spans="3:10">
       <c r="C212" s="6">
         <v>5003</v>
       </c>
@@ -7785,7 +7831,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="3:10">
+    <row r="213" customHeight="1" spans="3:10">
       <c r="C213" s="6">
         <v>5004</v>
       </c>
@@ -7812,7 +7858,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="3:10">
+    <row r="214" customHeight="1" spans="3:10">
       <c r="C214" s="6">
         <v>5005</v>
       </c>
@@ -7839,7 +7885,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="3:10">
+    <row r="215" customHeight="1" spans="3:10">
       <c r="C215" s="6">
         <v>5006</v>
       </c>
@@ -7866,7 +7912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="3:10">
+    <row r="216" customHeight="1" spans="3:10">
       <c r="C216" s="6">
         <v>5007</v>
       </c>
@@ -7893,7 +7939,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="3:10">
+    <row r="217" customHeight="1" spans="3:10">
       <c r="C217" s="6">
         <v>5008</v>
       </c>
@@ -7920,7 +7966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="218" spans="3:10">
+    <row r="218" customHeight="1" spans="3:10">
       <c r="C218" s="6">
         <v>5009</v>
       </c>
@@ -7947,7 +7993,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="3:10">
+    <row r="219" customHeight="1" spans="3:10">
       <c r="C219" s="6">
         <v>5010</v>
       </c>
@@ -7974,7 +8020,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="3:10">
+    <row r="220" customHeight="1" spans="3:10">
       <c r="C220" s="6">
         <v>5011</v>
       </c>
@@ -8001,7 +8047,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="3:10">
+    <row r="221" customHeight="1" spans="3:10">
       <c r="C221" s="6">
         <v>5012</v>
       </c>
@@ -8028,7 +8074,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="3:10">
+    <row r="222" customHeight="1" spans="3:10">
       <c r="C222" s="6">
         <v>5013</v>
       </c>
@@ -8055,7 +8101,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="3:10">
+    <row r="223" customHeight="1" spans="3:10">
       <c r="C223" s="6">
         <v>5014</v>
       </c>
@@ -8082,7 +8128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="3:10">
+    <row r="224" customHeight="1" spans="3:10">
       <c r="C224" s="6">
         <v>5015</v>
       </c>
@@ -8109,7 +8155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="3:10">
+    <row r="225" customHeight="1" spans="3:10">
       <c r="C225" s="6">
         <v>5016</v>
       </c>
@@ -8136,7 +8182,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="3:10">
+    <row r="226" customHeight="1" spans="3:10">
       <c r="C226" s="6">
         <v>5017</v>
       </c>
@@ -8163,7 +8209,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="3:10">
+    <row r="227" customHeight="1" spans="3:10">
       <c r="C227" s="6">
         <v>5018</v>
       </c>
@@ -8190,7 +8236,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="228" spans="3:10">
+    <row r="228" customHeight="1" spans="3:10">
       <c r="C228" s="6">
         <v>5019</v>
       </c>
@@ -8217,7 +8263,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="3:10">
+    <row r="229" customHeight="1" spans="3:10">
       <c r="C229" s="6">
         <v>5020</v>
       </c>
@@ -8244,7 +8290,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="3:10">
+    <row r="230" customHeight="1" spans="3:10">
       <c r="C230" s="6">
         <v>5021</v>
       </c>
@@ -8271,7 +8317,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="3:10">
+    <row r="231" customHeight="1" spans="3:10">
       <c r="C231" s="6">
         <v>5022</v>
       </c>
@@ -8298,7 +8344,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="3:10">
+    <row r="232" customHeight="1" spans="3:10">
       <c r="C232" s="6">
         <v>5023</v>
       </c>
@@ -8325,7 +8371,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="3:10">
+    <row r="233" customHeight="1" spans="3:10">
       <c r="C233" s="6">
         <v>5024</v>
       </c>
@@ -8352,7 +8398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="3:10">
+    <row r="234" customHeight="1" spans="3:10">
       <c r="C234" s="6">
         <v>5025</v>
       </c>
@@ -8379,7 +8425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="3:10">
+    <row r="236" customHeight="1" spans="3:10">
       <c r="C236" s="6">
         <v>6001</v>
       </c>
@@ -8405,7 +8451,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="3:10">
+    <row r="237" customHeight="1" spans="3:10">
       <c r="C237" s="6">
         <v>6002</v>
       </c>
@@ -8431,7 +8477,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="3:10">
+    <row r="238" customHeight="1" spans="3:10">
       <c r="C238" s="6">
         <v>6003</v>
       </c>
@@ -8457,7 +8503,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="239" spans="3:10">
+    <row r="239" customHeight="1" spans="3:10">
       <c r="C239" s="6">
         <v>6004</v>
       </c>
@@ -8483,7 +8529,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="240" spans="3:10">
+    <row r="240" customHeight="1" spans="3:10">
       <c r="C240" s="6">
         <v>6005</v>
       </c>
@@ -8509,7 +8555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="241" spans="3:10">
+    <row r="241" customHeight="1" spans="3:10">
       <c r="C241" s="6">
         <v>6006</v>
       </c>
@@ -8535,7 +8581,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="3:10">
+    <row r="242" customHeight="1" spans="3:10">
       <c r="C242" s="6">
         <v>6007</v>
       </c>
@@ -8561,7 +8607,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="243" spans="3:10">
+    <row r="243" customHeight="1" spans="3:10">
       <c r="C243" s="6">
         <v>6008</v>
       </c>
@@ -8587,7 +8633,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="3:10">
+    <row r="244" customHeight="1" spans="3:10">
       <c r="C244" s="6">
         <v>6009</v>
       </c>
@@ -8613,7 +8659,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="3:10">
+    <row r="245" customHeight="1" spans="3:10">
       <c r="C245" s="6">
         <v>6010</v>
       </c>
@@ -8639,7 +8685,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="3:10">
+    <row r="246" customHeight="1" spans="3:10">
       <c r="C246" s="6">
         <v>6011</v>
       </c>
@@ -8665,7 +8711,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="247" spans="3:10">
+    <row r="247" customHeight="1" spans="3:10">
       <c r="C247" s="6">
         <v>6012</v>
       </c>
@@ -8691,7 +8737,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="3:10">
+    <row r="248" customHeight="1" spans="3:10">
       <c r="C248" s="6">
         <v>6013</v>
       </c>
@@ -8717,7 +8763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="249" spans="3:10">
+    <row r="249" customHeight="1" spans="3:10">
       <c r="C249" s="6">
         <v>6014</v>
       </c>
@@ -8743,7 +8789,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="250" spans="3:10">
+    <row r="250" customHeight="1" spans="3:10">
       <c r="C250" s="6">
         <v>6015</v>
       </c>
@@ -8769,7 +8815,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="3:10">
+    <row r="251" customHeight="1" spans="3:10">
       <c r="C251" s="6">
         <v>6016</v>
       </c>
@@ -8795,7 +8841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="252" spans="3:10">
+    <row r="252" customHeight="1" spans="3:10">
       <c r="C252" s="6">
         <v>6017</v>
       </c>
@@ -8821,7 +8867,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="3:10">
+    <row r="253" customHeight="1" spans="3:10">
       <c r="C253" s="6">
         <v>6018</v>
       </c>
@@ -8847,7 +8893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="3:10">
+    <row r="254" customHeight="1" spans="3:10">
       <c r="C254" s="6">
         <v>6019</v>
       </c>
@@ -8873,7 +8919,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="3:10">
+    <row r="255" customHeight="1" spans="3:10">
       <c r="C255" s="6">
         <v>6020</v>
       </c>
@@ -8899,32 +8945,206 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="3:11">
+    <row r="257" customHeight="1" spans="3:11">
       <c r="C257" s="6">
         <v>8001</v>
       </c>
-      <c r="D257" s="6" t="s">
+      <c r="D257" s="8" t="s">
         <v>275</v>
       </c>
       <c r="E257" s="6">
         <v>8</v>
       </c>
       <c r="F257" s="6">
+        <v>10</v>
+      </c>
+      <c r="G257" s="9">
+        <v>1</v>
+      </c>
+      <c r="H257" s="9">
+        <v>20</v>
+      </c>
+      <c r="I257" s="9">
         <v>100</v>
       </c>
-      <c r="G257" s="3">
+      <c r="J257" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K257" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="3:11">
+      <c r="C258" s="6">
+        <v>8002</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E258" s="6">
+        <v>9</v>
+      </c>
+      <c r="F258" s="6">
+        <v>30</v>
+      </c>
+      <c r="G258" s="9">
+        <v>1</v>
+      </c>
+      <c r="H258" s="6">
+        <v>19</v>
+      </c>
+      <c r="I258" s="6">
+        <v>100</v>
+      </c>
+      <c r="J258" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K258" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="3:11">
+      <c r="C259" s="6">
+        <v>8003</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E259" s="6">
+        <v>10</v>
+      </c>
+      <c r="F259" s="6">
+        <v>50</v>
+      </c>
+      <c r="G259" s="9">
+        <v>1</v>
+      </c>
+      <c r="H259" s="6">
+        <v>8</v>
+      </c>
+      <c r="I259" s="6">
+        <v>10</v>
+      </c>
+      <c r="J259" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="3:11">
+      <c r="C260" s="6">
+        <v>8004</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E260" s="6">
+        <v>11</v>
+      </c>
+      <c r="F260" s="6">
+        <v>60</v>
+      </c>
+      <c r="G260" s="9">
+        <v>1</v>
+      </c>
+      <c r="H260" s="6">
+        <v>9</v>
+      </c>
+      <c r="I260" s="6">
+        <v>50</v>
+      </c>
+      <c r="J260" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="3:11">
+      <c r="C261" s="6">
+        <v>8005</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E261" s="6">
+        <v>12</v>
+      </c>
+      <c r="F261" s="6">
+        <v>70</v>
+      </c>
+      <c r="G261" s="9">
+        <v>1</v>
+      </c>
+      <c r="H261" s="6">
+        <v>30</v>
+      </c>
+      <c r="I261" s="6">
+        <v>30</v>
+      </c>
+      <c r="J261" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K261" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="3:11">
+      <c r="C262" s="6">
+        <v>8006</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E262" s="6">
+        <v>13</v>
+      </c>
+      <c r="F262" s="6">
+        <v>80</v>
+      </c>
+      <c r="G262" s="9">
+        <v>1</v>
+      </c>
+      <c r="H262" s="6">
+        <v>7</v>
+      </c>
+      <c r="I262" s="6">
+        <v>10</v>
+      </c>
+      <c r="J262" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="3:11">
+      <c r="C263" s="6">
+        <v>8007</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E263" s="6">
+        <v>14</v>
+      </c>
+      <c r="F263" s="6">
+        <v>100</v>
+      </c>
+      <c r="G263" s="3">
         <v>2</v>
       </c>
-      <c r="H257" s="3">
+      <c r="H263" s="3">
         <v>0</v>
       </c>
-      <c r="I257" s="3">
-        <v>1</v>
-      </c>
-      <c r="J257" s="3" t="s">
+      <c r="I263" s="3">
+        <v>1</v>
+      </c>
+      <c r="J263" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K257" s="3" t="s">
+      <c r="K263" s="3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -1605,7 +1605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1619,7 +1619,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1947,8 +1946,8 @@
   <sheetPr/>
   <dimension ref="C2:K263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="H267" sqref="H267"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8958,19 +8957,19 @@
       <c r="F257" s="6">
         <v>10</v>
       </c>
-      <c r="G257" s="9">
-        <v>1</v>
-      </c>
-      <c r="H257" s="9">
+      <c r="G257" s="5">
+        <v>1</v>
+      </c>
+      <c r="H257" s="5">
         <v>20</v>
       </c>
-      <c r="I257" s="9">
+      <c r="I257" s="5">
         <v>100</v>
       </c>
-      <c r="J257" s="9" t="s">
+      <c r="J257" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K257" s="11" t="s">
+      <c r="K257" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8982,12 +8981,12 @@
         <v>278</v>
       </c>
       <c r="E258" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F258" s="6">
         <v>30</v>
       </c>
-      <c r="G258" s="9">
+      <c r="G258" s="5">
         <v>1</v>
       </c>
       <c r="H258" s="6">
@@ -8996,10 +8995,10 @@
       <c r="I258" s="6">
         <v>100</v>
       </c>
-      <c r="J258" s="9" t="s">
+      <c r="J258" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K258" s="11" t="s">
+      <c r="K258" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9007,16 +9006,16 @@
       <c r="C259" s="6">
         <v>8003</v>
       </c>
-      <c r="D259" s="10" t="s">
+      <c r="D259" s="9" t="s">
         <v>280</v>
       </c>
       <c r="E259" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F259" s="6">
         <v>50</v>
       </c>
-      <c r="G259" s="9">
+      <c r="G259" s="5">
         <v>1</v>
       </c>
       <c r="H259" s="6">
@@ -9025,10 +9024,10 @@
       <c r="I259" s="6">
         <v>10</v>
       </c>
-      <c r="J259" s="9" t="s">
+      <c r="J259" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K259" s="11" t="s">
+      <c r="K259" s="10" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9040,12 +9039,12 @@
         <v>282</v>
       </c>
       <c r="E260" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F260" s="6">
         <v>60</v>
       </c>
-      <c r="G260" s="9">
+      <c r="G260" s="5">
         <v>1</v>
       </c>
       <c r="H260" s="6">
@@ -9054,10 +9053,10 @@
       <c r="I260" s="6">
         <v>50</v>
       </c>
-      <c r="J260" s="9" t="s">
+      <c r="J260" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K260" s="11" t="s">
+      <c r="K260" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9069,12 +9068,12 @@
         <v>284</v>
       </c>
       <c r="E261" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F261" s="6">
         <v>70</v>
       </c>
-      <c r="G261" s="9">
+      <c r="G261" s="5">
         <v>1</v>
       </c>
       <c r="H261" s="6">
@@ -9083,10 +9082,10 @@
       <c r="I261" s="6">
         <v>30</v>
       </c>
-      <c r="J261" s="9" t="s">
+      <c r="J261" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K261" s="11" t="s">
+      <c r="K261" s="10" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9098,12 +9097,12 @@
         <v>286</v>
       </c>
       <c r="E262" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F262" s="6">
         <v>80</v>
       </c>
-      <c r="G262" s="9">
+      <c r="G262" s="5">
         <v>1</v>
       </c>
       <c r="H262" s="6">
@@ -9112,10 +9111,10 @@
       <c r="I262" s="6">
         <v>10</v>
       </c>
-      <c r="J262" s="9" t="s">
+      <c r="J262" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K262" s="11" t="s">
+      <c r="K262" s="10" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9127,7 +9126,7 @@
         <v>288</v>
       </c>
       <c r="E263" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F263" s="6">
         <v>100</v>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="331">
   <si>
     <t>#</t>
   </si>
@@ -155,69 +155,72 @@
     <t>暴击</t>
   </si>
   <si>
+    <t>支持7</t>
+  </si>
+  <si>
+    <t>套装-1</t>
+  </si>
+  <si>
+    <t>支持8</t>
+  </si>
+  <si>
+    <t>抗暴</t>
+  </si>
+  <si>
+    <t>支持9</t>
+  </si>
+  <si>
+    <t>爆伤减免</t>
+  </si>
+  <si>
+    <t>支持10</t>
+  </si>
+  <si>
+    <t>支持11</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>支持12</t>
+  </si>
+  <si>
+    <t>支持13</t>
+  </si>
+  <si>
+    <t>支持14</t>
+  </si>
+  <si>
+    <t>支持15</t>
+  </si>
+  <si>
+    <t>支持16</t>
+  </si>
+  <si>
+    <t>支持17</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>支持18</t>
+  </si>
+  <si>
+    <t>支持19</t>
+  </si>
+  <si>
+    <t>支持20</t>
+  </si>
+  <si>
+    <t>支持21</t>
+  </si>
+  <si>
+    <t>支持22</t>
+  </si>
+  <si>
     <t>支持23</t>
   </si>
   <si>
-    <t>套装-1</t>
-  </si>
-  <si>
-    <t>支持8</t>
-  </si>
-  <si>
-    <t>抗暴</t>
-  </si>
-  <si>
-    <t>支持9</t>
-  </si>
-  <si>
-    <t>爆伤减免</t>
-  </si>
-  <si>
-    <t>支持10</t>
-  </si>
-  <si>
-    <t>支持11</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>支持12</t>
-  </si>
-  <si>
-    <t>支持13</t>
-  </si>
-  <si>
-    <t>支持14</t>
-  </si>
-  <si>
-    <t>支持15</t>
-  </si>
-  <si>
-    <t>支持16</t>
-  </si>
-  <si>
-    <t>支持17</t>
-  </si>
-  <si>
-    <t>爆伤</t>
-  </si>
-  <si>
-    <t>支持18</t>
-  </si>
-  <si>
-    <t>支持19</t>
-  </si>
-  <si>
-    <t>支持20</t>
-  </si>
-  <si>
-    <t>支持21</t>
-  </si>
-  <si>
-    <t>支持22</t>
-  </si>
-  <si>
     <t>支持24</t>
   </si>
   <si>
@@ -404,6 +407,69 @@
     <t>支持84</t>
   </si>
   <si>
+    <t>支持85</t>
+  </si>
+  <si>
+    <t>支持86</t>
+  </si>
+  <si>
+    <t>支持87</t>
+  </si>
+  <si>
+    <t>支持88</t>
+  </si>
+  <si>
+    <t>支持89</t>
+  </si>
+  <si>
+    <t>支持90</t>
+  </si>
+  <si>
+    <t>支持91</t>
+  </si>
+  <si>
+    <t>支持92</t>
+  </si>
+  <si>
+    <t>支持93</t>
+  </si>
+  <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
+    <t>支持94</t>
+  </si>
+  <si>
+    <t>支持95</t>
+  </si>
+  <si>
+    <t>支持96</t>
+  </si>
+  <si>
+    <t>支持97</t>
+  </si>
+  <si>
+    <t>支持98</t>
+  </si>
+  <si>
+    <t>支持99</t>
+  </si>
+  <si>
+    <t>支持100</t>
+  </si>
+  <si>
+    <t>支持101</t>
+  </si>
+  <si>
+    <t>支持102</t>
+  </si>
+  <si>
+    <t>支持103</t>
+  </si>
+  <si>
+    <t>支持104</t>
+  </si>
+  <si>
     <t>发电1</t>
   </si>
   <si>
@@ -666,6 +732,66 @@
   </si>
   <si>
     <t>发电80</t>
+  </si>
+  <si>
+    <t>发电81</t>
+  </si>
+  <si>
+    <t>发电82</t>
+  </si>
+  <si>
+    <t>发电83</t>
+  </si>
+  <si>
+    <t>发电84</t>
+  </si>
+  <si>
+    <t>发电85</t>
+  </si>
+  <si>
+    <t>发电86</t>
+  </si>
+  <si>
+    <t>发电87</t>
+  </si>
+  <si>
+    <t>发电88</t>
+  </si>
+  <si>
+    <t>发电89</t>
+  </si>
+  <si>
+    <t>发电90</t>
+  </si>
+  <si>
+    <t>发电91</t>
+  </si>
+  <si>
+    <t>发电92</t>
+  </si>
+  <si>
+    <t>发电93</t>
+  </si>
+  <si>
+    <t>发电94</t>
+  </si>
+  <si>
+    <t>发电95</t>
+  </si>
+  <si>
+    <t>发电96</t>
+  </si>
+  <si>
+    <t>发电97</t>
+  </si>
+  <si>
+    <t>发电98</t>
+  </si>
+  <si>
+    <t>发电99</t>
+  </si>
+  <si>
+    <t>发电100</t>
   </si>
   <si>
     <t>强化1</t>
@@ -1128,12 +1254,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1944,10 +2070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K263"/>
+  <dimension ref="A2:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E268" sqref="E268"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2709,34 +2835,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C28" s="5">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C28" s="2">
         <v>1023</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>552</v>
       </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>19</v>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:11">
@@ -2744,7 +2870,7 @@
         <v>1024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2774,7 +2900,7 @@
         <v>1025</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -2804,7 +2930,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -2834,7 +2960,7 @@
         <v>1027</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -2864,7 +2990,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -2894,7 +3020,7 @@
         <v>1029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -2924,7 +3050,7 @@
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2954,7 +3080,7 @@
         <v>1031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -2984,7 +3110,7 @@
         <v>1032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -3014,7 +3140,7 @@
         <v>1033</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -3044,7 +3170,7 @@
         <v>1034</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -3074,7 +3200,7 @@
         <v>1035</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -3104,7 +3230,7 @@
         <v>1036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
@@ -3134,7 +3260,7 @@
         <v>1037</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
@@ -3164,7 +3290,7 @@
         <v>1038</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
@@ -3186,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -3194,7 +3320,7 @@
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -3224,7 +3350,7 @@
         <v>1040</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -3254,7 +3380,7 @@
         <v>1041</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
@@ -3284,7 +3410,7 @@
         <v>1042</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -3314,7 +3440,7 @@
         <v>1043</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
@@ -3344,7 +3470,7 @@
         <v>1044</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
@@ -3374,7 +3500,7 @@
         <v>1045</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -3404,7 +3530,7 @@
         <v>1046</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
@@ -3434,7 +3560,7 @@
         <v>1047</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -3456,7 +3582,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -3464,7 +3590,7 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -3494,7 +3620,7 @@
         <v>1049</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
@@ -3519,34 +3645,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C55" s="6">
+    <row r="55" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C55" s="5">
         <v>1050</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="D55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G55" s="2">
-        <v>5</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>17</v>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>15</v>
+      </c>
+      <c r="I55" s="5">
+        <v>5</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:11">
@@ -3554,7 +3680,7 @@
         <v>1051</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -3584,7 +3710,7 @@
         <v>1052</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
@@ -3614,7 +3740,7 @@
         <v>1053</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -3644,7 +3770,7 @@
         <v>1054</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
@@ -3674,7 +3800,7 @@
         <v>1055</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
@@ -3704,7 +3830,7 @@
         <v>1056</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
@@ -3726,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -3734,7 +3860,7 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E62" s="4">
         <v>1</v>
@@ -3764,7 +3890,7 @@
         <v>1058</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -3794,7 +3920,7 @@
         <v>1059</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
@@ -3824,7 +3950,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
@@ -3854,7 +3980,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -3884,7 +4010,7 @@
         <v>1062</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -3914,7 +4040,7 @@
         <v>1063</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" s="6">
         <v>1</v>
@@ -3944,7 +4070,7 @@
         <v>1064</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
@@ -3974,13 +4100,13 @@
         <v>1065</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="6">
         <v>1</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" ref="F70:F89" si="1">(C70-1000)*24</f>
+        <f t="shared" ref="F70:F107" si="1">(C70-1000)*24</f>
         <v>1560</v>
       </c>
       <c r="G70" s="6">
@@ -3996,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -4004,7 +4130,7 @@
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -4034,7 +4160,7 @@
         <v>1067</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="6">
         <v>1</v>
@@ -4064,7 +4190,7 @@
         <v>1068</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
@@ -4094,7 +4220,7 @@
         <v>1069</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
@@ -4124,7 +4250,7 @@
         <v>1070</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
@@ -4154,7 +4280,7 @@
         <v>1071</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
@@ -4184,7 +4310,7 @@
         <v>1072</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
@@ -4214,7 +4340,7 @@
         <v>1073</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
@@ -4244,7 +4370,7 @@
         <v>1074</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -4266,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -4274,7 +4400,7 @@
         <v>1075</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -4304,7 +4430,7 @@
         <v>1076</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
@@ -4334,7 +4460,7 @@
         <v>1077</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E82" s="6">
         <v>1</v>
@@ -4364,7 +4490,7 @@
         <v>1078</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -4394,7 +4520,7 @@
         <v>1079</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E84" s="6">
         <v>1</v>
@@ -4424,7 +4550,7 @@
         <v>1080</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
@@ -4454,7 +4580,7 @@
         <v>1081</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="6">
         <v>1</v>
@@ -4484,7 +4610,7 @@
         <v>1082</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
@@ -4514,7 +4640,7 @@
         <v>1083</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -4536,7 +4662,7 @@
         <v>14</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" customHeight="1" spans="3:11">
@@ -4544,7 +4670,7 @@
         <v>1084</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" s="4">
         <v>1</v>
@@ -4569,619 +4695,623 @@
         <v>33</v>
       </c>
     </row>
+    <row r="90" customHeight="1" spans="3:11">
+      <c r="C90" s="6">
+        <v>1085</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1</v>
+      </c>
+      <c r="H90" s="6">
+        <v>14</v>
+      </c>
+      <c r="I90" s="6">
+        <v>10</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:11">
+      <c r="C91" s="6">
+        <v>1086</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="6">
+        <v>15</v>
+      </c>
+      <c r="I91" s="6">
+        <v>10</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="92" customHeight="1" spans="3:11">
       <c r="C92" s="6">
-        <v>2001</v>
+        <v>1087</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E92" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" ref="F92:F155" si="2">(C92-2000)*12</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2088</v>
       </c>
       <c r="G92" s="6">
         <v>1</v>
       </c>
       <c r="H92" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I92" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:11">
       <c r="C93" s="6">
-        <v>2002</v>
+        <v>1088</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>2112</v>
+      </c>
+      <c r="G93" s="6">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6">
+        <v>8</v>
+      </c>
+      <c r="I93" s="6">
+        <v>2</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-      <c r="H93" s="6">
-        <v>15</v>
-      </c>
-      <c r="I93" s="6">
-        <v>3</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:11">
       <c r="C94" s="6">
-        <v>2003</v>
+        <v>1089</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>2136</v>
       </c>
       <c r="G94" s="6">
         <v>1</v>
       </c>
       <c r="H94" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I94" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:11">
       <c r="C95" s="6">
-        <v>2004</v>
+        <v>1090</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>2160</v>
       </c>
       <c r="G95" s="6">
         <v>1</v>
       </c>
       <c r="H95" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I95" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:11">
       <c r="C96" s="6">
-        <v>2005</v>
+        <v>1091</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E96" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>2184</v>
       </c>
       <c r="G96" s="6">
         <v>1</v>
       </c>
       <c r="H96" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I96" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:11">
       <c r="C97" s="6">
-        <v>2006</v>
+        <v>1092</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E97" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>2208</v>
       </c>
       <c r="G97" s="6">
         <v>1</v>
       </c>
       <c r="H97" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I97" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K97" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6">
+        <v>1093</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:11">
-      <c r="C98" s="6">
-        <v>2007</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="1"/>
+        <v>2232</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>13</v>
+      </c>
+      <c r="I98" s="6">
+        <v>2</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1</v>
-      </c>
-      <c r="H98" s="6">
-        <v>24</v>
-      </c>
-      <c r="I98" s="6">
-        <v>3</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K98" s="6" t="s">
+    </row>
+    <row r="99" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C99" s="4">
+        <v>1094</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:11">
-      <c r="C99" s="6">
-        <v>2008</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6">
-        <v>26</v>
-      </c>
-      <c r="I99" s="6">
-        <v>5</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>121</v>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" ref="F99:F109" si="2">(C99-1000)*24</f>
+        <v>2256</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>7</v>
+      </c>
+      <c r="I99" s="4">
+        <v>2</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="3:11">
       <c r="C100" s="6">
-        <v>2009</v>
+        <v>1095</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E100" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>2280</v>
       </c>
       <c r="G100" s="6">
         <v>1</v>
       </c>
       <c r="H100" s="6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I100" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C101" s="4">
-        <v>2010</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="4">
-        <v>2</v>
-      </c>
-      <c r="F101" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:11">
+      <c r="C101" s="6">
+        <v>1096</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101" s="4">
-        <v>28</v>
-      </c>
-      <c r="I101" s="4">
-        <v>5</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>125</v>
+        <v>2304</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6">
+        <v>15</v>
+      </c>
+      <c r="I101" s="6">
+        <v>10</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="3:11">
       <c r="C102" s="6">
-        <v>2011</v>
+        <v>1097</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E102" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>2328</v>
       </c>
       <c r="G102" s="6">
         <v>1</v>
       </c>
       <c r="H102" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I102" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="3:11">
       <c r="C103" s="6">
-        <v>2012</v>
+        <v>1098</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E103" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>2352</v>
       </c>
       <c r="G103" s="6">
         <v>1</v>
       </c>
       <c r="H103" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I103" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="3:11">
       <c r="C104" s="6">
-        <v>2013</v>
+        <v>1099</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E104" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>2376</v>
       </c>
       <c r="G104" s="6">
         <v>1</v>
       </c>
       <c r="H104" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I104" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="3:11">
       <c r="C105" s="6">
-        <v>2014</v>
+        <v>1100</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>2400</v>
       </c>
       <c r="G105" s="6">
         <v>1</v>
       </c>
       <c r="H105" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I105" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="3:11">
       <c r="C106" s="6">
-        <v>2015</v>
+        <v>1101</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E106" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>2424</v>
       </c>
       <c r="G106" s="6">
         <v>1</v>
       </c>
       <c r="H106" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I106" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="3:11">
       <c r="C107" s="6">
-        <v>2016</v>
+        <v>1102</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E107" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" s="6">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>2448</v>
       </c>
       <c r="G107" s="6">
         <v>1</v>
       </c>
       <c r="H107" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I107" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="3:11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="6">
-        <v>2017</v>
+        <v>1103</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E108" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" s="6">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>2472</v>
       </c>
       <c r="G108" s="6">
         <v>1</v>
       </c>
       <c r="H108" s="6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I108" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="3:11">
-      <c r="C109" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E109" s="6">
-        <v>2</v>
-      </c>
-      <c r="F109" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C109" s="4">
+        <v>1104</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4">
         <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H109" s="6">
-        <v>26</v>
-      </c>
-      <c r="I109" s="6">
-        <v>5</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="3:11">
-      <c r="C110" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E110" s="6">
-        <v>2</v>
-      </c>
-      <c r="F110" s="6">
-        <f t="shared" si="2"/>
-        <v>228</v>
-      </c>
-      <c r="G110" s="6">
-        <v>1</v>
-      </c>
-      <c r="H110" s="6">
-        <v>27</v>
-      </c>
-      <c r="I110" s="6">
-        <v>5</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C111" s="4">
-        <v>2020</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" s="4">
-        <v>2</v>
-      </c>
-      <c r="F111" s="4">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="G111" s="4">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4">
-        <v>28</v>
-      </c>
-      <c r="I111" s="4">
-        <v>5</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>125</v>
+        <v>2496</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4">
+        <v>7</v>
+      </c>
+      <c r="I109" s="4">
+        <v>2</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="3:11">
       <c r="C112" s="6">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E112" s="6">
         <v>2</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="2"/>
-        <v>252</v>
+        <f t="shared" ref="F112:F175" si="3">(C112-2000)*12</f>
+        <v>12</v>
       </c>
       <c r="G112" s="6">
         <v>1</v>
@@ -5193,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>15</v>
@@ -5201,17 +5331,17 @@
     </row>
     <row r="113" customHeight="1" spans="3:11">
       <c r="C113" s="6">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E113" s="6">
         <v>2</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="2"/>
-        <v>264</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="G113" s="6">
         <v>1</v>
@@ -5223,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>19</v>
@@ -5231,17 +5361,17 @@
     </row>
     <row r="114" customHeight="1" spans="3:11">
       <c r="C114" s="6">
-        <v>2023</v>
+        <v>2003</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E114" s="6">
         <v>2</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="2"/>
-        <v>276</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="G114" s="6">
         <v>1</v>
@@ -5253,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>21</v>
@@ -5261,17 +5391,17 @@
     </row>
     <row r="115" customHeight="1" spans="3:11">
       <c r="C115" s="6">
-        <v>2024</v>
+        <v>2004</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E115" s="6">
         <v>2</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="2"/>
-        <v>288</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="G115" s="6">
         <v>1</v>
@@ -5283,25 +5413,25 @@
         <v>3</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="3:11">
       <c r="C116" s="6">
-        <v>2025</v>
+        <v>2005</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E116" s="6">
         <v>2</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="G116" s="6">
         <v>1</v>
@@ -5313,25 +5443,25 @@
         <v>3</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:11">
       <c r="C117" s="6">
-        <v>2026</v>
+        <v>2006</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E117" s="6">
         <v>2</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="2"/>
-        <v>312</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="G117" s="6">
         <v>1</v>
@@ -5343,25 +5473,25 @@
         <v>3</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="3:11">
       <c r="C118" s="6">
-        <v>2027</v>
+        <v>2007</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E118" s="6">
         <v>2</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="2"/>
-        <v>324</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="G118" s="6">
         <v>1</v>
@@ -5373,25 +5503,25 @@
         <v>3</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:11">
       <c r="C119" s="6">
-        <v>2028</v>
+        <v>2008</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E119" s="6">
         <v>2</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>336</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
       <c r="G119" s="6">
         <v>1</v>
@@ -5403,15 +5533,15 @@
         <v>5</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="3:11">
       <c r="C120" s="6">
-        <v>2029</v>
+        <v>2009</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>144</v>
@@ -5420,8 +5550,8 @@
         <v>2</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="2"/>
-        <v>348</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
       <c r="G120" s="6">
         <v>1</v>
@@ -5433,25 +5563,25 @@
         <v>5</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C121" s="4">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E121" s="4">
         <v>2</v>
       </c>
       <c r="F121" s="4">
-        <f t="shared" si="2"/>
-        <v>360</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="G121" s="4">
         <v>1</v>
@@ -5463,25 +5593,25 @@
         <v>5</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="3:11">
       <c r="C122" s="6">
-        <v>2031</v>
+        <v>2011</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E122" s="6">
         <v>2</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="2"/>
-        <v>372</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="G122" s="6">
         <v>1</v>
@@ -5493,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>15</v>
@@ -5501,17 +5631,17 @@
     </row>
     <row r="123" customHeight="1" spans="3:11">
       <c r="C123" s="6">
-        <v>2032</v>
+        <v>2012</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E123" s="6">
         <v>2</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="2"/>
-        <v>384</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
       <c r="G123" s="6">
         <v>1</v>
@@ -5523,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>19</v>
@@ -5531,17 +5661,17 @@
     </row>
     <row r="124" customHeight="1" spans="3:11">
       <c r="C124" s="6">
-        <v>2033</v>
+        <v>2013</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="6">
         <v>2</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="2"/>
-        <v>396</v>
+        <f t="shared" si="3"/>
+        <v>156</v>
       </c>
       <c r="G124" s="6">
         <v>1</v>
@@ -5553,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>21</v>
@@ -5561,17 +5691,17 @@
     </row>
     <row r="125" customHeight="1" spans="3:11">
       <c r="C125" s="6">
-        <v>2034</v>
+        <v>2014</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E125" s="6">
         <v>2</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="2"/>
-        <v>408</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
       <c r="G125" s="6">
         <v>1</v>
@@ -5583,25 +5713,25 @@
         <v>3</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="3:11">
       <c r="C126" s="6">
-        <v>2035</v>
+        <v>2015</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="6">
         <v>2</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="2"/>
-        <v>420</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="G126" s="6">
         <v>1</v>
@@ -5613,25 +5743,25 @@
         <v>3</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="3:11">
       <c r="C127" s="6">
-        <v>2036</v>
+        <v>2016</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E127" s="6">
         <v>2</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="2"/>
-        <v>432</v>
+        <f t="shared" si="3"/>
+        <v>192</v>
       </c>
       <c r="G127" s="6">
         <v>1</v>
@@ -5643,25 +5773,25 @@
         <v>3</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="3:11">
       <c r="C128" s="6">
-        <v>2037</v>
+        <v>2017</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="6">
         <v>2</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="2"/>
-        <v>444</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="G128" s="6">
         <v>1</v>
@@ -5673,25 +5803,25 @@
         <v>3</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="3:11">
       <c r="C129" s="6">
-        <v>2038</v>
+        <v>2018</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E129" s="6">
         <v>2</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="2"/>
-        <v>456</v>
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
       <c r="G129" s="6">
         <v>1</v>
@@ -5703,25 +5833,25 @@
         <v>5</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="3:11">
       <c r="C130" s="6">
-        <v>2039</v>
+        <v>2019</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E130" s="6">
         <v>2</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="2"/>
-        <v>468</v>
+        <f t="shared" si="3"/>
+        <v>228</v>
       </c>
       <c r="G130" s="6">
         <v>1</v>
@@ -5733,25 +5863,25 @@
         <v>5</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C131" s="4">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E131" s="4">
         <v>2</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" si="2"/>
-        <v>480</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="G131" s="4">
         <v>1</v>
@@ -5763,25 +5893,25 @@
         <v>5</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="3:11">
       <c r="C132" s="6">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E132" s="6">
         <v>2</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="2"/>
-        <v>492</v>
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
       <c r="G132" s="6">
         <v>1</v>
@@ -5793,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>15</v>
@@ -5801,17 +5931,17 @@
     </row>
     <row r="133" customHeight="1" spans="3:11">
       <c r="C133" s="6">
-        <v>2042</v>
+        <v>2022</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="6">
         <v>2</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="2"/>
-        <v>504</v>
+        <f t="shared" si="3"/>
+        <v>264</v>
       </c>
       <c r="G133" s="6">
         <v>1</v>
@@ -5823,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>19</v>
@@ -5831,17 +5961,17 @@
     </row>
     <row r="134" customHeight="1" spans="3:11">
       <c r="C134" s="6">
-        <v>2043</v>
+        <v>2023</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E134" s="6">
         <v>2</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="2"/>
-        <v>516</v>
+        <f t="shared" si="3"/>
+        <v>276</v>
       </c>
       <c r="G134" s="6">
         <v>1</v>
@@ -5853,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>21</v>
@@ -5861,17 +5991,17 @@
     </row>
     <row r="135" customHeight="1" spans="3:11">
       <c r="C135" s="6">
-        <v>2044</v>
+        <v>2024</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E135" s="6">
         <v>2</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="2"/>
-        <v>528</v>
+        <f t="shared" si="3"/>
+        <v>288</v>
       </c>
       <c r="G135" s="6">
         <v>1</v>
@@ -5883,25 +6013,25 @@
         <v>3</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="3:11">
       <c r="C136" s="6">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E136" s="6">
         <v>2</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="G136" s="6">
         <v>1</v>
@@ -5913,25 +6043,25 @@
         <v>3</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="3:11">
       <c r="C137" s="6">
-        <v>2046</v>
+        <v>2026</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E137" s="6">
         <v>2</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="2"/>
-        <v>552</v>
+        <f t="shared" si="3"/>
+        <v>312</v>
       </c>
       <c r="G137" s="6">
         <v>1</v>
@@ -5943,25 +6073,25 @@
         <v>3</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="3:11">
       <c r="C138" s="6">
-        <v>2047</v>
+        <v>2027</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E138" s="6">
         <v>2</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="2"/>
-        <v>564</v>
+        <f t="shared" si="3"/>
+        <v>324</v>
       </c>
       <c r="G138" s="6">
         <v>1</v>
@@ -5973,25 +6103,25 @@
         <v>3</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="3:11">
       <c r="C139" s="6">
-        <v>2048</v>
+        <v>2028</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E139" s="6">
         <v>2</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" si="2"/>
-        <v>576</v>
+        <f t="shared" si="3"/>
+        <v>336</v>
       </c>
       <c r="G139" s="6">
         <v>1</v>
@@ -6003,25 +6133,25 @@
         <v>5</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="3:11">
       <c r="C140" s="6">
-        <v>2049</v>
+        <v>2029</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E140" s="6">
         <v>2</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="2"/>
-        <v>588</v>
+        <f t="shared" si="3"/>
+        <v>348</v>
       </c>
       <c r="G140" s="6">
         <v>1</v>
@@ -6033,25 +6163,25 @@
         <v>5</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C141" s="4">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E141" s="4">
         <v>2</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="3"/>
+        <v>360</v>
       </c>
       <c r="G141" s="4">
         <v>1</v>
@@ -6063,25 +6193,25 @@
         <v>5</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="3:11">
       <c r="C142" s="6">
-        <v>2051</v>
+        <v>2031</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E142" s="6">
         <v>2</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" si="2"/>
-        <v>612</v>
+        <f t="shared" si="3"/>
+        <v>372</v>
       </c>
       <c r="G142" s="6">
         <v>1</v>
@@ -6093,7 +6223,7 @@
         <v>3</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>15</v>
@@ -6101,17 +6231,17 @@
     </row>
     <row r="143" customHeight="1" spans="3:11">
       <c r="C143" s="6">
-        <v>2052</v>
+        <v>2032</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E143" s="6">
         <v>2</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" si="2"/>
-        <v>624</v>
+        <f t="shared" si="3"/>
+        <v>384</v>
       </c>
       <c r="G143" s="6">
         <v>1</v>
@@ -6123,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>19</v>
@@ -6131,17 +6261,17 @@
     </row>
     <row r="144" customHeight="1" spans="3:11">
       <c r="C144" s="6">
-        <v>2053</v>
+        <v>2033</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E144" s="6">
         <v>2</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" si="2"/>
-        <v>636</v>
+        <f t="shared" si="3"/>
+        <v>396</v>
       </c>
       <c r="G144" s="6">
         <v>1</v>
@@ -6153,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>21</v>
@@ -6161,17 +6291,17 @@
     </row>
     <row r="145" customHeight="1" spans="3:11">
       <c r="C145" s="6">
-        <v>2054</v>
+        <v>2034</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E145" s="6">
         <v>2</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" si="2"/>
-        <v>648</v>
+        <f t="shared" si="3"/>
+        <v>408</v>
       </c>
       <c r="G145" s="6">
         <v>1</v>
@@ -6183,25 +6313,25 @@
         <v>3</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="3:11">
       <c r="C146" s="6">
-        <v>2055</v>
+        <v>2035</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E146" s="6">
         <v>2</v>
       </c>
       <c r="F146" s="6">
-        <f t="shared" si="2"/>
-        <v>660</v>
+        <f t="shared" si="3"/>
+        <v>420</v>
       </c>
       <c r="G146" s="6">
         <v>1</v>
@@ -6213,25 +6343,25 @@
         <v>3</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="3:11">
       <c r="C147" s="6">
-        <v>2056</v>
+        <v>2036</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E147" s="6">
         <v>2</v>
       </c>
       <c r="F147" s="6">
-        <f t="shared" si="2"/>
-        <v>672</v>
+        <f t="shared" si="3"/>
+        <v>432</v>
       </c>
       <c r="G147" s="6">
         <v>1</v>
@@ -6243,25 +6373,25 @@
         <v>3</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="3:11">
       <c r="C148" s="6">
-        <v>2057</v>
+        <v>2037</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E148" s="6">
         <v>2</v>
       </c>
       <c r="F148" s="6">
-        <f t="shared" si="2"/>
-        <v>684</v>
+        <f t="shared" si="3"/>
+        <v>444</v>
       </c>
       <c r="G148" s="6">
         <v>1</v>
@@ -6273,25 +6403,25 @@
         <v>3</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="3:11">
       <c r="C149" s="6">
-        <v>2058</v>
+        <v>2038</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E149" s="6">
         <v>2</v>
       </c>
       <c r="F149" s="6">
-        <f t="shared" si="2"/>
-        <v>696</v>
+        <f t="shared" si="3"/>
+        <v>456</v>
       </c>
       <c r="G149" s="6">
         <v>1</v>
@@ -6303,25 +6433,25 @@
         <v>5</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="3:11">
       <c r="C150" s="6">
-        <v>2059</v>
+        <v>2039</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E150" s="6">
         <v>2</v>
       </c>
       <c r="F150" s="6">
-        <f t="shared" si="2"/>
-        <v>708</v>
+        <f t="shared" si="3"/>
+        <v>468</v>
       </c>
       <c r="G150" s="6">
         <v>1</v>
@@ -6333,25 +6463,25 @@
         <v>5</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C151" s="4">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E151" s="4">
         <v>2</v>
       </c>
       <c r="F151" s="4">
-        <f t="shared" si="2"/>
-        <v>720</v>
+        <f t="shared" si="3"/>
+        <v>480</v>
       </c>
       <c r="G151" s="4">
         <v>1</v>
@@ -6363,25 +6493,25 @@
         <v>5</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="3:11">
       <c r="C152" s="6">
-        <v>2061</v>
+        <v>2041</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E152" s="6">
         <v>2</v>
       </c>
       <c r="F152" s="6">
-        <f t="shared" si="2"/>
-        <v>732</v>
+        <f t="shared" si="3"/>
+        <v>492</v>
       </c>
       <c r="G152" s="6">
         <v>1</v>
@@ -6393,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>15</v>
@@ -6401,17 +6531,17 @@
     </row>
     <row r="153" customHeight="1" spans="3:11">
       <c r="C153" s="6">
-        <v>2062</v>
+        <v>2042</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E153" s="6">
         <v>2</v>
       </c>
       <c r="F153" s="6">
-        <f t="shared" si="2"/>
-        <v>744</v>
+        <f t="shared" si="3"/>
+        <v>504</v>
       </c>
       <c r="G153" s="6">
         <v>1</v>
@@ -6423,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K153" s="6" t="s">
         <v>19</v>
@@ -6431,17 +6561,17 @@
     </row>
     <row r="154" customHeight="1" spans="3:11">
       <c r="C154" s="6">
-        <v>2063</v>
+        <v>2043</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E154" s="6">
         <v>2</v>
       </c>
       <c r="F154" s="6">
-        <f t="shared" si="2"/>
-        <v>756</v>
+        <f t="shared" si="3"/>
+        <v>516</v>
       </c>
       <c r="G154" s="6">
         <v>1</v>
@@ -6453,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K154" s="6" t="s">
         <v>21</v>
@@ -6461,17 +6591,17 @@
     </row>
     <row r="155" customHeight="1" spans="3:11">
       <c r="C155" s="6">
-        <v>2064</v>
+        <v>2044</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E155" s="6">
         <v>2</v>
       </c>
       <c r="F155" s="6">
-        <f t="shared" si="2"/>
-        <v>768</v>
+        <f t="shared" si="3"/>
+        <v>528</v>
       </c>
       <c r="G155" s="6">
         <v>1</v>
@@ -6483,25 +6613,25 @@
         <v>3</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="3:11">
       <c r="C156" s="6">
-        <v>2065</v>
+        <v>2045</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E156" s="6">
         <v>2</v>
       </c>
       <c r="F156" s="6">
-        <f t="shared" ref="F156:F171" si="3">(C156-2000)*12</f>
-        <v>780</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
       </c>
       <c r="G156" s="6">
         <v>1</v>
@@ -6513,25 +6643,25 @@
         <v>3</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="3:11">
       <c r="C157" s="6">
-        <v>2066</v>
+        <v>2046</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E157" s="6">
         <v>2</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="3"/>
-        <v>792</v>
+        <v>552</v>
       </c>
       <c r="G157" s="6">
         <v>1</v>
@@ -6543,25 +6673,25 @@
         <v>3</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="3:11">
       <c r="C158" s="6">
-        <v>2067</v>
+        <v>2047</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E158" s="6">
         <v>2</v>
       </c>
       <c r="F158" s="6">
         <f t="shared" si="3"/>
-        <v>804</v>
+        <v>564</v>
       </c>
       <c r="G158" s="6">
         <v>1</v>
@@ -6573,25 +6703,25 @@
         <v>3</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="3:11">
       <c r="C159" s="6">
-        <v>2068</v>
+        <v>2048</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E159" s="6">
         <v>2</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="3"/>
-        <v>816</v>
+        <v>576</v>
       </c>
       <c r="G159" s="6">
         <v>1</v>
@@ -6603,25 +6733,25 @@
         <v>5</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="3:11">
       <c r="C160" s="6">
-        <v>2069</v>
+        <v>2049</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E160" s="6">
         <v>2</v>
       </c>
       <c r="F160" s="6">
         <f t="shared" si="3"/>
-        <v>828</v>
+        <v>588</v>
       </c>
       <c r="G160" s="6">
         <v>1</v>
@@ -6633,25 +6763,25 @@
         <v>5</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C161" s="4">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E161" s="4">
         <v>2</v>
       </c>
       <c r="F161" s="4">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="G161" s="4">
         <v>1</v>
@@ -6663,25 +6793,25 @@
         <v>5</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="3:11">
       <c r="C162" s="6">
-        <v>2071</v>
+        <v>2051</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E162" s="6">
         <v>2</v>
       </c>
       <c r="F162" s="6">
         <f t="shared" si="3"/>
-        <v>852</v>
+        <v>612</v>
       </c>
       <c r="G162" s="6">
         <v>1</v>
@@ -6693,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K162" s="6" t="s">
         <v>15</v>
@@ -6701,17 +6831,17 @@
     </row>
     <row r="163" customHeight="1" spans="3:11">
       <c r="C163" s="6">
-        <v>2072</v>
+        <v>2052</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E163" s="6">
         <v>2</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" si="3"/>
-        <v>864</v>
+        <v>624</v>
       </c>
       <c r="G163" s="6">
         <v>1</v>
@@ -6723,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K163" s="6" t="s">
         <v>19</v>
@@ -6731,17 +6861,17 @@
     </row>
     <row r="164" customHeight="1" spans="3:11">
       <c r="C164" s="6">
-        <v>2073</v>
+        <v>2053</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E164" s="6">
         <v>2</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="3"/>
-        <v>876</v>
+        <v>636</v>
       </c>
       <c r="G164" s="6">
         <v>1</v>
@@ -6753,7 +6883,7 @@
         <v>3</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K164" s="6" t="s">
         <v>21</v>
@@ -6761,17 +6891,17 @@
     </row>
     <row r="165" customHeight="1" spans="3:11">
       <c r="C165" s="6">
-        <v>2074</v>
+        <v>2054</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E165" s="6">
         <v>2</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>648</v>
       </c>
       <c r="G165" s="6">
         <v>1</v>
@@ -6783,25 +6913,25 @@
         <v>3</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="3:11">
       <c r="C166" s="6">
-        <v>2075</v>
+        <v>2055</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E166" s="6">
         <v>2</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="G166" s="6">
         <v>1</v>
@@ -6813,25 +6943,25 @@
         <v>3</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="3:11">
       <c r="C167" s="6">
-        <v>2076</v>
+        <v>2056</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E167" s="6">
         <v>2</v>
       </c>
       <c r="F167" s="6">
         <f t="shared" si="3"/>
-        <v>912</v>
+        <v>672</v>
       </c>
       <c r="G167" s="6">
         <v>1</v>
@@ -6843,25 +6973,25 @@
         <v>3</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="3:11">
       <c r="C168" s="6">
-        <v>2077</v>
+        <v>2057</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E168" s="6">
         <v>2</v>
       </c>
       <c r="F168" s="6">
         <f t="shared" si="3"/>
-        <v>924</v>
+        <v>684</v>
       </c>
       <c r="G168" s="6">
         <v>1</v>
@@ -6873,25 +7003,25 @@
         <v>3</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="3:11">
       <c r="C169" s="6">
-        <v>2078</v>
+        <v>2058</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E169" s="6">
         <v>2</v>
       </c>
       <c r="F169" s="6">
         <f t="shared" si="3"/>
-        <v>936</v>
+        <v>696</v>
       </c>
       <c r="G169" s="6">
         <v>1</v>
@@ -6903,25 +7033,25 @@
         <v>5</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="3:11">
       <c r="C170" s="6">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E170" s="6">
         <v>2</v>
       </c>
       <c r="F170" s="6">
         <f t="shared" si="3"/>
-        <v>948</v>
+        <v>708</v>
       </c>
       <c r="G170" s="6">
         <v>1</v>
@@ -6933,25 +7063,25 @@
         <v>5</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C171" s="4">
-        <v>2080</v>
+        <v>2060</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E171" s="4">
         <v>2</v>
       </c>
       <c r="F171" s="4">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="G171" s="4">
         <v>1</v>
@@ -6963,50 +7093,175 @@
         <v>5</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="3:10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="3:11">
+      <c r="C172" s="6">
+        <v>2061</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E172" s="6">
+        <v>2</v>
+      </c>
+      <c r="F172" s="6">
+        <f t="shared" si="3"/>
+        <v>732</v>
+      </c>
+      <c r="G172" s="6">
+        <v>1</v>
+      </c>
+      <c r="H172" s="6">
+        <v>14</v>
+      </c>
+      <c r="I172" s="6">
+        <v>3</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="3:11">
+      <c r="C173" s="6">
+        <v>2062</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" s="6">
+        <v>2</v>
+      </c>
+      <c r="F173" s="6">
+        <f t="shared" si="3"/>
+        <v>744</v>
+      </c>
+      <c r="G173" s="6">
+        <v>1</v>
+      </c>
+      <c r="H173" s="6">
+        <v>15</v>
+      </c>
+      <c r="I173" s="6">
+        <v>3</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="3:11">
+      <c r="C174" s="6">
+        <v>2063</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E174" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" s="6">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+      <c r="G174" s="6">
+        <v>1</v>
+      </c>
+      <c r="H174" s="6">
+        <v>16</v>
+      </c>
+      <c r="I174" s="6">
+        <v>3</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="3:11">
+      <c r="C175" s="6">
+        <v>2064</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E175" s="6">
+        <v>2</v>
+      </c>
+      <c r="F175" s="6">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="G175" s="6">
+        <v>1</v>
+      </c>
+      <c r="H175" s="6">
+        <v>18</v>
+      </c>
+      <c r="I175" s="6">
+        <v>3</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="3:11">
       <c r="C176" s="6">
-        <v>3001</v>
+        <v>2065</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E176" s="6">
+        <v>2</v>
+      </c>
+      <c r="F176" s="6">
+        <f t="shared" ref="F176:F211" si="4">(C176-2000)*12</f>
+        <v>780</v>
+      </c>
+      <c r="G176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H176" s="6">
+        <v>19</v>
+      </c>
+      <c r="I176" s="6">
         <v>3</v>
       </c>
-      <c r="F176" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G176" s="6">
-        <v>1</v>
-      </c>
-      <c r="H176" s="6">
-        <v>20</v>
-      </c>
-      <c r="I176" s="6">
-        <v>5</v>
-      </c>
       <c r="J176" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="3:11">
       <c r="C177" s="6">
-        <v>3002</v>
+        <v>2066</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E177" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" s="6">
-        <v>5000</v>
+        <f t="shared" si="4"/>
+        <v>792</v>
       </c>
       <c r="G177" s="6">
         <v>1</v>
@@ -7015,258 +7270,298 @@
         <v>20</v>
       </c>
       <c r="I177" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="3:11">
       <c r="C178" s="6">
-        <v>3003</v>
+        <v>2067</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E178" s="6">
+        <v>2</v>
+      </c>
+      <c r="F178" s="6">
+        <f t="shared" si="4"/>
+        <v>804</v>
+      </c>
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="6">
+        <v>24</v>
+      </c>
+      <c r="I178" s="6">
         <v>3</v>
       </c>
-      <c r="F178" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G178" s="6">
-        <v>1</v>
-      </c>
-      <c r="H178" s="6">
-        <v>20</v>
-      </c>
-      <c r="I178" s="6">
-        <v>5</v>
-      </c>
       <c r="J178" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="179" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="3:11">
       <c r="C179" s="6">
-        <v>3004</v>
+        <v>2068</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E179" s="6">
+        <v>2</v>
+      </c>
+      <c r="F179" s="6">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+      <c r="G179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H179" s="6">
+        <v>26</v>
+      </c>
+      <c r="I179" s="6">
+        <v>5</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="3:11">
+      <c r="C180" s="6">
+        <v>2069</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E180" s="6">
+        <v>2</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" si="4"/>
+        <v>828</v>
+      </c>
+      <c r="G180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H180" s="6">
+        <v>27</v>
+      </c>
+      <c r="I180" s="6">
+        <v>5</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C181" s="4">
+        <v>2070</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E181" s="4">
+        <v>2</v>
+      </c>
+      <c r="F181" s="4">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="G181" s="4">
+        <v>1</v>
+      </c>
+      <c r="H181" s="4">
+        <v>28</v>
+      </c>
+      <c r="I181" s="4">
+        <v>5</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="3:11">
+      <c r="C182" s="6">
+        <v>2071</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182" s="6">
+        <v>2</v>
+      </c>
+      <c r="F182" s="6">
+        <f t="shared" si="4"/>
+        <v>852</v>
+      </c>
+      <c r="G182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H182" s="6">
+        <v>14</v>
+      </c>
+      <c r="I182" s="6">
         <v>3</v>
       </c>
-      <c r="F179" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G179" s="6">
-        <v>1</v>
-      </c>
-      <c r="H179" s="6">
-        <v>20</v>
-      </c>
-      <c r="I179" s="6">
-        <v>5</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="3:10">
-      <c r="C180" s="6">
-        <v>3005</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E180" s="6">
+      <c r="J182" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K182" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="3:11">
+      <c r="C183" s="6">
+        <v>2072</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E183" s="6">
+        <v>2</v>
+      </c>
+      <c r="F183" s="6">
+        <f t="shared" si="4"/>
+        <v>864</v>
+      </c>
+      <c r="G183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H183" s="6">
+        <v>15</v>
+      </c>
+      <c r="I183" s="6">
         <v>3</v>
       </c>
-      <c r="F180" s="6">
-        <v>40000</v>
-      </c>
-      <c r="G180" s="6">
-        <v>1</v>
-      </c>
-      <c r="H180" s="6">
-        <v>20</v>
-      </c>
-      <c r="I180" s="6">
-        <v>5</v>
-      </c>
-      <c r="J180" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="181" customHeight="1" spans="3:10">
-      <c r="C181" s="6">
-        <v>3006</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E181" s="6">
+      <c r="J183" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="3:11">
+      <c r="C184" s="6">
+        <v>2073</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E184" s="6">
+        <v>2</v>
+      </c>
+      <c r="F184" s="6">
+        <f t="shared" si="4"/>
+        <v>876</v>
+      </c>
+      <c r="G184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H184" s="6">
+        <v>16</v>
+      </c>
+      <c r="I184" s="6">
         <v>3</v>
       </c>
-      <c r="F181" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G181" s="6">
-        <v>1</v>
-      </c>
-      <c r="H181" s="6">
-        <v>20</v>
-      </c>
-      <c r="I181" s="6">
-        <v>5</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="3:10">
-      <c r="C182" s="6">
-        <v>3007</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E182" s="6">
+      <c r="J184" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="3:11">
+      <c r="C185" s="6">
+        <v>2074</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" s="6">
+        <v>2</v>
+      </c>
+      <c r="F185" s="6">
+        <f t="shared" si="4"/>
+        <v>888</v>
+      </c>
+      <c r="G185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H185" s="6">
+        <v>18</v>
+      </c>
+      <c r="I185" s="6">
         <v>3</v>
       </c>
-      <c r="F182" s="6">
-        <v>80000</v>
-      </c>
-      <c r="G182" s="6">
-        <v>1</v>
-      </c>
-      <c r="H182" s="6">
-        <v>20</v>
-      </c>
-      <c r="I182" s="6">
-        <v>5</v>
-      </c>
-      <c r="J182" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" customHeight="1" spans="3:10">
-      <c r="C183" s="6">
-        <v>3008</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E183" s="6">
+      <c r="J185" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="3:11">
+      <c r="C186" s="6">
+        <v>2075</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" s="6">
+        <v>2</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="G186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H186" s="6">
+        <v>19</v>
+      </c>
+      <c r="I186" s="6">
         <v>3</v>
       </c>
-      <c r="F183" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G183" s="6">
-        <v>1</v>
-      </c>
-      <c r="H183" s="6">
-        <v>20</v>
-      </c>
-      <c r="I183" s="6">
-        <v>5</v>
-      </c>
-      <c r="J183" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="3:10">
-      <c r="C184" s="6">
-        <v>3009</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E184" s="6">
-        <v>3</v>
-      </c>
-      <c r="F184" s="6">
-        <v>120000</v>
-      </c>
-      <c r="G184" s="6">
-        <v>1</v>
-      </c>
-      <c r="H184" s="6">
-        <v>20</v>
-      </c>
-      <c r="I184" s="6">
-        <v>5</v>
-      </c>
-      <c r="J184" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" customHeight="1" spans="3:10">
-      <c r="C185" s="6">
-        <v>3010</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E185" s="6">
-        <v>3</v>
-      </c>
-      <c r="F185" s="6">
-        <v>140000</v>
-      </c>
-      <c r="G185" s="6">
-        <v>1</v>
-      </c>
-      <c r="H185" s="6">
-        <v>20</v>
-      </c>
-      <c r="I185" s="6">
-        <v>5</v>
-      </c>
-      <c r="J185" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="3:10">
-      <c r="C186" s="6">
-        <v>3011</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E186" s="6">
-        <v>3</v>
-      </c>
-      <c r="F186" s="6">
-        <v>160000</v>
-      </c>
-      <c r="G186" s="6">
-        <v>1</v>
-      </c>
-      <c r="H186" s="6">
-        <v>20</v>
-      </c>
-      <c r="I186" s="6">
-        <v>5</v>
-      </c>
       <c r="J186" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="3:11">
       <c r="C187" s="6">
-        <v>3012</v>
+        <v>2076</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E187" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F187" s="6">
-        <v>180000</v>
+        <f t="shared" si="4"/>
+        <v>912</v>
       </c>
       <c r="G187" s="6">
         <v>1</v>
@@ -7275,1170 +7570,1218 @@
         <v>20</v>
       </c>
       <c r="I187" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="3:11">
       <c r="C188" s="6">
-        <v>3013</v>
+        <v>2077</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E188" s="6">
+        <v>2</v>
+      </c>
+      <c r="F188" s="6">
+        <f t="shared" si="4"/>
+        <v>924</v>
+      </c>
+      <c r="G188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H188" s="6">
+        <v>24</v>
+      </c>
+      <c r="I188" s="6">
         <v>3</v>
       </c>
-      <c r="F188" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G188" s="6">
-        <v>1</v>
-      </c>
-      <c r="H188" s="6">
+      <c r="J188" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="3:11">
+      <c r="C189" s="6">
+        <v>2078</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E189" s="6">
+        <v>2</v>
+      </c>
+      <c r="F189" s="6">
+        <f t="shared" si="4"/>
+        <v>936</v>
+      </c>
+      <c r="G189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H189" s="6">
+        <v>26</v>
+      </c>
+      <c r="I189" s="6">
+        <v>5</v>
+      </c>
+      <c r="J189" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K189" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="3:11">
+      <c r="C190" s="6">
+        <v>2079</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" s="6">
+        <v>2</v>
+      </c>
+      <c r="F190" s="6">
+        <f t="shared" si="4"/>
+        <v>948</v>
+      </c>
+      <c r="G190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H190" s="6">
+        <v>27</v>
+      </c>
+      <c r="I190" s="6">
+        <v>5</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C191" s="4">
+        <v>2080</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E191" s="4">
+        <v>2</v>
+      </c>
+      <c r="F191" s="4">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1</v>
+      </c>
+      <c r="H191" s="4">
+        <v>28</v>
+      </c>
+      <c r="I191" s="4">
+        <v>5</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="3:11">
+      <c r="C192" s="6">
+        <v>2081</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" s="6">
+        <v>2</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="4"/>
+        <v>972</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6">
+        <v>14</v>
+      </c>
+      <c r="I192" s="6">
+        <v>10</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="3:11">
+      <c r="C193" s="6">
+        <v>2082</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E193" s="6">
+        <v>2</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="4"/>
+        <v>984</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6">
+        <v>15</v>
+      </c>
+      <c r="I193" s="6">
+        <v>10</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K193" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="3:11">
+      <c r="C194" s="6">
+        <v>2083</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E194" s="6">
+        <v>2</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="4"/>
+        <v>996</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H194" s="6">
+        <v>16</v>
+      </c>
+      <c r="I194" s="6">
+        <v>10</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="3:11">
+      <c r="C195" s="6">
+        <v>2084</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" s="6">
+        <v>2</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="4"/>
+        <v>1008</v>
+      </c>
+      <c r="G195" s="6">
+        <v>1</v>
+      </c>
+      <c r="H195" s="6">
+        <v>18</v>
+      </c>
+      <c r="I195" s="6">
+        <v>5</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="3:11">
+      <c r="C196" s="6">
+        <v>2085</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E196" s="6">
+        <v>2</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="4"/>
+        <v>1020</v>
+      </c>
+      <c r="G196" s="6">
+        <v>1</v>
+      </c>
+      <c r="H196" s="6">
+        <v>19</v>
+      </c>
+      <c r="I196" s="6">
+        <v>5</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K196" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="3:11">
+      <c r="C197" s="6">
+        <v>2086</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E197" s="6">
+        <v>2</v>
+      </c>
+      <c r="F197" s="6">
+        <f t="shared" si="4"/>
+        <v>1032</v>
+      </c>
+      <c r="G197" s="6">
+        <v>1</v>
+      </c>
+      <c r="H197" s="6">
         <v>20</v>
       </c>
-      <c r="I188" s="6">
-        <v>5</v>
-      </c>
-      <c r="J188" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="3:10">
-      <c r="C189" s="6">
-        <v>3014</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E189" s="6">
-        <v>3</v>
-      </c>
-      <c r="F189" s="6">
-        <v>220000</v>
-      </c>
-      <c r="G189" s="6">
-        <v>1</v>
-      </c>
-      <c r="H189" s="6">
+      <c r="I197" s="6">
+        <v>5</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="3:11">
+      <c r="C198" s="6">
+        <v>2087</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" s="6">
+        <v>2</v>
+      </c>
+      <c r="F198" s="6">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H198" s="6">
+        <v>24</v>
+      </c>
+      <c r="I198" s="6">
+        <v>5</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="3:11">
+      <c r="C199" s="6">
+        <v>2088</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" s="6">
+        <v>2</v>
+      </c>
+      <c r="F199" s="6">
+        <f t="shared" si="4"/>
+        <v>1056</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
+      <c r="H199" s="6">
+        <v>26</v>
+      </c>
+      <c r="I199" s="6">
+        <v>10</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="3:11">
+      <c r="C200" s="6">
+        <v>2089</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" s="6">
+        <v>2</v>
+      </c>
+      <c r="F200" s="6">
+        <f t="shared" si="4"/>
+        <v>1068</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1</v>
+      </c>
+      <c r="H200" s="6">
+        <v>27</v>
+      </c>
+      <c r="I200" s="6">
+        <v>10</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="201" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C201" s="4">
+        <v>2090</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E201" s="4">
+        <v>2</v>
+      </c>
+      <c r="F201" s="4">
+        <f t="shared" si="4"/>
+        <v>1080</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1</v>
+      </c>
+      <c r="H201" s="4">
+        <v>28</v>
+      </c>
+      <c r="I201" s="4">
+        <v>10</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="3:11">
+      <c r="C202" s="6">
+        <v>2091</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E202" s="6">
+        <v>2</v>
+      </c>
+      <c r="F202" s="6">
+        <f t="shared" si="4"/>
+        <v>1092</v>
+      </c>
+      <c r="G202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H202" s="6">
+        <v>14</v>
+      </c>
+      <c r="I202" s="6">
+        <v>10</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K202" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="3:11">
+      <c r="C203" s="6">
+        <v>2092</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E203" s="6">
+        <v>2</v>
+      </c>
+      <c r="F203" s="6">
+        <f t="shared" si="4"/>
+        <v>1104</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H203" s="6">
+        <v>15</v>
+      </c>
+      <c r="I203" s="6">
+        <v>10</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="3:11">
+      <c r="C204" s="6">
+        <v>2093</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E204" s="6">
+        <v>2</v>
+      </c>
+      <c r="F204" s="6">
+        <f t="shared" si="4"/>
+        <v>1116</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1</v>
+      </c>
+      <c r="H204" s="6">
+        <v>16</v>
+      </c>
+      <c r="I204" s="6">
+        <v>10</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="3:11">
+      <c r="C205" s="6">
+        <v>2094</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E205" s="6">
+        <v>2</v>
+      </c>
+      <c r="F205" s="6">
+        <f t="shared" si="4"/>
+        <v>1128</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1</v>
+      </c>
+      <c r="H205" s="6">
+        <v>18</v>
+      </c>
+      <c r="I205" s="6">
+        <v>5</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K205" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="3:11">
+      <c r="C206" s="6">
+        <v>2095</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E206" s="6">
+        <v>2</v>
+      </c>
+      <c r="F206" s="6">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="G206" s="6">
+        <v>1</v>
+      </c>
+      <c r="H206" s="6">
+        <v>19</v>
+      </c>
+      <c r="I206" s="6">
+        <v>5</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K206" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="3:11">
+      <c r="C207" s="6">
+        <v>2096</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E207" s="6">
+        <v>2</v>
+      </c>
+      <c r="F207" s="6">
+        <f t="shared" si="4"/>
+        <v>1152</v>
+      </c>
+      <c r="G207" s="6">
+        <v>1</v>
+      </c>
+      <c r="H207" s="6">
         <v>20</v>
       </c>
-      <c r="I189" s="6">
-        <v>5</v>
-      </c>
-      <c r="J189" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" customHeight="1" spans="3:10">
-      <c r="C190" s="6">
-        <v>3015</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E190" s="6">
-        <v>3</v>
-      </c>
-      <c r="F190" s="6">
-        <v>240000</v>
-      </c>
-      <c r="G190" s="6">
-        <v>1</v>
-      </c>
-      <c r="H190" s="6">
-        <v>20</v>
-      </c>
-      <c r="I190" s="6">
-        <v>5</v>
-      </c>
-      <c r="J190" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" customHeight="1" spans="3:10">
-      <c r="C191" s="6">
-        <v>3016</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E191" s="6">
-        <v>3</v>
-      </c>
-      <c r="F191" s="6">
-        <v>260000</v>
-      </c>
-      <c r="G191" s="6">
-        <v>1</v>
-      </c>
-      <c r="H191" s="6">
-        <v>20</v>
-      </c>
-      <c r="I191" s="6">
-        <v>5</v>
-      </c>
-      <c r="J191" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" customHeight="1" spans="3:10">
-      <c r="C192" s="6">
-        <v>3017</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E192" s="6">
-        <v>3</v>
-      </c>
-      <c r="F192" s="6">
-        <v>280000</v>
-      </c>
-      <c r="G192" s="6">
-        <v>1</v>
-      </c>
-      <c r="H192" s="6">
-        <v>20</v>
-      </c>
-      <c r="I192" s="6">
-        <v>5</v>
-      </c>
-      <c r="J192" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="193" customHeight="1" spans="3:10">
-      <c r="C193" s="6">
-        <v>3018</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E193" s="6">
-        <v>3</v>
-      </c>
-      <c r="F193" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G193" s="6">
-        <v>1</v>
-      </c>
-      <c r="H193" s="6">
-        <v>20</v>
-      </c>
-      <c r="I193" s="6">
-        <v>5</v>
-      </c>
-      <c r="J193" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" customHeight="1" spans="3:10">
-      <c r="C196" s="6">
-        <v>4001</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E196" s="6">
-        <v>4</v>
-      </c>
-      <c r="F196" s="6">
-        <v>100</v>
-      </c>
-      <c r="G196" s="6">
-        <v>3</v>
-      </c>
-      <c r="H196" s="6">
-        <v>0</v>
-      </c>
-      <c r="I196" s="6">
-        <v>1</v>
-      </c>
-      <c r="J196" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="3:10">
-      <c r="C197" s="6">
-        <v>4002</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E197" s="6">
-        <v>4</v>
-      </c>
-      <c r="F197" s="6">
-        <v>200</v>
-      </c>
-      <c r="G197" s="6">
-        <v>3</v>
-      </c>
-      <c r="H197" s="6">
-        <v>0</v>
-      </c>
-      <c r="I197" s="6">
-        <v>1</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="198" customHeight="1" spans="3:10">
-      <c r="C198" s="6">
-        <v>4003</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E198" s="6">
-        <v>4</v>
-      </c>
-      <c r="F198" s="6">
-        <v>300</v>
-      </c>
-      <c r="G198" s="6">
-        <v>3</v>
-      </c>
-      <c r="H198" s="6">
-        <v>0</v>
-      </c>
-      <c r="I198" s="6">
-        <v>1</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" customHeight="1" spans="3:10">
-      <c r="C199" s="6">
-        <v>4004</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E199" s="6">
-        <v>4</v>
-      </c>
-      <c r="F199" s="6">
-        <v>400</v>
-      </c>
-      <c r="G199" s="6">
-        <v>3</v>
-      </c>
-      <c r="H199" s="6">
-        <v>0</v>
-      </c>
-      <c r="I199" s="6">
-        <v>1</v>
-      </c>
-      <c r="J199" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" customHeight="1" spans="3:10">
-      <c r="C200" s="6">
-        <v>4005</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E200" s="6">
-        <v>4</v>
-      </c>
-      <c r="F200" s="6">
-        <v>500</v>
-      </c>
-      <c r="G200" s="6">
-        <v>3</v>
-      </c>
-      <c r="H200" s="6">
-        <v>0</v>
-      </c>
-      <c r="I200" s="6">
-        <v>1</v>
-      </c>
-      <c r="J200" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" customHeight="1" spans="3:10">
-      <c r="C201" s="6">
-        <v>4006</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E201" s="6">
-        <v>4</v>
-      </c>
-      <c r="F201" s="6">
-        <v>700</v>
-      </c>
-      <c r="G201" s="6">
-        <v>3</v>
-      </c>
-      <c r="H201" s="6">
-        <v>0</v>
-      </c>
-      <c r="I201" s="6">
-        <v>1</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="202" customHeight="1" spans="3:10">
-      <c r="C202" s="6">
-        <v>4007</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E202" s="6">
-        <v>4</v>
-      </c>
-      <c r="F202" s="6">
-        <v>900</v>
-      </c>
-      <c r="G202" s="6">
-        <v>3</v>
-      </c>
-      <c r="H202" s="6">
-        <v>0</v>
-      </c>
-      <c r="I202" s="6">
-        <v>1</v>
-      </c>
-      <c r="J202" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="203" customHeight="1" spans="3:10">
-      <c r="C203" s="6">
-        <v>4008</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E203" s="6">
-        <v>4</v>
-      </c>
-      <c r="F203" s="6">
-        <v>1100</v>
-      </c>
-      <c r="G203" s="6">
-        <v>3</v>
-      </c>
-      <c r="H203" s="6">
-        <v>0</v>
-      </c>
-      <c r="I203" s="6">
-        <v>1</v>
-      </c>
-      <c r="J203" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" customHeight="1" spans="3:10">
-      <c r="C204" s="6">
-        <v>4009</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E204" s="6">
-        <v>4</v>
-      </c>
-      <c r="F204" s="6">
-        <v>1300</v>
-      </c>
-      <c r="G204" s="6">
-        <v>3</v>
-      </c>
-      <c r="H204" s="6">
-        <v>0</v>
-      </c>
-      <c r="I204" s="6">
-        <v>1</v>
-      </c>
-      <c r="J204" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="3:10">
-      <c r="C205" s="6">
-        <v>4010</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E205" s="6">
-        <v>4</v>
-      </c>
-      <c r="F205" s="6">
-        <v>1500</v>
-      </c>
-      <c r="G205" s="6">
-        <v>3</v>
-      </c>
-      <c r="H205" s="6">
-        <v>0</v>
-      </c>
-      <c r="I205" s="6">
-        <v>1</v>
-      </c>
-      <c r="J205" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="206" customHeight="1" spans="3:10">
-      <c r="C206" s="6">
-        <v>4011</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E206" s="6">
-        <v>4</v>
-      </c>
-      <c r="F206" s="6">
-        <v>1750</v>
-      </c>
-      <c r="G206" s="6">
-        <v>3</v>
-      </c>
-      <c r="H206" s="6">
-        <v>0</v>
-      </c>
-      <c r="I206" s="6">
-        <v>1</v>
-      </c>
-      <c r="J206" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="207" customHeight="1" spans="3:10">
-      <c r="C207" s="6">
-        <v>4012</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E207" s="6">
-        <v>4</v>
-      </c>
-      <c r="F207" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G207" s="6">
-        <v>3</v>
-      </c>
-      <c r="H207" s="6">
-        <v>0</v>
-      </c>
       <c r="I207" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="210" customHeight="1" spans="3:10">
+        <v>131</v>
+      </c>
+      <c r="K207" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="3:11">
+      <c r="C208" s="6">
+        <v>2097</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E208" s="6">
+        <v>2</v>
+      </c>
+      <c r="F208" s="6">
+        <f t="shared" si="4"/>
+        <v>1164</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1</v>
+      </c>
+      <c r="H208" s="6">
+        <v>24</v>
+      </c>
+      <c r="I208" s="6">
+        <v>5</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K208" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="3:11">
+      <c r="C209" s="6">
+        <v>2098</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E209" s="6">
+        <v>2</v>
+      </c>
+      <c r="F209" s="6">
+        <f t="shared" si="4"/>
+        <v>1176</v>
+      </c>
+      <c r="G209" s="6">
+        <v>1</v>
+      </c>
+      <c r="H209" s="6">
+        <v>26</v>
+      </c>
+      <c r="I209" s="6">
+        <v>10</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="3:11">
       <c r="C210" s="6">
-        <v>5001</v>
+        <v>2099</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E210" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F210" s="6">
-        <f t="shared" ref="F210:F234" si="4">(C210-5000)*1000</f>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1188</v>
       </c>
       <c r="G210" s="6">
         <v>1</v>
       </c>
       <c r="H210" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I210" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="211" customHeight="1" spans="3:10">
-      <c r="C211" s="6">
-        <v>5002</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E211" s="6">
-        <v>5</v>
-      </c>
-      <c r="F211" s="6">
+        <v>131</v>
+      </c>
+      <c r="K210" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C211" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E211" s="4">
+        <v>2</v>
+      </c>
+      <c r="F211" s="4">
         <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="G211" s="6">
-        <v>1</v>
-      </c>
-      <c r="H211" s="6">
-        <v>18</v>
-      </c>
-      <c r="I211" s="6">
-        <v>5</v>
-      </c>
-      <c r="J211" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" customHeight="1" spans="3:10">
-      <c r="C212" s="6">
-        <v>5003</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E212" s="6">
-        <v>5</v>
-      </c>
-      <c r="F212" s="6">
-        <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="G212" s="6">
-        <v>1</v>
-      </c>
-      <c r="H212" s="6">
-        <v>18</v>
-      </c>
-      <c r="I212" s="6">
-        <v>5</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" customHeight="1" spans="3:10">
-      <c r="C213" s="6">
-        <v>5004</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E213" s="6">
-        <v>5</v>
-      </c>
-      <c r="F213" s="6">
-        <f t="shared" si="4"/>
-        <v>4000</v>
-      </c>
-      <c r="G213" s="6">
-        <v>1</v>
-      </c>
-      <c r="H213" s="6">
-        <v>18</v>
-      </c>
-      <c r="I213" s="6">
-        <v>5</v>
-      </c>
-      <c r="J213" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="214" customHeight="1" spans="3:10">
-      <c r="C214" s="6">
-        <v>5005</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E214" s="6">
-        <v>5</v>
-      </c>
-      <c r="F214" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G214" s="6">
-        <v>1</v>
-      </c>
-      <c r="H214" s="6">
-        <v>18</v>
-      </c>
-      <c r="I214" s="6">
-        <v>5</v>
-      </c>
-      <c r="J214" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="215" customHeight="1" spans="3:10">
-      <c r="C215" s="6">
-        <v>5006</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E215" s="6">
-        <v>5</v>
-      </c>
-      <c r="F215" s="6">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="G215" s="6">
-        <v>1</v>
-      </c>
-      <c r="H215" s="6">
-        <v>18</v>
-      </c>
-      <c r="I215" s="6">
-        <v>5</v>
-      </c>
-      <c r="J215" s="6" t="s">
-        <v>229</v>
+        <v>1200</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1</v>
+      </c>
+      <c r="H211" s="4">
+        <v>28</v>
+      </c>
+      <c r="I211" s="4">
+        <v>10</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="3:10">
       <c r="C216" s="6">
-        <v>5007</v>
+        <v>3001</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E216" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F216" s="6">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="G216" s="6">
         <v>1</v>
       </c>
       <c r="H216" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I216" s="6">
         <v>5</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" customHeight="1" spans="3:10">
       <c r="C217" s="6">
-        <v>5008</v>
+        <v>3002</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E217" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F217" s="6">
-        <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G217" s="6">
         <v>1</v>
       </c>
       <c r="H217" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I217" s="6">
         <v>5</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="3:10">
       <c r="C218" s="6">
-        <v>5009</v>
+        <v>3003</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E218" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F218" s="6">
-        <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G218" s="6">
         <v>1</v>
       </c>
       <c r="H218" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I218" s="6">
         <v>5</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="3:10">
       <c r="C219" s="6">
-        <v>5010</v>
+        <v>3004</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E219" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F219" s="6">
-        <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G219" s="6">
         <v>1</v>
       </c>
       <c r="H219" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I219" s="6">
         <v>5</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="3:10">
       <c r="C220" s="6">
-        <v>5011</v>
+        <v>3005</v>
       </c>
       <c r="D220" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E220" s="6">
+        <v>3</v>
+      </c>
+      <c r="F220" s="6">
+        <v>40000</v>
+      </c>
+      <c r="G220" s="6">
+        <v>1</v>
+      </c>
+      <c r="H220" s="6">
+        <v>20</v>
+      </c>
+      <c r="I220" s="6">
+        <v>5</v>
+      </c>
+      <c r="J220" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="E220" s="6">
-        <v>5</v>
-      </c>
-      <c r="F220" s="6">
-        <f t="shared" si="4"/>
-        <v>11000</v>
-      </c>
-      <c r="G220" s="6">
-        <v>1</v>
-      </c>
-      <c r="H220" s="6">
-        <v>18</v>
-      </c>
-      <c r="I220" s="6">
-        <v>5</v>
-      </c>
-      <c r="J220" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="221" customHeight="1" spans="3:10">
       <c r="C221" s="6">
-        <v>5012</v>
+        <v>3006</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E221" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F221" s="6">
-        <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="G221" s="6">
         <v>1</v>
       </c>
       <c r="H221" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I221" s="6">
         <v>5</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="3:10">
       <c r="C222" s="6">
-        <v>5013</v>
+        <v>3007</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E222" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F222" s="6">
-        <f t="shared" si="4"/>
-        <v>13000</v>
+        <v>80000</v>
       </c>
       <c r="G222" s="6">
         <v>1</v>
       </c>
       <c r="H222" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I222" s="6">
         <v>5</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="3:10">
       <c r="C223" s="6">
-        <v>5014</v>
+        <v>3008</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E223" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F223" s="6">
-        <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>100000</v>
       </c>
       <c r="G223" s="6">
         <v>1</v>
       </c>
       <c r="H223" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I223" s="6">
         <v>5</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="3:10">
       <c r="C224" s="6">
-        <v>5015</v>
+        <v>3009</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E224" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F224" s="6">
-        <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="G224" s="6">
         <v>1</v>
       </c>
       <c r="H224" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I224" s="6">
         <v>5</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="3:10">
       <c r="C225" s="6">
-        <v>5016</v>
+        <v>3010</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E225" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F225" s="6">
-        <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>140000</v>
       </c>
       <c r="G225" s="6">
         <v>1</v>
       </c>
       <c r="H225" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I225" s="6">
         <v>5</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="3:10">
       <c r="C226" s="6">
-        <v>5017</v>
+        <v>3011</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E226" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F226" s="6">
-        <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>160000</v>
       </c>
       <c r="G226" s="6">
         <v>1</v>
       </c>
       <c r="H226" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I226" s="6">
         <v>5</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="3:10">
       <c r="C227" s="6">
-        <v>5018</v>
+        <v>3012</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E227" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F227" s="6">
-        <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="G227" s="6">
         <v>1</v>
       </c>
       <c r="H227" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I227" s="6">
         <v>5</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="3:10">
       <c r="C228" s="6">
-        <v>5019</v>
+        <v>3013</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E228" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F228" s="6">
-        <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>200000</v>
       </c>
       <c r="G228" s="6">
         <v>1</v>
       </c>
       <c r="H228" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I228" s="6">
         <v>5</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="3:10">
       <c r="C229" s="6">
-        <v>5020</v>
+        <v>3014</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E229" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F229" s="6">
-        <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="G229" s="6">
         <v>1</v>
       </c>
       <c r="H229" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I229" s="6">
         <v>5</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="3:10">
       <c r="C230" s="6">
-        <v>5021</v>
+        <v>3015</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E230" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F230" s="6">
-        <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>240000</v>
       </c>
       <c r="G230" s="6">
         <v>1</v>
       </c>
       <c r="H230" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I230" s="6">
         <v>5</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="3:10">
       <c r="C231" s="6">
-        <v>5022</v>
+        <v>3016</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E231" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F231" s="6">
-        <f t="shared" si="4"/>
-        <v>22000</v>
+        <v>260000</v>
       </c>
       <c r="G231" s="6">
         <v>1</v>
       </c>
       <c r="H231" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I231" s="6">
         <v>5</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="3:10">
       <c r="C232" s="6">
-        <v>5023</v>
+        <v>3017</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E232" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F232" s="6">
-        <f t="shared" si="4"/>
-        <v>23000</v>
+        <v>280000</v>
       </c>
       <c r="G232" s="6">
         <v>1</v>
       </c>
       <c r="H232" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I232" s="6">
         <v>5</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="3:10">
       <c r="C233" s="6">
-        <v>5024</v>
+        <v>3018</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E233" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F233" s="6">
-        <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>300000</v>
       </c>
       <c r="G233" s="6">
         <v>1</v>
       </c>
       <c r="H233" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I233" s="6">
         <v>5</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="234" customHeight="1" spans="3:10">
-      <c r="C234" s="6">
-        <v>5025</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E234" s="6">
-        <v>5</v>
-      </c>
-      <c r="F234" s="6">
-        <f t="shared" si="4"/>
-        <v>25000</v>
-      </c>
-      <c r="G234" s="6">
-        <v>1</v>
-      </c>
-      <c r="H234" s="6">
-        <v>18</v>
-      </c>
-      <c r="I234" s="6">
-        <v>5</v>
-      </c>
-      <c r="J234" s="6" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="3:10">
       <c r="C236" s="6">
-        <v>6001</v>
+        <v>4001</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E236" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F236" s="6">
         <v>100</v>
       </c>
       <c r="G236" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H236" s="6">
         <v>0</v>
@@ -8447,24 +8790,24 @@
         <v>1</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="3:10">
       <c r="C237" s="6">
-        <v>6002</v>
+        <v>4002</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E237" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F237" s="6">
         <v>200</v>
       </c>
       <c r="G237" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H237" s="6">
         <v>0</v>
@@ -8473,24 +8816,24 @@
         <v>1</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="3:10">
       <c r="C238" s="6">
-        <v>6003</v>
+        <v>4003</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E238" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F238" s="6">
         <v>300</v>
       </c>
       <c r="G238" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H238" s="6">
         <v>0</v>
@@ -8499,24 +8842,24 @@
         <v>1</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="3:10">
       <c r="C239" s="6">
-        <v>6004</v>
+        <v>4004</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E239" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F239" s="6">
         <v>400</v>
       </c>
       <c r="G239" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H239" s="6">
         <v>0</v>
@@ -8525,24 +8868,24 @@
         <v>1</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="3:10">
       <c r="C240" s="6">
-        <v>6005</v>
+        <v>4005</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E240" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F240" s="6">
         <v>500</v>
       </c>
       <c r="G240" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H240" s="6">
         <v>0</v>
@@ -8551,24 +8894,24 @@
         <v>1</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="3:10">
       <c r="C241" s="6">
-        <v>6006</v>
+        <v>4006</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E241" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F241" s="6">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G241" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H241" s="6">
         <v>0</v>
@@ -8577,24 +8920,24 @@
         <v>1</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="3:10">
       <c r="C242" s="6">
-        <v>6007</v>
+        <v>4007</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E242" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F242" s="6">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G242" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H242" s="6">
         <v>0</v>
@@ -8603,24 +8946,24 @@
         <v>1</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="3:10">
       <c r="C243" s="6">
-        <v>6008</v>
+        <v>4008</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E243" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F243" s="6">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G243" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H243" s="6">
         <v>0</v>
@@ -8629,24 +8972,24 @@
         <v>1</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="3:10">
       <c r="C244" s="6">
-        <v>6009</v>
+        <v>4009</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E244" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F244" s="6">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G244" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H244" s="6">
         <v>0</v>
@@ -8655,24 +8998,24 @@
         <v>1</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="3:10">
       <c r="C245" s="6">
-        <v>6010</v>
+        <v>4010</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E245" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F245" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G245" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H245" s="6">
         <v>0</v>
@@ -8681,24 +9024,24 @@
         <v>1</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="3:10">
       <c r="C246" s="6">
-        <v>6011</v>
+        <v>4011</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E246" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F246" s="6">
-        <v>1100</v>
+        <v>1750</v>
       </c>
       <c r="G246" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H246" s="6">
         <v>0</v>
@@ -8707,24 +9050,24 @@
         <v>1</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="3:10">
       <c r="C247" s="6">
-        <v>6012</v>
+        <v>4012</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E247" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F247" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G247" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H247" s="6">
         <v>0</v>
@@ -8733,417 +9076,1404 @@
         <v>1</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="248" customHeight="1" spans="3:10">
-      <c r="C248" s="6">
-        <v>6013</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E248" s="6">
-        <v>6</v>
-      </c>
-      <c r="F248" s="6">
-        <v>1300</v>
-      </c>
-      <c r="G248" s="6">
-        <v>4</v>
-      </c>
-      <c r="H248" s="6">
-        <v>0</v>
-      </c>
-      <c r="I248" s="6">
-        <v>1</v>
-      </c>
-      <c r="J248" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="249" customHeight="1" spans="3:10">
-      <c r="C249" s="6">
-        <v>6014</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E249" s="6">
-        <v>6</v>
-      </c>
-      <c r="F249" s="6">
-        <v>1400</v>
-      </c>
-      <c r="G249" s="6">
-        <v>4</v>
-      </c>
-      <c r="H249" s="6">
-        <v>0</v>
-      </c>
-      <c r="I249" s="6">
-        <v>1</v>
-      </c>
-      <c r="J249" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="3:10">
       <c r="C250" s="6">
-        <v>6015</v>
+        <v>5001</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E250" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F250" s="6">
-        <v>1500</v>
+        <f t="shared" ref="F250:F274" si="5">(C250-5000)*1000</f>
+        <v>1000</v>
       </c>
       <c r="G250" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H250" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I250" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="3:10">
       <c r="C251" s="6">
-        <v>6016</v>
+        <v>5002</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E251" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F251" s="6">
-        <v>1600</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
       </c>
       <c r="G251" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H251" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I251" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" customHeight="1" spans="3:10">
       <c r="C252" s="6">
-        <v>6017</v>
+        <v>5003</v>
       </c>
       <c r="D252" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E252" s="6">
+        <v>5</v>
+      </c>
+      <c r="F252" s="6">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G252" s="6">
+        <v>1</v>
+      </c>
+      <c r="H252" s="6">
+        <v>18</v>
+      </c>
+      <c r="I252" s="6">
+        <v>5</v>
+      </c>
+      <c r="J252" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="E252" s="6">
-        <v>6</v>
-      </c>
-      <c r="F252" s="6">
-        <v>1700</v>
-      </c>
-      <c r="G252" s="6">
-        <v>4</v>
-      </c>
-      <c r="H252" s="6">
-        <v>0</v>
-      </c>
-      <c r="I252" s="6">
-        <v>1</v>
-      </c>
-      <c r="J252" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="3:10">
       <c r="C253" s="6">
-        <v>6018</v>
+        <v>5004</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E253" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F253" s="6">
-        <v>1800</v>
+        <f t="shared" si="5"/>
+        <v>4000</v>
       </c>
       <c r="G253" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H253" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I253" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="3:10">
       <c r="C254" s="6">
-        <v>6019</v>
+        <v>5005</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E254" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F254" s="6">
-        <v>1900</v>
+        <f t="shared" si="5"/>
+        <v>5000</v>
       </c>
       <c r="G254" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I254" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" customHeight="1" spans="3:10">
       <c r="C255" s="6">
+        <v>5006</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E255" s="6">
+        <v>5</v>
+      </c>
+      <c r="F255" s="6">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="G255" s="6">
+        <v>1</v>
+      </c>
+      <c r="H255" s="6">
+        <v>18</v>
+      </c>
+      <c r="I255" s="6">
+        <v>5</v>
+      </c>
+      <c r="J255" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="3:10">
+      <c r="C256" s="6">
+        <v>5007</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E256" s="6">
+        <v>5</v>
+      </c>
+      <c r="F256" s="6">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="G256" s="6">
+        <v>1</v>
+      </c>
+      <c r="H256" s="6">
+        <v>18</v>
+      </c>
+      <c r="I256" s="6">
+        <v>5</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="3:10">
+      <c r="C257" s="6">
+        <v>5008</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" s="6">
+        <v>5</v>
+      </c>
+      <c r="F257" s="6">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="G257" s="6">
+        <v>1</v>
+      </c>
+      <c r="H257" s="6">
+        <v>18</v>
+      </c>
+      <c r="I257" s="6">
+        <v>5</v>
+      </c>
+      <c r="J257" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="3:10">
+      <c r="C258" s="6">
+        <v>5009</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E258" s="6">
+        <v>5</v>
+      </c>
+      <c r="F258" s="6">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="G258" s="6">
+        <v>1</v>
+      </c>
+      <c r="H258" s="6">
+        <v>18</v>
+      </c>
+      <c r="I258" s="6">
+        <v>5</v>
+      </c>
+      <c r="J258" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="3:10">
+      <c r="C259" s="6">
+        <v>5010</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E259" s="6">
+        <v>5</v>
+      </c>
+      <c r="F259" s="6">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="G259" s="6">
+        <v>1</v>
+      </c>
+      <c r="H259" s="6">
+        <v>18</v>
+      </c>
+      <c r="I259" s="6">
+        <v>5</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="3:10">
+      <c r="C260" s="6">
+        <v>5011</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E260" s="6">
+        <v>5</v>
+      </c>
+      <c r="F260" s="6">
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="G260" s="6">
+        <v>1</v>
+      </c>
+      <c r="H260" s="6">
+        <v>18</v>
+      </c>
+      <c r="I260" s="6">
+        <v>5</v>
+      </c>
+      <c r="J260" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="3:10">
+      <c r="C261" s="6">
+        <v>5012</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E261" s="6">
+        <v>5</v>
+      </c>
+      <c r="F261" s="6">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="G261" s="6">
+        <v>1</v>
+      </c>
+      <c r="H261" s="6">
+        <v>18</v>
+      </c>
+      <c r="I261" s="6">
+        <v>5</v>
+      </c>
+      <c r="J261" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="3:10">
+      <c r="C262" s="6">
+        <v>5013</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E262" s="6">
+        <v>5</v>
+      </c>
+      <c r="F262" s="6">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="G262" s="6">
+        <v>1</v>
+      </c>
+      <c r="H262" s="6">
+        <v>18</v>
+      </c>
+      <c r="I262" s="6">
+        <v>5</v>
+      </c>
+      <c r="J262" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="3:10">
+      <c r="C263" s="6">
+        <v>5014</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E263" s="6">
+        <v>5</v>
+      </c>
+      <c r="F263" s="6">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+      <c r="G263" s="6">
+        <v>1</v>
+      </c>
+      <c r="H263" s="6">
+        <v>18</v>
+      </c>
+      <c r="I263" s="6">
+        <v>5</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="3:10">
+      <c r="C264" s="6">
+        <v>5015</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E264" s="6">
+        <v>5</v>
+      </c>
+      <c r="F264" s="6">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="G264" s="6">
+        <v>1</v>
+      </c>
+      <c r="H264" s="6">
+        <v>18</v>
+      </c>
+      <c r="I264" s="6">
+        <v>5</v>
+      </c>
+      <c r="J264" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="3:10">
+      <c r="C265" s="6">
+        <v>5016</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E265" s="6">
+        <v>5</v>
+      </c>
+      <c r="F265" s="6">
+        <f t="shared" si="5"/>
+        <v>16000</v>
+      </c>
+      <c r="G265" s="6">
+        <v>1</v>
+      </c>
+      <c r="H265" s="6">
+        <v>18</v>
+      </c>
+      <c r="I265" s="6">
+        <v>5</v>
+      </c>
+      <c r="J265" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="3:10">
+      <c r="C266" s="6">
+        <v>5017</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E266" s="6">
+        <v>5</v>
+      </c>
+      <c r="F266" s="6">
+        <f t="shared" si="5"/>
+        <v>17000</v>
+      </c>
+      <c r="G266" s="6">
+        <v>1</v>
+      </c>
+      <c r="H266" s="6">
+        <v>18</v>
+      </c>
+      <c r="I266" s="6">
+        <v>5</v>
+      </c>
+      <c r="J266" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="3:10">
+      <c r="C267" s="6">
+        <v>5018</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E267" s="6">
+        <v>5</v>
+      </c>
+      <c r="F267" s="6">
+        <f t="shared" si="5"/>
+        <v>18000</v>
+      </c>
+      <c r="G267" s="6">
+        <v>1</v>
+      </c>
+      <c r="H267" s="6">
+        <v>18</v>
+      </c>
+      <c r="I267" s="6">
+        <v>5</v>
+      </c>
+      <c r="J267" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="3:10">
+      <c r="C268" s="6">
+        <v>5019</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E268" s="6">
+        <v>5</v>
+      </c>
+      <c r="F268" s="6">
+        <f t="shared" si="5"/>
+        <v>19000</v>
+      </c>
+      <c r="G268" s="6">
+        <v>1</v>
+      </c>
+      <c r="H268" s="6">
+        <v>18</v>
+      </c>
+      <c r="I268" s="6">
+        <v>5</v>
+      </c>
+      <c r="J268" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="3:10">
+      <c r="C269" s="6">
+        <v>5020</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E269" s="6">
+        <v>5</v>
+      </c>
+      <c r="F269" s="6">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="G269" s="6">
+        <v>1</v>
+      </c>
+      <c r="H269" s="6">
+        <v>18</v>
+      </c>
+      <c r="I269" s="6">
+        <v>5</v>
+      </c>
+      <c r="J269" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="3:10">
+      <c r="C270" s="6">
+        <v>5021</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E270" s="6">
+        <v>5</v>
+      </c>
+      <c r="F270" s="6">
+        <f t="shared" si="5"/>
+        <v>21000</v>
+      </c>
+      <c r="G270" s="6">
+        <v>1</v>
+      </c>
+      <c r="H270" s="6">
+        <v>18</v>
+      </c>
+      <c r="I270" s="6">
+        <v>5</v>
+      </c>
+      <c r="J270" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="3:10">
+      <c r="C271" s="6">
+        <v>5022</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E271" s="6">
+        <v>5</v>
+      </c>
+      <c r="F271" s="6">
+        <f t="shared" si="5"/>
+        <v>22000</v>
+      </c>
+      <c r="G271" s="6">
+        <v>1</v>
+      </c>
+      <c r="H271" s="6">
+        <v>18</v>
+      </c>
+      <c r="I271" s="6">
+        <v>5</v>
+      </c>
+      <c r="J271" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="3:10">
+      <c r="C272" s="6">
+        <v>5023</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E272" s="6">
+        <v>5</v>
+      </c>
+      <c r="F272" s="6">
+        <f t="shared" si="5"/>
+        <v>23000</v>
+      </c>
+      <c r="G272" s="6">
+        <v>1</v>
+      </c>
+      <c r="H272" s="6">
+        <v>18</v>
+      </c>
+      <c r="I272" s="6">
+        <v>5</v>
+      </c>
+      <c r="J272" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="3:10">
+      <c r="C273" s="6">
+        <v>5024</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E273" s="6">
+        <v>5</v>
+      </c>
+      <c r="F273" s="6">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="G273" s="6">
+        <v>1</v>
+      </c>
+      <c r="H273" s="6">
+        <v>18</v>
+      </c>
+      <c r="I273" s="6">
+        <v>5</v>
+      </c>
+      <c r="J273" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="3:10">
+      <c r="C274" s="6">
+        <v>5025</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E274" s="6">
+        <v>5</v>
+      </c>
+      <c r="F274" s="6">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="G274" s="6">
+        <v>1</v>
+      </c>
+      <c r="H274" s="6">
+        <v>18</v>
+      </c>
+      <c r="I274" s="6">
+        <v>5</v>
+      </c>
+      <c r="J274" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" customHeight="1" spans="3:10">
+      <c r="C276" s="6">
+        <v>6001</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E276" s="6">
+        <v>6</v>
+      </c>
+      <c r="F276" s="6">
+        <v>100</v>
+      </c>
+      <c r="G276" s="6">
+        <v>4</v>
+      </c>
+      <c r="H276" s="6">
+        <v>0</v>
+      </c>
+      <c r="I276" s="6">
+        <v>1</v>
+      </c>
+      <c r="J276" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="3:10">
+      <c r="C277" s="6">
+        <v>6002</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E277" s="6">
+        <v>6</v>
+      </c>
+      <c r="F277" s="6">
+        <v>200</v>
+      </c>
+      <c r="G277" s="6">
+        <v>4</v>
+      </c>
+      <c r="H277" s="6">
+        <v>0</v>
+      </c>
+      <c r="I277" s="6">
+        <v>1</v>
+      </c>
+      <c r="J277" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="3:10">
+      <c r="C278" s="6">
+        <v>6003</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E278" s="6">
+        <v>6</v>
+      </c>
+      <c r="F278" s="6">
+        <v>300</v>
+      </c>
+      <c r="G278" s="6">
+        <v>4</v>
+      </c>
+      <c r="H278" s="6">
+        <v>0</v>
+      </c>
+      <c r="I278" s="6">
+        <v>1</v>
+      </c>
+      <c r="J278" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="3:10">
+      <c r="C279" s="6">
+        <v>6004</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E279" s="6">
+        <v>6</v>
+      </c>
+      <c r="F279" s="6">
+        <v>400</v>
+      </c>
+      <c r="G279" s="6">
+        <v>4</v>
+      </c>
+      <c r="H279" s="6">
+        <v>0</v>
+      </c>
+      <c r="I279" s="6">
+        <v>1</v>
+      </c>
+      <c r="J279" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="3:10">
+      <c r="C280" s="6">
+        <v>6005</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E280" s="6">
+        <v>6</v>
+      </c>
+      <c r="F280" s="6">
+        <v>500</v>
+      </c>
+      <c r="G280" s="6">
+        <v>4</v>
+      </c>
+      <c r="H280" s="6">
+        <v>0</v>
+      </c>
+      <c r="I280" s="6">
+        <v>1</v>
+      </c>
+      <c r="J280" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="3:10">
+      <c r="C281" s="6">
+        <v>6006</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E281" s="6">
+        <v>6</v>
+      </c>
+      <c r="F281" s="6">
+        <v>600</v>
+      </c>
+      <c r="G281" s="6">
+        <v>4</v>
+      </c>
+      <c r="H281" s="6">
+        <v>0</v>
+      </c>
+      <c r="I281" s="6">
+        <v>1</v>
+      </c>
+      <c r="J281" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="3:10">
+      <c r="C282" s="6">
+        <v>6007</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E282" s="6">
+        <v>6</v>
+      </c>
+      <c r="F282" s="6">
+        <v>700</v>
+      </c>
+      <c r="G282" s="6">
+        <v>4</v>
+      </c>
+      <c r="H282" s="6">
+        <v>0</v>
+      </c>
+      <c r="I282" s="6">
+        <v>1</v>
+      </c>
+      <c r="J282" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="3:10">
+      <c r="C283" s="6">
+        <v>6008</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E283" s="6">
+        <v>6</v>
+      </c>
+      <c r="F283" s="6">
+        <v>800</v>
+      </c>
+      <c r="G283" s="6">
+        <v>4</v>
+      </c>
+      <c r="H283" s="6">
+        <v>0</v>
+      </c>
+      <c r="I283" s="6">
+        <v>1</v>
+      </c>
+      <c r="J283" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="3:10">
+      <c r="C284" s="6">
+        <v>6009</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E284" s="6">
+        <v>6</v>
+      </c>
+      <c r="F284" s="6">
+        <v>900</v>
+      </c>
+      <c r="G284" s="6">
+        <v>4</v>
+      </c>
+      <c r="H284" s="6">
+        <v>0</v>
+      </c>
+      <c r="I284" s="6">
+        <v>1</v>
+      </c>
+      <c r="J284" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="3:10">
+      <c r="C285" s="6">
+        <v>6010</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E285" s="6">
+        <v>6</v>
+      </c>
+      <c r="F285" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G285" s="6">
+        <v>4</v>
+      </c>
+      <c r="H285" s="6">
+        <v>0</v>
+      </c>
+      <c r="I285" s="6">
+        <v>1</v>
+      </c>
+      <c r="J285" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="3:10">
+      <c r="C286" s="6">
+        <v>6011</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E286" s="6">
+        <v>6</v>
+      </c>
+      <c r="F286" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G286" s="6">
+        <v>4</v>
+      </c>
+      <c r="H286" s="6">
+        <v>0</v>
+      </c>
+      <c r="I286" s="6">
+        <v>1</v>
+      </c>
+      <c r="J286" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="3:10">
+      <c r="C287" s="6">
+        <v>6012</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E287" s="6">
+        <v>6</v>
+      </c>
+      <c r="F287" s="6">
+        <v>1200</v>
+      </c>
+      <c r="G287" s="6">
+        <v>4</v>
+      </c>
+      <c r="H287" s="6">
+        <v>0</v>
+      </c>
+      <c r="I287" s="6">
+        <v>1</v>
+      </c>
+      <c r="J287" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="3:10">
+      <c r="C288" s="6">
+        <v>6013</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E288" s="6">
+        <v>6</v>
+      </c>
+      <c r="F288" s="6">
+        <v>1300</v>
+      </c>
+      <c r="G288" s="6">
+        <v>4</v>
+      </c>
+      <c r="H288" s="6">
+        <v>0</v>
+      </c>
+      <c r="I288" s="6">
+        <v>1</v>
+      </c>
+      <c r="J288" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="3:10">
+      <c r="C289" s="6">
+        <v>6014</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E289" s="6">
+        <v>6</v>
+      </c>
+      <c r="F289" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G289" s="6">
+        <v>4</v>
+      </c>
+      <c r="H289" s="6">
+        <v>0</v>
+      </c>
+      <c r="I289" s="6">
+        <v>1</v>
+      </c>
+      <c r="J289" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="3:10">
+      <c r="C290" s="6">
+        <v>6015</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E290" s="6">
+        <v>6</v>
+      </c>
+      <c r="F290" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G290" s="6">
+        <v>4</v>
+      </c>
+      <c r="H290" s="6">
+        <v>0</v>
+      </c>
+      <c r="I290" s="6">
+        <v>1</v>
+      </c>
+      <c r="J290" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="3:10">
+      <c r="C291" s="6">
+        <v>6016</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E291" s="6">
+        <v>6</v>
+      </c>
+      <c r="F291" s="6">
+        <v>1600</v>
+      </c>
+      <c r="G291" s="6">
+        <v>4</v>
+      </c>
+      <c r="H291" s="6">
+        <v>0</v>
+      </c>
+      <c r="I291" s="6">
+        <v>1</v>
+      </c>
+      <c r="J291" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="3:10">
+      <c r="C292" s="6">
+        <v>6017</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E292" s="6">
+        <v>6</v>
+      </c>
+      <c r="F292" s="6">
+        <v>1700</v>
+      </c>
+      <c r="G292" s="6">
+        <v>4</v>
+      </c>
+      <c r="H292" s="6">
+        <v>0</v>
+      </c>
+      <c r="I292" s="6">
+        <v>1</v>
+      </c>
+      <c r="J292" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="3:10">
+      <c r="C293" s="6">
+        <v>6018</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E293" s="6">
+        <v>6</v>
+      </c>
+      <c r="F293" s="6">
+        <v>1800</v>
+      </c>
+      <c r="G293" s="6">
+        <v>4</v>
+      </c>
+      <c r="H293" s="6">
+        <v>0</v>
+      </c>
+      <c r="I293" s="6">
+        <v>1</v>
+      </c>
+      <c r="J293" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="3:10">
+      <c r="C294" s="6">
+        <v>6019</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E294" s="6">
+        <v>6</v>
+      </c>
+      <c r="F294" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G294" s="6">
+        <v>4</v>
+      </c>
+      <c r="H294" s="6">
+        <v>0</v>
+      </c>
+      <c r="I294" s="6">
+        <v>1</v>
+      </c>
+      <c r="J294" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="3:10">
+      <c r="C295" s="6">
         <v>6020</v>
       </c>
-      <c r="D255" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E255" s="6">
+      <c r="D295" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E295" s="6">
         <v>6</v>
       </c>
-      <c r="F255" s="6">
+      <c r="F295" s="6">
         <v>2000</v>
       </c>
-      <c r="G255" s="6">
+      <c r="G295" s="6">
         <v>4</v>
       </c>
-      <c r="H255" s="6">
+      <c r="H295" s="6">
         <v>0</v>
       </c>
-      <c r="I255" s="6">
-        <v>1</v>
-      </c>
-      <c r="J255" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" customHeight="1" spans="3:11">
-      <c r="C257" s="6">
+      <c r="I295" s="6">
+        <v>1</v>
+      </c>
+      <c r="J295" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="3:11">
+      <c r="C297" s="6">
         <v>8001</v>
       </c>
-      <c r="D257" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E257" s="6">
+      <c r="D297" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E297" s="6">
         <v>8</v>
       </c>
-      <c r="F257" s="6">
+      <c r="F297" s="6">
         <v>10</v>
       </c>
-      <c r="G257" s="5">
-        <v>1</v>
-      </c>
-      <c r="H257" s="5">
+      <c r="G297" s="5">
+        <v>1</v>
+      </c>
+      <c r="H297" s="5">
         <v>20</v>
       </c>
-      <c r="I257" s="5">
+      <c r="I297" s="5">
         <v>100</v>
       </c>
-      <c r="J257" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K257" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="258" customHeight="1" spans="3:11">
-      <c r="C258" s="6">
+      <c r="J297" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K297" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="3:11">
+      <c r="C298" s="6">
         <v>8002</v>
       </c>
-      <c r="D258" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E258" s="6">
+      <c r="D298" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E298" s="6">
         <v>8</v>
       </c>
-      <c r="F258" s="6">
+      <c r="F298" s="6">
         <v>30</v>
       </c>
-      <c r="G258" s="5">
-        <v>1</v>
-      </c>
-      <c r="H258" s="6">
+      <c r="G298" s="5">
+        <v>1</v>
+      </c>
+      <c r="H298" s="6">
         <v>19</v>
       </c>
-      <c r="I258" s="6">
+      <c r="I298" s="6">
         <v>100</v>
       </c>
-      <c r="J258" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K258" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="259" customHeight="1" spans="3:11">
-      <c r="C259" s="6">
+      <c r="J298" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K298" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="3:11">
+      <c r="C299" s="6">
         <v>8003</v>
       </c>
-      <c r="D259" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E259" s="6">
+      <c r="D299" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E299" s="6">
         <v>8</v>
       </c>
-      <c r="F259" s="6">
+      <c r="F299" s="6">
         <v>50</v>
       </c>
-      <c r="G259" s="5">
-        <v>1</v>
-      </c>
-      <c r="H259" s="6">
+      <c r="G299" s="5">
+        <v>1</v>
+      </c>
+      <c r="H299" s="6">
         <v>8</v>
       </c>
-      <c r="I259" s="6">
+      <c r="I299" s="6">
         <v>10</v>
       </c>
-      <c r="J259" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K259" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="260" customHeight="1" spans="3:11">
-      <c r="C260" s="6">
+      <c r="J299" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K299" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="3:11">
+      <c r="C300" s="6">
         <v>8004</v>
       </c>
-      <c r="D260" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E260" s="6">
+      <c r="D300" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E300" s="6">
         <v>8</v>
       </c>
-      <c r="F260" s="6">
+      <c r="F300" s="6">
         <v>60</v>
       </c>
-      <c r="G260" s="5">
-        <v>1</v>
-      </c>
-      <c r="H260" s="6">
+      <c r="G300" s="5">
+        <v>1</v>
+      </c>
+      <c r="H300" s="6">
         <v>9</v>
       </c>
-      <c r="I260" s="6">
+      <c r="I300" s="6">
         <v>50</v>
       </c>
-      <c r="J260" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K260" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="261" customHeight="1" spans="3:11">
-      <c r="C261" s="6">
+      <c r="J300" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K300" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="3:11">
+      <c r="C301" s="6">
         <v>8005</v>
       </c>
-      <c r="D261" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E261" s="6">
+      <c r="D301" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E301" s="6">
         <v>8</v>
       </c>
-      <c r="F261" s="6">
+      <c r="F301" s="6">
         <v>70</v>
       </c>
-      <c r="G261" s="5">
-        <v>1</v>
-      </c>
-      <c r="H261" s="6">
+      <c r="G301" s="5">
+        <v>1</v>
+      </c>
+      <c r="H301" s="6">
         <v>30</v>
       </c>
-      <c r="I261" s="6">
+      <c r="I301" s="6">
         <v>30</v>
       </c>
-      <c r="J261" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K261" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="262" customHeight="1" spans="3:11">
-      <c r="C262" s="6">
+      <c r="J301" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K301" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="3:11">
+      <c r="C302" s="6">
         <v>8006</v>
       </c>
-      <c r="D262" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E262" s="6">
+      <c r="D302" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E302" s="6">
         <v>8</v>
       </c>
-      <c r="F262" s="6">
+      <c r="F302" s="6">
         <v>80</v>
       </c>
-      <c r="G262" s="5">
-        <v>1</v>
-      </c>
-      <c r="H262" s="6">
+      <c r="G302" s="5">
+        <v>1</v>
+      </c>
+      <c r="H302" s="6">
         <v>7</v>
       </c>
-      <c r="I262" s="6">
+      <c r="I302" s="6">
         <v>10</v>
       </c>
-      <c r="J262" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K262" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="263" customHeight="1" spans="3:11">
-      <c r="C263" s="6">
+      <c r="J302" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K302" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="3:11">
+      <c r="C303" s="6">
         <v>8007</v>
       </c>
-      <c r="D263" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E263" s="6">
+      <c r="D303" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E303" s="6">
         <v>8</v>
       </c>
-      <c r="F263" s="6">
+      <c r="F303" s="6">
         <v>100</v>
       </c>
-      <c r="G263" s="3">
-        <v>2</v>
-      </c>
-      <c r="H263" s="3">
+      <c r="G303" s="3">
+        <v>2</v>
+      </c>
+      <c r="H303" s="3">
         <v>0</v>
       </c>
-      <c r="I263" s="3">
-        <v>1</v>
-      </c>
-      <c r="J263" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K263" s="3" t="s">
+      <c r="I303" s="3">
+        <v>1</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K303" s="3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="333">
   <si>
     <t>#</t>
   </si>
@@ -1071,6 +1071,12 @@
   </si>
   <si>
     <t>武林至尊</t>
+  </si>
+  <si>
+    <t>伤害加成+30%</t>
+  </si>
+  <si>
+    <t>天下无敌</t>
   </si>
 </sst>
 </file>
@@ -1254,12 +1260,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2070,10 +2076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K303"/>
+  <dimension ref="A2:K304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="N297" sqref="N297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -10459,21 +10465,50 @@
         <v>8</v>
       </c>
       <c r="F303" s="6">
+        <v>90</v>
+      </c>
+      <c r="G303" s="5">
+        <v>1</v>
+      </c>
+      <c r="H303" s="6">
+        <v>12</v>
+      </c>
+      <c r="I303" s="6">
+        <v>30</v>
+      </c>
+      <c r="J303" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K303" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="3:11">
+      <c r="C304" s="6">
+        <v>8008</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E304" s="6">
+        <v>8</v>
+      </c>
+      <c r="F304" s="6">
         <v>100</v>
       </c>
-      <c r="G303" s="3">
-        <v>2</v>
-      </c>
-      <c r="H303" s="3">
+      <c r="G304" s="3">
+        <v>2</v>
+      </c>
+      <c r="H304" s="3">
         <v>0</v>
       </c>
-      <c r="I303" s="3">
-        <v>1</v>
-      </c>
-      <c r="J303" s="3" t="s">
+      <c r="I304" s="3">
+        <v>1</v>
+      </c>
+      <c r="J304" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K303" s="3" t="s">
+      <c r="K304" s="3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="492">
   <si>
     <t>#</t>
   </si>
@@ -1510,6 +1510,63 @@
   </si>
   <si>
     <t>天下无敌</t>
+  </si>
+  <si>
+    <t>初露锋芒1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难40层数</t>
+  </si>
+  <si>
+    <t>武林新秀1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难50层数</t>
+  </si>
+  <si>
+    <t>爆率加成100%</t>
+  </si>
+  <si>
+    <t>声名鹊起1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难60层数</t>
+  </si>
+  <si>
+    <t>品质加成100%</t>
+  </si>
+  <si>
+    <t>过关斩将1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难70层数</t>
+  </si>
+  <si>
+    <t>幸运+15</t>
+  </si>
+  <si>
+    <t>独孤求败1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难80层数</t>
+  </si>
+  <si>
+    <t>武林至尊1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难90层数</t>
+  </si>
+  <si>
+    <t>伤害减免+30%</t>
+  </si>
+  <si>
+    <t>天下无敌1</t>
+  </si>
+  <si>
+    <t>守卫龙城通过困难100层数</t>
+  </si>
+  <si>
+    <t>技能栏+1</t>
   </si>
 </sst>
 </file>
@@ -2509,10 +2566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K444"/>
+  <dimension ref="A2:K451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="M346" sqref="M346"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -15153,6 +15210,209 @@
         <v>26</v>
       </c>
     </row>
+    <row r="445" customHeight="1" spans="3:11">
+      <c r="C445" s="6">
+        <v>8009</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E445" s="6">
+        <v>8</v>
+      </c>
+      <c r="F445" s="6">
+        <v>140</v>
+      </c>
+      <c r="G445" s="5">
+        <v>1</v>
+      </c>
+      <c r="H445" s="5">
+        <v>20</v>
+      </c>
+      <c r="I445" s="5">
+        <v>100</v>
+      </c>
+      <c r="J445" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K445" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="446" customHeight="1" spans="3:11">
+      <c r="C446" s="6">
+        <v>8010</v>
+      </c>
+      <c r="D446" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E446" s="6">
+        <v>8</v>
+      </c>
+      <c r="F446" s="6">
+        <v>150</v>
+      </c>
+      <c r="G446" s="5">
+        <v>1</v>
+      </c>
+      <c r="H446" s="6">
+        <v>19</v>
+      </c>
+      <c r="I446" s="6">
+        <v>100</v>
+      </c>
+      <c r="J446" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="K446" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="447" customHeight="1" spans="3:11">
+      <c r="C447" s="6">
+        <v>8011</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E447" s="6">
+        <v>8</v>
+      </c>
+      <c r="F447" s="6">
+        <v>160</v>
+      </c>
+      <c r="G447" s="5">
+        <v>1</v>
+      </c>
+      <c r="H447" s="6">
+        <v>24</v>
+      </c>
+      <c r="I447" s="6">
+        <v>30</v>
+      </c>
+      <c r="J447" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K447" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="448" customHeight="1" spans="3:11">
+      <c r="C448" s="6">
+        <v>8012</v>
+      </c>
+      <c r="D448" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E448" s="6">
+        <v>8</v>
+      </c>
+      <c r="F448" s="6">
+        <v>170</v>
+      </c>
+      <c r="G448" s="5">
+        <v>1</v>
+      </c>
+      <c r="H448" s="6">
+        <v>7</v>
+      </c>
+      <c r="I448" s="6">
+        <v>10</v>
+      </c>
+      <c r="J448" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K448" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="449" customHeight="1" spans="3:11">
+      <c r="C449" s="6">
+        <v>8013</v>
+      </c>
+      <c r="D449" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E449" s="6">
+        <v>8</v>
+      </c>
+      <c r="F449" s="6">
+        <v>180</v>
+      </c>
+      <c r="G449" s="5">
+        <v>1</v>
+      </c>
+      <c r="H449" s="6">
+        <v>12</v>
+      </c>
+      <c r="I449" s="6">
+        <v>30</v>
+      </c>
+      <c r="J449" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="K449" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="450" customHeight="1" spans="3:11">
+      <c r="C450" s="6">
+        <v>8014</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E450" s="6">
+        <v>8</v>
+      </c>
+      <c r="F450" s="6">
+        <v>190</v>
+      </c>
+      <c r="G450" s="5">
+        <v>1</v>
+      </c>
+      <c r="H450" s="6">
+        <v>13</v>
+      </c>
+      <c r="I450" s="6">
+        <v>30</v>
+      </c>
+      <c r="J450" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="K450" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="451" customHeight="1" spans="3:11">
+      <c r="C451" s="6">
+        <v>8015</v>
+      </c>
+      <c r="D451" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E451" s="6">
+        <v>8</v>
+      </c>
+      <c r="F451" s="6">
+        <v>200</v>
+      </c>
+      <c r="G451" s="3">
+        <v>3</v>
+      </c>
+      <c r="H451" s="3">
+        <v>0</v>
+      </c>
+      <c r="I451" s="3">
+        <v>1</v>
+      </c>
+      <c r="J451" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 I3 J3 K3 E4 F4 G4 H4 I4 J4 K4 E5 F5 G5 H5:K5 C3:C5 D3:D5" errorStyle="warning">

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -82,7 +82,8 @@
 2 减少词条上限
 3 回收精炼石增加
 4 魂环碎片掉落增加
-5 减少闯关寻怪时间</t>
+5 减少闯关寻怪时间
+6 技能出战栏</t>
         </r>
       </text>
     </comment>
@@ -2227,7 +2228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2244,6 +2245,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2569,7 +2571,7 @@
   <dimension ref="A2:K451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="D454" sqref="D454"/>
+      <selection activeCell="J457" sqref="J457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -15003,7 +15005,7 @@
       <c r="J437" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K437" s="10" t="s">
+      <c r="K437" s="11" t="s">
         <v>459</v>
       </c>
     </row>
@@ -15032,7 +15034,7 @@
       <c r="J438" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K438" s="10" t="s">
+      <c r="K438" s="11" t="s">
         <v>461</v>
       </c>
     </row>
@@ -15061,7 +15063,7 @@
       <c r="J439" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K439" s="10" t="s">
+      <c r="K439" s="11" t="s">
         <v>463</v>
       </c>
     </row>
@@ -15090,7 +15092,7 @@
       <c r="J440" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K440" s="10" t="s">
+      <c r="K440" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -15119,7 +15121,7 @@
       <c r="J441" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K441" s="10" t="s">
+      <c r="K441" s="11" t="s">
         <v>467</v>
       </c>
     </row>
@@ -15148,7 +15150,7 @@
       <c r="J442" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K442" s="10" t="s">
+      <c r="K442" s="11" t="s">
         <v>469</v>
       </c>
     </row>
@@ -15177,7 +15179,7 @@
       <c r="J443" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K443" s="10" t="s">
+      <c r="K443" s="11" t="s">
         <v>471</v>
       </c>
     </row>
@@ -15194,16 +15196,16 @@
       <c r="F444" s="6">
         <v>100</v>
       </c>
-      <c r="G444" s="3">
-        <v>2</v>
-      </c>
-      <c r="H444" s="3">
+      <c r="G444" s="10">
+        <v>2</v>
+      </c>
+      <c r="H444" s="10">
         <v>0</v>
       </c>
-      <c r="I444" s="3">
-        <v>1</v>
-      </c>
-      <c r="J444" s="3" t="s">
+      <c r="I444" s="10">
+        <v>1</v>
+      </c>
+      <c r="J444" s="10" t="s">
         <v>458</v>
       </c>
       <c r="K444" s="3" t="s">
@@ -15235,7 +15237,7 @@
       <c r="J445" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="K445" s="10" t="s">
+      <c r="K445" s="11" t="s">
         <v>459</v>
       </c>
     </row>
@@ -15264,7 +15266,7 @@
       <c r="J446" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K446" s="10" t="s">
+      <c r="K446" s="11" t="s">
         <v>477</v>
       </c>
     </row>
@@ -15288,12 +15290,12 @@
         <v>24</v>
       </c>
       <c r="I447" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J447" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K447" s="10" t="s">
+      <c r="K447" s="11" t="s">
         <v>480</v>
       </c>
     </row>
@@ -15317,12 +15319,12 @@
         <v>7</v>
       </c>
       <c r="I448" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J448" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K448" s="10" t="s">
+      <c r="K448" s="11" t="s">
         <v>483</v>
       </c>
     </row>
@@ -15351,7 +15353,7 @@
       <c r="J449" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K449" s="10" t="s">
+      <c r="K449" s="11" t="s">
         <v>471</v>
       </c>
     </row>
@@ -15380,7 +15382,7 @@
       <c r="J450" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K450" s="10" t="s">
+      <c r="K450" s="11" t="s">
         <v>488</v>
       </c>
     </row>
@@ -15397,13 +15399,13 @@
       <c r="F451" s="6">
         <v>200</v>
       </c>
-      <c r="G451" s="3">
-        <v>3</v>
-      </c>
-      <c r="H451" s="3">
+      <c r="G451" s="10">
+        <v>6</v>
+      </c>
+      <c r="H451" s="10">
         <v>0</v>
       </c>
-      <c r="I451" s="3">
+      <c r="I451" s="10">
         <v>1</v>
       </c>
       <c r="J451" s="5" t="s">

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="505">
   <si>
     <t>#</t>
   </si>
@@ -1324,6 +1324,15 @@
     <t>精炼12</t>
   </si>
   <si>
+    <t>精炼13</t>
+  </si>
+  <si>
+    <t>精炼14</t>
+  </si>
+  <si>
+    <t>精炼15</t>
+  </si>
+  <si>
     <t>等级1</t>
   </si>
   <si>
@@ -1463,6 +1472,36 @@
   </si>
   <si>
     <t>BOSS之家20</t>
+  </si>
+  <si>
+    <t>BOSS之家21</t>
+  </si>
+  <si>
+    <t>BOSS之家22</t>
+  </si>
+  <si>
+    <t>BOSS之家23</t>
+  </si>
+  <si>
+    <t>BOSS之家24</t>
+  </si>
+  <si>
+    <t>BOSS之家25</t>
+  </si>
+  <si>
+    <t>BOSS之家26</t>
+  </si>
+  <si>
+    <t>BOSS之家27</t>
+  </si>
+  <si>
+    <t>BOSS之家28</t>
+  </si>
+  <si>
+    <t>BOSS之家29</t>
+  </si>
+  <si>
+    <t>BOSS之家30</t>
   </si>
   <si>
     <t>小试牛刀</t>
@@ -2228,7 +2267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2245,7 +2284,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2568,10 +2606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K451"/>
+  <dimension ref="A2:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="J457" sqref="J457"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="N389" sqref="N389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -13785,736 +13823,762 @@
         <v>398</v>
       </c>
     </row>
+    <row r="388" customHeight="1" spans="3:10">
+      <c r="C388" s="6">
+        <v>4013</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E388" s="6">
+        <v>4</v>
+      </c>
+      <c r="F388" s="6">
+        <v>2250</v>
+      </c>
+      <c r="G388" s="6">
+        <v>3</v>
+      </c>
+      <c r="H388" s="6">
+        <v>0</v>
+      </c>
+      <c r="I388" s="6">
+        <v>1</v>
+      </c>
+      <c r="J388" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="389" customHeight="1" spans="3:10">
+      <c r="C389" s="6">
+        <v>4014</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E389" s="6">
+        <v>4</v>
+      </c>
+      <c r="F389" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G389" s="6">
+        <v>3</v>
+      </c>
+      <c r="H389" s="6">
+        <v>0</v>
+      </c>
+      <c r="I389" s="6">
+        <v>1</v>
+      </c>
+      <c r="J389" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
     <row r="390" customHeight="1" spans="3:10">
       <c r="C390" s="6">
+        <v>4015</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E390" s="6">
+        <v>4</v>
+      </c>
+      <c r="F390" s="6">
+        <v>2750</v>
+      </c>
+      <c r="G390" s="6">
+        <v>3</v>
+      </c>
+      <c r="H390" s="6">
+        <v>0</v>
+      </c>
+      <c r="I390" s="6">
+        <v>1</v>
+      </c>
+      <c r="J390" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="392" customHeight="1" spans="3:10">
+      <c r="C392" s="6">
         <v>5001</v>
       </c>
-      <c r="D390" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E390" s="6">
-        <v>5</v>
-      </c>
-      <c r="F390" s="6">
-        <f t="shared" ref="F390:F414" si="7">(C390-5000)*1000</f>
+      <c r="D392" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E392" s="6">
+        <v>5</v>
+      </c>
+      <c r="F392" s="6">
+        <f t="shared" ref="F392:F416" si="7">(C392-5000)*1000</f>
         <v>1000</v>
       </c>
-      <c r="G390" s="6">
-        <v>1</v>
-      </c>
-      <c r="H390" s="6">
+      <c r="G392" s="6">
+        <v>1</v>
+      </c>
+      <c r="H392" s="6">
         <v>18</v>
       </c>
-      <c r="I390" s="6">
-        <v>5</v>
-      </c>
-      <c r="J390" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="391" customHeight="1" spans="3:10">
-      <c r="C391" s="6">
+      <c r="I392" s="6">
+        <v>5</v>
+      </c>
+      <c r="J392" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="393" customHeight="1" spans="3:10">
+      <c r="C393" s="6">
         <v>5002</v>
       </c>
-      <c r="D391" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E391" s="6">
-        <v>5</v>
-      </c>
-      <c r="F391" s="6">
+      <c r="D393" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E393" s="6">
+        <v>5</v>
+      </c>
+      <c r="F393" s="6">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="G391" s="6">
-        <v>1</v>
-      </c>
-      <c r="H391" s="6">
+      <c r="G393" s="6">
+        <v>1</v>
+      </c>
+      <c r="H393" s="6">
         <v>18</v>
       </c>
-      <c r="I391" s="6">
-        <v>5</v>
-      </c>
-      <c r="J391" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="392" customHeight="1" spans="3:10">
-      <c r="C392" s="6">
+      <c r="I393" s="6">
+        <v>5</v>
+      </c>
+      <c r="J393" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="394" customHeight="1" spans="3:10">
+      <c r="C394" s="6">
         <v>5003</v>
       </c>
-      <c r="D392" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E392" s="6">
-        <v>5</v>
-      </c>
-      <c r="F392" s="6">
+      <c r="D394" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E394" s="6">
+        <v>5</v>
+      </c>
+      <c r="F394" s="6">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="G392" s="6">
-        <v>1</v>
-      </c>
-      <c r="H392" s="6">
+      <c r="G394" s="6">
+        <v>1</v>
+      </c>
+      <c r="H394" s="6">
         <v>18</v>
       </c>
-      <c r="I392" s="6">
-        <v>5</v>
-      </c>
-      <c r="J392" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="393" customHeight="1" spans="3:10">
-      <c r="C393" s="6">
+      <c r="I394" s="6">
+        <v>5</v>
+      </c>
+      <c r="J394" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="395" customHeight="1" spans="3:10">
+      <c r="C395" s="6">
         <v>5004</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E393" s="6">
-        <v>5</v>
-      </c>
-      <c r="F393" s="6">
+      <c r="D395" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E395" s="6">
+        <v>5</v>
+      </c>
+      <c r="F395" s="6">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="G393" s="6">
-        <v>1</v>
-      </c>
-      <c r="H393" s="6">
+      <c r="G395" s="6">
+        <v>1</v>
+      </c>
+      <c r="H395" s="6">
         <v>18</v>
       </c>
-      <c r="I393" s="6">
-        <v>5</v>
-      </c>
-      <c r="J393" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="394" customHeight="1" spans="3:10">
-      <c r="C394" s="6">
+      <c r="I395" s="6">
+        <v>5</v>
+      </c>
+      <c r="J395" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="396" customHeight="1" spans="3:10">
+      <c r="C396" s="6">
         <v>5005</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E394" s="6">
-        <v>5</v>
-      </c>
-      <c r="F394" s="6">
+      <c r="D396" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E396" s="6">
+        <v>5</v>
+      </c>
+      <c r="F396" s="6">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="G394" s="6">
-        <v>1</v>
-      </c>
-      <c r="H394" s="6">
+      <c r="G396" s="6">
+        <v>1</v>
+      </c>
+      <c r="H396" s="6">
         <v>18</v>
       </c>
-      <c r="I394" s="6">
-        <v>5</v>
-      </c>
-      <c r="J394" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="395" customHeight="1" spans="3:10">
-      <c r="C395" s="6">
+      <c r="I396" s="6">
+        <v>5</v>
+      </c>
+      <c r="J396" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="397" customHeight="1" spans="3:10">
+      <c r="C397" s="6">
         <v>5006</v>
       </c>
-      <c r="D395" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E395" s="6">
-        <v>5</v>
-      </c>
-      <c r="F395" s="6">
+      <c r="D397" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E397" s="6">
+        <v>5</v>
+      </c>
+      <c r="F397" s="6">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="G395" s="6">
-        <v>1</v>
-      </c>
-      <c r="H395" s="6">
+      <c r="G397" s="6">
+        <v>1</v>
+      </c>
+      <c r="H397" s="6">
         <v>18</v>
       </c>
-      <c r="I395" s="6">
-        <v>5</v>
-      </c>
-      <c r="J395" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="396" customHeight="1" spans="3:10">
-      <c r="C396" s="6">
+      <c r="I397" s="6">
+        <v>5</v>
+      </c>
+      <c r="J397" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="398" customHeight="1" spans="3:10">
+      <c r="C398" s="6">
         <v>5007</v>
       </c>
-      <c r="D396" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E396" s="6">
-        <v>5</v>
-      </c>
-      <c r="F396" s="6">
+      <c r="D398" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E398" s="6">
+        <v>5</v>
+      </c>
+      <c r="F398" s="6">
         <f t="shared" si="7"/>
         <v>7000</v>
       </c>
-      <c r="G396" s="6">
-        <v>1</v>
-      </c>
-      <c r="H396" s="6">
+      <c r="G398" s="6">
+        <v>1</v>
+      </c>
+      <c r="H398" s="6">
         <v>18</v>
       </c>
-      <c r="I396" s="6">
-        <v>5</v>
-      </c>
-      <c r="J396" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="397" customHeight="1" spans="3:10">
-      <c r="C397" s="6">
+      <c r="I398" s="6">
+        <v>5</v>
+      </c>
+      <c r="J398" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="399" customHeight="1" spans="3:10">
+      <c r="C399" s="6">
         <v>5008</v>
       </c>
-      <c r="D397" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E397" s="6">
-        <v>5</v>
-      </c>
-      <c r="F397" s="6">
+      <c r="D399" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E399" s="6">
+        <v>5</v>
+      </c>
+      <c r="F399" s="6">
         <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="G397" s="6">
-        <v>1</v>
-      </c>
-      <c r="H397" s="6">
+      <c r="G399" s="6">
+        <v>1</v>
+      </c>
+      <c r="H399" s="6">
         <v>18</v>
       </c>
-      <c r="I397" s="6">
-        <v>5</v>
-      </c>
-      <c r="J397" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="398" customHeight="1" spans="3:10">
-      <c r="C398" s="6">
+      <c r="I399" s="6">
+        <v>5</v>
+      </c>
+      <c r="J399" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="400" customHeight="1" spans="3:10">
+      <c r="C400" s="6">
         <v>5009</v>
       </c>
-      <c r="D398" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E398" s="6">
-        <v>5</v>
-      </c>
-      <c r="F398" s="6">
+      <c r="D400" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E400" s="6">
+        <v>5</v>
+      </c>
+      <c r="F400" s="6">
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-      <c r="G398" s="6">
-        <v>1</v>
-      </c>
-      <c r="H398" s="6">
+      <c r="G400" s="6">
+        <v>1</v>
+      </c>
+      <c r="H400" s="6">
         <v>18</v>
       </c>
-      <c r="I398" s="6">
-        <v>5</v>
-      </c>
-      <c r="J398" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="399" customHeight="1" spans="3:10">
-      <c r="C399" s="6">
+      <c r="I400" s="6">
+        <v>5</v>
+      </c>
+      <c r="J400" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="3:10">
+      <c r="C401" s="6">
         <v>5010</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E399" s="6">
-        <v>5</v>
-      </c>
-      <c r="F399" s="6">
+      <c r="D401" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E401" s="6">
+        <v>5</v>
+      </c>
+      <c r="F401" s="6">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="G399" s="6">
-        <v>1</v>
-      </c>
-      <c r="H399" s="6">
+      <c r="G401" s="6">
+        <v>1</v>
+      </c>
+      <c r="H401" s="6">
         <v>18</v>
       </c>
-      <c r="I399" s="6">
-        <v>5</v>
-      </c>
-      <c r="J399" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="400" customHeight="1" spans="3:10">
-      <c r="C400" s="6">
+      <c r="I401" s="6">
+        <v>5</v>
+      </c>
+      <c r="J401" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="402" customHeight="1" spans="3:10">
+      <c r="C402" s="6">
         <v>5011</v>
       </c>
-      <c r="D400" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E400" s="6">
-        <v>5</v>
-      </c>
-      <c r="F400" s="6">
+      <c r="D402" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E402" s="6">
+        <v>5</v>
+      </c>
+      <c r="F402" s="6">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
-      <c r="G400" s="6">
-        <v>1</v>
-      </c>
-      <c r="H400" s="6">
+      <c r="G402" s="6">
+        <v>1</v>
+      </c>
+      <c r="H402" s="6">
         <v>18</v>
       </c>
-      <c r="I400" s="6">
-        <v>5</v>
-      </c>
-      <c r="J400" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="401" customHeight="1" spans="3:10">
-      <c r="C401" s="6">
+      <c r="I402" s="6">
+        <v>5</v>
+      </c>
+      <c r="J402" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="403" customHeight="1" spans="3:10">
+      <c r="C403" s="6">
         <v>5012</v>
       </c>
-      <c r="D401" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E401" s="6">
-        <v>5</v>
-      </c>
-      <c r="F401" s="6">
+      <c r="D403" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E403" s="6">
+        <v>5</v>
+      </c>
+      <c r="F403" s="6">
         <f t="shared" si="7"/>
         <v>12000</v>
       </c>
-      <c r="G401" s="6">
-        <v>1</v>
-      </c>
-      <c r="H401" s="6">
+      <c r="G403" s="6">
+        <v>1</v>
+      </c>
+      <c r="H403" s="6">
         <v>18</v>
       </c>
-      <c r="I401" s="6">
-        <v>5</v>
-      </c>
-      <c r="J401" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="402" customHeight="1" spans="3:10">
-      <c r="C402" s="6">
+      <c r="I403" s="6">
+        <v>5</v>
+      </c>
+      <c r="J403" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="404" customHeight="1" spans="3:10">
+      <c r="C404" s="6">
         <v>5013</v>
       </c>
-      <c r="D402" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="E402" s="6">
-        <v>5</v>
-      </c>
-      <c r="F402" s="6">
+      <c r="D404" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E404" s="6">
+        <v>5</v>
+      </c>
+      <c r="F404" s="6">
         <f t="shared" si="7"/>
         <v>13000</v>
       </c>
-      <c r="G402" s="6">
-        <v>1</v>
-      </c>
-      <c r="H402" s="6">
+      <c r="G404" s="6">
+        <v>1</v>
+      </c>
+      <c r="H404" s="6">
         <v>18</v>
       </c>
-      <c r="I402" s="6">
-        <v>5</v>
-      </c>
-      <c r="J402" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="403" customHeight="1" spans="3:10">
-      <c r="C403" s="6">
+      <c r="I404" s="6">
+        <v>5</v>
+      </c>
+      <c r="J404" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="405" customHeight="1" spans="3:10">
+      <c r="C405" s="6">
         <v>5014</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E403" s="6">
-        <v>5</v>
-      </c>
-      <c r="F403" s="6">
+      <c r="D405" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E405" s="6">
+        <v>5</v>
+      </c>
+      <c r="F405" s="6">
         <f t="shared" si="7"/>
         <v>14000</v>
       </c>
-      <c r="G403" s="6">
-        <v>1</v>
-      </c>
-      <c r="H403" s="6">
+      <c r="G405" s="6">
+        <v>1</v>
+      </c>
+      <c r="H405" s="6">
         <v>18</v>
       </c>
-      <c r="I403" s="6">
-        <v>5</v>
-      </c>
-      <c r="J403" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="404" customHeight="1" spans="3:10">
-      <c r="C404" s="6">
+      <c r="I405" s="6">
+        <v>5</v>
+      </c>
+      <c r="J405" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="406" customHeight="1" spans="3:10">
+      <c r="C406" s="6">
         <v>5015</v>
       </c>
-      <c r="D404" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E404" s="6">
-        <v>5</v>
-      </c>
-      <c r="F404" s="6">
+      <c r="D406" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E406" s="6">
+        <v>5</v>
+      </c>
+      <c r="F406" s="6">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="G404" s="6">
-        <v>1</v>
-      </c>
-      <c r="H404" s="6">
+      <c r="G406" s="6">
+        <v>1</v>
+      </c>
+      <c r="H406" s="6">
         <v>18</v>
       </c>
-      <c r="I404" s="6">
-        <v>5</v>
-      </c>
-      <c r="J404" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="405" customHeight="1" spans="3:10">
-      <c r="C405" s="6">
+      <c r="I406" s="6">
+        <v>5</v>
+      </c>
+      <c r="J406" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="407" customHeight="1" spans="3:10">
+      <c r="C407" s="6">
         <v>5016</v>
       </c>
-      <c r="D405" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E405" s="6">
-        <v>5</v>
-      </c>
-      <c r="F405" s="6">
+      <c r="D407" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E407" s="6">
+        <v>5</v>
+      </c>
+      <c r="F407" s="6">
         <f t="shared" si="7"/>
         <v>16000</v>
       </c>
-      <c r="G405" s="6">
-        <v>1</v>
-      </c>
-      <c r="H405" s="6">
+      <c r="G407" s="6">
+        <v>1</v>
+      </c>
+      <c r="H407" s="6">
         <v>18</v>
       </c>
-      <c r="I405" s="6">
-        <v>5</v>
-      </c>
-      <c r="J405" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="406" customHeight="1" spans="3:10">
-      <c r="C406" s="6">
+      <c r="I407" s="6">
+        <v>5</v>
+      </c>
+      <c r="J407" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="408" customHeight="1" spans="3:10">
+      <c r="C408" s="6">
         <v>5017</v>
       </c>
-      <c r="D406" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E406" s="6">
-        <v>5</v>
-      </c>
-      <c r="F406" s="6">
+      <c r="D408" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E408" s="6">
+        <v>5</v>
+      </c>
+      <c r="F408" s="6">
         <f t="shared" si="7"/>
         <v>17000</v>
       </c>
-      <c r="G406" s="6">
-        <v>1</v>
-      </c>
-      <c r="H406" s="6">
+      <c r="G408" s="6">
+        <v>1</v>
+      </c>
+      <c r="H408" s="6">
         <v>18</v>
       </c>
-      <c r="I406" s="6">
-        <v>5</v>
-      </c>
-      <c r="J406" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="407" customHeight="1" spans="3:10">
-      <c r="C407" s="6">
+      <c r="I408" s="6">
+        <v>5</v>
+      </c>
+      <c r="J408" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="409" customHeight="1" spans="3:10">
+      <c r="C409" s="6">
         <v>5018</v>
       </c>
-      <c r="D407" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E407" s="6">
-        <v>5</v>
-      </c>
-      <c r="F407" s="6">
+      <c r="D409" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E409" s="6">
+        <v>5</v>
+      </c>
+      <c r="F409" s="6">
         <f t="shared" si="7"/>
         <v>18000</v>
       </c>
-      <c r="G407" s="6">
-        <v>1</v>
-      </c>
-      <c r="H407" s="6">
+      <c r="G409" s="6">
+        <v>1</v>
+      </c>
+      <c r="H409" s="6">
         <v>18</v>
       </c>
-      <c r="I407" s="6">
-        <v>5</v>
-      </c>
-      <c r="J407" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="408" customHeight="1" spans="3:10">
-      <c r="C408" s="6">
+      <c r="I409" s="6">
+        <v>5</v>
+      </c>
+      <c r="J409" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="410" customHeight="1" spans="3:10">
+      <c r="C410" s="6">
         <v>5019</v>
       </c>
-      <c r="D408" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E408" s="6">
-        <v>5</v>
-      </c>
-      <c r="F408" s="6">
+      <c r="D410" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E410" s="6">
+        <v>5</v>
+      </c>
+      <c r="F410" s="6">
         <f t="shared" si="7"/>
         <v>19000</v>
       </c>
-      <c r="G408" s="6">
-        <v>1</v>
-      </c>
-      <c r="H408" s="6">
+      <c r="G410" s="6">
+        <v>1</v>
+      </c>
+      <c r="H410" s="6">
         <v>18</v>
       </c>
-      <c r="I408" s="6">
-        <v>5</v>
-      </c>
-      <c r="J408" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="409" customHeight="1" spans="3:10">
-      <c r="C409" s="6">
+      <c r="I410" s="6">
+        <v>5</v>
+      </c>
+      <c r="J410" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="411" customHeight="1" spans="3:10">
+      <c r="C411" s="6">
         <v>5020</v>
       </c>
-      <c r="D409" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E409" s="6">
-        <v>5</v>
-      </c>
-      <c r="F409" s="6">
+      <c r="D411" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E411" s="6">
+        <v>5</v>
+      </c>
+      <c r="F411" s="6">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="G409" s="6">
-        <v>1</v>
-      </c>
-      <c r="H409" s="6">
+      <c r="G411" s="6">
+        <v>1</v>
+      </c>
+      <c r="H411" s="6">
         <v>18</v>
       </c>
-      <c r="I409" s="6">
-        <v>5</v>
-      </c>
-      <c r="J409" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="410" customHeight="1" spans="3:10">
-      <c r="C410" s="6">
+      <c r="I411" s="6">
+        <v>5</v>
+      </c>
+      <c r="J411" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="412" customHeight="1" spans="3:10">
+      <c r="C412" s="6">
         <v>5021</v>
       </c>
-      <c r="D410" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E410" s="6">
-        <v>5</v>
-      </c>
-      <c r="F410" s="6">
+      <c r="D412" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E412" s="6">
+        <v>5</v>
+      </c>
+      <c r="F412" s="6">
         <f t="shared" si="7"/>
         <v>21000</v>
       </c>
-      <c r="G410" s="6">
-        <v>1</v>
-      </c>
-      <c r="H410" s="6">
+      <c r="G412" s="6">
+        <v>1</v>
+      </c>
+      <c r="H412" s="6">
         <v>18</v>
       </c>
-      <c r="I410" s="6">
-        <v>5</v>
-      </c>
-      <c r="J410" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="411" customHeight="1" spans="3:10">
-      <c r="C411" s="6">
+      <c r="I412" s="6">
+        <v>5</v>
+      </c>
+      <c r="J412" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="413" customHeight="1" spans="3:10">
+      <c r="C413" s="6">
         <v>5022</v>
       </c>
-      <c r="D411" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E411" s="6">
-        <v>5</v>
-      </c>
-      <c r="F411" s="6">
+      <c r="D413" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E413" s="6">
+        <v>5</v>
+      </c>
+      <c r="F413" s="6">
         <f t="shared" si="7"/>
         <v>22000</v>
       </c>
-      <c r="G411" s="6">
-        <v>1</v>
-      </c>
-      <c r="H411" s="6">
+      <c r="G413" s="6">
+        <v>1</v>
+      </c>
+      <c r="H413" s="6">
         <v>18</v>
       </c>
-      <c r="I411" s="6">
-        <v>5</v>
-      </c>
-      <c r="J411" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="412" customHeight="1" spans="3:10">
-      <c r="C412" s="6">
+      <c r="I413" s="6">
+        <v>5</v>
+      </c>
+      <c r="J413" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="414" customHeight="1" spans="3:10">
+      <c r="C414" s="6">
         <v>5023</v>
       </c>
-      <c r="D412" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E412" s="6">
-        <v>5</v>
-      </c>
-      <c r="F412" s="6">
+      <c r="D414" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E414" s="6">
+        <v>5</v>
+      </c>
+      <c r="F414" s="6">
         <f t="shared" si="7"/>
         <v>23000</v>
       </c>
-      <c r="G412" s="6">
-        <v>1</v>
-      </c>
-      <c r="H412" s="6">
+      <c r="G414" s="6">
+        <v>1</v>
+      </c>
+      <c r="H414" s="6">
         <v>18</v>
       </c>
-      <c r="I412" s="6">
-        <v>5</v>
-      </c>
-      <c r="J412" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" customHeight="1" spans="3:10">
-      <c r="C413" s="6">
+      <c r="I414" s="6">
+        <v>5</v>
+      </c>
+      <c r="J414" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" customHeight="1" spans="3:10">
+      <c r="C415" s="6">
         <v>5024</v>
       </c>
-      <c r="D413" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E413" s="6">
-        <v>5</v>
-      </c>
-      <c r="F413" s="6">
+      <c r="D415" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E415" s="6">
+        <v>5</v>
+      </c>
+      <c r="F415" s="6">
         <f t="shared" si="7"/>
         <v>24000</v>
       </c>
-      <c r="G413" s="6">
-        <v>1</v>
-      </c>
-      <c r="H413" s="6">
+      <c r="G415" s="6">
+        <v>1</v>
+      </c>
+      <c r="H415" s="6">
         <v>18</v>
       </c>
-      <c r="I413" s="6">
-        <v>5</v>
-      </c>
-      <c r="J413" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="414" customHeight="1" spans="3:10">
-      <c r="C414" s="6">
+      <c r="I415" s="6">
+        <v>5</v>
+      </c>
+      <c r="J415" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" customHeight="1" spans="3:10">
+      <c r="C416" s="6">
         <v>5025</v>
       </c>
-      <c r="D414" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E414" s="6">
-        <v>5</v>
-      </c>
-      <c r="F414" s="6">
+      <c r="D416" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E416" s="6">
+        <v>5</v>
+      </c>
+      <c r="F416" s="6">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="G414" s="6">
-        <v>1</v>
-      </c>
-      <c r="H414" s="6">
+      <c r="G416" s="6">
+        <v>1</v>
+      </c>
+      <c r="H416" s="6">
         <v>18</v>
       </c>
-      <c r="I414" s="6">
-        <v>5</v>
-      </c>
-      <c r="J414" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="416" customHeight="1" spans="3:10">
-      <c r="C416" s="6">
-        <v>6001</v>
-      </c>
-      <c r="D416" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E416" s="6">
-        <v>6</v>
-      </c>
-      <c r="F416" s="6">
-        <v>100</v>
-      </c>
-      <c r="G416" s="6">
-        <v>4</v>
-      </c>
-      <c r="H416" s="6">
-        <v>0</v>
-      </c>
       <c r="I416" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="417" customHeight="1" spans="3:10">
-      <c r="C417" s="6">
-        <v>6002</v>
-      </c>
-      <c r="D417" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E417" s="6">
-        <v>6</v>
-      </c>
-      <c r="F417" s="6">
-        <v>200</v>
-      </c>
-      <c r="G417" s="6">
-        <v>4</v>
-      </c>
-      <c r="H417" s="6">
-        <v>0</v>
-      </c>
-      <c r="I417" s="6">
-        <v>1</v>
-      </c>
-      <c r="J417" s="6" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="3:10">
       <c r="C418" s="6">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>439</v>
@@ -14523,7 +14587,7 @@
         <v>6</v>
       </c>
       <c r="F418" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G418" s="6">
         <v>4</v>
@@ -14535,21 +14599,21 @@
         <v>1</v>
       </c>
       <c r="J418" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="419" customHeight="1" spans="3:10">
       <c r="C419" s="6">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E419" s="6">
         <v>6</v>
       </c>
       <c r="F419" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G419" s="6">
         <v>4</v>
@@ -14561,21 +14625,21 @@
         <v>1</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="3:10">
       <c r="C420" s="6">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E420" s="6">
         <v>6</v>
       </c>
       <c r="F420" s="6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G420" s="6">
         <v>4</v>
@@ -14587,21 +14651,21 @@
         <v>1</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="3:10">
       <c r="C421" s="6">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E421" s="6">
         <v>6</v>
       </c>
       <c r="F421" s="6">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G421" s="6">
         <v>4</v>
@@ -14613,21 +14677,21 @@
         <v>1</v>
       </c>
       <c r="J421" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" customHeight="1" spans="3:10">
       <c r="C422" s="6">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E422" s="6">
         <v>6</v>
       </c>
       <c r="F422" s="6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G422" s="6">
         <v>4</v>
@@ -14639,21 +14703,21 @@
         <v>1</v>
       </c>
       <c r="J422" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="423" customHeight="1" spans="3:10">
       <c r="C423" s="6">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E423" s="6">
         <v>6</v>
       </c>
       <c r="F423" s="6">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G423" s="6">
         <v>4</v>
@@ -14665,21 +14729,21 @@
         <v>1</v>
       </c>
       <c r="J423" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="3:10">
       <c r="C424" s="6">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E424" s="6">
         <v>6</v>
       </c>
       <c r="F424" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G424" s="6">
         <v>4</v>
@@ -14691,21 +14755,21 @@
         <v>1</v>
       </c>
       <c r="J424" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" customHeight="1" spans="3:10">
       <c r="C425" s="6">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E425" s="6">
         <v>6</v>
       </c>
       <c r="F425" s="6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G425" s="6">
         <v>4</v>
@@ -14717,21 +14781,21 @@
         <v>1</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="426" customHeight="1" spans="3:10">
       <c r="C426" s="6">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E426" s="6">
         <v>6</v>
       </c>
       <c r="F426" s="6">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G426" s="6">
         <v>4</v>
@@ -14743,21 +14807,21 @@
         <v>1</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="427" customHeight="1" spans="3:10">
       <c r="C427" s="6">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E427" s="6">
         <v>6</v>
       </c>
       <c r="F427" s="6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G427" s="6">
         <v>4</v>
@@ -14769,21 +14833,21 @@
         <v>1</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="428" customHeight="1" spans="3:10">
       <c r="C428" s="6">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E428" s="6">
         <v>6</v>
       </c>
       <c r="F428" s="6">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G428" s="6">
         <v>4</v>
@@ -14795,21 +14859,21 @@
         <v>1</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="429" customHeight="1" spans="3:10">
       <c r="C429" s="6">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E429" s="6">
         <v>6</v>
       </c>
       <c r="F429" s="6">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G429" s="6">
         <v>4</v>
@@ -14821,21 +14885,21 @@
         <v>1</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="430" customHeight="1" spans="3:10">
       <c r="C430" s="6">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E430" s="6">
         <v>6</v>
       </c>
       <c r="F430" s="6">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="G430" s="6">
         <v>4</v>
@@ -14847,21 +14911,21 @@
         <v>1</v>
       </c>
       <c r="J430" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="431" customHeight="1" spans="3:10">
       <c r="C431" s="6">
-        <v>6016</v>
+        <v>6014</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E431" s="6">
         <v>6</v>
       </c>
       <c r="F431" s="6">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="G431" s="6">
         <v>4</v>
@@ -14873,21 +14937,21 @@
         <v>1</v>
       </c>
       <c r="J431" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="432" customHeight="1" spans="3:10">
       <c r="C432" s="6">
-        <v>6017</v>
+        <v>6015</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E432" s="6">
         <v>6</v>
       </c>
       <c r="F432" s="6">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G432" s="6">
         <v>4</v>
@@ -14899,21 +14963,21 @@
         <v>1</v>
       </c>
       <c r="J432" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="433" customHeight="1" spans="3:10">
       <c r="C433" s="6">
-        <v>6018</v>
+        <v>6016</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E433" s="6">
         <v>6</v>
       </c>
       <c r="F433" s="6">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G433" s="6">
         <v>4</v>
@@ -14925,21 +14989,21 @@
         <v>1</v>
       </c>
       <c r="J433" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="434" customHeight="1" spans="3:10">
       <c r="C434" s="6">
-        <v>6019</v>
+        <v>6017</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E434" s="6">
         <v>6</v>
       </c>
       <c r="F434" s="6">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G434" s="6">
         <v>4</v>
@@ -14951,21 +15015,21 @@
         <v>1</v>
       </c>
       <c r="J434" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="435" customHeight="1" spans="3:10">
       <c r="C435" s="6">
-        <v>6020</v>
+        <v>6018</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E435" s="6">
         <v>6</v>
       </c>
       <c r="F435" s="6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G435" s="6">
         <v>4</v>
@@ -14977,442 +15041,764 @@
         <v>1</v>
       </c>
       <c r="J435" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="437" customHeight="1" spans="3:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="436" customHeight="1" spans="3:10">
+      <c r="C436" s="6">
+        <v>6019</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E436" s="6">
+        <v>6</v>
+      </c>
+      <c r="F436" s="6">
+        <v>1900</v>
+      </c>
+      <c r="G436" s="6">
+        <v>4</v>
+      </c>
+      <c r="H436" s="6">
+        <v>0</v>
+      </c>
+      <c r="I436" s="6">
+        <v>1</v>
+      </c>
+      <c r="J436" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437" customHeight="1" spans="3:10">
       <c r="C437" s="6">
-        <v>8001</v>
-      </c>
-      <c r="D437" s="8" t="s">
-        <v>457</v>
+        <v>6020</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="E437" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F437" s="6">
-        <v>10</v>
-      </c>
-      <c r="G437" s="5">
-        <v>1</v>
-      </c>
-      <c r="H437" s="5">
-        <v>20</v>
-      </c>
-      <c r="I437" s="5">
-        <v>100</v>
-      </c>
-      <c r="J437" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K437" s="11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="438" customHeight="1" spans="3:11">
+        <v>2000</v>
+      </c>
+      <c r="G437" s="6">
+        <v>4</v>
+      </c>
+      <c r="H437" s="6">
+        <v>0</v>
+      </c>
+      <c r="I437" s="6">
+        <v>1</v>
+      </c>
+      <c r="J437" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="438" customHeight="1" spans="3:10">
       <c r="C438" s="6">
-        <v>8002</v>
-      </c>
-      <c r="D438" s="8" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D438" s="6" t="s">
         <v>460</v>
       </c>
       <c r="E438" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F438" s="6">
-        <v>30</v>
-      </c>
-      <c r="G438" s="5">
-        <v>1</v>
+        <f t="shared" ref="F438:F447" si="8">F437+100</f>
+        <v>2100</v>
+      </c>
+      <c r="G438" s="6">
+        <v>4</v>
       </c>
       <c r="H438" s="6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I438" s="6">
-        <v>100</v>
-      </c>
-      <c r="J438" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K438" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J438" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="439" customHeight="1" spans="3:10">
+      <c r="C439" s="6">
+        <v>6022</v>
+      </c>
+      <c r="D439" s="6" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="439" customHeight="1" spans="3:11">
-      <c r="C439" s="6">
-        <v>8003</v>
-      </c>
-      <c r="D439" s="9" t="s">
+      <c r="E439" s="6">
+        <v>6</v>
+      </c>
+      <c r="F439" s="6">
+        <f t="shared" si="8"/>
+        <v>2200</v>
+      </c>
+      <c r="G439" s="6">
+        <v>4</v>
+      </c>
+      <c r="H439" s="6">
+        <v>0</v>
+      </c>
+      <c r="I439" s="6">
+        <v>1</v>
+      </c>
+      <c r="J439" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" customHeight="1" spans="3:10">
+      <c r="C440" s="6">
+        <v>6023</v>
+      </c>
+      <c r="D440" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E439" s="6">
-        <v>8</v>
-      </c>
-      <c r="F439" s="6">
-        <v>50</v>
-      </c>
-      <c r="G439" s="5">
-        <v>1</v>
-      </c>
-      <c r="H439" s="6">
-        <v>8</v>
-      </c>
-      <c r="I439" s="6">
-        <v>10</v>
-      </c>
-      <c r="J439" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K439" s="11" t="s">
+      <c r="E440" s="6">
+        <v>6</v>
+      </c>
+      <c r="F440" s="6">
+        <f t="shared" si="8"/>
+        <v>2300</v>
+      </c>
+      <c r="G440" s="6">
+        <v>4</v>
+      </c>
+      <c r="H440" s="6">
+        <v>0</v>
+      </c>
+      <c r="I440" s="6">
+        <v>1</v>
+      </c>
+      <c r="J440" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" customHeight="1" spans="3:10">
+      <c r="C441" s="6">
+        <v>6024</v>
+      </c>
+      <c r="D441" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="440" customHeight="1" spans="3:11">
-      <c r="C440" s="6">
-        <v>8004</v>
-      </c>
-      <c r="D440" s="8" t="s">
+      <c r="E441" s="6">
+        <v>6</v>
+      </c>
+      <c r="F441" s="6">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+      <c r="G441" s="6">
+        <v>4</v>
+      </c>
+      <c r="H441" s="6">
+        <v>0</v>
+      </c>
+      <c r="I441" s="6">
+        <v>1</v>
+      </c>
+      <c r="J441" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" customHeight="1" spans="3:10">
+      <c r="C442" s="6">
+        <v>6025</v>
+      </c>
+      <c r="D442" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="E440" s="6">
-        <v>8</v>
-      </c>
-      <c r="F440" s="6">
-        <v>60</v>
-      </c>
-      <c r="G440" s="5">
-        <v>1</v>
-      </c>
-      <c r="H440" s="6">
-        <v>9</v>
-      </c>
-      <c r="I440" s="6">
-        <v>50</v>
-      </c>
-      <c r="J440" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K440" s="11" t="s">
+      <c r="E442" s="6">
+        <v>6</v>
+      </c>
+      <c r="F442" s="6">
+        <f t="shared" si="8"/>
+        <v>2500</v>
+      </c>
+      <c r="G442" s="6">
+        <v>4</v>
+      </c>
+      <c r="H442" s="6">
+        <v>0</v>
+      </c>
+      <c r="I442" s="6">
+        <v>1</v>
+      </c>
+      <c r="J442" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" customHeight="1" spans="3:10">
+      <c r="C443" s="6">
+        <v>6026</v>
+      </c>
+      <c r="D443" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="441" customHeight="1" spans="3:11">
-      <c r="C441" s="6">
-        <v>8005</v>
-      </c>
-      <c r="D441" s="8" t="s">
+      <c r="E443" s="6">
+        <v>6</v>
+      </c>
+      <c r="F443" s="6">
+        <f t="shared" si="8"/>
+        <v>2600</v>
+      </c>
+      <c r="G443" s="6">
+        <v>4</v>
+      </c>
+      <c r="H443" s="6">
+        <v>0</v>
+      </c>
+      <c r="I443" s="6">
+        <v>1</v>
+      </c>
+      <c r="J443" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="444" customHeight="1" spans="3:10">
+      <c r="C444" s="6">
+        <v>6027</v>
+      </c>
+      <c r="D444" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E441" s="6">
-        <v>8</v>
-      </c>
-      <c r="F441" s="6">
-        <v>70</v>
-      </c>
-      <c r="G441" s="5">
-        <v>1</v>
-      </c>
-      <c r="H441" s="6">
-        <v>30</v>
-      </c>
-      <c r="I441" s="6">
-        <v>30</v>
-      </c>
-      <c r="J441" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K441" s="11" t="s">
+      <c r="E444" s="6">
+        <v>6</v>
+      </c>
+      <c r="F444" s="6">
+        <f t="shared" si="8"/>
+        <v>2700</v>
+      </c>
+      <c r="G444" s="6">
+        <v>4</v>
+      </c>
+      <c r="H444" s="6">
+        <v>0</v>
+      </c>
+      <c r="I444" s="6">
+        <v>1</v>
+      </c>
+      <c r="J444" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="445" customHeight="1" spans="3:10">
+      <c r="C445" s="6">
+        <v>6028</v>
+      </c>
+      <c r="D445" s="6" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="442" customHeight="1" spans="3:11">
-      <c r="C442" s="6">
-        <v>8006</v>
-      </c>
-      <c r="D442" s="8" t="s">
+      <c r="E445" s="6">
+        <v>6</v>
+      </c>
+      <c r="F445" s="6">
+        <f t="shared" si="8"/>
+        <v>2800</v>
+      </c>
+      <c r="G445" s="6">
+        <v>4</v>
+      </c>
+      <c r="H445" s="6">
+        <v>0</v>
+      </c>
+      <c r="I445" s="6">
+        <v>1</v>
+      </c>
+      <c r="J445" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="446" customHeight="1" spans="3:10">
+      <c r="C446" s="6">
+        <v>6029</v>
+      </c>
+      <c r="D446" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E442" s="6">
-        <v>8</v>
-      </c>
-      <c r="F442" s="6">
-        <v>80</v>
-      </c>
-      <c r="G442" s="5">
-        <v>1</v>
-      </c>
-      <c r="H442" s="6">
-        <v>7</v>
-      </c>
-      <c r="I442" s="6">
-        <v>10</v>
-      </c>
-      <c r="J442" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K442" s="11" t="s">
+      <c r="E446" s="6">
+        <v>6</v>
+      </c>
+      <c r="F446" s="6">
+        <f t="shared" si="8"/>
+        <v>2900</v>
+      </c>
+      <c r="G446" s="6">
+        <v>4</v>
+      </c>
+      <c r="H446" s="6">
+        <v>0</v>
+      </c>
+      <c r="I446" s="6">
+        <v>1</v>
+      </c>
+      <c r="J446" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="447" customHeight="1" spans="3:10">
+      <c r="C447" s="6">
+        <v>6030</v>
+      </c>
+      <c r="D447" s="6" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="443" customHeight="1" spans="3:11">
-      <c r="C443" s="6">
-        <v>8007</v>
-      </c>
-      <c r="D443" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E443" s="6">
-        <v>8</v>
-      </c>
-      <c r="F443" s="6">
-        <v>90</v>
-      </c>
-      <c r="G443" s="5">
-        <v>1</v>
-      </c>
-      <c r="H443" s="6">
-        <v>12</v>
-      </c>
-      <c r="I443" s="6">
-        <v>30</v>
-      </c>
-      <c r="J443" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K443" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="444" customHeight="1" spans="3:11">
-      <c r="C444" s="6">
-        <v>8008</v>
-      </c>
-      <c r="D444" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E444" s="6">
-        <v>8</v>
-      </c>
-      <c r="F444" s="6">
-        <v>100</v>
-      </c>
-      <c r="G444" s="10">
-        <v>2</v>
-      </c>
-      <c r="H444" s="10">
+      <c r="E447" s="6">
+        <v>6</v>
+      </c>
+      <c r="F447" s="6">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="G447" s="6">
+        <v>4</v>
+      </c>
+      <c r="H447" s="6">
         <v>0</v>
       </c>
-      <c r="I444" s="10">
-        <v>1</v>
-      </c>
-      <c r="J444" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K444" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="445" customHeight="1" spans="3:11">
-      <c r="C445" s="6">
-        <v>8009</v>
-      </c>
-      <c r="D445" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E445" s="6">
-        <v>8</v>
-      </c>
-      <c r="F445" s="6">
-        <v>140</v>
-      </c>
-      <c r="G445" s="5">
-        <v>1</v>
-      </c>
-      <c r="H445" s="5">
-        <v>20</v>
-      </c>
-      <c r="I445" s="5">
-        <v>100</v>
-      </c>
-      <c r="J445" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="K445" s="11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="446" customHeight="1" spans="3:11">
-      <c r="C446" s="6">
-        <v>8010</v>
-      </c>
-      <c r="D446" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="E446" s="6">
-        <v>8</v>
-      </c>
-      <c r="F446" s="6">
-        <v>150</v>
-      </c>
-      <c r="G446" s="5">
-        <v>1</v>
-      </c>
-      <c r="H446" s="6">
-        <v>19</v>
-      </c>
-      <c r="I446" s="6">
-        <v>100</v>
-      </c>
-      <c r="J446" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="K446" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="447" customHeight="1" spans="3:11">
-      <c r="C447" s="6">
-        <v>8011</v>
-      </c>
-      <c r="D447" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E447" s="6">
-        <v>8</v>
-      </c>
-      <c r="F447" s="6">
-        <v>160</v>
-      </c>
-      <c r="G447" s="5">
-        <v>1</v>
-      </c>
-      <c r="H447" s="6">
-        <v>24</v>
-      </c>
       <c r="I447" s="6">
-        <v>100</v>
-      </c>
-      <c r="J447" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="K447" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="448" customHeight="1" spans="3:11">
-      <c r="C448" s="6">
-        <v>8012</v>
-      </c>
-      <c r="D448" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E448" s="6">
-        <v>8</v>
-      </c>
-      <c r="F448" s="6">
-        <v>170</v>
-      </c>
-      <c r="G448" s="5">
-        <v>1</v>
-      </c>
-      <c r="H448" s="6">
-        <v>7</v>
-      </c>
-      <c r="I448" s="6">
-        <v>15</v>
-      </c>
-      <c r="J448" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="K448" s="11" t="s">
-        <v>483</v>
+        <v>1</v>
+      </c>
+      <c r="J447" s="6" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="3:11">
       <c r="C449" s="6">
-        <v>8013</v>
+        <v>8001</v>
       </c>
       <c r="D449" s="8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E449" s="6">
         <v>8</v>
       </c>
       <c r="F449" s="6">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G449" s="5">
         <v>1</v>
       </c>
-      <c r="H449" s="6">
-        <v>12</v>
-      </c>
-      <c r="I449" s="6">
-        <v>30</v>
+      <c r="H449" s="5">
+        <v>20</v>
+      </c>
+      <c r="I449" s="5">
+        <v>100</v>
       </c>
       <c r="J449" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="K449" s="11" t="s">
         <v>471</v>
+      </c>
+      <c r="K449" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="450" customHeight="1" spans="3:11">
       <c r="C450" s="6">
-        <v>8014</v>
+        <v>8002</v>
       </c>
       <c r="D450" s="8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E450" s="6">
         <v>8</v>
       </c>
       <c r="F450" s="6">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="G450" s="5">
         <v>1</v>
       </c>
       <c r="H450" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I450" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J450" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="K450" s="11" t="s">
-        <v>488</v>
+        <v>471</v>
+      </c>
+      <c r="K450" s="10" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="451" customHeight="1" spans="3:11">
       <c r="C451" s="6">
-        <v>8015</v>
-      </c>
-      <c r="D451" s="8" t="s">
-        <v>489</v>
+        <v>8003</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>475</v>
       </c>
       <c r="E451" s="6">
         <v>8</v>
       </c>
       <c r="F451" s="6">
+        <v>50</v>
+      </c>
+      <c r="G451" s="5">
+        <v>1</v>
+      </c>
+      <c r="H451" s="6">
+        <v>8</v>
+      </c>
+      <c r="I451" s="6">
+        <v>10</v>
+      </c>
+      <c r="J451" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K451" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="452" customHeight="1" spans="3:11">
+      <c r="C452" s="6">
+        <v>8004</v>
+      </c>
+      <c r="D452" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E452" s="6">
+        <v>8</v>
+      </c>
+      <c r="F452" s="6">
+        <v>60</v>
+      </c>
+      <c r="G452" s="5">
+        <v>1</v>
+      </c>
+      <c r="H452" s="6">
+        <v>9</v>
+      </c>
+      <c r="I452" s="6">
+        <v>50</v>
+      </c>
+      <c r="J452" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K452" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="453" customHeight="1" spans="3:11">
+      <c r="C453" s="6">
+        <v>8005</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E453" s="6">
+        <v>8</v>
+      </c>
+      <c r="F453" s="6">
+        <v>70</v>
+      </c>
+      <c r="G453" s="5">
+        <v>1</v>
+      </c>
+      <c r="H453" s="6">
+        <v>30</v>
+      </c>
+      <c r="I453" s="6">
+        <v>30</v>
+      </c>
+      <c r="J453" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K453" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="454" customHeight="1" spans="3:11">
+      <c r="C454" s="6">
+        <v>8006</v>
+      </c>
+      <c r="D454" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E454" s="6">
+        <v>8</v>
+      </c>
+      <c r="F454" s="6">
+        <v>80</v>
+      </c>
+      <c r="G454" s="5">
+        <v>1</v>
+      </c>
+      <c r="H454" s="6">
+        <v>7</v>
+      </c>
+      <c r="I454" s="6">
+        <v>10</v>
+      </c>
+      <c r="J454" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K454" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="455" customHeight="1" spans="3:11">
+      <c r="C455" s="6">
+        <v>8007</v>
+      </c>
+      <c r="D455" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E455" s="6">
+        <v>8</v>
+      </c>
+      <c r="F455" s="6">
+        <v>90</v>
+      </c>
+      <c r="G455" s="5">
+        <v>1</v>
+      </c>
+      <c r="H455" s="6">
+        <v>12</v>
+      </c>
+      <c r="I455" s="6">
+        <v>30</v>
+      </c>
+      <c r="J455" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K455" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="456" customHeight="1" spans="3:11">
+      <c r="C456" s="6">
+        <v>8008</v>
+      </c>
+      <c r="D456" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E456" s="6">
+        <v>8</v>
+      </c>
+      <c r="F456" s="6">
+        <v>100</v>
+      </c>
+      <c r="G456" s="5">
+        <v>2</v>
+      </c>
+      <c r="H456" s="5">
+        <v>0</v>
+      </c>
+      <c r="I456" s="5">
+        <v>1</v>
+      </c>
+      <c r="J456" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="457" customHeight="1" spans="3:11">
+      <c r="C457" s="6">
+        <v>8009</v>
+      </c>
+      <c r="D457" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E457" s="6">
+        <v>8</v>
+      </c>
+      <c r="F457" s="6">
+        <v>140</v>
+      </c>
+      <c r="G457" s="5">
+        <v>1</v>
+      </c>
+      <c r="H457" s="5">
+        <v>20</v>
+      </c>
+      <c r="I457" s="5">
+        <v>100</v>
+      </c>
+      <c r="J457" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="K457" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="458" customHeight="1" spans="3:11">
+      <c r="C458" s="6">
+        <v>8010</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E458" s="6">
+        <v>8</v>
+      </c>
+      <c r="F458" s="6">
+        <v>150</v>
+      </c>
+      <c r="G458" s="5">
+        <v>1</v>
+      </c>
+      <c r="H458" s="6">
+        <v>19</v>
+      </c>
+      <c r="I458" s="6">
+        <v>100</v>
+      </c>
+      <c r="J458" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="K458" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="459" customHeight="1" spans="3:11">
+      <c r="C459" s="6">
+        <v>8011</v>
+      </c>
+      <c r="D459" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E459" s="6">
+        <v>8</v>
+      </c>
+      <c r="F459" s="6">
+        <v>160</v>
+      </c>
+      <c r="G459" s="5">
+        <v>1</v>
+      </c>
+      <c r="H459" s="6">
+        <v>24</v>
+      </c>
+      <c r="I459" s="6">
+        <v>100</v>
+      </c>
+      <c r="J459" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="K459" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="460" customHeight="1" spans="3:11">
+      <c r="C460" s="6">
+        <v>8012</v>
+      </c>
+      <c r="D460" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E460" s="6">
+        <v>8</v>
+      </c>
+      <c r="F460" s="6">
+        <v>170</v>
+      </c>
+      <c r="G460" s="5">
+        <v>1</v>
+      </c>
+      <c r="H460" s="6">
+        <v>7</v>
+      </c>
+      <c r="I460" s="6">
+        <v>15</v>
+      </c>
+      <c r="J460" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K460" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="461" customHeight="1" spans="3:11">
+      <c r="C461" s="6">
+        <v>8013</v>
+      </c>
+      <c r="D461" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E461" s="6">
+        <v>8</v>
+      </c>
+      <c r="F461" s="6">
+        <v>180</v>
+      </c>
+      <c r="G461" s="5">
+        <v>1</v>
+      </c>
+      <c r="H461" s="6">
+        <v>12</v>
+      </c>
+      <c r="I461" s="6">
+        <v>30</v>
+      </c>
+      <c r="J461" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="K461" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="462" customHeight="1" spans="3:11">
+      <c r="C462" s="6">
+        <v>8014</v>
+      </c>
+      <c r="D462" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E462" s="6">
+        <v>8</v>
+      </c>
+      <c r="F462" s="6">
+        <v>190</v>
+      </c>
+      <c r="G462" s="5">
+        <v>1</v>
+      </c>
+      <c r="H462" s="6">
+        <v>13</v>
+      </c>
+      <c r="I462" s="6">
+        <v>30</v>
+      </c>
+      <c r="J462" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="K462" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="463" customHeight="1" spans="3:11">
+      <c r="C463" s="6">
+        <v>8015</v>
+      </c>
+      <c r="D463" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E463" s="6">
+        <v>8</v>
+      </c>
+      <c r="F463" s="6">
         <v>200</v>
       </c>
-      <c r="G451" s="10">
+      <c r="G463" s="5">
         <v>6</v>
       </c>
-      <c r="H451" s="10">
+      <c r="H463" s="5">
         <v>0</v>
       </c>
-      <c r="I451" s="10">
-        <v>1</v>
-      </c>
-      <c r="J451" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="K451" s="3" t="s">
-        <v>491</v>
+      <c r="I463" s="5">
+        <v>1</v>
+      </c>
+      <c r="J463" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="633">
   <si>
     <t>#</t>
   </si>
@@ -1871,6 +1871,21 @@
   </si>
   <si>
     <t>BOSS之家30</t>
+  </si>
+  <si>
+    <t>BOSS之家31</t>
+  </si>
+  <si>
+    <t>BOSS之家32</t>
+  </si>
+  <si>
+    <t>BOSS之家33</t>
+  </si>
+  <si>
+    <t>BOSS之家34</t>
+  </si>
+  <si>
+    <t>BOSS之家35</t>
   </si>
   <si>
     <t>小试牛刀</t>
@@ -2159,12 +2174,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2651,10 +2666,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2975,10 +2990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K589"/>
+  <dimension ref="A2:K594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="N230" sqref="N230"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="G567" sqref="G567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -15793,7 +15808,7 @@
         <v>2</v>
       </c>
       <c r="F433" s="6">
-        <f t="shared" ref="F433:F455" si="9">(C433-2000)*12</f>
+        <f t="shared" ref="F433:F459" si="9">(C433-2000)*12</f>
         <v>2316</v>
       </c>
       <c r="G433" s="6">
@@ -16153,7 +16168,7 @@
         <v>2</v>
       </c>
       <c r="F445" s="6">
-        <f>(C445-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2460</v>
       </c>
       <c r="G445" s="6">
@@ -16183,7 +16198,7 @@
         <v>2</v>
       </c>
       <c r="F446" s="6">
-        <f>(C446-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2472</v>
       </c>
       <c r="G446" s="6">
@@ -16213,7 +16228,7 @@
         <v>2</v>
       </c>
       <c r="F447" s="6">
-        <f>(C447-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2484</v>
       </c>
       <c r="G447" s="6">
@@ -16243,7 +16258,7 @@
         <v>2</v>
       </c>
       <c r="F448" s="6">
-        <f>(C448-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2496</v>
       </c>
       <c r="G448" s="6">
@@ -16273,7 +16288,7 @@
         <v>2</v>
       </c>
       <c r="F449" s="6">
-        <f>(C449-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2508</v>
       </c>
       <c r="G449" s="6">
@@ -16303,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="F450" s="6">
-        <f>(C450-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2520</v>
       </c>
       <c r="G450" s="6">
@@ -16333,7 +16348,7 @@
         <v>2</v>
       </c>
       <c r="F451" s="6">
-        <f>(C451-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2532</v>
       </c>
       <c r="G451" s="6">
@@ -16363,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="F452" s="6">
-        <f>(C452-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2544</v>
       </c>
       <c r="G452" s="6">
@@ -16393,7 +16408,7 @@
         <v>2</v>
       </c>
       <c r="F453" s="6">
-        <f>(C453-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2556</v>
       </c>
       <c r="G453" s="6">
@@ -16423,7 +16438,7 @@
         <v>2</v>
       </c>
       <c r="F454" s="6">
-        <f>(C454-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2568</v>
       </c>
       <c r="G454" s="6">
@@ -16453,7 +16468,7 @@
         <v>2</v>
       </c>
       <c r="F455" s="4">
-        <f>(C455-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2580</v>
       </c>
       <c r="G455" s="4">
@@ -16483,7 +16498,7 @@
         <v>2</v>
       </c>
       <c r="F456" s="6">
-        <f>(C456-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2592</v>
       </c>
       <c r="G456" s="6">
@@ -16513,7 +16528,7 @@
         <v>2</v>
       </c>
       <c r="F457" s="6">
-        <f>(C457-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2604</v>
       </c>
       <c r="G457" s="6">
@@ -16543,7 +16558,7 @@
         <v>2</v>
       </c>
       <c r="F458" s="6">
-        <f>(C458-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2616</v>
       </c>
       <c r="G458" s="6">
@@ -16573,7 +16588,7 @@
         <v>2</v>
       </c>
       <c r="F459" s="6">
-        <f>(C459-2000)*12</f>
+        <f t="shared" si="9"/>
         <v>2628</v>
       </c>
       <c r="G459" s="6">
@@ -18986,7 +19001,7 @@
         <v>6</v>
       </c>
       <c r="F564" s="6">
-        <f t="shared" ref="F564:F573" si="12">F563+100</f>
+        <f t="shared" ref="F564:F578" si="12">F563+100</f>
         <v>2100</v>
       </c>
       <c r="G564" s="6">
@@ -19245,439 +19260,574 @@
         <v>563</v>
       </c>
     </row>
-    <row r="575" customHeight="1" spans="3:11">
+    <row r="574" customHeight="1" spans="3:10">
+      <c r="C574" s="6">
+        <v>6031</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E574" s="6">
+        <v>6</v>
+      </c>
+      <c r="F574" s="6">
+        <f t="shared" ref="F574:F578" si="13">F573+200</f>
+        <v>3200</v>
+      </c>
+      <c r="G574" s="6">
+        <v>4</v>
+      </c>
+      <c r="H574" s="6">
+        <v>0</v>
+      </c>
+      <c r="I574" s="6">
+        <v>1</v>
+      </c>
+      <c r="J574" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="575" customHeight="1" spans="3:10">
       <c r="C575" s="6">
-        <v>8001</v>
-      </c>
-      <c r="D575" s="8" t="s">
-        <v>593</v>
+        <v>6032</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>594</v>
       </c>
       <c r="E575" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F575" s="6">
-        <v>10</v>
-      </c>
-      <c r="G575" s="5">
-        <v>1</v>
-      </c>
-      <c r="H575" s="5">
-        <v>20</v>
-      </c>
-      <c r="I575" s="5">
-        <v>100</v>
-      </c>
-      <c r="J575" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K575" s="9" t="s">
+        <f t="shared" si="13"/>
+        <v>3400</v>
+      </c>
+      <c r="G575" s="6">
+        <v>4</v>
+      </c>
+      <c r="H575" s="6">
+        <v>0</v>
+      </c>
+      <c r="I575" s="6">
+        <v>1</v>
+      </c>
+      <c r="J575" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="576" customHeight="1" spans="3:10">
+      <c r="C576" s="6">
+        <v>6033</v>
+      </c>
+      <c r="D576" s="6" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="576" customHeight="1" spans="3:11">
-      <c r="C576" s="6">
-        <v>8002</v>
-      </c>
-      <c r="D576" s="8" t="s">
+      <c r="E576" s="6">
+        <v>6</v>
+      </c>
+      <c r="F576" s="6">
+        <f t="shared" si="13"/>
+        <v>3600</v>
+      </c>
+      <c r="G576" s="6">
+        <v>4</v>
+      </c>
+      <c r="H576" s="6">
+        <v>0</v>
+      </c>
+      <c r="I576" s="6">
+        <v>1</v>
+      </c>
+      <c r="J576" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="577" customHeight="1" spans="3:10">
+      <c r="C577" s="6">
+        <v>6034</v>
+      </c>
+      <c r="D577" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E576" s="6">
-        <v>8</v>
-      </c>
-      <c r="F576" s="6">
-        <v>30</v>
-      </c>
-      <c r="G576" s="5">
-        <v>1</v>
-      </c>
-      <c r="H576" s="6">
-        <v>19</v>
-      </c>
-      <c r="I576" s="6">
-        <v>100</v>
-      </c>
-      <c r="J576" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K576" s="9" t="s">
+      <c r="E577" s="6">
+        <v>6</v>
+      </c>
+      <c r="F577" s="6">
+        <f t="shared" si="13"/>
+        <v>3800</v>
+      </c>
+      <c r="G577" s="6">
+        <v>4</v>
+      </c>
+      <c r="H577" s="6">
+        <v>0</v>
+      </c>
+      <c r="I577" s="6">
+        <v>1</v>
+      </c>
+      <c r="J577" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="578" customHeight="1" spans="3:10">
+      <c r="C578" s="6">
+        <v>6035</v>
+      </c>
+      <c r="D578" s="6" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="577" customHeight="1" spans="3:11">
-      <c r="C577" s="6">
-        <v>8003</v>
-      </c>
-      <c r="D577" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="E577" s="6">
-        <v>8</v>
-      </c>
-      <c r="F577" s="6">
-        <v>50</v>
-      </c>
-      <c r="G577" s="5">
-        <v>1</v>
-      </c>
-      <c r="H577" s="6">
-        <v>8</v>
-      </c>
-      <c r="I577" s="6">
-        <v>10</v>
-      </c>
-      <c r="J577" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K577" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="578" customHeight="1" spans="3:11">
-      <c r="C578" s="6">
-        <v>8004</v>
-      </c>
-      <c r="D578" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="E578" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F578" s="6">
-        <v>60</v>
-      </c>
-      <c r="G578" s="5">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>4000</v>
+      </c>
+      <c r="G578" s="6">
+        <v>4</v>
       </c>
       <c r="H578" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I578" s="6">
-        <v>50</v>
-      </c>
-      <c r="J578" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K578" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="579" customHeight="1" spans="3:11">
-      <c r="C579" s="6">
-        <v>8005</v>
-      </c>
-      <c r="D579" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="E579" s="6">
-        <v>8</v>
-      </c>
-      <c r="F579" s="6">
-        <v>70</v>
-      </c>
-      <c r="G579" s="5">
-        <v>1</v>
-      </c>
-      <c r="H579" s="6">
-        <v>30</v>
-      </c>
-      <c r="I579" s="6">
-        <v>30</v>
-      </c>
-      <c r="J579" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K579" s="9" t="s">
-        <v>603</v>
+        <v>1</v>
+      </c>
+      <c r="J578" s="6" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="580" customHeight="1" spans="3:11">
       <c r="C580" s="6">
-        <v>8006</v>
+        <v>8001</v>
       </c>
       <c r="D580" s="8" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E580" s="6">
         <v>8</v>
       </c>
       <c r="F580" s="6">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G580" s="5">
         <v>1</v>
       </c>
-      <c r="H580" s="6">
-        <v>7</v>
-      </c>
-      <c r="I580" s="6">
-        <v>10</v>
+      <c r="H580" s="5">
+        <v>20</v>
+      </c>
+      <c r="I580" s="5">
+        <v>100</v>
       </c>
       <c r="J580" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K580" s="9" t="s">
-        <v>605</v>
+        <v>599</v>
+      </c>
+      <c r="K580" s="10" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="581" customHeight="1" spans="3:11">
       <c r="C581" s="6">
-        <v>8007</v>
+        <v>8002</v>
       </c>
       <c r="D581" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E581" s="6">
         <v>8</v>
       </c>
       <c r="F581" s="6">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G581" s="5">
         <v>1</v>
       </c>
       <c r="H581" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I581" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J581" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K581" s="9" t="s">
-        <v>607</v>
+        <v>599</v>
+      </c>
+      <c r="K581" s="10" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="582" customHeight="1" spans="3:11">
       <c r="C582" s="6">
-        <v>8008</v>
-      </c>
-      <c r="D582" s="8" t="s">
-        <v>608</v>
+        <v>8003</v>
+      </c>
+      <c r="D582" s="9" t="s">
+        <v>603</v>
       </c>
       <c r="E582" s="6">
         <v>8</v>
       </c>
       <c r="F582" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G582" s="5">
-        <v>2</v>
-      </c>
-      <c r="H582" s="5">
-        <v>0</v>
-      </c>
-      <c r="I582" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H582" s="6">
+        <v>8</v>
+      </c>
+      <c r="I582" s="6">
+        <v>10</v>
       </c>
       <c r="J582" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K582" s="3" t="s">
-        <v>26</v>
+        <v>599</v>
+      </c>
+      <c r="K582" s="10" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="583" customHeight="1" spans="3:11">
       <c r="C583" s="6">
-        <v>8009</v>
+        <v>8004</v>
       </c>
       <c r="D583" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E583" s="6">
         <v>8</v>
       </c>
       <c r="F583" s="6">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G583" s="5">
         <v>1</v>
       </c>
-      <c r="H583" s="5">
-        <v>20</v>
-      </c>
-      <c r="I583" s="5">
-        <v>100</v>
+      <c r="H583" s="6">
+        <v>9</v>
+      </c>
+      <c r="I583" s="6">
+        <v>50</v>
       </c>
       <c r="J583" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="K583" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
+      </c>
+      <c r="K583" s="10" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="584" customHeight="1" spans="3:11">
       <c r="C584" s="6">
-        <v>8010</v>
-      </c>
-      <c r="D584" s="10" t="s">
-        <v>611</v>
+        <v>8005</v>
+      </c>
+      <c r="D584" s="8" t="s">
+        <v>607</v>
       </c>
       <c r="E584" s="6">
         <v>8</v>
       </c>
       <c r="F584" s="6">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G584" s="5">
         <v>1</v>
       </c>
       <c r="H584" s="6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I584" s="6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J584" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="K584" s="9" t="s">
-        <v>613</v>
+        <v>599</v>
+      </c>
+      <c r="K584" s="10" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="585" customHeight="1" spans="3:11">
       <c r="C585" s="6">
-        <v>8011</v>
+        <v>8006</v>
       </c>
       <c r="D585" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E585" s="6">
         <v>8</v>
       </c>
       <c r="F585" s="6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G585" s="5">
         <v>1</v>
       </c>
       <c r="H585" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I585" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J585" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="K585" s="9" t="s">
-        <v>616</v>
+        <v>599</v>
+      </c>
+      <c r="K585" s="10" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="586" customHeight="1" spans="3:11">
       <c r="C586" s="6">
-        <v>8012</v>
+        <v>8007</v>
       </c>
       <c r="D586" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E586" s="6">
         <v>8</v>
       </c>
       <c r="F586" s="6">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="G586" s="5">
         <v>1</v>
       </c>
       <c r="H586" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I586" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J586" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="K586" s="9" t="s">
-        <v>619</v>
+        <v>599</v>
+      </c>
+      <c r="K586" s="10" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="587" customHeight="1" spans="3:11">
       <c r="C587" s="6">
-        <v>8013</v>
+        <v>8008</v>
       </c>
       <c r="D587" s="8" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E587" s="6">
         <v>8</v>
       </c>
       <c r="F587" s="6">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="G587" s="5">
-        <v>1</v>
-      </c>
-      <c r="H587" s="6">
-        <v>12</v>
-      </c>
-      <c r="I587" s="6">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="H587" s="5">
+        <v>0</v>
+      </c>
+      <c r="I587" s="5">
+        <v>1</v>
       </c>
       <c r="J587" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="K587" s="9" t="s">
-        <v>607</v>
+        <v>599</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="588" customHeight="1" spans="3:11">
       <c r="C588" s="6">
-        <v>8014</v>
+        <v>8009</v>
       </c>
       <c r="D588" s="8" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E588" s="6">
         <v>8</v>
       </c>
       <c r="F588" s="6">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="G588" s="5">
         <v>1</v>
       </c>
-      <c r="H588" s="6">
-        <v>13</v>
-      </c>
-      <c r="I588" s="6">
-        <v>30</v>
+      <c r="H588" s="5">
+        <v>20</v>
+      </c>
+      <c r="I588" s="5">
+        <v>100</v>
       </c>
       <c r="J588" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="K588" s="9" t="s">
-        <v>624</v>
+        <v>615</v>
+      </c>
+      <c r="K588" s="10" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="3:11">
       <c r="C589" s="6">
-        <v>8015</v>
-      </c>
-      <c r="D589" s="8" t="s">
-        <v>625</v>
+        <v>8010</v>
+      </c>
+      <c r="D589" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E589" s="6">
         <v>8</v>
       </c>
       <c r="F589" s="6">
+        <v>150</v>
+      </c>
+      <c r="G589" s="5">
+        <v>1</v>
+      </c>
+      <c r="H589" s="6">
+        <v>19</v>
+      </c>
+      <c r="I589" s="6">
+        <v>100</v>
+      </c>
+      <c r="J589" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="K589" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="590" customHeight="1" spans="3:11">
+      <c r="C590" s="6">
+        <v>8011</v>
+      </c>
+      <c r="D590" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E590" s="6">
+        <v>8</v>
+      </c>
+      <c r="F590" s="6">
+        <v>160</v>
+      </c>
+      <c r="G590" s="5">
+        <v>1</v>
+      </c>
+      <c r="H590" s="6">
+        <v>24</v>
+      </c>
+      <c r="I590" s="6">
+        <v>100</v>
+      </c>
+      <c r="J590" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="K590" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="591" customHeight="1" spans="3:11">
+      <c r="C591" s="6">
+        <v>8012</v>
+      </c>
+      <c r="D591" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E591" s="6">
+        <v>8</v>
+      </c>
+      <c r="F591" s="6">
+        <v>170</v>
+      </c>
+      <c r="G591" s="5">
+        <v>1</v>
+      </c>
+      <c r="H591" s="6">
+        <v>7</v>
+      </c>
+      <c r="I591" s="6">
+        <v>15</v>
+      </c>
+      <c r="J591" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="K591" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="592" customHeight="1" spans="3:11">
+      <c r="C592" s="6">
+        <v>8013</v>
+      </c>
+      <c r="D592" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="E592" s="6">
+        <v>8</v>
+      </c>
+      <c r="F592" s="6">
+        <v>180</v>
+      </c>
+      <c r="G592" s="5">
+        <v>1</v>
+      </c>
+      <c r="H592" s="6">
+        <v>12</v>
+      </c>
+      <c r="I592" s="6">
+        <v>30</v>
+      </c>
+      <c r="J592" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="K592" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="593" customHeight="1" spans="3:11">
+      <c r="C593" s="6">
+        <v>8014</v>
+      </c>
+      <c r="D593" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E593" s="6">
+        <v>8</v>
+      </c>
+      <c r="F593" s="6">
+        <v>190</v>
+      </c>
+      <c r="G593" s="5">
+        <v>1</v>
+      </c>
+      <c r="H593" s="6">
+        <v>13</v>
+      </c>
+      <c r="I593" s="6">
+        <v>30</v>
+      </c>
+      <c r="J593" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="K593" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="594" customHeight="1" spans="3:11">
+      <c r="C594" s="6">
+        <v>8015</v>
+      </c>
+      <c r="D594" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E594" s="6">
+        <v>8</v>
+      </c>
+      <c r="F594" s="6">
         <v>200</v>
       </c>
-      <c r="G589" s="5">
+      <c r="G594" s="5">
         <v>6</v>
       </c>
-      <c r="H589" s="5">
+      <c r="H594" s="5">
         <v>0</v>
       </c>
-      <c r="I589" s="5">
-        <v>1</v>
-      </c>
-      <c r="J589" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="K589" s="3" t="s">
-        <v>627</v>
+      <c r="I594" s="5">
+        <v>1</v>
+      </c>
+      <c r="J594" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K594" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -2582,12 +2582,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3400,8 +3400,8 @@
   <sheetPr/>
   <dimension ref="A2:K736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="D275" sqref="D275"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="H564" sqref="H564:H591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -19811,10 +19811,10 @@
         <v>1</v>
       </c>
       <c r="H572" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I572" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J572" s="6" t="s">
         <v>568</v>
@@ -19838,10 +19838,10 @@
         <v>1</v>
       </c>
       <c r="H573" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I573" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J573" s="6" t="s">
         <v>568</v>
@@ -19865,10 +19865,10 @@
         <v>1</v>
       </c>
       <c r="H574" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I574" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J574" s="6" t="s">
         <v>568</v>
@@ -19892,10 +19892,10 @@
         <v>1</v>
       </c>
       <c r="H575" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I575" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J575" s="6" t="s">
         <v>568</v>
@@ -19919,10 +19919,10 @@
         <v>1</v>
       </c>
       <c r="H576" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I576" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J576" s="6" t="s">
         <v>568</v>
@@ -19946,10 +19946,10 @@
         <v>1</v>
       </c>
       <c r="H577" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I577" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J577" s="6" t="s">
         <v>568</v>
@@ -19973,10 +19973,10 @@
         <v>1</v>
       </c>
       <c r="H578" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I578" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J578" s="6" t="s">
         <v>568</v>
@@ -20000,10 +20000,10 @@
         <v>1</v>
       </c>
       <c r="H579" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I579" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J579" s="6" t="s">
         <v>568</v>
@@ -20027,10 +20027,10 @@
         <v>1</v>
       </c>
       <c r="H580" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I580" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J580" s="6" t="s">
         <v>568</v>
@@ -20054,10 +20054,10 @@
         <v>1</v>
       </c>
       <c r="H581" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I581" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J581" s="6" t="s">
         <v>568</v>
@@ -20081,10 +20081,10 @@
         <v>1</v>
       </c>
       <c r="H582" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I582" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J582" s="6" t="s">
         <v>568</v>
@@ -20108,10 +20108,10 @@
         <v>1</v>
       </c>
       <c r="H583" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I583" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J583" s="6" t="s">
         <v>568</v>
@@ -20135,10 +20135,10 @@
         <v>1</v>
       </c>
       <c r="H584" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I584" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J584" s="6" t="s">
         <v>568</v>
@@ -20162,10 +20162,10 @@
         <v>1</v>
       </c>
       <c r="H585" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I585" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J585" s="6" t="s">
         <v>568</v>
@@ -20189,10 +20189,10 @@
         <v>1</v>
       </c>
       <c r="H586" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I586" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J586" s="6" t="s">
         <v>568</v>
@@ -20216,10 +20216,10 @@
         <v>1</v>
       </c>
       <c r="H587" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I587" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J587" s="6" t="s">
         <v>568</v>
@@ -20243,10 +20243,10 @@
         <v>1</v>
       </c>
       <c r="H588" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I588" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J588" s="6" t="s">
         <v>568</v>
@@ -20270,10 +20270,10 @@
         <v>1</v>
       </c>
       <c r="H589" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I589" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J589" s="6" t="s">
         <v>568</v>
@@ -20297,10 +20297,10 @@
         <v>1</v>
       </c>
       <c r="H590" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I590" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J590" s="6" t="s">
         <v>568</v>
@@ -20324,10 +20324,10 @@
         <v>1</v>
       </c>
       <c r="H591" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I591" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J591" s="6" t="s">
         <v>568</v>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="842">
   <si>
     <t>#</t>
   </si>
@@ -2570,6 +2570,54 @@
   </si>
   <si>
     <t>技能栏+1</t>
+  </si>
+  <si>
+    <t>初出茅庐2</t>
+  </si>
+  <si>
+    <t>小试牛刀2</t>
+  </si>
+  <si>
+    <t>法功倍率</t>
+  </si>
+  <si>
+    <t>初露锋芒2</t>
+  </si>
+  <si>
+    <t>道术倍率</t>
+  </si>
+  <si>
+    <t>武林新秀2</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
+  </si>
+  <si>
+    <t>声名鹊起2</t>
+  </si>
+  <si>
+    <t>防御倍率</t>
+  </si>
+  <si>
+    <t>过关斩将2</t>
+  </si>
+  <si>
+    <t>攻击倍率</t>
+  </si>
+  <si>
+    <t>独孤求败2</t>
+  </si>
+  <si>
+    <t>增伤倍率</t>
+  </si>
+  <si>
+    <t>武林至尊2</t>
+  </si>
+  <si>
+    <t>减伤倍率</t>
+  </si>
+  <si>
+    <t>天下无敌2</t>
   </si>
 </sst>
 </file>
@@ -3569,10 +3617,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K786"/>
+  <dimension ref="A2:K795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="J305" sqref="J305"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="K798" sqref="K798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -25989,6 +26037,267 @@
         <v>825</v>
       </c>
     </row>
+    <row r="787" customHeight="1" spans="3:11">
+      <c r="C787" s="6">
+        <v>8016</v>
+      </c>
+      <c r="D787" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E787" s="6">
+        <v>8</v>
+      </c>
+      <c r="F787" s="6">
+        <v>220</v>
+      </c>
+      <c r="G787" s="5">
+        <v>1</v>
+      </c>
+      <c r="H787" s="5">
+        <v>2004</v>
+      </c>
+      <c r="I787" s="5">
+        <v>10</v>
+      </c>
+      <c r="J787" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K787" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="3:11">
+      <c r="C788" s="6">
+        <v>8017</v>
+      </c>
+      <c r="D788" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E788" s="6">
+        <v>8</v>
+      </c>
+      <c r="F788" s="6">
+        <v>230</v>
+      </c>
+      <c r="G788" s="5">
+        <v>1</v>
+      </c>
+      <c r="H788" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I788" s="5">
+        <v>10</v>
+      </c>
+      <c r="J788" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K788" s="10" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="789" customHeight="1" spans="3:11">
+      <c r="C789" s="6">
+        <v>8018</v>
+      </c>
+      <c r="D789" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E789" s="6">
+        <v>8</v>
+      </c>
+      <c r="F789" s="6">
+        <v>240</v>
+      </c>
+      <c r="G789" s="5">
+        <v>1</v>
+      </c>
+      <c r="H789" s="5">
+        <v>2006</v>
+      </c>
+      <c r="I789" s="6">
+        <v>10</v>
+      </c>
+      <c r="J789" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K789" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="790" customHeight="1" spans="3:11">
+      <c r="C790" s="6">
+        <v>8019</v>
+      </c>
+      <c r="D790" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="E790" s="6">
+        <v>8</v>
+      </c>
+      <c r="F790" s="6">
+        <v>250</v>
+      </c>
+      <c r="G790" s="5">
+        <v>1</v>
+      </c>
+      <c r="H790" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I790" s="6">
+        <v>30</v>
+      </c>
+      <c r="J790" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K790" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="791" customHeight="1" spans="3:11">
+      <c r="C791" s="6">
+        <v>8020</v>
+      </c>
+      <c r="D791" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E791" s="6">
+        <v>8</v>
+      </c>
+      <c r="F791" s="6">
+        <v>260</v>
+      </c>
+      <c r="G791" s="5">
+        <v>1</v>
+      </c>
+      <c r="H791" s="6">
+        <v>2002</v>
+      </c>
+      <c r="I791" s="6">
+        <v>20</v>
+      </c>
+      <c r="J791" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K791" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="792" customHeight="1" spans="3:11">
+      <c r="C792" s="6">
+        <v>8021</v>
+      </c>
+      <c r="D792" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="E792" s="6">
+        <v>8</v>
+      </c>
+      <c r="F792" s="6">
+        <v>270</v>
+      </c>
+      <c r="G792" s="5">
+        <v>1</v>
+      </c>
+      <c r="H792" s="6">
+        <v>2001</v>
+      </c>
+      <c r="I792" s="6">
+        <v>10</v>
+      </c>
+      <c r="J792" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K792" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="793" customHeight="1" spans="3:11">
+      <c r="C793" s="6">
+        <v>8022</v>
+      </c>
+      <c r="D793" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E793" s="6">
+        <v>8</v>
+      </c>
+      <c r="F793" s="6">
+        <v>280</v>
+      </c>
+      <c r="G793" s="5">
+        <v>1</v>
+      </c>
+      <c r="H793" s="6">
+        <v>2011</v>
+      </c>
+      <c r="I793" s="6">
+        <v>10</v>
+      </c>
+      <c r="J793" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K793" s="10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="794" customHeight="1" spans="3:11">
+      <c r="C794" s="6">
+        <v>8023</v>
+      </c>
+      <c r="D794" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="E794" s="6">
+        <v>8</v>
+      </c>
+      <c r="F794" s="6">
+        <v>290</v>
+      </c>
+      <c r="G794" s="5">
+        <v>1</v>
+      </c>
+      <c r="H794" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I794" s="6">
+        <v>10</v>
+      </c>
+      <c r="J794" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K794" s="10" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="795" customHeight="1" spans="3:11">
+      <c r="C795" s="6">
+        <v>8024</v>
+      </c>
+      <c r="D795" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E795" s="6">
+        <v>8</v>
+      </c>
+      <c r="F795" s="6">
+        <v>300</v>
+      </c>
+      <c r="G795" s="5">
+        <v>6</v>
+      </c>
+      <c r="H795" s="5">
+        <v>0</v>
+      </c>
+      <c r="I795" s="5">
+        <v>1</v>
+      </c>
+      <c r="J795" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K795" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 I3 J3 K3 E4 F4 G4 H4 I4 J4 K4 E5 F5 G5 H5:K5 C3:C5 D3:D5" errorStyle="warning">

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="935">
   <si>
     <t>#</t>
   </si>
@@ -2299,6 +2299,36 @@
     <t>等级45</t>
   </si>
   <si>
+    <t>等级46</t>
+  </si>
+  <si>
+    <t>等级47</t>
+  </si>
+  <si>
+    <t>等级48</t>
+  </si>
+  <si>
+    <t>等级49</t>
+  </si>
+  <si>
+    <t>等级50</t>
+  </si>
+  <si>
+    <t>等级51</t>
+  </si>
+  <si>
+    <t>等级52</t>
+  </si>
+  <si>
+    <t>等级53</t>
+  </si>
+  <si>
+    <t>等级54</t>
+  </si>
+  <si>
+    <t>等级55</t>
+  </si>
+  <si>
     <t>BOSS之家1</t>
   </si>
   <si>
@@ -2467,6 +2497,36 @@
     <t>BOSS之家55</t>
   </si>
   <si>
+    <t>BOSS之家56</t>
+  </si>
+  <si>
+    <t>BOSS之家57</t>
+  </si>
+  <si>
+    <t>BOSS之家58</t>
+  </si>
+  <si>
+    <t>BOSS之家59</t>
+  </si>
+  <si>
+    <t>BOSS之家60</t>
+  </si>
+  <si>
+    <t>BOSS之家61</t>
+  </si>
+  <si>
+    <t>BOSS之家62</t>
+  </si>
+  <si>
+    <t>BOSS之家63</t>
+  </si>
+  <si>
+    <t>BOSS之家64</t>
+  </si>
+  <si>
+    <t>BOSS之家65</t>
+  </si>
+  <si>
     <t>小试牛刀</t>
   </si>
   <si>
@@ -2618,6 +2678,225 @@
   </si>
   <si>
     <t>天下无敌2</t>
+  </si>
+  <si>
+    <t>攀登者1</t>
+  </si>
+  <si>
+    <t>无尽挑战通过{0}层</t>
+  </si>
+  <si>
+    <t>攀登者2</t>
+  </si>
+  <si>
+    <t>攀登者3</t>
+  </si>
+  <si>
+    <t>攀登者4</t>
+  </si>
+  <si>
+    <t>攀登者5</t>
+  </si>
+  <si>
+    <t>攀登者6</t>
+  </si>
+  <si>
+    <t>攀登者7</t>
+  </si>
+  <si>
+    <t>攀登者8</t>
+  </si>
+  <si>
+    <t>攀登者9</t>
+  </si>
+  <si>
+    <t>攀登者10</t>
+  </si>
+  <si>
+    <t>攀登者11</t>
+  </si>
+  <si>
+    <t>攀登者12</t>
+  </si>
+  <si>
+    <t>攀登者13</t>
+  </si>
+  <si>
+    <t>攀登者14</t>
+  </si>
+  <si>
+    <t>攀登者15</t>
+  </si>
+  <si>
+    <t>攀登者16</t>
+  </si>
+  <si>
+    <t>攀登者17</t>
+  </si>
+  <si>
+    <t>攀登者18</t>
+  </si>
+  <si>
+    <t>攀登者19</t>
+  </si>
+  <si>
+    <t>攀登者20</t>
+  </si>
+  <si>
+    <t>攀登者21</t>
+  </si>
+  <si>
+    <t>攀登者22</t>
+  </si>
+  <si>
+    <t>攀登者23</t>
+  </si>
+  <si>
+    <t>攀登者24</t>
+  </si>
+  <si>
+    <t>攀登者25</t>
+  </si>
+  <si>
+    <t>攀登者26</t>
+  </si>
+  <si>
+    <t>攀登者27</t>
+  </si>
+  <si>
+    <t>攀登者28</t>
+  </si>
+  <si>
+    <t>攀登者29</t>
+  </si>
+  <si>
+    <t>攀登者30</t>
+  </si>
+  <si>
+    <t>攀登者31</t>
+  </si>
+  <si>
+    <t>攀登者32</t>
+  </si>
+  <si>
+    <t>攀登者33</t>
+  </si>
+  <si>
+    <t>攀登者34</t>
+  </si>
+  <si>
+    <t>攀登者35</t>
+  </si>
+  <si>
+    <t>攀登者36</t>
+  </si>
+  <si>
+    <t>攀登者37</t>
+  </si>
+  <si>
+    <t>攀登者38</t>
+  </si>
+  <si>
+    <t>攀登者39</t>
+  </si>
+  <si>
+    <t>攀登者40</t>
+  </si>
+  <si>
+    <t>攀登者41</t>
+  </si>
+  <si>
+    <t>攀登者42</t>
+  </si>
+  <si>
+    <t>攀登者43</t>
+  </si>
+  <si>
+    <t>攀登者44</t>
+  </si>
+  <si>
+    <t>攀登者45</t>
+  </si>
+  <si>
+    <t>攀登者46</t>
+  </si>
+  <si>
+    <t>攀登者47</t>
+  </si>
+  <si>
+    <t>攀登者48</t>
+  </si>
+  <si>
+    <t>攀登者49</t>
+  </si>
+  <si>
+    <t>攀登者50</t>
+  </si>
+  <si>
+    <t>攀登者51</t>
+  </si>
+  <si>
+    <t>攀登者52</t>
+  </si>
+  <si>
+    <t>攀登者53</t>
+  </si>
+  <si>
+    <t>攀登者54</t>
+  </si>
+  <si>
+    <t>攀登者55</t>
+  </si>
+  <si>
+    <t>攀登者56</t>
+  </si>
+  <si>
+    <t>攀登者57</t>
+  </si>
+  <si>
+    <t>攀登者58</t>
+  </si>
+  <si>
+    <t>攀登者59</t>
+  </si>
+  <si>
+    <t>攀登者60</t>
+  </si>
+  <si>
+    <t>攀登者61</t>
+  </si>
+  <si>
+    <t>攀登者62</t>
+  </si>
+  <si>
+    <t>攀登者63</t>
+  </si>
+  <si>
+    <t>攀登者64</t>
+  </si>
+  <si>
+    <t>攀登者65</t>
+  </si>
+  <si>
+    <t>攀登者66</t>
+  </si>
+  <si>
+    <t>攀登者67</t>
+  </si>
+  <si>
+    <t>攀登者68</t>
+  </si>
+  <si>
+    <t>攀登者69</t>
+  </si>
+  <si>
+    <t>攀登者70</t>
+  </si>
+  <si>
+    <t>攀登者71</t>
+  </si>
+  <si>
+    <t>攀登者72</t>
   </si>
 </sst>
 </file>
@@ -3617,10 +3896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K795"/>
+  <dimension ref="A2:K890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="K798" sqref="K798"/>
+    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
+      <selection activeCell="K849" sqref="K849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -23878,7 +24157,7 @@
         <v>5</v>
       </c>
       <c r="F705" s="6">
-        <f t="shared" ref="F705:F714" si="19">F704+3000</f>
+        <f t="shared" ref="F705:F721" si="19">F704+3000</f>
         <v>48000</v>
       </c>
       <c r="G705" s="6">
@@ -24137,278 +24416,288 @@
         <v>690</v>
       </c>
     </row>
+    <row r="715" customHeight="1" spans="3:10">
+      <c r="C715" s="6">
+        <v>5046</v>
+      </c>
+      <c r="D715" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E715" s="6">
+        <v>5</v>
+      </c>
+      <c r="F715" s="6">
+        <f t="shared" si="19"/>
+        <v>78000</v>
+      </c>
+      <c r="G715" s="6">
+        <v>1</v>
+      </c>
+      <c r="H715" s="6">
+        <v>18</v>
+      </c>
+      <c r="I715" s="6">
+        <v>15</v>
+      </c>
+      <c r="J715" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
     <row r="716" customHeight="1" spans="3:10">
       <c r="C716" s="6">
-        <v>6001</v>
+        <v>5047</v>
       </c>
       <c r="D716" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E716" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F716" s="6">
-        <v>100</v>
+        <f t="shared" si="19"/>
+        <v>81000</v>
       </c>
       <c r="G716" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H716" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I716" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J716" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="717" customHeight="1" spans="3:10">
       <c r="C717" s="6">
-        <v>6002</v>
+        <v>5048</v>
       </c>
       <c r="D717" s="6" t="s">
         <v>737</v>
       </c>
       <c r="E717" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F717" s="6">
-        <v>200</v>
+        <f t="shared" si="19"/>
+        <v>84000</v>
       </c>
       <c r="G717" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H717" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I717" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J717" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="718" customHeight="1" spans="3:10">
       <c r="C718" s="6">
-        <v>6003</v>
+        <v>5049</v>
       </c>
       <c r="D718" s="6" t="s">
         <v>738</v>
       </c>
       <c r="E718" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F718" s="6">
-        <v>300</v>
+        <f t="shared" si="19"/>
+        <v>87000</v>
       </c>
       <c r="G718" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H718" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I718" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J718" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="719" customHeight="1" spans="3:10">
       <c r="C719" s="6">
-        <v>6004</v>
+        <v>5050</v>
       </c>
       <c r="D719" s="6" t="s">
         <v>739</v>
       </c>
       <c r="E719" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F719" s="6">
-        <v>400</v>
+        <f t="shared" si="19"/>
+        <v>90000</v>
       </c>
       <c r="G719" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H719" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I719" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J719" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="720" customHeight="1" spans="3:10">
       <c r="C720" s="6">
-        <v>6005</v>
+        <v>5051</v>
       </c>
       <c r="D720" s="6" t="s">
         <v>740</v>
       </c>
       <c r="E720" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F720" s="6">
-        <v>500</v>
+        <f t="shared" ref="F720:F724" si="20">F719+4000</f>
+        <v>94000</v>
       </c>
       <c r="G720" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H720" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I720" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J720" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="721" customHeight="1" spans="3:10">
       <c r="C721" s="6">
-        <v>6006</v>
+        <v>5052</v>
       </c>
       <c r="D721" s="6" t="s">
         <v>741</v>
       </c>
       <c r="E721" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F721" s="6">
-        <v>600</v>
+        <f t="shared" si="20"/>
+        <v>98000</v>
       </c>
       <c r="G721" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H721" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I721" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J721" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="722" customHeight="1" spans="3:10">
       <c r="C722" s="6">
-        <v>6007</v>
+        <v>5053</v>
       </c>
       <c r="D722" s="6" t="s">
         <v>742</v>
       </c>
       <c r="E722" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F722" s="6">
-        <v>700</v>
+        <f t="shared" si="20"/>
+        <v>102000</v>
       </c>
       <c r="G722" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H722" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I722" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J722" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="723" customHeight="1" spans="3:10">
       <c r="C723" s="6">
-        <v>6008</v>
+        <v>5054</v>
       </c>
       <c r="D723" s="6" t="s">
         <v>743</v>
       </c>
       <c r="E723" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F723" s="6">
-        <v>800</v>
+        <f t="shared" si="20"/>
+        <v>106000</v>
       </c>
       <c r="G723" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H723" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I723" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J723" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="724" customHeight="1" spans="3:10">
       <c r="C724" s="6">
-        <v>6009</v>
+        <v>5055</v>
       </c>
       <c r="D724" s="6" t="s">
         <v>744</v>
       </c>
       <c r="E724" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F724" s="6">
-        <v>900</v>
+        <f t="shared" si="20"/>
+        <v>110000</v>
       </c>
       <c r="G724" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H724" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I724" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J724" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="725" customHeight="1" spans="3:10">
-      <c r="C725" s="6">
-        <v>6010</v>
-      </c>
-      <c r="D725" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="E725" s="6">
-        <v>6</v>
-      </c>
-      <c r="F725" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G725" s="6">
-        <v>4</v>
-      </c>
-      <c r="H725" s="6">
-        <v>0</v>
-      </c>
-      <c r="I725" s="6">
-        <v>1</v>
-      </c>
-      <c r="J725" s="6" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
     </row>
     <row r="726" customHeight="1" spans="3:10">
       <c r="C726" s="6">
-        <v>6011</v>
+        <v>6001</v>
       </c>
       <c r="D726" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E726" s="6">
         <v>6</v>
       </c>
       <c r="F726" s="6">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G726" s="6">
         <v>4</v>
@@ -24420,12 +24709,12 @@
         <v>1</v>
       </c>
       <c r="J726" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="727" customHeight="1" spans="3:10">
       <c r="C727" s="6">
-        <v>6012</v>
+        <v>6002</v>
       </c>
       <c r="D727" s="6" t="s">
         <v>747</v>
@@ -24434,7 +24723,7 @@
         <v>6</v>
       </c>
       <c r="F727" s="6">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="G727" s="6">
         <v>4</v>
@@ -24446,12 +24735,12 @@
         <v>1</v>
       </c>
       <c r="J727" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="728" customHeight="1" spans="3:10">
       <c r="C728" s="6">
-        <v>6013</v>
+        <v>6003</v>
       </c>
       <c r="D728" s="6" t="s">
         <v>748</v>
@@ -24460,7 +24749,7 @@
         <v>6</v>
       </c>
       <c r="F728" s="6">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G728" s="6">
         <v>4</v>
@@ -24472,12 +24761,12 @@
         <v>1</v>
       </c>
       <c r="J728" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="729" customHeight="1" spans="3:10">
       <c r="C729" s="6">
-        <v>6014</v>
+        <v>6004</v>
       </c>
       <c r="D729" s="6" t="s">
         <v>749</v>
@@ -24486,7 +24775,7 @@
         <v>6</v>
       </c>
       <c r="F729" s="6">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="G729" s="6">
         <v>4</v>
@@ -24498,12 +24787,12 @@
         <v>1</v>
       </c>
       <c r="J729" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="730" customHeight="1" spans="3:10">
       <c r="C730" s="6">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="D730" s="6" t="s">
         <v>750</v>
@@ -24512,7 +24801,7 @@
         <v>6</v>
       </c>
       <c r="F730" s="6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G730" s="6">
         <v>4</v>
@@ -24524,12 +24813,12 @@
         <v>1</v>
       </c>
       <c r="J730" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="731" customHeight="1" spans="3:10">
       <c r="C731" s="6">
-        <v>6016</v>
+        <v>6006</v>
       </c>
       <c r="D731" s="6" t="s">
         <v>751</v>
@@ -24538,7 +24827,7 @@
         <v>6</v>
       </c>
       <c r="F731" s="6">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="G731" s="6">
         <v>4</v>
@@ -24550,12 +24839,12 @@
         <v>1</v>
       </c>
       <c r="J731" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="732" customHeight="1" spans="3:10">
       <c r="C732" s="6">
-        <v>6017</v>
+        <v>6007</v>
       </c>
       <c r="D732" s="6" t="s">
         <v>752</v>
@@ -24564,7 +24853,7 @@
         <v>6</v>
       </c>
       <c r="F732" s="6">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="G732" s="6">
         <v>4</v>
@@ -24576,12 +24865,12 @@
         <v>1</v>
       </c>
       <c r="J732" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="733" customHeight="1" spans="3:10">
       <c r="C733" s="6">
-        <v>6018</v>
+        <v>6008</v>
       </c>
       <c r="D733" s="6" t="s">
         <v>753</v>
@@ -24590,7 +24879,7 @@
         <v>6</v>
       </c>
       <c r="F733" s="6">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G733" s="6">
         <v>4</v>
@@ -24602,12 +24891,12 @@
         <v>1</v>
       </c>
       <c r="J733" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="734" customHeight="1" spans="3:10">
       <c r="C734" s="6">
-        <v>6019</v>
+        <v>6009</v>
       </c>
       <c r="D734" s="6" t="s">
         <v>754</v>
@@ -24616,7 +24905,7 @@
         <v>6</v>
       </c>
       <c r="F734" s="6">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="G734" s="6">
         <v>4</v>
@@ -24628,12 +24917,12 @@
         <v>1</v>
       </c>
       <c r="J734" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="735" customHeight="1" spans="3:10">
       <c r="C735" s="6">
-        <v>6020</v>
+        <v>6010</v>
       </c>
       <c r="D735" s="6" t="s">
         <v>755</v>
@@ -24642,7 +24931,7 @@
         <v>6</v>
       </c>
       <c r="F735" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G735" s="6">
         <v>4</v>
@@ -24654,12 +24943,12 @@
         <v>1</v>
       </c>
       <c r="J735" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="736" customHeight="1" spans="3:10">
       <c r="C736" s="6">
-        <v>6021</v>
+        <v>6011</v>
       </c>
       <c r="D736" s="6" t="s">
         <v>756</v>
@@ -24668,8 +24957,7 @@
         <v>6</v>
       </c>
       <c r="F736" s="6">
-        <f t="shared" ref="F736:F750" si="20">F735+100</f>
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="G736" s="6">
         <v>4</v>
@@ -24681,12 +24969,12 @@
         <v>1</v>
       </c>
       <c r="J736" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="737" customHeight="1" spans="3:10">
       <c r="C737" s="6">
-        <v>6022</v>
+        <v>6012</v>
       </c>
       <c r="D737" s="6" t="s">
         <v>757</v>
@@ -24695,8 +24983,7 @@
         <v>6</v>
       </c>
       <c r="F737" s="6">
-        <f t="shared" si="20"/>
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="G737" s="6">
         <v>4</v>
@@ -24708,12 +24995,12 @@
         <v>1</v>
       </c>
       <c r="J737" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="738" customHeight="1" spans="3:10">
       <c r="C738" s="6">
-        <v>6023</v>
+        <v>6013</v>
       </c>
       <c r="D738" s="6" t="s">
         <v>758</v>
@@ -24722,8 +25009,7 @@
         <v>6</v>
       </c>
       <c r="F738" s="6">
-        <f t="shared" si="20"/>
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="G738" s="6">
         <v>4</v>
@@ -24735,12 +25021,12 @@
         <v>1</v>
       </c>
       <c r="J738" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="739" customHeight="1" spans="3:10">
       <c r="C739" s="6">
-        <v>6024</v>
+        <v>6014</v>
       </c>
       <c r="D739" s="6" t="s">
         <v>759</v>
@@ -24749,8 +25035,7 @@
         <v>6</v>
       </c>
       <c r="F739" s="6">
-        <f t="shared" si="20"/>
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="G739" s="6">
         <v>4</v>
@@ -24762,12 +25047,12 @@
         <v>1</v>
       </c>
       <c r="J739" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="740" customHeight="1" spans="3:10">
       <c r="C740" s="6">
-        <v>6025</v>
+        <v>6015</v>
       </c>
       <c r="D740" s="6" t="s">
         <v>760</v>
@@ -24776,8 +25061,7 @@
         <v>6</v>
       </c>
       <c r="F740" s="6">
-        <f t="shared" si="20"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G740" s="6">
         <v>4</v>
@@ -24789,12 +25073,12 @@
         <v>1</v>
       </c>
       <c r="J740" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="741" customHeight="1" spans="3:10">
       <c r="C741" s="6">
-        <v>6026</v>
+        <v>6016</v>
       </c>
       <c r="D741" s="6" t="s">
         <v>761</v>
@@ -24803,8 +25087,7 @@
         <v>6</v>
       </c>
       <c r="F741" s="6">
-        <f t="shared" si="20"/>
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="G741" s="6">
         <v>4</v>
@@ -24816,12 +25099,12 @@
         <v>1</v>
       </c>
       <c r="J741" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="742" customHeight="1" spans="3:10">
       <c r="C742" s="6">
-        <v>6027</v>
+        <v>6017</v>
       </c>
       <c r="D742" s="6" t="s">
         <v>762</v>
@@ -24830,8 +25113,7 @@
         <v>6</v>
       </c>
       <c r="F742" s="6">
-        <f t="shared" si="20"/>
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="G742" s="6">
         <v>4</v>
@@ -24843,12 +25125,12 @@
         <v>1</v>
       </c>
       <c r="J742" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="743" customHeight="1" spans="3:10">
       <c r="C743" s="6">
-        <v>6028</v>
+        <v>6018</v>
       </c>
       <c r="D743" s="6" t="s">
         <v>763</v>
@@ -24857,8 +25139,7 @@
         <v>6</v>
       </c>
       <c r="F743" s="6">
-        <f t="shared" si="20"/>
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="G743" s="6">
         <v>4</v>
@@ -24870,12 +25151,12 @@
         <v>1</v>
       </c>
       <c r="J743" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="744" customHeight="1" spans="3:10">
       <c r="C744" s="6">
-        <v>6029</v>
+        <v>6019</v>
       </c>
       <c r="D744" s="6" t="s">
         <v>764</v>
@@ -24884,8 +25165,7 @@
         <v>6</v>
       </c>
       <c r="F744" s="6">
-        <f t="shared" si="20"/>
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="G744" s="6">
         <v>4</v>
@@ -24897,12 +25177,12 @@
         <v>1</v>
       </c>
       <c r="J744" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="745" customHeight="1" spans="3:10">
       <c r="C745" s="6">
-        <v>6030</v>
+        <v>6020</v>
       </c>
       <c r="D745" s="6" t="s">
         <v>765</v>
@@ -24911,8 +25191,7 @@
         <v>6</v>
       </c>
       <c r="F745" s="6">
-        <f t="shared" si="20"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G745" s="6">
         <v>4</v>
@@ -24924,12 +25203,12 @@
         <v>1</v>
       </c>
       <c r="J745" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="746" customHeight="1" spans="3:10">
       <c r="C746" s="6">
-        <v>6031</v>
+        <v>6021</v>
       </c>
       <c r="D746" s="6" t="s">
         <v>766</v>
@@ -24938,8 +25217,8 @@
         <v>6</v>
       </c>
       <c r="F746" s="6">
-        <f>F745+200</f>
-        <v>3200</v>
+        <f t="shared" ref="F746:F760" si="21">F745+100</f>
+        <v>2100</v>
       </c>
       <c r="G746" s="6">
         <v>4</v>
@@ -24951,12 +25230,12 @@
         <v>1</v>
       </c>
       <c r="J746" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="747" customHeight="1" spans="3:10">
       <c r="C747" s="6">
-        <v>6032</v>
+        <v>6022</v>
       </c>
       <c r="D747" s="6" t="s">
         <v>767</v>
@@ -24965,8 +25244,8 @@
         <v>6</v>
       </c>
       <c r="F747" s="6">
-        <f>F746+200</f>
-        <v>3400</v>
+        <f t="shared" si="21"/>
+        <v>2200</v>
       </c>
       <c r="G747" s="6">
         <v>4</v>
@@ -24978,12 +25257,12 @@
         <v>1</v>
       </c>
       <c r="J747" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="748" customHeight="1" spans="3:10">
       <c r="C748" s="6">
-        <v>6033</v>
+        <v>6023</v>
       </c>
       <c r="D748" s="6" t="s">
         <v>768</v>
@@ -24992,8 +25271,8 @@
         <v>6</v>
       </c>
       <c r="F748" s="6">
-        <f>F747+200</f>
-        <v>3600</v>
+        <f t="shared" si="21"/>
+        <v>2300</v>
       </c>
       <c r="G748" s="6">
         <v>4</v>
@@ -25005,12 +25284,12 @@
         <v>1</v>
       </c>
       <c r="J748" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="749" customHeight="1" spans="3:10">
       <c r="C749" s="6">
-        <v>6034</v>
+        <v>6024</v>
       </c>
       <c r="D749" s="6" t="s">
         <v>769</v>
@@ -25019,8 +25298,8 @@
         <v>6</v>
       </c>
       <c r="F749" s="6">
-        <f>F748+200</f>
-        <v>3800</v>
+        <f t="shared" si="21"/>
+        <v>2400</v>
       </c>
       <c r="G749" s="6">
         <v>4</v>
@@ -25032,12 +25311,12 @@
         <v>1</v>
       </c>
       <c r="J749" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="750" customHeight="1" spans="3:10">
       <c r="C750" s="6">
-        <v>6035</v>
+        <v>6025</v>
       </c>
       <c r="D750" s="6" t="s">
         <v>770</v>
@@ -25046,8 +25325,8 @@
         <v>6</v>
       </c>
       <c r="F750" s="6">
-        <f>F749+200</f>
-        <v>4000</v>
+        <f t="shared" si="21"/>
+        <v>2500</v>
       </c>
       <c r="G750" s="6">
         <v>4</v>
@@ -25059,12 +25338,12 @@
         <v>1</v>
       </c>
       <c r="J750" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="751" customHeight="1" spans="3:10">
       <c r="C751" s="6">
-        <v>6036</v>
+        <v>6026</v>
       </c>
       <c r="D751" s="6" t="s">
         <v>771</v>
@@ -25073,8 +25352,8 @@
         <v>6</v>
       </c>
       <c r="F751" s="6">
-        <f t="shared" ref="F751:F760" si="21">F750+300</f>
-        <v>4300</v>
+        <f t="shared" si="21"/>
+        <v>2600</v>
       </c>
       <c r="G751" s="6">
         <v>4</v>
@@ -25086,12 +25365,12 @@
         <v>1</v>
       </c>
       <c r="J751" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="752" customHeight="1" spans="3:10">
       <c r="C752" s="6">
-        <v>6037</v>
+        <v>6027</v>
       </c>
       <c r="D752" s="6" t="s">
         <v>772</v>
@@ -25101,7 +25380,7 @@
       </c>
       <c r="F752" s="6">
         <f t="shared" si="21"/>
-        <v>4600</v>
+        <v>2700</v>
       </c>
       <c r="G752" s="6">
         <v>4</v>
@@ -25113,12 +25392,12 @@
         <v>1</v>
       </c>
       <c r="J752" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="753" customHeight="1" spans="3:10">
       <c r="C753" s="6">
-        <v>6038</v>
+        <v>6028</v>
       </c>
       <c r="D753" s="6" t="s">
         <v>773</v>
@@ -25128,7 +25407,7 @@
       </c>
       <c r="F753" s="6">
         <f t="shared" si="21"/>
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="G753" s="6">
         <v>4</v>
@@ -25140,12 +25419,12 @@
         <v>1</v>
       </c>
       <c r="J753" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="754" customHeight="1" spans="3:10">
       <c r="C754" s="6">
-        <v>6039</v>
+        <v>6029</v>
       </c>
       <c r="D754" s="6" t="s">
         <v>774</v>
@@ -25155,7 +25434,7 @@
       </c>
       <c r="F754" s="6">
         <f t="shared" si="21"/>
-        <v>5200</v>
+        <v>2900</v>
       </c>
       <c r="G754" s="6">
         <v>4</v>
@@ -25167,12 +25446,12 @@
         <v>1</v>
       </c>
       <c r="J754" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="755" customHeight="1" spans="3:10">
       <c r="C755" s="6">
-        <v>6040</v>
+        <v>6030</v>
       </c>
       <c r="D755" s="6" t="s">
         <v>775</v>
@@ -25182,7 +25461,7 @@
       </c>
       <c r="F755" s="6">
         <f t="shared" si="21"/>
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="G755" s="6">
         <v>4</v>
@@ -25194,12 +25473,12 @@
         <v>1</v>
       </c>
       <c r="J755" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="756" customHeight="1" spans="3:10">
       <c r="C756" s="6">
-        <v>6041</v>
+        <v>6031</v>
       </c>
       <c r="D756" s="6" t="s">
         <v>776</v>
@@ -25208,8 +25487,8 @@
         <v>6</v>
       </c>
       <c r="F756" s="6">
-        <f t="shared" si="21"/>
-        <v>5800</v>
+        <f>F755+200</f>
+        <v>3200</v>
       </c>
       <c r="G756" s="6">
         <v>4</v>
@@ -25221,12 +25500,12 @@
         <v>1</v>
       </c>
       <c r="J756" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="757" customHeight="1" spans="3:10">
       <c r="C757" s="6">
-        <v>6042</v>
+        <v>6032</v>
       </c>
       <c r="D757" s="6" t="s">
         <v>777</v>
@@ -25235,8 +25514,8 @@
         <v>6</v>
       </c>
       <c r="F757" s="6">
-        <f t="shared" si="21"/>
-        <v>6100</v>
+        <f>F756+200</f>
+        <v>3400</v>
       </c>
       <c r="G757" s="6">
         <v>4</v>
@@ -25248,12 +25527,12 @@
         <v>1</v>
       </c>
       <c r="J757" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="758" customHeight="1" spans="3:10">
       <c r="C758" s="6">
-        <v>6043</v>
+        <v>6033</v>
       </c>
       <c r="D758" s="6" t="s">
         <v>778</v>
@@ -25262,8 +25541,8 @@
         <v>6</v>
       </c>
       <c r="F758" s="6">
-        <f t="shared" si="21"/>
-        <v>6400</v>
+        <f>F757+200</f>
+        <v>3600</v>
       </c>
       <c r="G758" s="6">
         <v>4</v>
@@ -25275,12 +25554,12 @@
         <v>1</v>
       </c>
       <c r="J758" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="759" customHeight="1" spans="3:10">
       <c r="C759" s="6">
-        <v>6044</v>
+        <v>6034</v>
       </c>
       <c r="D759" s="6" t="s">
         <v>779</v>
@@ -25289,8 +25568,8 @@
         <v>6</v>
       </c>
       <c r="F759" s="6">
-        <f t="shared" si="21"/>
-        <v>6700</v>
+        <f>F758+200</f>
+        <v>3800</v>
       </c>
       <c r="G759" s="6">
         <v>4</v>
@@ -25302,12 +25581,12 @@
         <v>1</v>
       </c>
       <c r="J759" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="760" customHeight="1" spans="3:10">
       <c r="C760" s="6">
-        <v>6045</v>
+        <v>6035</v>
       </c>
       <c r="D760" s="6" t="s">
         <v>780</v>
@@ -25316,8 +25595,8 @@
         <v>6</v>
       </c>
       <c r="F760" s="6">
-        <f t="shared" si="21"/>
-        <v>7000</v>
+        <f>F759+200</f>
+        <v>4000</v>
       </c>
       <c r="G760" s="6">
         <v>4</v>
@@ -25329,12 +25608,12 @@
         <v>1</v>
       </c>
       <c r="J760" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="761" customHeight="1" spans="3:10">
       <c r="C761" s="6">
-        <v>6046</v>
+        <v>6036</v>
       </c>
       <c r="D761" s="6" t="s">
         <v>781</v>
@@ -25343,8 +25622,8 @@
         <v>6</v>
       </c>
       <c r="F761" s="6">
-        <f t="shared" ref="F761:F770" si="22">F760+400</f>
-        <v>7400</v>
+        <f t="shared" ref="F761:F770" si="22">F760+300</f>
+        <v>4300</v>
       </c>
       <c r="G761" s="6">
         <v>4</v>
@@ -25356,12 +25635,12 @@
         <v>1</v>
       </c>
       <c r="J761" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="762" customHeight="1" spans="3:10">
       <c r="C762" s="6">
-        <v>6047</v>
+        <v>6037</v>
       </c>
       <c r="D762" s="6" t="s">
         <v>782</v>
@@ -25371,7 +25650,7 @@
       </c>
       <c r="F762" s="6">
         <f t="shared" si="22"/>
-        <v>7800</v>
+        <v>4600</v>
       </c>
       <c r="G762" s="6">
         <v>4</v>
@@ -25383,12 +25662,12 @@
         <v>1</v>
       </c>
       <c r="J762" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="763" customHeight="1" spans="3:10">
       <c r="C763" s="6">
-        <v>6048</v>
+        <v>6038</v>
       </c>
       <c r="D763" s="6" t="s">
         <v>783</v>
@@ -25398,7 +25677,7 @@
       </c>
       <c r="F763" s="6">
         <f t="shared" si="22"/>
-        <v>8200</v>
+        <v>4900</v>
       </c>
       <c r="G763" s="6">
         <v>4</v>
@@ -25410,12 +25689,12 @@
         <v>1</v>
       </c>
       <c r="J763" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="764" customHeight="1" spans="3:10">
       <c r="C764" s="6">
-        <v>6049</v>
+        <v>6039</v>
       </c>
       <c r="D764" s="6" t="s">
         <v>784</v>
@@ -25425,7 +25704,7 @@
       </c>
       <c r="F764" s="6">
         <f t="shared" si="22"/>
-        <v>8600</v>
+        <v>5200</v>
       </c>
       <c r="G764" s="6">
         <v>4</v>
@@ -25437,12 +25716,12 @@
         <v>1</v>
       </c>
       <c r="J764" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="765" customHeight="1" spans="3:10">
       <c r="C765" s="6">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="D765" s="6" t="s">
         <v>785</v>
@@ -25452,7 +25731,7 @@
       </c>
       <c r="F765" s="6">
         <f t="shared" si="22"/>
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="G765" s="6">
         <v>4</v>
@@ -25464,12 +25743,12 @@
         <v>1</v>
       </c>
       <c r="J765" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="766" customHeight="1" spans="3:10">
       <c r="C766" s="6">
-        <v>6051</v>
+        <v>6041</v>
       </c>
       <c r="D766" s="6" t="s">
         <v>786</v>
@@ -25479,7 +25758,7 @@
       </c>
       <c r="F766" s="6">
         <f t="shared" si="22"/>
-        <v>9400</v>
+        <v>5800</v>
       </c>
       <c r="G766" s="6">
         <v>4</v>
@@ -25491,12 +25770,12 @@
         <v>1</v>
       </c>
       <c r="J766" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="767" customHeight="1" spans="3:10">
       <c r="C767" s="6">
-        <v>6052</v>
+        <v>6042</v>
       </c>
       <c r="D767" s="6" t="s">
         <v>787</v>
@@ -25506,7 +25785,7 @@
       </c>
       <c r="F767" s="6">
         <f t="shared" si="22"/>
-        <v>9800</v>
+        <v>6100</v>
       </c>
       <c r="G767" s="6">
         <v>4</v>
@@ -25518,12 +25797,12 @@
         <v>1</v>
       </c>
       <c r="J767" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="768" customHeight="1" spans="3:10">
       <c r="C768" s="6">
-        <v>6053</v>
+        <v>6043</v>
       </c>
       <c r="D768" s="6" t="s">
         <v>788</v>
@@ -25533,7 +25812,7 @@
       </c>
       <c r="F768" s="6">
         <f t="shared" si="22"/>
-        <v>10200</v>
+        <v>6400</v>
       </c>
       <c r="G768" s="6">
         <v>4</v>
@@ -25545,12 +25824,12 @@
         <v>1</v>
       </c>
       <c r="J768" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="769" customHeight="1" spans="3:10">
       <c r="C769" s="6">
-        <v>6054</v>
+        <v>6044</v>
       </c>
       <c r="D769" s="6" t="s">
         <v>789</v>
@@ -25560,7 +25839,7 @@
       </c>
       <c r="F769" s="6">
         <f t="shared" si="22"/>
-        <v>10600</v>
+        <v>6700</v>
       </c>
       <c r="G769" s="6">
         <v>4</v>
@@ -25572,12 +25851,12 @@
         <v>1</v>
       </c>
       <c r="J769" s="6" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="770" customHeight="1" spans="3:10">
       <c r="C770" s="6">
-        <v>6055</v>
+        <v>6045</v>
       </c>
       <c r="D770" s="6" t="s">
         <v>790</v>
@@ -25587,7 +25866,7 @@
       </c>
       <c r="F770" s="6">
         <f t="shared" si="22"/>
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="G770" s="6">
         <v>4</v>
@@ -25599,703 +25878,3186 @@
         <v>1</v>
       </c>
       <c r="J770" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="772" customHeight="1" spans="3:11">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="771" customHeight="1" spans="3:10">
+      <c r="C771" s="6">
+        <v>6046</v>
+      </c>
+      <c r="D771" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E771" s="6">
+        <v>6</v>
+      </c>
+      <c r="F771" s="6">
+        <f t="shared" ref="F771:F790" si="23">F770+400</f>
+        <v>7400</v>
+      </c>
+      <c r="G771" s="6">
+        <v>4</v>
+      </c>
+      <c r="H771" s="6">
+        <v>0</v>
+      </c>
+      <c r="I771" s="6">
+        <v>1</v>
+      </c>
+      <c r="J771" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="772" customHeight="1" spans="3:10">
       <c r="C772" s="6">
-        <v>8001</v>
-      </c>
-      <c r="D772" s="8" t="s">
-        <v>791</v>
+        <v>6047</v>
+      </c>
+      <c r="D772" s="6" t="s">
+        <v>792</v>
       </c>
       <c r="E772" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F772" s="6">
-        <v>10</v>
-      </c>
-      <c r="G772" s="5">
-        <v>1</v>
-      </c>
-      <c r="H772" s="5">
-        <v>20</v>
-      </c>
-      <c r="I772" s="5">
-        <v>100</v>
-      </c>
-      <c r="J772" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K772" s="10" t="s">
+        <f t="shared" si="23"/>
+        <v>7800</v>
+      </c>
+      <c r="G772" s="6">
+        <v>4</v>
+      </c>
+      <c r="H772" s="6">
+        <v>0</v>
+      </c>
+      <c r="I772" s="6">
+        <v>1</v>
+      </c>
+      <c r="J772" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="773" customHeight="1" spans="3:10">
+      <c r="C773" s="6">
+        <v>6048</v>
+      </c>
+      <c r="D773" s="6" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="773" customHeight="1" spans="3:11">
-      <c r="C773" s="6">
-        <v>8002</v>
-      </c>
-      <c r="D773" s="8" t="s">
+      <c r="E773" s="6">
+        <v>6</v>
+      </c>
+      <c r="F773" s="6">
+        <f t="shared" si="23"/>
+        <v>8200</v>
+      </c>
+      <c r="G773" s="6">
+        <v>4</v>
+      </c>
+      <c r="H773" s="6">
+        <v>0</v>
+      </c>
+      <c r="I773" s="6">
+        <v>1</v>
+      </c>
+      <c r="J773" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="774" customHeight="1" spans="3:10">
+      <c r="C774" s="6">
+        <v>6049</v>
+      </c>
+      <c r="D774" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="E773" s="6">
-        <v>8</v>
-      </c>
-      <c r="F773" s="6">
-        <v>30</v>
-      </c>
-      <c r="G773" s="5">
-        <v>1</v>
-      </c>
-      <c r="H773" s="6">
-        <v>19</v>
-      </c>
-      <c r="I773" s="6">
-        <v>100</v>
-      </c>
-      <c r="J773" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K773" s="10" t="s">
+      <c r="E774" s="6">
+        <v>6</v>
+      </c>
+      <c r="F774" s="6">
+        <f t="shared" si="23"/>
+        <v>8600</v>
+      </c>
+      <c r="G774" s="6">
+        <v>4</v>
+      </c>
+      <c r="H774" s="6">
+        <v>0</v>
+      </c>
+      <c r="I774" s="6">
+        <v>1</v>
+      </c>
+      <c r="J774" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="775" customHeight="1" spans="3:10">
+      <c r="C775" s="6">
+        <v>6050</v>
+      </c>
+      <c r="D775" s="6" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="774" customHeight="1" spans="3:11">
-      <c r="C774" s="6">
-        <v>8003</v>
-      </c>
-      <c r="D774" s="9" t="s">
+      <c r="E775" s="6">
+        <v>6</v>
+      </c>
+      <c r="F775" s="6">
+        <f t="shared" si="23"/>
+        <v>9000</v>
+      </c>
+      <c r="G775" s="6">
+        <v>4</v>
+      </c>
+      <c r="H775" s="6">
+        <v>0</v>
+      </c>
+      <c r="I775" s="6">
+        <v>1</v>
+      </c>
+      <c r="J775" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="776" customHeight="1" spans="3:10">
+      <c r="C776" s="6">
+        <v>6051</v>
+      </c>
+      <c r="D776" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="E774" s="6">
-        <v>8</v>
-      </c>
-      <c r="F774" s="6">
-        <v>50</v>
-      </c>
-      <c r="G774" s="5">
-        <v>1</v>
-      </c>
-      <c r="H774" s="6">
-        <v>8</v>
-      </c>
-      <c r="I774" s="6">
-        <v>10</v>
-      </c>
-      <c r="J774" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K774" s="10" t="s">
+      <c r="E776" s="6">
+        <v>6</v>
+      </c>
+      <c r="F776" s="6">
+        <f t="shared" si="23"/>
+        <v>9400</v>
+      </c>
+      <c r="G776" s="6">
+        <v>4</v>
+      </c>
+      <c r="H776" s="6">
+        <v>0</v>
+      </c>
+      <c r="I776" s="6">
+        <v>1</v>
+      </c>
+      <c r="J776" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="777" customHeight="1" spans="3:10">
+      <c r="C777" s="6">
+        <v>6052</v>
+      </c>
+      <c r="D777" s="6" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="775" customHeight="1" spans="3:11">
-      <c r="C775" s="6">
-        <v>8004</v>
-      </c>
-      <c r="D775" s="8" t="s">
+      <c r="E777" s="6">
+        <v>6</v>
+      </c>
+      <c r="F777" s="6">
+        <f t="shared" si="23"/>
+        <v>9800</v>
+      </c>
+      <c r="G777" s="6">
+        <v>4</v>
+      </c>
+      <c r="H777" s="6">
+        <v>0</v>
+      </c>
+      <c r="I777" s="6">
+        <v>1</v>
+      </c>
+      <c r="J777" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="778" customHeight="1" spans="3:10">
+      <c r="C778" s="6">
+        <v>6053</v>
+      </c>
+      <c r="D778" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="E775" s="6">
-        <v>8</v>
-      </c>
-      <c r="F775" s="6">
-        <v>60</v>
-      </c>
-      <c r="G775" s="5">
-        <v>1</v>
-      </c>
-      <c r="H775" s="6">
-        <v>9</v>
-      </c>
-      <c r="I775" s="6">
-        <v>50</v>
-      </c>
-      <c r="J775" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K775" s="10" t="s">
+      <c r="E778" s="6">
+        <v>6</v>
+      </c>
+      <c r="F778" s="6">
+        <f t="shared" si="23"/>
+        <v>10200</v>
+      </c>
+      <c r="G778" s="6">
+        <v>4</v>
+      </c>
+      <c r="H778" s="6">
+        <v>0</v>
+      </c>
+      <c r="I778" s="6">
+        <v>1</v>
+      </c>
+      <c r="J778" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="779" customHeight="1" spans="3:10">
+      <c r="C779" s="6">
+        <v>6054</v>
+      </c>
+      <c r="D779" s="6" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="776" customHeight="1" spans="3:11">
-      <c r="C776" s="6">
-        <v>8005</v>
-      </c>
-      <c r="D776" s="8" t="s">
+      <c r="E779" s="6">
+        <v>6</v>
+      </c>
+      <c r="F779" s="6">
+        <f t="shared" si="23"/>
+        <v>10600</v>
+      </c>
+      <c r="G779" s="6">
+        <v>4</v>
+      </c>
+      <c r="H779" s="6">
+        <v>0</v>
+      </c>
+      <c r="I779" s="6">
+        <v>1</v>
+      </c>
+      <c r="J779" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="780" customHeight="1" spans="3:10">
+      <c r="C780" s="6">
+        <v>6055</v>
+      </c>
+      <c r="D780" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="E776" s="6">
-        <v>8</v>
-      </c>
-      <c r="F776" s="6">
-        <v>70</v>
-      </c>
-      <c r="G776" s="5">
-        <v>1</v>
-      </c>
-      <c r="H776" s="6">
-        <v>30</v>
-      </c>
-      <c r="I776" s="6">
-        <v>30</v>
-      </c>
-      <c r="J776" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K776" s="10" t="s">
+      <c r="E780" s="6">
+        <v>6</v>
+      </c>
+      <c r="F780" s="6">
+        <f t="shared" si="23"/>
+        <v>11000</v>
+      </c>
+      <c r="G780" s="6">
+        <v>4</v>
+      </c>
+      <c r="H780" s="6">
+        <v>0</v>
+      </c>
+      <c r="I780" s="6">
+        <v>1</v>
+      </c>
+      <c r="J780" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="781" customHeight="1" spans="3:10">
+      <c r="C781" s="6">
+        <v>6056</v>
+      </c>
+      <c r="D781" s="6" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="777" customHeight="1" spans="3:11">
-      <c r="C777" s="6">
-        <v>8006</v>
-      </c>
-      <c r="D777" s="8" t="s">
+      <c r="E781" s="6">
+        <v>6</v>
+      </c>
+      <c r="F781" s="6">
+        <f t="shared" si="23"/>
+        <v>11400</v>
+      </c>
+      <c r="G781" s="6">
+        <v>4</v>
+      </c>
+      <c r="H781" s="6">
+        <v>0</v>
+      </c>
+      <c r="I781" s="6">
+        <v>1</v>
+      </c>
+      <c r="J781" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="782" customHeight="1" spans="3:10">
+      <c r="C782" s="6">
+        <v>6057</v>
+      </c>
+      <c r="D782" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="E777" s="6">
-        <v>8</v>
-      </c>
-      <c r="F777" s="6">
-        <v>80</v>
-      </c>
-      <c r="G777" s="5">
-        <v>1</v>
-      </c>
-      <c r="H777" s="6">
-        <v>7</v>
-      </c>
-      <c r="I777" s="6">
-        <v>10</v>
-      </c>
-      <c r="J777" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K777" s="10" t="s">
+      <c r="E782" s="6">
+        <v>6</v>
+      </c>
+      <c r="F782" s="6">
+        <f t="shared" si="23"/>
+        <v>11800</v>
+      </c>
+      <c r="G782" s="6">
+        <v>4</v>
+      </c>
+      <c r="H782" s="6">
+        <v>0</v>
+      </c>
+      <c r="I782" s="6">
+        <v>1</v>
+      </c>
+      <c r="J782" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="783" customHeight="1" spans="3:10">
+      <c r="C783" s="6">
+        <v>6058</v>
+      </c>
+      <c r="D783" s="6" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="778" customHeight="1" spans="3:11">
-      <c r="C778" s="6">
-        <v>8007</v>
-      </c>
-      <c r="D778" s="8" t="s">
+      <c r="E783" s="6">
+        <v>6</v>
+      </c>
+      <c r="F783" s="6">
+        <f t="shared" si="23"/>
+        <v>12200</v>
+      </c>
+      <c r="G783" s="6">
+        <v>4</v>
+      </c>
+      <c r="H783" s="6">
+        <v>0</v>
+      </c>
+      <c r="I783" s="6">
+        <v>1</v>
+      </c>
+      <c r="J783" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="784" customHeight="1" spans="3:10">
+      <c r="C784" s="6">
+        <v>6059</v>
+      </c>
+      <c r="D784" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="E778" s="6">
-        <v>8</v>
-      </c>
-      <c r="F778" s="6">
-        <v>90</v>
-      </c>
-      <c r="G778" s="5">
-        <v>1</v>
-      </c>
-      <c r="H778" s="6">
-        <v>12</v>
-      </c>
-      <c r="I778" s="6">
-        <v>30</v>
-      </c>
-      <c r="J778" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K778" s="10" t="s">
+      <c r="E784" s="6">
+        <v>6</v>
+      </c>
+      <c r="F784" s="6">
+        <f t="shared" si="23"/>
+        <v>12600</v>
+      </c>
+      <c r="G784" s="6">
+        <v>4</v>
+      </c>
+      <c r="H784" s="6">
+        <v>0</v>
+      </c>
+      <c r="I784" s="6">
+        <v>1</v>
+      </c>
+      <c r="J784" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="785" customHeight="1" spans="3:10">
+      <c r="C785" s="6">
+        <v>6060</v>
+      </c>
+      <c r="D785" s="6" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="779" customHeight="1" spans="3:11">
-      <c r="C779" s="6">
-        <v>8008</v>
-      </c>
-      <c r="D779" s="8" t="s">
+      <c r="E785" s="6">
+        <v>6</v>
+      </c>
+      <c r="F785" s="6">
+        <f t="shared" si="23"/>
+        <v>13000</v>
+      </c>
+      <c r="G785" s="6">
+        <v>4</v>
+      </c>
+      <c r="H785" s="6">
+        <v>0</v>
+      </c>
+      <c r="I785" s="6">
+        <v>1</v>
+      </c>
+      <c r="J785" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="786" customHeight="1" spans="3:10">
+      <c r="C786" s="6">
+        <v>6061</v>
+      </c>
+      <c r="D786" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="E779" s="6">
-        <v>8</v>
-      </c>
-      <c r="F779" s="6">
-        <v>100</v>
-      </c>
-      <c r="G779" s="5">
-        <v>2</v>
-      </c>
-      <c r="H779" s="5">
+      <c r="E786" s="6">
+        <v>6</v>
+      </c>
+      <c r="F786" s="6">
+        <f t="shared" ref="F786:F790" si="24">F785+500</f>
+        <v>13500</v>
+      </c>
+      <c r="G786" s="6">
+        <v>4</v>
+      </c>
+      <c r="H786" s="6">
         <v>0</v>
       </c>
-      <c r="I779" s="5">
-        <v>1</v>
-      </c>
-      <c r="J779" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K779" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="780" customHeight="1" spans="3:11">
-      <c r="C780" s="6">
-        <v>8009</v>
-      </c>
-      <c r="D780" s="8" t="s">
+      <c r="I786" s="6">
+        <v>1</v>
+      </c>
+      <c r="J786" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="787" customHeight="1" spans="3:10">
+      <c r="C787" s="6">
+        <v>6062</v>
+      </c>
+      <c r="D787" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E780" s="6">
-        <v>8</v>
-      </c>
-      <c r="F780" s="6">
-        <v>140</v>
-      </c>
-      <c r="G780" s="5">
-        <v>1</v>
-      </c>
-      <c r="H780" s="5">
-        <v>20</v>
-      </c>
-      <c r="I780" s="5">
-        <v>100</v>
-      </c>
-      <c r="J780" s="5" t="s">
+      <c r="E787" s="6">
+        <v>6</v>
+      </c>
+      <c r="F787" s="6">
+        <f t="shared" si="24"/>
+        <v>14000</v>
+      </c>
+      <c r="G787" s="6">
+        <v>4</v>
+      </c>
+      <c r="H787" s="6">
+        <v>0</v>
+      </c>
+      <c r="I787" s="6">
+        <v>1</v>
+      </c>
+      <c r="J787" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="3:10">
+      <c r="C788" s="6">
+        <v>6063</v>
+      </c>
+      <c r="D788" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="K780" s="10" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="781" customHeight="1" spans="3:11">
-      <c r="C781" s="6">
-        <v>8010</v>
-      </c>
-      <c r="D781" s="9" t="s">
+      <c r="E788" s="6">
+        <v>6</v>
+      </c>
+      <c r="F788" s="6">
+        <f t="shared" si="24"/>
+        <v>14500</v>
+      </c>
+      <c r="G788" s="6">
+        <v>4</v>
+      </c>
+      <c r="H788" s="6">
+        <v>0</v>
+      </c>
+      <c r="I788" s="6">
+        <v>1</v>
+      </c>
+      <c r="J788" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="789" customHeight="1" spans="3:10">
+      <c r="C789" s="6">
+        <v>6064</v>
+      </c>
+      <c r="D789" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="E781" s="6">
-        <v>8</v>
-      </c>
-      <c r="F781" s="6">
-        <v>150</v>
-      </c>
-      <c r="G781" s="5">
-        <v>1</v>
-      </c>
-      <c r="H781" s="6">
-        <v>19</v>
-      </c>
-      <c r="I781" s="6">
-        <v>100</v>
-      </c>
-      <c r="J781" s="5" t="s">
+      <c r="E789" s="6">
+        <v>6</v>
+      </c>
+      <c r="F789" s="6">
+        <f t="shared" si="24"/>
+        <v>15000</v>
+      </c>
+      <c r="G789" s="6">
+        <v>4</v>
+      </c>
+      <c r="H789" s="6">
+        <v>0</v>
+      </c>
+      <c r="I789" s="6">
+        <v>1</v>
+      </c>
+      <c r="J789" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="790" customHeight="1" spans="3:10">
+      <c r="C790" s="6">
+        <v>6065</v>
+      </c>
+      <c r="D790" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="K781" s="10" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="782" customHeight="1" spans="3:11">
-      <c r="C782" s="6">
-        <v>8011</v>
-      </c>
-      <c r="D782" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="E782" s="6">
-        <v>8</v>
-      </c>
-      <c r="F782" s="6">
-        <v>160</v>
-      </c>
-      <c r="G782" s="5">
-        <v>1</v>
-      </c>
-      <c r="H782" s="6">
-        <v>24</v>
-      </c>
-      <c r="I782" s="6">
-        <v>100</v>
-      </c>
-      <c r="J782" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="K782" s="10" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="783" customHeight="1" spans="3:11">
-      <c r="C783" s="6">
-        <v>8012</v>
-      </c>
-      <c r="D783" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="E783" s="6">
-        <v>8</v>
-      </c>
-      <c r="F783" s="6">
-        <v>170</v>
-      </c>
-      <c r="G783" s="5">
-        <v>1</v>
-      </c>
-      <c r="H783" s="6">
-        <v>7</v>
-      </c>
-      <c r="I783" s="6">
-        <v>15</v>
-      </c>
-      <c r="J783" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="K783" s="10" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="784" customHeight="1" spans="3:11">
-      <c r="C784" s="6">
-        <v>8013</v>
-      </c>
-      <c r="D784" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E784" s="6">
-        <v>8</v>
-      </c>
-      <c r="F784" s="6">
-        <v>180</v>
-      </c>
-      <c r="G784" s="5">
-        <v>1</v>
-      </c>
-      <c r="H784" s="6">
-        <v>12</v>
-      </c>
-      <c r="I784" s="6">
-        <v>30</v>
-      </c>
-      <c r="J784" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="K784" s="10" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="785" customHeight="1" spans="3:11">
-      <c r="C785" s="6">
-        <v>8014</v>
-      </c>
-      <c r="D785" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="E785" s="6">
-        <v>8</v>
-      </c>
-      <c r="F785" s="6">
-        <v>190</v>
-      </c>
-      <c r="G785" s="5">
-        <v>1</v>
-      </c>
-      <c r="H785" s="6">
-        <v>13</v>
-      </c>
-      <c r="I785" s="6">
-        <v>30</v>
-      </c>
-      <c r="J785" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="K785" s="10" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="786" customHeight="1" spans="3:11">
-      <c r="C786" s="6">
-        <v>8015</v>
-      </c>
-      <c r="D786" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="E786" s="6">
-        <v>8</v>
-      </c>
-      <c r="F786" s="6">
-        <v>200</v>
-      </c>
-      <c r="G786" s="5">
+      <c r="E790" s="6">
         <v>6</v>
       </c>
-      <c r="H786" s="5">
+      <c r="F790" s="6">
+        <f t="shared" si="24"/>
+        <v>15500</v>
+      </c>
+      <c r="G790" s="6">
+        <v>4</v>
+      </c>
+      <c r="H790" s="6">
         <v>0</v>
       </c>
-      <c r="I786" s="5">
-        <v>1</v>
-      </c>
-      <c r="J786" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="K786" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="787" customHeight="1" spans="3:11">
-      <c r="C787" s="6">
-        <v>8016</v>
-      </c>
-      <c r="D787" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="E787" s="6">
-        <v>8</v>
-      </c>
-      <c r="F787" s="6">
-        <v>220</v>
-      </c>
-      <c r="G787" s="5">
-        <v>1</v>
-      </c>
-      <c r="H787" s="5">
-        <v>2004</v>
-      </c>
-      <c r="I787" s="5">
-        <v>10</v>
-      </c>
-      <c r="J787" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K787" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="788" customHeight="1" spans="3:11">
-      <c r="C788" s="6">
-        <v>8017</v>
-      </c>
-      <c r="D788" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="E788" s="6">
-        <v>8</v>
-      </c>
-      <c r="F788" s="6">
-        <v>230</v>
-      </c>
-      <c r="G788" s="5">
-        <v>1</v>
-      </c>
-      <c r="H788" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I788" s="5">
-        <v>10</v>
-      </c>
-      <c r="J788" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K788" s="10" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="789" customHeight="1" spans="3:11">
-      <c r="C789" s="6">
-        <v>8018</v>
-      </c>
-      <c r="D789" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="E789" s="6">
-        <v>8</v>
-      </c>
-      <c r="F789" s="6">
-        <v>240</v>
-      </c>
-      <c r="G789" s="5">
-        <v>1</v>
-      </c>
-      <c r="H789" s="5">
-        <v>2006</v>
-      </c>
-      <c r="I789" s="6">
-        <v>10</v>
-      </c>
-      <c r="J789" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K789" s="10" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="790" customHeight="1" spans="3:11">
-      <c r="C790" s="6">
-        <v>8019</v>
-      </c>
-      <c r="D790" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="E790" s="6">
-        <v>8</v>
-      </c>
-      <c r="F790" s="6">
-        <v>250</v>
-      </c>
-      <c r="G790" s="5">
-        <v>1</v>
-      </c>
-      <c r="H790" s="6">
-        <v>2003</v>
-      </c>
       <c r="I790" s="6">
-        <v>30</v>
-      </c>
-      <c r="J790" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K790" s="10" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="791" customHeight="1" spans="3:11">
-      <c r="C791" s="6">
-        <v>8020</v>
-      </c>
-      <c r="D791" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="E791" s="6">
-        <v>8</v>
-      </c>
-      <c r="F791" s="6">
-        <v>260</v>
-      </c>
-      <c r="G791" s="5">
-        <v>1</v>
-      </c>
-      <c r="H791" s="6">
-        <v>2002</v>
-      </c>
-      <c r="I791" s="6">
-        <v>20</v>
-      </c>
-      <c r="J791" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K791" s="10" t="s">
-        <v>834</v>
+        <v>1</v>
+      </c>
+      <c r="J790" s="6" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="792" customHeight="1" spans="3:11">
       <c r="C792" s="6">
-        <v>8021</v>
+        <v>8001</v>
       </c>
       <c r="D792" s="8" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="E792" s="6">
         <v>8</v>
       </c>
       <c r="F792" s="6">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="G792" s="5">
         <v>1</v>
       </c>
-      <c r="H792" s="6">
-        <v>2001</v>
-      </c>
-      <c r="I792" s="6">
-        <v>10</v>
+      <c r="H792" s="5">
+        <v>20</v>
+      </c>
+      <c r="I792" s="5">
+        <v>100</v>
       </c>
       <c r="J792" s="5" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="K792" s="10" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="793" customHeight="1" spans="3:11">
       <c r="C793" s="6">
-        <v>8022</v>
+        <v>8002</v>
       </c>
       <c r="D793" s="8" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="E793" s="6">
         <v>8</v>
       </c>
       <c r="F793" s="6">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="G793" s="5">
         <v>1</v>
       </c>
       <c r="H793" s="6">
-        <v>2011</v>
+        <v>19</v>
       </c>
       <c r="I793" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J793" s="5" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="K793" s="10" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="794" customHeight="1" spans="3:11">
       <c r="C794" s="6">
-        <v>8023</v>
-      </c>
-      <c r="D794" s="8" t="s">
-        <v>839</v>
+        <v>8003</v>
+      </c>
+      <c r="D794" s="9" t="s">
+        <v>816</v>
       </c>
       <c r="E794" s="6">
         <v>8</v>
       </c>
       <c r="F794" s="6">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="G794" s="5">
         <v>1</v>
       </c>
       <c r="H794" s="6">
-        <v>2010</v>
+        <v>8</v>
       </c>
       <c r="I794" s="6">
         <v>10</v>
       </c>
       <c r="J794" s="5" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="K794" s="10" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="795" customHeight="1" spans="3:11">
       <c r="C795" s="6">
-        <v>8024</v>
+        <v>8004</v>
       </c>
       <c r="D795" s="8" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="E795" s="6">
         <v>8</v>
       </c>
       <c r="F795" s="6">
+        <v>60</v>
+      </c>
+      <c r="G795" s="5">
+        <v>1</v>
+      </c>
+      <c r="H795" s="6">
+        <v>9</v>
+      </c>
+      <c r="I795" s="6">
+        <v>50</v>
+      </c>
+      <c r="J795" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K795" s="10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="796" customHeight="1" spans="3:11">
+      <c r="C796" s="6">
+        <v>8005</v>
+      </c>
+      <c r="D796" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="E796" s="6">
+        <v>8</v>
+      </c>
+      <c r="F796" s="6">
+        <v>70</v>
+      </c>
+      <c r="G796" s="5">
+        <v>1</v>
+      </c>
+      <c r="H796" s="6">
+        <v>30</v>
+      </c>
+      <c r="I796" s="6">
+        <v>30</v>
+      </c>
+      <c r="J796" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K796" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="797" customHeight="1" spans="3:11">
+      <c r="C797" s="6">
+        <v>8006</v>
+      </c>
+      <c r="D797" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="E797" s="6">
+        <v>8</v>
+      </c>
+      <c r="F797" s="6">
+        <v>80</v>
+      </c>
+      <c r="G797" s="5">
+        <v>1</v>
+      </c>
+      <c r="H797" s="6">
+        <v>7</v>
+      </c>
+      <c r="I797" s="6">
+        <v>10</v>
+      </c>
+      <c r="J797" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K797" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="798" customHeight="1" spans="3:11">
+      <c r="C798" s="6">
+        <v>8007</v>
+      </c>
+      <c r="D798" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="E798" s="6">
+        <v>8</v>
+      </c>
+      <c r="F798" s="6">
+        <v>90</v>
+      </c>
+      <c r="G798" s="5">
+        <v>1</v>
+      </c>
+      <c r="H798" s="6">
+        <v>12</v>
+      </c>
+      <c r="I798" s="6">
+        <v>30</v>
+      </c>
+      <c r="J798" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K798" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="799" customHeight="1" spans="3:11">
+      <c r="C799" s="6">
+        <v>8008</v>
+      </c>
+      <c r="D799" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="E799" s="6">
+        <v>8</v>
+      </c>
+      <c r="F799" s="6">
+        <v>100</v>
+      </c>
+      <c r="G799" s="5">
+        <v>2</v>
+      </c>
+      <c r="H799" s="5">
+        <v>0</v>
+      </c>
+      <c r="I799" s="5">
+        <v>1</v>
+      </c>
+      <c r="J799" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K799" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="800" customHeight="1" spans="3:11">
+      <c r="C800" s="6">
+        <v>8009</v>
+      </c>
+      <c r="D800" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E800" s="6">
+        <v>8</v>
+      </c>
+      <c r="F800" s="6">
+        <v>140</v>
+      </c>
+      <c r="G800" s="5">
+        <v>1</v>
+      </c>
+      <c r="H800" s="5">
+        <v>20</v>
+      </c>
+      <c r="I800" s="5">
+        <v>100</v>
+      </c>
+      <c r="J800" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="K800" s="10" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="801" customHeight="1" spans="3:11">
+      <c r="C801" s="6">
+        <v>8010</v>
+      </c>
+      <c r="D801" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="E801" s="6">
+        <v>8</v>
+      </c>
+      <c r="F801" s="6">
+        <v>150</v>
+      </c>
+      <c r="G801" s="5">
+        <v>1</v>
+      </c>
+      <c r="H801" s="6">
+        <v>19</v>
+      </c>
+      <c r="I801" s="6">
+        <v>100</v>
+      </c>
+      <c r="J801" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="K801" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="802" customHeight="1" spans="3:11">
+      <c r="C802" s="6">
+        <v>8011</v>
+      </c>
+      <c r="D802" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E802" s="6">
+        <v>8</v>
+      </c>
+      <c r="F802" s="6">
+        <v>160</v>
+      </c>
+      <c r="G802" s="5">
+        <v>1</v>
+      </c>
+      <c r="H802" s="6">
+        <v>24</v>
+      </c>
+      <c r="I802" s="6">
+        <v>100</v>
+      </c>
+      <c r="J802" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="K802" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="803" customHeight="1" spans="3:11">
+      <c r="C803" s="6">
+        <v>8012</v>
+      </c>
+      <c r="D803" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="E803" s="6">
+        <v>8</v>
+      </c>
+      <c r="F803" s="6">
+        <v>170</v>
+      </c>
+      <c r="G803" s="5">
+        <v>1</v>
+      </c>
+      <c r="H803" s="6">
+        <v>7</v>
+      </c>
+      <c r="I803" s="6">
+        <v>15</v>
+      </c>
+      <c r="J803" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="K803" s="10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="804" customHeight="1" spans="3:11">
+      <c r="C804" s="6">
+        <v>8013</v>
+      </c>
+      <c r="D804" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="E804" s="6">
+        <v>8</v>
+      </c>
+      <c r="F804" s="6">
+        <v>180</v>
+      </c>
+      <c r="G804" s="5">
+        <v>1</v>
+      </c>
+      <c r="H804" s="6">
+        <v>12</v>
+      </c>
+      <c r="I804" s="6">
+        <v>30</v>
+      </c>
+      <c r="J804" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="K804" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="805" customHeight="1" spans="3:11">
+      <c r="C805" s="6">
+        <v>8014</v>
+      </c>
+      <c r="D805" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="E805" s="6">
+        <v>8</v>
+      </c>
+      <c r="F805" s="6">
+        <v>190</v>
+      </c>
+      <c r="G805" s="5">
+        <v>1</v>
+      </c>
+      <c r="H805" s="6">
+        <v>13</v>
+      </c>
+      <c r="I805" s="6">
+        <v>30</v>
+      </c>
+      <c r="J805" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="K805" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="806" customHeight="1" spans="3:11">
+      <c r="C806" s="6">
+        <v>8015</v>
+      </c>
+      <c r="D806" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="E806" s="6">
+        <v>8</v>
+      </c>
+      <c r="F806" s="6">
+        <v>200</v>
+      </c>
+      <c r="G806" s="5">
+        <v>6</v>
+      </c>
+      <c r="H806" s="5">
+        <v>0</v>
+      </c>
+      <c r="I806" s="5">
+        <v>1</v>
+      </c>
+      <c r="J806" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K806" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="807" customHeight="1" spans="3:11">
+      <c r="C807" s="6">
+        <v>8016</v>
+      </c>
+      <c r="D807" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E807" s="6">
+        <v>8</v>
+      </c>
+      <c r="F807" s="6">
+        <v>220</v>
+      </c>
+      <c r="G807" s="5">
+        <v>1</v>
+      </c>
+      <c r="H807" s="5">
+        <v>2004</v>
+      </c>
+      <c r="I807" s="5">
+        <v>10</v>
+      </c>
+      <c r="J807" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K807" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="808" customHeight="1" spans="3:11">
+      <c r="C808" s="6">
+        <v>8017</v>
+      </c>
+      <c r="D808" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="E808" s="6">
+        <v>8</v>
+      </c>
+      <c r="F808" s="6">
+        <v>230</v>
+      </c>
+      <c r="G808" s="5">
+        <v>1</v>
+      </c>
+      <c r="H808" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I808" s="5">
+        <v>10</v>
+      </c>
+      <c r="J808" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K808" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="809" customHeight="1" spans="3:11">
+      <c r="C809" s="6">
+        <v>8018</v>
+      </c>
+      <c r="D809" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E809" s="6">
+        <v>8</v>
+      </c>
+      <c r="F809" s="6">
+        <v>240</v>
+      </c>
+      <c r="G809" s="5">
+        <v>1</v>
+      </c>
+      <c r="H809" s="5">
+        <v>2006</v>
+      </c>
+      <c r="I809" s="6">
+        <v>10</v>
+      </c>
+      <c r="J809" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K809" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="810" customHeight="1" spans="3:11">
+      <c r="C810" s="6">
+        <v>8019</v>
+      </c>
+      <c r="D810" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="E810" s="6">
+        <v>8</v>
+      </c>
+      <c r="F810" s="6">
+        <v>250</v>
+      </c>
+      <c r="G810" s="5">
+        <v>1</v>
+      </c>
+      <c r="H810" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I810" s="6">
+        <v>30</v>
+      </c>
+      <c r="J810" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K810" s="10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="811" customHeight="1" spans="3:11">
+      <c r="C811" s="6">
+        <v>8020</v>
+      </c>
+      <c r="D811" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E811" s="6">
+        <v>8</v>
+      </c>
+      <c r="F811" s="6">
+        <v>260</v>
+      </c>
+      <c r="G811" s="5">
+        <v>1</v>
+      </c>
+      <c r="H811" s="6">
+        <v>2002</v>
+      </c>
+      <c r="I811" s="6">
+        <v>20</v>
+      </c>
+      <c r="J811" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K811" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="812" customHeight="1" spans="3:11">
+      <c r="C812" s="6">
+        <v>8021</v>
+      </c>
+      <c r="D812" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="E812" s="6">
+        <v>8</v>
+      </c>
+      <c r="F812" s="6">
+        <v>270</v>
+      </c>
+      <c r="G812" s="5">
+        <v>1</v>
+      </c>
+      <c r="H812" s="6">
+        <v>2001</v>
+      </c>
+      <c r="I812" s="6">
+        <v>10</v>
+      </c>
+      <c r="J812" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K812" s="10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="813" customHeight="1" spans="3:11">
+      <c r="C813" s="6">
+        <v>8022</v>
+      </c>
+      <c r="D813" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E813" s="6">
+        <v>8</v>
+      </c>
+      <c r="F813" s="6">
+        <v>280</v>
+      </c>
+      <c r="G813" s="5">
+        <v>1</v>
+      </c>
+      <c r="H813" s="6">
+        <v>2011</v>
+      </c>
+      <c r="I813" s="6">
+        <v>10</v>
+      </c>
+      <c r="J813" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K813" s="10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="814" customHeight="1" spans="3:11">
+      <c r="C814" s="6">
+        <v>8023</v>
+      </c>
+      <c r="D814" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E814" s="6">
+        <v>8</v>
+      </c>
+      <c r="F814" s="6">
+        <v>290</v>
+      </c>
+      <c r="G814" s="5">
+        <v>1</v>
+      </c>
+      <c r="H814" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I814" s="6">
+        <v>10</v>
+      </c>
+      <c r="J814" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K814" s="10" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="815" customHeight="1" spans="3:11">
+      <c r="C815" s="6">
+        <v>8024</v>
+      </c>
+      <c r="D815" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="E815" s="6">
+        <v>8</v>
+      </c>
+      <c r="F815" s="6">
         <v>300</v>
       </c>
-      <c r="G795" s="5">
+      <c r="G815" s="5">
         <v>6</v>
       </c>
-      <c r="H795" s="5">
+      <c r="H815" s="5">
         <v>0</v>
       </c>
-      <c r="I795" s="5">
-        <v>1</v>
-      </c>
-      <c r="J795" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="K795" s="3" t="s">
-        <v>825</v>
+      <c r="I815" s="5">
+        <v>1</v>
+      </c>
+      <c r="J815" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="K815" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="819" customHeight="1" spans="3:10">
+      <c r="C819" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D819" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E819" s="6">
+        <v>9</v>
+      </c>
+      <c r="F819" s="6">
+        <v>10</v>
+      </c>
+      <c r="G819" s="6">
+        <v>1</v>
+      </c>
+      <c r="H819" s="6">
+        <v>18</v>
+      </c>
+      <c r="I819" s="6">
+        <v>50</v>
+      </c>
+      <c r="J819" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="820" customHeight="1" spans="3:10">
+      <c r="C820" s="6">
+        <v>9002</v>
+      </c>
+      <c r="D820" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="E820" s="6">
+        <v>9</v>
+      </c>
+      <c r="F820" s="6">
+        <f t="shared" ref="F820:F883" si="25">F819+10</f>
+        <v>20</v>
+      </c>
+      <c r="G820" s="6">
+        <v>1</v>
+      </c>
+      <c r="H820" s="6">
+        <v>19</v>
+      </c>
+      <c r="I820" s="6">
+        <v>50</v>
+      </c>
+      <c r="J820" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="821" customHeight="1" spans="3:10">
+      <c r="C821" s="6">
+        <v>9003</v>
+      </c>
+      <c r="D821" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E821" s="6">
+        <v>9</v>
+      </c>
+      <c r="F821" s="6">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="G821" s="6">
+        <v>1</v>
+      </c>
+      <c r="H821" s="6">
+        <v>20</v>
+      </c>
+      <c r="I821" s="6">
+        <v>50</v>
+      </c>
+      <c r="J821" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="822" customHeight="1" spans="3:10">
+      <c r="C822" s="6">
+        <v>9004</v>
+      </c>
+      <c r="D822" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E822" s="6">
+        <v>9</v>
+      </c>
+      <c r="F822" s="6">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="G822" s="6">
+        <v>1</v>
+      </c>
+      <c r="H822" s="6">
+        <v>24</v>
+      </c>
+      <c r="I822" s="6">
+        <v>50</v>
+      </c>
+      <c r="J822" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="823" customHeight="1" spans="3:10">
+      <c r="C823" s="6">
+        <v>9005</v>
+      </c>
+      <c r="D823" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="E823" s="6">
+        <v>9</v>
+      </c>
+      <c r="F823" s="6">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="G823" s="6">
+        <v>1</v>
+      </c>
+      <c r="H823" s="6">
+        <v>18</v>
+      </c>
+      <c r="I823" s="6">
+        <v>60</v>
+      </c>
+      <c r="J823" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="824" customHeight="1" spans="3:10">
+      <c r="C824" s="6">
+        <v>9006</v>
+      </c>
+      <c r="D824" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="E824" s="6">
+        <v>9</v>
+      </c>
+      <c r="F824" s="6">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+      <c r="G824" s="6">
+        <v>1</v>
+      </c>
+      <c r="H824" s="6">
+        <v>19</v>
+      </c>
+      <c r="I824" s="6">
+        <v>60</v>
+      </c>
+      <c r="J824" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="825" customHeight="1" spans="3:10">
+      <c r="C825" s="6">
+        <v>9007</v>
+      </c>
+      <c r="D825" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E825" s="6">
+        <v>9</v>
+      </c>
+      <c r="F825" s="6">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="G825" s="6">
+        <v>1</v>
+      </c>
+      <c r="H825" s="6">
+        <v>20</v>
+      </c>
+      <c r="I825" s="6">
+        <v>60</v>
+      </c>
+      <c r="J825" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="826" customHeight="1" spans="3:10">
+      <c r="C826" s="6">
+        <v>9008</v>
+      </c>
+      <c r="D826" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E826" s="6">
+        <v>9</v>
+      </c>
+      <c r="F826" s="6">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="G826" s="6">
+        <v>1</v>
+      </c>
+      <c r="H826" s="6">
+        <v>24</v>
+      </c>
+      <c r="I826" s="6">
+        <v>60</v>
+      </c>
+      <c r="J826" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="827" customHeight="1" spans="3:10">
+      <c r="C827" s="6">
+        <v>9009</v>
+      </c>
+      <c r="D827" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="E827" s="6">
+        <v>9</v>
+      </c>
+      <c r="F827" s="6">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="G827" s="6">
+        <v>1</v>
+      </c>
+      <c r="H827" s="6">
+        <v>18</v>
+      </c>
+      <c r="I827" s="6">
+        <v>70</v>
+      </c>
+      <c r="J827" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="828" customHeight="1" spans="3:10">
+      <c r="C828" s="6">
+        <v>9010</v>
+      </c>
+      <c r="D828" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E828" s="6">
+        <v>9</v>
+      </c>
+      <c r="F828" s="6">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="G828" s="6">
+        <v>1</v>
+      </c>
+      <c r="H828" s="6">
+        <v>19</v>
+      </c>
+      <c r="I828" s="6">
+        <v>70</v>
+      </c>
+      <c r="J828" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="829" customHeight="1" spans="3:10">
+      <c r="C829" s="6">
+        <v>9011</v>
+      </c>
+      <c r="D829" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="E829" s="6">
+        <v>9</v>
+      </c>
+      <c r="F829" s="6">
+        <f t="shared" si="25"/>
+        <v>110</v>
+      </c>
+      <c r="G829" s="6">
+        <v>1</v>
+      </c>
+      <c r="H829" s="6">
+        <v>20</v>
+      </c>
+      <c r="I829" s="6">
+        <v>70</v>
+      </c>
+      <c r="J829" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="830" customHeight="1" spans="3:10">
+      <c r="C830" s="6">
+        <v>9012</v>
+      </c>
+      <c r="D830" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E830" s="6">
+        <v>9</v>
+      </c>
+      <c r="F830" s="6">
+        <f t="shared" si="25"/>
+        <v>120</v>
+      </c>
+      <c r="G830" s="6">
+        <v>1</v>
+      </c>
+      <c r="H830" s="6">
+        <v>24</v>
+      </c>
+      <c r="I830" s="6">
+        <v>70</v>
+      </c>
+      <c r="J830" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="831" customHeight="1" spans="3:10">
+      <c r="C831" s="6">
+        <v>9013</v>
+      </c>
+      <c r="D831" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="E831" s="6">
+        <v>9</v>
+      </c>
+      <c r="F831" s="6">
+        <f t="shared" si="25"/>
+        <v>130</v>
+      </c>
+      <c r="G831" s="6">
+        <v>1</v>
+      </c>
+      <c r="H831" s="6">
+        <v>18</v>
+      </c>
+      <c r="I831" s="6">
+        <v>80</v>
+      </c>
+      <c r="J831" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="832" customHeight="1" spans="3:10">
+      <c r="C832" s="6">
+        <v>9014</v>
+      </c>
+      <c r="D832" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="E832" s="6">
+        <v>9</v>
+      </c>
+      <c r="F832" s="6">
+        <f t="shared" si="25"/>
+        <v>140</v>
+      </c>
+      <c r="G832" s="6">
+        <v>1</v>
+      </c>
+      <c r="H832" s="6">
+        <v>19</v>
+      </c>
+      <c r="I832" s="6">
+        <v>80</v>
+      </c>
+      <c r="J832" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="833" customHeight="1" spans="3:10">
+      <c r="C833" s="6">
+        <v>9015</v>
+      </c>
+      <c r="D833" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E833" s="6">
+        <v>9</v>
+      </c>
+      <c r="F833" s="6">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="G833" s="6">
+        <v>1</v>
+      </c>
+      <c r="H833" s="6">
+        <v>20</v>
+      </c>
+      <c r="I833" s="6">
+        <v>80</v>
+      </c>
+      <c r="J833" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="834" customHeight="1" spans="3:10">
+      <c r="C834" s="6">
+        <v>9016</v>
+      </c>
+      <c r="D834" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="E834" s="6">
+        <v>9</v>
+      </c>
+      <c r="F834" s="6">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="G834" s="6">
+        <v>1</v>
+      </c>
+      <c r="H834" s="6">
+        <v>24</v>
+      </c>
+      <c r="I834" s="6">
+        <v>80</v>
+      </c>
+      <c r="J834" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="835" customHeight="1" spans="3:10">
+      <c r="C835" s="6">
+        <v>9017</v>
+      </c>
+      <c r="D835" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="E835" s="6">
+        <v>9</v>
+      </c>
+      <c r="F835" s="6">
+        <f t="shared" si="25"/>
+        <v>170</v>
+      </c>
+      <c r="G835" s="6">
+        <v>1</v>
+      </c>
+      <c r="H835" s="6">
+        <v>18</v>
+      </c>
+      <c r="I835" s="6">
+        <v>90</v>
+      </c>
+      <c r="J835" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="836" customHeight="1" spans="3:10">
+      <c r="C836" s="6">
+        <v>9018</v>
+      </c>
+      <c r="D836" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="E836" s="6">
+        <v>9</v>
+      </c>
+      <c r="F836" s="6">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="G836" s="6">
+        <v>1</v>
+      </c>
+      <c r="H836" s="6">
+        <v>19</v>
+      </c>
+      <c r="I836" s="6">
+        <v>90</v>
+      </c>
+      <c r="J836" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="837" customHeight="1" spans="3:10">
+      <c r="C837" s="6">
+        <v>9019</v>
+      </c>
+      <c r="D837" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="E837" s="6">
+        <v>9</v>
+      </c>
+      <c r="F837" s="6">
+        <f t="shared" si="25"/>
+        <v>190</v>
+      </c>
+      <c r="G837" s="6">
+        <v>1</v>
+      </c>
+      <c r="H837" s="6">
+        <v>20</v>
+      </c>
+      <c r="I837" s="6">
+        <v>90</v>
+      </c>
+      <c r="J837" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="838" customHeight="1" spans="3:10">
+      <c r="C838" s="6">
+        <v>9020</v>
+      </c>
+      <c r="D838" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="E838" s="6">
+        <v>9</v>
+      </c>
+      <c r="F838" s="6">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="G838" s="6">
+        <v>1</v>
+      </c>
+      <c r="H838" s="6">
+        <v>24</v>
+      </c>
+      <c r="I838" s="6">
+        <v>90</v>
+      </c>
+      <c r="J838" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="839" customHeight="1" spans="3:10">
+      <c r="C839" s="6">
+        <v>9021</v>
+      </c>
+      <c r="D839" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="E839" s="6">
+        <v>9</v>
+      </c>
+      <c r="F839" s="6">
+        <f t="shared" si="25"/>
+        <v>210</v>
+      </c>
+      <c r="G839" s="6">
+        <v>1</v>
+      </c>
+      <c r="H839" s="6">
+        <v>18</v>
+      </c>
+      <c r="I839" s="6">
+        <v>100</v>
+      </c>
+      <c r="J839" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="840" customHeight="1" spans="3:10">
+      <c r="C840" s="6">
+        <v>9022</v>
+      </c>
+      <c r="D840" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="E840" s="6">
+        <v>9</v>
+      </c>
+      <c r="F840" s="6">
+        <f t="shared" si="25"/>
+        <v>220</v>
+      </c>
+      <c r="G840" s="6">
+        <v>1</v>
+      </c>
+      <c r="H840" s="6">
+        <v>19</v>
+      </c>
+      <c r="I840" s="6">
+        <v>100</v>
+      </c>
+      <c r="J840" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="841" customHeight="1" spans="3:10">
+      <c r="C841" s="6">
+        <v>9023</v>
+      </c>
+      <c r="D841" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="E841" s="6">
+        <v>9</v>
+      </c>
+      <c r="F841" s="6">
+        <f t="shared" si="25"/>
+        <v>230</v>
+      </c>
+      <c r="G841" s="6">
+        <v>1</v>
+      </c>
+      <c r="H841" s="6">
+        <v>20</v>
+      </c>
+      <c r="I841" s="6">
+        <v>100</v>
+      </c>
+      <c r="J841" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="842" customHeight="1" spans="3:10">
+      <c r="C842" s="6">
+        <v>9024</v>
+      </c>
+      <c r="D842" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E842" s="6">
+        <v>9</v>
+      </c>
+      <c r="F842" s="6">
+        <f t="shared" si="25"/>
+        <v>240</v>
+      </c>
+      <c r="G842" s="6">
+        <v>1</v>
+      </c>
+      <c r="H842" s="6">
+        <v>24</v>
+      </c>
+      <c r="I842" s="6">
+        <v>100</v>
+      </c>
+      <c r="J842" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="843" customHeight="1" spans="3:10">
+      <c r="C843" s="6">
+        <v>9025</v>
+      </c>
+      <c r="D843" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="E843" s="6">
+        <v>9</v>
+      </c>
+      <c r="F843" s="6">
+        <f t="shared" si="25"/>
+        <v>250</v>
+      </c>
+      <c r="G843" s="6">
+        <v>1</v>
+      </c>
+      <c r="H843" s="6">
+        <v>18</v>
+      </c>
+      <c r="I843" s="6">
+        <v>110</v>
+      </c>
+      <c r="J843" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="844" customHeight="1" spans="3:10">
+      <c r="C844" s="6">
+        <v>9026</v>
+      </c>
+      <c r="D844" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E844" s="6">
+        <v>9</v>
+      </c>
+      <c r="F844" s="6">
+        <f t="shared" si="25"/>
+        <v>260</v>
+      </c>
+      <c r="G844" s="6">
+        <v>1</v>
+      </c>
+      <c r="H844" s="6">
+        <v>19</v>
+      </c>
+      <c r="I844" s="6">
+        <v>110</v>
+      </c>
+      <c r="J844" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="845" customHeight="1" spans="3:10">
+      <c r="C845" s="6">
+        <v>9027</v>
+      </c>
+      <c r="D845" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E845" s="6">
+        <v>9</v>
+      </c>
+      <c r="F845" s="6">
+        <f t="shared" si="25"/>
+        <v>270</v>
+      </c>
+      <c r="G845" s="6">
+        <v>1</v>
+      </c>
+      <c r="H845" s="6">
+        <v>20</v>
+      </c>
+      <c r="I845" s="6">
+        <v>110</v>
+      </c>
+      <c r="J845" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="846" customHeight="1" spans="3:10">
+      <c r="C846" s="6">
+        <v>9028</v>
+      </c>
+      <c r="D846" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E846" s="6">
+        <v>9</v>
+      </c>
+      <c r="F846" s="6">
+        <f t="shared" si="25"/>
+        <v>280</v>
+      </c>
+      <c r="G846" s="6">
+        <v>1</v>
+      </c>
+      <c r="H846" s="6">
+        <v>24</v>
+      </c>
+      <c r="I846" s="6">
+        <v>110</v>
+      </c>
+      <c r="J846" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="847" customHeight="1" spans="3:10">
+      <c r="C847" s="6">
+        <v>9029</v>
+      </c>
+      <c r="D847" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E847" s="6">
+        <v>9</v>
+      </c>
+      <c r="F847" s="6">
+        <f t="shared" si="25"/>
+        <v>290</v>
+      </c>
+      <c r="G847" s="6">
+        <v>1</v>
+      </c>
+      <c r="H847" s="6">
+        <v>18</v>
+      </c>
+      <c r="I847" s="6">
+        <v>120</v>
+      </c>
+      <c r="J847" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="848" customHeight="1" spans="3:10">
+      <c r="C848" s="6">
+        <v>9030</v>
+      </c>
+      <c r="D848" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E848" s="6">
+        <v>9</v>
+      </c>
+      <c r="F848" s="6">
+        <f t="shared" si="25"/>
+        <v>300</v>
+      </c>
+      <c r="G848" s="6">
+        <v>1</v>
+      </c>
+      <c r="H848" s="6">
+        <v>19</v>
+      </c>
+      <c r="I848" s="6">
+        <v>120</v>
+      </c>
+      <c r="J848" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="849" customHeight="1" spans="3:10">
+      <c r="C849" s="6">
+        <v>9031</v>
+      </c>
+      <c r="D849" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="E849" s="6">
+        <v>9</v>
+      </c>
+      <c r="F849" s="6">
+        <f t="shared" si="25"/>
+        <v>310</v>
+      </c>
+      <c r="G849" s="6">
+        <v>1</v>
+      </c>
+      <c r="H849" s="6">
+        <v>20</v>
+      </c>
+      <c r="I849" s="6">
+        <v>120</v>
+      </c>
+      <c r="J849" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="850" customHeight="1" spans="3:10">
+      <c r="C850" s="6">
+        <v>9032</v>
+      </c>
+      <c r="D850" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E850" s="6">
+        <v>9</v>
+      </c>
+      <c r="F850" s="6">
+        <f t="shared" si="25"/>
+        <v>320</v>
+      </c>
+      <c r="G850" s="6">
+        <v>1</v>
+      </c>
+      <c r="H850" s="6">
+        <v>24</v>
+      </c>
+      <c r="I850" s="6">
+        <v>120</v>
+      </c>
+      <c r="J850" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="851" customHeight="1" spans="3:10">
+      <c r="C851" s="6">
+        <v>9033</v>
+      </c>
+      <c r="D851" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E851" s="6">
+        <v>9</v>
+      </c>
+      <c r="F851" s="6">
+        <f t="shared" si="25"/>
+        <v>330</v>
+      </c>
+      <c r="G851" s="6">
+        <v>1</v>
+      </c>
+      <c r="H851" s="6">
+        <v>18</v>
+      </c>
+      <c r="I851" s="6">
+        <v>130</v>
+      </c>
+      <c r="J851" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="852" customHeight="1" spans="3:10">
+      <c r="C852" s="6">
+        <v>9034</v>
+      </c>
+      <c r="D852" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E852" s="6">
+        <v>9</v>
+      </c>
+      <c r="F852" s="6">
+        <f t="shared" si="25"/>
+        <v>340</v>
+      </c>
+      <c r="G852" s="6">
+        <v>1</v>
+      </c>
+      <c r="H852" s="6">
+        <v>19</v>
+      </c>
+      <c r="I852" s="6">
+        <v>130</v>
+      </c>
+      <c r="J852" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="853" customHeight="1" spans="3:10">
+      <c r="C853" s="6">
+        <v>9035</v>
+      </c>
+      <c r="D853" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E853" s="6">
+        <v>9</v>
+      </c>
+      <c r="F853" s="6">
+        <f t="shared" si="25"/>
+        <v>350</v>
+      </c>
+      <c r="G853" s="6">
+        <v>1</v>
+      </c>
+      <c r="H853" s="6">
+        <v>20</v>
+      </c>
+      <c r="I853" s="6">
+        <v>130</v>
+      </c>
+      <c r="J853" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="854" customHeight="1" spans="3:10">
+      <c r="C854" s="6">
+        <v>9036</v>
+      </c>
+      <c r="D854" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="E854" s="6">
+        <v>9</v>
+      </c>
+      <c r="F854" s="6">
+        <f t="shared" si="25"/>
+        <v>360</v>
+      </c>
+      <c r="G854" s="6">
+        <v>1</v>
+      </c>
+      <c r="H854" s="6">
+        <v>24</v>
+      </c>
+      <c r="I854" s="6">
+        <v>130</v>
+      </c>
+      <c r="J854" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="855" customHeight="1" spans="3:10">
+      <c r="C855" s="6">
+        <v>9037</v>
+      </c>
+      <c r="D855" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="E855" s="6">
+        <v>9</v>
+      </c>
+      <c r="F855" s="6">
+        <f t="shared" si="25"/>
+        <v>370</v>
+      </c>
+      <c r="G855" s="6">
+        <v>1</v>
+      </c>
+      <c r="H855" s="6">
+        <v>18</v>
+      </c>
+      <c r="I855" s="6">
+        <v>140</v>
+      </c>
+      <c r="J855" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="856" customHeight="1" spans="3:10">
+      <c r="C856" s="6">
+        <v>9038</v>
+      </c>
+      <c r="D856" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E856" s="6">
+        <v>9</v>
+      </c>
+      <c r="F856" s="6">
+        <f t="shared" si="25"/>
+        <v>380</v>
+      </c>
+      <c r="G856" s="6">
+        <v>1</v>
+      </c>
+      <c r="H856" s="6">
+        <v>19</v>
+      </c>
+      <c r="I856" s="6">
+        <v>140</v>
+      </c>
+      <c r="J856" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="857" customHeight="1" spans="3:10">
+      <c r="C857" s="6">
+        <v>9039</v>
+      </c>
+      <c r="D857" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E857" s="6">
+        <v>9</v>
+      </c>
+      <c r="F857" s="6">
+        <f t="shared" si="25"/>
+        <v>390</v>
+      </c>
+      <c r="G857" s="6">
+        <v>1</v>
+      </c>
+      <c r="H857" s="6">
+        <v>20</v>
+      </c>
+      <c r="I857" s="6">
+        <v>140</v>
+      </c>
+      <c r="J857" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="858" customHeight="1" spans="3:10">
+      <c r="C858" s="6">
+        <v>9040</v>
+      </c>
+      <c r="D858" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E858" s="6">
+        <v>9</v>
+      </c>
+      <c r="F858" s="6">
+        <f t="shared" si="25"/>
+        <v>400</v>
+      </c>
+      <c r="G858" s="6">
+        <v>1</v>
+      </c>
+      <c r="H858" s="6">
+        <v>24</v>
+      </c>
+      <c r="I858" s="6">
+        <v>140</v>
+      </c>
+      <c r="J858" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="859" customHeight="1" spans="3:10">
+      <c r="C859" s="6">
+        <v>9041</v>
+      </c>
+      <c r="D859" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="E859" s="6">
+        <v>9</v>
+      </c>
+      <c r="F859" s="6">
+        <f t="shared" si="25"/>
+        <v>410</v>
+      </c>
+      <c r="G859" s="6">
+        <v>1</v>
+      </c>
+      <c r="H859" s="6">
+        <v>18</v>
+      </c>
+      <c r="I859" s="6">
+        <v>150</v>
+      </c>
+      <c r="J859" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="860" customHeight="1" spans="3:10">
+      <c r="C860" s="6">
+        <v>9042</v>
+      </c>
+      <c r="D860" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E860" s="6">
+        <v>9</v>
+      </c>
+      <c r="F860" s="6">
+        <f t="shared" si="25"/>
+        <v>420</v>
+      </c>
+      <c r="G860" s="6">
+        <v>1</v>
+      </c>
+      <c r="H860" s="6">
+        <v>19</v>
+      </c>
+      <c r="I860" s="6">
+        <v>150</v>
+      </c>
+      <c r="J860" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="861" customHeight="1" spans="3:10">
+      <c r="C861" s="6">
+        <v>9043</v>
+      </c>
+      <c r="D861" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E861" s="6">
+        <v>9</v>
+      </c>
+      <c r="F861" s="6">
+        <f t="shared" si="25"/>
+        <v>430</v>
+      </c>
+      <c r="G861" s="6">
+        <v>1</v>
+      </c>
+      <c r="H861" s="6">
+        <v>20</v>
+      </c>
+      <c r="I861" s="6">
+        <v>150</v>
+      </c>
+      <c r="J861" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="862" customHeight="1" spans="3:10">
+      <c r="C862" s="6">
+        <v>9044</v>
+      </c>
+      <c r="D862" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E862" s="6">
+        <v>9</v>
+      </c>
+      <c r="F862" s="6">
+        <f t="shared" si="25"/>
+        <v>440</v>
+      </c>
+      <c r="G862" s="6">
+        <v>1</v>
+      </c>
+      <c r="H862" s="6">
+        <v>24</v>
+      </c>
+      <c r="I862" s="6">
+        <v>150</v>
+      </c>
+      <c r="J862" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="863" customHeight="1" spans="3:10">
+      <c r="C863" s="6">
+        <v>9045</v>
+      </c>
+      <c r="D863" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E863" s="6">
+        <v>9</v>
+      </c>
+      <c r="F863" s="6">
+        <f t="shared" si="25"/>
+        <v>450</v>
+      </c>
+      <c r="G863" s="6">
+        <v>1</v>
+      </c>
+      <c r="H863" s="6">
+        <v>18</v>
+      </c>
+      <c r="I863" s="6">
+        <v>160</v>
+      </c>
+      <c r="J863" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="864" customHeight="1" spans="3:10">
+      <c r="C864" s="6">
+        <v>9046</v>
+      </c>
+      <c r="D864" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E864" s="6">
+        <v>9</v>
+      </c>
+      <c r="F864" s="6">
+        <f t="shared" si="25"/>
+        <v>460</v>
+      </c>
+      <c r="G864" s="6">
+        <v>1</v>
+      </c>
+      <c r="H864" s="6">
+        <v>19</v>
+      </c>
+      <c r="I864" s="6">
+        <v>160</v>
+      </c>
+      <c r="J864" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" customHeight="1" spans="3:10">
+      <c r="C865" s="6">
+        <v>9047</v>
+      </c>
+      <c r="D865" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="E865" s="6">
+        <v>9</v>
+      </c>
+      <c r="F865" s="6">
+        <f t="shared" si="25"/>
+        <v>470</v>
+      </c>
+      <c r="G865" s="6">
+        <v>1</v>
+      </c>
+      <c r="H865" s="6">
+        <v>20</v>
+      </c>
+      <c r="I865" s="6">
+        <v>160</v>
+      </c>
+      <c r="J865" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" customHeight="1" spans="3:10">
+      <c r="C866" s="6">
+        <v>9048</v>
+      </c>
+      <c r="D866" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="E866" s="6">
+        <v>9</v>
+      </c>
+      <c r="F866" s="6">
+        <f t="shared" si="25"/>
+        <v>480</v>
+      </c>
+      <c r="G866" s="6">
+        <v>1</v>
+      </c>
+      <c r="H866" s="6">
+        <v>24</v>
+      </c>
+      <c r="I866" s="6">
+        <v>160</v>
+      </c>
+      <c r="J866" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="867" customHeight="1" spans="3:10">
+      <c r="C867" s="6">
+        <v>9049</v>
+      </c>
+      <c r="D867" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="E867" s="6">
+        <v>9</v>
+      </c>
+      <c r="F867" s="6">
+        <f t="shared" si="25"/>
+        <v>490</v>
+      </c>
+      <c r="G867" s="6">
+        <v>1</v>
+      </c>
+      <c r="H867" s="6">
+        <v>18</v>
+      </c>
+      <c r="I867" s="6">
+        <v>170</v>
+      </c>
+      <c r="J867" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="868" customHeight="1" spans="3:10">
+      <c r="C868" s="6">
+        <v>9050</v>
+      </c>
+      <c r="D868" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="E868" s="6">
+        <v>9</v>
+      </c>
+      <c r="F868" s="6">
+        <f t="shared" si="25"/>
+        <v>500</v>
+      </c>
+      <c r="G868" s="6">
+        <v>1</v>
+      </c>
+      <c r="H868" s="6">
+        <v>19</v>
+      </c>
+      <c r="I868" s="6">
+        <v>170</v>
+      </c>
+      <c r="J868" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="869" customHeight="1" spans="3:10">
+      <c r="C869" s="6">
+        <v>9051</v>
+      </c>
+      <c r="D869" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="E869" s="6">
+        <v>9</v>
+      </c>
+      <c r="F869" s="6">
+        <f t="shared" si="25"/>
+        <v>510</v>
+      </c>
+      <c r="G869" s="6">
+        <v>1</v>
+      </c>
+      <c r="H869" s="6">
+        <v>20</v>
+      </c>
+      <c r="I869" s="6">
+        <v>170</v>
+      </c>
+      <c r="J869" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="870" customHeight="1" spans="3:10">
+      <c r="C870" s="6">
+        <v>9052</v>
+      </c>
+      <c r="D870" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E870" s="6">
+        <v>9</v>
+      </c>
+      <c r="F870" s="6">
+        <f t="shared" si="25"/>
+        <v>520</v>
+      </c>
+      <c r="G870" s="6">
+        <v>1</v>
+      </c>
+      <c r="H870" s="6">
+        <v>24</v>
+      </c>
+      <c r="I870" s="6">
+        <v>170</v>
+      </c>
+      <c r="J870" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="871" customHeight="1" spans="3:10">
+      <c r="C871" s="6">
+        <v>9053</v>
+      </c>
+      <c r="D871" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E871" s="6">
+        <v>9</v>
+      </c>
+      <c r="F871" s="6">
+        <f t="shared" si="25"/>
+        <v>530</v>
+      </c>
+      <c r="G871" s="6">
+        <v>1</v>
+      </c>
+      <c r="H871" s="6">
+        <v>18</v>
+      </c>
+      <c r="I871" s="6">
+        <v>180</v>
+      </c>
+      <c r="J871" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="872" customHeight="1" spans="3:10">
+      <c r="C872" s="6">
+        <v>9054</v>
+      </c>
+      <c r="D872" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E872" s="6">
+        <v>9</v>
+      </c>
+      <c r="F872" s="6">
+        <f t="shared" si="25"/>
+        <v>540</v>
+      </c>
+      <c r="G872" s="6">
+        <v>1</v>
+      </c>
+      <c r="H872" s="6">
+        <v>19</v>
+      </c>
+      <c r="I872" s="6">
+        <v>180</v>
+      </c>
+      <c r="J872" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="873" customHeight="1" spans="3:10">
+      <c r="C873" s="6">
+        <v>9055</v>
+      </c>
+      <c r="D873" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="E873" s="6">
+        <v>9</v>
+      </c>
+      <c r="F873" s="6">
+        <f t="shared" si="25"/>
+        <v>550</v>
+      </c>
+      <c r="G873" s="6">
+        <v>1</v>
+      </c>
+      <c r="H873" s="6">
+        <v>20</v>
+      </c>
+      <c r="I873" s="6">
+        <v>180</v>
+      </c>
+      <c r="J873" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="874" customHeight="1" spans="3:10">
+      <c r="C874" s="6">
+        <v>9056</v>
+      </c>
+      <c r="D874" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E874" s="6">
+        <v>9</v>
+      </c>
+      <c r="F874" s="6">
+        <f t="shared" si="25"/>
+        <v>560</v>
+      </c>
+      <c r="G874" s="6">
+        <v>1</v>
+      </c>
+      <c r="H874" s="6">
+        <v>24</v>
+      </c>
+      <c r="I874" s="6">
+        <v>180</v>
+      </c>
+      <c r="J874" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="875" customHeight="1" spans="3:10">
+      <c r="C875" s="6">
+        <v>9057</v>
+      </c>
+      <c r="D875" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="E875" s="6">
+        <v>9</v>
+      </c>
+      <c r="F875" s="6">
+        <f t="shared" si="25"/>
+        <v>570</v>
+      </c>
+      <c r="G875" s="6">
+        <v>1</v>
+      </c>
+      <c r="H875" s="6">
+        <v>18</v>
+      </c>
+      <c r="I875" s="6">
+        <v>190</v>
+      </c>
+      <c r="J875" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="876" customHeight="1" spans="3:10">
+      <c r="C876" s="6">
+        <v>9058</v>
+      </c>
+      <c r="D876" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="E876" s="6">
+        <v>9</v>
+      </c>
+      <c r="F876" s="6">
+        <f t="shared" si="25"/>
+        <v>580</v>
+      </c>
+      <c r="G876" s="6">
+        <v>1</v>
+      </c>
+      <c r="H876" s="6">
+        <v>19</v>
+      </c>
+      <c r="I876" s="6">
+        <v>190</v>
+      </c>
+      <c r="J876" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="877" customHeight="1" spans="3:10">
+      <c r="C877" s="6">
+        <v>9059</v>
+      </c>
+      <c r="D877" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E877" s="6">
+        <v>9</v>
+      </c>
+      <c r="F877" s="6">
+        <f t="shared" si="25"/>
+        <v>590</v>
+      </c>
+      <c r="G877" s="6">
+        <v>1</v>
+      </c>
+      <c r="H877" s="6">
+        <v>20</v>
+      </c>
+      <c r="I877" s="6">
+        <v>190</v>
+      </c>
+      <c r="J877" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="878" customHeight="1" spans="3:10">
+      <c r="C878" s="6">
+        <v>9060</v>
+      </c>
+      <c r="D878" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="E878" s="6">
+        <v>9</v>
+      </c>
+      <c r="F878" s="6">
+        <f t="shared" si="25"/>
+        <v>600</v>
+      </c>
+      <c r="G878" s="6">
+        <v>1</v>
+      </c>
+      <c r="H878" s="6">
+        <v>24</v>
+      </c>
+      <c r="I878" s="6">
+        <v>190</v>
+      </c>
+      <c r="J878" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="879" customHeight="1" spans="3:10">
+      <c r="C879" s="6">
+        <v>9061</v>
+      </c>
+      <c r="D879" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E879" s="6">
+        <v>9</v>
+      </c>
+      <c r="F879" s="6">
+        <f t="shared" si="25"/>
+        <v>610</v>
+      </c>
+      <c r="G879" s="6">
+        <v>1</v>
+      </c>
+      <c r="H879" s="6">
+        <v>18</v>
+      </c>
+      <c r="I879" s="6">
+        <v>200</v>
+      </c>
+      <c r="J879" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="880" customHeight="1" spans="3:10">
+      <c r="C880" s="6">
+        <v>9062</v>
+      </c>
+      <c r="D880" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E880" s="6">
+        <v>9</v>
+      </c>
+      <c r="F880" s="6">
+        <f t="shared" si="25"/>
+        <v>620</v>
+      </c>
+      <c r="G880" s="6">
+        <v>1</v>
+      </c>
+      <c r="H880" s="6">
+        <v>19</v>
+      </c>
+      <c r="I880" s="6">
+        <v>200</v>
+      </c>
+      <c r="J880" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="881" customHeight="1" spans="3:10">
+      <c r="C881" s="6">
+        <v>9063</v>
+      </c>
+      <c r="D881" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="E881" s="6">
+        <v>9</v>
+      </c>
+      <c r="F881" s="6">
+        <f t="shared" si="25"/>
+        <v>630</v>
+      </c>
+      <c r="G881" s="6">
+        <v>1</v>
+      </c>
+      <c r="H881" s="6">
+        <v>20</v>
+      </c>
+      <c r="I881" s="6">
+        <v>200</v>
+      </c>
+      <c r="J881" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="882" customHeight="1" spans="3:10">
+      <c r="C882" s="6">
+        <v>9064</v>
+      </c>
+      <c r="D882" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E882" s="6">
+        <v>9</v>
+      </c>
+      <c r="F882" s="6">
+        <f t="shared" si="25"/>
+        <v>640</v>
+      </c>
+      <c r="G882" s="6">
+        <v>1</v>
+      </c>
+      <c r="H882" s="6">
+        <v>24</v>
+      </c>
+      <c r="I882" s="6">
+        <v>200</v>
+      </c>
+      <c r="J882" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="883" customHeight="1" spans="3:10">
+      <c r="C883" s="6">
+        <v>9065</v>
+      </c>
+      <c r="D883" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="E883" s="6">
+        <v>9</v>
+      </c>
+      <c r="F883" s="6">
+        <f t="shared" si="25"/>
+        <v>650</v>
+      </c>
+      <c r="G883" s="6">
+        <v>1</v>
+      </c>
+      <c r="H883" s="6">
+        <v>18</v>
+      </c>
+      <c r="I883" s="6">
+        <v>210</v>
+      </c>
+      <c r="J883" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="884" customHeight="1" spans="3:10">
+      <c r="C884" s="6">
+        <v>9066</v>
+      </c>
+      <c r="D884" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E884" s="6">
+        <v>9</v>
+      </c>
+      <c r="F884" s="6">
+        <f t="shared" ref="F884:F890" si="26">F883+10</f>
+        <v>660</v>
+      </c>
+      <c r="G884" s="6">
+        <v>1</v>
+      </c>
+      <c r="H884" s="6">
+        <v>19</v>
+      </c>
+      <c r="I884" s="6">
+        <v>210</v>
+      </c>
+      <c r="J884" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="885" customHeight="1" spans="3:10">
+      <c r="C885" s="6">
+        <v>9067</v>
+      </c>
+      <c r="D885" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="E885" s="6">
+        <v>9</v>
+      </c>
+      <c r="F885" s="6">
+        <f t="shared" si="26"/>
+        <v>670</v>
+      </c>
+      <c r="G885" s="6">
+        <v>1</v>
+      </c>
+      <c r="H885" s="6">
+        <v>20</v>
+      </c>
+      <c r="I885" s="6">
+        <v>210</v>
+      </c>
+      <c r="J885" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="886" customHeight="1" spans="3:10">
+      <c r="C886" s="6">
+        <v>9068</v>
+      </c>
+      <c r="D886" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E886" s="6">
+        <v>9</v>
+      </c>
+      <c r="F886" s="6">
+        <f t="shared" si="26"/>
+        <v>680</v>
+      </c>
+      <c r="G886" s="6">
+        <v>1</v>
+      </c>
+      <c r="H886" s="6">
+        <v>24</v>
+      </c>
+      <c r="I886" s="6">
+        <v>210</v>
+      </c>
+      <c r="J886" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="887" customHeight="1" spans="3:10">
+      <c r="C887" s="6">
+        <v>9069</v>
+      </c>
+      <c r="D887" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="E887" s="6">
+        <v>9</v>
+      </c>
+      <c r="F887" s="6">
+        <f t="shared" si="26"/>
+        <v>690</v>
+      </c>
+      <c r="G887" s="6">
+        <v>1</v>
+      </c>
+      <c r="H887" s="6">
+        <v>18</v>
+      </c>
+      <c r="I887" s="6">
+        <v>220</v>
+      </c>
+      <c r="J887" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="888" customHeight="1" spans="3:10">
+      <c r="C888" s="6">
+        <v>9070</v>
+      </c>
+      <c r="D888" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="E888" s="6">
+        <v>9</v>
+      </c>
+      <c r="F888" s="6">
+        <f t="shared" si="26"/>
+        <v>700</v>
+      </c>
+      <c r="G888" s="6">
+        <v>1</v>
+      </c>
+      <c r="H888" s="6">
+        <v>19</v>
+      </c>
+      <c r="I888" s="6">
+        <v>220</v>
+      </c>
+      <c r="J888" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="889" customHeight="1" spans="3:10">
+      <c r="C889" s="6">
+        <v>9071</v>
+      </c>
+      <c r="D889" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="E889" s="6">
+        <v>9</v>
+      </c>
+      <c r="F889" s="6">
+        <f t="shared" si="26"/>
+        <v>710</v>
+      </c>
+      <c r="G889" s="6">
+        <v>1</v>
+      </c>
+      <c r="H889" s="6">
+        <v>20</v>
+      </c>
+      <c r="I889" s="6">
+        <v>220</v>
+      </c>
+      <c r="J889" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="890" customHeight="1" spans="3:10">
+      <c r="C890" s="6">
+        <v>9072</v>
+      </c>
+      <c r="D890" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="E890" s="6">
+        <v>9</v>
+      </c>
+      <c r="F890" s="6">
+        <f t="shared" si="26"/>
+        <v>720</v>
+      </c>
+      <c r="G890" s="6">
+        <v>1</v>
+      </c>
+      <c r="H890" s="6">
+        <v>24</v>
+      </c>
+      <c r="I890" s="6">
+        <v>220</v>
+      </c>
+      <c r="J890" s="6" t="s">
+        <v>863</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1150">
   <si>
     <t>#</t>
   </si>
@@ -3458,6 +3458,90 @@
   </si>
   <si>
     <t>攀登者72</t>
+  </si>
+  <si>
+    <t>攀登者73</t>
+  </si>
+  <si>
+    <t>攀登者74</t>
+  </si>
+  <si>
+    <t>攀登者75</t>
+  </si>
+  <si>
+    <t>攀登者76</t>
+  </si>
+  <si>
+    <t>攀登者77</t>
+  </si>
+  <si>
+    <t>攀登者78</t>
+  </si>
+  <si>
+    <t>攀登者79</t>
+  </si>
+  <si>
+    <t>攀登者80</t>
+  </si>
+  <si>
+    <t>攀登者81</t>
+  </si>
+  <si>
+    <t>攀登者82</t>
+  </si>
+  <si>
+    <t>攀登者83</t>
+  </si>
+  <si>
+    <t>攀登者84</t>
+  </si>
+  <si>
+    <t>攀登者85</t>
+  </si>
+  <si>
+    <t>攀登者86</t>
+  </si>
+  <si>
+    <t>攀登者87</t>
+  </si>
+  <si>
+    <t>攀登者88</t>
+  </si>
+  <si>
+    <t>攀登者89</t>
+  </si>
+  <si>
+    <t>攀登者90</t>
+  </si>
+  <si>
+    <t>攀登者91</t>
+  </si>
+  <si>
+    <t>攀登者92</t>
+  </si>
+  <si>
+    <t>攀登者93</t>
+  </si>
+  <si>
+    <t>攀登者94</t>
+  </si>
+  <si>
+    <t>攀登者95</t>
+  </si>
+  <si>
+    <t>攀登者96</t>
+  </si>
+  <si>
+    <t>攀登者97</t>
+  </si>
+  <si>
+    <t>攀登者98</t>
+  </si>
+  <si>
+    <t>攀登者99</t>
+  </si>
+  <si>
+    <t>攀登者100</t>
   </si>
 </sst>
 </file>
@@ -4457,10 +4541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K1076"/>
+  <dimension ref="A2:K1104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="D353" sqref="D353:D380"/>
+    <sheetView tabSelected="1" topLeftCell="A1074" workbookViewId="0">
+      <selection activeCell="K1089" sqref="K1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -32123,7 +32207,7 @@
         <v>6</v>
       </c>
       <c r="F961" s="6">
-        <f>F960+750</f>
+        <f t="shared" ref="F961:F966" si="27">F960+750</f>
         <v>16250</v>
       </c>
       <c r="G961" s="6">
@@ -32150,7 +32234,7 @@
         <v>6</v>
       </c>
       <c r="F962" s="6">
-        <f>F961+750</f>
+        <f t="shared" si="27"/>
         <v>17000</v>
       </c>
       <c r="G962" s="6">
@@ -32177,7 +32261,7 @@
         <v>6</v>
       </c>
       <c r="F963" s="6">
-        <f>F962+750</f>
+        <f t="shared" si="27"/>
         <v>17750</v>
       </c>
       <c r="G963" s="6">
@@ -32204,7 +32288,7 @@
         <v>6</v>
       </c>
       <c r="F964" s="6">
-        <f>F963+750</f>
+        <f t="shared" si="27"/>
         <v>18500</v>
       </c>
       <c r="G964" s="6">
@@ -32231,7 +32315,7 @@
         <v>6</v>
       </c>
       <c r="F965" s="6">
-        <f>F964+750</f>
+        <f t="shared" si="27"/>
         <v>19250</v>
       </c>
       <c r="G965" s="6">
@@ -32258,7 +32342,7 @@
         <v>6</v>
       </c>
       <c r="F966" s="6">
-        <f>F965+750</f>
+        <f t="shared" si="27"/>
         <v>20000</v>
       </c>
       <c r="G966" s="6">
@@ -32285,7 +32369,7 @@
         <v>6</v>
       </c>
       <c r="F967" s="6">
-        <f t="shared" ref="F967:F976" si="27">F966+1500</f>
+        <f t="shared" ref="F967:F976" si="28">F966+1500</f>
         <v>21500</v>
       </c>
       <c r="G967" s="6">
@@ -32312,7 +32396,7 @@
         <v>6</v>
       </c>
       <c r="F968" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>23000</v>
       </c>
       <c r="G968" s="6">
@@ -32339,7 +32423,7 @@
         <v>6</v>
       </c>
       <c r="F969" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24500</v>
       </c>
       <c r="G969" s="6">
@@ -32366,7 +32450,7 @@
         <v>6</v>
       </c>
       <c r="F970" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26000</v>
       </c>
       <c r="G970" s="6">
@@ -32393,7 +32477,7 @@
         <v>6</v>
       </c>
       <c r="F971" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>27500</v>
       </c>
       <c r="G971" s="6">
@@ -32420,7 +32504,7 @@
         <v>6</v>
       </c>
       <c r="F972" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29000</v>
       </c>
       <c r="G972" s="6">
@@ -32447,7 +32531,7 @@
         <v>6</v>
       </c>
       <c r="F973" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>30500</v>
       </c>
       <c r="G973" s="6">
@@ -32474,7 +32558,7 @@
         <v>6</v>
       </c>
       <c r="F974" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>32000</v>
       </c>
       <c r="G974" s="6">
@@ -32501,7 +32585,7 @@
         <v>6</v>
       </c>
       <c r="F975" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>33500</v>
       </c>
       <c r="G975" s="6">
@@ -32528,7 +32612,7 @@
         <v>6</v>
       </c>
       <c r="F976" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>35000</v>
       </c>
       <c r="G976" s="6">
@@ -33277,7 +33361,7 @@
         <v>9</v>
       </c>
       <c r="F1006" s="6">
-        <f t="shared" ref="F1006:F1069" si="28">F1005+10</f>
+        <f t="shared" ref="F1006:F1069" si="29">F1005+10</f>
         <v>20</v>
       </c>
       <c r="G1006" s="6">
@@ -33304,7 +33388,7 @@
         <v>9</v>
       </c>
       <c r="F1007" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="G1007" s="6">
@@ -33331,7 +33415,7 @@
         <v>9</v>
       </c>
       <c r="F1008" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="G1008" s="6">
@@ -33358,7 +33442,7 @@
         <v>9</v>
       </c>
       <c r="F1009" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="G1009" s="6">
@@ -33385,7 +33469,7 @@
         <v>9</v>
       </c>
       <c r="F1010" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>60</v>
       </c>
       <c r="G1010" s="6">
@@ -33412,7 +33496,7 @@
         <v>9</v>
       </c>
       <c r="F1011" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>70</v>
       </c>
       <c r="G1011" s="6">
@@ -33439,7 +33523,7 @@
         <v>9</v>
       </c>
       <c r="F1012" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
       <c r="G1012" s="6">
@@ -33466,7 +33550,7 @@
         <v>9</v>
       </c>
       <c r="F1013" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="G1013" s="6">
@@ -33493,7 +33577,7 @@
         <v>9</v>
       </c>
       <c r="F1014" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="G1014" s="6">
@@ -33520,7 +33604,7 @@
         <v>9</v>
       </c>
       <c r="F1015" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>110</v>
       </c>
       <c r="G1015" s="6">
@@ -33547,7 +33631,7 @@
         <v>9</v>
       </c>
       <c r="F1016" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>120</v>
       </c>
       <c r="G1016" s="6">
@@ -33574,7 +33658,7 @@
         <v>9</v>
       </c>
       <c r="F1017" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>130</v>
       </c>
       <c r="G1017" s="6">
@@ -33601,7 +33685,7 @@
         <v>9</v>
       </c>
       <c r="F1018" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>140</v>
       </c>
       <c r="G1018" s="6">
@@ -33628,7 +33712,7 @@
         <v>9</v>
       </c>
       <c r="F1019" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="G1019" s="6">
@@ -33655,7 +33739,7 @@
         <v>9</v>
       </c>
       <c r="F1020" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>160</v>
       </c>
       <c r="G1020" s="6">
@@ -33682,7 +33766,7 @@
         <v>9</v>
       </c>
       <c r="F1021" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>170</v>
       </c>
       <c r="G1021" s="6">
@@ -33709,7 +33793,7 @@
         <v>9</v>
       </c>
       <c r="F1022" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>180</v>
       </c>
       <c r="G1022" s="6">
@@ -33736,7 +33820,7 @@
         <v>9</v>
       </c>
       <c r="F1023" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>190</v>
       </c>
       <c r="G1023" s="6">
@@ -33763,7 +33847,7 @@
         <v>9</v>
       </c>
       <c r="F1024" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>200</v>
       </c>
       <c r="G1024" s="6">
@@ -33790,7 +33874,7 @@
         <v>9</v>
       </c>
       <c r="F1025" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>210</v>
       </c>
       <c r="G1025" s="6">
@@ -33817,7 +33901,7 @@
         <v>9</v>
       </c>
       <c r="F1026" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>220</v>
       </c>
       <c r="G1026" s="6">
@@ -33844,7 +33928,7 @@
         <v>9</v>
       </c>
       <c r="F1027" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>230</v>
       </c>
       <c r="G1027" s="6">
@@ -33871,7 +33955,7 @@
         <v>9</v>
       </c>
       <c r="F1028" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>240</v>
       </c>
       <c r="G1028" s="6">
@@ -33898,7 +33982,7 @@
         <v>9</v>
       </c>
       <c r="F1029" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>250</v>
       </c>
       <c r="G1029" s="6">
@@ -33925,7 +34009,7 @@
         <v>9</v>
       </c>
       <c r="F1030" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>260</v>
       </c>
       <c r="G1030" s="6">
@@ -33952,7 +34036,7 @@
         <v>9</v>
       </c>
       <c r="F1031" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>270</v>
       </c>
       <c r="G1031" s="6">
@@ -33979,7 +34063,7 @@
         <v>9</v>
       </c>
       <c r="F1032" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>280</v>
       </c>
       <c r="G1032" s="6">
@@ -34006,7 +34090,7 @@
         <v>9</v>
       </c>
       <c r="F1033" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>290</v>
       </c>
       <c r="G1033" s="6">
@@ -34033,7 +34117,7 @@
         <v>9</v>
       </c>
       <c r="F1034" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>300</v>
       </c>
       <c r="G1034" s="6">
@@ -34060,7 +34144,7 @@
         <v>9</v>
       </c>
       <c r="F1035" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>310</v>
       </c>
       <c r="G1035" s="6">
@@ -34087,7 +34171,7 @@
         <v>9</v>
       </c>
       <c r="F1036" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>320</v>
       </c>
       <c r="G1036" s="6">
@@ -34114,7 +34198,7 @@
         <v>9</v>
       </c>
       <c r="F1037" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>330</v>
       </c>
       <c r="G1037" s="6">
@@ -34141,7 +34225,7 @@
         <v>9</v>
       </c>
       <c r="F1038" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>340</v>
       </c>
       <c r="G1038" s="6">
@@ -34168,7 +34252,7 @@
         <v>9</v>
       </c>
       <c r="F1039" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>350</v>
       </c>
       <c r="G1039" s="6">
@@ -34195,7 +34279,7 @@
         <v>9</v>
       </c>
       <c r="F1040" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>360</v>
       </c>
       <c r="G1040" s="6">
@@ -34222,7 +34306,7 @@
         <v>9</v>
       </c>
       <c r="F1041" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>370</v>
       </c>
       <c r="G1041" s="6">
@@ -34249,7 +34333,7 @@
         <v>9</v>
       </c>
       <c r="F1042" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>380</v>
       </c>
       <c r="G1042" s="6">
@@ -34276,7 +34360,7 @@
         <v>9</v>
       </c>
       <c r="F1043" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>390</v>
       </c>
       <c r="G1043" s="6">
@@ -34303,7 +34387,7 @@
         <v>9</v>
       </c>
       <c r="F1044" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="G1044" s="6">
@@ -34330,7 +34414,7 @@
         <v>9</v>
       </c>
       <c r="F1045" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>410</v>
       </c>
       <c r="G1045" s="6">
@@ -34357,7 +34441,7 @@
         <v>9</v>
       </c>
       <c r="F1046" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>420</v>
       </c>
       <c r="G1046" s="6">
@@ -34384,7 +34468,7 @@
         <v>9</v>
       </c>
       <c r="F1047" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>430</v>
       </c>
       <c r="G1047" s="6">
@@ -34411,7 +34495,7 @@
         <v>9</v>
       </c>
       <c r="F1048" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>440</v>
       </c>
       <c r="G1048" s="6">
@@ -34438,7 +34522,7 @@
         <v>9</v>
       </c>
       <c r="F1049" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>450</v>
       </c>
       <c r="G1049" s="6">
@@ -34465,7 +34549,7 @@
         <v>9</v>
       </c>
       <c r="F1050" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>460</v>
       </c>
       <c r="G1050" s="6">
@@ -34492,7 +34576,7 @@
         <v>9</v>
       </c>
       <c r="F1051" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>470</v>
       </c>
       <c r="G1051" s="6">
@@ -34519,7 +34603,7 @@
         <v>9</v>
       </c>
       <c r="F1052" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>480</v>
       </c>
       <c r="G1052" s="6">
@@ -34546,7 +34630,7 @@
         <v>9</v>
       </c>
       <c r="F1053" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>490</v>
       </c>
       <c r="G1053" s="6">
@@ -34573,7 +34657,7 @@
         <v>9</v>
       </c>
       <c r="F1054" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>500</v>
       </c>
       <c r="G1054" s="6">
@@ -34600,7 +34684,7 @@
         <v>9</v>
       </c>
       <c r="F1055" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>510</v>
       </c>
       <c r="G1055" s="6">
@@ -34627,7 +34711,7 @@
         <v>9</v>
       </c>
       <c r="F1056" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>520</v>
       </c>
       <c r="G1056" s="6">
@@ -34654,7 +34738,7 @@
         <v>9</v>
       </c>
       <c r="F1057" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>530</v>
       </c>
       <c r="G1057" s="6">
@@ -34681,7 +34765,7 @@
         <v>9</v>
       </c>
       <c r="F1058" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>540</v>
       </c>
       <c r="G1058" s="6">
@@ -34708,7 +34792,7 @@
         <v>9</v>
       </c>
       <c r="F1059" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>550</v>
       </c>
       <c r="G1059" s="6">
@@ -34735,7 +34819,7 @@
         <v>9</v>
       </c>
       <c r="F1060" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>560</v>
       </c>
       <c r="G1060" s="6">
@@ -34762,7 +34846,7 @@
         <v>9</v>
       </c>
       <c r="F1061" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>570</v>
       </c>
       <c r="G1061" s="6">
@@ -34789,7 +34873,7 @@
         <v>9</v>
       </c>
       <c r="F1062" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>580</v>
       </c>
       <c r="G1062" s="6">
@@ -34816,7 +34900,7 @@
         <v>9</v>
       </c>
       <c r="F1063" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>590</v>
       </c>
       <c r="G1063" s="6">
@@ -34843,7 +34927,7 @@
         <v>9</v>
       </c>
       <c r="F1064" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>600</v>
       </c>
       <c r="G1064" s="6">
@@ -34870,7 +34954,7 @@
         <v>9</v>
       </c>
       <c r="F1065" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>610</v>
       </c>
       <c r="G1065" s="6">
@@ -34897,7 +34981,7 @@
         <v>9</v>
       </c>
       <c r="F1066" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>620</v>
       </c>
       <c r="G1066" s="6">
@@ -34924,7 +35008,7 @@
         <v>9</v>
       </c>
       <c r="F1067" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>630</v>
       </c>
       <c r="G1067" s="6">
@@ -34951,7 +35035,7 @@
         <v>9</v>
       </c>
       <c r="F1068" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>640</v>
       </c>
       <c r="G1068" s="6">
@@ -34978,7 +35062,7 @@
         <v>9</v>
       </c>
       <c r="F1069" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>650</v>
       </c>
       <c r="G1069" s="6">
@@ -35005,7 +35089,7 @@
         <v>9</v>
       </c>
       <c r="F1070" s="6">
-        <f t="shared" ref="F1070:F1076" si="29">F1069+10</f>
+        <f t="shared" ref="F1070:F1108" si="30">F1069+10</f>
         <v>660</v>
       </c>
       <c r="G1070" s="6">
@@ -35032,7 +35116,7 @@
         <v>9</v>
       </c>
       <c r="F1071" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>670</v>
       </c>
       <c r="G1071" s="6">
@@ -35059,7 +35143,7 @@
         <v>9</v>
       </c>
       <c r="F1072" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>680</v>
       </c>
       <c r="G1072" s="6">
@@ -35086,7 +35170,7 @@
         <v>9</v>
       </c>
       <c r="F1073" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>690</v>
       </c>
       <c r="G1073" s="6">
@@ -35113,7 +35197,7 @@
         <v>9</v>
       </c>
       <c r="F1074" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>700</v>
       </c>
       <c r="G1074" s="6">
@@ -35140,7 +35224,7 @@
         <v>9</v>
       </c>
       <c r="F1075" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>710</v>
       </c>
       <c r="G1075" s="6">
@@ -35167,7 +35251,7 @@
         <v>9</v>
       </c>
       <c r="F1076" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>720</v>
       </c>
       <c r="G1076" s="6">
@@ -35180,6 +35264,762 @@
         <v>220</v>
       </c>
       <c r="J1076" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1077" customHeight="1" spans="3:10">
+      <c r="C1077" s="6">
+        <v>9073</v>
+      </c>
+      <c r="D1077" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1077" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1077" s="6">
+        <f t="shared" si="30"/>
+        <v>730</v>
+      </c>
+      <c r="G1077" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1077" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1077" s="6">
+        <v>230</v>
+      </c>
+      <c r="J1077" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1078" customHeight="1" spans="3:10">
+      <c r="C1078" s="6">
+        <v>9074</v>
+      </c>
+      <c r="D1078" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1078" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1078" s="6">
+        <f t="shared" si="30"/>
+        <v>740</v>
+      </c>
+      <c r="G1078" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1078" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1078" s="6">
+        <v>230</v>
+      </c>
+      <c r="J1078" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1079" customHeight="1" spans="3:10">
+      <c r="C1079" s="6">
+        <v>9075</v>
+      </c>
+      <c r="D1079" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1079" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1079" s="6">
+        <f t="shared" si="30"/>
+        <v>750</v>
+      </c>
+      <c r="G1079" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1079" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1079" s="6">
+        <v>230</v>
+      </c>
+      <c r="J1079" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1080" customHeight="1" spans="3:10">
+      <c r="C1080" s="6">
+        <v>9076</v>
+      </c>
+      <c r="D1080" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1080" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1080" s="6">
+        <f t="shared" si="30"/>
+        <v>760</v>
+      </c>
+      <c r="G1080" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1080" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1080" s="6">
+        <v>230</v>
+      </c>
+      <c r="J1080" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1081" customHeight="1" spans="3:10">
+      <c r="C1081" s="6">
+        <v>9077</v>
+      </c>
+      <c r="D1081" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E1081" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1081" s="6">
+        <f t="shared" si="30"/>
+        <v>770</v>
+      </c>
+      <c r="G1081" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1081" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1081" s="6">
+        <v>240</v>
+      </c>
+      <c r="J1081" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1082" customHeight="1" spans="3:10">
+      <c r="C1082" s="6">
+        <v>9078</v>
+      </c>
+      <c r="D1082" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1082" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1082" s="6">
+        <f t="shared" si="30"/>
+        <v>780</v>
+      </c>
+      <c r="G1082" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1082" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1082" s="6">
+        <v>240</v>
+      </c>
+      <c r="J1082" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1083" customHeight="1" spans="3:10">
+      <c r="C1083" s="6">
+        <v>9079</v>
+      </c>
+      <c r="D1083" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1083" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1083" s="6">
+        <f t="shared" si="30"/>
+        <v>790</v>
+      </c>
+      <c r="G1083" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1083" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1083" s="6">
+        <v>240</v>
+      </c>
+      <c r="J1083" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1084" customHeight="1" spans="3:10">
+      <c r="C1084" s="6">
+        <v>9080</v>
+      </c>
+      <c r="D1084" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E1084" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1084" s="6">
+        <f t="shared" si="30"/>
+        <v>800</v>
+      </c>
+      <c r="G1084" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1084" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1084" s="6">
+        <v>240</v>
+      </c>
+      <c r="J1084" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1085" customHeight="1" spans="3:10">
+      <c r="C1085" s="6">
+        <v>9081</v>
+      </c>
+      <c r="D1085" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E1085" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1085" s="6">
+        <f t="shared" si="30"/>
+        <v>810</v>
+      </c>
+      <c r="G1085" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1085" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1085" s="6">
+        <v>250</v>
+      </c>
+      <c r="J1085" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1086" customHeight="1" spans="3:10">
+      <c r="C1086" s="6">
+        <v>9082</v>
+      </c>
+      <c r="D1086" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1086" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1086" s="6">
+        <f t="shared" si="30"/>
+        <v>820</v>
+      </c>
+      <c r="G1086" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1086" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1086" s="6">
+        <v>250</v>
+      </c>
+      <c r="J1086" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1087" customHeight="1" spans="3:10">
+      <c r="C1087" s="6">
+        <v>9083</v>
+      </c>
+      <c r="D1087" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1087" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1087" s="6">
+        <f t="shared" si="30"/>
+        <v>830</v>
+      </c>
+      <c r="G1087" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1087" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1087" s="6">
+        <v>250</v>
+      </c>
+      <c r="J1087" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1088" customHeight="1" spans="3:10">
+      <c r="C1088" s="6">
+        <v>9084</v>
+      </c>
+      <c r="D1088" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1088" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1088" s="6">
+        <f t="shared" si="30"/>
+        <v>840</v>
+      </c>
+      <c r="G1088" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1088" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1088" s="6">
+        <v>250</v>
+      </c>
+      <c r="J1088" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1089" customHeight="1" spans="3:10">
+      <c r="C1089" s="6">
+        <v>9085</v>
+      </c>
+      <c r="D1089" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1089" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1089" s="6">
+        <f t="shared" si="30"/>
+        <v>850</v>
+      </c>
+      <c r="G1089" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1089" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1089" s="6">
+        <v>260</v>
+      </c>
+      <c r="J1089" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1090" customHeight="1" spans="3:10">
+      <c r="C1090" s="6">
+        <v>9086</v>
+      </c>
+      <c r="D1090" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E1090" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1090" s="6">
+        <f t="shared" si="30"/>
+        <v>860</v>
+      </c>
+      <c r="G1090" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1090" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1090" s="6">
+        <v>260</v>
+      </c>
+      <c r="J1090" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1091" customHeight="1" spans="3:10">
+      <c r="C1091" s="6">
+        <v>9087</v>
+      </c>
+      <c r="D1091" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1091" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1091" s="6">
+        <f t="shared" si="30"/>
+        <v>870</v>
+      </c>
+      <c r="G1091" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1091" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1091" s="6">
+        <v>260</v>
+      </c>
+      <c r="J1091" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1092" customHeight="1" spans="3:10">
+      <c r="C1092" s="6">
+        <v>9088</v>
+      </c>
+      <c r="D1092" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E1092" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1092" s="6">
+        <f t="shared" si="30"/>
+        <v>880</v>
+      </c>
+      <c r="G1092" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1092" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1092" s="6">
+        <v>260</v>
+      </c>
+      <c r="J1092" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1093" customHeight="1" spans="3:10">
+      <c r="C1093" s="6">
+        <v>9089</v>
+      </c>
+      <c r="D1093" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E1093" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1093" s="6">
+        <f t="shared" si="30"/>
+        <v>890</v>
+      </c>
+      <c r="G1093" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1093" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1093" s="6">
+        <v>270</v>
+      </c>
+      <c r="J1093" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1094" customHeight="1" spans="3:10">
+      <c r="C1094" s="6">
+        <v>9090</v>
+      </c>
+      <c r="D1094" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E1094" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1094" s="6">
+        <f t="shared" si="30"/>
+        <v>900</v>
+      </c>
+      <c r="G1094" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1094" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1094" s="6">
+        <v>270</v>
+      </c>
+      <c r="J1094" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1095" customHeight="1" spans="3:10">
+      <c r="C1095" s="6">
+        <v>9091</v>
+      </c>
+      <c r="D1095" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E1095" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1095" s="6">
+        <f t="shared" si="30"/>
+        <v>910</v>
+      </c>
+      <c r="G1095" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1095" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1095" s="6">
+        <v>270</v>
+      </c>
+      <c r="J1095" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1096" customHeight="1" spans="3:10">
+      <c r="C1096" s="6">
+        <v>9092</v>
+      </c>
+      <c r="D1096" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1096" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1096" s="6">
+        <f t="shared" si="30"/>
+        <v>920</v>
+      </c>
+      <c r="G1096" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1096" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1096" s="6">
+        <v>270</v>
+      </c>
+      <c r="J1096" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1097" customHeight="1" spans="3:10">
+      <c r="C1097" s="6">
+        <v>9093</v>
+      </c>
+      <c r="D1097" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1097" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1097" s="6">
+        <f t="shared" si="30"/>
+        <v>930</v>
+      </c>
+      <c r="G1097" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1097" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1097" s="6">
+        <v>280</v>
+      </c>
+      <c r="J1097" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1098" customHeight="1" spans="3:10">
+      <c r="C1098" s="6">
+        <v>9094</v>
+      </c>
+      <c r="D1098" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1098" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1098" s="6">
+        <f t="shared" si="30"/>
+        <v>940</v>
+      </c>
+      <c r="G1098" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1098" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1098" s="6">
+        <v>280</v>
+      </c>
+      <c r="J1098" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1099" customHeight="1" spans="3:10">
+      <c r="C1099" s="6">
+        <v>9095</v>
+      </c>
+      <c r="D1099" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1099" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1099" s="6">
+        <f t="shared" si="30"/>
+        <v>950</v>
+      </c>
+      <c r="G1099" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1099" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1099" s="6">
+        <v>280</v>
+      </c>
+      <c r="J1099" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1100" customHeight="1" spans="3:10">
+      <c r="C1100" s="6">
+        <v>9096</v>
+      </c>
+      <c r="D1100" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1100" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1100" s="6">
+        <f t="shared" si="30"/>
+        <v>960</v>
+      </c>
+      <c r="G1100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1100" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1100" s="6">
+        <v>280</v>
+      </c>
+      <c r="J1100" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1101" customHeight="1" spans="3:10">
+      <c r="C1101" s="6">
+        <v>9097</v>
+      </c>
+      <c r="D1101" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1101" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1101" s="6">
+        <f t="shared" si="30"/>
+        <v>970</v>
+      </c>
+      <c r="G1101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1101" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1101" s="6">
+        <v>290</v>
+      </c>
+      <c r="J1101" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1102" customHeight="1" spans="3:10">
+      <c r="C1102" s="6">
+        <v>9098</v>
+      </c>
+      <c r="D1102" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1102" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1102" s="6">
+        <f t="shared" si="30"/>
+        <v>980</v>
+      </c>
+      <c r="G1102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1102" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1102" s="6">
+        <v>290</v>
+      </c>
+      <c r="J1102" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1103" customHeight="1" spans="3:10">
+      <c r="C1103" s="6">
+        <v>9099</v>
+      </c>
+      <c r="D1103" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1103" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1103" s="6">
+        <f t="shared" si="30"/>
+        <v>990</v>
+      </c>
+      <c r="G1103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1103" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1103" s="6">
+        <v>290</v>
+      </c>
+      <c r="J1103" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1104" customHeight="1" spans="3:10">
+      <c r="C1104" s="6">
+        <v>9100</v>
+      </c>
+      <c r="D1104" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1104" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1104" s="6">
+        <f t="shared" si="30"/>
+        <v>1000</v>
+      </c>
+      <c r="G1104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1104" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1104" s="6">
+        <v>290</v>
+      </c>
+      <c r="J1104" s="6" t="s">
         <v>1050</v>
       </c>
     </row>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1226">
   <si>
     <t>#</t>
   </si>
@@ -3440,6 +3440,33 @@
   </si>
   <si>
     <t>天下无敌2</t>
+  </si>
+  <si>
+    <t>初出茅庐3</t>
+  </si>
+  <si>
+    <t>小试牛刀3</t>
+  </si>
+  <si>
+    <t>初露锋芒3</t>
+  </si>
+  <si>
+    <t>武林新秀3</t>
+  </si>
+  <si>
+    <t>声名鹊起3</t>
+  </si>
+  <si>
+    <t>过关斩将3</t>
+  </si>
+  <si>
+    <t>独孤求败3</t>
+  </si>
+  <si>
+    <t>武林至尊3</t>
+  </si>
+  <si>
+    <t>天下无敌3</t>
   </si>
   <si>
     <t>攀登者1</t>
@@ -4742,10 +4769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K1174"/>
+  <dimension ref="A2:K1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1021" workbookViewId="0">
-      <selection activeCell="O1042" sqref="O1042"/>
+    <sheetView tabSelected="1" topLeftCell="A1057" workbookViewId="0">
+      <selection activeCell="K1085" sqref="K1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -35505,2703 +35532,2964 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="1075" customHeight="1" spans="3:10">
+    <row r="1072" customHeight="1" spans="3:11">
+      <c r="C1072" s="6">
+        <v>8025</v>
+      </c>
+      <c r="D1072" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E1072" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1072" s="6">
+        <v>220</v>
+      </c>
+      <c r="G1072" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1072" s="5">
+        <v>2004</v>
+      </c>
+      <c r="I1072" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1072" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1072" s="10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1073" customHeight="1" spans="3:11">
+      <c r="C1073" s="6">
+        <v>8026</v>
+      </c>
+      <c r="D1073" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E1073" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1073" s="6">
+        <v>230</v>
+      </c>
+      <c r="G1073" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1073" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I1073" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1073" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1073" s="10" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1074" customHeight="1" spans="3:11">
+      <c r="C1074" s="6">
+        <v>8027</v>
+      </c>
+      <c r="D1074" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E1074" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1074" s="6">
+        <v>240</v>
+      </c>
+      <c r="G1074" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1074" s="5">
+        <v>2006</v>
+      </c>
+      <c r="I1074" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1074" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1074" s="10" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1075" customHeight="1" spans="3:11">
       <c r="C1075" s="6">
+        <v>8028</v>
+      </c>
+      <c r="D1075" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E1075" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1075" s="6">
+        <v>250</v>
+      </c>
+      <c r="G1075" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1075" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I1075" s="6">
+        <v>60</v>
+      </c>
+      <c r="J1075" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1075" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1076" customHeight="1" spans="3:11">
+      <c r="C1076" s="6">
+        <v>8029</v>
+      </c>
+      <c r="D1076" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E1076" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1076" s="6">
+        <v>260</v>
+      </c>
+      <c r="G1076" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1076" s="6">
+        <v>2002</v>
+      </c>
+      <c r="I1076" s="6">
+        <v>40</v>
+      </c>
+      <c r="J1076" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1076" s="10" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1077" customHeight="1" spans="3:11">
+      <c r="C1077" s="6">
+        <v>8030</v>
+      </c>
+      <c r="D1077" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1077" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1077" s="6">
+        <v>270</v>
+      </c>
+      <c r="G1077" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1077" s="6">
+        <v>2001</v>
+      </c>
+      <c r="I1077" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1077" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1077" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1078" customHeight="1" spans="3:11">
+      <c r="C1078" s="6">
+        <v>8031</v>
+      </c>
+      <c r="D1078" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1078" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1078" s="6">
+        <v>280</v>
+      </c>
+      <c r="G1078" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1078" s="6">
+        <v>2011</v>
+      </c>
+      <c r="I1078" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1078" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1078" s="10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1079" customHeight="1" spans="3:11">
+      <c r="C1079" s="6">
+        <v>8032</v>
+      </c>
+      <c r="D1079" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1079" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1079" s="6">
+        <v>290</v>
+      </c>
+      <c r="G1079" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1079" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I1079" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1079" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1079" s="10" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1080" customHeight="1" spans="3:11">
+      <c r="C1080" s="6">
+        <v>8033</v>
+      </c>
+      <c r="D1080" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1080" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1080" s="6">
+        <v>300</v>
+      </c>
+      <c r="G1080" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1080" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I1080" s="5">
+        <v>60</v>
+      </c>
+      <c r="J1080" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1080" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1085" customHeight="1" spans="3:10">
+      <c r="C1085" s="6">
         <v>9001</v>
       </c>
-      <c r="D1075" s="6" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E1075" s="6">
+      <c r="D1085" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1085" s="6">
         <v>9</v>
       </c>
-      <c r="F1075" s="6">
+      <c r="F1085" s="6">
         <v>10</v>
       </c>
-      <c r="G1075" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1075" s="6">
+      <c r="G1085" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1085" s="6">
         <v>18</v>
       </c>
-      <c r="I1075" s="6">
+      <c r="I1085" s="6">
         <v>50</v>
       </c>
-      <c r="J1075" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1076" customHeight="1" spans="3:10">
-      <c r="C1076" s="6">
+      <c r="J1085" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1086" customHeight="1" spans="3:10">
+      <c r="C1086" s="6">
         <v>9002</v>
       </c>
-      <c r="D1076" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E1076" s="6">
+      <c r="D1086" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1086" s="6">
         <v>9</v>
       </c>
-      <c r="F1076" s="6">
-        <f t="shared" ref="F1076:F1139" si="30">F1075+10</f>
+      <c r="F1086" s="6">
+        <f t="shared" ref="F1086:F1149" si="30">F1085+10</f>
         <v>20</v>
       </c>
-      <c r="G1076" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1076" s="6">
+      <c r="G1086" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1086" s="6">
         <v>19</v>
       </c>
-      <c r="I1076" s="6">
+      <c r="I1086" s="6">
         <v>50</v>
       </c>
-      <c r="J1076" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1077" customHeight="1" spans="3:10">
-      <c r="C1077" s="6">
+      <c r="J1086" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1087" customHeight="1" spans="3:10">
+      <c r="C1087" s="6">
         <v>9003</v>
       </c>
-      <c r="D1077" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E1077" s="6">
+      <c r="D1087" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1087" s="6">
         <v>9</v>
       </c>
-      <c r="F1077" s="6">
+      <c r="F1087" s="6">
         <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="G1077" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1077" s="6">
+      <c r="G1087" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1087" s="6">
         <v>20</v>
       </c>
-      <c r="I1077" s="6">
+      <c r="I1087" s="6">
         <v>50</v>
       </c>
-      <c r="J1077" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1078" customHeight="1" spans="3:10">
-      <c r="C1078" s="6">
+      <c r="J1087" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1088" customHeight="1" spans="3:10">
+      <c r="C1088" s="6">
         <v>9004</v>
       </c>
-      <c r="D1078" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E1078" s="6">
+      <c r="D1088" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E1088" s="6">
         <v>9</v>
       </c>
-      <c r="F1078" s="6">
+      <c r="F1088" s="6">
         <f t="shared" si="30"/>
         <v>40</v>
       </c>
-      <c r="G1078" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1078" s="6">
+      <c r="G1088" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1088" s="6">
         <v>24</v>
       </c>
-      <c r="I1078" s="6">
+      <c r="I1088" s="6">
         <v>50</v>
       </c>
-      <c r="J1078" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1079" customHeight="1" spans="3:10">
-      <c r="C1079" s="6">
+      <c r="J1088" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1089" customHeight="1" spans="3:10">
+      <c r="C1089" s="6">
         <v>9005</v>
       </c>
-      <c r="D1079" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E1079" s="6">
+      <c r="D1089" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E1089" s="6">
         <v>9</v>
       </c>
-      <c r="F1079" s="6">
+      <c r="F1089" s="6">
         <f t="shared" si="30"/>
         <v>50</v>
       </c>
-      <c r="G1079" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1079" s="6">
+      <c r="G1089" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1089" s="6">
         <v>18</v>
       </c>
-      <c r="I1079" s="6">
+      <c r="I1089" s="6">
         <v>60</v>
       </c>
-      <c r="J1079" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1080" customHeight="1" spans="3:10">
-      <c r="C1080" s="6">
+      <c r="J1089" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1090" customHeight="1" spans="3:10">
+      <c r="C1090" s="6">
         <v>9006</v>
       </c>
-      <c r="D1080" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E1080" s="6">
+      <c r="D1090" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1090" s="6">
         <v>9</v>
       </c>
-      <c r="F1080" s="6">
+      <c r="F1090" s="6">
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="G1080" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1080" s="6">
+      <c r="G1090" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1090" s="6">
         <v>19</v>
       </c>
-      <c r="I1080" s="6">
+      <c r="I1090" s="6">
         <v>60</v>
       </c>
-      <c r="J1080" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1081" customHeight="1" spans="3:10">
-      <c r="C1081" s="6">
+      <c r="J1090" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1091" customHeight="1" spans="3:10">
+      <c r="C1091" s="6">
         <v>9007</v>
       </c>
-      <c r="D1081" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E1081" s="6">
+      <c r="D1091" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1091" s="6">
         <v>9</v>
       </c>
-      <c r="F1081" s="6">
+      <c r="F1091" s="6">
         <f t="shared" si="30"/>
         <v>70</v>
       </c>
-      <c r="G1081" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1081" s="6">
+      <c r="G1091" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1091" s="6">
         <v>20</v>
       </c>
-      <c r="I1081" s="6">
+      <c r="I1091" s="6">
         <v>60</v>
       </c>
-      <c r="J1081" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1082" customHeight="1" spans="3:10">
-      <c r="C1082" s="6">
+      <c r="J1091" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1092" customHeight="1" spans="3:10">
+      <c r="C1092" s="6">
         <v>9008</v>
       </c>
-      <c r="D1082" s="6" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E1082" s="6">
+      <c r="D1092" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1092" s="6">
         <v>9</v>
       </c>
-      <c r="F1082" s="6">
+      <c r="F1092" s="6">
         <f t="shared" si="30"/>
         <v>80</v>
       </c>
-      <c r="G1082" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1082" s="6">
+      <c r="G1092" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1092" s="6">
         <v>24</v>
       </c>
-      <c r="I1082" s="6">
+      <c r="I1092" s="6">
         <v>60</v>
       </c>
-      <c r="J1082" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1083" customHeight="1" spans="3:10">
-      <c r="C1083" s="6">
+      <c r="J1092" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1093" customHeight="1" spans="3:10">
+      <c r="C1093" s="6">
         <v>9009</v>
       </c>
-      <c r="D1083" s="6" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E1083" s="6">
+      <c r="D1093" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1093" s="6">
         <v>9</v>
       </c>
-      <c r="F1083" s="6">
+      <c r="F1093" s="6">
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="G1083" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1083" s="6">
+      <c r="G1093" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1093" s="6">
         <v>18</v>
       </c>
-      <c r="I1083" s="6">
+      <c r="I1093" s="6">
         <v>70</v>
       </c>
-      <c r="J1083" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1084" customHeight="1" spans="3:10">
-      <c r="C1084" s="6">
+      <c r="J1093" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1094" customHeight="1" spans="3:10">
+      <c r="C1094" s="6">
         <v>9010</v>
       </c>
-      <c r="D1084" s="6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E1084" s="6">
+      <c r="D1094" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E1094" s="6">
         <v>9</v>
       </c>
-      <c r="F1084" s="6">
+      <c r="F1094" s="6">
         <f t="shared" si="30"/>
         <v>100</v>
       </c>
-      <c r="G1084" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1084" s="6">
+      <c r="G1094" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1094" s="6">
         <v>19</v>
       </c>
-      <c r="I1084" s="6">
+      <c r="I1094" s="6">
         <v>70</v>
       </c>
-      <c r="J1084" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1085" customHeight="1" spans="3:10">
-      <c r="C1085" s="6">
+      <c r="J1094" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1095" customHeight="1" spans="3:10">
+      <c r="C1095" s="6">
         <v>9011</v>
       </c>
-      <c r="D1085" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E1085" s="6">
+      <c r="D1095" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1095" s="6">
         <v>9</v>
       </c>
-      <c r="F1085" s="6">
+      <c r="F1095" s="6">
         <f t="shared" si="30"/>
         <v>110</v>
       </c>
-      <c r="G1085" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1085" s="6">
+      <c r="G1095" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1095" s="6">
         <v>20</v>
       </c>
-      <c r="I1085" s="6">
+      <c r="I1095" s="6">
         <v>70</v>
       </c>
-      <c r="J1085" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1086" customHeight="1" spans="3:10">
-      <c r="C1086" s="6">
+      <c r="J1095" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1096" customHeight="1" spans="3:10">
+      <c r="C1096" s="6">
         <v>9012</v>
       </c>
-      <c r="D1086" s="6" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E1086" s="6">
+      <c r="D1096" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E1096" s="6">
         <v>9</v>
       </c>
-      <c r="F1086" s="6">
+      <c r="F1096" s="6">
         <f t="shared" si="30"/>
         <v>120</v>
       </c>
-      <c r="G1086" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1086" s="6">
+      <c r="G1096" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1096" s="6">
         <v>24</v>
       </c>
-      <c r="I1086" s="6">
+      <c r="I1096" s="6">
         <v>70</v>
       </c>
-      <c r="J1086" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1087" customHeight="1" spans="3:10">
-      <c r="C1087" s="6">
+      <c r="J1096" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1097" customHeight="1" spans="3:10">
+      <c r="C1097" s="6">
         <v>9013</v>
       </c>
-      <c r="D1087" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E1087" s="6">
+      <c r="D1097" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E1097" s="6">
         <v>9</v>
       </c>
-      <c r="F1087" s="6">
+      <c r="F1097" s="6">
         <f t="shared" si="30"/>
         <v>130</v>
       </c>
-      <c r="G1087" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1087" s="6">
+      <c r="G1097" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1097" s="6">
         <v>18</v>
       </c>
-      <c r="I1087" s="6">
+      <c r="I1097" s="6">
         <v>80</v>
       </c>
-      <c r="J1087" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1088" customHeight="1" spans="3:10">
-      <c r="C1088" s="6">
+      <c r="J1097" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1098" customHeight="1" spans="3:10">
+      <c r="C1098" s="6">
         <v>9014</v>
       </c>
-      <c r="D1088" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E1088" s="6">
+      <c r="D1098" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E1098" s="6">
         <v>9</v>
       </c>
-      <c r="F1088" s="6">
+      <c r="F1098" s="6">
         <f t="shared" si="30"/>
         <v>140</v>
       </c>
-      <c r="G1088" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1088" s="6">
+      <c r="G1098" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1098" s="6">
         <v>19</v>
       </c>
-      <c r="I1088" s="6">
+      <c r="I1098" s="6">
         <v>80</v>
       </c>
-      <c r="J1088" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1089" customHeight="1" spans="3:10">
-      <c r="C1089" s="6">
+      <c r="J1098" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1099" customHeight="1" spans="3:10">
+      <c r="C1099" s="6">
         <v>9015</v>
       </c>
-      <c r="D1089" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E1089" s="6">
+      <c r="D1099" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E1099" s="6">
         <v>9</v>
       </c>
-      <c r="F1089" s="6">
+      <c r="F1099" s="6">
         <f t="shared" si="30"/>
         <v>150</v>
       </c>
-      <c r="G1089" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1089" s="6">
+      <c r="G1099" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1099" s="6">
         <v>20</v>
       </c>
-      <c r="I1089" s="6">
+      <c r="I1099" s="6">
         <v>80</v>
       </c>
-      <c r="J1089" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1090" customHeight="1" spans="3:10">
-      <c r="C1090" s="6">
+      <c r="J1099" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1100" customHeight="1" spans="3:10">
+      <c r="C1100" s="6">
         <v>9016</v>
       </c>
-      <c r="D1090" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E1090" s="6">
+      <c r="D1100" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1100" s="6">
         <v>9</v>
       </c>
-      <c r="F1090" s="6">
+      <c r="F1100" s="6">
         <f t="shared" si="30"/>
         <v>160</v>
       </c>
-      <c r="G1090" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1090" s="6">
+      <c r="G1100" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1100" s="6">
         <v>24</v>
       </c>
-      <c r="I1090" s="6">
+      <c r="I1100" s="6">
         <v>80</v>
       </c>
-      <c r="J1090" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1091" customHeight="1" spans="3:10">
-      <c r="C1091" s="6">
+      <c r="J1100" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1101" customHeight="1" spans="3:10">
+      <c r="C1101" s="6">
         <v>9017</v>
       </c>
-      <c r="D1091" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E1091" s="6">
+      <c r="D1101" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1101" s="6">
         <v>9</v>
       </c>
-      <c r="F1091" s="6">
+      <c r="F1101" s="6">
         <f t="shared" si="30"/>
         <v>170</v>
       </c>
-      <c r="G1091" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1091" s="6">
+      <c r="G1101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1101" s="6">
         <v>18</v>
       </c>
-      <c r="I1091" s="6">
+      <c r="I1101" s="6">
         <v>90</v>
       </c>
-      <c r="J1091" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1092" customHeight="1" spans="3:10">
-      <c r="C1092" s="6">
+      <c r="J1101" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1102" customHeight="1" spans="3:10">
+      <c r="C1102" s="6">
         <v>9018</v>
       </c>
-      <c r="D1092" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E1092" s="6">
+      <c r="D1102" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1102" s="6">
         <v>9</v>
       </c>
-      <c r="F1092" s="6">
+      <c r="F1102" s="6">
         <f t="shared" si="30"/>
         <v>180</v>
       </c>
-      <c r="G1092" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1092" s="6">
+      <c r="G1102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1102" s="6">
         <v>19</v>
       </c>
-      <c r="I1092" s="6">
+      <c r="I1102" s="6">
         <v>90</v>
       </c>
-      <c r="J1092" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1093" customHeight="1" spans="3:10">
-      <c r="C1093" s="6">
+      <c r="J1102" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1103" customHeight="1" spans="3:10">
+      <c r="C1103" s="6">
         <v>9019</v>
       </c>
-      <c r="D1093" s="6" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E1093" s="6">
+      <c r="D1103" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1103" s="6">
         <v>9</v>
       </c>
-      <c r="F1093" s="6">
+      <c r="F1103" s="6">
         <f t="shared" si="30"/>
         <v>190</v>
       </c>
-      <c r="G1093" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1093" s="6">
+      <c r="G1103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1103" s="6">
         <v>20</v>
       </c>
-      <c r="I1093" s="6">
+      <c r="I1103" s="6">
         <v>90</v>
       </c>
-      <c r="J1093" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1094" customHeight="1" spans="3:10">
-      <c r="C1094" s="6">
+      <c r="J1103" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1104" customHeight="1" spans="3:10">
+      <c r="C1104" s="6">
         <v>9020</v>
       </c>
-      <c r="D1094" s="6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E1094" s="6">
+      <c r="D1104" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1104" s="6">
         <v>9</v>
       </c>
-      <c r="F1094" s="6">
+      <c r="F1104" s="6">
         <f t="shared" si="30"/>
         <v>200</v>
       </c>
-      <c r="G1094" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1094" s="6">
+      <c r="G1104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1104" s="6">
         <v>24</v>
       </c>
-      <c r="I1094" s="6">
+      <c r="I1104" s="6">
         <v>90</v>
       </c>
-      <c r="J1094" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1095" customHeight="1" spans="3:10">
-      <c r="C1095" s="6">
+      <c r="J1104" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1105" customHeight="1" spans="3:10">
+      <c r="C1105" s="6">
         <v>9021</v>
       </c>
-      <c r="D1095" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E1095" s="6">
+      <c r="D1105" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1105" s="6">
         <v>9</v>
       </c>
-      <c r="F1095" s="6">
+      <c r="F1105" s="6">
         <f t="shared" si="30"/>
         <v>210</v>
       </c>
-      <c r="G1095" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1095" s="6">
+      <c r="G1105" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1105" s="6">
         <v>18</v>
       </c>
-      <c r="I1095" s="6">
+      <c r="I1105" s="6">
         <v>100</v>
       </c>
-      <c r="J1095" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1096" customHeight="1" spans="3:10">
-      <c r="C1096" s="6">
+      <c r="J1105" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1106" customHeight="1" spans="3:10">
+      <c r="C1106" s="6">
         <v>9022</v>
       </c>
-      <c r="D1096" s="6" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E1096" s="6">
+      <c r="D1106" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1106" s="6">
         <v>9</v>
       </c>
-      <c r="F1096" s="6">
+      <c r="F1106" s="6">
         <f t="shared" si="30"/>
         <v>220</v>
       </c>
-      <c r="G1096" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1096" s="6">
+      <c r="G1106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1106" s="6">
         <v>19</v>
       </c>
-      <c r="I1096" s="6">
+      <c r="I1106" s="6">
         <v>100</v>
       </c>
-      <c r="J1096" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1097" customHeight="1" spans="3:10">
-      <c r="C1097" s="6">
+      <c r="J1106" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1107" customHeight="1" spans="3:10">
+      <c r="C1107" s="6">
         <v>9023</v>
       </c>
-      <c r="D1097" s="6" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E1097" s="6">
+      <c r="D1107" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1107" s="6">
         <v>9</v>
       </c>
-      <c r="F1097" s="6">
+      <c r="F1107" s="6">
         <f t="shared" si="30"/>
         <v>230</v>
       </c>
-      <c r="G1097" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1097" s="6">
+      <c r="G1107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1107" s="6">
         <v>20</v>
       </c>
-      <c r="I1097" s="6">
+      <c r="I1107" s="6">
         <v>100</v>
       </c>
-      <c r="J1097" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1098" customHeight="1" spans="3:10">
-      <c r="C1098" s="6">
+      <c r="J1107" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1108" customHeight="1" spans="3:10">
+      <c r="C1108" s="6">
         <v>9024</v>
       </c>
-      <c r="D1098" s="6" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E1098" s="6">
+      <c r="D1108" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1108" s="6">
         <v>9</v>
       </c>
-      <c r="F1098" s="6">
+      <c r="F1108" s="6">
         <f t="shared" si="30"/>
         <v>240</v>
       </c>
-      <c r="G1098" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1098" s="6">
+      <c r="G1108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1108" s="6">
         <v>24</v>
       </c>
-      <c r="I1098" s="6">
+      <c r="I1108" s="6">
         <v>100</v>
       </c>
-      <c r="J1098" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1099" customHeight="1" spans="3:10">
-      <c r="C1099" s="6">
+      <c r="J1108" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1109" customHeight="1" spans="3:10">
+      <c r="C1109" s="6">
         <v>9025</v>
       </c>
-      <c r="D1099" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E1099" s="6">
+      <c r="D1109" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E1109" s="6">
         <v>9</v>
       </c>
-      <c r="F1099" s="6">
+      <c r="F1109" s="6">
         <f t="shared" si="30"/>
         <v>250</v>
       </c>
-      <c r="G1099" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1099" s="6">
+      <c r="G1109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1109" s="6">
         <v>18</v>
       </c>
-      <c r="I1099" s="6">
+      <c r="I1109" s="6">
         <v>110</v>
       </c>
-      <c r="J1099" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1100" customHeight="1" spans="3:10">
-      <c r="C1100" s="6">
+      <c r="J1109" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1110" customHeight="1" spans="3:10">
+      <c r="C1110" s="6">
         <v>9026</v>
       </c>
-      <c r="D1100" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E1100" s="6">
+      <c r="D1110" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1110" s="6">
         <v>9</v>
       </c>
-      <c r="F1100" s="6">
+      <c r="F1110" s="6">
         <f t="shared" si="30"/>
         <v>260</v>
       </c>
-      <c r="G1100" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1100" s="6">
+      <c r="G1110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1110" s="6">
         <v>19</v>
       </c>
-      <c r="I1100" s="6">
+      <c r="I1110" s="6">
         <v>110</v>
       </c>
-      <c r="J1100" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1101" customHeight="1" spans="3:10">
-      <c r="C1101" s="6">
+      <c r="J1110" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1111" customHeight="1" spans="3:10">
+      <c r="C1111" s="6">
         <v>9027</v>
       </c>
-      <c r="D1101" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E1101" s="6">
+      <c r="D1111" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1111" s="6">
         <v>9</v>
       </c>
-      <c r="F1101" s="6">
+      <c r="F1111" s="6">
         <f t="shared" si="30"/>
         <v>270</v>
       </c>
-      <c r="G1101" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1101" s="6">
+      <c r="G1111" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1111" s="6">
         <v>20</v>
       </c>
-      <c r="I1101" s="6">
+      <c r="I1111" s="6">
         <v>110</v>
       </c>
-      <c r="J1101" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1102" customHeight="1" spans="3:10">
-      <c r="C1102" s="6">
+      <c r="J1111" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1112" customHeight="1" spans="3:10">
+      <c r="C1112" s="6">
         <v>9028</v>
       </c>
-      <c r="D1102" s="6" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E1102" s="6">
+      <c r="D1112" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E1112" s="6">
         <v>9</v>
       </c>
-      <c r="F1102" s="6">
+      <c r="F1112" s="6">
         <f t="shared" si="30"/>
         <v>280</v>
       </c>
-      <c r="G1102" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1102" s="6">
+      <c r="G1112" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1112" s="6">
         <v>24</v>
       </c>
-      <c r="I1102" s="6">
+      <c r="I1112" s="6">
         <v>110</v>
       </c>
-      <c r="J1102" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1103" customHeight="1" spans="3:10">
-      <c r="C1103" s="6">
+      <c r="J1112" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1113" customHeight="1" spans="3:10">
+      <c r="C1113" s="6">
         <v>9029</v>
       </c>
-      <c r="D1103" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E1103" s="6">
+      <c r="D1113" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1113" s="6">
         <v>9</v>
       </c>
-      <c r="F1103" s="6">
+      <c r="F1113" s="6">
         <f t="shared" si="30"/>
         <v>290</v>
       </c>
-      <c r="G1103" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1103" s="6">
+      <c r="G1113" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1113" s="6">
         <v>18</v>
       </c>
-      <c r="I1103" s="6">
+      <c r="I1113" s="6">
         <v>120</v>
       </c>
-      <c r="J1103" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1104" customHeight="1" spans="3:10">
-      <c r="C1104" s="6">
+      <c r="J1113" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1114" customHeight="1" spans="3:10">
+      <c r="C1114" s="6">
         <v>9030</v>
       </c>
-      <c r="D1104" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E1104" s="6">
+      <c r="D1114" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E1114" s="6">
         <v>9</v>
       </c>
-      <c r="F1104" s="6">
+      <c r="F1114" s="6">
         <f t="shared" si="30"/>
         <v>300</v>
       </c>
-      <c r="G1104" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1104" s="6">
+      <c r="G1114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1114" s="6">
         <v>19</v>
       </c>
-      <c r="I1104" s="6">
+      <c r="I1114" s="6">
         <v>120</v>
       </c>
-      <c r="J1104" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1105" customHeight="1" spans="3:10">
-      <c r="C1105" s="6">
+      <c r="J1114" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1115" customHeight="1" spans="3:10">
+      <c r="C1115" s="6">
         <v>9031</v>
       </c>
-      <c r="D1105" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E1105" s="6">
+      <c r="D1115" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E1115" s="6">
         <v>9</v>
       </c>
-      <c r="F1105" s="6">
+      <c r="F1115" s="6">
         <f t="shared" si="30"/>
         <v>310</v>
       </c>
-      <c r="G1105" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1105" s="6">
+      <c r="G1115" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1115" s="6">
         <v>20</v>
       </c>
-      <c r="I1105" s="6">
+      <c r="I1115" s="6">
         <v>120</v>
       </c>
-      <c r="J1105" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1106" customHeight="1" spans="3:10">
-      <c r="C1106" s="6">
+      <c r="J1115" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1116" customHeight="1" spans="3:10">
+      <c r="C1116" s="6">
         <v>9032</v>
       </c>
-      <c r="D1106" s="6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E1106" s="6">
+      <c r="D1116" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1116" s="6">
         <v>9</v>
       </c>
-      <c r="F1106" s="6">
+      <c r="F1116" s="6">
         <f t="shared" si="30"/>
         <v>320</v>
       </c>
-      <c r="G1106" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1106" s="6">
+      <c r="G1116" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1116" s="6">
         <v>24</v>
       </c>
-      <c r="I1106" s="6">
+      <c r="I1116" s="6">
         <v>120</v>
       </c>
-      <c r="J1106" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1107" customHeight="1" spans="3:10">
-      <c r="C1107" s="6">
+      <c r="J1116" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1117" customHeight="1" spans="3:10">
+      <c r="C1117" s="6">
         <v>9033</v>
       </c>
-      <c r="D1107" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E1107" s="6">
+      <c r="D1117" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E1117" s="6">
         <v>9</v>
       </c>
-      <c r="F1107" s="6">
+      <c r="F1117" s="6">
         <f t="shared" si="30"/>
         <v>330</v>
       </c>
-      <c r="G1107" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1107" s="6">
+      <c r="G1117" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1117" s="6">
         <v>18</v>
       </c>
-      <c r="I1107" s="6">
+      <c r="I1117" s="6">
         <v>130</v>
       </c>
-      <c r="J1107" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1108" customHeight="1" spans="3:10">
-      <c r="C1108" s="6">
+      <c r="J1117" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1118" customHeight="1" spans="3:10">
+      <c r="C1118" s="6">
         <v>9034</v>
       </c>
-      <c r="D1108" s="6" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E1108" s="6">
+      <c r="D1118" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1118" s="6">
         <v>9</v>
       </c>
-      <c r="F1108" s="6">
+      <c r="F1118" s="6">
         <f t="shared" si="30"/>
         <v>340</v>
       </c>
-      <c r="G1108" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1108" s="6">
+      <c r="G1118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1118" s="6">
         <v>19</v>
       </c>
-      <c r="I1108" s="6">
+      <c r="I1118" s="6">
         <v>130</v>
       </c>
-      <c r="J1108" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1109" customHeight="1" spans="3:10">
-      <c r="C1109" s="6">
+      <c r="J1118" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1119" customHeight="1" spans="3:10">
+      <c r="C1119" s="6">
         <v>9035</v>
       </c>
-      <c r="D1109" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E1109" s="6">
+      <c r="D1119" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1119" s="6">
         <v>9</v>
       </c>
-      <c r="F1109" s="6">
+      <c r="F1119" s="6">
         <f t="shared" si="30"/>
         <v>350</v>
       </c>
-      <c r="G1109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1109" s="6">
+      <c r="G1119" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1119" s="6">
         <v>20</v>
       </c>
-      <c r="I1109" s="6">
+      <c r="I1119" s="6">
         <v>130</v>
       </c>
-      <c r="J1109" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1110" customHeight="1" spans="3:10">
-      <c r="C1110" s="6">
+      <c r="J1119" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1120" customHeight="1" spans="3:10">
+      <c r="C1120" s="6">
         <v>9036</v>
       </c>
-      <c r="D1110" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E1110" s="6">
+      <c r="D1120" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E1120" s="6">
         <v>9</v>
       </c>
-      <c r="F1110" s="6">
+      <c r="F1120" s="6">
         <f t="shared" si="30"/>
         <v>360</v>
       </c>
-      <c r="G1110" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1110" s="6">
+      <c r="G1120" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1120" s="6">
         <v>24</v>
       </c>
-      <c r="I1110" s="6">
+      <c r="I1120" s="6">
         <v>130</v>
       </c>
-      <c r="J1110" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1111" customHeight="1" spans="3:10">
-      <c r="C1111" s="6">
+      <c r="J1120" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1121" customHeight="1" spans="3:10">
+      <c r="C1121" s="6">
         <v>9037</v>
       </c>
-      <c r="D1111" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E1111" s="6">
+      <c r="D1121" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E1121" s="6">
         <v>9</v>
       </c>
-      <c r="F1111" s="6">
+      <c r="F1121" s="6">
         <f t="shared" si="30"/>
         <v>370</v>
       </c>
-      <c r="G1111" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1111" s="6">
+      <c r="G1121" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1121" s="6">
         <v>18</v>
       </c>
-      <c r="I1111" s="6">
+      <c r="I1121" s="6">
         <v>140</v>
       </c>
-      <c r="J1111" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1112" customHeight="1" spans="3:10">
-      <c r="C1112" s="6">
+      <c r="J1121" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1122" customHeight="1" spans="3:10">
+      <c r="C1122" s="6">
         <v>9038</v>
       </c>
-      <c r="D1112" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E1112" s="6">
+      <c r="D1122" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E1122" s="6">
         <v>9</v>
       </c>
-      <c r="F1112" s="6">
+      <c r="F1122" s="6">
         <f t="shared" si="30"/>
         <v>380</v>
       </c>
-      <c r="G1112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1112" s="6">
+      <c r="G1122" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1122" s="6">
         <v>19</v>
       </c>
-      <c r="I1112" s="6">
+      <c r="I1122" s="6">
         <v>140</v>
       </c>
-      <c r="J1112" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1113" customHeight="1" spans="3:10">
-      <c r="C1113" s="6">
+      <c r="J1122" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1123" customHeight="1" spans="3:10">
+      <c r="C1123" s="6">
         <v>9039</v>
       </c>
-      <c r="D1113" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E1113" s="6">
+      <c r="D1123" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E1123" s="6">
         <v>9</v>
       </c>
-      <c r="F1113" s="6">
+      <c r="F1123" s="6">
         <f t="shared" si="30"/>
         <v>390</v>
       </c>
-      <c r="G1113" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1113" s="6">
+      <c r="G1123" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1123" s="6">
         <v>20</v>
       </c>
-      <c r="I1113" s="6">
+      <c r="I1123" s="6">
         <v>140</v>
       </c>
-      <c r="J1113" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1114" customHeight="1" spans="3:10">
-      <c r="C1114" s="6">
+      <c r="J1123" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1124" customHeight="1" spans="3:10">
+      <c r="C1124" s="6">
         <v>9040</v>
       </c>
-      <c r="D1114" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E1114" s="6">
+      <c r="D1124" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1124" s="6">
         <v>9</v>
       </c>
-      <c r="F1114" s="6">
+      <c r="F1124" s="6">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
-      <c r="G1114" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1114" s="6">
+      <c r="G1124" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1124" s="6">
         <v>24</v>
       </c>
-      <c r="I1114" s="6">
+      <c r="I1124" s="6">
         <v>140</v>
       </c>
-      <c r="J1114" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1115" customHeight="1" spans="3:10">
-      <c r="C1115" s="6">
+      <c r="J1124" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1125" customHeight="1" spans="3:10">
+      <c r="C1125" s="6">
         <v>9041</v>
       </c>
-      <c r="D1115" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E1115" s="6">
+      <c r="D1125" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E1125" s="6">
         <v>9</v>
       </c>
-      <c r="F1115" s="6">
+      <c r="F1125" s="6">
         <f t="shared" si="30"/>
         <v>410</v>
       </c>
-      <c r="G1115" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1115" s="6">
+      <c r="G1125" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1125" s="6">
         <v>18</v>
       </c>
-      <c r="I1115" s="6">
+      <c r="I1125" s="6">
         <v>150</v>
       </c>
-      <c r="J1115" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1116" customHeight="1" spans="3:10">
-      <c r="C1116" s="6">
+      <c r="J1125" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1126" customHeight="1" spans="3:10">
+      <c r="C1126" s="6">
         <v>9042</v>
       </c>
-      <c r="D1116" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E1116" s="6">
+      <c r="D1126" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1126" s="6">
         <v>9</v>
       </c>
-      <c r="F1116" s="6">
+      <c r="F1126" s="6">
         <f t="shared" si="30"/>
         <v>420</v>
       </c>
-      <c r="G1116" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1116" s="6">
+      <c r="G1126" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1126" s="6">
         <v>19</v>
       </c>
-      <c r="I1116" s="6">
+      <c r="I1126" s="6">
         <v>150</v>
       </c>
-      <c r="J1116" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1117" customHeight="1" spans="3:10">
-      <c r="C1117" s="6">
+      <c r="J1126" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1127" customHeight="1" spans="3:10">
+      <c r="C1127" s="6">
         <v>9043</v>
       </c>
-      <c r="D1117" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E1117" s="6">
+      <c r="D1127" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E1127" s="6">
         <v>9</v>
       </c>
-      <c r="F1117" s="6">
+      <c r="F1127" s="6">
         <f t="shared" si="30"/>
         <v>430</v>
       </c>
-      <c r="G1117" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1117" s="6">
+      <c r="G1127" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1127" s="6">
         <v>20</v>
       </c>
-      <c r="I1117" s="6">
+      <c r="I1127" s="6">
         <v>150</v>
       </c>
-      <c r="J1117" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1118" customHeight="1" spans="3:10">
-      <c r="C1118" s="6">
+      <c r="J1127" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" customHeight="1" spans="3:10">
+      <c r="C1128" s="6">
         <v>9044</v>
       </c>
-      <c r="D1118" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E1118" s="6">
+      <c r="D1128" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1128" s="6">
         <v>9</v>
       </c>
-      <c r="F1118" s="6">
+      <c r="F1128" s="6">
         <f t="shared" si="30"/>
         <v>440</v>
       </c>
-      <c r="G1118" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1118" s="6">
+      <c r="G1128" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1128" s="6">
         <v>24</v>
       </c>
-      <c r="I1118" s="6">
+      <c r="I1128" s="6">
         <v>150</v>
       </c>
-      <c r="J1118" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1119" customHeight="1" spans="3:10">
-      <c r="C1119" s="6">
+      <c r="J1128" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1129" customHeight="1" spans="3:10">
+      <c r="C1129" s="6">
         <v>9045</v>
       </c>
-      <c r="D1119" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E1119" s="6">
+      <c r="D1129" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1129" s="6">
         <v>9</v>
       </c>
-      <c r="F1119" s="6">
+      <c r="F1129" s="6">
         <f t="shared" si="30"/>
         <v>450</v>
       </c>
-      <c r="G1119" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1119" s="6">
+      <c r="G1129" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1129" s="6">
         <v>18</v>
       </c>
-      <c r="I1119" s="6">
+      <c r="I1129" s="6">
         <v>160</v>
       </c>
-      <c r="J1119" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1120" customHeight="1" spans="3:10">
-      <c r="C1120" s="6">
+      <c r="J1129" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1130" customHeight="1" spans="3:10">
+      <c r="C1130" s="6">
         <v>9046</v>
       </c>
-      <c r="D1120" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E1120" s="6">
+      <c r="D1130" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E1130" s="6">
         <v>9</v>
       </c>
-      <c r="F1120" s="6">
+      <c r="F1130" s="6">
         <f t="shared" si="30"/>
         <v>460</v>
       </c>
-      <c r="G1120" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1120" s="6">
+      <c r="G1130" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1130" s="6">
         <v>19</v>
       </c>
-      <c r="I1120" s="6">
+      <c r="I1130" s="6">
         <v>160</v>
       </c>
-      <c r="J1120" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1121" customHeight="1" spans="3:10">
-      <c r="C1121" s="6">
+      <c r="J1130" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1131" customHeight="1" spans="3:10">
+      <c r="C1131" s="6">
         <v>9047</v>
       </c>
-      <c r="D1121" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E1121" s="6">
+      <c r="D1131" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E1131" s="6">
         <v>9</v>
       </c>
-      <c r="F1121" s="6">
+      <c r="F1131" s="6">
         <f t="shared" si="30"/>
         <v>470</v>
       </c>
-      <c r="G1121" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1121" s="6">
+      <c r="G1131" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1131" s="6">
         <v>20</v>
       </c>
-      <c r="I1121" s="6">
+      <c r="I1131" s="6">
         <v>160</v>
       </c>
-      <c r="J1121" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1122" customHeight="1" spans="3:10">
-      <c r="C1122" s="6">
+      <c r="J1131" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1132" customHeight="1" spans="3:10">
+      <c r="C1132" s="6">
         <v>9048</v>
       </c>
-      <c r="D1122" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E1122" s="6">
+      <c r="D1132" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1132" s="6">
         <v>9</v>
       </c>
-      <c r="F1122" s="6">
+      <c r="F1132" s="6">
         <f t="shared" si="30"/>
         <v>480</v>
       </c>
-      <c r="G1122" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1122" s="6">
+      <c r="G1132" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1132" s="6">
         <v>24</v>
       </c>
-      <c r="I1122" s="6">
+      <c r="I1132" s="6">
         <v>160</v>
       </c>
-      <c r="J1122" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1123" customHeight="1" spans="3:10">
-      <c r="C1123" s="6">
+      <c r="J1132" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1133" customHeight="1" spans="3:10">
+      <c r="C1133" s="6">
         <v>9049</v>
       </c>
-      <c r="D1123" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1123" s="6">
+      <c r="D1133" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1133" s="6">
         <v>9</v>
       </c>
-      <c r="F1123" s="6">
+      <c r="F1133" s="6">
         <f t="shared" si="30"/>
         <v>490</v>
       </c>
-      <c r="G1123" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1123" s="6">
+      <c r="G1133" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1133" s="6">
         <v>18</v>
       </c>
-      <c r="I1123" s="6">
+      <c r="I1133" s="6">
         <v>170</v>
       </c>
-      <c r="J1123" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1124" customHeight="1" spans="3:10">
-      <c r="C1124" s="6">
+      <c r="J1133" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1134" customHeight="1" spans="3:10">
+      <c r="C1134" s="6">
         <v>9050</v>
       </c>
-      <c r="D1124" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E1124" s="6">
+      <c r="D1134" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E1134" s="6">
         <v>9</v>
       </c>
-      <c r="F1124" s="6">
+      <c r="F1134" s="6">
         <f t="shared" si="30"/>
         <v>500</v>
       </c>
-      <c r="G1124" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1124" s="6">
+      <c r="G1134" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1134" s="6">
         <v>19</v>
       </c>
-      <c r="I1124" s="6">
+      <c r="I1134" s="6">
         <v>170</v>
       </c>
-      <c r="J1124" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1125" customHeight="1" spans="3:10">
-      <c r="C1125" s="6">
+      <c r="J1134" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1135" customHeight="1" spans="3:10">
+      <c r="C1135" s="6">
         <v>9051</v>
       </c>
-      <c r="D1125" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E1125" s="6">
+      <c r="D1135" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1135" s="6">
         <v>9</v>
       </c>
-      <c r="F1125" s="6">
+      <c r="F1135" s="6">
         <f t="shared" si="30"/>
         <v>510</v>
       </c>
-      <c r="G1125" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1125" s="6">
+      <c r="G1135" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1135" s="6">
         <v>20</v>
       </c>
-      <c r="I1125" s="6">
+      <c r="I1135" s="6">
         <v>170</v>
       </c>
-      <c r="J1125" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1126" customHeight="1" spans="3:10">
-      <c r="C1126" s="6">
+      <c r="J1135" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1136" customHeight="1" spans="3:10">
+      <c r="C1136" s="6">
         <v>9052</v>
       </c>
-      <c r="D1126" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E1126" s="6">
+      <c r="D1136" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1136" s="6">
         <v>9</v>
       </c>
-      <c r="F1126" s="6">
+      <c r="F1136" s="6">
         <f t="shared" si="30"/>
         <v>520</v>
       </c>
-      <c r="G1126" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1126" s="6">
+      <c r="G1136" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1136" s="6">
         <v>24</v>
       </c>
-      <c r="I1126" s="6">
+      <c r="I1136" s="6">
         <v>170</v>
       </c>
-      <c r="J1126" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1127" customHeight="1" spans="3:10">
-      <c r="C1127" s="6">
+      <c r="J1136" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1137" customHeight="1" spans="3:10">
+      <c r="C1137" s="6">
         <v>9053</v>
       </c>
-      <c r="D1127" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E1127" s="6">
+      <c r="D1137" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1137" s="6">
         <v>9</v>
       </c>
-      <c r="F1127" s="6">
+      <c r="F1137" s="6">
         <f t="shared" si="30"/>
         <v>530</v>
       </c>
-      <c r="G1127" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1127" s="6">
+      <c r="G1137" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1137" s="6">
         <v>18</v>
       </c>
-      <c r="I1127" s="6">
+      <c r="I1137" s="6">
         <v>180</v>
       </c>
-      <c r="J1127" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1128" customHeight="1" spans="3:10">
-      <c r="C1128" s="6">
+      <c r="J1137" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1138" customHeight="1" spans="3:10">
+      <c r="C1138" s="6">
         <v>9054</v>
       </c>
-      <c r="D1128" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E1128" s="6">
+      <c r="D1138" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1138" s="6">
         <v>9</v>
       </c>
-      <c r="F1128" s="6">
+      <c r="F1138" s="6">
         <f t="shared" si="30"/>
         <v>540</v>
       </c>
-      <c r="G1128" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1128" s="6">
+      <c r="G1138" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1138" s="6">
         <v>19</v>
       </c>
-      <c r="I1128" s="6">
+      <c r="I1138" s="6">
         <v>180</v>
       </c>
-      <c r="J1128" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1129" customHeight="1" spans="3:10">
-      <c r="C1129" s="6">
+      <c r="J1138" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1139" customHeight="1" spans="3:10">
+      <c r="C1139" s="6">
         <v>9055</v>
       </c>
-      <c r="D1129" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E1129" s="6">
+      <c r="D1139" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1139" s="6">
         <v>9</v>
       </c>
-      <c r="F1129" s="6">
+      <c r="F1139" s="6">
         <f t="shared" si="30"/>
         <v>550</v>
       </c>
-      <c r="G1129" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1129" s="6">
+      <c r="G1139" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1139" s="6">
         <v>20</v>
       </c>
-      <c r="I1129" s="6">
+      <c r="I1139" s="6">
         <v>180</v>
       </c>
-      <c r="J1129" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1130" customHeight="1" spans="3:10">
-      <c r="C1130" s="6">
+      <c r="J1139" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1140" customHeight="1" spans="3:10">
+      <c r="C1140" s="6">
         <v>9056</v>
       </c>
-      <c r="D1130" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E1130" s="6">
+      <c r="D1140" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E1140" s="6">
         <v>9</v>
       </c>
-      <c r="F1130" s="6">
+      <c r="F1140" s="6">
         <f t="shared" si="30"/>
         <v>560</v>
       </c>
-      <c r="G1130" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1130" s="6">
+      <c r="G1140" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1140" s="6">
         <v>24</v>
       </c>
-      <c r="I1130" s="6">
+      <c r="I1140" s="6">
         <v>180</v>
       </c>
-      <c r="J1130" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1131" customHeight="1" spans="3:10">
-      <c r="C1131" s="6">
+      <c r="J1140" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1141" customHeight="1" spans="3:10">
+      <c r="C1141" s="6">
         <v>9057</v>
       </c>
-      <c r="D1131" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E1131" s="6">
+      <c r="D1141" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1141" s="6">
         <v>9</v>
       </c>
-      <c r="F1131" s="6">
+      <c r="F1141" s="6">
         <f t="shared" si="30"/>
         <v>570</v>
       </c>
-      <c r="G1131" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1131" s="6">
+      <c r="G1141" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1141" s="6">
         <v>18</v>
       </c>
-      <c r="I1131" s="6">
+      <c r="I1141" s="6">
         <v>190</v>
       </c>
-      <c r="J1131" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1132" customHeight="1" spans="3:10">
-      <c r="C1132" s="6">
+      <c r="J1141" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1142" customHeight="1" spans="3:10">
+      <c r="C1142" s="6">
         <v>9058</v>
       </c>
-      <c r="D1132" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E1132" s="6">
+      <c r="D1142" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1142" s="6">
         <v>9</v>
       </c>
-      <c r="F1132" s="6">
+      <c r="F1142" s="6">
         <f t="shared" si="30"/>
         <v>580</v>
       </c>
-      <c r="G1132" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1132" s="6">
+      <c r="G1142" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1142" s="6">
         <v>19</v>
       </c>
-      <c r="I1132" s="6">
+      <c r="I1142" s="6">
         <v>190</v>
       </c>
-      <c r="J1132" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1133" customHeight="1" spans="3:10">
-      <c r="C1133" s="6">
+      <c r="J1142" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1143" customHeight="1" spans="3:10">
+      <c r="C1143" s="6">
         <v>9059</v>
       </c>
-      <c r="D1133" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E1133" s="6">
+      <c r="D1143" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E1143" s="6">
         <v>9</v>
       </c>
-      <c r="F1133" s="6">
+      <c r="F1143" s="6">
         <f t="shared" si="30"/>
         <v>590</v>
       </c>
-      <c r="G1133" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1133" s="6">
+      <c r="G1143" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1143" s="6">
         <v>20</v>
       </c>
-      <c r="I1133" s="6">
+      <c r="I1143" s="6">
         <v>190</v>
       </c>
-      <c r="J1133" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1134" customHeight="1" spans="3:10">
-      <c r="C1134" s="6">
+      <c r="J1143" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1144" customHeight="1" spans="3:10">
+      <c r="C1144" s="6">
         <v>9060</v>
       </c>
-      <c r="D1134" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E1134" s="6">
+      <c r="D1144" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E1144" s="6">
         <v>9</v>
       </c>
-      <c r="F1134" s="6">
+      <c r="F1144" s="6">
         <f t="shared" si="30"/>
         <v>600</v>
       </c>
-      <c r="G1134" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1134" s="6">
+      <c r="G1144" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1144" s="6">
         <v>24</v>
       </c>
-      <c r="I1134" s="6">
+      <c r="I1144" s="6">
         <v>190</v>
       </c>
-      <c r="J1134" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1135" customHeight="1" spans="3:10">
-      <c r="C1135" s="6">
+      <c r="J1144" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1145" customHeight="1" spans="3:10">
+      <c r="C1145" s="6">
         <v>9061</v>
       </c>
-      <c r="D1135" s="6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E1135" s="6">
+      <c r="D1145" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E1145" s="6">
         <v>9</v>
       </c>
-      <c r="F1135" s="6">
+      <c r="F1145" s="6">
         <f t="shared" si="30"/>
         <v>610</v>
       </c>
-      <c r="G1135" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1135" s="6">
+      <c r="G1145" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1145" s="6">
         <v>18</v>
       </c>
-      <c r="I1135" s="6">
+      <c r="I1145" s="6">
         <v>200</v>
       </c>
-      <c r="J1135" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1136" customHeight="1" spans="3:10">
-      <c r="C1136" s="6">
+      <c r="J1145" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1146" customHeight="1" spans="3:10">
+      <c r="C1146" s="6">
         <v>9062</v>
       </c>
-      <c r="D1136" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E1136" s="6">
+      <c r="D1146" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1146" s="6">
         <v>9</v>
       </c>
-      <c r="F1136" s="6">
+      <c r="F1146" s="6">
         <f t="shared" si="30"/>
         <v>620</v>
       </c>
-      <c r="G1136" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1136" s="6">
+      <c r="G1146" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1146" s="6">
         <v>19</v>
       </c>
-      <c r="I1136" s="6">
+      <c r="I1146" s="6">
         <v>200</v>
       </c>
-      <c r="J1136" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1137" customHeight="1" spans="3:10">
-      <c r="C1137" s="6">
+      <c r="J1146" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1147" customHeight="1" spans="3:10">
+      <c r="C1147" s="6">
         <v>9063</v>
       </c>
-      <c r="D1137" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E1137" s="6">
+      <c r="D1147" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E1147" s="6">
         <v>9</v>
       </c>
-      <c r="F1137" s="6">
+      <c r="F1147" s="6">
         <f t="shared" si="30"/>
         <v>630</v>
       </c>
-      <c r="G1137" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1137" s="6">
+      <c r="G1147" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1147" s="6">
         <v>20</v>
       </c>
-      <c r="I1137" s="6">
+      <c r="I1147" s="6">
         <v>200</v>
       </c>
-      <c r="J1137" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1138" customHeight="1" spans="3:10">
-      <c r="C1138" s="6">
+      <c r="J1147" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1148" customHeight="1" spans="3:10">
+      <c r="C1148" s="6">
         <v>9064</v>
       </c>
-      <c r="D1138" s="6" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E1138" s="6">
+      <c r="D1148" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1148" s="6">
         <v>9</v>
       </c>
-      <c r="F1138" s="6">
+      <c r="F1148" s="6">
         <f t="shared" si="30"/>
         <v>640</v>
       </c>
-      <c r="G1138" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1138" s="6">
+      <c r="G1148" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1148" s="6">
         <v>24</v>
       </c>
-      <c r="I1138" s="6">
+      <c r="I1148" s="6">
         <v>200</v>
       </c>
-      <c r="J1138" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1139" customHeight="1" spans="3:10">
-      <c r="C1139" s="6">
+      <c r="J1148" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1149" customHeight="1" spans="3:10">
+      <c r="C1149" s="6">
         <v>9065</v>
       </c>
-      <c r="D1139" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E1139" s="6">
+      <c r="D1149" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E1149" s="6">
         <v>9</v>
       </c>
-      <c r="F1139" s="6">
+      <c r="F1149" s="6">
         <f t="shared" si="30"/>
         <v>650</v>
       </c>
-      <c r="G1139" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1139" s="6">
+      <c r="G1149" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1149" s="6">
         <v>18</v>
       </c>
-      <c r="I1139" s="6">
+      <c r="I1149" s="6">
         <v>210</v>
       </c>
-      <c r="J1139" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1140" customHeight="1" spans="3:10">
-      <c r="C1140" s="6">
+      <c r="J1149" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1150" customHeight="1" spans="3:10">
+      <c r="C1150" s="6">
         <v>9066</v>
       </c>
-      <c r="D1140" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E1140" s="6">
+      <c r="D1150" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1150" s="6">
         <v>9</v>
       </c>
-      <c r="F1140" s="6">
-        <f t="shared" ref="F1140:F1178" si="31">F1139+10</f>
+      <c r="F1150" s="6">
+        <f t="shared" ref="F1150:F1188" si="31">F1149+10</f>
         <v>660</v>
       </c>
-      <c r="G1140" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1140" s="6">
+      <c r="G1150" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1150" s="6">
         <v>19</v>
       </c>
-      <c r="I1140" s="6">
+      <c r="I1150" s="6">
         <v>210</v>
       </c>
-      <c r="J1140" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1141" customHeight="1" spans="3:10">
-      <c r="C1141" s="6">
+      <c r="J1150" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1151" customHeight="1" spans="3:10">
+      <c r="C1151" s="6">
         <v>9067</v>
       </c>
-      <c r="D1141" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E1141" s="6">
+      <c r="D1151" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E1151" s="6">
         <v>9</v>
       </c>
-      <c r="F1141" s="6">
+      <c r="F1151" s="6">
         <f t="shared" si="31"/>
         <v>670</v>
       </c>
-      <c r="G1141" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1141" s="6">
+      <c r="G1151" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1151" s="6">
         <v>20</v>
       </c>
-      <c r="I1141" s="6">
+      <c r="I1151" s="6">
         <v>210</v>
       </c>
-      <c r="J1141" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1142" customHeight="1" spans="3:10">
-      <c r="C1142" s="6">
+      <c r="J1151" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1152" customHeight="1" spans="3:10">
+      <c r="C1152" s="6">
         <v>9068</v>
       </c>
-      <c r="D1142" s="6" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E1142" s="6">
+      <c r="D1152" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1152" s="6">
         <v>9</v>
       </c>
-      <c r="F1142" s="6">
+      <c r="F1152" s="6">
         <f t="shared" si="31"/>
         <v>680</v>
       </c>
-      <c r="G1142" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1142" s="6">
+      <c r="G1152" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1152" s="6">
         <v>24</v>
       </c>
-      <c r="I1142" s="6">
+      <c r="I1152" s="6">
         <v>210</v>
       </c>
-      <c r="J1142" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1143" customHeight="1" spans="3:10">
-      <c r="C1143" s="6">
+      <c r="J1152" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1153" customHeight="1" spans="3:10">
+      <c r="C1153" s="6">
         <v>9069</v>
       </c>
-      <c r="D1143" s="6" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E1143" s="6">
+      <c r="D1153" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1153" s="6">
         <v>9</v>
       </c>
-      <c r="F1143" s="6">
+      <c r="F1153" s="6">
         <f t="shared" si="31"/>
         <v>690</v>
       </c>
-      <c r="G1143" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1143" s="6">
+      <c r="G1153" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1153" s="6">
         <v>18</v>
       </c>
-      <c r="I1143" s="6">
+      <c r="I1153" s="6">
         <v>220</v>
       </c>
-      <c r="J1143" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1144" customHeight="1" spans="3:10">
-      <c r="C1144" s="6">
+      <c r="J1153" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1154" customHeight="1" spans="3:10">
+      <c r="C1154" s="6">
         <v>9070</v>
       </c>
-      <c r="D1144" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E1144" s="6">
+      <c r="D1154" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1154" s="6">
         <v>9</v>
       </c>
-      <c r="F1144" s="6">
+      <c r="F1154" s="6">
         <f t="shared" si="31"/>
         <v>700</v>
       </c>
-      <c r="G1144" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1144" s="6">
+      <c r="G1154" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1154" s="6">
         <v>19</v>
       </c>
-      <c r="I1144" s="6">
+      <c r="I1154" s="6">
         <v>220</v>
       </c>
-      <c r="J1144" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1145" customHeight="1" spans="3:10">
-      <c r="C1145" s="6">
+      <c r="J1154" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1155" customHeight="1" spans="3:10">
+      <c r="C1155" s="6">
         <v>9071</v>
       </c>
-      <c r="D1145" s="6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E1145" s="6">
+      <c r="D1155" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E1155" s="6">
         <v>9</v>
       </c>
-      <c r="F1145" s="6">
+      <c r="F1155" s="6">
         <f t="shared" si="31"/>
         <v>710</v>
       </c>
-      <c r="G1145" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1145" s="6">
+      <c r="G1155" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1155" s="6">
         <v>20</v>
       </c>
-      <c r="I1145" s="6">
+      <c r="I1155" s="6">
         <v>220</v>
       </c>
-      <c r="J1145" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1146" customHeight="1" spans="3:10">
-      <c r="C1146" s="6">
+      <c r="J1155" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1156" customHeight="1" spans="3:10">
+      <c r="C1156" s="6">
         <v>9072</v>
       </c>
-      <c r="D1146" s="6" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E1146" s="6">
+      <c r="D1156" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1156" s="6">
         <v>9</v>
       </c>
-      <c r="F1146" s="6">
+      <c r="F1156" s="6">
         <f t="shared" si="31"/>
         <v>720</v>
       </c>
-      <c r="G1146" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1146" s="6">
+      <c r="G1156" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1156" s="6">
         <v>24</v>
       </c>
-      <c r="I1146" s="6">
+      <c r="I1156" s="6">
         <v>220</v>
       </c>
-      <c r="J1146" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1147" customHeight="1" spans="3:10">
-      <c r="C1147" s="6">
+      <c r="J1156" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1157" customHeight="1" spans="3:10">
+      <c r="C1157" s="6">
         <v>9073</v>
       </c>
-      <c r="D1147" s="6" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E1147" s="6">
+      <c r="D1157" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1157" s="6">
         <v>9</v>
       </c>
-      <c r="F1147" s="6">
+      <c r="F1157" s="6">
         <f t="shared" si="31"/>
         <v>730</v>
       </c>
-      <c r="G1147" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1147" s="6">
+      <c r="G1157" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1157" s="6">
         <v>18</v>
       </c>
-      <c r="I1147" s="6">
+      <c r="I1157" s="6">
         <v>230</v>
       </c>
-      <c r="J1147" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1148" customHeight="1" spans="3:10">
-      <c r="C1148" s="6">
+      <c r="J1157" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1158" customHeight="1" spans="3:10">
+      <c r="C1158" s="6">
         <v>9074</v>
       </c>
-      <c r="D1148" s="6" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E1148" s="6">
+      <c r="D1158" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1158" s="6">
         <v>9</v>
       </c>
-      <c r="F1148" s="6">
+      <c r="F1158" s="6">
         <f t="shared" si="31"/>
         <v>740</v>
       </c>
-      <c r="G1148" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1148" s="6">
+      <c r="G1158" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1158" s="6">
         <v>19</v>
       </c>
-      <c r="I1148" s="6">
+      <c r="I1158" s="6">
         <v>230</v>
       </c>
-      <c r="J1148" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1149" customHeight="1" spans="3:10">
-      <c r="C1149" s="6">
+      <c r="J1158" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1159" customHeight="1" spans="3:10">
+      <c r="C1159" s="6">
         <v>9075</v>
       </c>
-      <c r="D1149" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E1149" s="6">
+      <c r="D1159" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E1159" s="6">
         <v>9</v>
       </c>
-      <c r="F1149" s="6">
+      <c r="F1159" s="6">
         <f t="shared" si="31"/>
         <v>750</v>
       </c>
-      <c r="G1149" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1149" s="6">
+      <c r="G1159" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1159" s="6">
         <v>20</v>
       </c>
-      <c r="I1149" s="6">
+      <c r="I1159" s="6">
         <v>230</v>
       </c>
-      <c r="J1149" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1150" customHeight="1" spans="3:10">
-      <c r="C1150" s="6">
+      <c r="J1159" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1160" customHeight="1" spans="3:10">
+      <c r="C1160" s="6">
         <v>9076</v>
       </c>
-      <c r="D1150" s="6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E1150" s="6">
+      <c r="D1160" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E1160" s="6">
         <v>9</v>
       </c>
-      <c r="F1150" s="6">
+      <c r="F1160" s="6">
         <f t="shared" si="31"/>
         <v>760</v>
       </c>
-      <c r="G1150" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1150" s="6">
+      <c r="G1160" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1160" s="6">
         <v>24</v>
       </c>
-      <c r="I1150" s="6">
+      <c r="I1160" s="6">
         <v>230</v>
       </c>
-      <c r="J1150" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1151" customHeight="1" spans="3:10">
-      <c r="C1151" s="6">
+      <c r="J1160" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1161" customHeight="1" spans="3:10">
+      <c r="C1161" s="6">
         <v>9077</v>
       </c>
-      <c r="D1151" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1151" s="6">
+      <c r="D1161" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E1161" s="6">
         <v>9</v>
       </c>
-      <c r="F1151" s="6">
+      <c r="F1161" s="6">
         <f t="shared" si="31"/>
         <v>770</v>
       </c>
-      <c r="G1151" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1151" s="6">
+      <c r="G1161" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1161" s="6">
         <v>18</v>
       </c>
-      <c r="I1151" s="6">
+      <c r="I1161" s="6">
         <v>240</v>
       </c>
-      <c r="J1151" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1152" customHeight="1" spans="3:10">
-      <c r="C1152" s="6">
+      <c r="J1161" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1162" customHeight="1" spans="3:10">
+      <c r="C1162" s="6">
         <v>9078</v>
       </c>
-      <c r="D1152" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E1152" s="6">
+      <c r="D1162" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1162" s="6">
         <v>9</v>
       </c>
-      <c r="F1152" s="6">
+      <c r="F1162" s="6">
         <f t="shared" si="31"/>
         <v>780</v>
       </c>
-      <c r="G1152" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1152" s="6">
+      <c r="G1162" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="6">
         <v>19</v>
       </c>
-      <c r="I1152" s="6">
+      <c r="I1162" s="6">
         <v>240</v>
       </c>
-      <c r="J1152" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1153" customHeight="1" spans="3:10">
-      <c r="C1153" s="6">
+      <c r="J1162" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1163" customHeight="1" spans="3:10">
+      <c r="C1163" s="6">
         <v>9079</v>
       </c>
-      <c r="D1153" s="6" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E1153" s="6">
+      <c r="D1163" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1163" s="6">
         <v>9</v>
       </c>
-      <c r="F1153" s="6">
+      <c r="F1163" s="6">
         <f t="shared" si="31"/>
         <v>790</v>
       </c>
-      <c r="G1153" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1153" s="6">
+      <c r="G1163" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1163" s="6">
         <v>20</v>
       </c>
-      <c r="I1153" s="6">
+      <c r="I1163" s="6">
         <v>240</v>
       </c>
-      <c r="J1153" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1154" customHeight="1" spans="3:10">
-      <c r="C1154" s="6">
+      <c r="J1163" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1164" customHeight="1" spans="3:10">
+      <c r="C1164" s="6">
         <v>9080</v>
       </c>
-      <c r="D1154" s="6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E1154" s="6">
+      <c r="D1164" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E1164" s="6">
         <v>9</v>
       </c>
-      <c r="F1154" s="6">
+      <c r="F1164" s="6">
         <f t="shared" si="31"/>
         <v>800</v>
       </c>
-      <c r="G1154" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1154" s="6">
+      <c r="G1164" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1164" s="6">
         <v>24</v>
       </c>
-      <c r="I1154" s="6">
+      <c r="I1164" s="6">
         <v>240</v>
       </c>
-      <c r="J1154" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1155" customHeight="1" spans="3:10">
-      <c r="C1155" s="6">
+      <c r="J1164" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1165" customHeight="1" spans="3:10">
+      <c r="C1165" s="6">
         <v>9081</v>
       </c>
-      <c r="D1155" s="6" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E1155" s="6">
+      <c r="D1165" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1165" s="6">
         <v>9</v>
       </c>
-      <c r="F1155" s="6">
+      <c r="F1165" s="6">
         <f t="shared" si="31"/>
         <v>810</v>
       </c>
-      <c r="G1155" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1155" s="6">
+      <c r="G1165" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1165" s="6">
         <v>18</v>
       </c>
-      <c r="I1155" s="6">
+      <c r="I1165" s="6">
         <v>250</v>
       </c>
-      <c r="J1155" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1156" customHeight="1" spans="3:10">
-      <c r="C1156" s="6">
+      <c r="J1165" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1166" customHeight="1" spans="3:10">
+      <c r="C1166" s="6">
         <v>9082</v>
       </c>
-      <c r="D1156" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1156" s="6">
+      <c r="D1166" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1166" s="6">
         <v>9</v>
       </c>
-      <c r="F1156" s="6">
+      <c r="F1166" s="6">
         <f t="shared" si="31"/>
         <v>820</v>
       </c>
-      <c r="G1156" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1156" s="6">
+      <c r="G1166" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1166" s="6">
         <v>19</v>
       </c>
-      <c r="I1156" s="6">
+      <c r="I1166" s="6">
         <v>250</v>
       </c>
-      <c r="J1156" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1157" customHeight="1" spans="3:10">
-      <c r="C1157" s="6">
+      <c r="J1166" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1167" customHeight="1" spans="3:10">
+      <c r="C1167" s="6">
         <v>9083</v>
       </c>
-      <c r="D1157" s="6" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E1157" s="6">
+      <c r="D1167" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E1167" s="6">
         <v>9</v>
       </c>
-      <c r="F1157" s="6">
+      <c r="F1167" s="6">
         <f t="shared" si="31"/>
         <v>830</v>
       </c>
-      <c r="G1157" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1157" s="6">
+      <c r="G1167" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1167" s="6">
         <v>20</v>
       </c>
-      <c r="I1157" s="6">
+      <c r="I1167" s="6">
         <v>250</v>
       </c>
-      <c r="J1157" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1158" customHeight="1" spans="3:10">
-      <c r="C1158" s="6">
+      <c r="J1167" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1168" customHeight="1" spans="3:10">
+      <c r="C1168" s="6">
         <v>9084</v>
       </c>
-      <c r="D1158" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E1158" s="6">
+      <c r="D1168" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1168" s="6">
         <v>9</v>
       </c>
-      <c r="F1158" s="6">
+      <c r="F1168" s="6">
         <f t="shared" si="31"/>
         <v>840</v>
       </c>
-      <c r="G1158" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1158" s="6">
+      <c r="G1168" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1168" s="6">
         <v>24</v>
       </c>
-      <c r="I1158" s="6">
+      <c r="I1168" s="6">
         <v>250</v>
       </c>
-      <c r="J1158" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1159" customHeight="1" spans="3:10">
-      <c r="C1159" s="6">
+      <c r="J1168" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1169" customHeight="1" spans="3:10">
+      <c r="C1169" s="6">
         <v>9085</v>
       </c>
-      <c r="D1159" s="6" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E1159" s="6">
+      <c r="D1169" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E1169" s="6">
         <v>9</v>
       </c>
-      <c r="F1159" s="6">
+      <c r="F1169" s="6">
         <f t="shared" si="31"/>
         <v>850</v>
       </c>
-      <c r="G1159" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1159" s="6">
+      <c r="G1169" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1169" s="6">
         <v>18</v>
       </c>
-      <c r="I1159" s="6">
+      <c r="I1169" s="6">
         <v>260</v>
       </c>
-      <c r="J1159" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1160" customHeight="1" spans="3:10">
-      <c r="C1160" s="6">
+      <c r="J1169" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1170" customHeight="1" spans="3:10">
+      <c r="C1170" s="6">
         <v>9086</v>
       </c>
-      <c r="D1160" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E1160" s="6">
+      <c r="D1170" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1170" s="6">
         <v>9</v>
       </c>
-      <c r="F1160" s="6">
+      <c r="F1170" s="6">
         <f t="shared" si="31"/>
         <v>860</v>
       </c>
-      <c r="G1160" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1160" s="6">
+      <c r="G1170" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="6">
         <v>19</v>
       </c>
-      <c r="I1160" s="6">
+      <c r="I1170" s="6">
         <v>260</v>
       </c>
-      <c r="J1160" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1161" customHeight="1" spans="3:10">
-      <c r="C1161" s="6">
+      <c r="J1170" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1171" customHeight="1" spans="3:10">
+      <c r="C1171" s="6">
         <v>9087</v>
       </c>
-      <c r="D1161" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1161" s="6">
+      <c r="D1171" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1171" s="6">
         <v>9</v>
       </c>
-      <c r="F1161" s="6">
+      <c r="F1171" s="6">
         <f t="shared" si="31"/>
         <v>870</v>
       </c>
-      <c r="G1161" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1161" s="6">
+      <c r="G1171" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1171" s="6">
         <v>20</v>
       </c>
-      <c r="I1161" s="6">
+      <c r="I1171" s="6">
         <v>260</v>
       </c>
-      <c r="J1161" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1162" customHeight="1" spans="3:10">
-      <c r="C1162" s="6">
+      <c r="J1171" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1172" customHeight="1" spans="3:10">
+      <c r="C1172" s="6">
         <v>9088</v>
       </c>
-      <c r="D1162" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E1162" s="6">
+      <c r="D1172" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E1172" s="6">
         <v>9</v>
       </c>
-      <c r="F1162" s="6">
+      <c r="F1172" s="6">
         <f t="shared" si="31"/>
         <v>880</v>
       </c>
-      <c r="G1162" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1162" s="6">
+      <c r="G1172" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1172" s="6">
         <v>24</v>
       </c>
-      <c r="I1162" s="6">
+      <c r="I1172" s="6">
         <v>260</v>
       </c>
-      <c r="J1162" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1163" customHeight="1" spans="3:10">
-      <c r="C1163" s="6">
+      <c r="J1172" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1173" customHeight="1" spans="3:10">
+      <c r="C1173" s="6">
         <v>9089</v>
       </c>
-      <c r="D1163" s="6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E1163" s="6">
+      <c r="D1173" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1173" s="6">
         <v>9</v>
       </c>
-      <c r="F1163" s="6">
+      <c r="F1173" s="6">
         <f t="shared" si="31"/>
         <v>890</v>
       </c>
-      <c r="G1163" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1163" s="6">
+      <c r="G1173" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1173" s="6">
         <v>18</v>
       </c>
-      <c r="I1163" s="6">
+      <c r="I1173" s="6">
         <v>270</v>
       </c>
-      <c r="J1163" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1164" customHeight="1" spans="3:10">
-      <c r="C1164" s="6">
+      <c r="J1173" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1174" customHeight="1" spans="3:10">
+      <c r="C1174" s="6">
         <v>9090</v>
       </c>
-      <c r="D1164" s="6" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E1164" s="6">
+      <c r="D1174" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E1174" s="6">
         <v>9</v>
       </c>
-      <c r="F1164" s="6">
+      <c r="F1174" s="6">
         <f t="shared" si="31"/>
         <v>900</v>
       </c>
-      <c r="G1164" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1164" s="6">
+      <c r="G1174" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1174" s="6">
         <v>19</v>
       </c>
-      <c r="I1164" s="6">
+      <c r="I1174" s="6">
         <v>270</v>
       </c>
-      <c r="J1164" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1165" customHeight="1" spans="3:10">
-      <c r="C1165" s="6">
+      <c r="J1174" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1175" customHeight="1" spans="3:10">
+      <c r="C1175" s="6">
         <v>9091</v>
       </c>
-      <c r="D1165" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E1165" s="6">
+      <c r="D1175" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1175" s="6">
         <v>9</v>
       </c>
-      <c r="F1165" s="6">
+      <c r="F1175" s="6">
         <f t="shared" si="31"/>
         <v>910</v>
       </c>
-      <c r="G1165" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1165" s="6">
+      <c r="G1175" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1175" s="6">
         <v>20</v>
       </c>
-      <c r="I1165" s="6">
+      <c r="I1175" s="6">
         <v>270</v>
       </c>
-      <c r="J1165" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1166" customHeight="1" spans="3:10">
-      <c r="C1166" s="6">
+      <c r="J1175" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1176" customHeight="1" spans="3:10">
+      <c r="C1176" s="6">
         <v>9092</v>
       </c>
-      <c r="D1166" s="6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E1166" s="6">
+      <c r="D1176" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1176" s="6">
         <v>9</v>
       </c>
-      <c r="F1166" s="6">
+      <c r="F1176" s="6">
         <f t="shared" si="31"/>
         <v>920</v>
       </c>
-      <c r="G1166" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1166" s="6">
+      <c r="G1176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="6">
         <v>24</v>
       </c>
-      <c r="I1166" s="6">
+      <c r="I1176" s="6">
         <v>270</v>
       </c>
-      <c r="J1166" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1167" customHeight="1" spans="3:10">
-      <c r="C1167" s="6">
+      <c r="J1176" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1177" customHeight="1" spans="3:10">
+      <c r="C1177" s="6">
         <v>9093</v>
       </c>
-      <c r="D1167" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E1167" s="6">
+      <c r="D1177" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1177" s="6">
         <v>9</v>
       </c>
-      <c r="F1167" s="6">
+      <c r="F1177" s="6">
         <f t="shared" si="31"/>
         <v>930</v>
       </c>
-      <c r="G1167" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1167" s="6">
+      <c r="G1177" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1177" s="6">
         <v>18</v>
       </c>
-      <c r="I1167" s="6">
+      <c r="I1177" s="6">
         <v>280</v>
       </c>
-      <c r="J1167" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1168" customHeight="1" spans="3:10">
-      <c r="C1168" s="6">
+      <c r="J1177" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1178" customHeight="1" spans="3:10">
+      <c r="C1178" s="6">
         <v>9094</v>
       </c>
-      <c r="D1168" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E1168" s="6">
+      <c r="D1178" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1178" s="6">
         <v>9</v>
       </c>
-      <c r="F1168" s="6">
+      <c r="F1178" s="6">
         <f t="shared" si="31"/>
         <v>940</v>
       </c>
-      <c r="G1168" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1168" s="6">
+      <c r="G1178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1178" s="6">
         <v>19</v>
       </c>
-      <c r="I1168" s="6">
+      <c r="I1178" s="6">
         <v>280</v>
       </c>
-      <c r="J1168" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1169" customHeight="1" spans="3:10">
-      <c r="C1169" s="6">
+      <c r="J1178" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1179" customHeight="1" spans="3:10">
+      <c r="C1179" s="6">
         <v>9095</v>
       </c>
-      <c r="D1169" s="6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1169" s="6">
+      <c r="D1179" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1179" s="6">
         <v>9</v>
       </c>
-      <c r="F1169" s="6">
+      <c r="F1179" s="6">
         <f t="shared" si="31"/>
         <v>950</v>
       </c>
-      <c r="G1169" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1169" s="6">
+      <c r="G1179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1179" s="6">
         <v>20</v>
       </c>
-      <c r="I1169" s="6">
+      <c r="I1179" s="6">
         <v>280</v>
       </c>
-      <c r="J1169" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1170" customHeight="1" spans="3:10">
-      <c r="C1170" s="6">
+      <c r="J1179" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1180" customHeight="1" spans="3:10">
+      <c r="C1180" s="6">
         <v>9096</v>
       </c>
-      <c r="D1170" s="6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E1170" s="6">
+      <c r="D1180" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1180" s="6">
         <v>9</v>
       </c>
-      <c r="F1170" s="6">
+      <c r="F1180" s="6">
         <f t="shared" si="31"/>
         <v>960</v>
       </c>
-      <c r="G1170" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1170" s="6">
+      <c r="G1180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1180" s="6">
         <v>24</v>
       </c>
-      <c r="I1170" s="6">
+      <c r="I1180" s="6">
         <v>280</v>
       </c>
-      <c r="J1170" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1171" customHeight="1" spans="3:10">
-      <c r="C1171" s="6">
+      <c r="J1180" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1181" customHeight="1" spans="3:10">
+      <c r="C1181" s="6">
         <v>9097</v>
       </c>
-      <c r="D1171" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E1171" s="6">
+      <c r="D1181" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1181" s="6">
         <v>9</v>
       </c>
-      <c r="F1171" s="6">
+      <c r="F1181" s="6">
         <f t="shared" si="31"/>
         <v>970</v>
       </c>
-      <c r="G1171" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1171" s="6">
+      <c r="G1181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1181" s="6">
         <v>18</v>
       </c>
-      <c r="I1171" s="6">
+      <c r="I1181" s="6">
         <v>290</v>
       </c>
-      <c r="J1171" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1172" customHeight="1" spans="3:10">
-      <c r="C1172" s="6">
+      <c r="J1181" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1182" customHeight="1" spans="3:10">
+      <c r="C1182" s="6">
         <v>9098</v>
       </c>
-      <c r="D1172" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E1172" s="6">
+      <c r="D1182" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1182" s="6">
         <v>9</v>
       </c>
-      <c r="F1172" s="6">
+      <c r="F1182" s="6">
         <f t="shared" si="31"/>
         <v>980</v>
       </c>
-      <c r="G1172" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1172" s="6">
+      <c r="G1182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1182" s="6">
         <v>19</v>
       </c>
-      <c r="I1172" s="6">
+      <c r="I1182" s="6">
         <v>290</v>
       </c>
-      <c r="J1172" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1173" customHeight="1" spans="3:10">
-      <c r="C1173" s="6">
+      <c r="J1182" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1183" customHeight="1" spans="3:10">
+      <c r="C1183" s="6">
         <v>9099</v>
       </c>
-      <c r="D1173" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1173" s="6">
+      <c r="D1183" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1183" s="6">
         <v>9</v>
       </c>
-      <c r="F1173" s="6">
+      <c r="F1183" s="6">
         <f t="shared" si="31"/>
         <v>990</v>
       </c>
-      <c r="G1173" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1173" s="6">
+      <c r="G1183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1183" s="6">
         <v>20</v>
       </c>
-      <c r="I1173" s="6">
+      <c r="I1183" s="6">
         <v>290</v>
       </c>
-      <c r="J1173" s="6" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1174" customHeight="1" spans="3:10">
-      <c r="C1174" s="6">
+      <c r="J1183" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1184" customHeight="1" spans="3:10">
+      <c r="C1184" s="6">
         <v>9100</v>
       </c>
-      <c r="D1174" s="6" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E1174" s="6">
+      <c r="D1184" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E1184" s="6">
         <v>9</v>
       </c>
-      <c r="F1174" s="6">
+      <c r="F1184" s="6">
         <f t="shared" si="31"/>
         <v>1000</v>
       </c>
-      <c r="G1174" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1174" s="6">
+      <c r="G1184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1184" s="6">
         <v>24</v>
       </c>
-      <c r="I1174" s="6">
+      <c r="I1184" s="6">
         <v>290</v>
       </c>
-      <c r="J1174" s="6" t="s">
-        <v>1117</v>
+      <c r="J1184" s="6" t="s">
+        <v>1126</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1244">
   <si>
     <t>#</t>
   </si>
@@ -3397,76 +3397,130 @@
     <t>初出茅庐2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦20层数</t>
+  </si>
+  <si>
     <t>小试牛刀2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦30层数</t>
+  </si>
+  <si>
     <t>法功倍率</t>
   </si>
   <si>
     <t>初露锋芒2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦40层数</t>
+  </si>
+  <si>
     <t>道术倍率</t>
   </si>
   <si>
     <t>武林新秀2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦50层数</t>
+  </si>
+  <si>
     <t>生命倍率</t>
   </si>
   <si>
     <t>声名鹊起2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦60层数</t>
+  </si>
+  <si>
     <t>防御倍率</t>
   </si>
   <si>
     <t>过关斩将2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦70层数</t>
+  </si>
+  <si>
     <t>攻击倍率</t>
   </si>
   <si>
     <t>独孤求败2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦80层数</t>
+  </si>
+  <si>
     <t>增伤倍率</t>
   </si>
   <si>
     <t>武林至尊2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦90层数</t>
+  </si>
+  <si>
     <t>减伤倍率</t>
   </si>
   <si>
     <t>天下无敌2</t>
   </si>
   <si>
+    <t>守卫龙城通过噩梦100层数</t>
+  </si>
+  <si>
     <t>初出茅庐3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱20层数</t>
+  </si>
+  <si>
     <t>小试牛刀3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱30层数</t>
+  </si>
+  <si>
     <t>初露锋芒3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱40层数</t>
+  </si>
+  <si>
     <t>武林新秀3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱50层数</t>
+  </si>
+  <si>
     <t>声名鹊起3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱60层数</t>
+  </si>
+  <si>
     <t>过关斩将3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱70层数</t>
+  </si>
+  <si>
     <t>独孤求败3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱80层数</t>
+  </si>
+  <si>
     <t>武林至尊3</t>
   </si>
   <si>
+    <t>守卫龙城通过地狱90层数</t>
+  </si>
+  <si>
     <t>天下无敌3</t>
+  </si>
+  <si>
+    <t>守卫龙城通过地狱100层数</t>
   </si>
   <si>
     <t>攀登者1</t>
@@ -4771,8 +4825,8 @@
   <sheetPr/>
   <dimension ref="A2:K1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1057" workbookViewId="0">
-      <selection activeCell="K1085" sqref="K1085"/>
+    <sheetView tabSelected="1" topLeftCell="A1046" workbookViewId="0">
+      <selection activeCell="P1058" sqref="P1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -35294,7 +35348,7 @@
         <v>10</v>
       </c>
       <c r="J1063" s="5" t="s">
-        <v>1066</v>
+        <v>1101</v>
       </c>
       <c r="K1063" s="10" t="s">
         <v>652</v>
@@ -35305,7 +35359,7 @@
         <v>8017</v>
       </c>
       <c r="D1064" s="8" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E1064" s="6">
         <v>8</v>
@@ -35323,10 +35377,10 @@
         <v>10</v>
       </c>
       <c r="J1064" s="5" t="s">
-        <v>1066</v>
+        <v>1103</v>
       </c>
       <c r="K1064" s="10" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1065" customHeight="1" spans="3:11">
@@ -35334,7 +35388,7 @@
         <v>8018</v>
       </c>
       <c r="D1065" s="8" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E1065" s="6">
         <v>8</v>
@@ -35352,10 +35406,10 @@
         <v>10</v>
       </c>
       <c r="J1065" s="5" t="s">
-        <v>1066</v>
+        <v>1106</v>
       </c>
       <c r="K1065" s="10" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1066" customHeight="1" spans="3:11">
@@ -35363,7 +35417,7 @@
         <v>8019</v>
       </c>
       <c r="D1066" s="9" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="E1066" s="6">
         <v>8</v>
@@ -35381,10 +35435,10 @@
         <v>30</v>
       </c>
       <c r="J1066" s="5" t="s">
-        <v>1066</v>
+        <v>1109</v>
       </c>
       <c r="K1066" s="10" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1067" customHeight="1" spans="3:11">
@@ -35392,7 +35446,7 @@
         <v>8020</v>
       </c>
       <c r="D1067" s="8" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="E1067" s="6">
         <v>8</v>
@@ -35410,10 +35464,10 @@
         <v>20</v>
       </c>
       <c r="J1067" s="5" t="s">
-        <v>1066</v>
+        <v>1112</v>
       </c>
       <c r="K1067" s="10" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1068" customHeight="1" spans="3:11">
@@ -35421,7 +35475,7 @@
         <v>8021</v>
       </c>
       <c r="D1068" s="8" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="E1068" s="6">
         <v>8</v>
@@ -35439,10 +35493,10 @@
         <v>10</v>
       </c>
       <c r="J1068" s="5" t="s">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="K1068" s="10" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1069" customHeight="1" spans="3:11">
@@ -35450,7 +35504,7 @@
         <v>8022</v>
       </c>
       <c r="D1069" s="8" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="E1069" s="6">
         <v>8</v>
@@ -35468,10 +35522,10 @@
         <v>10</v>
       </c>
       <c r="J1069" s="5" t="s">
-        <v>1066</v>
+        <v>1118</v>
       </c>
       <c r="K1069" s="10" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1070" customHeight="1" spans="3:11">
@@ -35479,7 +35533,7 @@
         <v>8023</v>
       </c>
       <c r="D1070" s="8" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="E1070" s="6">
         <v>8</v>
@@ -35497,10 +35551,10 @@
         <v>10</v>
       </c>
       <c r="J1070" s="5" t="s">
-        <v>1066</v>
+        <v>1121</v>
       </c>
       <c r="K1070" s="10" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1071" customHeight="1" spans="3:11">
@@ -35508,7 +35562,7 @@
         <v>8024</v>
       </c>
       <c r="D1071" s="8" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="E1071" s="6">
         <v>8</v>
@@ -35526,7 +35580,7 @@
         <v>1</v>
       </c>
       <c r="J1071" s="5" t="s">
-        <v>1066</v>
+        <v>1124</v>
       </c>
       <c r="K1071" s="3" t="s">
         <v>1099</v>
@@ -35537,13 +35591,13 @@
         <v>8025</v>
       </c>
       <c r="D1072" s="8" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="E1072" s="6">
         <v>8</v>
       </c>
       <c r="F1072" s="6">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="G1072" s="5">
         <v>1</v>
@@ -35555,7 +35609,7 @@
         <v>20</v>
       </c>
       <c r="J1072" s="5" t="s">
-        <v>1066</v>
+        <v>1126</v>
       </c>
       <c r="K1072" s="10" t="s">
         <v>652</v>
@@ -35566,13 +35620,13 @@
         <v>8026</v>
       </c>
       <c r="D1073" s="8" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="E1073" s="6">
         <v>8</v>
       </c>
       <c r="F1073" s="6">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="G1073" s="5">
         <v>1</v>
@@ -35584,10 +35638,10 @@
         <v>20</v>
       </c>
       <c r="J1073" s="5" t="s">
-        <v>1066</v>
+        <v>1128</v>
       </c>
       <c r="K1073" s="10" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1074" customHeight="1" spans="3:11">
@@ -35595,13 +35649,13 @@
         <v>8027</v>
       </c>
       <c r="D1074" s="8" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
       <c r="E1074" s="6">
         <v>8</v>
       </c>
       <c r="F1074" s="6">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="G1074" s="5">
         <v>1</v>
@@ -35613,10 +35667,10 @@
         <v>20</v>
       </c>
       <c r="J1074" s="5" t="s">
-        <v>1066</v>
+        <v>1130</v>
       </c>
       <c r="K1074" s="10" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1075" customHeight="1" spans="3:11">
@@ -35624,13 +35678,13 @@
         <v>8028</v>
       </c>
       <c r="D1075" s="9" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="E1075" s="6">
         <v>8</v>
       </c>
       <c r="F1075" s="6">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G1075" s="5">
         <v>1</v>
@@ -35642,10 +35696,10 @@
         <v>60</v>
       </c>
       <c r="J1075" s="5" t="s">
-        <v>1066</v>
+        <v>1132</v>
       </c>
       <c r="K1075" s="10" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1076" customHeight="1" spans="3:11">
@@ -35653,13 +35707,13 @@
         <v>8029</v>
       </c>
       <c r="D1076" s="8" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="E1076" s="6">
         <v>8</v>
       </c>
       <c r="F1076" s="6">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="G1076" s="5">
         <v>1</v>
@@ -35671,10 +35725,10 @@
         <v>40</v>
       </c>
       <c r="J1076" s="5" t="s">
-        <v>1066</v>
+        <v>1134</v>
       </c>
       <c r="K1076" s="10" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1077" customHeight="1" spans="3:11">
@@ -35682,13 +35736,13 @@
         <v>8030</v>
       </c>
       <c r="D1077" s="8" t="s">
-        <v>1121</v>
+        <v>1135</v>
       </c>
       <c r="E1077" s="6">
         <v>8</v>
       </c>
       <c r="F1077" s="6">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="G1077" s="5">
         <v>1</v>
@@ -35700,10 +35754,10 @@
         <v>20</v>
       </c>
       <c r="J1077" s="5" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="K1077" s="10" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1078" customHeight="1" spans="3:11">
@@ -35711,13 +35765,13 @@
         <v>8031</v>
       </c>
       <c r="D1078" s="8" t="s">
-        <v>1122</v>
+        <v>1137</v>
       </c>
       <c r="E1078" s="6">
         <v>8</v>
       </c>
       <c r="F1078" s="6">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="G1078" s="5">
         <v>1</v>
@@ -35729,10 +35783,10 @@
         <v>20</v>
       </c>
       <c r="J1078" s="5" t="s">
-        <v>1066</v>
+        <v>1138</v>
       </c>
       <c r="K1078" s="10" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1079" customHeight="1" spans="3:11">
@@ -35740,13 +35794,13 @@
         <v>8032</v>
       </c>
       <c r="D1079" s="8" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="E1079" s="6">
         <v>8</v>
       </c>
       <c r="F1079" s="6">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="G1079" s="5">
         <v>1</v>
@@ -35758,10 +35812,10 @@
         <v>20</v>
       </c>
       <c r="J1079" s="5" t="s">
-        <v>1066</v>
+        <v>1140</v>
       </c>
       <c r="K1079" s="10" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1080" customHeight="1" spans="3:11">
@@ -35769,13 +35823,13 @@
         <v>8033</v>
       </c>
       <c r="D1080" s="8" t="s">
-        <v>1124</v>
+        <v>1141</v>
       </c>
       <c r="E1080" s="6">
         <v>8</v>
       </c>
       <c r="F1080" s="6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G1080" s="5">
         <v>1</v>
@@ -35787,10 +35841,10 @@
         <v>60</v>
       </c>
       <c r="J1080" s="5" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
       <c r="K1080" s="10" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1085" customHeight="1" spans="3:10">
@@ -35798,7 +35852,7 @@
         <v>9001</v>
       </c>
       <c r="D1085" s="6" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="E1085" s="6">
         <v>9</v>
@@ -35816,7 +35870,7 @@
         <v>50</v>
       </c>
       <c r="J1085" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1086" customHeight="1" spans="3:10">
@@ -35824,7 +35878,7 @@
         <v>9002</v>
       </c>
       <c r="D1086" s="6" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="E1086" s="6">
         <v>9</v>
@@ -35843,7 +35897,7 @@
         <v>50</v>
       </c>
       <c r="J1086" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1087" customHeight="1" spans="3:10">
@@ -35851,7 +35905,7 @@
         <v>9003</v>
       </c>
       <c r="D1087" s="6" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="E1087" s="6">
         <v>9</v>
@@ -35870,7 +35924,7 @@
         <v>50</v>
       </c>
       <c r="J1087" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1088" customHeight="1" spans="3:10">
@@ -35878,7 +35932,7 @@
         <v>9004</v>
       </c>
       <c r="D1088" s="6" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
       <c r="E1088" s="6">
         <v>9</v>
@@ -35897,7 +35951,7 @@
         <v>50</v>
       </c>
       <c r="J1088" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1089" customHeight="1" spans="3:10">
@@ -35905,7 +35959,7 @@
         <v>9005</v>
       </c>
       <c r="D1089" s="6" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="E1089" s="6">
         <v>9</v>
@@ -35924,7 +35978,7 @@
         <v>60</v>
       </c>
       <c r="J1089" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1090" customHeight="1" spans="3:10">
@@ -35932,7 +35986,7 @@
         <v>9006</v>
       </c>
       <c r="D1090" s="6" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="E1090" s="6">
         <v>9</v>
@@ -35951,7 +36005,7 @@
         <v>60</v>
       </c>
       <c r="J1090" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1091" customHeight="1" spans="3:10">
@@ -35959,7 +36013,7 @@
         <v>9007</v>
       </c>
       <c r="D1091" s="6" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="E1091" s="6">
         <v>9</v>
@@ -35978,7 +36032,7 @@
         <v>60</v>
       </c>
       <c r="J1091" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1092" customHeight="1" spans="3:10">
@@ -35986,7 +36040,7 @@
         <v>9008</v>
       </c>
       <c r="D1092" s="6" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="E1092" s="6">
         <v>9</v>
@@ -36005,7 +36059,7 @@
         <v>60</v>
       </c>
       <c r="J1092" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1093" customHeight="1" spans="3:10">
@@ -36013,7 +36067,7 @@
         <v>9009</v>
       </c>
       <c r="D1093" s="6" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="E1093" s="6">
         <v>9</v>
@@ -36032,7 +36086,7 @@
         <v>70</v>
       </c>
       <c r="J1093" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1094" customHeight="1" spans="3:10">
@@ -36040,7 +36094,7 @@
         <v>9010</v>
       </c>
       <c r="D1094" s="6" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="E1094" s="6">
         <v>9</v>
@@ -36059,7 +36113,7 @@
         <v>70</v>
       </c>
       <c r="J1094" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1095" customHeight="1" spans="3:10">
@@ -36067,7 +36121,7 @@
         <v>9011</v>
       </c>
       <c r="D1095" s="6" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="E1095" s="6">
         <v>9</v>
@@ -36086,7 +36140,7 @@
         <v>70</v>
       </c>
       <c r="J1095" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1096" customHeight="1" spans="3:10">
@@ -36094,7 +36148,7 @@
         <v>9012</v>
       </c>
       <c r="D1096" s="6" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="E1096" s="6">
         <v>9</v>
@@ -36113,7 +36167,7 @@
         <v>70</v>
       </c>
       <c r="J1096" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1097" customHeight="1" spans="3:10">
@@ -36121,7 +36175,7 @@
         <v>9013</v>
       </c>
       <c r="D1097" s="6" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="E1097" s="6">
         <v>9</v>
@@ -36140,7 +36194,7 @@
         <v>80</v>
       </c>
       <c r="J1097" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1098" customHeight="1" spans="3:10">
@@ -36148,7 +36202,7 @@
         <v>9014</v>
       </c>
       <c r="D1098" s="6" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="E1098" s="6">
         <v>9</v>
@@ -36167,7 +36221,7 @@
         <v>80</v>
       </c>
       <c r="J1098" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1099" customHeight="1" spans="3:10">
@@ -36175,7 +36229,7 @@
         <v>9015</v>
       </c>
       <c r="D1099" s="6" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="E1099" s="6">
         <v>9</v>
@@ -36194,7 +36248,7 @@
         <v>80</v>
       </c>
       <c r="J1099" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1100" customHeight="1" spans="3:10">
@@ -36202,7 +36256,7 @@
         <v>9016</v>
       </c>
       <c r="D1100" s="6" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="E1100" s="6">
         <v>9</v>
@@ -36221,7 +36275,7 @@
         <v>80</v>
       </c>
       <c r="J1100" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1101" customHeight="1" spans="3:10">
@@ -36229,7 +36283,7 @@
         <v>9017</v>
       </c>
       <c r="D1101" s="6" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="E1101" s="6">
         <v>9</v>
@@ -36248,7 +36302,7 @@
         <v>90</v>
       </c>
       <c r="J1101" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1102" customHeight="1" spans="3:10">
@@ -36256,7 +36310,7 @@
         <v>9018</v>
       </c>
       <c r="D1102" s="6" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
       <c r="E1102" s="6">
         <v>9</v>
@@ -36275,7 +36329,7 @@
         <v>90</v>
       </c>
       <c r="J1102" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1103" customHeight="1" spans="3:10">
@@ -36283,7 +36337,7 @@
         <v>9019</v>
       </c>
       <c r="D1103" s="6" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="E1103" s="6">
         <v>9</v>
@@ -36302,7 +36356,7 @@
         <v>90</v>
       </c>
       <c r="J1103" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1104" customHeight="1" spans="3:10">
@@ -36310,7 +36364,7 @@
         <v>9020</v>
       </c>
       <c r="D1104" s="6" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="E1104" s="6">
         <v>9</v>
@@ -36329,7 +36383,7 @@
         <v>90</v>
       </c>
       <c r="J1104" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1105" customHeight="1" spans="3:10">
@@ -36337,7 +36391,7 @@
         <v>9021</v>
       </c>
       <c r="D1105" s="6" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="E1105" s="6">
         <v>9</v>
@@ -36356,7 +36410,7 @@
         <v>100</v>
       </c>
       <c r="J1105" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1106" customHeight="1" spans="3:10">
@@ -36364,7 +36418,7 @@
         <v>9022</v>
       </c>
       <c r="D1106" s="6" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="E1106" s="6">
         <v>9</v>
@@ -36383,7 +36437,7 @@
         <v>100</v>
       </c>
       <c r="J1106" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1107" customHeight="1" spans="3:10">
@@ -36391,7 +36445,7 @@
         <v>9023</v>
       </c>
       <c r="D1107" s="6" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="E1107" s="6">
         <v>9</v>
@@ -36410,7 +36464,7 @@
         <v>100</v>
       </c>
       <c r="J1107" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1108" customHeight="1" spans="3:10">
@@ -36418,7 +36472,7 @@
         <v>9024</v>
       </c>
       <c r="D1108" s="6" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="E1108" s="6">
         <v>9</v>
@@ -36437,7 +36491,7 @@
         <v>100</v>
       </c>
       <c r="J1108" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1109" customHeight="1" spans="3:10">
@@ -36445,7 +36499,7 @@
         <v>9025</v>
       </c>
       <c r="D1109" s="6" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="E1109" s="6">
         <v>9</v>
@@ -36464,7 +36518,7 @@
         <v>110</v>
       </c>
       <c r="J1109" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1110" customHeight="1" spans="3:10">
@@ -36472,7 +36526,7 @@
         <v>9026</v>
       </c>
       <c r="D1110" s="6" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="E1110" s="6">
         <v>9</v>
@@ -36491,7 +36545,7 @@
         <v>110</v>
       </c>
       <c r="J1110" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1111" customHeight="1" spans="3:10">
@@ -36499,7 +36553,7 @@
         <v>9027</v>
       </c>
       <c r="D1111" s="6" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="E1111" s="6">
         <v>9</v>
@@ -36518,7 +36572,7 @@
         <v>110</v>
       </c>
       <c r="J1111" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1112" customHeight="1" spans="3:10">
@@ -36526,7 +36580,7 @@
         <v>9028</v>
       </c>
       <c r="D1112" s="6" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="E1112" s="6">
         <v>9</v>
@@ -36545,7 +36599,7 @@
         <v>110</v>
       </c>
       <c r="J1112" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1113" customHeight="1" spans="3:10">
@@ -36553,7 +36607,7 @@
         <v>9029</v>
       </c>
       <c r="D1113" s="6" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="E1113" s="6">
         <v>9</v>
@@ -36572,7 +36626,7 @@
         <v>120</v>
       </c>
       <c r="J1113" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1114" customHeight="1" spans="3:10">
@@ -36580,7 +36634,7 @@
         <v>9030</v>
       </c>
       <c r="D1114" s="6" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="E1114" s="6">
         <v>9</v>
@@ -36599,7 +36653,7 @@
         <v>120</v>
       </c>
       <c r="J1114" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1115" customHeight="1" spans="3:10">
@@ -36607,7 +36661,7 @@
         <v>9031</v>
       </c>
       <c r="D1115" s="6" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="E1115" s="6">
         <v>9</v>
@@ -36626,7 +36680,7 @@
         <v>120</v>
       </c>
       <c r="J1115" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1116" customHeight="1" spans="3:10">
@@ -36634,7 +36688,7 @@
         <v>9032</v>
       </c>
       <c r="D1116" s="6" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="E1116" s="6">
         <v>9</v>
@@ -36653,7 +36707,7 @@
         <v>120</v>
       </c>
       <c r="J1116" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1117" customHeight="1" spans="3:10">
@@ -36661,7 +36715,7 @@
         <v>9033</v>
       </c>
       <c r="D1117" s="6" t="s">
-        <v>1158</v>
+        <v>1176</v>
       </c>
       <c r="E1117" s="6">
         <v>9</v>
@@ -36680,7 +36734,7 @@
         <v>130</v>
       </c>
       <c r="J1117" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1118" customHeight="1" spans="3:10">
@@ -36688,7 +36742,7 @@
         <v>9034</v>
       </c>
       <c r="D1118" s="6" t="s">
-        <v>1159</v>
+        <v>1177</v>
       </c>
       <c r="E1118" s="6">
         <v>9</v>
@@ -36707,7 +36761,7 @@
         <v>130</v>
       </c>
       <c r="J1118" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1119" customHeight="1" spans="3:10">
@@ -36715,7 +36769,7 @@
         <v>9035</v>
       </c>
       <c r="D1119" s="6" t="s">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="E1119" s="6">
         <v>9</v>
@@ -36734,7 +36788,7 @@
         <v>130</v>
       </c>
       <c r="J1119" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1120" customHeight="1" spans="3:10">
@@ -36742,7 +36796,7 @@
         <v>9036</v>
       </c>
       <c r="D1120" s="6" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="E1120" s="6">
         <v>9</v>
@@ -36761,7 +36815,7 @@
         <v>130</v>
       </c>
       <c r="J1120" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1121" customHeight="1" spans="3:10">
@@ -36769,7 +36823,7 @@
         <v>9037</v>
       </c>
       <c r="D1121" s="6" t="s">
-        <v>1162</v>
+        <v>1180</v>
       </c>
       <c r="E1121" s="6">
         <v>9</v>
@@ -36788,7 +36842,7 @@
         <v>140</v>
       </c>
       <c r="J1121" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1122" customHeight="1" spans="3:10">
@@ -36796,7 +36850,7 @@
         <v>9038</v>
       </c>
       <c r="D1122" s="6" t="s">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="E1122" s="6">
         <v>9</v>
@@ -36815,7 +36869,7 @@
         <v>140</v>
       </c>
       <c r="J1122" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1123" customHeight="1" spans="3:10">
@@ -36823,7 +36877,7 @@
         <v>9039</v>
       </c>
       <c r="D1123" s="6" t="s">
-        <v>1164</v>
+        <v>1182</v>
       </c>
       <c r="E1123" s="6">
         <v>9</v>
@@ -36842,7 +36896,7 @@
         <v>140</v>
       </c>
       <c r="J1123" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1124" customHeight="1" spans="3:10">
@@ -36850,7 +36904,7 @@
         <v>9040</v>
       </c>
       <c r="D1124" s="6" t="s">
-        <v>1165</v>
+        <v>1183</v>
       </c>
       <c r="E1124" s="6">
         <v>9</v>
@@ -36869,7 +36923,7 @@
         <v>140</v>
       </c>
       <c r="J1124" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1125" customHeight="1" spans="3:10">
@@ -36877,7 +36931,7 @@
         <v>9041</v>
       </c>
       <c r="D1125" s="6" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="E1125" s="6">
         <v>9</v>
@@ -36896,7 +36950,7 @@
         <v>150</v>
       </c>
       <c r="J1125" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1126" customHeight="1" spans="3:10">
@@ -36904,7 +36958,7 @@
         <v>9042</v>
       </c>
       <c r="D1126" s="6" t="s">
-        <v>1167</v>
+        <v>1185</v>
       </c>
       <c r="E1126" s="6">
         <v>9</v>
@@ -36923,7 +36977,7 @@
         <v>150</v>
       </c>
       <c r="J1126" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1127" customHeight="1" spans="3:10">
@@ -36931,7 +36985,7 @@
         <v>9043</v>
       </c>
       <c r="D1127" s="6" t="s">
-        <v>1168</v>
+        <v>1186</v>
       </c>
       <c r="E1127" s="6">
         <v>9</v>
@@ -36950,7 +37004,7 @@
         <v>150</v>
       </c>
       <c r="J1127" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1128" customHeight="1" spans="3:10">
@@ -36958,7 +37012,7 @@
         <v>9044</v>
       </c>
       <c r="D1128" s="6" t="s">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="E1128" s="6">
         <v>9</v>
@@ -36977,7 +37031,7 @@
         <v>150</v>
       </c>
       <c r="J1128" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1129" customHeight="1" spans="3:10">
@@ -36985,7 +37039,7 @@
         <v>9045</v>
       </c>
       <c r="D1129" s="6" t="s">
-        <v>1170</v>
+        <v>1188</v>
       </c>
       <c r="E1129" s="6">
         <v>9</v>
@@ -37004,7 +37058,7 @@
         <v>160</v>
       </c>
       <c r="J1129" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1130" customHeight="1" spans="3:10">
@@ -37012,7 +37066,7 @@
         <v>9046</v>
       </c>
       <c r="D1130" s="6" t="s">
-        <v>1171</v>
+        <v>1189</v>
       </c>
       <c r="E1130" s="6">
         <v>9</v>
@@ -37031,7 +37085,7 @@
         <v>160</v>
       </c>
       <c r="J1130" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1131" customHeight="1" spans="3:10">
@@ -37039,7 +37093,7 @@
         <v>9047</v>
       </c>
       <c r="D1131" s="6" t="s">
-        <v>1172</v>
+        <v>1190</v>
       </c>
       <c r="E1131" s="6">
         <v>9</v>
@@ -37058,7 +37112,7 @@
         <v>160</v>
       </c>
       <c r="J1131" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1132" customHeight="1" spans="3:10">
@@ -37066,7 +37120,7 @@
         <v>9048</v>
       </c>
       <c r="D1132" s="6" t="s">
-        <v>1173</v>
+        <v>1191</v>
       </c>
       <c r="E1132" s="6">
         <v>9</v>
@@ -37085,7 +37139,7 @@
         <v>160</v>
       </c>
       <c r="J1132" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1133" customHeight="1" spans="3:10">
@@ -37093,7 +37147,7 @@
         <v>9049</v>
       </c>
       <c r="D1133" s="6" t="s">
-        <v>1174</v>
+        <v>1192</v>
       </c>
       <c r="E1133" s="6">
         <v>9</v>
@@ -37112,7 +37166,7 @@
         <v>170</v>
       </c>
       <c r="J1133" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1134" customHeight="1" spans="3:10">
@@ -37120,7 +37174,7 @@
         <v>9050</v>
       </c>
       <c r="D1134" s="6" t="s">
-        <v>1175</v>
+        <v>1193</v>
       </c>
       <c r="E1134" s="6">
         <v>9</v>
@@ -37139,7 +37193,7 @@
         <v>170</v>
       </c>
       <c r="J1134" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1135" customHeight="1" spans="3:10">
@@ -37147,7 +37201,7 @@
         <v>9051</v>
       </c>
       <c r="D1135" s="6" t="s">
-        <v>1176</v>
+        <v>1194</v>
       </c>
       <c r="E1135" s="6">
         <v>9</v>
@@ -37166,7 +37220,7 @@
         <v>170</v>
       </c>
       <c r="J1135" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1136" customHeight="1" spans="3:10">
@@ -37174,7 +37228,7 @@
         <v>9052</v>
       </c>
       <c r="D1136" s="6" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="E1136" s="6">
         <v>9</v>
@@ -37193,7 +37247,7 @@
         <v>170</v>
       </c>
       <c r="J1136" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1137" customHeight="1" spans="3:10">
@@ -37201,7 +37255,7 @@
         <v>9053</v>
       </c>
       <c r="D1137" s="6" t="s">
-        <v>1178</v>
+        <v>1196</v>
       </c>
       <c r="E1137" s="6">
         <v>9</v>
@@ -37220,7 +37274,7 @@
         <v>180</v>
       </c>
       <c r="J1137" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1138" customHeight="1" spans="3:10">
@@ -37228,7 +37282,7 @@
         <v>9054</v>
       </c>
       <c r="D1138" s="6" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="E1138" s="6">
         <v>9</v>
@@ -37247,7 +37301,7 @@
         <v>180</v>
       </c>
       <c r="J1138" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1139" customHeight="1" spans="3:10">
@@ -37255,7 +37309,7 @@
         <v>9055</v>
       </c>
       <c r="D1139" s="6" t="s">
-        <v>1180</v>
+        <v>1198</v>
       </c>
       <c r="E1139" s="6">
         <v>9</v>
@@ -37274,7 +37328,7 @@
         <v>180</v>
       </c>
       <c r="J1139" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1140" customHeight="1" spans="3:10">
@@ -37282,7 +37336,7 @@
         <v>9056</v>
       </c>
       <c r="D1140" s="6" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="E1140" s="6">
         <v>9</v>
@@ -37301,7 +37355,7 @@
         <v>180</v>
       </c>
       <c r="J1140" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1141" customHeight="1" spans="3:10">
@@ -37309,7 +37363,7 @@
         <v>9057</v>
       </c>
       <c r="D1141" s="6" t="s">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="E1141" s="6">
         <v>9</v>
@@ -37328,7 +37382,7 @@
         <v>190</v>
       </c>
       <c r="J1141" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1142" customHeight="1" spans="3:10">
@@ -37336,7 +37390,7 @@
         <v>9058</v>
       </c>
       <c r="D1142" s="6" t="s">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="E1142" s="6">
         <v>9</v>
@@ -37355,7 +37409,7 @@
         <v>190</v>
       </c>
       <c r="J1142" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1143" customHeight="1" spans="3:10">
@@ -37363,7 +37417,7 @@
         <v>9059</v>
       </c>
       <c r="D1143" s="6" t="s">
-        <v>1184</v>
+        <v>1202</v>
       </c>
       <c r="E1143" s="6">
         <v>9</v>
@@ -37382,7 +37436,7 @@
         <v>190</v>
       </c>
       <c r="J1143" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1144" customHeight="1" spans="3:10">
@@ -37390,7 +37444,7 @@
         <v>9060</v>
       </c>
       <c r="D1144" s="6" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
       <c r="E1144" s="6">
         <v>9</v>
@@ -37409,7 +37463,7 @@
         <v>190</v>
       </c>
       <c r="J1144" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1145" customHeight="1" spans="3:10">
@@ -37417,7 +37471,7 @@
         <v>9061</v>
       </c>
       <c r="D1145" s="6" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="E1145" s="6">
         <v>9</v>
@@ -37436,7 +37490,7 @@
         <v>200</v>
       </c>
       <c r="J1145" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1146" customHeight="1" spans="3:10">
@@ -37444,7 +37498,7 @@
         <v>9062</v>
       </c>
       <c r="D1146" s="6" t="s">
-        <v>1187</v>
+        <v>1205</v>
       </c>
       <c r="E1146" s="6">
         <v>9</v>
@@ -37463,7 +37517,7 @@
         <v>200</v>
       </c>
       <c r="J1146" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1147" customHeight="1" spans="3:10">
@@ -37471,7 +37525,7 @@
         <v>9063</v>
       </c>
       <c r="D1147" s="6" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
       <c r="E1147" s="6">
         <v>9</v>
@@ -37490,7 +37544,7 @@
         <v>200</v>
       </c>
       <c r="J1147" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1148" customHeight="1" spans="3:10">
@@ -37498,7 +37552,7 @@
         <v>9064</v>
       </c>
       <c r="D1148" s="6" t="s">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="E1148" s="6">
         <v>9</v>
@@ -37517,7 +37571,7 @@
         <v>200</v>
       </c>
       <c r="J1148" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1149" customHeight="1" spans="3:10">
@@ -37525,7 +37579,7 @@
         <v>9065</v>
       </c>
       <c r="D1149" s="6" t="s">
-        <v>1190</v>
+        <v>1208</v>
       </c>
       <c r="E1149" s="6">
         <v>9</v>
@@ -37544,7 +37598,7 @@
         <v>210</v>
       </c>
       <c r="J1149" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1150" customHeight="1" spans="3:10">
@@ -37552,7 +37606,7 @@
         <v>9066</v>
       </c>
       <c r="D1150" s="6" t="s">
-        <v>1191</v>
+        <v>1209</v>
       </c>
       <c r="E1150" s="6">
         <v>9</v>
@@ -37571,7 +37625,7 @@
         <v>210</v>
       </c>
       <c r="J1150" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1151" customHeight="1" spans="3:10">
@@ -37579,7 +37633,7 @@
         <v>9067</v>
       </c>
       <c r="D1151" s="6" t="s">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E1151" s="6">
         <v>9</v>
@@ -37598,7 +37652,7 @@
         <v>210</v>
       </c>
       <c r="J1151" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1152" customHeight="1" spans="3:10">
@@ -37606,7 +37660,7 @@
         <v>9068</v>
       </c>
       <c r="D1152" s="6" t="s">
-        <v>1193</v>
+        <v>1211</v>
       </c>
       <c r="E1152" s="6">
         <v>9</v>
@@ -37625,7 +37679,7 @@
         <v>210</v>
       </c>
       <c r="J1152" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1153" customHeight="1" spans="3:10">
@@ -37633,7 +37687,7 @@
         <v>9069</v>
       </c>
       <c r="D1153" s="6" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="E1153" s="6">
         <v>9</v>
@@ -37652,7 +37706,7 @@
         <v>220</v>
       </c>
       <c r="J1153" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1154" customHeight="1" spans="3:10">
@@ -37660,7 +37714,7 @@
         <v>9070</v>
       </c>
       <c r="D1154" s="6" t="s">
-        <v>1195</v>
+        <v>1213</v>
       </c>
       <c r="E1154" s="6">
         <v>9</v>
@@ -37679,7 +37733,7 @@
         <v>220</v>
       </c>
       <c r="J1154" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1155" customHeight="1" spans="3:10">
@@ -37687,7 +37741,7 @@
         <v>9071</v>
       </c>
       <c r="D1155" s="6" t="s">
-        <v>1196</v>
+        <v>1214</v>
       </c>
       <c r="E1155" s="6">
         <v>9</v>
@@ -37706,7 +37760,7 @@
         <v>220</v>
       </c>
       <c r="J1155" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1156" customHeight="1" spans="3:10">
@@ -37714,7 +37768,7 @@
         <v>9072</v>
       </c>
       <c r="D1156" s="6" t="s">
-        <v>1197</v>
+        <v>1215</v>
       </c>
       <c r="E1156" s="6">
         <v>9</v>
@@ -37733,7 +37787,7 @@
         <v>220</v>
       </c>
       <c r="J1156" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1157" customHeight="1" spans="3:10">
@@ -37741,7 +37795,7 @@
         <v>9073</v>
       </c>
       <c r="D1157" s="6" t="s">
-        <v>1198</v>
+        <v>1216</v>
       </c>
       <c r="E1157" s="6">
         <v>9</v>
@@ -37760,7 +37814,7 @@
         <v>230</v>
       </c>
       <c r="J1157" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1158" customHeight="1" spans="3:10">
@@ -37768,7 +37822,7 @@
         <v>9074</v>
       </c>
       <c r="D1158" s="6" t="s">
-        <v>1199</v>
+        <v>1217</v>
       </c>
       <c r="E1158" s="6">
         <v>9</v>
@@ -37787,7 +37841,7 @@
         <v>230</v>
       </c>
       <c r="J1158" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1159" customHeight="1" spans="3:10">
@@ -37795,7 +37849,7 @@
         <v>9075</v>
       </c>
       <c r="D1159" s="6" t="s">
-        <v>1200</v>
+        <v>1218</v>
       </c>
       <c r="E1159" s="6">
         <v>9</v>
@@ -37814,7 +37868,7 @@
         <v>230</v>
       </c>
       <c r="J1159" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1160" customHeight="1" spans="3:10">
@@ -37822,7 +37876,7 @@
         <v>9076</v>
       </c>
       <c r="D1160" s="6" t="s">
-        <v>1201</v>
+        <v>1219</v>
       </c>
       <c r="E1160" s="6">
         <v>9</v>
@@ -37841,7 +37895,7 @@
         <v>230</v>
       </c>
       <c r="J1160" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1161" customHeight="1" spans="3:10">
@@ -37849,7 +37903,7 @@
         <v>9077</v>
       </c>
       <c r="D1161" s="6" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="E1161" s="6">
         <v>9</v>
@@ -37868,7 +37922,7 @@
         <v>240</v>
       </c>
       <c r="J1161" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1162" customHeight="1" spans="3:10">
@@ -37876,7 +37930,7 @@
         <v>9078</v>
       </c>
       <c r="D1162" s="6" t="s">
-        <v>1203</v>
+        <v>1221</v>
       </c>
       <c r="E1162" s="6">
         <v>9</v>
@@ -37895,7 +37949,7 @@
         <v>240</v>
       </c>
       <c r="J1162" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1163" customHeight="1" spans="3:10">
@@ -37903,7 +37957,7 @@
         <v>9079</v>
       </c>
       <c r="D1163" s="6" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
       <c r="E1163" s="6">
         <v>9</v>
@@ -37922,7 +37976,7 @@
         <v>240</v>
       </c>
       <c r="J1163" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1164" customHeight="1" spans="3:10">
@@ -37930,7 +37984,7 @@
         <v>9080</v>
       </c>
       <c r="D1164" s="6" t="s">
-        <v>1205</v>
+        <v>1223</v>
       </c>
       <c r="E1164" s="6">
         <v>9</v>
@@ -37949,7 +38003,7 @@
         <v>240</v>
       </c>
       <c r="J1164" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1165" customHeight="1" spans="3:10">
@@ -37957,7 +38011,7 @@
         <v>9081</v>
       </c>
       <c r="D1165" s="6" t="s">
-        <v>1206</v>
+        <v>1224</v>
       </c>
       <c r="E1165" s="6">
         <v>9</v>
@@ -37976,7 +38030,7 @@
         <v>250</v>
       </c>
       <c r="J1165" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1166" customHeight="1" spans="3:10">
@@ -37984,7 +38038,7 @@
         <v>9082</v>
       </c>
       <c r="D1166" s="6" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="E1166" s="6">
         <v>9</v>
@@ -38003,7 +38057,7 @@
         <v>250</v>
       </c>
       <c r="J1166" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1167" customHeight="1" spans="3:10">
@@ -38011,7 +38065,7 @@
         <v>9083</v>
       </c>
       <c r="D1167" s="6" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="E1167" s="6">
         <v>9</v>
@@ -38030,7 +38084,7 @@
         <v>250</v>
       </c>
       <c r="J1167" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1168" customHeight="1" spans="3:10">
@@ -38038,7 +38092,7 @@
         <v>9084</v>
       </c>
       <c r="D1168" s="6" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="E1168" s="6">
         <v>9</v>
@@ -38057,7 +38111,7 @@
         <v>250</v>
       </c>
       <c r="J1168" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1169" customHeight="1" spans="3:10">
@@ -38065,7 +38119,7 @@
         <v>9085</v>
       </c>
       <c r="D1169" s="6" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="E1169" s="6">
         <v>9</v>
@@ -38084,7 +38138,7 @@
         <v>260</v>
       </c>
       <c r="J1169" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1170" customHeight="1" spans="3:10">
@@ -38092,7 +38146,7 @@
         <v>9086</v>
       </c>
       <c r="D1170" s="6" t="s">
-        <v>1211</v>
+        <v>1229</v>
       </c>
       <c r="E1170" s="6">
         <v>9</v>
@@ -38111,7 +38165,7 @@
         <v>260</v>
       </c>
       <c r="J1170" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1171" customHeight="1" spans="3:10">
@@ -38119,7 +38173,7 @@
         <v>9087</v>
       </c>
       <c r="D1171" s="6" t="s">
-        <v>1212</v>
+        <v>1230</v>
       </c>
       <c r="E1171" s="6">
         <v>9</v>
@@ -38138,7 +38192,7 @@
         <v>260</v>
       </c>
       <c r="J1171" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1172" customHeight="1" spans="3:10">
@@ -38146,7 +38200,7 @@
         <v>9088</v>
       </c>
       <c r="D1172" s="6" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="E1172" s="6">
         <v>9</v>
@@ -38165,7 +38219,7 @@
         <v>260</v>
       </c>
       <c r="J1172" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1173" customHeight="1" spans="3:10">
@@ -38173,7 +38227,7 @@
         <v>9089</v>
       </c>
       <c r="D1173" s="6" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
       <c r="E1173" s="6">
         <v>9</v>
@@ -38192,7 +38246,7 @@
         <v>270</v>
       </c>
       <c r="J1173" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1174" customHeight="1" spans="3:10">
@@ -38200,7 +38254,7 @@
         <v>9090</v>
       </c>
       <c r="D1174" s="6" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
       <c r="E1174" s="6">
         <v>9</v>
@@ -38219,7 +38273,7 @@
         <v>270</v>
       </c>
       <c r="J1174" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1175" customHeight="1" spans="3:10">
@@ -38227,7 +38281,7 @@
         <v>9091</v>
       </c>
       <c r="D1175" s="6" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
       <c r="E1175" s="6">
         <v>9</v>
@@ -38246,7 +38300,7 @@
         <v>270</v>
       </c>
       <c r="J1175" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1176" customHeight="1" spans="3:10">
@@ -38254,7 +38308,7 @@
         <v>9092</v>
       </c>
       <c r="D1176" s="6" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
       <c r="E1176" s="6">
         <v>9</v>
@@ -38273,7 +38327,7 @@
         <v>270</v>
       </c>
       <c r="J1176" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1177" customHeight="1" spans="3:10">
@@ -38281,7 +38335,7 @@
         <v>9093</v>
       </c>
       <c r="D1177" s="6" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="E1177" s="6">
         <v>9</v>
@@ -38300,7 +38354,7 @@
         <v>280</v>
       </c>
       <c r="J1177" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1178" customHeight="1" spans="3:10">
@@ -38308,7 +38362,7 @@
         <v>9094</v>
       </c>
       <c r="D1178" s="6" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="E1178" s="6">
         <v>9</v>
@@ -38327,7 +38381,7 @@
         <v>280</v>
       </c>
       <c r="J1178" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1179" customHeight="1" spans="3:10">
@@ -38335,7 +38389,7 @@
         <v>9095</v>
       </c>
       <c r="D1179" s="6" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="E1179" s="6">
         <v>9</v>
@@ -38354,7 +38408,7 @@
         <v>280</v>
       </c>
       <c r="J1179" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1180" customHeight="1" spans="3:10">
@@ -38362,7 +38416,7 @@
         <v>9096</v>
       </c>
       <c r="D1180" s="6" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="E1180" s="6">
         <v>9</v>
@@ -38381,7 +38435,7 @@
         <v>280</v>
       </c>
       <c r="J1180" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1181" customHeight="1" spans="3:10">
@@ -38389,7 +38443,7 @@
         <v>9097</v>
       </c>
       <c r="D1181" s="6" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
       <c r="E1181" s="6">
         <v>9</v>
@@ -38408,7 +38462,7 @@
         <v>290</v>
       </c>
       <c r="J1181" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1182" customHeight="1" spans="3:10">
@@ -38416,7 +38470,7 @@
         <v>9098</v>
       </c>
       <c r="D1182" s="6" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="E1182" s="6">
         <v>9</v>
@@ -38435,7 +38489,7 @@
         <v>290</v>
       </c>
       <c r="J1182" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1183" customHeight="1" spans="3:10">
@@ -38443,7 +38497,7 @@
         <v>9099</v>
       </c>
       <c r="D1183" s="6" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
       <c r="E1183" s="6">
         <v>9</v>
@@ -38462,7 +38516,7 @@
         <v>290</v>
       </c>
       <c r="J1183" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1184" customHeight="1" spans="3:10">
@@ -38470,7 +38524,7 @@
         <v>9100</v>
       </c>
       <c r="D1184" s="6" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="E1184" s="6">
         <v>9</v>
@@ -38489,7 +38543,7 @@
         <v>290</v>
       </c>
       <c r="J1184" s="6" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="1294">
   <si>
     <t>#</t>
   </si>
@@ -3824,6 +3824,156 @@
   </si>
   <si>
     <t>攀登者100</t>
+  </si>
+  <si>
+    <t>攀登者101</t>
+  </si>
+  <si>
+    <t>攀登者102</t>
+  </si>
+  <si>
+    <t>攀登者103</t>
+  </si>
+  <si>
+    <t>攀登者104</t>
+  </si>
+  <si>
+    <t>攀登者105</t>
+  </si>
+  <si>
+    <t>攀登者106</t>
+  </si>
+  <si>
+    <t>攀登者107</t>
+  </si>
+  <si>
+    <t>攀登者108</t>
+  </si>
+  <si>
+    <t>攀登者109</t>
+  </si>
+  <si>
+    <t>攀登者110</t>
+  </si>
+  <si>
+    <t>攀登者111</t>
+  </si>
+  <si>
+    <t>攀登者112</t>
+  </si>
+  <si>
+    <t>攀登者113</t>
+  </si>
+  <si>
+    <t>攀登者114</t>
+  </si>
+  <si>
+    <t>攀登者115</t>
+  </si>
+  <si>
+    <t>攀登者116</t>
+  </si>
+  <si>
+    <t>攀登者117</t>
+  </si>
+  <si>
+    <t>攀登者118</t>
+  </si>
+  <si>
+    <t>攀登者119</t>
+  </si>
+  <si>
+    <t>攀登者120</t>
+  </si>
+  <si>
+    <t>攀登者121</t>
+  </si>
+  <si>
+    <t>攀登者122</t>
+  </si>
+  <si>
+    <t>攀登者123</t>
+  </si>
+  <si>
+    <t>攀登者124</t>
+  </si>
+  <si>
+    <t>攀登者125</t>
+  </si>
+  <si>
+    <t>攀登者126</t>
+  </si>
+  <si>
+    <t>攀登者127</t>
+  </si>
+  <si>
+    <t>攀登者128</t>
+  </si>
+  <si>
+    <t>攀登者129</t>
+  </si>
+  <si>
+    <t>攀登者130</t>
+  </si>
+  <si>
+    <t>攀登者131</t>
+  </si>
+  <si>
+    <t>攀登者132</t>
+  </si>
+  <si>
+    <t>攀登者133</t>
+  </si>
+  <si>
+    <t>攀登者134</t>
+  </si>
+  <si>
+    <t>攀登者135</t>
+  </si>
+  <si>
+    <t>攀登者136</t>
+  </si>
+  <si>
+    <t>攀登者137</t>
+  </si>
+  <si>
+    <t>攀登者138</t>
+  </si>
+  <si>
+    <t>攀登者139</t>
+  </si>
+  <si>
+    <t>攀登者140</t>
+  </si>
+  <si>
+    <t>攀登者141</t>
+  </si>
+  <si>
+    <t>攀登者142</t>
+  </si>
+  <si>
+    <t>攀登者143</t>
+  </si>
+  <si>
+    <t>攀登者144</t>
+  </si>
+  <si>
+    <t>攀登者145</t>
+  </si>
+  <si>
+    <t>攀登者146</t>
+  </si>
+  <si>
+    <t>攀登者147</t>
+  </si>
+  <si>
+    <t>攀登者148</t>
+  </si>
+  <si>
+    <t>攀登者149</t>
+  </si>
+  <si>
+    <t>攀登者150</t>
   </si>
 </sst>
 </file>
@@ -4823,10 +4973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K1184"/>
+  <dimension ref="A2:K1234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1046" workbookViewId="0">
-      <selection activeCell="P1058" sqref="P1058"/>
+    <sheetView tabSelected="1" topLeftCell="A1209" workbookViewId="0">
+      <selection activeCell="L1228" sqref="L1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -37612,7 +37762,7 @@
         <v>9</v>
       </c>
       <c r="F1150" s="6">
-        <f t="shared" ref="F1150:F1188" si="31">F1149+10</f>
+        <f t="shared" ref="F1150:F1213" si="31">F1149+10</f>
         <v>660</v>
       </c>
       <c r="G1150" s="6">
@@ -38543,6 +38693,1406 @@
         <v>290</v>
       </c>
       <c r="J1184" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1185" customHeight="1" spans="3:10">
+      <c r="C1185" s="6">
+        <v>9101</v>
+      </c>
+      <c r="D1185" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1185" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1185" s="6">
+        <f t="shared" ref="F1185:F1234" si="32">F1184+20</f>
+        <v>1020</v>
+      </c>
+      <c r="G1185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1185" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1185" s="6">
+        <f t="shared" ref="I1185:I1234" si="33">I1181+10</f>
+        <v>300</v>
+      </c>
+      <c r="J1185" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1186" customHeight="1" spans="3:10">
+      <c r="C1186" s="6">
+        <v>9102</v>
+      </c>
+      <c r="D1186" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1186" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1186" s="6">
+        <f t="shared" si="32"/>
+        <v>1040</v>
+      </c>
+      <c r="G1186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1186" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1186" s="6">
+        <f t="shared" si="33"/>
+        <v>300</v>
+      </c>
+      <c r="J1186" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1187" customHeight="1" spans="3:10">
+      <c r="C1187" s="6">
+        <v>9103</v>
+      </c>
+      <c r="D1187" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E1187" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1187" s="6">
+        <f t="shared" si="32"/>
+        <v>1060</v>
+      </c>
+      <c r="G1187" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1187" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1187" s="6">
+        <f t="shared" si="33"/>
+        <v>300</v>
+      </c>
+      <c r="J1187" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1188" customHeight="1" spans="3:10">
+      <c r="C1188" s="6">
+        <v>9104</v>
+      </c>
+      <c r="D1188" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E1188" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1188" s="6">
+        <f t="shared" si="32"/>
+        <v>1080</v>
+      </c>
+      <c r="G1188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1188" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1188" s="6">
+        <f t="shared" si="33"/>
+        <v>300</v>
+      </c>
+      <c r="J1188" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1189" customHeight="1" spans="3:10">
+      <c r="C1189" s="6">
+        <v>9105</v>
+      </c>
+      <c r="D1189" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E1189" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1189" s="6">
+        <f t="shared" si="32"/>
+        <v>1100</v>
+      </c>
+      <c r="G1189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1189" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1189" s="6">
+        <f t="shared" si="33"/>
+        <v>310</v>
+      </c>
+      <c r="J1189" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1190" customHeight="1" spans="3:10">
+      <c r="C1190" s="6">
+        <v>9106</v>
+      </c>
+      <c r="D1190" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E1190" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1190" s="6">
+        <f t="shared" si="32"/>
+        <v>1120</v>
+      </c>
+      <c r="G1190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1190" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1190" s="6">
+        <f t="shared" si="33"/>
+        <v>310</v>
+      </c>
+      <c r="J1190" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1191" customHeight="1" spans="3:10">
+      <c r="C1191" s="6">
+        <v>9107</v>
+      </c>
+      <c r="D1191" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1191" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1191" s="6">
+        <f t="shared" si="32"/>
+        <v>1140</v>
+      </c>
+      <c r="G1191" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1191" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1191" s="6">
+        <f t="shared" si="33"/>
+        <v>310</v>
+      </c>
+      <c r="J1191" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1192" customHeight="1" spans="3:10">
+      <c r="C1192" s="6">
+        <v>9108</v>
+      </c>
+      <c r="D1192" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E1192" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1192" s="6">
+        <f t="shared" si="32"/>
+        <v>1160</v>
+      </c>
+      <c r="G1192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1192" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1192" s="6">
+        <f t="shared" si="33"/>
+        <v>310</v>
+      </c>
+      <c r="J1192" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1193" customHeight="1" spans="3:10">
+      <c r="C1193" s="6">
+        <v>9109</v>
+      </c>
+      <c r="D1193" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E1193" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1193" s="6">
+        <f t="shared" si="32"/>
+        <v>1180</v>
+      </c>
+      <c r="G1193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1193" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1193" s="6">
+        <f t="shared" si="33"/>
+        <v>320</v>
+      </c>
+      <c r="J1193" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1194" customHeight="1" spans="3:10">
+      <c r="C1194" s="6">
+        <v>9110</v>
+      </c>
+      <c r="D1194" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E1194" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1194" s="6">
+        <f t="shared" si="32"/>
+        <v>1200</v>
+      </c>
+      <c r="G1194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1194" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1194" s="6">
+        <f t="shared" si="33"/>
+        <v>320</v>
+      </c>
+      <c r="J1194" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1195" customHeight="1" spans="3:10">
+      <c r="C1195" s="6">
+        <v>9111</v>
+      </c>
+      <c r="D1195" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E1195" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1195" s="6">
+        <f t="shared" si="32"/>
+        <v>1220</v>
+      </c>
+      <c r="G1195" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1195" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1195" s="6">
+        <f t="shared" si="33"/>
+        <v>320</v>
+      </c>
+      <c r="J1195" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1196" customHeight="1" spans="3:10">
+      <c r="C1196" s="6">
+        <v>9112</v>
+      </c>
+      <c r="D1196" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1196" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1196" s="6">
+        <f t="shared" si="32"/>
+        <v>1240</v>
+      </c>
+      <c r="G1196" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1196" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1196" s="6">
+        <f t="shared" si="33"/>
+        <v>320</v>
+      </c>
+      <c r="J1196" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1197" customHeight="1" spans="3:10">
+      <c r="C1197" s="6">
+        <v>9113</v>
+      </c>
+      <c r="D1197" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E1197" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1197" s="6">
+        <f t="shared" si="32"/>
+        <v>1260</v>
+      </c>
+      <c r="G1197" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1197" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1197" s="6">
+        <f t="shared" si="33"/>
+        <v>330</v>
+      </c>
+      <c r="J1197" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1198" customHeight="1" spans="3:10">
+      <c r="C1198" s="6">
+        <v>9114</v>
+      </c>
+      <c r="D1198" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1198" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1198" s="6">
+        <f t="shared" si="32"/>
+        <v>1280</v>
+      </c>
+      <c r="G1198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1198" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1198" s="6">
+        <f t="shared" si="33"/>
+        <v>330</v>
+      </c>
+      <c r="J1198" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1199" customHeight="1" spans="3:10">
+      <c r="C1199" s="6">
+        <v>9115</v>
+      </c>
+      <c r="D1199" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E1199" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1199" s="6">
+        <f t="shared" si="32"/>
+        <v>1300</v>
+      </c>
+      <c r="G1199" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1199" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1199" s="6">
+        <f t="shared" si="33"/>
+        <v>330</v>
+      </c>
+      <c r="J1199" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1200" customHeight="1" spans="3:10">
+      <c r="C1200" s="6">
+        <v>9116</v>
+      </c>
+      <c r="D1200" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E1200" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1200" s="6">
+        <f t="shared" si="32"/>
+        <v>1320</v>
+      </c>
+      <c r="G1200" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1200" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1200" s="6">
+        <f t="shared" si="33"/>
+        <v>330</v>
+      </c>
+      <c r="J1200" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1201" customHeight="1" spans="3:10">
+      <c r="C1201" s="6">
+        <v>9117</v>
+      </c>
+      <c r="D1201" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1201" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1201" s="6">
+        <f t="shared" si="32"/>
+        <v>1340</v>
+      </c>
+      <c r="G1201" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1201" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1201" s="6">
+        <f t="shared" si="33"/>
+        <v>340</v>
+      </c>
+      <c r="J1201" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1202" customHeight="1" spans="3:10">
+      <c r="C1202" s="6">
+        <v>9118</v>
+      </c>
+      <c r="D1202" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E1202" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1202" s="6">
+        <f t="shared" si="32"/>
+        <v>1360</v>
+      </c>
+      <c r="G1202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1202" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1202" s="6">
+        <f t="shared" si="33"/>
+        <v>340</v>
+      </c>
+      <c r="J1202" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1203" customHeight="1" spans="3:10">
+      <c r="C1203" s="6">
+        <v>9119</v>
+      </c>
+      <c r="D1203" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E1203" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1203" s="6">
+        <f t="shared" si="32"/>
+        <v>1380</v>
+      </c>
+      <c r="G1203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1203" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1203" s="6">
+        <f t="shared" si="33"/>
+        <v>340</v>
+      </c>
+      <c r="J1203" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1204" customHeight="1" spans="3:10">
+      <c r="C1204" s="6">
+        <v>9120</v>
+      </c>
+      <c r="D1204" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1204" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1204" s="6">
+        <f t="shared" si="32"/>
+        <v>1400</v>
+      </c>
+      <c r="G1204" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1204" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1204" s="6">
+        <f t="shared" si="33"/>
+        <v>340</v>
+      </c>
+      <c r="J1204" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1205" customHeight="1" spans="3:10">
+      <c r="C1205" s="6">
+        <v>9121</v>
+      </c>
+      <c r="D1205" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E1205" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1205" s="6">
+        <f t="shared" si="32"/>
+        <v>1420</v>
+      </c>
+      <c r="G1205" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1205" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1205" s="6">
+        <f t="shared" si="33"/>
+        <v>350</v>
+      </c>
+      <c r="J1205" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1206" customHeight="1" spans="3:10">
+      <c r="C1206" s="6">
+        <v>9122</v>
+      </c>
+      <c r="D1206" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1206" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1206" s="6">
+        <f t="shared" si="32"/>
+        <v>1440</v>
+      </c>
+      <c r="G1206" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1206" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1206" s="6">
+        <f t="shared" si="33"/>
+        <v>350</v>
+      </c>
+      <c r="J1206" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1207" customHeight="1" spans="3:10">
+      <c r="C1207" s="6">
+        <v>9123</v>
+      </c>
+      <c r="D1207" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E1207" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1207" s="6">
+        <f t="shared" si="32"/>
+        <v>1460</v>
+      </c>
+      <c r="G1207" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1207" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1207" s="6">
+        <f t="shared" si="33"/>
+        <v>350</v>
+      </c>
+      <c r="J1207" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1208" customHeight="1" spans="3:10">
+      <c r="C1208" s="6">
+        <v>9124</v>
+      </c>
+      <c r="D1208" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1208" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1208" s="6">
+        <f t="shared" si="32"/>
+        <v>1480</v>
+      </c>
+      <c r="G1208" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1208" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1208" s="6">
+        <f t="shared" si="33"/>
+        <v>350</v>
+      </c>
+      <c r="J1208" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1209" customHeight="1" spans="3:10">
+      <c r="C1209" s="6">
+        <v>9125</v>
+      </c>
+      <c r="D1209" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E1209" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1209" s="6">
+        <f t="shared" si="32"/>
+        <v>1500</v>
+      </c>
+      <c r="G1209" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1209" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1209" s="6">
+        <f t="shared" si="33"/>
+        <v>360</v>
+      </c>
+      <c r="J1209" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1210" customHeight="1" spans="3:10">
+      <c r="C1210" s="6">
+        <v>9126</v>
+      </c>
+      <c r="D1210" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E1210" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1210" s="6">
+        <f t="shared" si="32"/>
+        <v>1520</v>
+      </c>
+      <c r="G1210" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1210" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1210" s="6">
+        <f t="shared" si="33"/>
+        <v>360</v>
+      </c>
+      <c r="J1210" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1211" customHeight="1" spans="3:10">
+      <c r="C1211" s="6">
+        <v>9127</v>
+      </c>
+      <c r="D1211" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1211" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1211" s="6">
+        <f t="shared" si="32"/>
+        <v>1540</v>
+      </c>
+      <c r="G1211" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1211" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1211" s="6">
+        <f t="shared" si="33"/>
+        <v>360</v>
+      </c>
+      <c r="J1211" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1212" customHeight="1" spans="3:10">
+      <c r="C1212" s="6">
+        <v>9128</v>
+      </c>
+      <c r="D1212" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1212" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1212" s="6">
+        <f t="shared" si="32"/>
+        <v>1560</v>
+      </c>
+      <c r="G1212" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1212" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1212" s="6">
+        <f t="shared" si="33"/>
+        <v>360</v>
+      </c>
+      <c r="J1212" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1213" customHeight="1" spans="3:10">
+      <c r="C1213" s="6">
+        <v>9129</v>
+      </c>
+      <c r="D1213" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1213" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1213" s="6">
+        <f t="shared" si="32"/>
+        <v>1580</v>
+      </c>
+      <c r="G1213" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1213" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1213" s="6">
+        <f t="shared" si="33"/>
+        <v>370</v>
+      </c>
+      <c r="J1213" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1214" customHeight="1" spans="3:10">
+      <c r="C1214" s="6">
+        <v>9130</v>
+      </c>
+      <c r="D1214" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1214" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1214" s="6">
+        <f t="shared" si="32"/>
+        <v>1600</v>
+      </c>
+      <c r="G1214" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1214" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1214" s="6">
+        <f t="shared" si="33"/>
+        <v>370</v>
+      </c>
+      <c r="J1214" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1215" customHeight="1" spans="3:10">
+      <c r="C1215" s="6">
+        <v>9131</v>
+      </c>
+      <c r="D1215" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1215" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1215" s="6">
+        <f t="shared" si="32"/>
+        <v>1620</v>
+      </c>
+      <c r="G1215" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1215" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1215" s="6">
+        <f t="shared" si="33"/>
+        <v>370</v>
+      </c>
+      <c r="J1215" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1216" customHeight="1" spans="3:10">
+      <c r="C1216" s="6">
+        <v>9132</v>
+      </c>
+      <c r="D1216" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E1216" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1216" s="6">
+        <f t="shared" si="32"/>
+        <v>1640</v>
+      </c>
+      <c r="G1216" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1216" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1216" s="6">
+        <f t="shared" si="33"/>
+        <v>370</v>
+      </c>
+      <c r="J1216" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1217" customHeight="1" spans="3:10">
+      <c r="C1217" s="6">
+        <v>9133</v>
+      </c>
+      <c r="D1217" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1217" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1217" s="6">
+        <f t="shared" si="32"/>
+        <v>1660</v>
+      </c>
+      <c r="G1217" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1217" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1217" s="6">
+        <f t="shared" si="33"/>
+        <v>380</v>
+      </c>
+      <c r="J1217" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1218" customHeight="1" spans="3:10">
+      <c r="C1218" s="6">
+        <v>9134</v>
+      </c>
+      <c r="D1218" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1218" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1218" s="6">
+        <f t="shared" si="32"/>
+        <v>1680</v>
+      </c>
+      <c r="G1218" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1218" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1218" s="6">
+        <f t="shared" si="33"/>
+        <v>380</v>
+      </c>
+      <c r="J1218" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1219" customHeight="1" spans="3:10">
+      <c r="C1219" s="6">
+        <v>9135</v>
+      </c>
+      <c r="D1219" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E1219" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1219" s="6">
+        <f t="shared" si="32"/>
+        <v>1700</v>
+      </c>
+      <c r="G1219" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1219" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1219" s="6">
+        <f t="shared" si="33"/>
+        <v>380</v>
+      </c>
+      <c r="J1219" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1220" customHeight="1" spans="3:10">
+      <c r="C1220" s="6">
+        <v>9136</v>
+      </c>
+      <c r="D1220" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1220" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1220" s="6">
+        <f t="shared" si="32"/>
+        <v>1720</v>
+      </c>
+      <c r="G1220" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1220" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1220" s="6">
+        <f t="shared" si="33"/>
+        <v>380</v>
+      </c>
+      <c r="J1220" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1221" customHeight="1" spans="3:10">
+      <c r="C1221" s="6">
+        <v>9137</v>
+      </c>
+      <c r="D1221" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1221" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1221" s="6">
+        <f t="shared" si="32"/>
+        <v>1740</v>
+      </c>
+      <c r="G1221" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1221" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1221" s="6">
+        <f t="shared" si="33"/>
+        <v>390</v>
+      </c>
+      <c r="J1221" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1222" customHeight="1" spans="3:10">
+      <c r="C1222" s="6">
+        <v>9138</v>
+      </c>
+      <c r="D1222" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1222" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1222" s="6">
+        <f t="shared" si="32"/>
+        <v>1760</v>
+      </c>
+      <c r="G1222" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1222" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1222" s="6">
+        <f t="shared" si="33"/>
+        <v>390</v>
+      </c>
+      <c r="J1222" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1223" customHeight="1" spans="3:10">
+      <c r="C1223" s="6">
+        <v>9139</v>
+      </c>
+      <c r="D1223" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1223" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1223" s="6">
+        <f t="shared" si="32"/>
+        <v>1780</v>
+      </c>
+      <c r="G1223" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1223" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1223" s="6">
+        <f t="shared" si="33"/>
+        <v>390</v>
+      </c>
+      <c r="J1223" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1224" customHeight="1" spans="3:10">
+      <c r="C1224" s="6">
+        <v>9140</v>
+      </c>
+      <c r="D1224" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1224" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1224" s="6">
+        <f t="shared" si="32"/>
+        <v>1800</v>
+      </c>
+      <c r="G1224" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1224" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1224" s="6">
+        <f t="shared" si="33"/>
+        <v>390</v>
+      </c>
+      <c r="J1224" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1225" customHeight="1" spans="3:10">
+      <c r="C1225" s="6">
+        <v>9141</v>
+      </c>
+      <c r="D1225" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E1225" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1225" s="6">
+        <f t="shared" si="32"/>
+        <v>1820</v>
+      </c>
+      <c r="G1225" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1225" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1225" s="6">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="J1225" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1226" customHeight="1" spans="3:10">
+      <c r="C1226" s="6">
+        <v>9142</v>
+      </c>
+      <c r="D1226" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1226" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1226" s="6">
+        <f t="shared" si="32"/>
+        <v>1840</v>
+      </c>
+      <c r="G1226" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1226" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1226" s="6">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="J1226" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1227" customHeight="1" spans="3:10">
+      <c r="C1227" s="6">
+        <v>9143</v>
+      </c>
+      <c r="D1227" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1227" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1227" s="6">
+        <f t="shared" si="32"/>
+        <v>1860</v>
+      </c>
+      <c r="G1227" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1227" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1227" s="6">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="J1227" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1228" customHeight="1" spans="3:10">
+      <c r="C1228" s="6">
+        <v>9144</v>
+      </c>
+      <c r="D1228" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1228" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1228" s="6">
+        <f t="shared" si="32"/>
+        <v>1880</v>
+      </c>
+      <c r="G1228" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1228" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1228" s="6">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="J1228" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1229" customHeight="1" spans="3:10">
+      <c r="C1229" s="6">
+        <v>9145</v>
+      </c>
+      <c r="D1229" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1229" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1229" s="6">
+        <f t="shared" si="32"/>
+        <v>1900</v>
+      </c>
+      <c r="G1229" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1229" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1229" s="6">
+        <f t="shared" si="33"/>
+        <v>410</v>
+      </c>
+      <c r="J1229" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1230" customHeight="1" spans="3:10">
+      <c r="C1230" s="6">
+        <v>9146</v>
+      </c>
+      <c r="D1230" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1230" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1230" s="6">
+        <f t="shared" si="32"/>
+        <v>1920</v>
+      </c>
+      <c r="G1230" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1230" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1230" s="6">
+        <f t="shared" si="33"/>
+        <v>410</v>
+      </c>
+      <c r="J1230" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1231" customHeight="1" spans="3:10">
+      <c r="C1231" s="6">
+        <v>9147</v>
+      </c>
+      <c r="D1231" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1231" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1231" s="6">
+        <f t="shared" si="32"/>
+        <v>1940</v>
+      </c>
+      <c r="G1231" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1231" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1231" s="6">
+        <f t="shared" si="33"/>
+        <v>410</v>
+      </c>
+      <c r="J1231" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1232" customHeight="1" spans="3:10">
+      <c r="C1232" s="6">
+        <v>9148</v>
+      </c>
+      <c r="D1232" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1232" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1232" s="6">
+        <f t="shared" si="32"/>
+        <v>1960</v>
+      </c>
+      <c r="G1232" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1232" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1232" s="6">
+        <f t="shared" si="33"/>
+        <v>410</v>
+      </c>
+      <c r="J1232" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1233" customHeight="1" spans="3:10">
+      <c r="C1233" s="6">
+        <v>9149</v>
+      </c>
+      <c r="D1233" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E1233" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1233" s="6">
+        <f t="shared" si="32"/>
+        <v>1980</v>
+      </c>
+      <c r="G1233" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1233" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1233" s="6">
+        <f t="shared" si="33"/>
+        <v>420</v>
+      </c>
+      <c r="J1233" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1234" customHeight="1" spans="3:10">
+      <c r="C1234" s="6">
+        <v>9150</v>
+      </c>
+      <c r="D1234" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1234" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1234" s="6">
+        <f t="shared" si="32"/>
+        <v>2000</v>
+      </c>
+      <c r="G1234" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1234" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1234" s="6">
+        <f t="shared" si="33"/>
+        <v>420</v>
+      </c>
+      <c r="J1234" s="6" t="s">
         <v>1144</v>
       </c>
     </row>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -5146,8 +5146,8 @@
   <sheetPr/>
   <dimension ref="A2:K1314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
-      <selection activeCell="I886" sqref="I886"/>
+    <sheetView tabSelected="1" topLeftCell="A1295" workbookViewId="0">
+      <selection activeCell="H1321" sqref="H1321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -40595,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="H1265" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1265" s="6">
         <f t="shared" ref="I1265:I1314" si="35">I1261+10</f>
@@ -40623,7 +40623,7 @@
         <v>1</v>
       </c>
       <c r="H1266" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1266" s="6">
         <f t="shared" si="35"/>
@@ -40651,7 +40651,7 @@
         <v>1</v>
       </c>
       <c r="H1267" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1267" s="6">
         <f t="shared" si="35"/>
@@ -40707,7 +40707,7 @@
         <v>1</v>
       </c>
       <c r="H1269" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1269" s="6">
         <f t="shared" si="35"/>
@@ -40735,7 +40735,7 @@
         <v>1</v>
       </c>
       <c r="H1270" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1270" s="6">
         <f t="shared" si="35"/>
@@ -40763,7 +40763,7 @@
         <v>1</v>
       </c>
       <c r="H1271" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1271" s="6">
         <f t="shared" si="35"/>
@@ -40819,7 +40819,7 @@
         <v>1</v>
       </c>
       <c r="H1273" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1273" s="6">
         <f t="shared" si="35"/>
@@ -40847,7 +40847,7 @@
         <v>1</v>
       </c>
       <c r="H1274" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1274" s="6">
         <f t="shared" si="35"/>
@@ -40875,7 +40875,7 @@
         <v>1</v>
       </c>
       <c r="H1275" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1275" s="6">
         <f t="shared" si="35"/>
@@ -40931,7 +40931,7 @@
         <v>1</v>
       </c>
       <c r="H1277" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1277" s="6">
         <f t="shared" si="35"/>
@@ -40959,7 +40959,7 @@
         <v>1</v>
       </c>
       <c r="H1278" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1278" s="6">
         <f t="shared" si="35"/>
@@ -40987,7 +40987,7 @@
         <v>1</v>
       </c>
       <c r="H1279" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1279" s="6">
         <f t="shared" si="35"/>
@@ -41043,7 +41043,7 @@
         <v>1</v>
       </c>
       <c r="H1281" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1281" s="6">
         <f t="shared" si="35"/>
@@ -41071,7 +41071,7 @@
         <v>1</v>
       </c>
       <c r="H1282" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1282" s="6">
         <f t="shared" si="35"/>
@@ -41099,7 +41099,7 @@
         <v>1</v>
       </c>
       <c r="H1283" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1283" s="6">
         <f t="shared" si="35"/>
@@ -41155,7 +41155,7 @@
         <v>1</v>
       </c>
       <c r="H1285" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1285" s="6">
         <f t="shared" si="35"/>
@@ -41183,7 +41183,7 @@
         <v>1</v>
       </c>
       <c r="H1286" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1286" s="6">
         <f t="shared" si="35"/>
@@ -41211,7 +41211,7 @@
         <v>1</v>
       </c>
       <c r="H1287" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1287" s="6">
         <f t="shared" si="35"/>
@@ -41267,7 +41267,7 @@
         <v>1</v>
       </c>
       <c r="H1289" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1289" s="6">
         <f t="shared" si="35"/>
@@ -41301,7 +41301,7 @@
         <v>1</v>
       </c>
       <c r="H1290" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1290" s="6">
         <f t="shared" si="35"/>
@@ -41335,7 +41335,7 @@
         <v>1</v>
       </c>
       <c r="H1291" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1291" s="6">
         <f t="shared" si="35"/>
@@ -41403,7 +41403,7 @@
         <v>1</v>
       </c>
       <c r="H1293" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1293" s="6">
         <f t="shared" si="35"/>
@@ -41437,7 +41437,7 @@
         <v>1</v>
       </c>
       <c r="H1294" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1294" s="6">
         <f t="shared" si="35"/>
@@ -41471,7 +41471,7 @@
         <v>1</v>
       </c>
       <c r="H1295" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1295" s="6">
         <f t="shared" si="35"/>
@@ -41539,7 +41539,7 @@
         <v>1</v>
       </c>
       <c r="H1297" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1297" s="6">
         <f t="shared" si="35"/>
@@ -41573,7 +41573,7 @@
         <v>1</v>
       </c>
       <c r="H1298" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1298" s="6">
         <f t="shared" si="35"/>
@@ -41607,7 +41607,7 @@
         <v>1</v>
       </c>
       <c r="H1299" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1299" s="6">
         <f t="shared" si="35"/>
@@ -41675,7 +41675,7 @@
         <v>1</v>
       </c>
       <c r="H1301" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1301" s="6">
         <f t="shared" si="35"/>
@@ -41709,7 +41709,7 @@
         <v>1</v>
       </c>
       <c r="H1302" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1302" s="6">
         <f t="shared" si="35"/>
@@ -41743,7 +41743,7 @@
         <v>1</v>
       </c>
       <c r="H1303" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1303" s="6">
         <f t="shared" si="35"/>
@@ -41811,7 +41811,7 @@
         <v>1</v>
       </c>
       <c r="H1305" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1305" s="6">
         <f t="shared" si="35"/>
@@ -41845,7 +41845,7 @@
         <v>1</v>
       </c>
       <c r="H1306" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1306" s="6">
         <f t="shared" si="35"/>
@@ -41879,7 +41879,7 @@
         <v>1</v>
       </c>
       <c r="H1307" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1307" s="6">
         <f t="shared" si="35"/>
@@ -41947,7 +41947,7 @@
         <v>1</v>
       </c>
       <c r="H1309" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1309" s="6">
         <f t="shared" si="35"/>
@@ -41981,7 +41981,7 @@
         <v>1</v>
       </c>
       <c r="H1310" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1310" s="6">
         <f t="shared" si="35"/>
@@ -42015,7 +42015,7 @@
         <v>1</v>
       </c>
       <c r="H1311" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1311" s="6">
         <f t="shared" si="35"/>
@@ -42083,7 +42083,7 @@
         <v>1</v>
       </c>
       <c r="H1313" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1313" s="6">
         <f t="shared" si="35"/>
@@ -42117,7 +42117,7 @@
         <v>1</v>
       </c>
       <c r="H1314" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1314" s="6">
         <f t="shared" si="35"/>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5146,8 +5146,8 @@
   <sheetPr/>
   <dimension ref="A2:K1314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1295" workbookViewId="0">
-      <selection activeCell="H1321" sqref="H1321"/>
+    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
+      <selection activeCell="O1303" sqref="O1303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1360">
   <si>
     <t>#</t>
   </si>
@@ -3458,6 +3458,33 @@
   </si>
   <si>
     <t>BOSS之家91</t>
+  </si>
+  <si>
+    <t>BOSS之家92</t>
+  </si>
+  <si>
+    <t>BOSS之家93</t>
+  </si>
+  <si>
+    <t>BOSS之家94</t>
+  </si>
+  <si>
+    <t>BOSS之家95</t>
+  </si>
+  <si>
+    <t>BOSS之家96</t>
+  </si>
+  <si>
+    <t>BOSS之家97</t>
+  </si>
+  <si>
+    <t>BOSS之家98</t>
+  </si>
+  <si>
+    <t>BOSS之家99</t>
+  </si>
+  <si>
+    <t>BOSS之家100</t>
   </si>
   <si>
     <t>小试牛刀</t>
@@ -5144,10 +5171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:K1314"/>
+  <dimension ref="A2:K1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1283" workbookViewId="0">
-      <selection activeCell="O1303" sqref="O1303"/>
+    <sheetView tabSelected="1" topLeftCell="A1106" workbookViewId="0">
+      <selection activeCell="M1131" sqref="M1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -36662,7 +36689,7 @@
         <v>6</v>
       </c>
       <c r="F1117" s="6">
-        <f t="shared" ref="F1117:F1126" si="31">F1116+2000</f>
+        <f>F1116+2000</f>
         <v>37000</v>
       </c>
       <c r="G1117" s="6">
@@ -36689,7 +36716,7 @@
         <v>6</v>
       </c>
       <c r="F1118" s="6">
-        <f t="shared" si="31"/>
+        <f>F1117+2000</f>
         <v>39000</v>
       </c>
       <c r="G1118" s="6">
@@ -36716,7 +36743,7 @@
         <v>6</v>
       </c>
       <c r="F1119" s="6">
-        <f t="shared" si="31"/>
+        <f>F1118+2000</f>
         <v>41000</v>
       </c>
       <c r="G1119" s="6">
@@ -36743,7 +36770,7 @@
         <v>6</v>
       </c>
       <c r="F1120" s="6">
-        <f t="shared" si="31"/>
+        <f>F1119+2000</f>
         <v>43000</v>
       </c>
       <c r="G1120" s="6">
@@ -36770,7 +36797,7 @@
         <v>6</v>
       </c>
       <c r="F1121" s="6">
-        <f t="shared" si="31"/>
+        <f>F1120+2000</f>
         <v>45000</v>
       </c>
       <c r="G1121" s="6">
@@ -36797,7 +36824,7 @@
         <v>6</v>
       </c>
       <c r="F1122" s="6">
-        <f t="shared" si="31"/>
+        <f>F1121+2000</f>
         <v>47000</v>
       </c>
       <c r="G1122" s="6">
@@ -36824,7 +36851,7 @@
         <v>6</v>
       </c>
       <c r="F1123" s="6">
-        <f t="shared" si="31"/>
+        <f>F1122+2000</f>
         <v>49000</v>
       </c>
       <c r="G1123" s="6">
@@ -36851,7 +36878,7 @@
         <v>6</v>
       </c>
       <c r="F1124" s="6">
-        <f t="shared" si="31"/>
+        <f>F1123+2000</f>
         <v>51000</v>
       </c>
       <c r="G1124" s="6">
@@ -36878,7 +36905,7 @@
         <v>6</v>
       </c>
       <c r="F1125" s="6">
-        <f t="shared" si="31"/>
+        <f>F1124+2000</f>
         <v>53000</v>
       </c>
       <c r="G1125" s="6">
@@ -36905,8 +36932,8 @@
         <v>6</v>
       </c>
       <c r="F1126" s="6">
-        <f t="shared" si="31"/>
-        <v>55000</v>
+        <f t="shared" ref="F1126:F1135" si="31">F1125+3000</f>
+        <v>56000</v>
       </c>
       <c r="G1126" s="6">
         <v>4</v>
@@ -36921,4700 +36948,4603 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="1128" customHeight="1" spans="3:11">
+    <row r="1127" customHeight="1" spans="3:10">
+      <c r="C1127" s="6">
+        <v>6092</v>
+      </c>
+      <c r="D1127" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1127" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1127" s="6">
+        <f t="shared" si="31"/>
+        <v>59000</v>
+      </c>
+      <c r="G1127" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1127" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1127" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1127" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1128" customHeight="1" spans="3:10">
       <c r="C1128" s="6">
-        <v>8001</v>
-      </c>
-      <c r="D1128" s="8" t="s">
-        <v>1122</v>
+        <v>6093</v>
+      </c>
+      <c r="D1128" s="6" t="s">
+        <v>1123</v>
       </c>
       <c r="E1128" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1128" s="6">
-        <v>10</v>
-      </c>
-      <c r="G1128" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1128" s="5">
-        <v>20</v>
-      </c>
-      <c r="I1128" s="5">
-        <v>100</v>
-      </c>
-      <c r="J1128" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1128" s="10" t="s">
+        <f t="shared" si="31"/>
+        <v>62000</v>
+      </c>
+      <c r="G1128" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1128" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1128" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1128" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1129" customHeight="1" spans="3:10">
+      <c r="C1129" s="6">
+        <v>6094</v>
+      </c>
+      <c r="D1129" s="6" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="1129" customHeight="1" spans="3:11">
-      <c r="C1129" s="6">
-        <v>8002</v>
-      </c>
-      <c r="D1129" s="8" t="s">
+      <c r="E1129" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1129" s="6">
+        <f t="shared" si="31"/>
+        <v>65000</v>
+      </c>
+      <c r="G1129" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1129" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1129" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1129" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1130" customHeight="1" spans="3:10">
+      <c r="C1130" s="6">
+        <v>6095</v>
+      </c>
+      <c r="D1130" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="E1129" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1129" s="6">
-        <v>30</v>
-      </c>
-      <c r="G1129" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1129" s="6">
-        <v>19</v>
-      </c>
-      <c r="I1129" s="6">
-        <v>100</v>
-      </c>
-      <c r="J1129" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1129" s="10" t="s">
+      <c r="E1130" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1130" s="6">
+        <f t="shared" si="31"/>
+        <v>68000</v>
+      </c>
+      <c r="G1130" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1130" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1130" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1130" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1131" customHeight="1" spans="3:10">
+      <c r="C1131" s="6">
+        <v>6096</v>
+      </c>
+      <c r="D1131" s="6" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="1130" customHeight="1" spans="3:11">
-      <c r="C1130" s="6">
-        <v>8003</v>
-      </c>
-      <c r="D1130" s="9" t="s">
+      <c r="E1131" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1131" s="6">
+        <f t="shared" si="31"/>
+        <v>71000</v>
+      </c>
+      <c r="G1131" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1131" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1131" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1131" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1132" customHeight="1" spans="3:10">
+      <c r="C1132" s="6">
+        <v>6097</v>
+      </c>
+      <c r="D1132" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="E1130" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1130" s="6">
-        <v>50</v>
-      </c>
-      <c r="G1130" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1130" s="6">
-        <v>8</v>
-      </c>
-      <c r="I1130" s="6">
-        <v>10</v>
-      </c>
-      <c r="J1130" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1130" s="10" t="s">
+      <c r="E1132" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1132" s="6">
+        <f t="shared" si="31"/>
+        <v>74000</v>
+      </c>
+      <c r="G1132" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1132" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1132" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1132" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1133" customHeight="1" spans="3:10">
+      <c r="C1133" s="6">
+        <v>6098</v>
+      </c>
+      <c r="D1133" s="6" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="1131" customHeight="1" spans="3:11">
-      <c r="C1131" s="6">
-        <v>8004</v>
-      </c>
-      <c r="D1131" s="8" t="s">
+      <c r="E1133" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1133" s="6">
+        <f t="shared" si="31"/>
+        <v>77000</v>
+      </c>
+      <c r="G1133" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1133" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1133" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1133" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1134" customHeight="1" spans="3:10">
+      <c r="C1134" s="6">
+        <v>6099</v>
+      </c>
+      <c r="D1134" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="E1131" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1131" s="6">
-        <v>60</v>
-      </c>
-      <c r="G1131" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1131" s="6">
-        <v>9</v>
-      </c>
-      <c r="I1131" s="6">
-        <v>50</v>
-      </c>
-      <c r="J1131" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1131" s="10" t="s">
+      <c r="E1134" s="6">
+        <v>6</v>
+      </c>
+      <c r="F1134" s="6">
+        <f t="shared" si="31"/>
+        <v>80000</v>
+      </c>
+      <c r="G1134" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1134" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1134" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1134" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1135" customHeight="1" spans="3:10">
+      <c r="C1135" s="6">
+        <v>6100</v>
+      </c>
+      <c r="D1135" s="6" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="1132" customHeight="1" spans="3:11">
-      <c r="C1132" s="6">
-        <v>8005</v>
-      </c>
-      <c r="D1132" s="8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E1132" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1132" s="6">
-        <v>70</v>
-      </c>
-      <c r="G1132" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1132" s="6">
-        <v>30</v>
-      </c>
-      <c r="I1132" s="6">
-        <v>30</v>
-      </c>
-      <c r="J1132" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1132" s="10" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1133" customHeight="1" spans="3:11">
-      <c r="C1133" s="6">
-        <v>8006</v>
-      </c>
-      <c r="D1133" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E1133" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1133" s="6">
-        <v>80</v>
-      </c>
-      <c r="G1133" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1133" s="6">
-        <v>7</v>
-      </c>
-      <c r="I1133" s="6">
-        <v>10</v>
-      </c>
-      <c r="J1133" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1133" s="10" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1134" customHeight="1" spans="3:11">
-      <c r="C1134" s="6">
-        <v>8007</v>
-      </c>
-      <c r="D1134" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E1134" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1134" s="6">
-        <v>90</v>
-      </c>
-      <c r="G1134" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1134" s="6">
-        <v>12</v>
-      </c>
-      <c r="I1134" s="6">
-        <v>30</v>
-      </c>
-      <c r="J1134" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1134" s="10" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1135" customHeight="1" spans="3:11">
-      <c r="C1135" s="6">
-        <v>8008</v>
-      </c>
-      <c r="D1135" s="8" t="s">
-        <v>1137</v>
-      </c>
       <c r="E1135" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1135" s="6">
-        <v>100</v>
-      </c>
-      <c r="G1135" s="5">
-        <v>2</v>
-      </c>
-      <c r="H1135" s="5">
+        <f t="shared" si="31"/>
+        <v>83000</v>
+      </c>
+      <c r="G1135" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1135" s="6">
         <v>0</v>
       </c>
-      <c r="I1135" s="5">
-        <v>1</v>
-      </c>
-      <c r="J1135" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="K1135" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1136" customHeight="1" spans="3:11">
-      <c r="C1136" s="6">
-        <v>8009</v>
-      </c>
-      <c r="D1136" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E1136" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1136" s="6">
-        <v>140</v>
-      </c>
-      <c r="G1136" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1136" s="5">
-        <v>20</v>
-      </c>
-      <c r="I1136" s="5">
-        <v>100</v>
-      </c>
-      <c r="J1136" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K1136" s="10" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1137" customHeight="1" spans="3:11">
-      <c r="C1137" s="6">
-        <v>8010</v>
-      </c>
-      <c r="D1137" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E1137" s="6">
-        <v>8</v>
-      </c>
-      <c r="F1137" s="6">
-        <v>150</v>
-      </c>
-      <c r="G1137" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1137" s="6">
-        <v>19</v>
-      </c>
-      <c r="I1137" s="6">
-        <v>100</v>
-      </c>
-      <c r="J1137" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K1137" s="10" t="s">
-        <v>1142</v>
+      <c r="I1135" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1135" s="6" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="1138" customHeight="1" spans="3:11">
       <c r="C1138" s="6">
-        <v>8011</v>
+        <v>8001</v>
       </c>
       <c r="D1138" s="8" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="E1138" s="6">
         <v>8</v>
       </c>
       <c r="F1138" s="6">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G1138" s="5">
         <v>1</v>
       </c>
-      <c r="H1138" s="6">
-        <v>24</v>
-      </c>
-      <c r="I1138" s="6">
+      <c r="H1138" s="5">
+        <v>20</v>
+      </c>
+      <c r="I1138" s="5">
         <v>100</v>
       </c>
       <c r="J1138" s="5" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="K1138" s="10" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1139" customHeight="1" spans="3:11">
       <c r="C1139" s="6">
-        <v>8012</v>
+        <v>8002</v>
       </c>
       <c r="D1139" s="8" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="E1139" s="6">
         <v>8</v>
       </c>
       <c r="F1139" s="6">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="G1139" s="5">
         <v>1</v>
       </c>
       <c r="H1139" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I1139" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J1139" s="5" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="K1139" s="10" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1140" customHeight="1" spans="3:11">
       <c r="C1140" s="6">
-        <v>8013</v>
-      </c>
-      <c r="D1140" s="8" t="s">
-        <v>1149</v>
+        <v>8003</v>
+      </c>
+      <c r="D1140" s="9" t="s">
+        <v>1136</v>
       </c>
       <c r="E1140" s="6">
         <v>8</v>
       </c>
       <c r="F1140" s="6">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="G1140" s="5">
         <v>1</v>
       </c>
       <c r="H1140" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I1140" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J1140" s="5" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="K1140" s="10" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1141" customHeight="1" spans="3:11">
       <c r="C1141" s="6">
-        <v>8014</v>
+        <v>8004</v>
       </c>
       <c r="D1141" s="8" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="E1141" s="6">
         <v>8</v>
       </c>
       <c r="F1141" s="6">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="G1141" s="5">
         <v>1</v>
       </c>
       <c r="H1141" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1141" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J1141" s="5" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="K1141" s="10" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1142" customHeight="1" spans="3:11">
       <c r="C1142" s="6">
-        <v>8015</v>
+        <v>8005</v>
       </c>
       <c r="D1142" s="8" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="E1142" s="6">
         <v>8</v>
       </c>
       <c r="F1142" s="6">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G1142" s="5">
-        <v>6</v>
-      </c>
-      <c r="H1142" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1142" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1142" s="6">
+        <v>30</v>
+      </c>
+      <c r="I1142" s="6">
+        <v>30</v>
       </c>
       <c r="J1142" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="K1142" s="3" t="s">
-        <v>1156</v>
+        <v>1132</v>
+      </c>
+      <c r="K1142" s="10" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1143" customHeight="1" spans="3:11">
       <c r="C1143" s="6">
-        <v>8016</v>
+        <v>8006</v>
       </c>
       <c r="D1143" s="8" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E1143" s="6">
         <v>8</v>
       </c>
       <c r="F1143" s="6">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="G1143" s="5">
         <v>1</v>
       </c>
-      <c r="H1143" s="5">
-        <v>2004</v>
-      </c>
-      <c r="I1143" s="5">
+      <c r="H1143" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1143" s="6">
         <v>10</v>
       </c>
       <c r="J1143" s="5" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="K1143" s="10" t="s">
-        <v>679</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1144" customHeight="1" spans="3:11">
       <c r="C1144" s="6">
-        <v>8017</v>
+        <v>8007</v>
       </c>
       <c r="D1144" s="8" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="E1144" s="6">
         <v>8</v>
       </c>
       <c r="F1144" s="6">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="G1144" s="5">
         <v>1</v>
       </c>
-      <c r="H1144" s="5">
-        <v>2005</v>
-      </c>
-      <c r="I1144" s="5">
-        <v>10</v>
+      <c r="H1144" s="6">
+        <v>12</v>
+      </c>
+      <c r="I1144" s="6">
+        <v>30</v>
       </c>
       <c r="J1144" s="5" t="s">
-        <v>1160</v>
+        <v>1132</v>
       </c>
       <c r="K1144" s="10" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1145" customHeight="1" spans="3:11">
       <c r="C1145" s="6">
-        <v>8018</v>
+        <v>8008</v>
       </c>
       <c r="D1145" s="8" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="E1145" s="6">
         <v>8</v>
       </c>
       <c r="F1145" s="6">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G1145" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1145" s="5">
-        <v>2006</v>
-      </c>
-      <c r="I1145" s="6">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I1145" s="5">
+        <v>1</v>
       </c>
       <c r="J1145" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K1145" s="10" t="s">
-        <v>1164</v>
+        <v>1132</v>
+      </c>
+      <c r="K1145" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="1146" customHeight="1" spans="3:11">
       <c r="C1146" s="6">
-        <v>8019</v>
-      </c>
-      <c r="D1146" s="9" t="s">
-        <v>1165</v>
+        <v>8009</v>
+      </c>
+      <c r="D1146" s="8" t="s">
+        <v>1147</v>
       </c>
       <c r="E1146" s="6">
         <v>8</v>
       </c>
       <c r="F1146" s="6">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="G1146" s="5">
         <v>1</v>
       </c>
-      <c r="H1146" s="6">
-        <v>2003</v>
-      </c>
-      <c r="I1146" s="6">
-        <v>30</v>
+      <c r="H1146" s="5">
+        <v>20</v>
+      </c>
+      <c r="I1146" s="5">
+        <v>100</v>
       </c>
       <c r="J1146" s="5" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="K1146" s="10" t="s">
-        <v>1167</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1147" customHeight="1" spans="3:11">
       <c r="C1147" s="6">
-        <v>8020</v>
-      </c>
-      <c r="D1147" s="8" t="s">
-        <v>1168</v>
+        <v>8010</v>
+      </c>
+      <c r="D1147" s="9" t="s">
+        <v>1149</v>
       </c>
       <c r="E1147" s="6">
         <v>8</v>
       </c>
       <c r="F1147" s="6">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="G1147" s="5">
         <v>1</v>
       </c>
       <c r="H1147" s="6">
-        <v>2002</v>
+        <v>19</v>
       </c>
       <c r="I1147" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J1147" s="5" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="K1147" s="10" t="s">
-        <v>1170</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1148" customHeight="1" spans="3:11">
       <c r="C1148" s="6">
-        <v>8021</v>
+        <v>8011</v>
       </c>
       <c r="D1148" s="8" t="s">
-        <v>1171</v>
+        <v>1152</v>
       </c>
       <c r="E1148" s="6">
         <v>8</v>
       </c>
       <c r="F1148" s="6">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="G1148" s="5">
         <v>1</v>
       </c>
       <c r="H1148" s="6">
-        <v>2001</v>
+        <v>24</v>
       </c>
       <c r="I1148" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J1148" s="5" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="K1148" s="10" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1149" customHeight="1" spans="3:11">
       <c r="C1149" s="6">
-        <v>8022</v>
+        <v>8012</v>
       </c>
       <c r="D1149" s="8" t="s">
-        <v>1174</v>
+        <v>1155</v>
       </c>
       <c r="E1149" s="6">
         <v>8</v>
       </c>
       <c r="F1149" s="6">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="G1149" s="5">
         <v>1</v>
       </c>
       <c r="H1149" s="6">
-        <v>2011</v>
+        <v>7</v>
       </c>
       <c r="I1149" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J1149" s="5" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="K1149" s="10" t="s">
-        <v>1176</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1150" customHeight="1" spans="3:11">
       <c r="C1150" s="6">
-        <v>8023</v>
+        <v>8013</v>
       </c>
       <c r="D1150" s="8" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
       <c r="E1150" s="6">
         <v>8</v>
       </c>
       <c r="F1150" s="6">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G1150" s="5">
         <v>1</v>
       </c>
       <c r="H1150" s="6">
-        <v>2010</v>
+        <v>12</v>
       </c>
       <c r="I1150" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J1150" s="5" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="K1150" s="10" t="s">
-        <v>1179</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1151" customHeight="1" spans="3:11">
       <c r="C1151" s="6">
-        <v>8024</v>
+        <v>8014</v>
       </c>
       <c r="D1151" s="8" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="E1151" s="6">
         <v>8</v>
       </c>
       <c r="F1151" s="6">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="G1151" s="5">
-        <v>6</v>
-      </c>
-      <c r="H1151" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1151" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1151" s="6">
+        <v>13</v>
+      </c>
+      <c r="I1151" s="6">
+        <v>30</v>
       </c>
       <c r="J1151" s="5" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K1151" s="3" t="s">
-        <v>1156</v>
+        <v>1161</v>
+      </c>
+      <c r="K1151" s="10" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="1152" customHeight="1" spans="3:11">
       <c r="C1152" s="6">
-        <v>8025</v>
+        <v>8015</v>
       </c>
       <c r="D1152" s="8" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
       <c r="E1152" s="6">
         <v>8</v>
       </c>
       <c r="F1152" s="6">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="G1152" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1152" s="5">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="I1152" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J1152" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K1152" s="10" t="s">
-        <v>679</v>
+        <v>1164</v>
+      </c>
+      <c r="K1152" s="3" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="1153" customHeight="1" spans="3:11">
       <c r="C1153" s="6">
-        <v>8026</v>
+        <v>8016</v>
       </c>
       <c r="D1153" s="8" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="E1153" s="6">
         <v>8</v>
       </c>
       <c r="F1153" s="6">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="G1153" s="5">
         <v>1</v>
       </c>
       <c r="H1153" s="5">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I1153" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J1153" s="5" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="K1153" s="10" t="s">
-        <v>1161</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1154" customHeight="1" spans="3:11">
       <c r="C1154" s="6">
-        <v>8027</v>
+        <v>8017</v>
       </c>
       <c r="D1154" s="8" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="E1154" s="6">
         <v>8</v>
       </c>
       <c r="F1154" s="6">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="G1154" s="5">
         <v>1</v>
       </c>
       <c r="H1154" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I1154" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J1154" s="5" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="K1154" s="10" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1155" customHeight="1" spans="3:11">
       <c r="C1155" s="6">
-        <v>8028</v>
-      </c>
-      <c r="D1155" s="9" t="s">
-        <v>1188</v>
+        <v>8018</v>
+      </c>
+      <c r="D1155" s="8" t="s">
+        <v>1171</v>
       </c>
       <c r="E1155" s="6">
         <v>8</v>
       </c>
       <c r="F1155" s="6">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="G1155" s="5">
         <v>1</v>
       </c>
-      <c r="H1155" s="6">
-        <v>2003</v>
+      <c r="H1155" s="5">
+        <v>2006</v>
       </c>
       <c r="I1155" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J1155" s="5" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="K1155" s="10" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1156" customHeight="1" spans="3:11">
       <c r="C1156" s="6">
-        <v>8029</v>
-      </c>
-      <c r="D1156" s="8" t="s">
-        <v>1190</v>
+        <v>8019</v>
+      </c>
+      <c r="D1156" s="9" t="s">
+        <v>1174</v>
       </c>
       <c r="E1156" s="6">
         <v>8</v>
       </c>
       <c r="F1156" s="6">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="G1156" s="5">
         <v>1</v>
       </c>
       <c r="H1156" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I1156" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J1156" s="5" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="K1156" s="10" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1157" customHeight="1" spans="3:11">
       <c r="C1157" s="6">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="D1157" s="8" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="E1157" s="6">
         <v>8</v>
       </c>
       <c r="F1157" s="6">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="G1157" s="5">
         <v>1</v>
       </c>
       <c r="H1157" s="6">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="I1157" s="6">
         <v>20</v>
       </c>
       <c r="J1157" s="5" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="K1157" s="10" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1158" customHeight="1" spans="3:11">
       <c r="C1158" s="6">
-        <v>8031</v>
+        <v>8021</v>
       </c>
       <c r="D1158" s="8" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="E1158" s="6">
         <v>8</v>
       </c>
       <c r="F1158" s="6">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="G1158" s="5">
         <v>1</v>
       </c>
       <c r="H1158" s="6">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="I1158" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J1158" s="5" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="K1158" s="10" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1159" customHeight="1" spans="3:11">
       <c r="C1159" s="6">
-        <v>8032</v>
+        <v>8022</v>
       </c>
       <c r="D1159" s="8" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="E1159" s="6">
         <v>8</v>
       </c>
       <c r="F1159" s="6">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="G1159" s="5">
         <v>1</v>
       </c>
       <c r="H1159" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I1159" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J1159" s="5" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="K1159" s="10" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1160" customHeight="1" spans="3:11">
       <c r="C1160" s="6">
-        <v>8033</v>
+        <v>8023</v>
       </c>
       <c r="D1160" s="8" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="E1160" s="6">
         <v>8</v>
       </c>
       <c r="F1160" s="6">
+        <v>290</v>
+      </c>
+      <c r="G1160" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1160" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I1160" s="6">
+        <v>10</v>
+      </c>
+      <c r="J1160" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K1160" s="10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1161" customHeight="1" spans="3:11">
+      <c r="C1161" s="6">
+        <v>8024</v>
+      </c>
+      <c r="D1161" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E1161" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1161" s="6">
+        <v>300</v>
+      </c>
+      <c r="G1161" s="5">
+        <v>6</v>
+      </c>
+      <c r="H1161" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1161" s="5">
+        <v>1</v>
+      </c>
+      <c r="J1161" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K1161" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1162" customHeight="1" spans="3:11">
+      <c r="C1162" s="6">
+        <v>8025</v>
+      </c>
+      <c r="D1162" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1162" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1162" s="6">
+        <v>320</v>
+      </c>
+      <c r="G1162" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="5">
+        <v>2004</v>
+      </c>
+      <c r="I1162" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1162" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K1162" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1163" customHeight="1" spans="3:11">
+      <c r="C1163" s="6">
+        <v>8026</v>
+      </c>
+      <c r="D1163" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1163" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1163" s="6">
+        <v>330</v>
+      </c>
+      <c r="G1163" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1163" s="5">
+        <v>2005</v>
+      </c>
+      <c r="I1163" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1163" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K1163" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1164" customHeight="1" spans="3:11">
+      <c r="C1164" s="6">
+        <v>8027</v>
+      </c>
+      <c r="D1164" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1164" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1164" s="6">
+        <v>340</v>
+      </c>
+      <c r="G1164" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1164" s="5">
+        <v>2006</v>
+      </c>
+      <c r="I1164" s="5">
+        <v>20</v>
+      </c>
+      <c r="J1164" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K1164" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1165" customHeight="1" spans="3:11">
+      <c r="C1165" s="6">
+        <v>8028</v>
+      </c>
+      <c r="D1165" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1165" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1165" s="6">
+        <v>350</v>
+      </c>
+      <c r="G1165" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1165" s="6">
+        <v>2003</v>
+      </c>
+      <c r="I1165" s="6">
+        <v>60</v>
+      </c>
+      <c r="J1165" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K1165" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1166" customHeight="1" spans="3:11">
+      <c r="C1166" s="6">
+        <v>8029</v>
+      </c>
+      <c r="D1166" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1166" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1166" s="6">
+        <v>360</v>
+      </c>
+      <c r="G1166" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1166" s="6">
+        <v>2002</v>
+      </c>
+      <c r="I1166" s="6">
+        <v>40</v>
+      </c>
+      <c r="J1166" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K1166" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1167" customHeight="1" spans="3:11">
+      <c r="C1167" s="6">
+        <v>8030</v>
+      </c>
+      <c r="D1167" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E1167" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1167" s="6">
+        <v>370</v>
+      </c>
+      <c r="G1167" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1167" s="6">
+        <v>2001</v>
+      </c>
+      <c r="I1167" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1167" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K1167" s="10" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1168" customHeight="1" spans="3:11">
+      <c r="C1168" s="6">
+        <v>8031</v>
+      </c>
+      <c r="D1168" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1168" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1168" s="6">
+        <v>380</v>
+      </c>
+      <c r="G1168" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1168" s="6">
+        <v>2011</v>
+      </c>
+      <c r="I1168" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1168" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K1168" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1169" customHeight="1" spans="3:11">
+      <c r="C1169" s="6">
+        <v>8032</v>
+      </c>
+      <c r="D1169" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E1169" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1169" s="6">
+        <v>390</v>
+      </c>
+      <c r="G1169" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1169" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I1169" s="6">
+        <v>20</v>
+      </c>
+      <c r="J1169" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K1169" s="10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1170" customHeight="1" spans="3:11">
+      <c r="C1170" s="6">
+        <v>8033</v>
+      </c>
+      <c r="D1170" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E1170" s="6">
+        <v>8</v>
+      </c>
+      <c r="F1170" s="6">
         <v>400</v>
       </c>
-      <c r="G1160" s="5">
-        <v>1</v>
-      </c>
-      <c r="H1160" s="6">
+      <c r="G1170" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="6">
         <v>2003</v>
       </c>
-      <c r="I1160" s="5">
+      <c r="I1170" s="5">
         <v>60</v>
       </c>
-      <c r="J1160" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K1160" s="10" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1165" customHeight="1" spans="3:10">
-      <c r="C1165" s="6">
+      <c r="J1170" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K1170" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1175" customHeight="1" spans="3:10">
+      <c r="C1175" s="6">
         <v>9001</v>
       </c>
-      <c r="D1165" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E1165" s="6">
+      <c r="D1175" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1175" s="6">
         <v>9</v>
       </c>
-      <c r="F1165" s="6">
+      <c r="F1175" s="6">
         <v>10</v>
       </c>
-      <c r="G1165" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1165" s="6">
+      <c r="G1175" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1175" s="6">
         <v>18</v>
       </c>
-      <c r="I1165" s="6">
+      <c r="I1175" s="6">
         <v>50</v>
       </c>
-      <c r="J1165" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1166" customHeight="1" spans="3:10">
-      <c r="C1166" s="6">
+      <c r="J1175" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1176" customHeight="1" spans="3:10">
+      <c r="C1176" s="6">
         <v>9002</v>
       </c>
-      <c r="D1166" s="6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E1166" s="6">
+      <c r="D1176" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1176" s="6">
         <v>9</v>
       </c>
-      <c r="F1166" s="6">
-        <f t="shared" ref="F1166:F1229" si="32">F1165+10</f>
+      <c r="F1176" s="6">
+        <f t="shared" ref="F1176:F1239" si="32">F1175+10</f>
         <v>20</v>
       </c>
-      <c r="G1166" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1166" s="6">
+      <c r="G1176" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1176" s="6">
         <v>19</v>
       </c>
-      <c r="I1166" s="6">
+      <c r="I1176" s="6">
         <v>50</v>
       </c>
-      <c r="J1166" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1167" customHeight="1" spans="3:10">
-      <c r="C1167" s="6">
+      <c r="J1176" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1177" customHeight="1" spans="3:10">
+      <c r="C1177" s="6">
         <v>9003</v>
       </c>
-      <c r="D1167" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1167" s="6">
+      <c r="D1177" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E1177" s="6">
         <v>9</v>
       </c>
-      <c r="F1167" s="6">
+      <c r="F1177" s="6">
         <f t="shared" si="32"/>
         <v>30</v>
       </c>
-      <c r="G1167" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1167" s="6">
+      <c r="G1177" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1177" s="6">
         <v>20</v>
       </c>
-      <c r="I1167" s="6">
+      <c r="I1177" s="6">
         <v>50</v>
       </c>
-      <c r="J1167" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1168" customHeight="1" spans="3:10">
-      <c r="C1168" s="6">
+      <c r="J1177" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1178" customHeight="1" spans="3:10">
+      <c r="C1178" s="6">
         <v>9004</v>
       </c>
-      <c r="D1168" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E1168" s="6">
+      <c r="D1178" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E1178" s="6">
         <v>9</v>
       </c>
-      <c r="F1168" s="6">
+      <c r="F1178" s="6">
         <f t="shared" si="32"/>
         <v>40</v>
       </c>
-      <c r="G1168" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1168" s="6">
+      <c r="G1178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1178" s="6">
         <v>24</v>
       </c>
-      <c r="I1168" s="6">
+      <c r="I1178" s="6">
         <v>50</v>
       </c>
-      <c r="J1168" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1169" customHeight="1" spans="3:10">
-      <c r="C1169" s="6">
+      <c r="J1178" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1179" customHeight="1" spans="3:10">
+      <c r="C1179" s="6">
         <v>9005</v>
       </c>
-      <c r="D1169" s="6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E1169" s="6">
+      <c r="D1179" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1179" s="6">
         <v>9</v>
       </c>
-      <c r="F1169" s="6">
+      <c r="F1179" s="6">
         <f t="shared" si="32"/>
         <v>50</v>
       </c>
-      <c r="G1169" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1169" s="6">
+      <c r="G1179" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1179" s="6">
         <v>18</v>
       </c>
-      <c r="I1169" s="6">
+      <c r="I1179" s="6">
         <v>60</v>
       </c>
-      <c r="J1169" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1170" customHeight="1" spans="3:10">
-      <c r="C1170" s="6">
+      <c r="J1179" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1180" customHeight="1" spans="3:10">
+      <c r="C1180" s="6">
         <v>9006</v>
       </c>
-      <c r="D1170" s="6" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E1170" s="6">
+      <c r="D1180" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E1180" s="6">
         <v>9</v>
       </c>
-      <c r="F1170" s="6">
+      <c r="F1180" s="6">
         <f t="shared" si="32"/>
         <v>60</v>
       </c>
-      <c r="G1170" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1170" s="6">
+      <c r="G1180" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1180" s="6">
         <v>19</v>
       </c>
-      <c r="I1170" s="6">
+      <c r="I1180" s="6">
         <v>60</v>
       </c>
-      <c r="J1170" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1171" customHeight="1" spans="3:10">
-      <c r="C1171" s="6">
+      <c r="J1180" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1181" customHeight="1" spans="3:10">
+      <c r="C1181" s="6">
         <v>9007</v>
       </c>
-      <c r="D1171" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E1171" s="6">
+      <c r="D1181" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1181" s="6">
         <v>9</v>
       </c>
-      <c r="F1171" s="6">
+      <c r="F1181" s="6">
         <f t="shared" si="32"/>
         <v>70</v>
       </c>
-      <c r="G1171" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1171" s="6">
+      <c r="G1181" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1181" s="6">
         <v>20</v>
       </c>
-      <c r="I1171" s="6">
+      <c r="I1181" s="6">
         <v>60</v>
       </c>
-      <c r="J1171" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1172" customHeight="1" spans="3:10">
-      <c r="C1172" s="6">
+      <c r="J1181" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1182" customHeight="1" spans="3:10">
+      <c r="C1182" s="6">
         <v>9008</v>
       </c>
-      <c r="D1172" s="6" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E1172" s="6">
+      <c r="D1182" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1182" s="6">
         <v>9</v>
       </c>
-      <c r="F1172" s="6">
+      <c r="F1182" s="6">
         <f t="shared" si="32"/>
         <v>80</v>
       </c>
-      <c r="G1172" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1172" s="6">
+      <c r="G1182" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1182" s="6">
         <v>24</v>
       </c>
-      <c r="I1172" s="6">
+      <c r="I1182" s="6">
         <v>60</v>
       </c>
-      <c r="J1172" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1173" customHeight="1" spans="3:10">
-      <c r="C1173" s="6">
+      <c r="J1182" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1183" customHeight="1" spans="3:10">
+      <c r="C1183" s="6">
         <v>9009</v>
       </c>
-      <c r="D1173" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E1173" s="6">
+      <c r="D1183" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1183" s="6">
         <v>9</v>
       </c>
-      <c r="F1173" s="6">
+      <c r="F1183" s="6">
         <f t="shared" si="32"/>
         <v>90</v>
       </c>
-      <c r="G1173" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1173" s="6">
+      <c r="G1183" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1183" s="6">
         <v>18</v>
       </c>
-      <c r="I1173" s="6">
+      <c r="I1183" s="6">
         <v>70</v>
       </c>
-      <c r="J1173" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1174" customHeight="1" spans="3:10">
-      <c r="C1174" s="6">
+      <c r="J1183" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1184" customHeight="1" spans="3:10">
+      <c r="C1184" s="6">
         <v>9010</v>
       </c>
-      <c r="D1174" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E1174" s="6">
+      <c r="D1184" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1184" s="6">
         <v>9</v>
       </c>
-      <c r="F1174" s="6">
+      <c r="F1184" s="6">
         <f t="shared" si="32"/>
         <v>100</v>
       </c>
-      <c r="G1174" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1174" s="6">
+      <c r="G1184" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1184" s="6">
         <v>19</v>
       </c>
-      <c r="I1174" s="6">
+      <c r="I1184" s="6">
         <v>70</v>
       </c>
-      <c r="J1174" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1175" customHeight="1" spans="3:10">
-      <c r="C1175" s="6">
+      <c r="J1184" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1185" customHeight="1" spans="3:10">
+      <c r="C1185" s="6">
         <v>9011</v>
       </c>
-      <c r="D1175" s="6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1175" s="6">
+      <c r="D1185" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1185" s="6">
         <v>9</v>
       </c>
-      <c r="F1175" s="6">
+      <c r="F1185" s="6">
         <f t="shared" si="32"/>
         <v>110</v>
       </c>
-      <c r="G1175" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1175" s="6">
+      <c r="G1185" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1185" s="6">
         <v>20</v>
       </c>
-      <c r="I1175" s="6">
+      <c r="I1185" s="6">
         <v>70</v>
       </c>
-      <c r="J1175" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1176" customHeight="1" spans="3:10">
-      <c r="C1176" s="6">
+      <c r="J1185" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1186" customHeight="1" spans="3:10">
+      <c r="C1186" s="6">
         <v>9012</v>
       </c>
-      <c r="D1176" s="6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E1176" s="6">
+      <c r="D1186" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1186" s="6">
         <v>9</v>
       </c>
-      <c r="F1176" s="6">
+      <c r="F1186" s="6">
         <f t="shared" si="32"/>
         <v>120</v>
       </c>
-      <c r="G1176" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1176" s="6">
+      <c r="G1186" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1186" s="6">
         <v>24</v>
       </c>
-      <c r="I1176" s="6">
+      <c r="I1186" s="6">
         <v>70</v>
       </c>
-      <c r="J1176" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1177" customHeight="1" spans="3:10">
-      <c r="C1177" s="6">
+      <c r="J1186" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1187" customHeight="1" spans="3:10">
+      <c r="C1187" s="6">
         <v>9013</v>
       </c>
-      <c r="D1177" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E1177" s="6">
+      <c r="D1187" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1187" s="6">
         <v>9</v>
       </c>
-      <c r="F1177" s="6">
+      <c r="F1187" s="6">
         <f t="shared" si="32"/>
         <v>130</v>
       </c>
-      <c r="G1177" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1177" s="6">
+      <c r="G1187" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1187" s="6">
         <v>18</v>
       </c>
-      <c r="I1177" s="6">
+      <c r="I1187" s="6">
         <v>80</v>
       </c>
-      <c r="J1177" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1178" customHeight="1" spans="3:10">
-      <c r="C1178" s="6">
+      <c r="J1187" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1188" customHeight="1" spans="3:10">
+      <c r="C1188" s="6">
         <v>9014</v>
       </c>
-      <c r="D1178" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E1178" s="6">
+      <c r="D1188" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1188" s="6">
         <v>9</v>
       </c>
-      <c r="F1178" s="6">
+      <c r="F1188" s="6">
         <f t="shared" si="32"/>
         <v>140</v>
       </c>
-      <c r="G1178" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1178" s="6">
+      <c r="G1188" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1188" s="6">
         <v>19</v>
       </c>
-      <c r="I1178" s="6">
+      <c r="I1188" s="6">
         <v>80</v>
       </c>
-      <c r="J1178" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1179" customHeight="1" spans="3:10">
-      <c r="C1179" s="6">
+      <c r="J1188" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1189" customHeight="1" spans="3:10">
+      <c r="C1189" s="6">
         <v>9015</v>
       </c>
-      <c r="D1179" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1179" s="6">
+      <c r="D1189" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1189" s="6">
         <v>9</v>
       </c>
-      <c r="F1179" s="6">
+      <c r="F1189" s="6">
         <f t="shared" si="32"/>
         <v>150</v>
       </c>
-      <c r="G1179" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1179" s="6">
+      <c r="G1189" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1189" s="6">
         <v>20</v>
       </c>
-      <c r="I1179" s="6">
+      <c r="I1189" s="6">
         <v>80</v>
       </c>
-      <c r="J1179" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1180" customHeight="1" spans="3:10">
-      <c r="C1180" s="6">
+      <c r="J1189" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1190" customHeight="1" spans="3:10">
+      <c r="C1190" s="6">
         <v>9016</v>
       </c>
-      <c r="D1180" s="6" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E1180" s="6">
+      <c r="D1190" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E1190" s="6">
         <v>9</v>
       </c>
-      <c r="F1180" s="6">
+      <c r="F1190" s="6">
         <f t="shared" si="32"/>
         <v>160</v>
       </c>
-      <c r="G1180" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1180" s="6">
+      <c r="G1190" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1190" s="6">
         <v>24</v>
       </c>
-      <c r="I1180" s="6">
+      <c r="I1190" s="6">
         <v>80</v>
       </c>
-      <c r="J1180" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1181" customHeight="1" spans="3:10">
-      <c r="C1181" s="6">
+      <c r="J1190" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1191" customHeight="1" spans="3:10">
+      <c r="C1191" s="6">
         <v>9017</v>
       </c>
-      <c r="D1181" s="6" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E1181" s="6">
+      <c r="D1191" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E1191" s="6">
         <v>9</v>
       </c>
-      <c r="F1181" s="6">
+      <c r="F1191" s="6">
         <f t="shared" si="32"/>
         <v>170</v>
       </c>
-      <c r="G1181" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1181" s="6">
+      <c r="G1191" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1191" s="6">
         <v>18</v>
       </c>
-      <c r="I1181" s="6">
+      <c r="I1191" s="6">
         <v>90</v>
       </c>
-      <c r="J1181" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1182" customHeight="1" spans="3:10">
-      <c r="C1182" s="6">
+      <c r="J1191" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1192" customHeight="1" spans="3:10">
+      <c r="C1192" s="6">
         <v>9018</v>
       </c>
-      <c r="D1182" s="6" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E1182" s="6">
+      <c r="D1192" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E1192" s="6">
         <v>9</v>
       </c>
-      <c r="F1182" s="6">
+      <c r="F1192" s="6">
         <f t="shared" si="32"/>
         <v>180</v>
       </c>
-      <c r="G1182" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1182" s="6">
+      <c r="G1192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1192" s="6">
         <v>19</v>
       </c>
-      <c r="I1182" s="6">
+      <c r="I1192" s="6">
         <v>90</v>
       </c>
-      <c r="J1182" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1183" customHeight="1" spans="3:10">
-      <c r="C1183" s="6">
+      <c r="J1192" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1193" customHeight="1" spans="3:10">
+      <c r="C1193" s="6">
         <v>9019</v>
       </c>
-      <c r="D1183" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E1183" s="6">
+      <c r="D1193" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E1193" s="6">
         <v>9</v>
       </c>
-      <c r="F1183" s="6">
+      <c r="F1193" s="6">
         <f t="shared" si="32"/>
         <v>190</v>
       </c>
-      <c r="G1183" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1183" s="6">
+      <c r="G1193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1193" s="6">
         <v>20</v>
       </c>
-      <c r="I1183" s="6">
+      <c r="I1193" s="6">
         <v>90</v>
       </c>
-      <c r="J1183" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1184" customHeight="1" spans="3:10">
-      <c r="C1184" s="6">
+      <c r="J1193" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1194" customHeight="1" spans="3:10">
+      <c r="C1194" s="6">
         <v>9020</v>
       </c>
-      <c r="D1184" s="6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E1184" s="6">
+      <c r="D1194" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E1194" s="6">
         <v>9</v>
       </c>
-      <c r="F1184" s="6">
+      <c r="F1194" s="6">
         <f t="shared" si="32"/>
         <v>200</v>
       </c>
-      <c r="G1184" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1184" s="6">
+      <c r="G1194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1194" s="6">
         <v>24</v>
       </c>
-      <c r="I1184" s="6">
+      <c r="I1194" s="6">
         <v>90</v>
       </c>
-      <c r="J1184" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1185" customHeight="1" spans="3:10">
-      <c r="C1185" s="6">
+      <c r="J1194" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1195" customHeight="1" spans="3:10">
+      <c r="C1195" s="6">
         <v>9021</v>
       </c>
-      <c r="D1185" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E1185" s="6">
+      <c r="D1195" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E1195" s="6">
         <v>9</v>
       </c>
-      <c r="F1185" s="6">
+      <c r="F1195" s="6">
         <f t="shared" si="32"/>
         <v>210</v>
       </c>
-      <c r="G1185" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1185" s="6">
+      <c r="G1195" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1195" s="6">
         <v>18</v>
       </c>
-      <c r="I1185" s="6">
+      <c r="I1195" s="6">
         <v>100</v>
       </c>
-      <c r="J1185" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1186" customHeight="1" spans="3:10">
-      <c r="C1186" s="6">
+      <c r="J1195" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1196" customHeight="1" spans="3:10">
+      <c r="C1196" s="6">
         <v>9022</v>
       </c>
-      <c r="D1186" s="6" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E1186" s="6">
+      <c r="D1196" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E1196" s="6">
         <v>9</v>
       </c>
-      <c r="F1186" s="6">
+      <c r="F1196" s="6">
         <f t="shared" si="32"/>
         <v>220</v>
       </c>
-      <c r="G1186" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1186" s="6">
+      <c r="G1196" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1196" s="6">
         <v>19</v>
       </c>
-      <c r="I1186" s="6">
+      <c r="I1196" s="6">
         <v>100</v>
       </c>
-      <c r="J1186" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1187" customHeight="1" spans="3:10">
-      <c r="C1187" s="6">
+      <c r="J1196" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1197" customHeight="1" spans="3:10">
+      <c r="C1197" s="6">
         <v>9023</v>
       </c>
-      <c r="D1187" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E1187" s="6">
+      <c r="D1197" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E1197" s="6">
         <v>9</v>
       </c>
-      <c r="F1187" s="6">
+      <c r="F1197" s="6">
         <f t="shared" si="32"/>
         <v>230</v>
       </c>
-      <c r="G1187" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1187" s="6">
+      <c r="G1197" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1197" s="6">
         <v>20</v>
       </c>
-      <c r="I1187" s="6">
+      <c r="I1197" s="6">
         <v>100</v>
       </c>
-      <c r="J1187" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1188" customHeight="1" spans="3:10">
-      <c r="C1188" s="6">
+      <c r="J1197" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1198" customHeight="1" spans="3:10">
+      <c r="C1198" s="6">
         <v>9024</v>
       </c>
-      <c r="D1188" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E1188" s="6">
+      <c r="D1198" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E1198" s="6">
         <v>9</v>
       </c>
-      <c r="F1188" s="6">
+      <c r="F1198" s="6">
         <f t="shared" si="32"/>
         <v>240</v>
       </c>
-      <c r="G1188" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1188" s="6">
+      <c r="G1198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1198" s="6">
         <v>24</v>
       </c>
-      <c r="I1188" s="6">
+      <c r="I1198" s="6">
         <v>100</v>
       </c>
-      <c r="J1188" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1189" customHeight="1" spans="3:10">
-      <c r="C1189" s="6">
+      <c r="J1198" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1199" customHeight="1" spans="3:10">
+      <c r="C1199" s="6">
         <v>9025</v>
       </c>
-      <c r="D1189" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E1189" s="6">
+      <c r="D1199" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E1199" s="6">
         <v>9</v>
       </c>
-      <c r="F1189" s="6">
+      <c r="F1199" s="6">
         <f t="shared" si="32"/>
         <v>250</v>
       </c>
-      <c r="G1189" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1189" s="6">
+      <c r="G1199" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1199" s="6">
         <v>18</v>
       </c>
-      <c r="I1189" s="6">
+      <c r="I1199" s="6">
         <v>110</v>
       </c>
-      <c r="J1189" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1190" customHeight="1" spans="3:10">
-      <c r="C1190" s="6">
+      <c r="J1199" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1200" customHeight="1" spans="3:10">
+      <c r="C1200" s="6">
         <v>9026</v>
       </c>
-      <c r="D1190" s="6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E1190" s="6">
+      <c r="D1200" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1200" s="6">
         <v>9</v>
       </c>
-      <c r="F1190" s="6">
+      <c r="F1200" s="6">
         <f t="shared" si="32"/>
         <v>260</v>
       </c>
-      <c r="G1190" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1190" s="6">
+      <c r="G1200" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1200" s="6">
         <v>19</v>
       </c>
-      <c r="I1190" s="6">
+      <c r="I1200" s="6">
         <v>110</v>
       </c>
-      <c r="J1190" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1191" customHeight="1" spans="3:10">
-      <c r="C1191" s="6">
+      <c r="J1200" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1201" customHeight="1" spans="3:10">
+      <c r="C1201" s="6">
         <v>9027</v>
       </c>
-      <c r="D1191" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E1191" s="6">
+      <c r="D1201" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1201" s="6">
         <v>9</v>
       </c>
-      <c r="F1191" s="6">
+      <c r="F1201" s="6">
         <f t="shared" si="32"/>
         <v>270</v>
       </c>
-      <c r="G1191" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1191" s="6">
+      <c r="G1201" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1201" s="6">
         <v>20</v>
       </c>
-      <c r="I1191" s="6">
+      <c r="I1201" s="6">
         <v>110</v>
       </c>
-      <c r="J1191" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1192" customHeight="1" spans="3:10">
-      <c r="C1192" s="6">
+      <c r="J1201" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1202" customHeight="1" spans="3:10">
+      <c r="C1202" s="6">
         <v>9028</v>
       </c>
-      <c r="D1192" s="6" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E1192" s="6">
+      <c r="D1202" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1202" s="6">
         <v>9</v>
       </c>
-      <c r="F1192" s="6">
+      <c r="F1202" s="6">
         <f t="shared" si="32"/>
         <v>280</v>
       </c>
-      <c r="G1192" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1192" s="6">
+      <c r="G1202" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1202" s="6">
         <v>24</v>
       </c>
-      <c r="I1192" s="6">
+      <c r="I1202" s="6">
         <v>110</v>
       </c>
-      <c r="J1192" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1193" customHeight="1" spans="3:10">
-      <c r="C1193" s="6">
+      <c r="J1202" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1203" customHeight="1" spans="3:10">
+      <c r="C1203" s="6">
         <v>9029</v>
       </c>
-      <c r="D1193" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E1193" s="6">
+      <c r="D1203" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E1203" s="6">
         <v>9</v>
       </c>
-      <c r="F1193" s="6">
+      <c r="F1203" s="6">
         <f t="shared" si="32"/>
         <v>290</v>
       </c>
-      <c r="G1193" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1193" s="6">
+      <c r="G1203" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1203" s="6">
         <v>18</v>
       </c>
-      <c r="I1193" s="6">
+      <c r="I1203" s="6">
         <v>120</v>
       </c>
-      <c r="J1193" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1194" customHeight="1" spans="3:10">
-      <c r="C1194" s="6">
+      <c r="J1203" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1204" customHeight="1" spans="3:10">
+      <c r="C1204" s="6">
         <v>9030</v>
       </c>
-      <c r="D1194" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E1194" s="6">
+      <c r="D1204" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1204" s="6">
         <v>9</v>
       </c>
-      <c r="F1194" s="6">
+      <c r="F1204" s="6">
         <f t="shared" si="32"/>
         <v>300</v>
       </c>
-      <c r="G1194" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1194" s="6">
+      <c r="G1204" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1204" s="6">
         <v>19</v>
       </c>
-      <c r="I1194" s="6">
+      <c r="I1204" s="6">
         <v>120</v>
       </c>
-      <c r="J1194" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1195" customHeight="1" spans="3:10">
-      <c r="C1195" s="6">
+      <c r="J1204" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1205" customHeight="1" spans="3:10">
+      <c r="C1205" s="6">
         <v>9031</v>
       </c>
-      <c r="D1195" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E1195" s="6">
+      <c r="D1205" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E1205" s="6">
         <v>9</v>
       </c>
-      <c r="F1195" s="6">
+      <c r="F1205" s="6">
         <f t="shared" si="32"/>
         <v>310</v>
       </c>
-      <c r="G1195" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1195" s="6">
+      <c r="G1205" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1205" s="6">
         <v>20</v>
       </c>
-      <c r="I1195" s="6">
+      <c r="I1205" s="6">
         <v>120</v>
       </c>
-      <c r="J1195" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1196" customHeight="1" spans="3:10">
-      <c r="C1196" s="6">
+      <c r="J1205" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1206" customHeight="1" spans="3:10">
+      <c r="C1206" s="6">
         <v>9032</v>
       </c>
-      <c r="D1196" s="6" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E1196" s="6">
+      <c r="D1206" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E1206" s="6">
         <v>9</v>
       </c>
-      <c r="F1196" s="6">
+      <c r="F1206" s="6">
         <f t="shared" si="32"/>
         <v>320</v>
       </c>
-      <c r="G1196" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1196" s="6">
+      <c r="G1206" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1206" s="6">
         <v>24</v>
       </c>
-      <c r="I1196" s="6">
+      <c r="I1206" s="6">
         <v>120</v>
       </c>
-      <c r="J1196" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1197" customHeight="1" spans="3:10">
-      <c r="C1197" s="6">
+      <c r="J1206" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1207" customHeight="1" spans="3:10">
+      <c r="C1207" s="6">
         <v>9033</v>
       </c>
-      <c r="D1197" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E1197" s="6">
+      <c r="D1207" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1207" s="6">
         <v>9</v>
       </c>
-      <c r="F1197" s="6">
+      <c r="F1207" s="6">
         <f t="shared" si="32"/>
         <v>330</v>
       </c>
-      <c r="G1197" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1197" s="6">
+      <c r="G1207" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1207" s="6">
         <v>18</v>
       </c>
-      <c r="I1197" s="6">
+      <c r="I1207" s="6">
         <v>130</v>
       </c>
-      <c r="J1197" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1198" customHeight="1" spans="3:10">
-      <c r="C1198" s="6">
+      <c r="J1207" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1208" customHeight="1" spans="3:10">
+      <c r="C1208" s="6">
         <v>9034</v>
       </c>
-      <c r="D1198" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E1198" s="6">
+      <c r="D1208" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E1208" s="6">
         <v>9</v>
       </c>
-      <c r="F1198" s="6">
+      <c r="F1208" s="6">
         <f t="shared" si="32"/>
         <v>340</v>
       </c>
-      <c r="G1198" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1198" s="6">
+      <c r="G1208" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1208" s="6">
         <v>19</v>
       </c>
-      <c r="I1198" s="6">
+      <c r="I1208" s="6">
         <v>130</v>
       </c>
-      <c r="J1198" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1199" customHeight="1" spans="3:10">
-      <c r="C1199" s="6">
+      <c r="J1208" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1209" customHeight="1" spans="3:10">
+      <c r="C1209" s="6">
         <v>9035</v>
       </c>
-      <c r="D1199" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E1199" s="6">
+      <c r="D1209" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1209" s="6">
         <v>9</v>
       </c>
-      <c r="F1199" s="6">
+      <c r="F1209" s="6">
         <f t="shared" si="32"/>
         <v>350</v>
       </c>
-      <c r="G1199" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1199" s="6">
+      <c r="G1209" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1209" s="6">
         <v>20</v>
       </c>
-      <c r="I1199" s="6">
+      <c r="I1209" s="6">
         <v>130</v>
       </c>
-      <c r="J1199" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1200" customHeight="1" spans="3:10">
-      <c r="C1200" s="6">
+      <c r="J1209" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1210" customHeight="1" spans="3:10">
+      <c r="C1210" s="6">
         <v>9036</v>
       </c>
-      <c r="D1200" s="6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1200" s="6">
+      <c r="D1210" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1210" s="6">
         <v>9</v>
       </c>
-      <c r="F1200" s="6">
+      <c r="F1210" s="6">
         <f t="shared" si="32"/>
         <v>360</v>
       </c>
-      <c r="G1200" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1200" s="6">
+      <c r="G1210" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1210" s="6">
         <v>24</v>
       </c>
-      <c r="I1200" s="6">
+      <c r="I1210" s="6">
         <v>130</v>
       </c>
-      <c r="J1200" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1201" customHeight="1" spans="3:10">
-      <c r="C1201" s="6">
+      <c r="J1210" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1211" customHeight="1" spans="3:10">
+      <c r="C1211" s="6">
         <v>9037</v>
       </c>
-      <c r="D1201" s="6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E1201" s="6">
+      <c r="D1211" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E1211" s="6">
         <v>9</v>
       </c>
-      <c r="F1201" s="6">
+      <c r="F1211" s="6">
         <f t="shared" si="32"/>
         <v>370</v>
       </c>
-      <c r="G1201" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1201" s="6">
+      <c r="G1211" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1211" s="6">
         <v>18</v>
       </c>
-      <c r="I1201" s="6">
+      <c r="I1211" s="6">
         <v>140</v>
       </c>
-      <c r="J1201" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1202" customHeight="1" spans="3:10">
-      <c r="C1202" s="6">
+      <c r="J1211" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" customHeight="1" spans="3:10">
+      <c r="C1212" s="6">
         <v>9038</v>
       </c>
-      <c r="D1202" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E1202" s="6">
+      <c r="D1212" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E1212" s="6">
         <v>9</v>
       </c>
-      <c r="F1202" s="6">
+      <c r="F1212" s="6">
         <f t="shared" si="32"/>
         <v>380</v>
       </c>
-      <c r="G1202" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1202" s="6">
+      <c r="G1212" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1212" s="6">
         <v>19</v>
       </c>
-      <c r="I1202" s="6">
+      <c r="I1212" s="6">
         <v>140</v>
       </c>
-      <c r="J1202" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1203" customHeight="1" spans="3:10">
-      <c r="C1203" s="6">
+      <c r="J1212" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1213" customHeight="1" spans="3:10">
+      <c r="C1213" s="6">
         <v>9039</v>
       </c>
-      <c r="D1203" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E1203" s="6">
+      <c r="D1213" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E1213" s="6">
         <v>9</v>
       </c>
-      <c r="F1203" s="6">
+      <c r="F1213" s="6">
         <f t="shared" si="32"/>
         <v>390</v>
       </c>
-      <c r="G1203" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1203" s="6">
+      <c r="G1213" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1213" s="6">
         <v>20</v>
       </c>
-      <c r="I1203" s="6">
+      <c r="I1213" s="6">
         <v>140</v>
       </c>
-      <c r="J1203" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1204" customHeight="1" spans="3:10">
-      <c r="C1204" s="6">
+      <c r="J1213" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1214" customHeight="1" spans="3:10">
+      <c r="C1214" s="6">
         <v>9040</v>
       </c>
-      <c r="D1204" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E1204" s="6">
+      <c r="D1214" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E1214" s="6">
         <v>9</v>
       </c>
-      <c r="F1204" s="6">
+      <c r="F1214" s="6">
         <f t="shared" si="32"/>
         <v>400</v>
       </c>
-      <c r="G1204" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1204" s="6">
+      <c r="G1214" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1214" s="6">
         <v>24</v>
       </c>
-      <c r="I1204" s="6">
+      <c r="I1214" s="6">
         <v>140</v>
       </c>
-      <c r="J1204" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1205" customHeight="1" spans="3:10">
-      <c r="C1205" s="6">
+      <c r="J1214" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1215" customHeight="1" spans="3:10">
+      <c r="C1215" s="6">
         <v>9041</v>
       </c>
-      <c r="D1205" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E1205" s="6">
+      <c r="D1215" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1215" s="6">
         <v>9</v>
       </c>
-      <c r="F1205" s="6">
+      <c r="F1215" s="6">
         <f t="shared" si="32"/>
         <v>410</v>
       </c>
-      <c r="G1205" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1205" s="6">
+      <c r="G1215" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1215" s="6">
         <v>18</v>
       </c>
-      <c r="I1205" s="6">
+      <c r="I1215" s="6">
         <v>150</v>
       </c>
-      <c r="J1205" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1206" customHeight="1" spans="3:10">
-      <c r="C1206" s="6">
+      <c r="J1215" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1216" customHeight="1" spans="3:10">
+      <c r="C1216" s="6">
         <v>9042</v>
       </c>
-      <c r="D1206" s="6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E1206" s="6">
+      <c r="D1216" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E1216" s="6">
         <v>9</v>
       </c>
-      <c r="F1206" s="6">
+      <c r="F1216" s="6">
         <f t="shared" si="32"/>
         <v>420</v>
       </c>
-      <c r="G1206" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1206" s="6">
+      <c r="G1216" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1216" s="6">
         <v>19</v>
       </c>
-      <c r="I1206" s="6">
+      <c r="I1216" s="6">
         <v>150</v>
       </c>
-      <c r="J1206" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1207" customHeight="1" spans="3:10">
-      <c r="C1207" s="6">
+      <c r="J1216" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1217" customHeight="1" spans="3:10">
+      <c r="C1217" s="6">
         <v>9043</v>
       </c>
-      <c r="D1207" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E1207" s="6">
+      <c r="D1217" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E1217" s="6">
         <v>9</v>
       </c>
-      <c r="F1207" s="6">
+      <c r="F1217" s="6">
         <f t="shared" si="32"/>
         <v>430</v>
       </c>
-      <c r="G1207" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1207" s="6">
+      <c r="G1217" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1217" s="6">
         <v>20</v>
       </c>
-      <c r="I1207" s="6">
+      <c r="I1217" s="6">
         <v>150</v>
       </c>
-      <c r="J1207" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1208" customHeight="1" spans="3:10">
-      <c r="C1208" s="6">
+      <c r="J1217" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1218" customHeight="1" spans="3:10">
+      <c r="C1218" s="6">
         <v>9044</v>
       </c>
-      <c r="D1208" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E1208" s="6">
+      <c r="D1218" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E1218" s="6">
         <v>9</v>
       </c>
-      <c r="F1208" s="6">
+      <c r="F1218" s="6">
         <f t="shared" si="32"/>
         <v>440</v>
       </c>
-      <c r="G1208" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1208" s="6">
+      <c r="G1218" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1218" s="6">
         <v>24</v>
       </c>
-      <c r="I1208" s="6">
+      <c r="I1218" s="6">
         <v>150</v>
       </c>
-      <c r="J1208" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1209" customHeight="1" spans="3:10">
-      <c r="C1209" s="6">
+      <c r="J1218" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1219" customHeight="1" spans="3:10">
+      <c r="C1219" s="6">
         <v>9045</v>
       </c>
-      <c r="D1209" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E1209" s="6">
+      <c r="D1219" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E1219" s="6">
         <v>9</v>
       </c>
-      <c r="F1209" s="6">
+      <c r="F1219" s="6">
         <f t="shared" si="32"/>
         <v>450</v>
       </c>
-      <c r="G1209" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1209" s="6">
+      <c r="G1219" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1219" s="6">
         <v>18</v>
       </c>
-      <c r="I1209" s="6">
+      <c r="I1219" s="6">
         <v>160</v>
       </c>
-      <c r="J1209" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1210" customHeight="1" spans="3:10">
-      <c r="C1210" s="6">
+      <c r="J1219" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1220" customHeight="1" spans="3:10">
+      <c r="C1220" s="6">
         <v>9046</v>
       </c>
-      <c r="D1210" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E1210" s="6">
+      <c r="D1220" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1220" s="6">
         <v>9</v>
       </c>
-      <c r="F1210" s="6">
+      <c r="F1220" s="6">
         <f t="shared" si="32"/>
         <v>460</v>
       </c>
-      <c r="G1210" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1210" s="6">
+      <c r="G1220" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1220" s="6">
         <v>19</v>
       </c>
-      <c r="I1210" s="6">
+      <c r="I1220" s="6">
         <v>160</v>
       </c>
-      <c r="J1210" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1211" customHeight="1" spans="3:10">
-      <c r="C1211" s="6">
+      <c r="J1220" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1221" customHeight="1" spans="3:10">
+      <c r="C1221" s="6">
         <v>9047</v>
       </c>
-      <c r="D1211" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E1211" s="6">
+      <c r="D1221" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E1221" s="6">
         <v>9</v>
       </c>
-      <c r="F1211" s="6">
+      <c r="F1221" s="6">
         <f t="shared" si="32"/>
         <v>470</v>
       </c>
-      <c r="G1211" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1211" s="6">
+      <c r="G1221" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1221" s="6">
         <v>20</v>
       </c>
-      <c r="I1211" s="6">
+      <c r="I1221" s="6">
         <v>160</v>
       </c>
-      <c r="J1211" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1212" customHeight="1" spans="3:10">
-      <c r="C1212" s="6">
+      <c r="J1221" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1222" customHeight="1" spans="3:10">
+      <c r="C1222" s="6">
         <v>9048</v>
       </c>
-      <c r="D1212" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E1212" s="6">
+      <c r="D1222" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E1222" s="6">
         <v>9</v>
       </c>
-      <c r="F1212" s="6">
+      <c r="F1222" s="6">
         <f t="shared" si="32"/>
         <v>480</v>
       </c>
-      <c r="G1212" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1212" s="6">
+      <c r="G1222" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1222" s="6">
         <v>24</v>
       </c>
-      <c r="I1212" s="6">
+      <c r="I1222" s="6">
         <v>160</v>
       </c>
-      <c r="J1212" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1213" customHeight="1" spans="3:10">
-      <c r="C1213" s="6">
+      <c r="J1222" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1223" customHeight="1" spans="3:10">
+      <c r="C1223" s="6">
         <v>9049</v>
       </c>
-      <c r="D1213" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E1213" s="6">
+      <c r="D1223" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E1223" s="6">
         <v>9</v>
       </c>
-      <c r="F1213" s="6">
+      <c r="F1223" s="6">
         <f t="shared" si="32"/>
         <v>490</v>
       </c>
-      <c r="G1213" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1213" s="6">
+      <c r="G1223" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1223" s="6">
         <v>18</v>
       </c>
-      <c r="I1213" s="6">
+      <c r="I1223" s="6">
         <v>170</v>
       </c>
-      <c r="J1213" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1214" customHeight="1" spans="3:10">
-      <c r="C1214" s="6">
+      <c r="J1223" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1224" customHeight="1" spans="3:10">
+      <c r="C1224" s="6">
         <v>9050</v>
       </c>
-      <c r="D1214" s="6" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E1214" s="6">
+      <c r="D1224" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E1224" s="6">
         <v>9</v>
       </c>
-      <c r="F1214" s="6">
+      <c r="F1224" s="6">
         <f t="shared" si="32"/>
         <v>500</v>
       </c>
-      <c r="G1214" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1214" s="6">
+      <c r="G1224" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1224" s="6">
         <v>19</v>
       </c>
-      <c r="I1214" s="6">
+      <c r="I1224" s="6">
         <v>170</v>
       </c>
-      <c r="J1214" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1215" customHeight="1" spans="3:10">
-      <c r="C1215" s="6">
+      <c r="J1224" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1225" customHeight="1" spans="3:10">
+      <c r="C1225" s="6">
         <v>9051</v>
       </c>
-      <c r="D1215" s="6" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E1215" s="6">
+      <c r="D1225" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1225" s="6">
         <v>9</v>
       </c>
-      <c r="F1215" s="6">
+      <c r="F1225" s="6">
         <f t="shared" si="32"/>
         <v>510</v>
       </c>
-      <c r="G1215" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1215" s="6">
+      <c r="G1225" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1225" s="6">
         <v>20</v>
       </c>
-      <c r="I1215" s="6">
+      <c r="I1225" s="6">
         <v>170</v>
       </c>
-      <c r="J1215" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1216" customHeight="1" spans="3:10">
-      <c r="C1216" s="6">
+      <c r="J1225" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1226" customHeight="1" spans="3:10">
+      <c r="C1226" s="6">
         <v>9052</v>
       </c>
-      <c r="D1216" s="6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E1216" s="6">
+      <c r="D1226" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E1226" s="6">
         <v>9</v>
       </c>
-      <c r="F1216" s="6">
+      <c r="F1226" s="6">
         <f t="shared" si="32"/>
         <v>520</v>
       </c>
-      <c r="G1216" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1216" s="6">
+      <c r="G1226" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1226" s="6">
         <v>24</v>
       </c>
-      <c r="I1216" s="6">
+      <c r="I1226" s="6">
         <v>170</v>
       </c>
-      <c r="J1216" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1217" customHeight="1" spans="3:10">
-      <c r="C1217" s="6">
+      <c r="J1226" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1227" customHeight="1" spans="3:10">
+      <c r="C1227" s="6">
         <v>9053</v>
       </c>
-      <c r="D1217" s="6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E1217" s="6">
+      <c r="D1227" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E1227" s="6">
         <v>9</v>
       </c>
-      <c r="F1217" s="6">
+      <c r="F1227" s="6">
         <f t="shared" si="32"/>
         <v>530</v>
       </c>
-      <c r="G1217" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1217" s="6">
+      <c r="G1227" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1227" s="6">
         <v>18</v>
       </c>
-      <c r="I1217" s="6">
+      <c r="I1227" s="6">
         <v>180</v>
       </c>
-      <c r="J1217" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1218" customHeight="1" spans="3:10">
-      <c r="C1218" s="6">
+      <c r="J1227" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1228" customHeight="1" spans="3:10">
+      <c r="C1228" s="6">
         <v>9054</v>
       </c>
-      <c r="D1218" s="6" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E1218" s="6">
+      <c r="D1228" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1228" s="6">
         <v>9</v>
       </c>
-      <c r="F1218" s="6">
+      <c r="F1228" s="6">
         <f t="shared" si="32"/>
         <v>540</v>
       </c>
-      <c r="G1218" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1218" s="6">
+      <c r="G1228" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1228" s="6">
         <v>19</v>
       </c>
-      <c r="I1218" s="6">
+      <c r="I1228" s="6">
         <v>180</v>
       </c>
-      <c r="J1218" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1219" customHeight="1" spans="3:10">
-      <c r="C1219" s="6">
+      <c r="J1228" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1229" customHeight="1" spans="3:10">
+      <c r="C1229" s="6">
         <v>9055</v>
       </c>
-      <c r="D1219" s="6" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E1219" s="6">
+      <c r="D1229" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E1229" s="6">
         <v>9</v>
       </c>
-      <c r="F1219" s="6">
+      <c r="F1229" s="6">
         <f t="shared" si="32"/>
         <v>550</v>
       </c>
-      <c r="G1219" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1219" s="6">
+      <c r="G1229" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1229" s="6">
         <v>20</v>
       </c>
-      <c r="I1219" s="6">
+      <c r="I1229" s="6">
         <v>180</v>
       </c>
-      <c r="J1219" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1220" customHeight="1" spans="3:10">
-      <c r="C1220" s="6">
+      <c r="J1229" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1230" customHeight="1" spans="3:10">
+      <c r="C1230" s="6">
         <v>9056</v>
       </c>
-      <c r="D1220" s="6" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E1220" s="6">
+      <c r="D1230" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E1230" s="6">
         <v>9</v>
       </c>
-      <c r="F1220" s="6">
+      <c r="F1230" s="6">
         <f t="shared" si="32"/>
         <v>560</v>
       </c>
-      <c r="G1220" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1220" s="6">
+      <c r="G1230" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1230" s="6">
         <v>24</v>
       </c>
-      <c r="I1220" s="6">
+      <c r="I1230" s="6">
         <v>180</v>
       </c>
-      <c r="J1220" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1221" customHeight="1" spans="3:10">
-      <c r="C1221" s="6">
+      <c r="J1230" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1231" customHeight="1" spans="3:10">
+      <c r="C1231" s="6">
         <v>9057</v>
       </c>
-      <c r="D1221" s="6" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E1221" s="6">
+      <c r="D1231" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E1231" s="6">
         <v>9</v>
       </c>
-      <c r="F1221" s="6">
+      <c r="F1231" s="6">
         <f t="shared" si="32"/>
         <v>570</v>
       </c>
-      <c r="G1221" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1221" s="6">
+      <c r="G1231" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1231" s="6">
         <v>18</v>
       </c>
-      <c r="I1221" s="6">
+      <c r="I1231" s="6">
         <v>190</v>
       </c>
-      <c r="J1221" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1222" customHeight="1" spans="3:10">
-      <c r="C1222" s="6">
+      <c r="J1231" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1232" customHeight="1" spans="3:10">
+      <c r="C1232" s="6">
         <v>9058</v>
       </c>
-      <c r="D1222" s="6" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E1222" s="6">
+      <c r="D1232" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1232" s="6">
         <v>9</v>
       </c>
-      <c r="F1222" s="6">
+      <c r="F1232" s="6">
         <f t="shared" si="32"/>
         <v>580</v>
       </c>
-      <c r="G1222" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1222" s="6">
+      <c r="G1232" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1232" s="6">
         <v>19</v>
       </c>
-      <c r="I1222" s="6">
+      <c r="I1232" s="6">
         <v>190</v>
       </c>
-      <c r="J1222" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1223" customHeight="1" spans="3:10">
-      <c r="C1223" s="6">
+      <c r="J1232" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1233" customHeight="1" spans="3:10">
+      <c r="C1233" s="6">
         <v>9059</v>
       </c>
-      <c r="D1223" s="6" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E1223" s="6">
+      <c r="D1233" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E1233" s="6">
         <v>9</v>
       </c>
-      <c r="F1223" s="6">
+      <c r="F1233" s="6">
         <f t="shared" si="32"/>
         <v>590</v>
       </c>
-      <c r="G1223" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1223" s="6">
+      <c r="G1233" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1233" s="6">
         <v>20</v>
       </c>
-      <c r="I1223" s="6">
+      <c r="I1233" s="6">
         <v>190</v>
       </c>
-      <c r="J1223" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1224" customHeight="1" spans="3:10">
-      <c r="C1224" s="6">
+      <c r="J1233" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1234" customHeight="1" spans="3:10">
+      <c r="C1234" s="6">
         <v>9060</v>
       </c>
-      <c r="D1224" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E1224" s="6">
+      <c r="D1234" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E1234" s="6">
         <v>9</v>
       </c>
-      <c r="F1224" s="6">
+      <c r="F1234" s="6">
         <f t="shared" si="32"/>
         <v>600</v>
       </c>
-      <c r="G1224" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1224" s="6">
+      <c r="G1234" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1234" s="6">
         <v>24</v>
       </c>
-      <c r="I1224" s="6">
+      <c r="I1234" s="6">
         <v>190</v>
       </c>
-      <c r="J1224" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1225" customHeight="1" spans="3:10">
-      <c r="C1225" s="6">
+      <c r="J1234" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1235" customHeight="1" spans="3:10">
+      <c r="C1235" s="6">
         <v>9061</v>
       </c>
-      <c r="D1225" s="6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E1225" s="6">
+      <c r="D1235" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1235" s="6">
         <v>9</v>
       </c>
-      <c r="F1225" s="6">
+      <c r="F1235" s="6">
         <f t="shared" si="32"/>
         <v>610</v>
       </c>
-      <c r="G1225" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1225" s="6">
+      <c r="G1235" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1235" s="6">
         <v>18</v>
       </c>
-      <c r="I1225" s="6">
+      <c r="I1235" s="6">
         <v>200</v>
       </c>
-      <c r="J1225" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1226" customHeight="1" spans="3:10">
-      <c r="C1226" s="6">
+      <c r="J1235" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1236" customHeight="1" spans="3:10">
+      <c r="C1236" s="6">
         <v>9062</v>
       </c>
-      <c r="D1226" s="6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E1226" s="6">
+      <c r="D1236" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1236" s="6">
         <v>9</v>
       </c>
-      <c r="F1226" s="6">
+      <c r="F1236" s="6">
         <f t="shared" si="32"/>
         <v>620</v>
       </c>
-      <c r="G1226" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1226" s="6">
+      <c r="G1236" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1236" s="6">
         <v>19</v>
       </c>
-      <c r="I1226" s="6">
+      <c r="I1236" s="6">
         <v>200</v>
       </c>
-      <c r="J1226" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1227" customHeight="1" spans="3:10">
-      <c r="C1227" s="6">
+      <c r="J1236" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1237" customHeight="1" spans="3:10">
+      <c r="C1237" s="6">
         <v>9063</v>
       </c>
-      <c r="D1227" s="6" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E1227" s="6">
+      <c r="D1237" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1237" s="6">
         <v>9</v>
       </c>
-      <c r="F1227" s="6">
+      <c r="F1237" s="6">
         <f t="shared" si="32"/>
         <v>630</v>
       </c>
-      <c r="G1227" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1227" s="6">
+      <c r="G1237" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1237" s="6">
         <v>20</v>
       </c>
-      <c r="I1227" s="6">
+      <c r="I1237" s="6">
         <v>200</v>
       </c>
-      <c r="J1227" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1228" customHeight="1" spans="3:10">
-      <c r="C1228" s="6">
+      <c r="J1237" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1238" customHeight="1" spans="3:10">
+      <c r="C1238" s="6">
         <v>9064</v>
       </c>
-      <c r="D1228" s="6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E1228" s="6">
+      <c r="D1238" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E1238" s="6">
         <v>9</v>
       </c>
-      <c r="F1228" s="6">
+      <c r="F1238" s="6">
         <f t="shared" si="32"/>
         <v>640</v>
       </c>
-      <c r="G1228" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1228" s="6">
+      <c r="G1238" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1238" s="6">
         <v>24</v>
       </c>
-      <c r="I1228" s="6">
+      <c r="I1238" s="6">
         <v>200</v>
       </c>
-      <c r="J1228" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1229" customHeight="1" spans="3:10">
-      <c r="C1229" s="6">
+      <c r="J1238" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1239" customHeight="1" spans="3:10">
+      <c r="C1239" s="6">
         <v>9065</v>
       </c>
-      <c r="D1229" s="6" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E1229" s="6">
+      <c r="D1239" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1239" s="6">
         <v>9</v>
       </c>
-      <c r="F1229" s="6">
+      <c r="F1239" s="6">
         <f t="shared" si="32"/>
         <v>650</v>
       </c>
-      <c r="G1229" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1229" s="6">
+      <c r="G1239" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1239" s="6">
         <v>18</v>
       </c>
-      <c r="I1229" s="6">
+      <c r="I1239" s="6">
         <v>210</v>
       </c>
-      <c r="J1229" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1230" customHeight="1" spans="3:10">
-      <c r="C1230" s="6">
+      <c r="J1239" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1240" customHeight="1" spans="3:10">
+      <c r="C1240" s="6">
         <v>9066</v>
       </c>
-      <c r="D1230" s="6" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E1230" s="6">
+      <c r="D1240" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E1240" s="6">
         <v>9</v>
       </c>
-      <c r="F1230" s="6">
-        <f t="shared" ref="F1230:F1293" si="33">F1229+10</f>
+      <c r="F1240" s="6">
+        <f t="shared" ref="F1240:F1303" si="33">F1239+10</f>
         <v>660</v>
       </c>
-      <c r="G1230" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1230" s="6">
+      <c r="G1240" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1240" s="6">
         <v>19</v>
       </c>
-      <c r="I1230" s="6">
+      <c r="I1240" s="6">
         <v>210</v>
       </c>
-      <c r="J1230" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1231" customHeight="1" spans="3:10">
-      <c r="C1231" s="6">
+      <c r="J1240" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1241" customHeight="1" spans="3:10">
+      <c r="C1241" s="6">
         <v>9067</v>
       </c>
-      <c r="D1231" s="6" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E1231" s="6">
+      <c r="D1241" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1241" s="6">
         <v>9</v>
       </c>
-      <c r="F1231" s="6">
+      <c r="F1241" s="6">
         <f t="shared" si="33"/>
         <v>670</v>
       </c>
-      <c r="G1231" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1231" s="6">
+      <c r="G1241" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1241" s="6">
         <v>20</v>
       </c>
-      <c r="I1231" s="6">
+      <c r="I1241" s="6">
         <v>210</v>
       </c>
-      <c r="J1231" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1232" customHeight="1" spans="3:10">
-      <c r="C1232" s="6">
+      <c r="J1241" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1242" customHeight="1" spans="3:10">
+      <c r="C1242" s="6">
         <v>9068</v>
       </c>
-      <c r="D1232" s="6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E1232" s="6">
+      <c r="D1242" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1242" s="6">
         <v>9</v>
       </c>
-      <c r="F1232" s="6">
+      <c r="F1242" s="6">
         <f t="shared" si="33"/>
         <v>680</v>
       </c>
-      <c r="G1232" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1232" s="6">
+      <c r="G1242" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1242" s="6">
         <v>24</v>
       </c>
-      <c r="I1232" s="6">
+      <c r="I1242" s="6">
         <v>210</v>
       </c>
-      <c r="J1232" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1233" customHeight="1" spans="3:10">
-      <c r="C1233" s="6">
+      <c r="J1242" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1243" customHeight="1" spans="3:10">
+      <c r="C1243" s="6">
         <v>9069</v>
       </c>
-      <c r="D1233" s="6" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1233" s="6">
+      <c r="D1243" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E1243" s="6">
         <v>9</v>
       </c>
-      <c r="F1233" s="6">
+      <c r="F1243" s="6">
         <f t="shared" si="33"/>
         <v>690</v>
       </c>
-      <c r="G1233" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1233" s="6">
+      <c r="G1243" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1243" s="6">
         <v>18</v>
       </c>
-      <c r="I1233" s="6">
+      <c r="I1243" s="6">
         <v>220</v>
       </c>
-      <c r="J1233" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1234" customHeight="1" spans="3:10">
-      <c r="C1234" s="6">
+      <c r="J1243" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1244" customHeight="1" spans="3:10">
+      <c r="C1244" s="6">
         <v>9070</v>
       </c>
-      <c r="D1234" s="6" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E1234" s="6">
+      <c r="D1244" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1244" s="6">
         <v>9</v>
       </c>
-      <c r="F1234" s="6">
+      <c r="F1244" s="6">
         <f t="shared" si="33"/>
         <v>700</v>
       </c>
-      <c r="G1234" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1234" s="6">
+      <c r="G1244" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1244" s="6">
         <v>19</v>
       </c>
-      <c r="I1234" s="6">
+      <c r="I1244" s="6">
         <v>220</v>
       </c>
-      <c r="J1234" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1235" customHeight="1" spans="3:10">
-      <c r="C1235" s="6">
+      <c r="J1244" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1245" customHeight="1" spans="3:10">
+      <c r="C1245" s="6">
         <v>9071</v>
       </c>
-      <c r="D1235" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E1235" s="6">
+      <c r="D1245" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1245" s="6">
         <v>9</v>
       </c>
-      <c r="F1235" s="6">
+      <c r="F1245" s="6">
         <f t="shared" si="33"/>
         <v>710</v>
       </c>
-      <c r="G1235" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1235" s="6">
+      <c r="G1245" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1245" s="6">
         <v>20</v>
       </c>
-      <c r="I1235" s="6">
+      <c r="I1245" s="6">
         <v>220</v>
       </c>
-      <c r="J1235" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1236" customHeight="1" spans="3:10">
-      <c r="C1236" s="6">
+      <c r="J1245" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1246" customHeight="1" spans="3:10">
+      <c r="C1246" s="6">
         <v>9072</v>
       </c>
-      <c r="D1236" s="6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E1236" s="6">
+      <c r="D1246" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1246" s="6">
         <v>9</v>
       </c>
-      <c r="F1236" s="6">
+      <c r="F1246" s="6">
         <f t="shared" si="33"/>
         <v>720</v>
       </c>
-      <c r="G1236" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1236" s="6">
+      <c r="G1246" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1246" s="6">
         <v>24</v>
       </c>
-      <c r="I1236" s="6">
+      <c r="I1246" s="6">
         <v>220</v>
       </c>
-      <c r="J1236" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1237" customHeight="1" spans="3:10">
-      <c r="C1237" s="6">
+      <c r="J1246" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1247" customHeight="1" spans="3:10">
+      <c r="C1247" s="6">
         <v>9073</v>
       </c>
-      <c r="D1237" s="6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1237" s="6">
+      <c r="D1247" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1247" s="6">
         <v>9</v>
       </c>
-      <c r="F1237" s="6">
+      <c r="F1247" s="6">
         <f t="shared" si="33"/>
         <v>730</v>
       </c>
-      <c r="G1237" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1237" s="6">
+      <c r="G1247" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1247" s="6">
         <v>18</v>
       </c>
-      <c r="I1237" s="6">
+      <c r="I1247" s="6">
         <v>230</v>
       </c>
-      <c r="J1237" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1238" customHeight="1" spans="3:10">
-      <c r="C1238" s="6">
+      <c r="J1247" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1248" customHeight="1" spans="3:10">
+      <c r="C1248" s="6">
         <v>9074</v>
       </c>
-      <c r="D1238" s="6" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E1238" s="6">
+      <c r="D1248" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1248" s="6">
         <v>9</v>
       </c>
-      <c r="F1238" s="6">
+      <c r="F1248" s="6">
         <f t="shared" si="33"/>
         <v>740</v>
       </c>
-      <c r="G1238" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1238" s="6">
+      <c r="G1248" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1248" s="6">
         <v>19</v>
       </c>
-      <c r="I1238" s="6">
+      <c r="I1248" s="6">
         <v>230</v>
       </c>
-      <c r="J1238" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1239" customHeight="1" spans="3:10">
-      <c r="C1239" s="6">
+      <c r="J1248" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1249" customHeight="1" spans="3:10">
+      <c r="C1249" s="6">
         <v>9075</v>
       </c>
-      <c r="D1239" s="6" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E1239" s="6">
+      <c r="D1249" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E1249" s="6">
         <v>9</v>
       </c>
-      <c r="F1239" s="6">
+      <c r="F1249" s="6">
         <f t="shared" si="33"/>
         <v>750</v>
       </c>
-      <c r="G1239" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1239" s="6">
+      <c r="G1249" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1249" s="6">
         <v>20</v>
       </c>
-      <c r="I1239" s="6">
+      <c r="I1249" s="6">
         <v>230</v>
       </c>
-      <c r="J1239" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1240" customHeight="1" spans="3:10">
-      <c r="C1240" s="6">
+      <c r="J1249" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1250" customHeight="1" spans="3:10">
+      <c r="C1250" s="6">
         <v>9076</v>
       </c>
-      <c r="D1240" s="6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E1240" s="6">
+      <c r="D1250" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1250" s="6">
         <v>9</v>
       </c>
-      <c r="F1240" s="6">
+      <c r="F1250" s="6">
         <f t="shared" si="33"/>
         <v>760</v>
       </c>
-      <c r="G1240" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1240" s="6">
+      <c r="G1250" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1250" s="6">
         <v>24</v>
       </c>
-      <c r="I1240" s="6">
+      <c r="I1250" s="6">
         <v>230</v>
       </c>
-      <c r="J1240" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1241" customHeight="1" spans="3:10">
-      <c r="C1241" s="6">
+      <c r="J1250" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1251" customHeight="1" spans="3:10">
+      <c r="C1251" s="6">
         <v>9077</v>
       </c>
-      <c r="D1241" s="6" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E1241" s="6">
+      <c r="D1251" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1251" s="6">
         <v>9</v>
       </c>
-      <c r="F1241" s="6">
+      <c r="F1251" s="6">
         <f t="shared" si="33"/>
         <v>770</v>
       </c>
-      <c r="G1241" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1241" s="6">
+      <c r="G1251" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1251" s="6">
         <v>18</v>
       </c>
-      <c r="I1241" s="6">
+      <c r="I1251" s="6">
         <v>240</v>
       </c>
-      <c r="J1241" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1242" customHeight="1" spans="3:10">
-      <c r="C1242" s="6">
+      <c r="J1251" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1252" customHeight="1" spans="3:10">
+      <c r="C1252" s="6">
         <v>9078</v>
       </c>
-      <c r="D1242" s="6" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E1242" s="6">
+      <c r="D1252" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1252" s="6">
         <v>9</v>
       </c>
-      <c r="F1242" s="6">
+      <c r="F1252" s="6">
         <f t="shared" si="33"/>
         <v>780</v>
       </c>
-      <c r="G1242" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1242" s="6">
+      <c r="G1252" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1252" s="6">
         <v>19</v>
       </c>
-      <c r="I1242" s="6">
+      <c r="I1252" s="6">
         <v>240</v>
       </c>
-      <c r="J1242" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1243" customHeight="1" spans="3:10">
-      <c r="C1243" s="6">
+      <c r="J1252" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1253" customHeight="1" spans="3:10">
+      <c r="C1253" s="6">
         <v>9079</v>
       </c>
-      <c r="D1243" s="6" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E1243" s="6">
+      <c r="D1253" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1253" s="6">
         <v>9</v>
       </c>
-      <c r="F1243" s="6">
+      <c r="F1253" s="6">
         <f t="shared" si="33"/>
         <v>790</v>
       </c>
-      <c r="G1243" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1243" s="6">
+      <c r="G1253" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1253" s="6">
         <v>20</v>
       </c>
-      <c r="I1243" s="6">
+      <c r="I1253" s="6">
         <v>240</v>
       </c>
-      <c r="J1243" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1244" customHeight="1" spans="3:10">
-      <c r="C1244" s="6">
+      <c r="J1253" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1254" customHeight="1" spans="3:10">
+      <c r="C1254" s="6">
         <v>9080</v>
       </c>
-      <c r="D1244" s="6" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E1244" s="6">
+      <c r="D1254" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1254" s="6">
         <v>9</v>
       </c>
-      <c r="F1244" s="6">
+      <c r="F1254" s="6">
         <f t="shared" si="33"/>
         <v>800</v>
       </c>
-      <c r="G1244" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1244" s="6">
+      <c r="G1254" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1254" s="6">
         <v>24</v>
       </c>
-      <c r="I1244" s="6">
+      <c r="I1254" s="6">
         <v>240</v>
       </c>
-      <c r="J1244" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1245" customHeight="1" spans="3:10">
-      <c r="C1245" s="6">
+      <c r="J1254" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1255" customHeight="1" spans="3:10">
+      <c r="C1255" s="6">
         <v>9081</v>
       </c>
-      <c r="D1245" s="6" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E1245" s="6">
+      <c r="D1255" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E1255" s="6">
         <v>9</v>
       </c>
-      <c r="F1245" s="6">
+      <c r="F1255" s="6">
         <f t="shared" si="33"/>
         <v>810</v>
       </c>
-      <c r="G1245" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1245" s="6">
+      <c r="G1255" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1255" s="6">
         <v>18</v>
       </c>
-      <c r="I1245" s="6">
+      <c r="I1255" s="6">
         <v>250</v>
       </c>
-      <c r="J1245" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1246" customHeight="1" spans="3:10">
-      <c r="C1246" s="6">
+      <c r="J1255" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1256" customHeight="1" spans="3:10">
+      <c r="C1256" s="6">
         <v>9082</v>
       </c>
-      <c r="D1246" s="6" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E1246" s="6">
+      <c r="D1256" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1256" s="6">
         <v>9</v>
       </c>
-      <c r="F1246" s="6">
+      <c r="F1256" s="6">
         <f t="shared" si="33"/>
         <v>820</v>
       </c>
-      <c r="G1246" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1246" s="6">
+      <c r="G1256" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1256" s="6">
         <v>19</v>
       </c>
-      <c r="I1246" s="6">
+      <c r="I1256" s="6">
         <v>250</v>
       </c>
-      <c r="J1246" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1247" customHeight="1" spans="3:10">
-      <c r="C1247" s="6">
+      <c r="J1256" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1257" customHeight="1" spans="3:10">
+      <c r="C1257" s="6">
         <v>9083</v>
       </c>
-      <c r="D1247" s="6" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1247" s="6">
+      <c r="D1257" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E1257" s="6">
         <v>9</v>
       </c>
-      <c r="F1247" s="6">
+      <c r="F1257" s="6">
         <f t="shared" si="33"/>
         <v>830</v>
       </c>
-      <c r="G1247" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1247" s="6">
+      <c r="G1257" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1257" s="6">
         <v>20</v>
       </c>
-      <c r="I1247" s="6">
+      <c r="I1257" s="6">
         <v>250</v>
       </c>
-      <c r="J1247" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1248" customHeight="1" spans="3:10">
-      <c r="C1248" s="6">
+      <c r="J1257" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1258" customHeight="1" spans="3:10">
+      <c r="C1258" s="6">
         <v>9084</v>
       </c>
-      <c r="D1248" s="6" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E1248" s="6">
+      <c r="D1258" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1258" s="6">
         <v>9</v>
       </c>
-      <c r="F1248" s="6">
+      <c r="F1258" s="6">
         <f t="shared" si="33"/>
         <v>840</v>
       </c>
-      <c r="G1248" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1248" s="6">
+      <c r="G1258" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1258" s="6">
         <v>24</v>
       </c>
-      <c r="I1248" s="6">
+      <c r="I1258" s="6">
         <v>250</v>
       </c>
-      <c r="J1248" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1249" customHeight="1" spans="3:10">
-      <c r="C1249" s="6">
+      <c r="J1258" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1259" customHeight="1" spans="3:10">
+      <c r="C1259" s="6">
         <v>9085</v>
       </c>
-      <c r="D1249" s="6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E1249" s="6">
+      <c r="D1259" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E1259" s="6">
         <v>9</v>
       </c>
-      <c r="F1249" s="6">
+      <c r="F1259" s="6">
         <f t="shared" si="33"/>
         <v>850</v>
       </c>
-      <c r="G1249" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1249" s="6">
+      <c r="G1259" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1259" s="6">
         <v>18</v>
       </c>
-      <c r="I1249" s="6">
+      <c r="I1259" s="6">
         <v>260</v>
       </c>
-      <c r="J1249" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1250" customHeight="1" spans="3:10">
-      <c r="C1250" s="6">
+      <c r="J1259" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1260" customHeight="1" spans="3:10">
+      <c r="C1260" s="6">
         <v>9086</v>
       </c>
-      <c r="D1250" s="6" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1250" s="6">
+      <c r="D1260" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E1260" s="6">
         <v>9</v>
       </c>
-      <c r="F1250" s="6">
+      <c r="F1260" s="6">
         <f t="shared" si="33"/>
         <v>860</v>
       </c>
-      <c r="G1250" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1250" s="6">
+      <c r="G1260" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1260" s="6">
         <v>19</v>
       </c>
-      <c r="I1250" s="6">
+      <c r="I1260" s="6">
         <v>260</v>
       </c>
-      <c r="J1250" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1251" customHeight="1" spans="3:10">
-      <c r="C1251" s="6">
+      <c r="J1260" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1261" customHeight="1" spans="3:10">
+      <c r="C1261" s="6">
         <v>9087</v>
       </c>
-      <c r="D1251" s="6" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E1251" s="6">
+      <c r="D1261" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1261" s="6">
         <v>9</v>
       </c>
-      <c r="F1251" s="6">
+      <c r="F1261" s="6">
         <f t="shared" si="33"/>
         <v>870</v>
       </c>
-      <c r="G1251" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1251" s="6">
+      <c r="G1261" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1261" s="6">
         <v>20</v>
       </c>
-      <c r="I1251" s="6">
+      <c r="I1261" s="6">
         <v>260</v>
       </c>
-      <c r="J1251" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1252" customHeight="1" spans="3:10">
-      <c r="C1252" s="6">
+      <c r="J1261" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1262" customHeight="1" spans="3:10">
+      <c r="C1262" s="6">
         <v>9088</v>
       </c>
-      <c r="D1252" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1252" s="6">
+      <c r="D1262" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E1262" s="6">
         <v>9</v>
       </c>
-      <c r="F1252" s="6">
+      <c r="F1262" s="6">
         <f t="shared" si="33"/>
         <v>880</v>
       </c>
-      <c r="G1252" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1252" s="6">
+      <c r="G1262" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1262" s="6">
         <v>24</v>
       </c>
-      <c r="I1252" s="6">
+      <c r="I1262" s="6">
         <v>260</v>
       </c>
-      <c r="J1252" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1253" customHeight="1" spans="3:10">
-      <c r="C1253" s="6">
+      <c r="J1262" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1263" customHeight="1" spans="3:10">
+      <c r="C1263" s="6">
         <v>9089</v>
       </c>
-      <c r="D1253" s="6" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E1253" s="6">
+      <c r="D1263" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E1263" s="6">
         <v>9</v>
       </c>
-      <c r="F1253" s="6">
+      <c r="F1263" s="6">
         <f t="shared" si="33"/>
         <v>890</v>
       </c>
-      <c r="G1253" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1253" s="6">
+      <c r="G1263" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1263" s="6">
         <v>18</v>
       </c>
-      <c r="I1253" s="6">
+      <c r="I1263" s="6">
         <v>270</v>
       </c>
-      <c r="J1253" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1254" customHeight="1" spans="3:10">
-      <c r="C1254" s="6">
+      <c r="J1263" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1264" customHeight="1" spans="3:10">
+      <c r="C1264" s="6">
         <v>9090</v>
       </c>
-      <c r="D1254" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E1254" s="6">
+      <c r="D1264" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1264" s="6">
         <v>9</v>
       </c>
-      <c r="F1254" s="6">
+      <c r="F1264" s="6">
         <f t="shared" si="33"/>
         <v>900</v>
       </c>
-      <c r="G1254" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1254" s="6">
+      <c r="G1264" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1264" s="6">
         <v>19</v>
       </c>
-      <c r="I1254" s="6">
+      <c r="I1264" s="6">
         <v>270</v>
       </c>
-      <c r="J1254" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1255" customHeight="1" spans="3:10">
-      <c r="C1255" s="6">
+      <c r="J1264" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1265" customHeight="1" spans="3:10">
+      <c r="C1265" s="6">
         <v>9091</v>
       </c>
-      <c r="D1255" s="6" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1255" s="6">
+      <c r="D1265" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E1265" s="6">
         <v>9</v>
       </c>
-      <c r="F1255" s="6">
+      <c r="F1265" s="6">
         <f t="shared" si="33"/>
         <v>910</v>
       </c>
-      <c r="G1255" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1255" s="6">
+      <c r="G1265" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1265" s="6">
         <v>20</v>
       </c>
-      <c r="I1255" s="6">
+      <c r="I1265" s="6">
         <v>270</v>
       </c>
-      <c r="J1255" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1256" customHeight="1" spans="3:10">
-      <c r="C1256" s="6">
+      <c r="J1265" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1266" customHeight="1" spans="3:10">
+      <c r="C1266" s="6">
         <v>9092</v>
       </c>
-      <c r="D1256" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E1256" s="6">
+      <c r="D1266" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E1266" s="6">
         <v>9</v>
       </c>
-      <c r="F1256" s="6">
+      <c r="F1266" s="6">
         <f t="shared" si="33"/>
         <v>920</v>
       </c>
-      <c r="G1256" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1256" s="6">
+      <c r="G1266" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1266" s="6">
         <v>24</v>
       </c>
-      <c r="I1256" s="6">
+      <c r="I1266" s="6">
         <v>270</v>
       </c>
-      <c r="J1256" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1257" customHeight="1" spans="3:10">
-      <c r="C1257" s="6">
+      <c r="J1266" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1267" customHeight="1" spans="3:10">
+      <c r="C1267" s="6">
         <v>9093</v>
       </c>
-      <c r="D1257" s="6" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E1257" s="6">
+      <c r="D1267" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E1267" s="6">
         <v>9</v>
       </c>
-      <c r="F1257" s="6">
+      <c r="F1267" s="6">
         <f t="shared" si="33"/>
         <v>930</v>
       </c>
-      <c r="G1257" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1257" s="6">
+      <c r="G1267" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1267" s="6">
         <v>18</v>
       </c>
-      <c r="I1257" s="6">
+      <c r="I1267" s="6">
         <v>280</v>
       </c>
-      <c r="J1257" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1258" customHeight="1" spans="3:10">
-      <c r="C1258" s="6">
+      <c r="J1267" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1268" customHeight="1" spans="3:10">
+      <c r="C1268" s="6">
         <v>9094</v>
       </c>
-      <c r="D1258" s="6" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E1258" s="6">
+      <c r="D1268" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E1268" s="6">
         <v>9</v>
       </c>
-      <c r="F1258" s="6">
+      <c r="F1268" s="6">
         <f t="shared" si="33"/>
         <v>940</v>
       </c>
-      <c r="G1258" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1258" s="6">
+      <c r="G1268" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1268" s="6">
         <v>19</v>
       </c>
-      <c r="I1258" s="6">
+      <c r="I1268" s="6">
         <v>280</v>
       </c>
-      <c r="J1258" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1259" customHeight="1" spans="3:10">
-      <c r="C1259" s="6">
+      <c r="J1268" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1269" customHeight="1" spans="3:10">
+      <c r="C1269" s="6">
         <v>9095</v>
       </c>
-      <c r="D1259" s="6" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E1259" s="6">
+      <c r="D1269" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E1269" s="6">
         <v>9</v>
       </c>
-      <c r="F1259" s="6">
+      <c r="F1269" s="6">
         <f t="shared" si="33"/>
         <v>950</v>
       </c>
-      <c r="G1259" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1259" s="6">
+      <c r="G1269" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1269" s="6">
         <v>20</v>
       </c>
-      <c r="I1259" s="6">
+      <c r="I1269" s="6">
         <v>280</v>
       </c>
-      <c r="J1259" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1260" customHeight="1" spans="3:10">
-      <c r="C1260" s="6">
+      <c r="J1269" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1270" customHeight="1" spans="3:10">
+      <c r="C1270" s="6">
         <v>9096</v>
       </c>
-      <c r="D1260" s="6" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E1260" s="6">
+      <c r="D1270" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E1270" s="6">
         <v>9</v>
       </c>
-      <c r="F1260" s="6">
+      <c r="F1270" s="6">
         <f t="shared" si="33"/>
         <v>960</v>
       </c>
-      <c r="G1260" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1260" s="6">
+      <c r="G1270" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1270" s="6">
         <v>24</v>
       </c>
-      <c r="I1260" s="6">
+      <c r="I1270" s="6">
         <v>280</v>
       </c>
-      <c r="J1260" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1261" customHeight="1" spans="3:10">
-      <c r="C1261" s="6">
+      <c r="J1270" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1271" customHeight="1" spans="3:10">
+      <c r="C1271" s="6">
         <v>9097</v>
       </c>
-      <c r="D1261" s="6" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E1261" s="6">
+      <c r="D1271" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E1271" s="6">
         <v>9</v>
       </c>
-      <c r="F1261" s="6">
+      <c r="F1271" s="6">
         <f t="shared" si="33"/>
         <v>970</v>
       </c>
-      <c r="G1261" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1261" s="6">
+      <c r="G1271" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1271" s="6">
         <v>18</v>
       </c>
-      <c r="I1261" s="6">
+      <c r="I1271" s="6">
         <v>290</v>
       </c>
-      <c r="J1261" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1262" customHeight="1" spans="3:10">
-      <c r="C1262" s="6">
+      <c r="J1271" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1272" customHeight="1" spans="3:10">
+      <c r="C1272" s="6">
         <v>9098</v>
       </c>
-      <c r="D1262" s="6" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E1262" s="6">
+      <c r="D1272" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E1272" s="6">
         <v>9</v>
       </c>
-      <c r="F1262" s="6">
+      <c r="F1272" s="6">
         <f t="shared" si="33"/>
         <v>980</v>
       </c>
-      <c r="G1262" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1262" s="6">
+      <c r="G1272" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1272" s="6">
         <v>19</v>
       </c>
-      <c r="I1262" s="6">
+      <c r="I1272" s="6">
         <v>290</v>
       </c>
-      <c r="J1262" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1263" customHeight="1" spans="3:10">
-      <c r="C1263" s="6">
+      <c r="J1272" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1273" customHeight="1" spans="3:10">
+      <c r="C1273" s="6">
         <v>9099</v>
       </c>
-      <c r="D1263" s="6" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E1263" s="6">
+      <c r="D1273" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E1273" s="6">
         <v>9</v>
       </c>
-      <c r="F1263" s="6">
+      <c r="F1273" s="6">
         <f t="shared" si="33"/>
         <v>990</v>
       </c>
-      <c r="G1263" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1263" s="6">
+      <c r="G1273" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1273" s="6">
         <v>20</v>
       </c>
-      <c r="I1263" s="6">
+      <c r="I1273" s="6">
         <v>290</v>
       </c>
-      <c r="J1263" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1264" customHeight="1" spans="3:10">
-      <c r="C1264" s="6">
+      <c r="J1273" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1274" customHeight="1" spans="3:10">
+      <c r="C1274" s="6">
         <v>9100</v>
       </c>
-      <c r="D1264" s="6" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E1264" s="6">
+      <c r="D1274" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E1274" s="6">
         <v>9</v>
       </c>
-      <c r="F1264" s="6">
+      <c r="F1274" s="6">
         <f t="shared" si="33"/>
         <v>1000</v>
       </c>
-      <c r="G1264" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1264" s="6">
+      <c r="G1274" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1274" s="6">
         <v>24</v>
       </c>
-      <c r="I1264" s="6">
+      <c r="I1274" s="6">
         <v>290</v>
       </c>
-      <c r="J1264" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1265" customHeight="1" spans="3:10">
-      <c r="C1265" s="6">
+      <c r="J1274" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1275" customHeight="1" spans="3:10">
+      <c r="C1275" s="6">
         <v>9101</v>
       </c>
-      <c r="D1265" s="6" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E1265" s="6">
+      <c r="D1275" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E1275" s="6">
         <v>9</v>
       </c>
-      <c r="F1265" s="6">
-        <f t="shared" ref="F1265:F1314" si="34">F1264+20</f>
+      <c r="F1275" s="6">
+        <f t="shared" ref="F1275:F1324" si="34">F1274+20</f>
         <v>1020</v>
       </c>
-      <c r="G1265" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1265" s="6">
+      <c r="G1275" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1275" s="6">
         <v>18</v>
       </c>
-      <c r="I1265" s="6">
-        <f t="shared" ref="I1265:I1314" si="35">I1261+10</f>
+      <c r="I1275" s="6">
+        <f t="shared" ref="I1275:I1324" si="35">I1271+10</f>
         <v>300</v>
       </c>
-      <c r="J1265" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1266" customHeight="1" spans="3:10">
-      <c r="C1266" s="6">
+      <c r="J1275" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1276" customHeight="1" spans="3:10">
+      <c r="C1276" s="6">
         <v>9102</v>
       </c>
-      <c r="D1266" s="6" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E1266" s="6">
+      <c r="D1276" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E1276" s="6">
         <v>9</v>
       </c>
-      <c r="F1266" s="6">
+      <c r="F1276" s="6">
         <f t="shared" si="34"/>
         <v>1040</v>
       </c>
-      <c r="G1266" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1266" s="6">
+      <c r="G1276" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1276" s="6">
         <v>19</v>
       </c>
-      <c r="I1266" s="6">
+      <c r="I1276" s="6">
         <f t="shared" si="35"/>
         <v>300</v>
       </c>
-      <c r="J1266" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1267" customHeight="1" spans="3:10">
-      <c r="C1267" s="6">
+      <c r="J1276" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1277" customHeight="1" spans="3:10">
+      <c r="C1277" s="6">
         <v>9103</v>
       </c>
-      <c r="D1267" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E1267" s="6">
+      <c r="D1277" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E1277" s="6">
         <v>9</v>
       </c>
-      <c r="F1267" s="6">
+      <c r="F1277" s="6">
         <f t="shared" si="34"/>
         <v>1060</v>
       </c>
-      <c r="G1267" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1267" s="6">
+      <c r="G1277" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1277" s="6">
         <v>20</v>
       </c>
-      <c r="I1267" s="6">
+      <c r="I1277" s="6">
         <f t="shared" si="35"/>
         <v>300</v>
       </c>
-      <c r="J1267" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1268" customHeight="1" spans="3:10">
-      <c r="C1268" s="6">
+      <c r="J1277" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1278" customHeight="1" spans="3:10">
+      <c r="C1278" s="6">
         <v>9104</v>
       </c>
-      <c r="D1268" s="6" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E1268" s="6">
+      <c r="D1278" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E1278" s="6">
         <v>9</v>
       </c>
-      <c r="F1268" s="6">
+      <c r="F1278" s="6">
         <f t="shared" si="34"/>
         <v>1080</v>
       </c>
-      <c r="G1268" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1268" s="6">
+      <c r="G1278" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1278" s="6">
         <v>24</v>
       </c>
-      <c r="I1268" s="6">
+      <c r="I1278" s="6">
         <f t="shared" si="35"/>
         <v>300</v>
       </c>
-      <c r="J1268" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1269" customHeight="1" spans="3:10">
-      <c r="C1269" s="6">
+      <c r="J1278" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1279" customHeight="1" spans="3:10">
+      <c r="C1279" s="6">
         <v>9105</v>
       </c>
-      <c r="D1269" s="6" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E1269" s="6">
+      <c r="D1279" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E1279" s="6">
         <v>9</v>
       </c>
-      <c r="F1269" s="6">
+      <c r="F1279" s="6">
         <f t="shared" si="34"/>
         <v>1100</v>
       </c>
-      <c r="G1269" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1269" s="6">
+      <c r="G1279" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1279" s="6">
         <v>18</v>
       </c>
-      <c r="I1269" s="6">
+      <c r="I1279" s="6">
         <f t="shared" si="35"/>
         <v>310</v>
       </c>
-      <c r="J1269" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1270" customHeight="1" spans="3:10">
-      <c r="C1270" s="6">
+      <c r="J1279" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1280" customHeight="1" spans="3:10">
+      <c r="C1280" s="6">
         <v>9106</v>
       </c>
-      <c r="D1270" s="6" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E1270" s="6">
+      <c r="D1280" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1280" s="6">
         <v>9</v>
       </c>
-      <c r="F1270" s="6">
+      <c r="F1280" s="6">
         <f t="shared" si="34"/>
         <v>1120</v>
       </c>
-      <c r="G1270" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1270" s="6">
+      <c r="G1280" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1280" s="6">
         <v>19</v>
       </c>
-      <c r="I1270" s="6">
+      <c r="I1280" s="6">
         <f t="shared" si="35"/>
         <v>310</v>
       </c>
-      <c r="J1270" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1271" customHeight="1" spans="3:10">
-      <c r="C1271" s="6">
+      <c r="J1280" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1281" customHeight="1" spans="3:10">
+      <c r="C1281" s="6">
         <v>9107</v>
       </c>
-      <c r="D1271" s="6" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E1271" s="6">
+      <c r="D1281" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E1281" s="6">
         <v>9</v>
       </c>
-      <c r="F1271" s="6">
+      <c r="F1281" s="6">
         <f t="shared" si="34"/>
         <v>1140</v>
       </c>
-      <c r="G1271" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1271" s="6">
+      <c r="G1281" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1281" s="6">
         <v>20</v>
       </c>
-      <c r="I1271" s="6">
+      <c r="I1281" s="6">
         <f t="shared" si="35"/>
         <v>310</v>
       </c>
-      <c r="J1271" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1272" customHeight="1" spans="3:10">
-      <c r="C1272" s="6">
+      <c r="J1281" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1282" customHeight="1" spans="3:10">
+      <c r="C1282" s="6">
         <v>9108</v>
       </c>
-      <c r="D1272" s="6" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E1272" s="6">
+      <c r="D1282" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1282" s="6">
         <v>9</v>
       </c>
-      <c r="F1272" s="6">
+      <c r="F1282" s="6">
         <f t="shared" si="34"/>
         <v>1160</v>
       </c>
-      <c r="G1272" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1272" s="6">
+      <c r="G1282" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1282" s="6">
         <v>24</v>
       </c>
-      <c r="I1272" s="6">
+      <c r="I1282" s="6">
         <f t="shared" si="35"/>
         <v>310</v>
       </c>
-      <c r="J1272" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1273" customHeight="1" spans="3:10">
-      <c r="C1273" s="6">
+      <c r="J1282" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1283" customHeight="1" spans="3:10">
+      <c r="C1283" s="6">
         <v>9109</v>
       </c>
-      <c r="D1273" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E1273" s="6">
+      <c r="D1283" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E1283" s="6">
         <v>9</v>
       </c>
-      <c r="F1273" s="6">
+      <c r="F1283" s="6">
         <f t="shared" si="34"/>
         <v>1180</v>
       </c>
-      <c r="G1273" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1273" s="6">
+      <c r="G1283" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1283" s="6">
         <v>18</v>
       </c>
-      <c r="I1273" s="6">
+      <c r="I1283" s="6">
         <f t="shared" si="35"/>
         <v>320</v>
       </c>
-      <c r="J1273" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1274" customHeight="1" spans="3:10">
-      <c r="C1274" s="6">
+      <c r="J1283" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1284" customHeight="1" spans="3:10">
+      <c r="C1284" s="6">
         <v>9110</v>
       </c>
-      <c r="D1274" s="6" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E1274" s="6">
+      <c r="D1284" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1284" s="6">
         <v>9</v>
       </c>
-      <c r="F1274" s="6">
+      <c r="F1284" s="6">
         <f t="shared" si="34"/>
         <v>1200</v>
       </c>
-      <c r="G1274" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1274" s="6">
+      <c r="G1284" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1284" s="6">
         <v>19</v>
       </c>
-      <c r="I1274" s="6">
+      <c r="I1284" s="6">
         <f t="shared" si="35"/>
         <v>320</v>
       </c>
-      <c r="J1274" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1275" customHeight="1" spans="3:10">
-      <c r="C1275" s="6">
+      <c r="J1284" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1285" customHeight="1" spans="3:10">
+      <c r="C1285" s="6">
         <v>9111</v>
       </c>
-      <c r="D1275" s="6" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E1275" s="6">
+      <c r="D1285" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E1285" s="6">
         <v>9</v>
       </c>
-      <c r="F1275" s="6">
+      <c r="F1285" s="6">
         <f t="shared" si="34"/>
         <v>1220</v>
       </c>
-      <c r="G1275" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1275" s="6">
+      <c r="G1285" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1285" s="6">
         <v>20</v>
       </c>
-      <c r="I1275" s="6">
+      <c r="I1285" s="6">
         <f t="shared" si="35"/>
         <v>320</v>
       </c>
-      <c r="J1275" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1276" customHeight="1" spans="3:10">
-      <c r="C1276" s="6">
+      <c r="J1285" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1286" customHeight="1" spans="3:10">
+      <c r="C1286" s="6">
         <v>9112</v>
       </c>
-      <c r="D1276" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E1276" s="6">
+      <c r="D1286" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E1286" s="6">
         <v>9</v>
       </c>
-      <c r="F1276" s="6">
+      <c r="F1286" s="6">
         <f t="shared" si="34"/>
         <v>1240</v>
       </c>
-      <c r="G1276" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1276" s="6">
+      <c r="G1286" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1286" s="6">
         <v>24</v>
       </c>
-      <c r="I1276" s="6">
+      <c r="I1286" s="6">
         <f t="shared" si="35"/>
         <v>320</v>
       </c>
-      <c r="J1276" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1277" customHeight="1" spans="3:10">
-      <c r="C1277" s="6">
+      <c r="J1286" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1287" customHeight="1" spans="3:10">
+      <c r="C1287" s="6">
         <v>9113</v>
       </c>
-      <c r="D1277" s="6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E1277" s="6">
+      <c r="D1287" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E1287" s="6">
         <v>9</v>
       </c>
-      <c r="F1277" s="6">
+      <c r="F1287" s="6">
         <f t="shared" si="34"/>
         <v>1260</v>
       </c>
-      <c r="G1277" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1277" s="6">
+      <c r="G1287" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1287" s="6">
         <v>18</v>
       </c>
-      <c r="I1277" s="6">
+      <c r="I1287" s="6">
         <f t="shared" si="35"/>
         <v>330</v>
       </c>
-      <c r="J1277" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1278" customHeight="1" spans="3:10">
-      <c r="C1278" s="6">
+      <c r="J1287" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1288" customHeight="1" spans="3:10">
+      <c r="C1288" s="6">
         <v>9114</v>
       </c>
-      <c r="D1278" s="6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E1278" s="6">
+      <c r="D1288" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1288" s="6">
         <v>9</v>
       </c>
-      <c r="F1278" s="6">
+      <c r="F1288" s="6">
         <f t="shared" si="34"/>
         <v>1280</v>
       </c>
-      <c r="G1278" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1278" s="6">
+      <c r="G1288" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1288" s="6">
         <v>19</v>
       </c>
-      <c r="I1278" s="6">
+      <c r="I1288" s="6">
         <f t="shared" si="35"/>
         <v>330</v>
       </c>
-      <c r="J1278" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1279" customHeight="1" spans="3:10">
-      <c r="C1279" s="6">
+      <c r="J1288" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1289" customHeight="1" spans="3:10">
+      <c r="C1289" s="6">
         <v>9115</v>
       </c>
-      <c r="D1279" s="6" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E1279" s="6">
+      <c r="D1289" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E1289" s="6">
         <v>9</v>
       </c>
-      <c r="F1279" s="6">
+      <c r="F1289" s="6">
         <f t="shared" si="34"/>
         <v>1300</v>
       </c>
-      <c r="G1279" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1279" s="6">
+      <c r="G1289" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1289" s="6">
         <v>20</v>
       </c>
-      <c r="I1279" s="6">
+      <c r="I1289" s="6">
         <f t="shared" si="35"/>
         <v>330</v>
       </c>
-      <c r="J1279" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1280" customHeight="1" spans="3:10">
-      <c r="C1280" s="6">
+      <c r="J1289" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1290" customHeight="1" spans="3:10">
+      <c r="C1290" s="6">
         <v>9116</v>
       </c>
-      <c r="D1280" s="6" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E1280" s="6">
+      <c r="D1290" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E1290" s="6">
         <v>9</v>
       </c>
-      <c r="F1280" s="6">
+      <c r="F1290" s="6">
         <f t="shared" si="34"/>
         <v>1320</v>
       </c>
-      <c r="G1280" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1280" s="6">
+      <c r="G1290" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1290" s="6">
         <v>24</v>
       </c>
-      <c r="I1280" s="6">
+      <c r="I1290" s="6">
         <f t="shared" si="35"/>
         <v>330</v>
       </c>
-      <c r="J1280" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1281" customHeight="1" spans="3:10">
-      <c r="C1281" s="6">
+      <c r="J1290" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1291" customHeight="1" spans="3:10">
+      <c r="C1291" s="6">
         <v>9117</v>
       </c>
-      <c r="D1281" s="6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E1281" s="6">
+      <c r="D1291" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E1291" s="6">
         <v>9</v>
       </c>
-      <c r="F1281" s="6">
+      <c r="F1291" s="6">
         <f t="shared" si="34"/>
         <v>1340</v>
       </c>
-      <c r="G1281" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1281" s="6">
+      <c r="G1291" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1291" s="6">
         <v>18</v>
       </c>
-      <c r="I1281" s="6">
+      <c r="I1291" s="6">
         <f t="shared" si="35"/>
         <v>340</v>
       </c>
-      <c r="J1281" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1282" customHeight="1" spans="3:10">
-      <c r="C1282" s="6">
+      <c r="J1291" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1292" customHeight="1" spans="3:10">
+      <c r="C1292" s="6">
         <v>9118</v>
       </c>
-      <c r="D1282" s="6" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E1282" s="6">
+      <c r="D1292" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E1292" s="6">
         <v>9</v>
       </c>
-      <c r="F1282" s="6">
+      <c r="F1292" s="6">
         <f t="shared" si="34"/>
         <v>1360</v>
       </c>
-      <c r="G1282" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1282" s="6">
+      <c r="G1292" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1292" s="6">
         <v>19</v>
       </c>
-      <c r="I1282" s="6">
+      <c r="I1292" s="6">
         <f t="shared" si="35"/>
         <v>340</v>
       </c>
-      <c r="J1282" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1283" customHeight="1" spans="3:10">
-      <c r="C1283" s="6">
+      <c r="J1292" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1293" customHeight="1" spans="3:10">
+      <c r="C1293" s="6">
         <v>9119</v>
       </c>
-      <c r="D1283" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E1283" s="6">
+      <c r="D1293" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E1293" s="6">
         <v>9</v>
       </c>
-      <c r="F1283" s="6">
+      <c r="F1293" s="6">
         <f t="shared" si="34"/>
         <v>1380</v>
       </c>
-      <c r="G1283" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1283" s="6">
+      <c r="G1293" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1293" s="6">
         <v>20</v>
       </c>
-      <c r="I1283" s="6">
+      <c r="I1293" s="6">
         <f t="shared" si="35"/>
         <v>340</v>
       </c>
-      <c r="J1283" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1284" customHeight="1" spans="3:10">
-      <c r="C1284" s="6">
+      <c r="J1293" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1294" customHeight="1" spans="3:10">
+      <c r="C1294" s="6">
         <v>9120</v>
       </c>
-      <c r="D1284" s="6" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E1284" s="6">
+      <c r="D1294" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E1294" s="6">
         <v>9</v>
       </c>
-      <c r="F1284" s="6">
+      <c r="F1294" s="6">
         <f t="shared" si="34"/>
         <v>1400</v>
       </c>
-      <c r="G1284" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1284" s="6">
+      <c r="G1294" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1294" s="6">
         <v>24</v>
       </c>
-      <c r="I1284" s="6">
+      <c r="I1294" s="6">
         <f t="shared" si="35"/>
         <v>340</v>
       </c>
-      <c r="J1284" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1285" customHeight="1" spans="3:10">
-      <c r="C1285" s="6">
+      <c r="J1294" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1295" customHeight="1" spans="3:10">
+      <c r="C1295" s="6">
         <v>9121</v>
       </c>
-      <c r="D1285" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E1285" s="6">
+      <c r="D1295" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1295" s="6">
         <v>9</v>
       </c>
-      <c r="F1285" s="6">
+      <c r="F1295" s="6">
         <f t="shared" si="34"/>
         <v>1420</v>
       </c>
-      <c r="G1285" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1285" s="6">
+      <c r="G1295" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1295" s="6">
         <v>18</v>
       </c>
-      <c r="I1285" s="6">
+      <c r="I1295" s="6">
         <f t="shared" si="35"/>
         <v>350</v>
       </c>
-      <c r="J1285" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1286" customHeight="1" spans="3:10">
-      <c r="C1286" s="6">
+      <c r="J1295" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1296" customHeight="1" spans="3:10">
+      <c r="C1296" s="6">
         <v>9122</v>
       </c>
-      <c r="D1286" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E1286" s="6">
+      <c r="D1296" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E1296" s="6">
         <v>9</v>
       </c>
-      <c r="F1286" s="6">
+      <c r="F1296" s="6">
         <f t="shared" si="34"/>
         <v>1440</v>
       </c>
-      <c r="G1286" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1286" s="6">
+      <c r="G1296" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1296" s="6">
         <v>19</v>
       </c>
-      <c r="I1286" s="6">
+      <c r="I1296" s="6">
         <f t="shared" si="35"/>
         <v>350</v>
       </c>
-      <c r="J1286" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1287" customHeight="1" spans="3:10">
-      <c r="C1287" s="6">
+      <c r="J1296" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1297" customHeight="1" spans="3:10">
+      <c r="C1297" s="6">
         <v>9123</v>
       </c>
-      <c r="D1287" s="6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E1287" s="6">
+      <c r="D1297" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E1297" s="6">
         <v>9</v>
       </c>
-      <c r="F1287" s="6">
+      <c r="F1297" s="6">
         <f t="shared" si="34"/>
         <v>1460</v>
       </c>
-      <c r="G1287" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1287" s="6">
+      <c r="G1297" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1297" s="6">
         <v>20</v>
       </c>
-      <c r="I1287" s="6">
+      <c r="I1297" s="6">
         <f t="shared" si="35"/>
         <v>350</v>
       </c>
-      <c r="J1287" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1288" customHeight="1" spans="3:10">
-      <c r="C1288" s="6">
+      <c r="J1297" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1298" customHeight="1" spans="3:10">
+      <c r="C1298" s="6">
         <v>9124</v>
       </c>
-      <c r="D1288" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E1288" s="6">
+      <c r="D1298" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E1298" s="6">
         <v>9</v>
       </c>
-      <c r="F1288" s="6">
+      <c r="F1298" s="6">
         <f t="shared" si="34"/>
         <v>1480</v>
       </c>
-      <c r="G1288" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1288" s="6">
+      <c r="G1298" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1298" s="6">
         <v>24</v>
       </c>
-      <c r="I1288" s="6">
+      <c r="I1298" s="6">
         <f t="shared" si="35"/>
         <v>350</v>
       </c>
-      <c r="J1288" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1289" customHeight="1" spans="3:10">
-      <c r="C1289" s="6">
+      <c r="J1298" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1299" customHeight="1" spans="3:10">
+      <c r="C1299" s="6">
         <v>9125</v>
       </c>
-      <c r="D1289" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E1289" s="6">
+      <c r="D1299" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E1299" s="6">
         <v>9</v>
       </c>
-      <c r="F1289" s="6">
+      <c r="F1299" s="6">
         <f t="shared" si="34"/>
         <v>1500</v>
       </c>
-      <c r="G1289" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1289" s="6">
+      <c r="G1299" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1299" s="6">
         <v>18</v>
       </c>
-      <c r="I1289" s="6">
+      <c r="I1299" s="6">
         <f t="shared" si="35"/>
         <v>360</v>
       </c>
-      <c r="J1289" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1290" customHeight="1" spans="1:10">
-      <c r="A1290" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1290" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1290" s="6">
-        <v>9126</v>
-      </c>
-      <c r="D1290" s="6" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E1290" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1290" s="6">
-        <f t="shared" si="34"/>
-        <v>1520</v>
-      </c>
-      <c r="G1290" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1290" s="6">
-        <v>19</v>
-      </c>
-      <c r="I1290" s="6">
-        <f t="shared" si="35"/>
-        <v>360</v>
-      </c>
-      <c r="J1290" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1291" customHeight="1" spans="1:10">
-      <c r="A1291" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1291" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1291" s="6">
-        <v>9127</v>
-      </c>
-      <c r="D1291" s="6" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E1291" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1291" s="6">
-        <f t="shared" si="34"/>
-        <v>1540</v>
-      </c>
-      <c r="G1291" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1291" s="6">
-        <v>20</v>
-      </c>
-      <c r="I1291" s="6">
-        <f t="shared" si="35"/>
-        <v>360</v>
-      </c>
-      <c r="J1291" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1292" customHeight="1" spans="1:10">
-      <c r="A1292" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1292" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1292" s="6">
-        <v>9128</v>
-      </c>
-      <c r="D1292" s="6" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E1292" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1292" s="6">
-        <f t="shared" si="34"/>
-        <v>1560</v>
-      </c>
-      <c r="G1292" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1292" s="6">
-        <v>24</v>
-      </c>
-      <c r="I1292" s="6">
-        <f t="shared" si="35"/>
-        <v>360</v>
-      </c>
-      <c r="J1292" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1293" customHeight="1" spans="1:10">
-      <c r="A1293" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1293" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1293" s="6">
-        <v>9129</v>
-      </c>
-      <c r="D1293" s="6" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E1293" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1293" s="6">
-        <f t="shared" si="34"/>
-        <v>1580</v>
-      </c>
-      <c r="G1293" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1293" s="6">
-        <v>18</v>
-      </c>
-      <c r="I1293" s="6">
-        <f t="shared" si="35"/>
-        <v>370</v>
-      </c>
-      <c r="J1293" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1294" customHeight="1" spans="1:10">
-      <c r="A1294" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1294" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1294" s="6">
-        <v>9130</v>
-      </c>
-      <c r="D1294" s="6" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E1294" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1294" s="6">
-        <f t="shared" si="34"/>
-        <v>1600</v>
-      </c>
-      <c r="G1294" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1294" s="6">
-        <v>19</v>
-      </c>
-      <c r="I1294" s="6">
-        <f t="shared" si="35"/>
-        <v>370</v>
-      </c>
-      <c r="J1294" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1295" customHeight="1" spans="1:10">
-      <c r="A1295" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1295" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1295" s="6">
-        <v>9131</v>
-      </c>
-      <c r="D1295" s="6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E1295" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1295" s="6">
-        <f t="shared" si="34"/>
-        <v>1620</v>
-      </c>
-      <c r="G1295" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1295" s="6">
-        <v>20</v>
-      </c>
-      <c r="I1295" s="6">
-        <f t="shared" si="35"/>
-        <v>370</v>
-      </c>
-      <c r="J1295" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1296" customHeight="1" spans="1:10">
-      <c r="A1296" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1296" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1296" s="6">
-        <v>9132</v>
-      </c>
-      <c r="D1296" s="6" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E1296" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1296" s="6">
-        <f t="shared" si="34"/>
-        <v>1640</v>
-      </c>
-      <c r="G1296" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1296" s="6">
-        <v>24</v>
-      </c>
-      <c r="I1296" s="6">
-        <f t="shared" si="35"/>
-        <v>370</v>
-      </c>
-      <c r="J1296" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1297" customHeight="1" spans="1:10">
-      <c r="A1297" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1297" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1297" s="6">
-        <v>9133</v>
-      </c>
-      <c r="D1297" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E1297" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1297" s="6">
-        <f t="shared" si="34"/>
-        <v>1660</v>
-      </c>
-      <c r="G1297" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1297" s="6">
-        <v>18</v>
-      </c>
-      <c r="I1297" s="6">
-        <f t="shared" si="35"/>
-        <v>380</v>
-      </c>
-      <c r="J1297" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1298" customHeight="1" spans="1:10">
-      <c r="A1298" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1298" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1298" s="6">
-        <v>9134</v>
-      </c>
-      <c r="D1298" s="6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E1298" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1298" s="6">
-        <f t="shared" si="34"/>
-        <v>1680</v>
-      </c>
-      <c r="G1298" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1298" s="6">
-        <v>19</v>
-      </c>
-      <c r="I1298" s="6">
-        <f t="shared" si="35"/>
-        <v>380</v>
-      </c>
-      <c r="J1298" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1299" customHeight="1" spans="1:10">
-      <c r="A1299" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1299" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1299" s="6">
-        <v>9135</v>
-      </c>
-      <c r="D1299" s="6" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E1299" s="6">
-        <v>9</v>
-      </c>
-      <c r="F1299" s="6">
-        <f t="shared" si="34"/>
-        <v>1700</v>
-      </c>
-      <c r="G1299" s="6">
-        <v>1</v>
-      </c>
-      <c r="H1299" s="6">
-        <v>20</v>
-      </c>
-      <c r="I1299" s="6">
-        <f t="shared" si="35"/>
-        <v>380</v>
-      </c>
       <c r="J1299" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1300" customHeight="1" spans="1:10">
@@ -41625,30 +41555,30 @@
         <v>0</v>
       </c>
       <c r="C1300" s="6">
-        <v>9136</v>
+        <v>9126</v>
       </c>
       <c r="D1300" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E1300" s="6">
         <v>9</v>
       </c>
       <c r="F1300" s="6">
         <f t="shared" si="34"/>
-        <v>1720</v>
+        <v>1520</v>
       </c>
       <c r="G1300" s="6">
         <v>1</v>
       </c>
       <c r="H1300" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1300" s="6">
         <f t="shared" si="35"/>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="J1300" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1301" customHeight="1" spans="1:10">
@@ -41659,30 +41589,30 @@
         <v>0</v>
       </c>
       <c r="C1301" s="6">
-        <v>9137</v>
+        <v>9127</v>
       </c>
       <c r="D1301" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E1301" s="6">
         <v>9</v>
       </c>
       <c r="F1301" s="6">
         <f t="shared" si="34"/>
-        <v>1740</v>
+        <v>1540</v>
       </c>
       <c r="G1301" s="6">
         <v>1</v>
       </c>
       <c r="H1301" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1301" s="6">
         <f t="shared" si="35"/>
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="J1301" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1302" customHeight="1" spans="1:10">
@@ -41693,30 +41623,30 @@
         <v>0</v>
       </c>
       <c r="C1302" s="6">
-        <v>9138</v>
+        <v>9128</v>
       </c>
       <c r="D1302" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E1302" s="6">
         <v>9</v>
       </c>
       <c r="F1302" s="6">
         <f t="shared" si="34"/>
-        <v>1760</v>
+        <v>1560</v>
       </c>
       <c r="G1302" s="6">
         <v>1</v>
       </c>
       <c r="H1302" s="6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1302" s="6">
         <f t="shared" si="35"/>
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="J1302" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1303" customHeight="1" spans="1:10">
@@ -41727,30 +41657,30 @@
         <v>0</v>
       </c>
       <c r="C1303" s="6">
-        <v>9139</v>
+        <v>9129</v>
       </c>
       <c r="D1303" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E1303" s="6">
         <v>9</v>
       </c>
       <c r="F1303" s="6">
         <f t="shared" si="34"/>
-        <v>1780</v>
+        <v>1580</v>
       </c>
       <c r="G1303" s="6">
         <v>1</v>
       </c>
       <c r="H1303" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1303" s="6">
         <f t="shared" si="35"/>
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="J1303" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1304" customHeight="1" spans="1:10">
@@ -41761,30 +41691,30 @@
         <v>0</v>
       </c>
       <c r="C1304" s="6">
-        <v>9140</v>
+        <v>9130</v>
       </c>
       <c r="D1304" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E1304" s="6">
         <v>9</v>
       </c>
       <c r="F1304" s="6">
         <f t="shared" si="34"/>
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G1304" s="6">
         <v>1</v>
       </c>
       <c r="H1304" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1304" s="6">
         <f t="shared" si="35"/>
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="J1304" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1305" customHeight="1" spans="1:10">
@@ -41795,30 +41725,30 @@
         <v>0</v>
       </c>
       <c r="C1305" s="6">
-        <v>9141</v>
+        <v>9131</v>
       </c>
       <c r="D1305" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E1305" s="6">
         <v>9</v>
       </c>
       <c r="F1305" s="6">
         <f t="shared" si="34"/>
-        <v>1820</v>
+        <v>1620</v>
       </c>
       <c r="G1305" s="6">
         <v>1</v>
       </c>
       <c r="H1305" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1305" s="6">
         <f t="shared" si="35"/>
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J1305" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1306" customHeight="1" spans="1:10">
@@ -41829,30 +41759,30 @@
         <v>0</v>
       </c>
       <c r="C1306" s="6">
-        <v>9142</v>
+        <v>9132</v>
       </c>
       <c r="D1306" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E1306" s="6">
         <v>9</v>
       </c>
       <c r="F1306" s="6">
         <f t="shared" si="34"/>
-        <v>1840</v>
+        <v>1640</v>
       </c>
       <c r="G1306" s="6">
         <v>1</v>
       </c>
       <c r="H1306" s="6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1306" s="6">
         <f t="shared" si="35"/>
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="J1306" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1307" customHeight="1" spans="1:10">
@@ -41863,30 +41793,30 @@
         <v>0</v>
       </c>
       <c r="C1307" s="6">
-        <v>9143</v>
+        <v>9133</v>
       </c>
       <c r="D1307" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E1307" s="6">
         <v>9</v>
       </c>
       <c r="F1307" s="6">
         <f t="shared" si="34"/>
-        <v>1860</v>
+        <v>1660</v>
       </c>
       <c r="G1307" s="6">
         <v>1</v>
       </c>
       <c r="H1307" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1307" s="6">
         <f t="shared" si="35"/>
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="J1307" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1308" customHeight="1" spans="1:10">
@@ -41897,30 +41827,30 @@
         <v>0</v>
       </c>
       <c r="C1308" s="6">
-        <v>9144</v>
+        <v>9134</v>
       </c>
       <c r="D1308" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E1308" s="6">
         <v>9</v>
       </c>
       <c r="F1308" s="6">
         <f t="shared" si="34"/>
-        <v>1880</v>
+        <v>1680</v>
       </c>
       <c r="G1308" s="6">
         <v>1</v>
       </c>
       <c r="H1308" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1308" s="6">
         <f t="shared" si="35"/>
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="J1308" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1309" customHeight="1" spans="1:10">
@@ -41931,30 +41861,30 @@
         <v>0</v>
       </c>
       <c r="C1309" s="6">
-        <v>9145</v>
+        <v>9135</v>
       </c>
       <c r="D1309" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E1309" s="6">
         <v>9</v>
       </c>
       <c r="F1309" s="6">
         <f t="shared" si="34"/>
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G1309" s="6">
         <v>1</v>
       </c>
       <c r="H1309" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1309" s="6">
         <f t="shared" si="35"/>
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="J1309" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1310" customHeight="1" spans="1:10">
@@ -41965,30 +41895,30 @@
         <v>0</v>
       </c>
       <c r="C1310" s="6">
-        <v>9146</v>
+        <v>9136</v>
       </c>
       <c r="D1310" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E1310" s="6">
         <v>9</v>
       </c>
       <c r="F1310" s="6">
         <f t="shared" si="34"/>
-        <v>1920</v>
+        <v>1720</v>
       </c>
       <c r="G1310" s="6">
         <v>1</v>
       </c>
       <c r="H1310" s="6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1310" s="6">
         <f t="shared" si="35"/>
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="J1310" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1311" customHeight="1" spans="1:10">
@@ -41999,30 +41929,30 @@
         <v>0</v>
       </c>
       <c r="C1311" s="6">
-        <v>9147</v>
+        <v>9137</v>
       </c>
       <c r="D1311" s="6" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E1311" s="6">
         <v>9</v>
       </c>
       <c r="F1311" s="6">
         <f t="shared" si="34"/>
-        <v>1940</v>
+        <v>1740</v>
       </c>
       <c r="G1311" s="6">
         <v>1</v>
       </c>
       <c r="H1311" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1311" s="6">
         <f t="shared" si="35"/>
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J1311" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1312" customHeight="1" spans="1:10">
@@ -42033,30 +41963,30 @@
         <v>0</v>
       </c>
       <c r="C1312" s="6">
-        <v>9148</v>
+        <v>9138</v>
       </c>
       <c r="D1312" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E1312" s="6">
         <v>9</v>
       </c>
       <c r="F1312" s="6">
         <f t="shared" si="34"/>
-        <v>1960</v>
+        <v>1760</v>
       </c>
       <c r="G1312" s="6">
         <v>1</v>
       </c>
       <c r="H1312" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1312" s="6">
         <f t="shared" si="35"/>
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="J1312" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1313" customHeight="1" spans="1:10">
@@ -42067,30 +41997,30 @@
         <v>0</v>
       </c>
       <c r="C1313" s="6">
-        <v>9149</v>
+        <v>9139</v>
       </c>
       <c r="D1313" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E1313" s="6">
         <v>9</v>
       </c>
       <c r="F1313" s="6">
         <f t="shared" si="34"/>
-        <v>1980</v>
+        <v>1780</v>
       </c>
       <c r="G1313" s="6">
         <v>1</v>
       </c>
       <c r="H1313" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1313" s="6">
         <f t="shared" si="35"/>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J1313" s="6" t="s">
-        <v>1201</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1314" customHeight="1" spans="1:10">
@@ -42101,30 +42031,370 @@
         <v>0</v>
       </c>
       <c r="C1314" s="6">
-        <v>9150</v>
+        <v>9140</v>
       </c>
       <c r="D1314" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E1314" s="6">
         <v>9</v>
       </c>
       <c r="F1314" s="6">
         <f t="shared" si="34"/>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G1314" s="6">
         <v>1</v>
       </c>
       <c r="H1314" s="6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1314" s="6">
         <f t="shared" si="35"/>
+        <v>390</v>
+      </c>
+      <c r="J1314" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1315" customHeight="1" spans="1:10">
+      <c r="A1315" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1315" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1315" s="6">
+        <v>9141</v>
+      </c>
+      <c r="D1315" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E1315" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1315" s="6">
+        <f t="shared" si="34"/>
+        <v>1820</v>
+      </c>
+      <c r="G1315" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1315" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1315" s="6">
+        <f t="shared" si="35"/>
+        <v>400</v>
+      </c>
+      <c r="J1315" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1316" customHeight="1" spans="1:10">
+      <c r="A1316" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1316" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1316" s="6">
+        <v>9142</v>
+      </c>
+      <c r="D1316" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E1316" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1316" s="6">
+        <f t="shared" si="34"/>
+        <v>1840</v>
+      </c>
+      <c r="G1316" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1316" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1316" s="6">
+        <f t="shared" si="35"/>
+        <v>400</v>
+      </c>
+      <c r="J1316" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1317" customHeight="1" spans="1:10">
+      <c r="A1317" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1317" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1317" s="6">
+        <v>9143</v>
+      </c>
+      <c r="D1317" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E1317" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1317" s="6">
+        <f t="shared" si="34"/>
+        <v>1860</v>
+      </c>
+      <c r="G1317" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1317" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1317" s="6">
+        <f t="shared" si="35"/>
+        <v>400</v>
+      </c>
+      <c r="J1317" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1318" customHeight="1" spans="1:10">
+      <c r="A1318" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1318" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1318" s="6">
+        <v>9144</v>
+      </c>
+      <c r="D1318" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E1318" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1318" s="6">
+        <f t="shared" si="34"/>
+        <v>1880</v>
+      </c>
+      <c r="G1318" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1318" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1318" s="6">
+        <f t="shared" si="35"/>
+        <v>400</v>
+      </c>
+      <c r="J1318" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1319" customHeight="1" spans="1:10">
+      <c r="A1319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1319" s="6">
+        <v>9145</v>
+      </c>
+      <c r="D1319" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1319" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1319" s="6">
+        <f t="shared" si="34"/>
+        <v>1900</v>
+      </c>
+      <c r="G1319" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1319" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1319" s="6">
+        <f t="shared" si="35"/>
+        <v>410</v>
+      </c>
+      <c r="J1319" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1320" customHeight="1" spans="1:10">
+      <c r="A1320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1320" s="6">
+        <v>9146</v>
+      </c>
+      <c r="D1320" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1320" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1320" s="6">
+        <f t="shared" si="34"/>
+        <v>1920</v>
+      </c>
+      <c r="G1320" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1320" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1320" s="6">
+        <f t="shared" si="35"/>
+        <v>410</v>
+      </c>
+      <c r="J1320" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1321" customHeight="1" spans="1:10">
+      <c r="A1321" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1321" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1321" s="6">
+        <v>9147</v>
+      </c>
+      <c r="D1321" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E1321" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1321" s="6">
+        <f t="shared" si="34"/>
+        <v>1940</v>
+      </c>
+      <c r="G1321" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1321" s="6">
+        <v>20</v>
+      </c>
+      <c r="I1321" s="6">
+        <f t="shared" si="35"/>
+        <v>410</v>
+      </c>
+      <c r="J1321" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1322" customHeight="1" spans="1:10">
+      <c r="A1322" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1322" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1322" s="6">
+        <v>9148</v>
+      </c>
+      <c r="D1322" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E1322" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1322" s="6">
+        <f t="shared" si="34"/>
+        <v>1960</v>
+      </c>
+      <c r="G1322" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1322" s="6">
+        <v>24</v>
+      </c>
+      <c r="I1322" s="6">
+        <f t="shared" si="35"/>
+        <v>410</v>
+      </c>
+      <c r="J1322" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1323" customHeight="1" spans="1:10">
+      <c r="A1323" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1323" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1323" s="6">
+        <v>9149</v>
+      </c>
+      <c r="D1323" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E1323" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1323" s="6">
+        <f t="shared" si="34"/>
+        <v>1980</v>
+      </c>
+      <c r="G1323" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1323" s="6">
+        <v>18</v>
+      </c>
+      <c r="I1323" s="6">
+        <f t="shared" si="35"/>
         <v>420</v>
       </c>
-      <c r="J1314" s="6" t="s">
-        <v>1201</v>
+      <c r="J1323" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1324" customHeight="1" spans="1:10">
+      <c r="A1324" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1324" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1324" s="6">
+        <v>9150</v>
+      </c>
+      <c r="D1324" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E1324" s="6">
+        <v>9</v>
+      </c>
+      <c r="F1324" s="6">
+        <f t="shared" si="34"/>
+        <v>2000</v>
+      </c>
+      <c r="G1324" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1324" s="6">
+        <v>19</v>
+      </c>
+      <c r="I1324" s="6">
+        <f t="shared" si="35"/>
+        <v>420</v>
+      </c>
+      <c r="J1324" s="6" t="s">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AchievementConfig.xlsx
+++ b/Excel/AchievementConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1360">
   <si>
     <t>#</t>
   </si>
@@ -4355,12 +4355,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5173,8 +5173,8 @@
   <sheetPr/>
   <dimension ref="A2:K1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1106" workbookViewId="0">
-      <selection activeCell="M1131" sqref="M1131"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="P1312" sqref="P1312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -36689,7 +36689,7 @@
         <v>6</v>
       </c>
       <c r="F1117" s="6">
-        <f>F1116+2000</f>
+        <f t="shared" ref="F1117:F1125" si="31">F1116+2000</f>
         <v>37000</v>
       </c>
       <c r="G1117" s="6">
@@ -36716,7 +36716,7 @@
         <v>6</v>
       </c>
       <c r="F1118" s="6">
-        <f>F1117+2000</f>
+        <f t="shared" si="31"/>
         <v>39000</v>
       </c>
       <c r="G1118" s="6">
@@ -36743,7 +36743,7 @@
         <v>6</v>
       </c>
       <c r="F1119" s="6">
-        <f>F1118+2000</f>
+        <f t="shared" si="31"/>
         <v>41000</v>
       </c>
       <c r="G1119" s="6">
@@ -36770,7 +36770,7 @@
         <v>6</v>
       </c>
       <c r="F1120" s="6">
-        <f>F1119+2000</f>
+        <f t="shared" si="31"/>
         <v>43000</v>
       </c>
       <c r="G1120" s="6">
@@ -36797,7 +36797,7 @@
         <v>6</v>
       </c>
       <c r="F1121" s="6">
-        <f>F1120+2000</f>
+        <f t="shared" si="31"/>
         <v>45000</v>
       </c>
       <c r="G1121" s="6">
@@ -36824,7 +36824,7 @@
         <v>6</v>
       </c>
       <c r="F1122" s="6">
-        <f>F1121+2000</f>
+        <f t="shared" si="31"/>
         <v>47000</v>
       </c>
       <c r="G1122" s="6">
@@ -36851,7 +36851,7 @@
         <v>6</v>
       </c>
       <c r="F1123" s="6">
-        <f>F1122+2000</f>
+        <f t="shared" si="31"/>
         <v>49000</v>
       </c>
       <c r="G1123" s="6">
@@ -36878,7 +36878,7 @@
         <v>6</v>
       </c>
       <c r="F1124" s="6">
-        <f>F1123+2000</f>
+        <f t="shared" si="31"/>
         <v>51000</v>
       </c>
       <c r="G1124" s="6">
@@ -36905,7 +36905,7 @@
         <v>6</v>
       </c>
       <c r="F1125" s="6">
-        <f>F1124+2000</f>
+        <f t="shared" si="31"/>
         <v>53000</v>
       </c>
       <c r="G1125" s="6">
@@ -36932,7 +36932,7 @@
         <v>6</v>
       </c>
       <c r="F1126" s="6">
-        <f t="shared" ref="F1126:F1135" si="31">F1125+3000</f>
+        <f t="shared" ref="F1126:F1135" si="32">F1125+3000</f>
         <v>56000</v>
       </c>
       <c r="G1126" s="6">
@@ -36959,7 +36959,7 @@
         <v>6</v>
       </c>
       <c r="F1127" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>59000</v>
       </c>
       <c r="G1127" s="6">
@@ -36986,7 +36986,7 @@
         <v>6</v>
       </c>
       <c r="F1128" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>62000</v>
       </c>
       <c r="G1128" s="6">
@@ -37013,7 +37013,7 @@
         <v>6</v>
       </c>
       <c r="F1129" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>65000</v>
       </c>
       <c r="G1129" s="6">
@@ -37040,7 +37040,7 @@
         <v>6</v>
       </c>
       <c r="F1130" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>68000</v>
       </c>
       <c r="G1130" s="6">
@@ -37067,7 +37067,7 @@
         <v>6</v>
       </c>
       <c r="F1131" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>71000</v>
       </c>
       <c r="G1131" s="6">
@@ -37094,7 +37094,7 @@
         <v>6</v>
       </c>
       <c r="F1132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>74000</v>
       </c>
       <c r="G1132" s="6">
@@ -37121,7 +37121,7 @@
         <v>6</v>
       </c>
       <c r="F1133" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>77000</v>
       </c>
       <c r="G1133" s="6">
@@ -37148,7 +37148,7 @@
         <v>6</v>
       </c>
       <c r="F1134" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>80000</v>
       </c>
       <c r="G1134" s="6">
@@ -37175,7 +37175,7 @@
         <v>6</v>
       </c>
       <c r="F1135" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>83000</v>
       </c>
       <c r="G1135" s="6">
@@ -38185,7 +38185,7 @@
         <v>9</v>
       </c>
       <c r="F1176" s="6">
-        <f t="shared" ref="F1176:F1239" si="32">F1175+10</f>
+        <f t="shared" ref="F1176:F1239" si="33">F1175+10</f>
         <v>20</v>
       </c>
       <c r="G1176" s="6">
@@ -38212,7 +38212,7 @@
         <v>9</v>
       </c>
       <c r="F1177" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="G1177" s="6">
@@ -38239,7 +38239,7 @@
         <v>9</v>
       </c>
       <c r="F1178" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>40</v>
       </c>
       <c r="G1178" s="6">
@@ -38266,7 +38266,7 @@
         <v>9</v>
       </c>
       <c r="F1179" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>50</v>
       </c>
       <c r="G1179" s="6">
@@ -38293,7 +38293,7 @@
         <v>9</v>
       </c>
       <c r="F1180" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
       <c r="G1180" s="6">
@@ -38320,7 +38320,7 @@
         <v>9</v>
       </c>
       <c r="F1181" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
       <c r="G1181" s="6">
@@ -38347,7 +38347,7 @@
         <v>9</v>
       </c>
       <c r="F1182" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>80</v>
       </c>
       <c r="G1182" s="6">
@@ -38374,7 +38374,7 @@
         <v>9</v>
       </c>
       <c r="F1183" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
       <c r="G1183" s="6">
@@ -38401,7 +38401,7 @@
         <v>9</v>
       </c>
       <c r="F1184" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="G1184" s="6">
@@ -38428,7 +38428,7 @@
         <v>9</v>
       </c>
       <c r="F1185" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
       <c r="G1185" s="6">
@@ -38455,7 +38455,7 @@
         <v>9</v>
       </c>
       <c r="F1186" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>120</v>
       </c>
       <c r="G1186" s="6">
@@ -38482,7 +38482,7 @@
         <v>9</v>
       </c>
       <c r="F1187" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>130</v>
       </c>
       <c r="G1187" s="6">
@@ -38509,7 +38509,7 @@
         <v>9</v>
       </c>
       <c r="F1188" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>140</v>
       </c>
       <c r="G1188" s="6">
@@ -38536,7 +38536,7 @@
         <v>9</v>
       </c>
       <c r="F1189" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>150</v>
       </c>
       <c r="G1189" s="6">
@@ -38563,7 +38563,7 @@
         <v>9</v>
       </c>
       <c r="F1190" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>160</v>
       </c>
       <c r="G1190" s="6">
@@ -38590,7 +38590,7 @@
         <v>9</v>
       </c>
       <c r="F1191" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>170</v>
       </c>
       <c r="G1191" s="6">
@@ -38617,7 +38617,7 @@
         <v>9</v>
       </c>
       <c r="F1192" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>180</v>
       </c>
       <c r="G1192" s="6">
@@ -38644,7 +38644,7 @@
         <v>9</v>
       </c>
       <c r="F1193" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>190</v>
       </c>
       <c r="G1193" s="6">
@@ -38671,7 +38671,7 @@
         <v>9</v>
       </c>
       <c r="F1194" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>200</v>
       </c>
       <c r="G1194" s="6">
@@ -38698,7 +38698,7 @@
         <v>9</v>
       </c>
       <c r="F1195" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>210</v>
       </c>
       <c r="G1195" s="6">
@@ -38725,7 +38725,7 @@
         <v>9</v>
       </c>
       <c r="F1196" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>220</v>
       </c>
       <c r="G1196" s="6">
@@ -38752,7 +38752,7 @@
         <v>9</v>
       </c>
       <c r="F1197" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>230</v>
       </c>
       <c r="G1197" s="6">
@@ -38779,7 +38779,7 @@
         <v>9</v>
       </c>
       <c r="F1198" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>240</v>
       </c>
       <c r="G1198" s="6">
@@ -38806,7 +38806,7 @@
         <v>9</v>
       </c>
       <c r="F1199" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>250</v>
       </c>
       <c r="G1199" s="6">
@@ -38833,7 +38833,7 @@
         <v>9</v>
       </c>
       <c r="F1200" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>260</v>
       </c>
       <c r="G1200" s="6">
@@ -38860,7 +38860,7 @@
         <v>9</v>
       </c>
       <c r="F1201" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>270</v>
       </c>
       <c r="G1201" s="6">
@@ -38887,7 +38887,7 @@
         <v>9</v>
       </c>
       <c r="F1202" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>280</v>
       </c>
       <c r="G1202" s="6">
@@ -38914,7 +38914,7 @@
         <v>9</v>
       </c>
       <c r="F1203" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>290</v>
       </c>
       <c r="G1203" s="6">
@@ -38941,7 +38941,7 @@
         <v>9</v>
       </c>
       <c r="F1204" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>300</v>
       </c>
       <c r="G1204" s="6">
@@ -38968,7 +38968,7 @@
         <v>9</v>
       </c>
       <c r="F1205" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>310</v>
       </c>
       <c r="G1205" s="6">
@@ -38995,7 +38995,7 @@
         <v>9</v>
       </c>
       <c r="F1206" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>320</v>
       </c>
       <c r="G1206" s="6">
@@ -39022,7 +39022,7 @@
         <v>9</v>
       </c>
       <c r="F1207" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>330</v>
       </c>
       <c r="G1207" s="6">
@@ -39049,7 +39049,7 @@
         <v>9</v>
       </c>
       <c r="F1208" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>340</v>
       </c>
       <c r="G1208" s="6">
@@ -39076,7 +39076,7 @@
         <v>9</v>
       </c>
       <c r="F1209" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>350</v>
       </c>
       <c r="G1209" s="6">
@@ -39103,7 +39103,7 @@
         <v>9</v>
       </c>
       <c r="F1210" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>360</v>
       </c>
       <c r="G1210" s="6">
@@ -39130,7 +39130,7 @@
         <v>9</v>
       </c>
       <c r="F1211" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>370</v>
       </c>
       <c r="G1211" s="6">
@@ -39157,7 +39157,7 @@
         <v>9</v>
       </c>
       <c r="F1212" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>380</v>
       </c>
       <c r="G1212" s="6">
@@ -39184,7 +39184,7 @@
         <v>9</v>
       </c>
       <c r="F1213" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>390</v>
       </c>
       <c r="G1213" s="6">
@@ -39211,7 +39211,7 @@
         <v>9</v>
       </c>
       <c r="F1214" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>400</v>
       </c>
       <c r="G1214" s="6">
@@ -39238,7 +39238,7 @@
         <v>9</v>
       </c>
       <c r="F1215" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>410</v>
       </c>
       <c r="G1215" s="6">
@@ -39265,7 +39265,7 @@
         <v>9</v>
       </c>
       <c r="F1216" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>420</v>
       </c>
       <c r="G1216" s="6">
@@ -39292,7 +39292,7 @@
         <v>9</v>
       </c>
       <c r="F1217" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>430</v>
       </c>
       <c r="G1217" s="6">
@@ -39319,7 +39319,7 @@
         <v>9</v>
       </c>
       <c r="F1218" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>440</v>
       </c>
       <c r="G1218" s="6">
@@ -39346,7 +39346,7 @@
         <v>9</v>
       </c>
       <c r="F1219" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>450</v>
       </c>
       <c r="G1219" s="6">
@@ -39373,7 +39373,7 @@
         <v>9</v>
       </c>
       <c r="F1220" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>460</v>
       </c>
       <c r="G1220" s="6">
@@ -39400,7 +39400,7 @@
         <v>9</v>
       </c>
       <c r="F1221" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>470</v>
       </c>
       <c r="G1221" s="6">
@@ -39427,7 +39427,7 @@
         <v>9</v>
       </c>
       <c r="F1222" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>480</v>
       </c>
       <c r="G1222" s="6">
@@ -39454,7 +39454,7 @@
         <v>9</v>
       </c>
       <c r="F1223" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>490</v>
       </c>
       <c r="G1223" s="6">
@@ -39481,7 +39481,7 @@
         <v>9</v>
       </c>
       <c r="F1224" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="G1224" s="6">
@@ -39508,7 +39508,7 @@
         <v>9</v>
       </c>
       <c r="F1225" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>510</v>
       </c>
       <c r="G1225" s="6">
@@ -39535,7 +39535,7 @@
         <v>9</v>
       </c>
       <c r="F1226" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>520</v>
       </c>
       <c r="G1226" s="6">
@@ -39562,7 +39562,7 @@
         <v>9</v>
       </c>
       <c r="F1227" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>530</v>
       </c>
       <c r="G1227" s="6">
@@ -39589,7 +39589,7 @@
         <v>9</v>
       </c>
       <c r="F1228" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>540</v>
       </c>
       <c r="G1228" s="6">
@@ -39616,7 +39616,7 @@
         <v>9</v>
       </c>
       <c r="F1229" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>550</v>
       </c>
       <c r="G1229" s="6">
@@ -39643,7 +39643,7 @@
         <v>9</v>
       </c>
       <c r="F1230" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>560</v>
       </c>
       <c r="G1230" s="6">
@@ -39670,7 +39670,7 @@
         <v>9</v>
       </c>
       <c r="F1231" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>570</v>
       </c>
       <c r="G1231" s="6">
@@ -39697,7 +39697,7 @@
         <v>9</v>
       </c>
       <c r="F1232" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>580</v>
       </c>
       <c r="G1232" s="6">
@@ -39724,7 +39724,7 @@
         <v>9</v>
       </c>
       <c r="F1233" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>590</v>
       </c>
       <c r="G1233" s="6">
@@ -39751,7 +39751,7 @@
         <v>9</v>
       </c>
       <c r="F1234" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>600</v>
       </c>
       <c r="G1234" s="6">
@@ -39778,7 +39778,7 @@
         <v>9</v>
       </c>
       <c r="F1235" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>610</v>
       </c>
       <c r="G1235" s="6">
@@ -39805,7 +39805,7 @@
         <v>9</v>
       </c>
       <c r="F1236" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>620</v>
       </c>
       <c r="G1236" s="6">
@@ -39832,7 +39832,7 @@
         <v>9</v>
       </c>
       <c r="F1237" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>630</v>
       </c>
       <c r="G1237" s="6">
@@ -39859,7 +39859,7 @@
         <v>9</v>
       </c>
       <c r="F1238" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>640</v>
       </c>
       <c r="G1238" s="6">
@@ -39886,7 +39886,7 @@
         <v>9</v>
       </c>
       <c r="F1239" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>650</v>
       </c>
       <c r="G1239" s="6">
@@ -39913,7 +39913,7 @@
         <v>9</v>
       </c>
       <c r="F1240" s="6">
-        <f t="shared" ref="F1240:F1303" si="33">F1239+10</f>
+        <f t="shared" ref="F1240:F1303" si="34">F1239+10</f>
         <v>660</v>
       </c>
       <c r="G1240" s="6">
@@ -39940,7 +39940,7 @@
         <v>9</v>
       </c>
       <c r="F1241" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>670</v>
       </c>
       <c r="G1241" s="6">
@@ -39967,7 +39967,7 @@
         <v>9</v>
       </c>
       <c r="F1242" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>680</v>
       </c>
       <c r="G1242" s="6">
@@ -39994,7 +39994,7 @@
         <v>9</v>
       </c>
       <c r="F1243" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>690</v>
       </c>
       <c r="G1243" s="6">
@@ -40021,7 +40021,7 @@
         <v>9</v>
       </c>
       <c r="F1244" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>700</v>
       </c>
       <c r="G1244" s="6">
@@ -40048,7 +40048,7 @@
         <v>9</v>
       </c>
       <c r="F1245" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>710</v>
       </c>
       <c r="G1245" s="6">
@@ -40075,7 +40075,7 @@
         <v>9</v>
       </c>
       <c r="F1246" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>720</v>
       </c>
       <c r="G1246" s="6">
@@ -40102,7 +40102,7 @@
         <v>9</v>
       </c>
       <c r="F1247" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>730</v>
       </c>
       <c r="G1247" s="6">
@@ -40129,7 +40129,7 @@
         <v>9</v>
       </c>
       <c r="F1248" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>740</v>
       </c>
       <c r="G1248" s="6">
@@ -40156,7 +40156,7 @@
         <v>9</v>
       </c>
       <c r="F1249" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>750</v>
       </c>
       <c r="G1249" s="6">
@@ -40183,7 +40183,7 @@
         <v>9</v>
       </c>
       <c r="F1250" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>760</v>
       </c>
       <c r="G1250" s="6">
@@ -40210,7 +40210,7 @@
         <v>9</v>
       </c>
       <c r="F1251" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>770</v>
       </c>
       <c r="G1251" s="6">
@@ -40237,7 +40237,7 @@
         <v>9</v>
       </c>
       <c r="F1252" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>780</v>
       </c>
       <c r="G1252" s="6">
@@ -40264,7 +40264,7 @@
         <v>9</v>
       </c>
       <c r="F1253" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>790</v>
       </c>
       <c r="G1253" s="6">
@@ -40291,7 +40291,7 @@
         <v>9</v>
       </c>
       <c r="F1254" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="G1254" s="6">
@@ -40318,7 +40318,7 @@
         <v>9</v>
       </c>
       <c r="F1255" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>810</v>
       </c>
       <c r="G1255" s="6">
@@ -40345,7 +40345,7 @@
         <v>9</v>
       </c>
       <c r="F1256" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>820</v>
       </c>
       <c r="G1256" s="6">
@@ -40372,7 +40372,7 @@
         <v>9</v>
       </c>
       <c r="F1257" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>830</v>
       </c>
       <c r="G1257" s="6">
@@ -40399,7 +40399,7 @@
         <v>9</v>
       </c>
       <c r="F1258" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>840</v>
       </c>
       <c r="G1258" s="6">
@@ -40426,7 +40426,7 @@
         <v>9</v>
       </c>
       <c r="F1259" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>850</v>
       </c>
       <c r="G1259" s="6">
@@ -40453,7 +40453,7 @@
         <v>9</v>
       </c>
       <c r="F1260" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>860</v>
       </c>
       <c r="G1260" s="6">
@@ -40480,7 +40480,7 @@
         <v>9</v>
       </c>
       <c r="F1261" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>870</v>
       </c>
       <c r="G1261" s="6">
@@ -40507,7 +40507,7 @@
         <v>9</v>
       </c>
       <c r="F1262" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>880</v>
       </c>
       <c r="G1262" s="6">
@@ -40534,7 +40534,7 @@
         <v>9</v>
       </c>
       <c r="F1263" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>890</v>
       </c>
       <c r="G1263" s="6">
@@ -40561,7 +40561,7 @@
         <v>9</v>
       </c>
       <c r="F1264" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>900</v>
       </c>
       <c r="G1264" s="6">
@@ -40588,7 +40588,7 @@
         <v>9</v>
       </c>
       <c r="F1265" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>910</v>
       </c>
       <c r="G1265" s="6">
@@ -40615,7 +40615,7 @@
         <v>9</v>
       </c>
       <c r="F1266" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>920</v>
       </c>
       <c r="G1266" s="6">
@@ -40642,7 +40642,7 @@
         <v>9</v>
       </c>
       <c r="F1267" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>930</v>
       </c>
       <c r="G1267" s="6">
@@ -40669,7 +40669,7 @@
         <v>9</v>
       </c>
       <c r="F1268" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>940</v>
       </c>
       <c r="G1268" s="6">
@@ -40696,7 +40696,7 @@
         <v>9</v>
       </c>
       <c r="F1269" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>950</v>
       </c>
       <c r="G1269" s="6">
@@ -40723,7 +40723,7 @@
         <v>9</v>
       </c>
       <c r="F1270" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>960</v>
       </c>
       <c r="G1270" s="6">
@@ -40750,7 +40750,7 @@
         <v>9</v>
       </c>
       <c r="F1271" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>970</v>
       </c>
       <c r="G1271" s="6">
@@ -40777,7 +40777,7 @@
         <v>9</v>
       </c>
       <c r="F1272" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>980</v>
       </c>
       <c r="G1272" s="6">
@@ -40804,7 +40804,7 @@
         <v>9</v>
       </c>
       <c r="F1273" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>990</v>
       </c>
       <c r="G1273" s="6">
@@ -40831,7 +40831,7 @@
         <v>9</v>
       </c>
       <c r="F1274" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="G1274" s="6">
@@ -40858,7 +40858,7 @@
         <v>9</v>
       </c>
       <c r="F1275" s="6">
-        <f t="shared" ref="F1275:F1324" si="34">F1274+20</f>
+        <f t="shared" ref="F1275:F1324" si="35">F1274+20</f>
         <v>1020</v>
       </c>
       <c r="G1275" s="6">
@@ -40868,7 +40868,7 @@
         <v>18</v>
       </c>
       <c r="I1275" s="6">
-        <f t="shared" ref="I1275:I1324" si="35">I1271+10</f>
+        <f t="shared" ref="I1275:I1324" si="36">I1271+10</f>
         <v>300</v>
       </c>
       <c r="J1275" s="6" t="s">
@@ -40886,7 +40886,7 @@
         <v>9</v>
       </c>
       <c r="F1276" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1040</v>
       </c>
       <c r="G1276" s="6">
@@ -40896,7 +40896,7 @@
         <v>19</v>
       </c>
       <c r="I1276" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>300</v>
       </c>
       <c r="J1276" s="6" t="s">
@@ -40914,7 +40914,7 @@
         <v>9</v>
       </c>
       <c r="F1277" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1060</v>
       </c>
       <c r="G1277" s="6">
@@ -40924,7 +40924,7 @@
         <v>20</v>
       </c>
       <c r="I1277" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>300</v>
       </c>
       <c r="J1277" s="6" t="s">
@@ -40942,7 +40942,7 @@
         <v>9</v>
       </c>
       <c r="F1278" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1080</v>
       </c>
       <c r="G1278" s="6">
@@ -40952,7 +40952,7 @@
         <v>24</v>
       </c>
       <c r="I1278" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>300</v>
       </c>
       <c r="J1278" s="6" t="s">
@@ -40970,7 +40970,7 @@
         <v>9</v>
       </c>
       <c r="F1279" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1100</v>
       </c>
       <c r="G1279" s="6">
@@ -40980,7 +40980,7 @@
         <v>18</v>
       </c>
       <c r="I1279" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>310</v>
       </c>
       <c r="J1279" s="6" t="s">
@@ -40998,7 +40998,7 @@
         <v>9</v>
       </c>
       <c r="F1280" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1120</v>
       </c>
       <c r="G1280" s="6">
@@ -41008,7 +41008,7 @@
         <v>19</v>
       </c>
       <c r="I1280" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>310</v>
       </c>
       <c r="J1280" s="6" t="s">
@@ -41026,7 +41026,7 @@
         <v>9</v>
       </c>
       <c r="F1281" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1140</v>
       </c>
       <c r="G1281" s="6">
@@ -41036,7 +41036,7 @@
         <v>20</v>
       </c>
       <c r="I1281" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>310</v>
       </c>
       <c r="J1281" s="6" t="s">
@@ -41054,7 +41054,7 @@
         <v>9</v>
       </c>
       <c r="F1282" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1160</v>
       </c>
       <c r="G1282" s="6">
@@ -41064,7 +41064,7 @@
         <v>24</v>
       </c>
       <c r="I1282" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>310</v>
       </c>
       <c r="J1282" s="6" t="s">
@@ -41082,7 +41082,7 @@
         <v>9</v>
       </c>
       <c r="F1283" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1180</v>
       </c>
       <c r="G1283" s="6">
@@ -41092,7 +41092,7 @@
         <v>18</v>
       </c>
       <c r="I1283" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>320</v>
       </c>
       <c r="J1283" s="6" t="s">
@@ -41110,7 +41110,7 @@
         <v>9</v>
       </c>
       <c r="F1284" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1200</v>
       </c>
       <c r="G1284" s="6">
@@ -41120,7 +41120,7 @@
         <v>19</v>
       </c>
       <c r="I1284" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>320</v>
       </c>
       <c r="J1284" s="6" t="s">
@@ -41138,7 +41138,7 @@
         <v>9</v>
       </c>
       <c r="F1285" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1220</v>
       </c>
       <c r="G1285" s="6">
@@ -41148,7 +41148,7 @@
         <v>20</v>
       </c>
       <c r="I1285" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>320</v>
       </c>
       <c r="J1285" s="6" t="s">
@@ -41166,7 +41166,7 @@
         <v>9</v>
       </c>
       <c r="F1286" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1240</v>
       </c>
       <c r="G1286" s="6">
@@ -41176,7 +41176,7 @@
         <v>24</v>
       </c>
       <c r="I1286" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>320</v>
       </c>
       <c r="J1286" s="6" t="s">
@@ -41194,7 +41194,7 @@
         <v>9</v>
       </c>
       <c r="F1287" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1260</v>
       </c>
       <c r="G1287" s="6">
@@ -41204,7 +41204,7 @@
         <v>18</v>
       </c>
       <c r="I1287" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>330</v>
       </c>
       <c r="J1287" s="6" t="s">
@@ -41222,7 +41222,7 @@
         <v>9</v>
       </c>
       <c r="F1288" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1280</v>
       </c>
       <c r="G1288" s="6">
@@ -41232,7 +41232,7 @@
         <v>19</v>
       </c>
       <c r="I1288" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>330</v>
       </c>
       <c r="J1288" s="6" t="s">
@@ -41250,7 +41250,7 @@
         <v>9</v>
       </c>
       <c r="F1289" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1300</v>
       </c>
       <c r="G1289" s="6">
@@ -41260,7 +41260,7 @@
         <v>20</v>
       </c>
       <c r="I1289" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>330</v>
       </c>
       <c r="J1289" s="6" t="s">
@@ -41278,7 +41278,7 @@
         <v>9</v>
       </c>
       <c r="F1290" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1320</v>
       </c>
       <c r="G1290" s="6">
@@ -41288,7 +41288,7 @@
         <v>24</v>
       </c>
       <c r="I1290" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>330</v>
       </c>
       <c r="J1290" s="6" t="s">
@@ -41306,7 +41306,7 @@
         <v>9</v>
       </c>
       <c r="F1291" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1340</v>
       </c>
       <c r="G1291" s="6">
@@ -41316,7 +41316,7 @@
         <v>18</v>
       </c>
       <c r="I1291" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>340</v>
       </c>
       <c r="J1291" s="6" t="s">
@@ -41334,7 +41334,7 @@
         <v>9</v>
       </c>
       <c r="F1292" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1360</v>
       </c>
       <c r="G1292" s="6">
@@ -41344,7 +41344,7 @@
         <v>19</v>
       </c>
       <c r="I1292" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>340</v>
       </c>
       <c r="J1292" s="6" t="s">
@@ -41362,7 +41362,7 @@
         <v>9</v>
       </c>
       <c r="F1293" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1380</v>
       </c>
       <c r="G1293" s="6">
@@ -41372,7 +41372,7 @@
         <v>20</v>
       </c>
       <c r="I1293" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>340</v>
       </c>
       <c r="J1293" s="6" t="s">
@@ -41390,7 +41390,7 @@
         <v>9</v>
       </c>
       <c r="F1294" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1400</v>
       </c>
       <c r="G1294" s="6">
@@ -41400,7 +41400,7 @@
         <v>24</v>
       </c>
       <c r="I1294" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>340</v>
       </c>
       <c r="J1294" s="6" t="s">
@@ -41418,7 +41418,7 @@
         <v>9</v>
       </c>
       <c r="F1295" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1420</v>
       </c>
       <c r="G1295" s="6">
@@ -41428,7 +41428,7 @@
         <v>18</v>
       </c>
       <c r="I1295" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>350</v>
       </c>
       <c r="J1295" s="6" t="s">
@@ -41446,7 +41446,7 @@
         <v>9</v>
       </c>
       <c r="F1296" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1440</v>
       </c>
       <c r="G1296" s="6">
@@ -41456,7 +41456,7 @@
         <v>19</v>
       </c>
       <c r="I1296" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>350</v>
       </c>
       <c r="J1296" s="6" t="s">
@@ -41474,7 +41474,7 @@
         <v>9</v>
       </c>
       <c r="F1297" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1460</v>
       </c>
       <c r="G1297" s="6">
@@ -41484,7 +41484,7 @@
         <v>20</v>
       </c>
       <c r="I1297" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>350</v>
       </c>
       <c r="J1297" s="6" t="s">
@@ -41502,7 +41502,7 @@
         <v>9</v>
       </c>
       <c r="F1298" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1480</v>
       </c>
       <c r="G1298" s="6">
@@ -41512,7 +41512,7 @@
         <v>24</v>
       </c>
       <c r="I1298" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>350</v>
       </c>
       <c r="J1298" s="6" t="s">
@@ -41530,7 +41530,7 @@
         <v>9</v>
       </c>
       <c r="F1299" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1500</v>
       </c>
       <c r="G1299" s="6">
@@ -41540,20 +41540,14 @@
         <v>18</v>
       </c>
       <c r="I1299" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="J1299" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1300" customHeight="1" spans="1:10">
-      <c r="A1300" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1300" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1300" customHeight="1" spans="3:10">
       <c r="C1300" s="6">
         <v>9126</v>
       </c>
@@ -41564,7 +41558,7 @@
         <v>9</v>
       </c>
       <c r="F1300" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1520</v>
       </c>
       <c r="G1300" s="6">
@@ -41574,20 +41568,14 @@
         <v>19</v>
       </c>
       <c r="I1300" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="J1300" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1301" customHeight="1" spans="1:10">
-      <c r="A1301" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1301" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1301" customHeight="1" spans="3:10">
       <c r="C1301" s="6">
         <v>9127</v>
       </c>
@@ -41598,7 +41586,7 @@
         <v>9</v>
       </c>
       <c r="F1301" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1540</v>
       </c>
       <c r="G1301" s="6">
@@ -41608,20 +41596,14 @@
         <v>20</v>
       </c>
       <c r="I1301" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="J1301" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1302" customHeight="1" spans="1:10">
-      <c r="A1302" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1302" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1302" customHeight="1" spans="3:10">
       <c r="C1302" s="6">
         <v>9128</v>
       </c>
@@ -41632,7 +41614,7 @@
         <v>9</v>
       </c>
       <c r="F1302" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1560</v>
       </c>
       <c r="G1302" s="6">
@@ -41642,20 +41624,14 @@
         <v>24</v>
       </c>
       <c r="I1302" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="J1302" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1303" customHeight="1" spans="1:10">
-      <c r="A1303" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1303" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1303" customHeight="1" spans="3:10">
       <c r="C1303" s="6">
         <v>9129</v>
       </c>
@@ -41666,7 +41642,7 @@
         <v>9</v>
       </c>
       <c r="F1303" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1580</v>
       </c>
       <c r="G1303" s="6">
@@ -41676,20 +41652,14 @@
         <v>18</v>
       </c>
       <c r="I1303" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>370</v>
       </c>
       <c r="J1303" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1304" customHeight="1" spans="1:10">
-      <c r="A1304" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1304" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1304" customHeight="1" spans="3:10">
       <c r="C1304" s="6">
         <v>9130</v>
       </c>
@@ -41700,7 +41670,7 @@
         <v>9</v>
       </c>
       <c r="F1304" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1600</v>
       </c>
       <c r="G1304" s="6">
@@ -41710,20 +41680,14 @@
         <v>19</v>
       </c>
       <c r="I1304" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>370</v>
       </c>
       <c r="J1304" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1305" customHeight="1" spans="1:10">
-      <c r="A1305" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1305" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1305" customHeight="1" spans="3:10">
       <c r="C1305" s="6">
         <v>9131</v>
       </c>
@@ -41734,7 +41698,7 @@
         <v>9</v>
       </c>
       <c r="F1305" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1620</v>
       </c>
       <c r="G1305" s="6">
@@ -41744,20 +41708,14 @@
         <v>20</v>
       </c>
       <c r="I1305" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>370</v>
       </c>
       <c r="J1305" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1306" customHeight="1" spans="1:10">
-      <c r="A1306" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1306" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1306" customHeight="1" spans="3:10">
       <c r="C1306" s="6">
         <v>9132</v>
       </c>
@@ -41768,7 +41726,7 @@
         <v>9</v>
       </c>
       <c r="F1306" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1640</v>
       </c>
       <c r="G1306" s="6">
@@ -41778,20 +41736,14 @@
         <v>24</v>
       </c>
       <c r="I1306" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>370</v>
       </c>
       <c r="J1306" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1307" customHeight="1" spans="1:10">
-      <c r="A1307" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1307" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1307" customHeight="1" spans="3:10">
       <c r="C1307" s="6">
         <v>9133</v>
       </c>
@@ -41802,7 +41754,7 @@
         <v>9</v>
       </c>
       <c r="F1307" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1660</v>
       </c>
       <c r="G1307" s="6">
@@ -41812,20 +41764,14 @@
         <v>18</v>
       </c>
       <c r="I1307" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>380</v>
       </c>
       <c r="J1307" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1308" customHeight="1" spans="1:10">
-      <c r="A1308" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1308" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1308" customHeight="1" spans="3:10">
       <c r="C1308" s="6">
         <v>9134</v>
       </c>
@@ -41836,7 +41782,7 @@
         <v>9</v>
       </c>
       <c r="F1308" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1680</v>
       </c>
       <c r="G1308" s="6">
@@ -41846,20 +41792,14 @@
         <v>19</v>
       </c>
       <c r="I1308" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>380</v>
       </c>
       <c r="J1308" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1309" customHeight="1" spans="1:10">
-      <c r="A1309" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1309" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1309" customHeight="1" spans="3:10">
       <c r="C1309" s="6">
         <v>9135</v>
       </c>
@@ -41870,7 +41810,7 @@
         <v>9</v>
       </c>
       <c r="F1309" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1700</v>
       </c>
       <c r="G1309" s="6">
@@ -41880,20 +41820,14 @@
         <v>20</v>
       </c>
       <c r="I1309" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>380</v>
       </c>
       <c r="J1309" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1310" customHeight="1" spans="1:10">
-      <c r="A1310" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1310" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1310" customHeight="1" spans="3:10">
       <c r="C1310" s="6">
         <v>9136</v>
       </c>
@@ -41904,7 +41838,7 @@
         <v>9</v>
       </c>
       <c r="F1310" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1720</v>
       </c>
       <c r="G1310" s="6">
@@ -41914,20 +41848,14 @@
         <v>24</v>
       </c>
       <c r="I1310" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>380</v>
       </c>
       <c r="J1310" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1311" customHeight="1" spans="1:10">
-      <c r="A1311" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1311" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1311" customHeight="1" spans="3:10">
       <c r="C1311" s="6">
         <v>9137</v>
       </c>
@@ -41938,7 +41866,7 @@
         <v>9</v>
       </c>
       <c r="F1311" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1740</v>
       </c>
       <c r="G1311" s="6">
@@ -41948,20 +41876,14 @@
         <v>18</v>
       </c>
       <c r="I1311" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>390</v>
       </c>
       <c r="J1311" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1312" customHeight="1" spans="1:10">
-      <c r="A1312" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1312" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1312" customHeight="1" spans="3:10">
       <c r="C1312" s="6">
         <v>9138</v>
       </c>
@@ -41972,7 +41894,7 @@
         <v>9</v>
       </c>
       <c r="F1312" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1760</v>
       </c>
       <c r="G1312" s="6">
@@ -41982,20 +41904,14 @@
         <v>19</v>
       </c>
       <c r="I1312" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>390</v>
       </c>
       <c r="J1312" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1313" customHeight="1" spans="1:10">
-      <c r="A1313" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1313" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1313" customHeight="1" spans="3:10">
       <c r="C1313" s="6">
         <v>9139</v>
       </c>
@@ -42006,7 +41922,7 @@
         <v>9</v>
       </c>
       <c r="F1313" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1780</v>
       </c>
       <c r="G1313" s="6">
@@ -42016,20 +41932,14 @@
         <v>20</v>
       </c>
       <c r="I1313" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>390</v>
       </c>
       <c r="J1313" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1314" customHeight="1" spans="1:10">
-      <c r="A1314" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1314" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1314" customHeight="1" spans="3:10">
       <c r="C1314" s="6">
         <v>9140</v>
       </c>
@@ -42040,7 +41950,7 @@
         <v>9</v>
       </c>
       <c r="F1314" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1800</v>
       </c>
       <c r="G1314" s="6">
@@ -42050,20 +41960,14 @@
         <v>24</v>
       </c>
       <c r="I1314" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>390</v>
       </c>
       <c r="J1314" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1315" customHeight="1" spans="1:10">
-      <c r="A1315" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1315" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1315" customHeight="1" spans="3:10">
       <c r="C1315" s="6">
         <v>9141</v>
       </c>
@@ -42074,7 +41978,7 @@
         <v>9</v>
       </c>
       <c r="F1315" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1820</v>
       </c>
       <c r="G1315" s="6">
@@ -42084,20 +41988,14 @@
         <v>18</v>
       </c>
       <c r="I1315" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>400</v>
       </c>
       <c r="J1315" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1316" customHeight="1" spans="1:10">
-      <c r="A1316" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1316" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1316" customHeight="1" spans="3:10">
       <c r="C1316" s="6">
         <v>9142</v>
       </c>
@@ -42108,7 +42006,7 @@
         <v>9</v>
       </c>
       <c r="F1316" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1840</v>
       </c>
       <c r="G1316" s="6">
@@ -42118,20 +42016,14 @@
         <v>19</v>
       </c>
       <c r="I1316" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>400</v>
       </c>
       <c r="J1316" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1317" customHeight="1" spans="1:10">
-      <c r="A1317" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1317" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1317" customHeight="1" spans="3:10">
       <c r="C1317" s="6">
         <v>9143</v>
       </c>
@@ -42142,7 +42034,7 @@
         <v>9</v>
       </c>
       <c r="F1317" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1860</v>
       </c>
       <c r="G1317" s="6">
@@ -42152,20 +42044,14 @@
         <v>20</v>
       </c>
       <c r="I1317" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>400</v>
       </c>
       <c r="J1317" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1318" customHeight="1" spans="1:10">
-      <c r="A1318" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1318" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1318" customHeight="1" spans="3:10">
       <c r="C1318" s="6">
         <v>9144</v>
       </c>
@@ -42176,7 +42062,7 @@
         <v>9</v>
       </c>
       <c r="F1318" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1880</v>
       </c>
       <c r="G1318" s="6">
@@ -42186,20 +42072,14 @@
         <v>24</v>
       </c>
       <c r="I1318" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>400</v>
       </c>
       <c r="J1318" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1319" customHeight="1" spans="1:10">
-      <c r="A1319" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1319" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1319" customHeight="1" spans="3:10">
       <c r="C1319" s="6">
         <v>9145</v>
       </c>
@@ -42210,7 +42090,7 @@
         <v>9</v>
       </c>
       <c r="F1319" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1900</v>
       </c>
       <c r="G1319" s="6">
@@ -42220,20 +42100,14 @@
         <v>18</v>
       </c>
       <c r="I1319" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>410</v>
       </c>
       <c r="J1319" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1320" customHeight="1" spans="1:10">
-      <c r="A1320" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1320" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1320" customHeight="1" spans="3:10">
       <c r="C1320" s="6">
         <v>9146</v>
       </c>
@@ -42244,7 +42118,7 @@
         <v>9</v>
       </c>
       <c r="F1320" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1920</v>
       </c>
       <c r="G1320" s="6">
@@ -42254,20 +42128,14 @@
         <v>19</v>
       </c>
       <c r="I1320" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>410</v>
       </c>
       <c r="J1320" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1321" customHeight="1" spans="1:10">
-      <c r="A1321" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1321" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1321" customHeight="1" spans="3:10">
       <c r="C1321" s="6">
         <v>9147</v>
       </c>
@@ -42278,7 +42146,7 @@
         <v>9</v>
       </c>
       <c r="F1321" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1940</v>
       </c>
       <c r="G1321" s="6">
@@ -42288,20 +42156,14 @@
         <v>20</v>
       </c>
       <c r="I1321" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>410</v>
       </c>
       <c r="J1321" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1322" customHeight="1" spans="1:10">
-      <c r="A1322" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1322" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1322" customHeight="1" spans="3:10">
       <c r="C1322" s="6">
         <v>9148</v>
       </c>
@@ -42312,7 +42174,7 @@
         <v>9</v>
       </c>
       <c r="F1322" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1960</v>
       </c>
       <c r="G1322" s="6">
@@ -42322,20 +42184,14 @@
         <v>24</v>
       </c>
       <c r="I1322" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>410</v>
       </c>
       <c r="J1322" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1323" customHeight="1" spans="1:10">
-      <c r="A1323" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1323" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1323" customHeight="1" spans="3:10">
       <c r="C1323" s="6">
         <v>9149</v>
       </c>
@@ -42346,7 +42202,7 @@
         <v>9</v>
       </c>
       <c r="F1323" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1980</v>
       </c>
       <c r="G1323" s="6">
@@ -42356,20 +42212,14 @@
         <v>18</v>
       </c>
       <c r="I1323" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>420</v>
       </c>
       <c r="J1323" s="6" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1324" customHeight="1" spans="1:10">
-      <c r="A1324" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1324" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1324" customHeight="1" spans="3:10">
       <c r="C1324" s="6">
         <v>9150</v>
       </c>
@@ -42380,7 +42230,7 @@
         <v>9</v>
       </c>
       <c r="F1324" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2000</v>
       </c>
       <c r="G1324" s="6">
@@ -42390,7 +42240,7 @@
         <v>19</v>
       </c>
       <c r="I1324" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>420</v>
       </c>
       <c r="J1324" s="6" t="s">
